--- a/Weekly Planner.xlsx
+++ b/Weekly Planner.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SoftwareProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFD6DD9-CD33-44EB-885D-1D70DEF65ADF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1228247C-BA6E-4DE2-8CFF-737A367B7DB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Planner" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="85">
   <si>
     <t>Monday</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Project  - (50%)</t>
   </si>
   <si>
-    <t>CA1 - (20%)</t>
-  </si>
-  <si>
     <t>✔️/✖️</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
   </si>
   <si>
     <t>R/Python Support</t>
-  </si>
-  <si>
-    <t>Reading Week</t>
   </si>
   <si>
     <t>Project Pitch video</t>
@@ -253,13 +247,54 @@
     <t>*Lab 5 is outdated. Had to try using rtweet instead of twitteR. Stuck on rows.</t>
   </si>
   <si>
-    <t>Software Project - Requirements Specialisations</t>
-  </si>
-  <si>
     <t>⇊ Supervisor meeting (11:00)</t>
   </si>
   <si>
     <t>Grocery Shopping</t>
+  </si>
+  <si>
+    <t>Reading week</t>
+  </si>
+  <si>
+    <t>Software Project - Project Proposal</t>
+  </si>
+  <si>
+    <t>Data Application Dev - Datasets Description</t>
+  </si>
+  <si>
+    <t>S Proj - Journal</t>
+  </si>
+  <si>
+    <t>Hallowe'en</t>
+  </si>
+  <si>
+    <t>Data Application Dev - CA2</t>
+  </si>
+  <si>
+    <t>Day off</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DAD - Datasets Desc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u val="double"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MON 4/11)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">CA1 - (20%) </t>
+  </si>
+  <si>
+    <t>Datsets Description</t>
   </si>
 </sst>
 </file>
@@ -356,14 +391,15 @@
     </font>
     <font>
       <b/>
+      <u val="double"/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,13 +458,8 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="33">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -571,30 +602,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -674,19 +683,6 @@
       <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -813,7 +809,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -825,9 +821,8 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -996,25 +991,67 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="11" borderId="4" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="9" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="16" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="9" fillId="6" borderId="21" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="9" fillId="6" borderId="4" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1026,67 +1063,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="5" borderId="27" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="18" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1095,65 +1081,32 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="23" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" xfId="11" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="20" fontId="6" fillId="11" borderId="4" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="20" fontId="4" fillId="5" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1167,19 +1120,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="9" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="29" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="6" builtinId="30"/>
     <cellStyle name="Accent2" xfId="7" builtinId="33"/>
     <cellStyle name="Accent6" xfId="10" builtinId="49"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22"/>
     <cellStyle name="Check Cell" xfId="9" builtinId="23"/>
     <cellStyle name="Explanatory Text" xfId="5" builtinId="53"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1474,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E58" activeCellId="1" sqref="J58:P58 E58:G58"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72:K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1828,7 +1795,7 @@
         <v>43724</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="59">
         <v>1</v>
@@ -1858,26 +1825,26 @@
       <c r="B13" s="57">
         <v>43724</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="78"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="76"/>
       <c r="S13" s="51"/>
       <c r="T13" s="30" t="s">
         <v>22</v>
@@ -1890,26 +1857,26 @@
       <c r="B14" s="57">
         <v>43725</v>
       </c>
-      <c r="C14" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="75"/>
+      <c r="C14" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14" s="78"/>
+      <c r="J14" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" s="76"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="51"/>
@@ -1952,20 +1919,20 @@
       <c r="B16" s="57">
         <v>43727</v>
       </c>
-      <c r="C16" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
+      <c r="C16" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
@@ -2138,7 +2105,7 @@
         <v>43731</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="59">
         <f>C12+1</f>
@@ -2170,26 +2137,26 @@
         <f>B13+7</f>
         <v>43731</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="76"/>
       <c r="S23" s="51"/>
       <c r="T23" s="30" t="s">
         <v>22</v>
@@ -2203,30 +2170,30 @@
         <f t="shared" ref="B24:B29" si="0">B14+7</f>
         <v>43732</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="86"/>
+      <c r="J24" s="83" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="84"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="N24" s="85"/>
+      <c r="O24" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" s="105"/>
-      <c r="J24" s="99" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24" s="81"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="99" t="s">
-        <v>58</v>
-      </c>
-      <c r="N24" s="100"/>
-      <c r="O24" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="P24" s="75"/>
+      <c r="P24" s="89"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
       <c r="S24" s="51"/>
@@ -2271,20 +2238,20 @@
         <f t="shared" si="0"/>
         <v>43734</v>
       </c>
-      <c r="C26" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="97" t="s">
-        <v>59</v>
-      </c>
-      <c r="I26" s="97"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="97"/>
+      <c r="C26" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
@@ -2460,18 +2427,18 @@
         <v>43738</v>
       </c>
       <c r="B32" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="59">
         <f>C22+1</f>
         <v>3</v>
       </c>
-      <c r="D32" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
+      <c r="D32" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
@@ -2494,24 +2461,24 @@
         <f>B23+7</f>
         <v>43738</v>
       </c>
-      <c r="C33" s="76" t="s">
+      <c r="C33" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="97" t="s">
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="97"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="97"/>
-      <c r="L33" s="97"/>
-      <c r="M33" s="97"/>
-      <c r="N33" s="97"/>
-      <c r="O33" s="97"/>
-      <c r="P33" s="97"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
       <c r="Q33" s="62"/>
       <c r="R33" s="62"/>
       <c r="S33" s="51"/>
@@ -2527,13 +2494,13 @@
         <f t="shared" ref="B34:B39" si="1">B24+7</f>
         <v>43739</v>
       </c>
-      <c r="C34" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="78"/>
+      <c r="C34" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
       <c r="H34" s="62"/>
       <c r="I34" s="62"/>
       <c r="J34" s="62"/>
@@ -2587,13 +2554,13 @@
         <f t="shared" si="1"/>
         <v>43741</v>
       </c>
-      <c r="C36" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="78"/>
+      <c r="C36" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="63"/>
@@ -2774,7 +2741,7 @@
         <v>43745</v>
       </c>
       <c r="B42" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="59">
         <f>C32+1</f>
@@ -2806,24 +2773,24 @@
         <f>B33+7</f>
         <v>43745</v>
       </c>
-      <c r="C43" s="73" t="s">
+      <c r="C43" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="98" t="s">
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="98"/>
-      <c r="J43" s="98"/>
-      <c r="K43" s="98"/>
-      <c r="L43" s="98"/>
-      <c r="M43" s="98"/>
-      <c r="N43" s="98"/>
-      <c r="O43" s="98"/>
-      <c r="P43" s="98"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="95"/>
+      <c r="P43" s="95"/>
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
       <c r="S43" s="51"/>
@@ -2839,22 +2806,22 @@
         <f t="shared" ref="B44:B49" si="2">B34+7</f>
         <v>43746</v>
       </c>
-      <c r="C44" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="I44" s="86"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="86"/>
-      <c r="M44" s="86"/>
-      <c r="N44" s="86"/>
+      <c r="C44" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="I44" s="99"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="99"/>
+      <c r="M44" s="99"/>
+      <c r="N44" s="99"/>
       <c r="O44" s="49"/>
       <c r="P44" s="49"/>
       <c r="Q44" s="49"/>
@@ -2877,17 +2844,17 @@
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
-      <c r="H45" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="I45" s="95"/>
-      <c r="J45" s="95"/>
-      <c r="K45" s="95"/>
-      <c r="L45" s="95"/>
-      <c r="M45" s="95"/>
-      <c r="N45" s="95"/>
-      <c r="O45" s="95"/>
-      <c r="P45" s="96"/>
+      <c r="H45" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="92"/>
+      <c r="L45" s="92"/>
+      <c r="M45" s="92"/>
+      <c r="N45" s="92"/>
+      <c r="O45" s="92"/>
+      <c r="P45" s="93"/>
       <c r="Q45" s="49"/>
       <c r="R45" s="49"/>
       <c r="S45" s="51"/>
@@ -2903,24 +2870,24 @@
         <f t="shared" si="2"/>
         <v>43748</v>
       </c>
-      <c r="C46" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="83"/>
-      <c r="L46" s="83"/>
-      <c r="M46" s="83"/>
-      <c r="N46" s="83"/>
-      <c r="O46" s="83"/>
-      <c r="P46" s="84"/>
+      <c r="C46" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="I46" s="81"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="81"/>
+      <c r="L46" s="81"/>
+      <c r="M46" s="81"/>
+      <c r="N46" s="81"/>
+      <c r="O46" s="81"/>
+      <c r="P46" s="97"/>
       <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
       <c r="S46" s="51"/>
@@ -3092,23 +3059,18 @@
         <v>43752</v>
       </c>
       <c r="B52" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C52" s="59">
         <f>C42+1</f>
         <v>5</v>
       </c>
-      <c r="D52" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="E52" s="92"/>
-      <c r="F52" s="92"/>
       <c r="G52" s="15"/>
-      <c r="H52" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="I52" s="87"/>
-      <c r="J52" s="87"/>
+      <c r="H52" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="I52" s="104"/>
+      <c r="J52" s="104"/>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
       <c r="M52" s="19"/>
@@ -3128,23 +3090,23 @@
         <f>B43+7</f>
         <v>43752</v>
       </c>
-      <c r="C53" s="73" t="s">
+      <c r="C53" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="75"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="79"/>
       <c r="H53" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="I53" s="99" t="s">
+        <v>68</v>
+      </c>
+      <c r="I53" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="81"/>
-      <c r="K53" s="81"/>
-      <c r="L53" s="81"/>
-      <c r="M53" s="81"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="84"/>
       <c r="N53" s="49"/>
       <c r="O53" s="49"/>
       <c r="P53" s="49"/>
@@ -3163,28 +3125,28 @@
         <f t="shared" ref="B54:B59" si="3">B44+7</f>
         <v>43753</v>
       </c>
-      <c r="C54" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" s="74"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="107" t="s">
-        <v>65</v>
-      </c>
-      <c r="I54" s="108"/>
-      <c r="J54" s="108"/>
-      <c r="K54" s="108"/>
-      <c r="L54" s="108"/>
-      <c r="M54" s="108"/>
-      <c r="N54" s="108"/>
-      <c r="O54" s="108"/>
-      <c r="P54" s="108"/>
-      <c r="Q54" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="R54" s="78"/>
+      <c r="C54" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="79"/>
+      <c r="H54" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="I54" s="78"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="78"/>
+      <c r="L54" s="78"/>
+      <c r="M54" s="78"/>
+      <c r="N54" s="78"/>
+      <c r="O54" s="78"/>
+      <c r="P54" s="78"/>
+      <c r="Q54" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="R54" s="76"/>
       <c r="S54" s="51"/>
       <c r="T54" s="53" t="s">
         <v>19</v>
@@ -3203,17 +3165,17 @@
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
       <c r="G55" s="79" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H55" s="79"/>
-      <c r="I55" s="80" t="s">
+      <c r="I55" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="J55" s="81"/>
-      <c r="K55" s="81"/>
-      <c r="L55" s="81"/>
-      <c r="M55" s="81"/>
-      <c r="N55" s="81"/>
+      <c r="J55" s="84"/>
+      <c r="K55" s="84"/>
+      <c r="L55" s="84"/>
+      <c r="M55" s="84"/>
+      <c r="N55" s="84"/>
       <c r="O55" s="49"/>
       <c r="P55" s="49"/>
       <c r="Q55" s="49"/>
@@ -3231,21 +3193,21 @@
         <f t="shared" si="3"/>
         <v>43755</v>
       </c>
-      <c r="C56" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="104" t="s">
-        <v>73</v>
-      </c>
-      <c r="I56" s="86"/>
-      <c r="J56" s="86"/>
-      <c r="K56" s="86"/>
-      <c r="L56" s="86"/>
-      <c r="M56" s="86"/>
+      <c r="C56" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="I56" s="99"/>
+      <c r="J56" s="99"/>
+      <c r="K56" s="99"/>
+      <c r="L56" s="99"/>
+      <c r="M56" s="99"/>
       <c r="N56" s="49"/>
       <c r="O56" s="49"/>
       <c r="P56" s="49"/>
@@ -3277,11 +3239,11 @@
       <c r="M57" s="49"/>
       <c r="N57" s="49"/>
       <c r="O57" s="49"/>
-      <c r="P57" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q57" s="83"/>
-      <c r="R57" s="84"/>
+      <c r="P57" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q57" s="81"/>
+      <c r="R57" s="97"/>
       <c r="S57" s="51"/>
       <c r="T57" s="51"/>
     </row>
@@ -3295,31 +3257,31 @@
       </c>
       <c r="C58" s="50"/>
       <c r="D58" s="49"/>
-      <c r="E58" s="123" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" s="83"/>
-      <c r="G58" s="124"/>
+      <c r="E58" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" s="81"/>
+      <c r="G58" s="82"/>
       <c r="H58" s="79" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I58" s="79"/>
-      <c r="J58" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="K58" s="81"/>
-      <c r="L58" s="81"/>
-      <c r="M58" s="81"/>
-      <c r="N58" s="81"/>
-      <c r="O58" s="81"/>
-      <c r="P58" s="100"/>
+      <c r="J58" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="K58" s="84"/>
+      <c r="L58" s="84"/>
+      <c r="M58" s="84"/>
+      <c r="N58" s="84"/>
+      <c r="O58" s="84"/>
+      <c r="P58" s="85"/>
       <c r="Q58" s="20"/>
       <c r="R58" s="20"/>
       <c r="S58" s="51"/>
-      <c r="T58" s="118" t="s">
-        <v>74</v>
-      </c>
-      <c r="U58" s="118"/>
+      <c r="T58" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="U58" s="66"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -3346,8 +3308,8 @@
       <c r="Q59" s="20"/>
       <c r="R59" s="20"/>
       <c r="S59" s="51"/>
-      <c r="T59" s="118"/>
-      <c r="U59" s="118"/>
+      <c r="T59" s="66"/>
+      <c r="U59" s="66"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B60"/>
@@ -3368,8 +3330,8 @@
       <c r="Q60"/>
       <c r="R60"/>
       <c r="S60"/>
-      <c r="T60" s="118"/>
-      <c r="U60" s="118"/>
+      <c r="T60" s="66"/>
+      <c r="U60" s="66"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
@@ -3433,7 +3395,7 @@
         <v>43759</v>
       </c>
       <c r="B62" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C62" s="59">
         <f>C52+1</f>
@@ -3443,11 +3405,11 @@
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
-      <c r="H62" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="I62" s="87"/>
-      <c r="J62" s="87"/>
+      <c r="H62" s="104" t="s">
+        <v>73</v>
+      </c>
+      <c r="I62" s="104"/>
+      <c r="J62" s="104"/>
       <c r="K62" s="19"/>
       <c r="L62" s="19"/>
       <c r="M62" s="19"/>
@@ -3467,26 +3429,26 @@
         <f>B53+7</f>
         <v>43759</v>
       </c>
-      <c r="C63" s="67" t="s">
+      <c r="C63" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="68"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="69"/>
-      <c r="H63" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="I63" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="J63" s="90"/>
-      <c r="K63" s="90"/>
-      <c r="L63" s="90"/>
-      <c r="M63" s="90"/>
-      <c r="N63" s="90"/>
-      <c r="O63" s="90"/>
-      <c r="P63" s="91"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="I63" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="J63" s="69"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="69"/>
+      <c r="M63" s="69"/>
+      <c r="N63" s="69"/>
+      <c r="O63" s="69"/>
+      <c r="P63" s="70"/>
       <c r="Q63" s="20"/>
       <c r="R63" s="20"/>
       <c r="S63" s="51"/>
@@ -3494,7 +3456,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>1</v>
       </c>
@@ -3502,32 +3464,34 @@
         <f t="shared" ref="B64:B69" si="4">B54+7</f>
         <v>43760</v>
       </c>
-      <c r="C64" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="D64" s="68"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="69"/>
-      <c r="H64" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="I64" s="69"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="49"/>
-      <c r="P64" s="49"/>
-      <c r="Q64" s="20"/>
+      <c r="C64" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="79"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="79"/>
+      <c r="H64" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="I64" s="79"/>
+      <c r="J64" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="K64" s="69"/>
+      <c r="L64" s="69"/>
+      <c r="M64" s="69"/>
+      <c r="N64" s="69"/>
+      <c r="O64" s="69"/>
+      <c r="P64" s="69"/>
+      <c r="Q64" s="70"/>
       <c r="R64" s="20"/>
       <c r="S64" s="51"/>
       <c r="T64" s="53" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
@@ -3535,22 +3499,26 @@
         <f t="shared" si="4"/>
         <v>43761</v>
       </c>
-      <c r="C65" s="32"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
+      <c r="C65" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" s="69"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="69"/>
+      <c r="H65" s="69"/>
+      <c r="I65" s="69"/>
+      <c r="J65" s="70"/>
       <c r="K65" s="49"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="49"/>
-      <c r="N65" s="49"/>
-      <c r="O65" s="49"/>
-      <c r="P65" s="49"/>
-      <c r="Q65" s="49"/>
-      <c r="R65" s="49"/>
+      <c r="L65" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="M65" s="69"/>
+      <c r="N65" s="69"/>
+      <c r="O65" s="69"/>
+      <c r="P65" s="69"/>
+      <c r="Q65" s="69"/>
+      <c r="R65" s="70"/>
       <c r="S65" s="51"/>
       <c r="T65" s="52" t="s">
         <v>20</v>
@@ -3566,32 +3534,34 @@
         <f t="shared" si="4"/>
         <v>43762</v>
       </c>
-      <c r="C66" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="69"/>
-      <c r="H66" s="88" t="s">
-        <v>57</v>
-      </c>
-      <c r="I66" s="88"/>
-      <c r="J66" s="88"/>
-      <c r="K66" s="49"/>
-      <c r="L66" s="49"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="20"/>
-      <c r="Q66" s="20"/>
+      <c r="C66" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="79"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="79"/>
+      <c r="H66" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="I66" s="70"/>
+      <c r="J66" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="K66" s="69"/>
+      <c r="L66" s="69"/>
+      <c r="M66" s="69"/>
+      <c r="N66" s="69"/>
+      <c r="O66" s="69"/>
+      <c r="P66" s="69"/>
+      <c r="Q66" s="70"/>
       <c r="R66" s="20"/>
       <c r="S66" s="51"/>
       <c r="T66" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>4</v>
       </c>
@@ -3599,26 +3569,30 @@
         <f t="shared" si="4"/>
         <v>43763</v>
       </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="49"/>
+      <c r="C67" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="69"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="69"/>
+      <c r="I67" s="69"/>
+      <c r="J67" s="70"/>
       <c r="K67" s="49"/>
-      <c r="L67" s="49"/>
-      <c r="M67" s="20"/>
-      <c r="N67" s="20"/>
-      <c r="O67" s="20"/>
-      <c r="P67" s="20"/>
-      <c r="Q67" s="20"/>
-      <c r="R67" s="20"/>
+      <c r="L67" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="M67" s="69"/>
+      <c r="N67" s="69"/>
+      <c r="O67" s="69"/>
+      <c r="P67" s="69"/>
+      <c r="Q67" s="69"/>
+      <c r="R67" s="70"/>
       <c r="S67" s="51"/>
       <c r="T67" s="51"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
@@ -3626,26 +3600,30 @@
         <f t="shared" si="4"/>
         <v>43764</v>
       </c>
-      <c r="C68" s="50"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="49"/>
+      <c r="C68" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" s="69"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="69"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="69"/>
+      <c r="J68" s="70"/>
       <c r="K68" s="49"/>
-      <c r="L68" s="49"/>
-      <c r="M68" s="49"/>
-      <c r="N68" s="49"/>
-      <c r="O68" s="49"/>
-      <c r="P68" s="49"/>
-      <c r="Q68" s="49"/>
-      <c r="R68" s="49"/>
+      <c r="L68" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="M68" s="69"/>
+      <c r="N68" s="69"/>
+      <c r="O68" s="69"/>
+      <c r="P68" s="69"/>
+      <c r="Q68" s="69"/>
+      <c r="R68" s="70"/>
       <c r="S68" s="51"/>
       <c r="T68" s="51"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>6</v>
       </c>
@@ -3653,22 +3631,24 @@
         <f t="shared" si="4"/>
         <v>43765</v>
       </c>
-      <c r="C69" s="50"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="49"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="20"/>
-      <c r="O69" s="20"/>
-      <c r="P69" s="20"/>
-      <c r="Q69" s="20"/>
-      <c r="R69" s="20"/>
+      <c r="C69" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" s="79"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="79"/>
+      <c r="H69" s="79"/>
+      <c r="I69" s="79"/>
+      <c r="J69" s="79"/>
+      <c r="K69" s="79"/>
+      <c r="L69" s="79"/>
+      <c r="M69" s="79"/>
+      <c r="N69" s="79"/>
+      <c r="O69" s="79"/>
+      <c r="P69" s="79"/>
+      <c r="Q69" s="79"/>
+      <c r="R69" s="79"/>
       <c r="S69" s="51"/>
       <c r="T69" s="51"/>
     </row>
@@ -3755,29 +3735,33 @@
         <v>43766</v>
       </c>
       <c r="B72" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C72" s="59">
         <f>C62+1</f>
         <v>7</v>
       </c>
-      <c r="D72" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71"/>
-      <c r="I72" s="71"/>
-      <c r="J72" s="71"/>
-      <c r="K72" s="71"/>
-      <c r="L72" s="71"/>
-      <c r="M72" s="71"/>
-      <c r="N72" s="71"/>
-      <c r="O72" s="71"/>
-      <c r="P72" s="71"/>
-      <c r="Q72" s="71"/>
-      <c r="R72" s="71"/>
+      <c r="D72" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" s="74"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="111" t="s">
+        <v>82</v>
+      </c>
+      <c r="I72" s="111"/>
+      <c r="J72" s="111"/>
+      <c r="K72" s="111"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="N72" s="110"/>
+      <c r="O72" s="110"/>
+      <c r="P72" s="110"/>
+      <c r="Q72" s="110"/>
+      <c r="R72" s="110"/>
       <c r="S72" s="51"/>
       <c r="T72" s="51"/>
     </row>
@@ -3791,23 +3775,23 @@
       </c>
       <c r="C73" s="32"/>
       <c r="D73" s="20"/>
-      <c r="E73" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="F73" s="88"/>
-      <c r="G73" s="88"/>
-      <c r="H73" s="88"/>
-      <c r="I73" s="88"/>
-      <c r="J73" s="88"/>
+      <c r="E73" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="67"/>
       <c r="K73" s="49"/>
-      <c r="L73" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="M73" s="90"/>
-      <c r="N73" s="90"/>
-      <c r="O73" s="90"/>
-      <c r="P73" s="90"/>
-      <c r="Q73" s="91"/>
+      <c r="L73" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="M73" s="69"/>
+      <c r="N73" s="69"/>
+      <c r="O73" s="69"/>
+      <c r="P73" s="69"/>
+      <c r="Q73" s="70"/>
       <c r="R73" s="49"/>
       <c r="S73" s="51"/>
       <c r="T73" s="30" t="s">
@@ -3824,23 +3808,23 @@
       </c>
       <c r="C74" s="50"/>
       <c r="D74" s="49"/>
-      <c r="E74" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="F74" s="88"/>
-      <c r="G74" s="88"/>
-      <c r="H74" s="88"/>
-      <c r="I74" s="88"/>
-      <c r="J74" s="88"/>
+      <c r="E74" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="F74" s="67"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="67"/>
+      <c r="J74" s="67"/>
       <c r="K74" s="49"/>
-      <c r="L74" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="M74" s="90"/>
-      <c r="N74" s="90"/>
-      <c r="O74" s="90"/>
-      <c r="P74" s="90"/>
-      <c r="Q74" s="91"/>
+      <c r="L74" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="M74" s="69"/>
+      <c r="N74" s="69"/>
+      <c r="O74" s="69"/>
+      <c r="P74" s="69"/>
+      <c r="Q74" s="70"/>
       <c r="R74" s="20"/>
       <c r="S74" s="51"/>
       <c r="T74" s="53" t="s">
@@ -3857,23 +3841,23 @@
       </c>
       <c r="C75" s="32"/>
       <c r="D75" s="20"/>
-      <c r="E75" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="F75" s="88"/>
-      <c r="G75" s="88"/>
-      <c r="H75" s="88"/>
-      <c r="I75" s="88"/>
-      <c r="J75" s="88"/>
+      <c r="E75" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="F75" s="67"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="67"/>
+      <c r="J75" s="67"/>
       <c r="K75" s="49"/>
-      <c r="L75" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="M75" s="90"/>
-      <c r="N75" s="90"/>
-      <c r="O75" s="90"/>
-      <c r="P75" s="90"/>
-      <c r="Q75" s="91"/>
+      <c r="L75" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="M75" s="69"/>
+      <c r="N75" s="69"/>
+      <c r="O75" s="69"/>
+      <c r="P75" s="69"/>
+      <c r="Q75" s="70"/>
       <c r="R75" s="49"/>
       <c r="S75" s="51"/>
       <c r="T75" s="52" t="s">
@@ -3888,26 +3872,24 @@
         <f t="shared" si="5"/>
         <v>43769</v>
       </c>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="F76" s="88"/>
-      <c r="G76" s="88"/>
-      <c r="H76" s="88"/>
-      <c r="I76" s="88"/>
-      <c r="J76" s="88"/>
-      <c r="K76" s="49"/>
-      <c r="L76" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="M76" s="90"/>
-      <c r="N76" s="90"/>
-      <c r="O76" s="90"/>
-      <c r="P76" s="90"/>
-      <c r="Q76" s="91"/>
-      <c r="R76" s="20"/>
+      <c r="C76" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" s="79"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="79"/>
+      <c r="H76" s="79"/>
+      <c r="I76" s="79"/>
+      <c r="J76" s="79"/>
+      <c r="K76" s="79"/>
+      <c r="L76" s="79"/>
+      <c r="M76" s="79"/>
+      <c r="N76" s="79"/>
+      <c r="O76" s="79"/>
+      <c r="P76" s="79"/>
+      <c r="Q76" s="79"/>
+      <c r="R76" s="79"/>
       <c r="S76" s="51"/>
       <c r="T76" s="18" t="s">
         <v>21</v>
@@ -3923,23 +3905,23 @@
       </c>
       <c r="C77" s="32"/>
       <c r="D77" s="20"/>
-      <c r="E77" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="F77" s="88"/>
-      <c r="G77" s="88"/>
-      <c r="H77" s="88"/>
-      <c r="I77" s="88"/>
-      <c r="J77" s="88"/>
+      <c r="E77" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="F77" s="67"/>
+      <c r="G77" s="67"/>
+      <c r="H77" s="67"/>
+      <c r="I77" s="67"/>
+      <c r="J77" s="67"/>
       <c r="K77" s="49"/>
-      <c r="L77" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="M77" s="90"/>
-      <c r="N77" s="90"/>
-      <c r="O77" s="90"/>
-      <c r="P77" s="90"/>
-      <c r="Q77" s="91"/>
+      <c r="L77" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="M77" s="69"/>
+      <c r="N77" s="69"/>
+      <c r="O77" s="69"/>
+      <c r="P77" s="69"/>
+      <c r="Q77" s="70"/>
       <c r="R77" s="20"/>
       <c r="S77" s="51"/>
       <c r="T77" s="51"/>
@@ -3954,23 +3936,23 @@
       </c>
       <c r="C78" s="50"/>
       <c r="D78" s="49"/>
-      <c r="E78" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="F78" s="88"/>
-      <c r="G78" s="88"/>
-      <c r="H78" s="88"/>
-      <c r="I78" s="88"/>
-      <c r="J78" s="88"/>
+      <c r="E78" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="F78" s="67"/>
+      <c r="G78" s="67"/>
+      <c r="H78" s="67"/>
+      <c r="I78" s="67"/>
+      <c r="J78" s="67"/>
       <c r="K78" s="49"/>
-      <c r="L78" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="M78" s="90"/>
-      <c r="N78" s="90"/>
-      <c r="O78" s="90"/>
-      <c r="P78" s="90"/>
-      <c r="Q78" s="91"/>
+      <c r="L78" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="M78" s="69"/>
+      <c r="N78" s="69"/>
+      <c r="O78" s="69"/>
+      <c r="P78" s="69"/>
+      <c r="Q78" s="70"/>
       <c r="R78" s="49"/>
       <c r="S78" s="51"/>
       <c r="T78" s="51"/>
@@ -3983,22 +3965,24 @@
         <f t="shared" si="5"/>
         <v>43772</v>
       </c>
-      <c r="C79" s="50"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="49"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="49"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="49"/>
-      <c r="J79" s="49"/>
-      <c r="K79" s="20"/>
-      <c r="L79" s="20"/>
-      <c r="M79" s="20"/>
-      <c r="N79" s="20"/>
-      <c r="O79" s="20"/>
-      <c r="P79" s="20"/>
-      <c r="Q79" s="20"/>
-      <c r="R79" s="20"/>
+      <c r="C79" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" s="79"/>
+      <c r="E79" s="79"/>
+      <c r="F79" s="79"/>
+      <c r="G79" s="79"/>
+      <c r="H79" s="79"/>
+      <c r="I79" s="79"/>
+      <c r="J79" s="79"/>
+      <c r="K79" s="79"/>
+      <c r="L79" s="79"/>
+      <c r="M79" s="79"/>
+      <c r="N79" s="79"/>
+      <c r="O79" s="79"/>
+      <c r="P79" s="79"/>
+      <c r="Q79" s="79"/>
+      <c r="R79" s="79"/>
       <c r="S79" s="51"/>
       <c r="T79" s="51"/>
     </row>
@@ -4066,21 +4050,21 @@
         <v>43773</v>
       </c>
       <c r="B82" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C82" s="59">
         <f>C72+1</f>
         <v>8</v>
       </c>
-      <c r="D82" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="E82" s="92"/>
-      <c r="F82" s="92"/>
+      <c r="D82" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="E82" s="74"/>
+      <c r="F82" s="74"/>
       <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
       <c r="K82" s="19"/>
       <c r="L82" s="19"/>
       <c r="M82" s="19"/>
@@ -4101,24 +4085,24 @@
         <f>B73+7</f>
         <v>43773</v>
       </c>
-      <c r="C83" s="67" t="s">
+      <c r="C83" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="68"/>
-      <c r="E83" s="68"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="69"/>
-      <c r="H83" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="I83" s="102"/>
-      <c r="J83" s="102"/>
-      <c r="K83" s="102"/>
-      <c r="L83" s="102"/>
-      <c r="M83" s="102"/>
-      <c r="N83" s="102"/>
-      <c r="O83" s="102"/>
-      <c r="P83" s="103"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="79"/>
+      <c r="F83" s="79"/>
+      <c r="G83" s="79"/>
+      <c r="H83" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I83" s="72"/>
+      <c r="J83" s="72"/>
+      <c r="K83" s="72"/>
+      <c r="L83" s="72"/>
+      <c r="M83" s="72"/>
+      <c r="N83" s="72"/>
+      <c r="O83" s="72"/>
+      <c r="P83" s="73"/>
       <c r="Q83" s="20"/>
       <c r="R83" s="20"/>
       <c r="S83" s="51"/>
@@ -4135,17 +4119,17 @@
         <f t="shared" ref="B84:B89" si="6">B74+7</f>
         <v>43774</v>
       </c>
-      <c r="C84" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="D84" s="68"/>
-      <c r="E84" s="68"/>
-      <c r="F84" s="68"/>
-      <c r="G84" s="69"/>
-      <c r="H84" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="I84" s="69"/>
+      <c r="C84" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="79"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="79"/>
+      <c r="G84" s="79"/>
+      <c r="H84" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="I84" s="79"/>
       <c r="J84" s="20"/>
       <c r="K84" s="49"/>
       <c r="L84" s="49"/>
@@ -4199,13 +4183,13 @@
         <f t="shared" si="6"/>
         <v>43776</v>
       </c>
-      <c r="C86" s="106" t="s">
-        <v>71</v>
-      </c>
-      <c r="D86" s="106"/>
-      <c r="E86" s="106"/>
-      <c r="F86" s="106"/>
-      <c r="G86" s="106"/>
+      <c r="C86" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="D86" s="112"/>
+      <c r="E86" s="112"/>
+      <c r="F86" s="112"/>
+      <c r="G86" s="112"/>
       <c r="H86" s="49"/>
       <c r="I86" s="49"/>
       <c r="J86" s="49"/>
@@ -4287,22 +4271,24 @@
         <f t="shared" si="6"/>
         <v>43779</v>
       </c>
-      <c r="C89" s="50"/>
-      <c r="D89" s="49"/>
-      <c r="E89" s="49"/>
-      <c r="F89" s="49"/>
-      <c r="G89" s="49"/>
-      <c r="H89" s="49"/>
-      <c r="I89" s="49"/>
-      <c r="J89" s="49"/>
-      <c r="K89" s="20"/>
-      <c r="L89" s="20"/>
-      <c r="M89" s="20"/>
-      <c r="N89" s="20"/>
-      <c r="O89" s="20"/>
-      <c r="P89" s="20"/>
-      <c r="Q89" s="20"/>
-      <c r="R89" s="20"/>
+      <c r="C89" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="D89" s="79"/>
+      <c r="E89" s="79"/>
+      <c r="F89" s="79"/>
+      <c r="G89" s="79"/>
+      <c r="H89" s="79"/>
+      <c r="I89" s="79"/>
+      <c r="J89" s="79"/>
+      <c r="K89" s="79"/>
+      <c r="L89" s="79"/>
+      <c r="M89" s="79"/>
+      <c r="N89" s="79"/>
+      <c r="O89" s="79"/>
+      <c r="P89" s="79"/>
+      <c r="Q89" s="79"/>
+      <c r="R89" s="79"/>
       <c r="S89" s="51"/>
       <c r="T89" s="51"/>
       <c r="U89" s="54"/>
@@ -4371,7 +4357,7 @@
         <v>43780</v>
       </c>
       <c r="B92" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C92" s="59">
         <f>C82+1</f>
@@ -4404,13 +4390,13 @@
         <f>B83+7</f>
         <v>43780</v>
       </c>
-      <c r="C93" s="67" t="s">
+      <c r="C93" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="68"/>
-      <c r="E93" s="68"/>
-      <c r="F93" s="68"/>
-      <c r="G93" s="69"/>
+      <c r="D93" s="79"/>
+      <c r="E93" s="79"/>
+      <c r="F93" s="79"/>
+      <c r="G93" s="79"/>
       <c r="H93" s="49"/>
       <c r="I93" s="49"/>
       <c r="J93" s="49"/>
@@ -4436,13 +4422,13 @@
         <f t="shared" ref="B94:B99" si="7">B84+7</f>
         <v>43781</v>
       </c>
-      <c r="C94" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="D94" s="68"/>
-      <c r="E94" s="68"/>
-      <c r="F94" s="68"/>
-      <c r="G94" s="69"/>
+      <c r="C94" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D94" s="79"/>
+      <c r="E94" s="79"/>
+      <c r="F94" s="79"/>
+      <c r="G94" s="79"/>
       <c r="H94" s="20"/>
       <c r="I94" s="20"/>
       <c r="J94" s="20"/>
@@ -4498,13 +4484,13 @@
         <f t="shared" si="7"/>
         <v>43783</v>
       </c>
-      <c r="C96" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="D96" s="68"/>
-      <c r="E96" s="68"/>
-      <c r="F96" s="68"/>
-      <c r="G96" s="69"/>
+      <c r="C96" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" s="79"/>
+      <c r="E96" s="79"/>
+      <c r="F96" s="79"/>
+      <c r="G96" s="79"/>
       <c r="H96" s="49"/>
       <c r="I96" s="49"/>
       <c r="J96" s="49"/>
@@ -4586,22 +4572,24 @@
         <f t="shared" si="7"/>
         <v>43786</v>
       </c>
-      <c r="C99" s="50"/>
-      <c r="D99" s="49"/>
-      <c r="E99" s="49"/>
-      <c r="F99" s="49"/>
-      <c r="G99" s="49"/>
-      <c r="H99" s="49"/>
-      <c r="I99" s="49"/>
-      <c r="J99" s="49"/>
-      <c r="K99" s="20"/>
-      <c r="L99" s="20"/>
-      <c r="M99" s="20"/>
-      <c r="N99" s="20"/>
-      <c r="O99" s="20"/>
-      <c r="P99" s="20"/>
-      <c r="Q99" s="20"/>
-      <c r="R99" s="20"/>
+      <c r="C99" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="D99" s="79"/>
+      <c r="E99" s="79"/>
+      <c r="F99" s="79"/>
+      <c r="G99" s="79"/>
+      <c r="H99" s="79"/>
+      <c r="I99" s="79"/>
+      <c r="J99" s="79"/>
+      <c r="K99" s="79"/>
+      <c r="L99" s="79"/>
+      <c r="M99" s="79"/>
+      <c r="N99" s="79"/>
+      <c r="O99" s="79"/>
+      <c r="P99" s="79"/>
+      <c r="Q99" s="79"/>
+      <c r="R99" s="79"/>
       <c r="S99" s="51"/>
       <c r="T99" s="51"/>
       <c r="U99" s="54"/>
@@ -4670,7 +4658,7 @@
         <v>43787</v>
       </c>
       <c r="B102" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C102" s="59">
         <f>C92+1</f>
@@ -4703,13 +4691,13 @@
         <f>B93+7</f>
         <v>43787</v>
       </c>
-      <c r="C103" s="67" t="s">
+      <c r="C103" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="68"/>
-      <c r="E103" s="68"/>
-      <c r="F103" s="68"/>
-      <c r="G103" s="69"/>
+      <c r="D103" s="79"/>
+      <c r="E103" s="79"/>
+      <c r="F103" s="79"/>
+      <c r="G103" s="79"/>
       <c r="H103" s="49"/>
       <c r="I103" s="49"/>
       <c r="J103" s="49"/>
@@ -4735,17 +4723,17 @@
         <f t="shared" ref="B104:B109" si="8">B94+7</f>
         <v>43788</v>
       </c>
-      <c r="C104" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="D104" s="68"/>
-      <c r="E104" s="68"/>
-      <c r="F104" s="68"/>
-      <c r="G104" s="69"/>
-      <c r="H104" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="I104" s="69"/>
+      <c r="C104" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D104" s="79"/>
+      <c r="E104" s="79"/>
+      <c r="F104" s="79"/>
+      <c r="G104" s="79"/>
+      <c r="H104" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="I104" s="79"/>
       <c r="J104" s="20"/>
       <c r="K104" s="49"/>
       <c r="L104" s="49"/>
@@ -4799,13 +4787,13 @@
         <f t="shared" si="8"/>
         <v>43790</v>
       </c>
-      <c r="C106" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="D106" s="68"/>
-      <c r="E106" s="68"/>
-      <c r="F106" s="68"/>
-      <c r="G106" s="69"/>
+      <c r="C106" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D106" s="79"/>
+      <c r="E106" s="79"/>
+      <c r="F106" s="79"/>
+      <c r="G106" s="79"/>
       <c r="H106" s="49"/>
       <c r="I106" s="49"/>
       <c r="J106" s="49"/>
@@ -4887,22 +4875,24 @@
         <f t="shared" si="8"/>
         <v>43793</v>
       </c>
-      <c r="C109" s="50"/>
-      <c r="D109" s="49"/>
-      <c r="E109" s="49"/>
-      <c r="F109" s="49"/>
-      <c r="G109" s="49"/>
-      <c r="H109" s="49"/>
-      <c r="I109" s="49"/>
-      <c r="J109" s="49"/>
-      <c r="K109" s="20"/>
-      <c r="L109" s="20"/>
-      <c r="M109" s="20"/>
-      <c r="N109" s="20"/>
-      <c r="O109" s="20"/>
-      <c r="P109" s="20"/>
-      <c r="Q109" s="20"/>
-      <c r="R109" s="20"/>
+      <c r="C109" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="D109" s="79"/>
+      <c r="E109" s="79"/>
+      <c r="F109" s="79"/>
+      <c r="G109" s="79"/>
+      <c r="H109" s="79"/>
+      <c r="I109" s="79"/>
+      <c r="J109" s="79"/>
+      <c r="K109" s="79"/>
+      <c r="L109" s="79"/>
+      <c r="M109" s="79"/>
+      <c r="N109" s="79"/>
+      <c r="O109" s="79"/>
+      <c r="P109" s="79"/>
+      <c r="Q109" s="79"/>
+      <c r="R109" s="79"/>
       <c r="S109" s="51"/>
       <c r="T109" s="51"/>
       <c r="U109" s="54"/>
@@ -4971,17 +4961,17 @@
         <v>43794</v>
       </c>
       <c r="B112" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C112" s="59">
         <f>C102+1</f>
         <v>11</v>
       </c>
-      <c r="D112" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="E112" s="92"/>
-      <c r="F112" s="92"/>
+      <c r="D112" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="E112" s="74"/>
+      <c r="F112" s="74"/>
       <c r="G112" s="15"/>
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
@@ -5006,13 +4996,13 @@
         <f>B103+7</f>
         <v>43794</v>
       </c>
-      <c r="C113" s="67" t="s">
+      <c r="C113" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D113" s="68"/>
-      <c r="E113" s="68"/>
-      <c r="F113" s="68"/>
-      <c r="G113" s="69"/>
+      <c r="D113" s="79"/>
+      <c r="E113" s="79"/>
+      <c r="F113" s="79"/>
+      <c r="G113" s="79"/>
       <c r="H113" s="49"/>
       <c r="I113" s="49"/>
       <c r="J113" s="49"/>
@@ -5030,7 +5020,7 @@
       </c>
       <c r="U113" s="54"/>
     </row>
-    <row r="114" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>1</v>
       </c>
@@ -5038,13 +5028,13 @@
         <f t="shared" ref="B114:B119" si="9">B104+7</f>
         <v>43795</v>
       </c>
-      <c r="C114" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="D114" s="68"/>
-      <c r="E114" s="68"/>
-      <c r="F114" s="68"/>
-      <c r="G114" s="69"/>
+      <c r="C114" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D114" s="79"/>
+      <c r="E114" s="79"/>
+      <c r="F114" s="79"/>
+      <c r="G114" s="79"/>
       <c r="H114" s="20"/>
       <c r="I114" s="20"/>
       <c r="J114" s="20"/>
@@ -5062,7 +5052,7 @@
       </c>
       <c r="U114" s="54"/>
     </row>
-    <row r="115" spans="1:21" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" s="27" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>2</v>
       </c>
@@ -5072,19 +5062,23 @@
       </c>
       <c r="C115" s="32"/>
       <c r="D115" s="20"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="20"/>
-      <c r="G115" s="20"/>
-      <c r="H115" s="20"/>
-      <c r="I115" s="20"/>
-      <c r="J115" s="20"/>
+      <c r="E115" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="F115" s="67"/>
+      <c r="G115" s="67"/>
+      <c r="H115" s="67"/>
+      <c r="I115" s="67"/>
+      <c r="J115" s="67"/>
       <c r="K115" s="49"/>
-      <c r="L115" s="49"/>
-      <c r="M115" s="49"/>
-      <c r="N115" s="49"/>
-      <c r="O115" s="49"/>
-      <c r="P115" s="49"/>
-      <c r="Q115" s="49"/>
+      <c r="L115" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="M115" s="69"/>
+      <c r="N115" s="69"/>
+      <c r="O115" s="69"/>
+      <c r="P115" s="69"/>
+      <c r="Q115" s="70"/>
       <c r="R115" s="49"/>
       <c r="S115" s="51"/>
       <c r="T115" s="52" t="s">
@@ -5100,25 +5094,27 @@
         <f t="shared" si="9"/>
         <v>43797</v>
       </c>
-      <c r="C116" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="D116" s="68"/>
-      <c r="E116" s="68"/>
-      <c r="F116" s="68"/>
-      <c r="G116" s="69"/>
-      <c r="H116" s="88" t="s">
-        <v>57</v>
-      </c>
-      <c r="I116" s="88"/>
-      <c r="J116" s="88"/>
-      <c r="K116" s="49"/>
-      <c r="L116" s="49"/>
-      <c r="M116" s="20"/>
-      <c r="N116" s="20"/>
-      <c r="O116" s="20"/>
-      <c r="P116" s="20"/>
-      <c r="Q116" s="20"/>
+      <c r="C116" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D116" s="79"/>
+      <c r="E116" s="79"/>
+      <c r="F116" s="79"/>
+      <c r="G116" s="79"/>
+      <c r="H116" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="I116" s="67"/>
+      <c r="J116" s="67"/>
+      <c r="K116" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="L116" s="72"/>
+      <c r="M116" s="72"/>
+      <c r="N116" s="72"/>
+      <c r="O116" s="72"/>
+      <c r="P116" s="72"/>
+      <c r="Q116" s="113"/>
       <c r="R116" s="20"/>
       <c r="S116" s="51"/>
       <c r="T116" s="18" t="s">
@@ -5136,23 +5132,23 @@
       </c>
       <c r="C117" s="32"/>
       <c r="D117" s="20"/>
-      <c r="E117" s="88" t="s">
-        <v>67</v>
-      </c>
-      <c r="F117" s="88"/>
-      <c r="G117" s="88"/>
-      <c r="H117" s="88"/>
-      <c r="I117" s="88"/>
-      <c r="J117" s="88"/>
+      <c r="E117" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="F117" s="67"/>
+      <c r="G117" s="67"/>
+      <c r="H117" s="67"/>
+      <c r="I117" s="67"/>
+      <c r="J117" s="67"/>
       <c r="K117" s="49"/>
-      <c r="L117" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="M117" s="90"/>
-      <c r="N117" s="90"/>
-      <c r="O117" s="90"/>
-      <c r="P117" s="90"/>
-      <c r="Q117" s="91"/>
+      <c r="L117" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="M117" s="69"/>
+      <c r="N117" s="69"/>
+      <c r="O117" s="69"/>
+      <c r="P117" s="69"/>
+      <c r="Q117" s="70"/>
       <c r="R117" s="20"/>
       <c r="S117" s="51"/>
       <c r="T117" s="51"/>
@@ -5168,23 +5164,23 @@
       </c>
       <c r="C118" s="50"/>
       <c r="D118" s="49"/>
-      <c r="E118" s="88" t="s">
-        <v>67</v>
-      </c>
-      <c r="F118" s="88"/>
-      <c r="G118" s="88"/>
-      <c r="H118" s="88"/>
-      <c r="I118" s="88"/>
-      <c r="J118" s="88"/>
+      <c r="E118" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="F118" s="67"/>
+      <c r="G118" s="67"/>
+      <c r="H118" s="67"/>
+      <c r="I118" s="67"/>
+      <c r="J118" s="67"/>
       <c r="K118" s="49"/>
-      <c r="L118" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="M118" s="90"/>
-      <c r="N118" s="90"/>
-      <c r="O118" s="90"/>
-      <c r="P118" s="90"/>
-      <c r="Q118" s="91"/>
+      <c r="L118" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="M118" s="69"/>
+      <c r="N118" s="69"/>
+      <c r="O118" s="69"/>
+      <c r="P118" s="69"/>
+      <c r="Q118" s="70"/>
       <c r="R118" s="49"/>
       <c r="S118" s="51"/>
       <c r="T118" s="51"/>
@@ -5198,22 +5194,24 @@
         <f t="shared" si="9"/>
         <v>43800</v>
       </c>
-      <c r="C119" s="50"/>
-      <c r="D119" s="49"/>
-      <c r="E119" s="49"/>
-      <c r="F119" s="49"/>
-      <c r="G119" s="49"/>
-      <c r="H119" s="49"/>
-      <c r="I119" s="49"/>
-      <c r="J119" s="49"/>
-      <c r="K119" s="20"/>
-      <c r="L119" s="20"/>
-      <c r="M119" s="20"/>
-      <c r="N119" s="20"/>
-      <c r="O119" s="20"/>
-      <c r="P119" s="20"/>
-      <c r="Q119" s="20"/>
-      <c r="R119" s="20"/>
+      <c r="C119" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="D119" s="79"/>
+      <c r="E119" s="79"/>
+      <c r="F119" s="79"/>
+      <c r="G119" s="79"/>
+      <c r="H119" s="79"/>
+      <c r="I119" s="79"/>
+      <c r="J119" s="79"/>
+      <c r="K119" s="79"/>
+      <c r="L119" s="79"/>
+      <c r="M119" s="79"/>
+      <c r="N119" s="79"/>
+      <c r="O119" s="79"/>
+      <c r="P119" s="79"/>
+      <c r="Q119" s="79"/>
+      <c r="R119" s="79"/>
       <c r="S119" s="51"/>
       <c r="T119" s="51"/>
       <c r="U119" s="54"/>
@@ -5282,17 +5280,17 @@
         <v>43801</v>
       </c>
       <c r="B122" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C122" s="59">
         <f>C112+1</f>
         <v>12</v>
       </c>
-      <c r="D122" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="E122" s="92"/>
-      <c r="F122" s="92"/>
+      <c r="D122" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E122" s="74"/>
+      <c r="F122" s="74"/>
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
@@ -5317,24 +5315,24 @@
         <f>B113+7</f>
         <v>43801</v>
       </c>
-      <c r="C123" s="67" t="s">
+      <c r="C123" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="68"/>
-      <c r="E123" s="68"/>
-      <c r="F123" s="68"/>
-      <c r="G123" s="69"/>
-      <c r="H123" s="101" t="s">
-        <v>67</v>
-      </c>
-      <c r="I123" s="102"/>
-      <c r="J123" s="102"/>
-      <c r="K123" s="102"/>
-      <c r="L123" s="102"/>
-      <c r="M123" s="102"/>
-      <c r="N123" s="102"/>
-      <c r="O123" s="102"/>
-      <c r="P123" s="103"/>
+      <c r="D123" s="79"/>
+      <c r="E123" s="79"/>
+      <c r="F123" s="79"/>
+      <c r="G123" s="79"/>
+      <c r="H123" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="I123" s="72"/>
+      <c r="J123" s="72"/>
+      <c r="K123" s="72"/>
+      <c r="L123" s="72"/>
+      <c r="M123" s="72"/>
+      <c r="N123" s="72"/>
+      <c r="O123" s="72"/>
+      <c r="P123" s="73"/>
       <c r="Q123" s="20"/>
       <c r="R123" s="20"/>
       <c r="S123" s="51"/>
@@ -5351,17 +5349,17 @@
         <f t="shared" ref="B124:B129" si="10">B114+7</f>
         <v>43802</v>
       </c>
-      <c r="C124" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="D124" s="68"/>
-      <c r="E124" s="68"/>
-      <c r="F124" s="68"/>
-      <c r="G124" s="69"/>
-      <c r="H124" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="I124" s="69"/>
+      <c r="C124" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D124" s="79"/>
+      <c r="E124" s="79"/>
+      <c r="F124" s="79"/>
+      <c r="G124" s="79"/>
+      <c r="H124" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="I124" s="79"/>
       <c r="J124" s="20"/>
       <c r="K124" s="49"/>
       <c r="L124" s="49"/>
@@ -5415,13 +5413,13 @@
         <f t="shared" si="10"/>
         <v>43804</v>
       </c>
-      <c r="C126" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="D126" s="68"/>
-      <c r="E126" s="68"/>
-      <c r="F126" s="68"/>
-      <c r="G126" s="69"/>
+      <c r="C126" s="112" t="s">
+        <v>80</v>
+      </c>
+      <c r="D126" s="112"/>
+      <c r="E126" s="112"/>
+      <c r="F126" s="112"/>
+      <c r="G126" s="112"/>
       <c r="H126" s="49"/>
       <c r="I126" s="49"/>
       <c r="J126" s="49"/>
@@ -5503,22 +5501,24 @@
         <f t="shared" si="10"/>
         <v>43807</v>
       </c>
-      <c r="C129" s="50"/>
-      <c r="D129" s="49"/>
-      <c r="E129" s="49"/>
-      <c r="F129" s="49"/>
-      <c r="G129" s="49"/>
-      <c r="H129" s="49"/>
-      <c r="I129" s="49"/>
-      <c r="J129" s="49"/>
-      <c r="K129" s="20"/>
-      <c r="L129" s="20"/>
-      <c r="M129" s="20"/>
-      <c r="N129" s="20"/>
-      <c r="O129" s="20"/>
-      <c r="P129" s="20"/>
-      <c r="Q129" s="20"/>
-      <c r="R129" s="20"/>
+      <c r="C129" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="D129" s="79"/>
+      <c r="E129" s="79"/>
+      <c r="F129" s="79"/>
+      <c r="G129" s="79"/>
+      <c r="H129" s="79"/>
+      <c r="I129" s="79"/>
+      <c r="J129" s="79"/>
+      <c r="K129" s="79"/>
+      <c r="L129" s="79"/>
+      <c r="M129" s="79"/>
+      <c r="N129" s="79"/>
+      <c r="O129" s="79"/>
+      <c r="P129" s="79"/>
+      <c r="Q129" s="79"/>
+      <c r="R129" s="79"/>
       <c r="S129" s="51"/>
       <c r="T129" s="51"/>
       <c r="U129" s="54"/>
@@ -5587,7 +5587,7 @@
         <v>43808</v>
       </c>
       <c r="B132" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C132" s="59">
         <f>C122+1</f>
@@ -5620,13 +5620,13 @@
         <f>B123+7</f>
         <v>43808</v>
       </c>
-      <c r="C133" s="67" t="s">
+      <c r="C133" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D133" s="68"/>
-      <c r="E133" s="68"/>
-      <c r="F133" s="68"/>
-      <c r="G133" s="69"/>
+      <c r="D133" s="79"/>
+      <c r="E133" s="79"/>
+      <c r="F133" s="79"/>
+      <c r="G133" s="79"/>
       <c r="H133" s="49"/>
       <c r="I133" s="49"/>
       <c r="J133" s="49"/>
@@ -5652,13 +5652,13 @@
         <f t="shared" ref="B134:B139" si="11">B124+7</f>
         <v>43809</v>
       </c>
-      <c r="C134" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="D134" s="68"/>
-      <c r="E134" s="68"/>
-      <c r="F134" s="68"/>
-      <c r="G134" s="69"/>
+      <c r="C134" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D134" s="79"/>
+      <c r="E134" s="79"/>
+      <c r="F134" s="79"/>
+      <c r="G134" s="79"/>
       <c r="H134" s="20"/>
       <c r="I134" s="20"/>
       <c r="J134" s="20"/>
@@ -5714,16 +5714,16 @@
         <f t="shared" si="11"/>
         <v>43811</v>
       </c>
-      <c r="C136" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="D136" s="68"/>
-      <c r="E136" s="68"/>
-      <c r="F136" s="68"/>
-      <c r="G136" s="69"/>
-      <c r="H136" s="49"/>
+      <c r="C136" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D136" s="79"/>
+      <c r="E136" s="79"/>
+      <c r="F136" s="79"/>
+      <c r="G136" s="79"/>
+      <c r="H136" s="20"/>
       <c r="I136" s="49"/>
-      <c r="J136" s="20"/>
+      <c r="J136" s="49"/>
       <c r="K136" s="49"/>
       <c r="L136" s="49"/>
       <c r="M136" s="20"/>
@@ -5751,9 +5751,9 @@
       <c r="E137" s="20"/>
       <c r="F137" s="20"/>
       <c r="G137" s="20"/>
-      <c r="H137" s="20"/>
+      <c r="H137" s="49"/>
       <c r="I137" s="49"/>
-      <c r="J137" s="49"/>
+      <c r="J137" s="20"/>
       <c r="K137" s="49"/>
       <c r="L137" s="49"/>
       <c r="M137" s="20"/>
@@ -5802,22 +5802,24 @@
         <f t="shared" si="11"/>
         <v>43814</v>
       </c>
-      <c r="C139" s="50"/>
-      <c r="D139" s="49"/>
-      <c r="E139" s="49"/>
-      <c r="F139" s="49"/>
-      <c r="G139" s="49"/>
-      <c r="H139" s="49"/>
-      <c r="I139" s="49"/>
-      <c r="J139" s="49"/>
-      <c r="K139" s="20"/>
-      <c r="L139" s="20"/>
-      <c r="M139" s="20"/>
-      <c r="N139" s="20"/>
-      <c r="O139" s="20"/>
-      <c r="P139" s="20"/>
-      <c r="Q139" s="20"/>
-      <c r="R139" s="20"/>
+      <c r="C139" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="D139" s="79"/>
+      <c r="E139" s="79"/>
+      <c r="F139" s="79"/>
+      <c r="G139" s="79"/>
+      <c r="H139" s="79"/>
+      <c r="I139" s="79"/>
+      <c r="J139" s="79"/>
+      <c r="K139" s="79"/>
+      <c r="L139" s="79"/>
+      <c r="M139" s="79"/>
+      <c r="N139" s="79"/>
+      <c r="O139" s="79"/>
+      <c r="P139" s="79"/>
+      <c r="Q139" s="79"/>
+      <c r="R139" s="79"/>
       <c r="S139" s="51"/>
       <c r="T139" s="51"/>
       <c r="U139" s="54"/>
@@ -5900,31 +5902,31 @@
       <c r="T141" s="51"/>
       <c r="U141" s="54"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="57">
         <f>A132+7</f>
         <v>43815</v>
       </c>
       <c r="B142" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C142" s="59">
         <f>C132+1</f>
         <v>14</v>
       </c>
-      <c r="D142" s="92" t="s">
+      <c r="D142" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="E142" s="92"/>
-      <c r="F142" s="92"/>
+      <c r="E142" s="74"/>
+      <c r="F142" s="74"/>
       <c r="G142" s="15"/>
-      <c r="H142" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="I142" s="92"/>
-      <c r="J142" s="92"/>
-      <c r="K142" s="92"/>
-      <c r="L142" s="92"/>
+      <c r="H142" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="I142" s="74"/>
+      <c r="J142" s="74"/>
+      <c r="K142" s="74"/>
+      <c r="L142" s="74"/>
       <c r="M142" s="19"/>
       <c r="N142" s="19"/>
       <c r="O142" s="19"/>
@@ -5935,7 +5937,7 @@
       <c r="T142" s="51"/>
       <c r="U142" s="54"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>0</v>
       </c>
@@ -5943,9 +5945,11 @@
         <f>B133+7</f>
         <v>43815</v>
       </c>
-      <c r="C143" s="20"/>
-      <c r="D143" s="20"/>
-      <c r="E143" s="20"/>
+      <c r="C143" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="D143" s="67"/>
+      <c r="E143" s="67"/>
       <c r="F143" s="20"/>
       <c r="G143" s="20"/>
       <c r="H143" s="20"/>
@@ -5965,7 +5969,7 @@
       </c>
       <c r="U143" s="54"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>1</v>
       </c>
@@ -6025,7 +6029,7 @@
       </c>
       <c r="U145" s="54"/>
     </row>
-    <row r="146" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>3</v>
       </c>
@@ -6055,7 +6059,7 @@
       </c>
       <c r="U146" s="54"/>
     </row>
-    <row r="147" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>4</v>
       </c>
@@ -6063,11 +6067,9 @@
         <f t="shared" si="12"/>
         <v>43819</v>
       </c>
-      <c r="C147" s="88" t="s">
-        <v>57</v>
-      </c>
-      <c r="D147" s="88"/>
-      <c r="E147" s="88"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20"/>
       <c r="F147" s="20"/>
       <c r="G147" s="20"/>
       <c r="H147" s="20"/>
@@ -6085,7 +6087,7 @@
       <c r="T147" s="51"/>
       <c r="U147" s="54"/>
     </row>
-    <row r="148" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>5</v>
       </c>
@@ -6225,7 +6227,7 @@
         <v>43822</v>
       </c>
       <c r="B152" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C152" s="59">
         <f>C142+1</f>
@@ -6318,24 +6320,24 @@
         <f t="shared" si="13"/>
         <v>43824</v>
       </c>
-      <c r="C155" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="D155" s="110"/>
-      <c r="E155" s="110"/>
-      <c r="F155" s="110"/>
-      <c r="G155" s="110"/>
-      <c r="H155" s="110"/>
-      <c r="I155" s="110"/>
-      <c r="J155" s="110"/>
-      <c r="K155" s="110"/>
-      <c r="L155" s="110"/>
-      <c r="M155" s="110"/>
-      <c r="N155" s="110"/>
-      <c r="O155" s="110"/>
-      <c r="P155" s="110"/>
-      <c r="Q155" s="110"/>
-      <c r="R155" s="111"/>
+      <c r="C155" s="106" t="s">
+        <v>53</v>
+      </c>
+      <c r="D155" s="106"/>
+      <c r="E155" s="106"/>
+      <c r="F155" s="106"/>
+      <c r="G155" s="106"/>
+      <c r="H155" s="106"/>
+      <c r="I155" s="106"/>
+      <c r="J155" s="106"/>
+      <c r="K155" s="106"/>
+      <c r="L155" s="106"/>
+      <c r="M155" s="106"/>
+      <c r="N155" s="106"/>
+      <c r="O155" s="106"/>
+      <c r="P155" s="106"/>
+      <c r="Q155" s="106"/>
+      <c r="R155" s="106"/>
       <c r="S155" s="51"/>
       <c r="T155" s="52" t="s">
         <v>20</v>
@@ -6350,22 +6352,22 @@
         <f t="shared" si="13"/>
         <v>43825</v>
       </c>
-      <c r="C156" s="112"/>
-      <c r="D156" s="113"/>
-      <c r="E156" s="113"/>
-      <c r="F156" s="113"/>
-      <c r="G156" s="113"/>
-      <c r="H156" s="113"/>
-      <c r="I156" s="113"/>
-      <c r="J156" s="113"/>
-      <c r="K156" s="113"/>
-      <c r="L156" s="113"/>
-      <c r="M156" s="113"/>
-      <c r="N156" s="113"/>
-      <c r="O156" s="113"/>
-      <c r="P156" s="113"/>
-      <c r="Q156" s="113"/>
-      <c r="R156" s="114"/>
+      <c r="C156" s="106"/>
+      <c r="D156" s="106"/>
+      <c r="E156" s="106"/>
+      <c r="F156" s="106"/>
+      <c r="G156" s="106"/>
+      <c r="H156" s="106"/>
+      <c r="I156" s="106"/>
+      <c r="J156" s="106"/>
+      <c r="K156" s="106"/>
+      <c r="L156" s="106"/>
+      <c r="M156" s="106"/>
+      <c r="N156" s="106"/>
+      <c r="O156" s="106"/>
+      <c r="P156" s="106"/>
+      <c r="Q156" s="106"/>
+      <c r="R156" s="106"/>
       <c r="S156" s="51"/>
       <c r="T156" s="18" t="s">
         <v>21</v>
@@ -6380,22 +6382,22 @@
         <f t="shared" si="13"/>
         <v>43826</v>
       </c>
-      <c r="C157" s="112"/>
-      <c r="D157" s="113"/>
-      <c r="E157" s="113"/>
-      <c r="F157" s="113"/>
-      <c r="G157" s="113"/>
-      <c r="H157" s="113"/>
-      <c r="I157" s="113"/>
-      <c r="J157" s="113"/>
-      <c r="K157" s="113"/>
-      <c r="L157" s="113"/>
-      <c r="M157" s="113"/>
-      <c r="N157" s="113"/>
-      <c r="O157" s="113"/>
-      <c r="P157" s="113"/>
-      <c r="Q157" s="113"/>
-      <c r="R157" s="114"/>
+      <c r="C157" s="106"/>
+      <c r="D157" s="106"/>
+      <c r="E157" s="106"/>
+      <c r="F157" s="106"/>
+      <c r="G157" s="106"/>
+      <c r="H157" s="106"/>
+      <c r="I157" s="106"/>
+      <c r="J157" s="106"/>
+      <c r="K157" s="106"/>
+      <c r="L157" s="106"/>
+      <c r="M157" s="106"/>
+      <c r="N157" s="106"/>
+      <c r="O157" s="106"/>
+      <c r="P157" s="106"/>
+      <c r="Q157" s="106"/>
+      <c r="R157" s="106"/>
       <c r="S157" s="51"/>
       <c r="T157" s="51"/>
       <c r="U157" s="54"/>
@@ -6408,22 +6410,22 @@
         <f t="shared" si="13"/>
         <v>43827</v>
       </c>
-      <c r="C158" s="112"/>
-      <c r="D158" s="113"/>
-      <c r="E158" s="113"/>
-      <c r="F158" s="113"/>
-      <c r="G158" s="113"/>
-      <c r="H158" s="113"/>
-      <c r="I158" s="113"/>
-      <c r="J158" s="113"/>
-      <c r="K158" s="113"/>
-      <c r="L158" s="113"/>
-      <c r="M158" s="113"/>
-      <c r="N158" s="113"/>
-      <c r="O158" s="113"/>
-      <c r="P158" s="113"/>
-      <c r="Q158" s="113"/>
-      <c r="R158" s="114"/>
+      <c r="C158" s="106"/>
+      <c r="D158" s="106"/>
+      <c r="E158" s="106"/>
+      <c r="F158" s="106"/>
+      <c r="G158" s="106"/>
+      <c r="H158" s="106"/>
+      <c r="I158" s="106"/>
+      <c r="J158" s="106"/>
+      <c r="K158" s="106"/>
+      <c r="L158" s="106"/>
+      <c r="M158" s="106"/>
+      <c r="N158" s="106"/>
+      <c r="O158" s="106"/>
+      <c r="P158" s="106"/>
+      <c r="Q158" s="106"/>
+      <c r="R158" s="106"/>
       <c r="S158" s="51"/>
       <c r="T158" s="51"/>
       <c r="U158" s="54"/>
@@ -6436,22 +6438,22 @@
         <f t="shared" si="13"/>
         <v>43828</v>
       </c>
-      <c r="C159" s="115"/>
-      <c r="D159" s="116"/>
-      <c r="E159" s="116"/>
-      <c r="F159" s="116"/>
-      <c r="G159" s="116"/>
-      <c r="H159" s="116"/>
-      <c r="I159" s="116"/>
-      <c r="J159" s="116"/>
-      <c r="K159" s="116"/>
-      <c r="L159" s="116"/>
-      <c r="M159" s="116"/>
-      <c r="N159" s="116"/>
-      <c r="O159" s="116"/>
-      <c r="P159" s="116"/>
-      <c r="Q159" s="116"/>
-      <c r="R159" s="117"/>
+      <c r="C159" s="106"/>
+      <c r="D159" s="106"/>
+      <c r="E159" s="106"/>
+      <c r="F159" s="106"/>
+      <c r="G159" s="106"/>
+      <c r="H159" s="106"/>
+      <c r="I159" s="106"/>
+      <c r="J159" s="106"/>
+      <c r="K159" s="106"/>
+      <c r="L159" s="106"/>
+      <c r="M159" s="106"/>
+      <c r="N159" s="106"/>
+      <c r="O159" s="106"/>
+      <c r="P159" s="106"/>
+      <c r="Q159" s="106"/>
+      <c r="R159" s="106"/>
       <c r="S159" s="51"/>
       <c r="T159" s="51"/>
       <c r="U159" s="54"/>
@@ -6540,7 +6542,7 @@
         <v>43829</v>
       </c>
       <c r="B162" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C162" s="59">
         <f>C152+1</f>
@@ -6573,24 +6575,24 @@
         <f>B153+7</f>
         <v>43829</v>
       </c>
-      <c r="C163" s="109" t="s">
-        <v>56</v>
-      </c>
-      <c r="D163" s="110"/>
-      <c r="E163" s="110"/>
-      <c r="F163" s="110"/>
-      <c r="G163" s="110"/>
-      <c r="H163" s="110"/>
-      <c r="I163" s="110"/>
-      <c r="J163" s="110"/>
-      <c r="K163" s="110"/>
-      <c r="L163" s="110"/>
-      <c r="M163" s="110"/>
-      <c r="N163" s="110"/>
-      <c r="O163" s="110"/>
-      <c r="P163" s="110"/>
-      <c r="Q163" s="110"/>
-      <c r="R163" s="111"/>
+      <c r="C163" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="D163" s="106"/>
+      <c r="E163" s="106"/>
+      <c r="F163" s="106"/>
+      <c r="G163" s="106"/>
+      <c r="H163" s="106"/>
+      <c r="I163" s="106"/>
+      <c r="J163" s="106"/>
+      <c r="K163" s="106"/>
+      <c r="L163" s="106"/>
+      <c r="M163" s="106"/>
+      <c r="N163" s="106"/>
+      <c r="O163" s="106"/>
+      <c r="P163" s="106"/>
+      <c r="Q163" s="106"/>
+      <c r="R163" s="106"/>
       <c r="S163" s="51"/>
       <c r="T163" s="30" t="s">
         <v>22</v>
@@ -6605,22 +6607,22 @@
         <f t="shared" ref="B164:B169" si="14">B154+7</f>
         <v>43830</v>
       </c>
-      <c r="C164" s="112"/>
-      <c r="D164" s="113"/>
-      <c r="E164" s="113"/>
-      <c r="F164" s="113"/>
-      <c r="G164" s="113"/>
-      <c r="H164" s="113"/>
-      <c r="I164" s="113"/>
-      <c r="J164" s="113"/>
-      <c r="K164" s="113"/>
-      <c r="L164" s="113"/>
-      <c r="M164" s="113"/>
-      <c r="N164" s="113"/>
-      <c r="O164" s="113"/>
-      <c r="P164" s="113"/>
-      <c r="Q164" s="113"/>
-      <c r="R164" s="114"/>
+      <c r="C164" s="106"/>
+      <c r="D164" s="106"/>
+      <c r="E164" s="106"/>
+      <c r="F164" s="106"/>
+      <c r="G164" s="106"/>
+      <c r="H164" s="106"/>
+      <c r="I164" s="106"/>
+      <c r="J164" s="106"/>
+      <c r="K164" s="106"/>
+      <c r="L164" s="106"/>
+      <c r="M164" s="106"/>
+      <c r="N164" s="106"/>
+      <c r="O164" s="106"/>
+      <c r="P164" s="106"/>
+      <c r="Q164" s="106"/>
+      <c r="R164" s="106"/>
       <c r="S164" s="51"/>
       <c r="T164" s="53" t="s">
         <v>19</v>
@@ -6635,22 +6637,22 @@
         <f t="shared" si="14"/>
         <v>43831</v>
       </c>
-      <c r="C165" s="115"/>
-      <c r="D165" s="116"/>
-      <c r="E165" s="116"/>
-      <c r="F165" s="116"/>
-      <c r="G165" s="116"/>
-      <c r="H165" s="116"/>
-      <c r="I165" s="116"/>
-      <c r="J165" s="116"/>
-      <c r="K165" s="116"/>
-      <c r="L165" s="116"/>
-      <c r="M165" s="116"/>
-      <c r="N165" s="116"/>
-      <c r="O165" s="116"/>
-      <c r="P165" s="116"/>
-      <c r="Q165" s="116"/>
-      <c r="R165" s="117"/>
+      <c r="C165" s="106"/>
+      <c r="D165" s="106"/>
+      <c r="E165" s="106"/>
+      <c r="F165" s="106"/>
+      <c r="G165" s="106"/>
+      <c r="H165" s="106"/>
+      <c r="I165" s="106"/>
+      <c r="J165" s="106"/>
+      <c r="K165" s="106"/>
+      <c r="L165" s="106"/>
+      <c r="M165" s="106"/>
+      <c r="N165" s="106"/>
+      <c r="O165" s="106"/>
+      <c r="P165" s="106"/>
+      <c r="Q165" s="106"/>
+      <c r="R165" s="106"/>
       <c r="S165" s="51"/>
       <c r="T165" s="52" t="s">
         <v>20</v>
@@ -6667,23 +6669,23 @@
       </c>
       <c r="C166" s="32"/>
       <c r="D166" s="20"/>
-      <c r="E166" s="88" t="s">
+      <c r="E166" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="F166" s="88"/>
-      <c r="G166" s="88"/>
-      <c r="H166" s="88"/>
-      <c r="I166" s="88"/>
-      <c r="J166" s="88"/>
+      <c r="F166" s="67"/>
+      <c r="G166" s="67"/>
+      <c r="H166" s="67"/>
+      <c r="I166" s="67"/>
+      <c r="J166" s="67"/>
       <c r="K166" s="49"/>
-      <c r="L166" s="89" t="s">
+      <c r="L166" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="M166" s="90"/>
-      <c r="N166" s="90"/>
-      <c r="O166" s="90"/>
-      <c r="P166" s="90"/>
-      <c r="Q166" s="91"/>
+      <c r="M166" s="69"/>
+      <c r="N166" s="69"/>
+      <c r="O166" s="69"/>
+      <c r="P166" s="69"/>
+      <c r="Q166" s="70"/>
       <c r="R166" s="20"/>
       <c r="S166" s="51"/>
       <c r="T166" s="18" t="s">
@@ -6701,23 +6703,23 @@
       </c>
       <c r="C167" s="50"/>
       <c r="D167" s="49"/>
-      <c r="E167" s="88" t="s">
+      <c r="E167" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="F167" s="88"/>
-      <c r="G167" s="88"/>
-      <c r="H167" s="88"/>
-      <c r="I167" s="88"/>
-      <c r="J167" s="88"/>
+      <c r="F167" s="67"/>
+      <c r="G167" s="67"/>
+      <c r="H167" s="67"/>
+      <c r="I167" s="67"/>
+      <c r="J167" s="67"/>
       <c r="K167" s="49"/>
-      <c r="L167" s="89" t="s">
+      <c r="L167" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="M167" s="90"/>
-      <c r="N167" s="90"/>
-      <c r="O167" s="90"/>
-      <c r="P167" s="90"/>
-      <c r="Q167" s="91"/>
+      <c r="M167" s="69"/>
+      <c r="N167" s="69"/>
+      <c r="O167" s="69"/>
+      <c r="P167" s="69"/>
+      <c r="Q167" s="70"/>
       <c r="R167" s="49"/>
       <c r="S167" s="51"/>
       <c r="T167" s="51"/>
@@ -6843,7 +6845,7 @@
         <v>43836</v>
       </c>
       <c r="B172" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C172" s="59">
         <f>C162+1</f>
@@ -6878,23 +6880,23 @@
       </c>
       <c r="C173" s="32"/>
       <c r="D173" s="20"/>
-      <c r="E173" s="88" t="s">
+      <c r="E173" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="F173" s="88"/>
-      <c r="G173" s="88"/>
-      <c r="H173" s="88"/>
-      <c r="I173" s="88"/>
-      <c r="J173" s="88"/>
+      <c r="F173" s="67"/>
+      <c r="G173" s="67"/>
+      <c r="H173" s="67"/>
+      <c r="I173" s="67"/>
+      <c r="J173" s="67"/>
       <c r="K173" s="49"/>
-      <c r="L173" s="89" t="s">
+      <c r="L173" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="M173" s="90"/>
-      <c r="N173" s="90"/>
-      <c r="O173" s="90"/>
-      <c r="P173" s="90"/>
-      <c r="Q173" s="91"/>
+      <c r="M173" s="69"/>
+      <c r="N173" s="69"/>
+      <c r="O173" s="69"/>
+      <c r="P173" s="69"/>
+      <c r="Q173" s="70"/>
       <c r="R173" s="49"/>
       <c r="S173" s="51"/>
       <c r="T173" s="30" t="s">
@@ -6912,23 +6914,23 @@
       </c>
       <c r="C174" s="32"/>
       <c r="D174" s="20"/>
-      <c r="E174" s="88" t="s">
+      <c r="E174" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="F174" s="88"/>
-      <c r="G174" s="88"/>
-      <c r="H174" s="88"/>
-      <c r="I174" s="88"/>
-      <c r="J174" s="88"/>
+      <c r="F174" s="67"/>
+      <c r="G174" s="67"/>
+      <c r="H174" s="67"/>
+      <c r="I174" s="67"/>
+      <c r="J174" s="67"/>
       <c r="K174" s="49"/>
-      <c r="L174" s="89" t="s">
+      <c r="L174" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="M174" s="90"/>
-      <c r="N174" s="90"/>
-      <c r="O174" s="90"/>
-      <c r="P174" s="90"/>
-      <c r="Q174" s="91"/>
+      <c r="M174" s="69"/>
+      <c r="N174" s="69"/>
+      <c r="O174" s="69"/>
+      <c r="P174" s="69"/>
+      <c r="Q174" s="70"/>
       <c r="R174" s="20"/>
       <c r="S174" s="51"/>
       <c r="T174" s="53" t="s">
@@ -6946,23 +6948,23 @@
       </c>
       <c r="C175" s="32"/>
       <c r="D175" s="20"/>
-      <c r="E175" s="88" t="s">
+      <c r="E175" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="F175" s="88"/>
-      <c r="G175" s="88"/>
-      <c r="H175" s="88"/>
-      <c r="I175" s="88"/>
-      <c r="J175" s="88"/>
+      <c r="F175" s="67"/>
+      <c r="G175" s="67"/>
+      <c r="H175" s="67"/>
+      <c r="I175" s="67"/>
+      <c r="J175" s="67"/>
       <c r="K175" s="20"/>
-      <c r="L175" s="89" t="s">
+      <c r="L175" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="M175" s="90"/>
-      <c r="N175" s="90"/>
-      <c r="O175" s="90"/>
-      <c r="P175" s="90"/>
-      <c r="Q175" s="91"/>
+      <c r="M175" s="69"/>
+      <c r="N175" s="69"/>
+      <c r="O175" s="69"/>
+      <c r="P175" s="69"/>
+      <c r="Q175" s="70"/>
       <c r="R175" s="49"/>
       <c r="S175" s="51"/>
       <c r="T175" s="52" t="s">
@@ -6980,23 +6982,23 @@
       </c>
       <c r="C176" s="49"/>
       <c r="D176" s="49"/>
-      <c r="E176" s="88" t="s">
+      <c r="E176" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="F176" s="88"/>
-      <c r="G176" s="88"/>
-      <c r="H176" s="88"/>
-      <c r="I176" s="88"/>
-      <c r="J176" s="88"/>
+      <c r="F176" s="67"/>
+      <c r="G176" s="67"/>
+      <c r="H176" s="67"/>
+      <c r="I176" s="67"/>
+      <c r="J176" s="67"/>
       <c r="K176" s="20"/>
-      <c r="L176" s="89" t="s">
+      <c r="L176" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="M176" s="90"/>
-      <c r="N176" s="90"/>
-      <c r="O176" s="90"/>
-      <c r="P176" s="90"/>
-      <c r="Q176" s="91"/>
+      <c r="M176" s="69"/>
+      <c r="N176" s="69"/>
+      <c r="O176" s="69"/>
+      <c r="P176" s="69"/>
+      <c r="Q176" s="70"/>
       <c r="R176" s="20"/>
       <c r="S176" s="51"/>
       <c r="T176" s="18" t="s">
@@ -7014,23 +7016,23 @@
       </c>
       <c r="C177" s="32"/>
       <c r="D177" s="20"/>
-      <c r="E177" s="88" t="s">
+      <c r="E177" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="F177" s="88"/>
-      <c r="G177" s="88"/>
-      <c r="H177" s="88"/>
-      <c r="I177" s="88"/>
-      <c r="J177" s="88"/>
+      <c r="F177" s="67"/>
+      <c r="G177" s="67"/>
+      <c r="H177" s="67"/>
+      <c r="I177" s="67"/>
+      <c r="J177" s="67"/>
       <c r="K177" s="20"/>
-      <c r="L177" s="89" t="s">
+      <c r="L177" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="M177" s="90"/>
-      <c r="N177" s="90"/>
-      <c r="O177" s="90"/>
-      <c r="P177" s="90"/>
-      <c r="Q177" s="91"/>
+      <c r="M177" s="69"/>
+      <c r="N177" s="69"/>
+      <c r="O177" s="69"/>
+      <c r="P177" s="69"/>
+      <c r="Q177" s="70"/>
       <c r="R177" s="20"/>
       <c r="S177" s="51"/>
       <c r="T177" s="51"/>
@@ -7155,7 +7157,7 @@
         <v>43843</v>
       </c>
       <c r="B182" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C182" s="59">
         <f>C172+1</f>
@@ -7189,23 +7191,23 @@
       </c>
       <c r="C183" s="32"/>
       <c r="D183" s="20"/>
-      <c r="E183" s="88" t="s">
+      <c r="E183" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="F183" s="88"/>
-      <c r="G183" s="88"/>
-      <c r="H183" s="88"/>
-      <c r="I183" s="88"/>
-      <c r="J183" s="88"/>
+      <c r="F183" s="67"/>
+      <c r="G183" s="67"/>
+      <c r="H183" s="67"/>
+      <c r="I183" s="67"/>
+      <c r="J183" s="67"/>
       <c r="K183" s="49"/>
-      <c r="L183" s="89" t="s">
+      <c r="L183" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="M183" s="90"/>
-      <c r="N183" s="90"/>
-      <c r="O183" s="90"/>
-      <c r="P183" s="90"/>
-      <c r="Q183" s="91"/>
+      <c r="M183" s="69"/>
+      <c r="N183" s="69"/>
+      <c r="O183" s="69"/>
+      <c r="P183" s="69"/>
+      <c r="Q183" s="70"/>
       <c r="R183" s="49"/>
       <c r="S183" s="51"/>
       <c r="T183" s="30" t="s">
@@ -7222,23 +7224,23 @@
       </c>
       <c r="C184" s="32"/>
       <c r="D184" s="20"/>
-      <c r="E184" s="88" t="s">
+      <c r="E184" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="F184" s="88"/>
-      <c r="G184" s="88"/>
-      <c r="H184" s="88"/>
-      <c r="I184" s="88"/>
-      <c r="J184" s="88"/>
+      <c r="F184" s="67"/>
+      <c r="G184" s="67"/>
+      <c r="H184" s="67"/>
+      <c r="I184" s="67"/>
+      <c r="J184" s="67"/>
       <c r="K184" s="49"/>
-      <c r="L184" s="89" t="s">
+      <c r="L184" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="M184" s="90"/>
-      <c r="N184" s="90"/>
-      <c r="O184" s="90"/>
-      <c r="P184" s="90"/>
-      <c r="Q184" s="91"/>
+      <c r="M184" s="69"/>
+      <c r="N184" s="69"/>
+      <c r="O184" s="69"/>
+      <c r="P184" s="69"/>
+      <c r="Q184" s="70"/>
       <c r="R184" s="20"/>
       <c r="S184" s="51"/>
       <c r="T184" s="53" t="s">
@@ -7255,23 +7257,23 @@
       </c>
       <c r="C185" s="32"/>
       <c r="D185" s="20"/>
-      <c r="E185" s="88" t="s">
+      <c r="E185" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="F185" s="88"/>
-      <c r="G185" s="88"/>
-      <c r="H185" s="88"/>
-      <c r="I185" s="88"/>
-      <c r="J185" s="88"/>
+      <c r="F185" s="67"/>
+      <c r="G185" s="67"/>
+      <c r="H185" s="67"/>
+      <c r="I185" s="67"/>
+      <c r="J185" s="67"/>
       <c r="K185" s="20"/>
-      <c r="L185" s="89" t="s">
+      <c r="L185" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="M185" s="90"/>
-      <c r="N185" s="90"/>
-      <c r="O185" s="90"/>
-      <c r="P185" s="90"/>
-      <c r="Q185" s="91"/>
+      <c r="M185" s="69"/>
+      <c r="N185" s="69"/>
+      <c r="O185" s="69"/>
+      <c r="P185" s="69"/>
+      <c r="Q185" s="70"/>
       <c r="R185" s="49"/>
       <c r="S185" s="51"/>
       <c r="T185" s="52" t="s">
@@ -7288,23 +7290,23 @@
       </c>
       <c r="C186" s="49"/>
       <c r="D186" s="49"/>
-      <c r="E186" s="88" t="s">
+      <c r="E186" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="F186" s="88"/>
-      <c r="G186" s="88"/>
-      <c r="H186" s="88"/>
-      <c r="I186" s="88"/>
-      <c r="J186" s="88"/>
+      <c r="F186" s="67"/>
+      <c r="G186" s="67"/>
+      <c r="H186" s="67"/>
+      <c r="I186" s="67"/>
+      <c r="J186" s="67"/>
       <c r="K186" s="20"/>
-      <c r="L186" s="89" t="s">
+      <c r="L186" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="M186" s="90"/>
-      <c r="N186" s="90"/>
-      <c r="O186" s="90"/>
-      <c r="P186" s="90"/>
-      <c r="Q186" s="91"/>
+      <c r="M186" s="69"/>
+      <c r="N186" s="69"/>
+      <c r="O186" s="69"/>
+      <c r="P186" s="69"/>
+      <c r="Q186" s="70"/>
       <c r="R186" s="20"/>
       <c r="S186" s="51"/>
       <c r="T186" s="18" t="s">
@@ -7321,23 +7323,23 @@
       </c>
       <c r="C187" s="32"/>
       <c r="D187" s="20"/>
-      <c r="E187" s="88" t="s">
+      <c r="E187" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="F187" s="88"/>
-      <c r="G187" s="88"/>
-      <c r="H187" s="88"/>
-      <c r="I187" s="88"/>
-      <c r="J187" s="88"/>
+      <c r="F187" s="67"/>
+      <c r="G187" s="67"/>
+      <c r="H187" s="67"/>
+      <c r="I187" s="67"/>
+      <c r="J187" s="67"/>
       <c r="K187" s="20"/>
-      <c r="L187" s="89" t="s">
+      <c r="L187" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="M187" s="90"/>
-      <c r="N187" s="90"/>
-      <c r="O187" s="90"/>
-      <c r="P187" s="90"/>
-      <c r="Q187" s="91"/>
+      <c r="M187" s="69"/>
+      <c r="N187" s="69"/>
+      <c r="O187" s="69"/>
+      <c r="P187" s="69"/>
+      <c r="Q187" s="70"/>
       <c r="R187" s="20"/>
       <c r="S187" s="51"/>
       <c r="T187" s="51"/>
@@ -7479,7 +7481,7 @@
         <v>43850</v>
       </c>
       <c r="B192" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C192" s="59">
         <f>C182+1</f>
@@ -7783,7 +7785,7 @@
         <v>43857</v>
       </c>
       <c r="B202" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C202" s="59">
         <f>C192+1</f>
@@ -8087,7 +8089,7 @@
         <v>43864</v>
       </c>
       <c r="B212" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C212" s="59">
         <f>C202+1</f>
@@ -8391,7 +8393,7 @@
         <v>43871</v>
       </c>
       <c r="B222" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C222" s="59">
         <f>C212+1</f>
@@ -8695,7 +8697,7 @@
         <v>43878</v>
       </c>
       <c r="B232" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C232" s="59">
         <f>C222+1</f>
@@ -8999,7 +9001,7 @@
         <v>43885</v>
       </c>
       <c r="B242" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C242" s="59">
         <f>C232+1</f>
@@ -9303,7 +9305,7 @@
         <v>43892</v>
       </c>
       <c r="B252" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C252" s="59">
         <f>C242+1</f>
@@ -9607,7 +9609,7 @@
         <v>43899</v>
       </c>
       <c r="B262" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C262" s="59">
         <f>C252+1</f>
@@ -9911,7 +9913,7 @@
         <v>43906</v>
       </c>
       <c r="B272" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C272" s="59">
         <f>C262+1</f>
@@ -10215,7 +10217,7 @@
         <v>43913</v>
       </c>
       <c r="B282" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C282" s="59">
         <f>C272+1</f>
@@ -10519,7 +10521,7 @@
         <v>43920</v>
       </c>
       <c r="B292" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C292" s="59">
         <f>C282+1</f>
@@ -10823,7 +10825,7 @@
         <v>43927</v>
       </c>
       <c r="B302" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C302" s="59">
         <f>C292+1</f>
@@ -11127,7 +11129,7 @@
         <v>43934</v>
       </c>
       <c r="B312" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C312" s="59">
         <f>C302+1</f>
@@ -11431,7 +11433,7 @@
         <v>43941</v>
       </c>
       <c r="B322" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C322" s="59">
         <f>C312+1</f>
@@ -11735,7 +11737,7 @@
         <v>43948</v>
       </c>
       <c r="B332" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C332" s="59">
         <f>C322+1</f>
@@ -12039,7 +12041,7 @@
         <v>43955</v>
       </c>
       <c r="B342" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C342" s="59">
         <f>C332+1</f>
@@ -12343,7 +12345,7 @@
         <v>43962</v>
       </c>
       <c r="B352" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C352" s="59">
         <f>C342+1</f>
@@ -12647,7 +12649,7 @@
         <v>43969</v>
       </c>
       <c r="B362" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C362" s="59">
         <f>C352+1</f>
@@ -15767,7 +15769,127 @@
       <c r="T507"/>
     </row>
   </sheetData>
-  <mergeCells count="124">
+  <mergeCells count="143">
+    <mergeCell ref="C119:R119"/>
+    <mergeCell ref="C129:R129"/>
+    <mergeCell ref="C139:R139"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="E115:J115"/>
+    <mergeCell ref="L115:Q115"/>
+    <mergeCell ref="L67:R67"/>
+    <mergeCell ref="L68:R68"/>
+    <mergeCell ref="M72:R72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="C69:R69"/>
+    <mergeCell ref="C79:R79"/>
+    <mergeCell ref="C89:R89"/>
+    <mergeCell ref="C99:R99"/>
+    <mergeCell ref="C109:R109"/>
+    <mergeCell ref="H46:P46"/>
+    <mergeCell ref="H44:N44"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="I63:P63"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="L75:Q75"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="J64:Q64"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="L65:R65"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="J66:Q66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="H13:R13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="H45:P45"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H43:P43"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="H33:P33"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H23:R23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="E77:J77"/>
+    <mergeCell ref="H116:J116"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H83:P83"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="E73:J73"/>
+    <mergeCell ref="L73:Q73"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="H54:P54"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="L74:Q74"/>
+    <mergeCell ref="L77:Q77"/>
+    <mergeCell ref="L78:Q78"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="J58:P58"/>
+    <mergeCell ref="E74:J74"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="E78:J78"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C76:R76"/>
+    <mergeCell ref="E175:J175"/>
+    <mergeCell ref="L175:Q175"/>
+    <mergeCell ref="L167:Q167"/>
+    <mergeCell ref="C155:R159"/>
+    <mergeCell ref="C163:R165"/>
+    <mergeCell ref="E166:J166"/>
+    <mergeCell ref="L166:Q166"/>
+    <mergeCell ref="E167:J167"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="L173:Q173"/>
+    <mergeCell ref="E174:J174"/>
+    <mergeCell ref="L174:Q174"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H142:L142"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="C113:G113"/>
     <mergeCell ref="T58:U60"/>
     <mergeCell ref="E187:J187"/>
     <mergeCell ref="L187:Q187"/>
@@ -15789,109 +15911,8 @@
     <mergeCell ref="E183:J183"/>
     <mergeCell ref="L183:Q183"/>
     <mergeCell ref="E173:J173"/>
-    <mergeCell ref="C147:E147"/>
     <mergeCell ref="D122:F122"/>
     <mergeCell ref="D142:F142"/>
-    <mergeCell ref="E175:J175"/>
-    <mergeCell ref="L175:Q175"/>
-    <mergeCell ref="L167:Q167"/>
-    <mergeCell ref="C155:R159"/>
-    <mergeCell ref="C163:R165"/>
-    <mergeCell ref="E166:J166"/>
-    <mergeCell ref="L166:Q166"/>
-    <mergeCell ref="E167:J167"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="C136:G136"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="C124:G124"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="L173:Q173"/>
-    <mergeCell ref="E174:J174"/>
-    <mergeCell ref="L174:Q174"/>
-    <mergeCell ref="E73:J73"/>
-    <mergeCell ref="L73:Q73"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="H54:P54"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="L74:Q74"/>
-    <mergeCell ref="L76:Q76"/>
-    <mergeCell ref="L77:Q77"/>
-    <mergeCell ref="L78:Q78"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="J58:P58"/>
-    <mergeCell ref="C126:G126"/>
-    <mergeCell ref="H142:L142"/>
-    <mergeCell ref="C133:G133"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="E74:J74"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C134:G134"/>
-    <mergeCell ref="C103:G103"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="E75:J75"/>
-    <mergeCell ref="E76:J76"/>
-    <mergeCell ref="E77:J77"/>
-    <mergeCell ref="H116:J116"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H13:R13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="H45:P45"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H43:P43"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="H33:P33"/>
-    <mergeCell ref="H83:P83"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="E78:J78"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="D72:R72"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H23:R23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="H46:P46"/>
-    <mergeCell ref="H44:N44"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="I63:P63"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="L75:Q75"/>
-    <mergeCell ref="I53:M53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -15902,8 +15923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15919,10 +15940,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="119"/>
+      <c r="B2" s="105"/>
       <c r="C2" s="41" t="s">
         <v>18</v>
       </c>
@@ -15930,21 +15951,21 @@
         <v>12</v>
       </c>
       <c r="E2" s="48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="41" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="121" t="s">
+      <c r="J2" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="121"/>
+      <c r="K2" s="107"/>
     </row>
     <row r="3" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
@@ -15957,12 +15978,12 @@
       <c r="E3" s="45"/>
       <c r="G3" s="45"/>
       <c r="I3" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="122" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="122"/>
+        <v>59</v>
+      </c>
+      <c r="J3" s="108" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="108"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -15978,16 +15999,16 @@
         <v>13</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="56"/>
       <c r="I4" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="122" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="122"/>
+        <v>35</v>
+      </c>
+      <c r="J4" s="108" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="108"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -16038,12 +16059,7 @@
         <f t="shared" si="0"/>
         <v>43387</v>
       </c>
-      <c r="D8" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>61</v>
-      </c>
+      <c r="E8" s="51"/>
       <c r="G8" s="56"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -16070,9 +16086,13 @@
         <f t="shared" si="0"/>
         <v>43401</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
+      <c r="D10" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="115" t="s">
+        <v>84</v>
+      </c>
       <c r="G10" s="55"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -16088,7 +16108,7 @@
       </c>
       <c r="D11" s="29"/>
       <c r="F11" s="56" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -16263,10 +16283,10 @@
       <c r="H22" s="51"/>
     </row>
     <row r="23" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="119" t="s">
+      <c r="A23" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="119"/>
+      <c r="B23" s="105"/>
       <c r="C23" s="41" t="s">
         <v>18</v>
       </c>
@@ -16471,8 +16491,8 @@
         <v>43929</v>
       </c>
       <c r="D36" s="29"/>
-      <c r="F36" s="120" t="s">
-        <v>51</v>
+      <c r="F36" s="106" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -16489,7 +16509,7 @@
         <v>43936</v>
       </c>
       <c r="D37" s="44"/>
-      <c r="F37" s="120"/>
+      <c r="F37" s="106"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
@@ -16505,7 +16525,7 @@
         <v>43943</v>
       </c>
       <c r="D38" s="29"/>
-      <c r="F38" s="120"/>
+      <c r="F38" s="106"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
@@ -16537,7 +16557,7 @@
         <v>43957</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F40" s="39"/>
     </row>
@@ -16573,7 +16593,7 @@
         <v>43971</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F42" s="39"/>
     </row>

--- a/Weekly Planner.xlsx
+++ b/Weekly Planner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SoftwareProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1228247C-BA6E-4DE2-8CFF-737A367B7DB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F87D004-1780-439E-9501-488BC68AFBE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Planner" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="86">
   <si>
     <t>Monday</t>
   </si>
@@ -296,6 +296,9 @@
   <si>
     <t>Datsets Description</t>
   </si>
+  <si>
+    <t>Data Application Dev - Python Tutorial</t>
+  </si>
 </sst>
 </file>
 
@@ -459,7 +462,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -808,6 +811,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -822,7 +851,7 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -991,10 +1020,28 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="29" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="9" applyBorder="1" applyAlignment="1">
@@ -1006,40 +1053,31 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="16" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="9" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="5" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1048,10 +1086,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1061,9 +1102,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1081,16 +1119,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="6" fillId="11" borderId="4" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1099,20 +1128,41 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="5" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1120,25 +1170,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="30" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="9" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="24" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="8" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="29" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="31" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1441,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y507"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72:K72"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y66" sqref="Y66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1825,26 +1863,26 @@
       <c r="B13" s="57">
         <v>43724</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="75" t="s">
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="76"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="90"/>
       <c r="S13" s="51"/>
       <c r="T13" s="30" t="s">
         <v>22</v>
@@ -1857,26 +1895,26 @@
       <c r="B14" s="57">
         <v>43725</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="87" t="s">
+      <c r="J14" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="75" t="s">
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="76"/>
+      <c r="P14" s="90"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="51"/>
@@ -1919,13 +1957,13 @@
       <c r="B16" s="57">
         <v>43727</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
       <c r="H16" s="101" t="s">
         <v>47</v>
       </c>
@@ -2137,26 +2175,26 @@
         <f>B13+7</f>
         <v>43731</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="75" t="s">
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="76"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="90"/>
       <c r="S23" s="51"/>
       <c r="T23" s="30" t="s">
         <v>22</v>
@@ -2170,30 +2208,30 @@
         <f t="shared" ref="B24:B29" si="0">B14+7</f>
         <v>43732</v>
       </c>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="75" t="s">
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="86"/>
-      <c r="J24" s="83" t="s">
+      <c r="I24" s="102"/>
+      <c r="J24" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="K24" s="84"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="83" t="s">
+      <c r="K24" s="87"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="N24" s="85"/>
-      <c r="O24" s="87" t="s">
+      <c r="N24" s="99"/>
+      <c r="O24" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="P24" s="89"/>
+      <c r="P24" s="93"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
       <c r="S24" s="51"/>
@@ -2238,20 +2276,20 @@
         <f t="shared" si="0"/>
         <v>43734</v>
       </c>
-      <c r="C26" s="79" t="s">
+      <c r="C26" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="94" t="s">
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
@@ -2461,24 +2499,24 @@
         <f>B23+7</f>
         <v>43738</v>
       </c>
-      <c r="C33" s="79" t="s">
+      <c r="C33" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="94" t="s">
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="94"/>
+      <c r="I33" s="97"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="97"/>
+      <c r="L33" s="97"/>
+      <c r="M33" s="97"/>
+      <c r="N33" s="97"/>
+      <c r="O33" s="97"/>
+      <c r="P33" s="97"/>
       <c r="Q33" s="62"/>
       <c r="R33" s="62"/>
       <c r="S33" s="51"/>
@@ -2494,13 +2532,13 @@
         <f t="shared" ref="B34:B39" si="1">B24+7</f>
         <v>43739</v>
       </c>
-      <c r="C34" s="79" t="s">
+      <c r="C34" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
       <c r="H34" s="62"/>
       <c r="I34" s="62"/>
       <c r="J34" s="62"/>
@@ -2554,13 +2592,13 @@
         <f t="shared" si="1"/>
         <v>43741</v>
       </c>
-      <c r="C36" s="79" t="s">
+      <c r="C36" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="63"/>
@@ -2773,24 +2811,24 @@
         <f>B33+7</f>
         <v>43745</v>
       </c>
-      <c r="C43" s="79" t="s">
+      <c r="C43" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="95" t="s">
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="95"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="95"/>
-      <c r="N43" s="95"/>
-      <c r="O43" s="95"/>
-      <c r="P43" s="95"/>
+      <c r="I43" s="98"/>
+      <c r="J43" s="98"/>
+      <c r="K43" s="98"/>
+      <c r="L43" s="98"/>
+      <c r="M43" s="98"/>
+      <c r="N43" s="98"/>
+      <c r="O43" s="98"/>
+      <c r="P43" s="98"/>
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
       <c r="S43" s="51"/>
@@ -2806,22 +2844,22 @@
         <f t="shared" ref="B44:B49" si="2">B34+7</f>
         <v>43746</v>
       </c>
-      <c r="C44" s="79" t="s">
+      <c r="C44" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="103" t="s">
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="99"/>
-      <c r="J44" s="99"/>
-      <c r="K44" s="99"/>
-      <c r="L44" s="99"/>
-      <c r="M44" s="99"/>
-      <c r="N44" s="99"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="83"/>
+      <c r="M44" s="83"/>
+      <c r="N44" s="83"/>
       <c r="O44" s="49"/>
       <c r="P44" s="49"/>
       <c r="Q44" s="49"/>
@@ -2844,17 +2882,17 @@
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
-      <c r="H45" s="91" t="s">
+      <c r="H45" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="I45" s="92"/>
-      <c r="J45" s="92"/>
-      <c r="K45" s="92"/>
-      <c r="L45" s="92"/>
-      <c r="M45" s="92"/>
-      <c r="N45" s="92"/>
-      <c r="O45" s="92"/>
-      <c r="P45" s="93"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="95"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="95"/>
+      <c r="P45" s="96"/>
       <c r="Q45" s="49"/>
       <c r="R45" s="49"/>
       <c r="S45" s="51"/>
@@ -2870,24 +2908,24 @@
         <f t="shared" si="2"/>
         <v>43748</v>
       </c>
-      <c r="C46" s="79" t="s">
+      <c r="C46" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="96" t="s">
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="I46" s="81"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="81"/>
-      <c r="N46" s="81"/>
-      <c r="O46" s="81"/>
-      <c r="P46" s="97"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="80"/>
+      <c r="L46" s="80"/>
+      <c r="M46" s="80"/>
+      <c r="N46" s="80"/>
+      <c r="O46" s="80"/>
+      <c r="P46" s="81"/>
       <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
       <c r="S46" s="51"/>
@@ -3066,11 +3104,11 @@
         <v>5</v>
       </c>
       <c r="G52" s="15"/>
-      <c r="H52" s="104" t="s">
+      <c r="H52" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="I52" s="104"/>
-      <c r="J52" s="104"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="84"/>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
       <c r="M52" s="19"/>
@@ -3090,23 +3128,23 @@
         <f>B43+7</f>
         <v>43752</v>
       </c>
-      <c r="C53" s="79" t="s">
+      <c r="C53" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
       <c r="H53" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="I53" s="83" t="s">
+      <c r="I53" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="84"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
+      <c r="J53" s="87"/>
+      <c r="K53" s="87"/>
+      <c r="L53" s="87"/>
+      <c r="M53" s="87"/>
       <c r="N53" s="49"/>
       <c r="O53" s="49"/>
       <c r="P53" s="49"/>
@@ -3125,28 +3163,28 @@
         <f t="shared" ref="B54:B59" si="3">B44+7</f>
         <v>43753</v>
       </c>
-      <c r="C54" s="79" t="s">
+      <c r="C54" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="77" t="s">
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="I54" s="78"/>
-      <c r="J54" s="78"/>
-      <c r="K54" s="78"/>
-      <c r="L54" s="78"/>
-      <c r="M54" s="78"/>
-      <c r="N54" s="78"/>
-      <c r="O54" s="78"/>
-      <c r="P54" s="78"/>
-      <c r="Q54" s="75" t="s">
+      <c r="I54" s="106"/>
+      <c r="J54" s="106"/>
+      <c r="K54" s="106"/>
+      <c r="L54" s="106"/>
+      <c r="M54" s="106"/>
+      <c r="N54" s="106"/>
+      <c r="O54" s="106"/>
+      <c r="P54" s="106"/>
+      <c r="Q54" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="R54" s="76"/>
+      <c r="R54" s="90"/>
       <c r="S54" s="51"/>
       <c r="T54" s="53" t="s">
         <v>19</v>
@@ -3164,18 +3202,18 @@
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
-      <c r="G55" s="79" t="s">
+      <c r="G55" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="H55" s="79"/>
-      <c r="I55" s="102" t="s">
+      <c r="H55" s="69"/>
+      <c r="I55" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="J55" s="84"/>
-      <c r="K55" s="84"/>
-      <c r="L55" s="84"/>
-      <c r="M55" s="84"/>
-      <c r="N55" s="84"/>
+      <c r="J55" s="87"/>
+      <c r="K55" s="87"/>
+      <c r="L55" s="87"/>
+      <c r="M55" s="87"/>
+      <c r="N55" s="87"/>
       <c r="O55" s="49"/>
       <c r="P55" s="49"/>
       <c r="Q55" s="49"/>
@@ -3193,21 +3231,21 @@
         <f t="shared" si="3"/>
         <v>43755</v>
       </c>
-      <c r="C56" s="79" t="s">
+      <c r="C56" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="98" t="s">
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="I56" s="99"/>
-      <c r="J56" s="99"/>
-      <c r="K56" s="99"/>
-      <c r="L56" s="99"/>
-      <c r="M56" s="99"/>
+      <c r="I56" s="83"/>
+      <c r="J56" s="83"/>
+      <c r="K56" s="83"/>
+      <c r="L56" s="83"/>
+      <c r="M56" s="83"/>
       <c r="N56" s="49"/>
       <c r="O56" s="49"/>
       <c r="P56" s="49"/>
@@ -3239,11 +3277,11 @@
       <c r="M57" s="49"/>
       <c r="N57" s="49"/>
       <c r="O57" s="49"/>
-      <c r="P57" s="96" t="s">
+      <c r="P57" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="Q57" s="81"/>
-      <c r="R57" s="97"/>
+      <c r="Q57" s="80"/>
+      <c r="R57" s="81"/>
       <c r="S57" s="51"/>
       <c r="T57" s="51"/>
     </row>
@@ -3257,31 +3295,31 @@
       </c>
       <c r="C58" s="50"/>
       <c r="D58" s="49"/>
-      <c r="E58" s="80" t="s">
+      <c r="E58" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="F58" s="81"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="79" t="s">
+      <c r="F58" s="80"/>
+      <c r="G58" s="108"/>
+      <c r="H58" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="I58" s="79"/>
-      <c r="J58" s="83" t="s">
+      <c r="I58" s="69"/>
+      <c r="J58" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="K58" s="84"/>
-      <c r="L58" s="84"/>
-      <c r="M58" s="84"/>
-      <c r="N58" s="84"/>
-      <c r="O58" s="84"/>
-      <c r="P58" s="85"/>
+      <c r="K58" s="87"/>
+      <c r="L58" s="87"/>
+      <c r="M58" s="87"/>
+      <c r="N58" s="87"/>
+      <c r="O58" s="87"/>
+      <c r="P58" s="99"/>
       <c r="Q58" s="20"/>
       <c r="R58" s="20"/>
       <c r="S58" s="51"/>
-      <c r="T58" s="66" t="s">
+      <c r="T58" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="U58" s="66"/>
+      <c r="U58" s="112"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -3308,8 +3346,8 @@
       <c r="Q59" s="20"/>
       <c r="R59" s="20"/>
       <c r="S59" s="51"/>
-      <c r="T59" s="66"/>
-      <c r="U59" s="66"/>
+      <c r="T59" s="112"/>
+      <c r="U59" s="112"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B60"/>
@@ -3330,8 +3368,8 @@
       <c r="Q60"/>
       <c r="R60"/>
       <c r="S60"/>
-      <c r="T60" s="66"/>
-      <c r="U60" s="66"/>
+      <c r="T60" s="112"/>
+      <c r="U60" s="112"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
@@ -3405,11 +3443,11 @@
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
-      <c r="H62" s="104" t="s">
+      <c r="H62" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="I62" s="104"/>
-      <c r="J62" s="104"/>
+      <c r="I62" s="84"/>
+      <c r="J62" s="84"/>
       <c r="K62" s="19"/>
       <c r="L62" s="19"/>
       <c r="M62" s="19"/>
@@ -3429,34 +3467,34 @@
         <f>B53+7</f>
         <v>43759</v>
       </c>
-      <c r="C63" s="79" t="s">
+      <c r="C63" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="79"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="114" t="s">
+      <c r="D63" s="69"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="I63" s="68" t="s">
+      <c r="I63" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="J63" s="69"/>
-      <c r="K63" s="69"/>
-      <c r="L63" s="69"/>
-      <c r="M63" s="69"/>
-      <c r="N63" s="69"/>
-      <c r="O63" s="69"/>
-      <c r="P63" s="70"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="20"/>
+      <c r="J63" s="87"/>
+      <c r="K63" s="87"/>
+      <c r="L63" s="87"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="49"/>
+      <c r="R63" s="49"/>
       <c r="S63" s="51"/>
       <c r="T63" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>1</v>
       </c>
@@ -3464,34 +3502,32 @@
         <f t="shared" ref="B64:B69" si="4">B54+7</f>
         <v>43760</v>
       </c>
-      <c r="C64" s="79" t="s">
+      <c r="C64" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="79"/>
-      <c r="H64" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="I64" s="79"/>
-      <c r="J64" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="K64" s="69"/>
-      <c r="L64" s="69"/>
-      <c r="M64" s="69"/>
-      <c r="N64" s="69"/>
-      <c r="O64" s="69"/>
-      <c r="P64" s="69"/>
-      <c r="Q64" s="70"/>
-      <c r="R64" s="20"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="69"/>
+      <c r="H64" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="I64" s="80"/>
+      <c r="J64" s="80"/>
+      <c r="K64" s="80"/>
+      <c r="L64" s="80"/>
+      <c r="M64" s="80"/>
+      <c r="N64" s="80"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="49"/>
+      <c r="Q64" s="49"/>
+      <c r="R64" s="49"/>
       <c r="S64" s="51"/>
       <c r="T64" s="53" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
@@ -3499,26 +3535,22 @@
         <f t="shared" si="4"/>
         <v>43761</v>
       </c>
-      <c r="C65" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="D65" s="69"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="69"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="69"/>
-      <c r="I65" s="69"/>
-      <c r="J65" s="70"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="49"/>
       <c r="K65" s="49"/>
-      <c r="L65" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="M65" s="69"/>
-      <c r="N65" s="69"/>
-      <c r="O65" s="69"/>
-      <c r="P65" s="69"/>
-      <c r="Q65" s="69"/>
-      <c r="R65" s="70"/>
+      <c r="L65" s="49"/>
+      <c r="M65" s="49"/>
+      <c r="N65" s="49"/>
+      <c r="O65" s="49"/>
+      <c r="P65" s="49"/>
+      <c r="Q65" s="49"/>
+      <c r="R65" s="49"/>
       <c r="S65" s="51"/>
       <c r="T65" s="52" t="s">
         <v>20</v>
@@ -3526,7 +3558,7 @@
       <c r="X65" s="60"/>
       <c r="Y65" s="60"/>
     </row>
-    <row r="66" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3534,27 +3566,25 @@
         <f t="shared" si="4"/>
         <v>43762</v>
       </c>
-      <c r="C66" s="79" t="s">
+      <c r="C66" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="79"/>
-      <c r="H66" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="I66" s="70"/>
-      <c r="J66" s="68" t="s">
+      <c r="D66" s="69"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="69"/>
+      <c r="H66" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="K66" s="69"/>
-      <c r="L66" s="69"/>
-      <c r="M66" s="69"/>
-      <c r="N66" s="69"/>
-      <c r="O66" s="69"/>
-      <c r="P66" s="69"/>
-      <c r="Q66" s="70"/>
+      <c r="I66" s="117"/>
+      <c r="J66" s="117"/>
+      <c r="K66" s="117"/>
+      <c r="L66" s="117"/>
+      <c r="M66" s="117"/>
+      <c r="N66" s="117"/>
+      <c r="O66" s="117"/>
+      <c r="P66" s="117"/>
+      <c r="Q66" s="118"/>
       <c r="R66" s="20"/>
       <c r="S66" s="51"/>
       <c r="T66" s="18" t="s">
@@ -3569,26 +3599,26 @@
         <f t="shared" si="4"/>
         <v>43763</v>
       </c>
-      <c r="C67" s="68" t="s">
+      <c r="C67" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="D67" s="69"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="69"/>
-      <c r="G67" s="69"/>
-      <c r="H67" s="69"/>
-      <c r="I67" s="69"/>
-      <c r="J67" s="70"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="75"/>
+      <c r="I67" s="75"/>
+      <c r="J67" s="76"/>
       <c r="K67" s="49"/>
-      <c r="L67" s="69" t="s">
+      <c r="L67" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="M67" s="69"/>
-      <c r="N67" s="69"/>
-      <c r="O67" s="69"/>
-      <c r="P67" s="69"/>
-      <c r="Q67" s="69"/>
-      <c r="R67" s="70"/>
+      <c r="M67" s="75"/>
+      <c r="N67" s="75"/>
+      <c r="O67" s="75"/>
+      <c r="P67" s="75"/>
+      <c r="Q67" s="75"/>
+      <c r="R67" s="76"/>
       <c r="S67" s="51"/>
       <c r="T67" s="51"/>
     </row>
@@ -3600,26 +3630,26 @@
         <f t="shared" si="4"/>
         <v>43764</v>
       </c>
-      <c r="C68" s="68" t="s">
+      <c r="C68" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="D68" s="69"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="69"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="69"/>
-      <c r="J68" s="70"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="75"/>
+      <c r="H68" s="75"/>
+      <c r="I68" s="75"/>
+      <c r="J68" s="76"/>
       <c r="K68" s="49"/>
-      <c r="L68" s="69" t="s">
+      <c r="L68" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="M68" s="69"/>
-      <c r="N68" s="69"/>
-      <c r="O68" s="69"/>
-      <c r="P68" s="69"/>
-      <c r="Q68" s="69"/>
-      <c r="R68" s="70"/>
+      <c r="M68" s="75"/>
+      <c r="N68" s="75"/>
+      <c r="O68" s="75"/>
+      <c r="P68" s="75"/>
+      <c r="Q68" s="75"/>
+      <c r="R68" s="76"/>
       <c r="S68" s="51"/>
       <c r="T68" s="51"/>
     </row>
@@ -3631,24 +3661,24 @@
         <f t="shared" si="4"/>
         <v>43765</v>
       </c>
-      <c r="C69" s="79" t="s">
+      <c r="C69" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="D69" s="79"/>
-      <c r="E69" s="79"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="79"/>
-      <c r="H69" s="79"/>
-      <c r="I69" s="79"/>
-      <c r="J69" s="79"/>
-      <c r="K69" s="79"/>
-      <c r="L69" s="79"/>
-      <c r="M69" s="79"/>
-      <c r="N69" s="79"/>
-      <c r="O69" s="79"/>
-      <c r="P69" s="79"/>
-      <c r="Q69" s="79"/>
-      <c r="R69" s="79"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="69"/>
+      <c r="J69" s="69"/>
+      <c r="K69" s="69"/>
+      <c r="L69" s="69"/>
+      <c r="M69" s="69"/>
+      <c r="N69" s="69"/>
+      <c r="O69" s="69"/>
+      <c r="P69" s="69"/>
+      <c r="Q69" s="69"/>
+      <c r="R69" s="69"/>
       <c r="S69" s="51"/>
       <c r="T69" s="51"/>
     </row>
@@ -3741,27 +3771,27 @@
         <f>C62+1</f>
         <v>7</v>
       </c>
-      <c r="D72" s="74" t="s">
+      <c r="D72" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="74"/>
-      <c r="F72" s="74"/>
+      <c r="E72" s="85"/>
+      <c r="F72" s="85"/>
       <c r="G72" s="15"/>
-      <c r="H72" s="111" t="s">
+      <c r="H72" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="I72" s="111"/>
-      <c r="J72" s="111"/>
-      <c r="K72" s="111"/>
+      <c r="I72" s="78"/>
+      <c r="J72" s="78"/>
+      <c r="K72" s="78"/>
       <c r="L72" s="19"/>
-      <c r="M72" s="110" t="s">
+      <c r="M72" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="N72" s="110"/>
-      <c r="O72" s="110"/>
-      <c r="P72" s="110"/>
-      <c r="Q72" s="110"/>
-      <c r="R72" s="110"/>
+      <c r="N72" s="77"/>
+      <c r="O72" s="77"/>
+      <c r="P72" s="77"/>
+      <c r="Q72" s="77"/>
+      <c r="R72" s="77"/>
       <c r="S72" s="51"/>
       <c r="T72" s="51"/>
     </row>
@@ -3775,23 +3805,23 @@
       </c>
       <c r="C73" s="32"/>
       <c r="D73" s="20"/>
-      <c r="E73" s="67" t="s">
+      <c r="E73" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="F73" s="67"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="67"/>
-      <c r="I73" s="67"/>
-      <c r="J73" s="67"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="70"/>
+      <c r="H73" s="70"/>
+      <c r="I73" s="70"/>
+      <c r="J73" s="70"/>
       <c r="K73" s="49"/>
-      <c r="L73" s="68" t="s">
+      <c r="L73" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="M73" s="69"/>
-      <c r="N73" s="69"/>
-      <c r="O73" s="69"/>
-      <c r="P73" s="69"/>
-      <c r="Q73" s="70"/>
+      <c r="M73" s="75"/>
+      <c r="N73" s="75"/>
+      <c r="O73" s="75"/>
+      <c r="P73" s="75"/>
+      <c r="Q73" s="76"/>
       <c r="R73" s="49"/>
       <c r="S73" s="51"/>
       <c r="T73" s="30" t="s">
@@ -3806,25 +3836,27 @@
         <f t="shared" ref="B74:B79" si="5">B64+7</f>
         <v>43767</v>
       </c>
-      <c r="C74" s="50"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="67" t="s">
+      <c r="C74" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="76"/>
+      <c r="E74" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="F74" s="67"/>
-      <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="67"/>
-      <c r="J74" s="67"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="70"/>
+      <c r="H74" s="70"/>
+      <c r="I74" s="70"/>
+      <c r="J74" s="70"/>
       <c r="K74" s="49"/>
-      <c r="L74" s="68" t="s">
+      <c r="L74" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="M74" s="69"/>
-      <c r="N74" s="69"/>
-      <c r="O74" s="69"/>
-      <c r="P74" s="69"/>
-      <c r="Q74" s="70"/>
+      <c r="M74" s="75"/>
+      <c r="N74" s="75"/>
+      <c r="O74" s="75"/>
+      <c r="P74" s="75"/>
+      <c r="Q74" s="76"/>
       <c r="R74" s="20"/>
       <c r="S74" s="51"/>
       <c r="T74" s="53" t="s">
@@ -3841,23 +3873,23 @@
       </c>
       <c r="C75" s="32"/>
       <c r="D75" s="20"/>
-      <c r="E75" s="67" t="s">
+      <c r="E75" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="F75" s="67"/>
-      <c r="G75" s="67"/>
-      <c r="H75" s="67"/>
-      <c r="I75" s="67"/>
-      <c r="J75" s="67"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="70"/>
+      <c r="H75" s="70"/>
+      <c r="I75" s="70"/>
+      <c r="J75" s="70"/>
       <c r="K75" s="49"/>
-      <c r="L75" s="68" t="s">
+      <c r="L75" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="M75" s="69"/>
-      <c r="N75" s="69"/>
-      <c r="O75" s="69"/>
-      <c r="P75" s="69"/>
-      <c r="Q75" s="70"/>
+      <c r="M75" s="75"/>
+      <c r="N75" s="75"/>
+      <c r="O75" s="75"/>
+      <c r="P75" s="75"/>
+      <c r="Q75" s="76"/>
       <c r="R75" s="49"/>
       <c r="S75" s="51"/>
       <c r="T75" s="52" t="s">
@@ -3872,24 +3904,24 @@
         <f t="shared" si="5"/>
         <v>43769</v>
       </c>
-      <c r="C76" s="79" t="s">
+      <c r="C76" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="D76" s="79"/>
-      <c r="E76" s="79"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="79"/>
-      <c r="H76" s="79"/>
-      <c r="I76" s="79"/>
-      <c r="J76" s="79"/>
-      <c r="K76" s="79"/>
-      <c r="L76" s="79"/>
-      <c r="M76" s="79"/>
-      <c r="N76" s="79"/>
-      <c r="O76" s="79"/>
-      <c r="P76" s="79"/>
-      <c r="Q76" s="79"/>
-      <c r="R76" s="79"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="69"/>
+      <c r="I76" s="69"/>
+      <c r="J76" s="69"/>
+      <c r="K76" s="69"/>
+      <c r="L76" s="69"/>
+      <c r="M76" s="69"/>
+      <c r="N76" s="69"/>
+      <c r="O76" s="69"/>
+      <c r="P76" s="69"/>
+      <c r="Q76" s="69"/>
+      <c r="R76" s="69"/>
       <c r="S76" s="51"/>
       <c r="T76" s="18" t="s">
         <v>21</v>
@@ -3905,23 +3937,23 @@
       </c>
       <c r="C77" s="32"/>
       <c r="D77" s="20"/>
-      <c r="E77" s="67" t="s">
+      <c r="E77" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="F77" s="67"/>
-      <c r="G77" s="67"/>
-      <c r="H77" s="67"/>
-      <c r="I77" s="67"/>
-      <c r="J77" s="67"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="70"/>
+      <c r="H77" s="70"/>
+      <c r="I77" s="70"/>
+      <c r="J77" s="70"/>
       <c r="K77" s="49"/>
-      <c r="L77" s="68" t="s">
+      <c r="L77" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="M77" s="69"/>
-      <c r="N77" s="69"/>
-      <c r="O77" s="69"/>
-      <c r="P77" s="69"/>
-      <c r="Q77" s="70"/>
+      <c r="M77" s="75"/>
+      <c r="N77" s="75"/>
+      <c r="O77" s="75"/>
+      <c r="P77" s="75"/>
+      <c r="Q77" s="76"/>
       <c r="R77" s="20"/>
       <c r="S77" s="51"/>
       <c r="T77" s="51"/>
@@ -3936,23 +3968,23 @@
       </c>
       <c r="C78" s="50"/>
       <c r="D78" s="49"/>
-      <c r="E78" s="67" t="s">
+      <c r="E78" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="F78" s="67"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67"/>
-      <c r="I78" s="67"/>
-      <c r="J78" s="67"/>
+      <c r="F78" s="70"/>
+      <c r="G78" s="70"/>
+      <c r="H78" s="70"/>
+      <c r="I78" s="70"/>
+      <c r="J78" s="70"/>
       <c r="K78" s="49"/>
-      <c r="L78" s="68" t="s">
+      <c r="L78" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="M78" s="69"/>
-      <c r="N78" s="69"/>
-      <c r="O78" s="69"/>
-      <c r="P78" s="69"/>
-      <c r="Q78" s="70"/>
+      <c r="M78" s="75"/>
+      <c r="N78" s="75"/>
+      <c r="O78" s="75"/>
+      <c r="P78" s="75"/>
+      <c r="Q78" s="76"/>
       <c r="R78" s="49"/>
       <c r="S78" s="51"/>
       <c r="T78" s="51"/>
@@ -3965,24 +3997,24 @@
         <f t="shared" si="5"/>
         <v>43772</v>
       </c>
-      <c r="C79" s="79" t="s">
+      <c r="C79" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="D79" s="79"/>
-      <c r="E79" s="79"/>
-      <c r="F79" s="79"/>
-      <c r="G79" s="79"/>
-      <c r="H79" s="79"/>
-      <c r="I79" s="79"/>
-      <c r="J79" s="79"/>
-      <c r="K79" s="79"/>
-      <c r="L79" s="79"/>
-      <c r="M79" s="79"/>
-      <c r="N79" s="79"/>
-      <c r="O79" s="79"/>
-      <c r="P79" s="79"/>
-      <c r="Q79" s="79"/>
-      <c r="R79" s="79"/>
+      <c r="D79" s="69"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="69"/>
+      <c r="G79" s="69"/>
+      <c r="H79" s="69"/>
+      <c r="I79" s="69"/>
+      <c r="J79" s="69"/>
+      <c r="K79" s="69"/>
+      <c r="L79" s="69"/>
+      <c r="M79" s="69"/>
+      <c r="N79" s="69"/>
+      <c r="O79" s="69"/>
+      <c r="P79" s="69"/>
+      <c r="Q79" s="69"/>
+      <c r="R79" s="69"/>
       <c r="S79" s="51"/>
       <c r="T79" s="51"/>
     </row>
@@ -4056,11 +4088,11 @@
         <f>C72+1</f>
         <v>8</v>
       </c>
-      <c r="D82" s="74" t="s">
+      <c r="D82" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="74"/>
-      <c r="F82" s="74"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="85"/>
       <c r="G82" s="15"/>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -4085,13 +4117,13 @@
         <f>B73+7</f>
         <v>43773</v>
       </c>
-      <c r="C83" s="79" t="s">
+      <c r="C83" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="79"/>
-      <c r="E83" s="79"/>
-      <c r="F83" s="79"/>
-      <c r="G83" s="79"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="69"/>
+      <c r="F83" s="69"/>
+      <c r="G83" s="69"/>
       <c r="H83" s="71" t="s">
         <v>66</v>
       </c>
@@ -4102,7 +4134,7 @@
       <c r="M83" s="72"/>
       <c r="N83" s="72"/>
       <c r="O83" s="72"/>
-      <c r="P83" s="73"/>
+      <c r="P83" s="104"/>
       <c r="Q83" s="20"/>
       <c r="R83" s="20"/>
       <c r="S83" s="51"/>
@@ -4119,17 +4151,17 @@
         <f t="shared" ref="B84:B89" si="6">B74+7</f>
         <v>43774</v>
       </c>
-      <c r="C84" s="79" t="s">
+      <c r="C84" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="79"/>
-      <c r="E84" s="79"/>
-      <c r="F84" s="79"/>
-      <c r="G84" s="79"/>
-      <c r="H84" s="79" t="s">
+      <c r="D84" s="69"/>
+      <c r="E84" s="69"/>
+      <c r="F84" s="69"/>
+      <c r="G84" s="69"/>
+      <c r="H84" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="I84" s="79"/>
+      <c r="I84" s="69"/>
       <c r="J84" s="20"/>
       <c r="K84" s="49"/>
       <c r="L84" s="49"/>
@@ -4183,13 +4215,13 @@
         <f t="shared" si="6"/>
         <v>43776</v>
       </c>
-      <c r="C86" s="112" t="s">
+      <c r="C86" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="D86" s="112"/>
-      <c r="E86" s="112"/>
-      <c r="F86" s="112"/>
-      <c r="G86" s="112"/>
+      <c r="D86" s="103"/>
+      <c r="E86" s="103"/>
+      <c r="F86" s="103"/>
+      <c r="G86" s="103"/>
       <c r="H86" s="49"/>
       <c r="I86" s="49"/>
       <c r="J86" s="49"/>
@@ -4271,24 +4303,24 @@
         <f t="shared" si="6"/>
         <v>43779</v>
       </c>
-      <c r="C89" s="79" t="s">
+      <c r="C89" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="D89" s="79"/>
-      <c r="E89" s="79"/>
-      <c r="F89" s="79"/>
-      <c r="G89" s="79"/>
-      <c r="H89" s="79"/>
-      <c r="I89" s="79"/>
-      <c r="J89" s="79"/>
-      <c r="K89" s="79"/>
-      <c r="L89" s="79"/>
-      <c r="M89" s="79"/>
-      <c r="N89" s="79"/>
-      <c r="O89" s="79"/>
-      <c r="P89" s="79"/>
-      <c r="Q89" s="79"/>
-      <c r="R89" s="79"/>
+      <c r="D89" s="69"/>
+      <c r="E89" s="69"/>
+      <c r="F89" s="69"/>
+      <c r="G89" s="69"/>
+      <c r="H89" s="69"/>
+      <c r="I89" s="69"/>
+      <c r="J89" s="69"/>
+      <c r="K89" s="69"/>
+      <c r="L89" s="69"/>
+      <c r="M89" s="69"/>
+      <c r="N89" s="69"/>
+      <c r="O89" s="69"/>
+      <c r="P89" s="69"/>
+      <c r="Q89" s="69"/>
+      <c r="R89" s="69"/>
       <c r="S89" s="51"/>
       <c r="T89" s="51"/>
       <c r="U89" s="54"/>
@@ -4390,13 +4422,13 @@
         <f>B83+7</f>
         <v>43780</v>
       </c>
-      <c r="C93" s="79" t="s">
+      <c r="C93" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="79"/>
-      <c r="E93" s="79"/>
-      <c r="F93" s="79"/>
-      <c r="G93" s="79"/>
+      <c r="D93" s="69"/>
+      <c r="E93" s="69"/>
+      <c r="F93" s="69"/>
+      <c r="G93" s="69"/>
       <c r="H93" s="49"/>
       <c r="I93" s="49"/>
       <c r="J93" s="49"/>
@@ -4422,13 +4454,13 @@
         <f t="shared" ref="B94:B99" si="7">B84+7</f>
         <v>43781</v>
       </c>
-      <c r="C94" s="79" t="s">
+      <c r="C94" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="79"/>
-      <c r="E94" s="79"/>
-      <c r="F94" s="79"/>
-      <c r="G94" s="79"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="69"/>
+      <c r="F94" s="69"/>
+      <c r="G94" s="69"/>
       <c r="H94" s="20"/>
       <c r="I94" s="20"/>
       <c r="J94" s="20"/>
@@ -4484,13 +4516,13 @@
         <f t="shared" si="7"/>
         <v>43783</v>
       </c>
-      <c r="C96" s="79" t="s">
+      <c r="C96" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D96" s="79"/>
-      <c r="E96" s="79"/>
-      <c r="F96" s="79"/>
-      <c r="G96" s="79"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="69"/>
+      <c r="F96" s="69"/>
+      <c r="G96" s="69"/>
       <c r="H96" s="49"/>
       <c r="I96" s="49"/>
       <c r="J96" s="49"/>
@@ -4572,24 +4604,24 @@
         <f t="shared" si="7"/>
         <v>43786</v>
       </c>
-      <c r="C99" s="79" t="s">
+      <c r="C99" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="D99" s="79"/>
-      <c r="E99" s="79"/>
-      <c r="F99" s="79"/>
-      <c r="G99" s="79"/>
-      <c r="H99" s="79"/>
-      <c r="I99" s="79"/>
-      <c r="J99" s="79"/>
-      <c r="K99" s="79"/>
-      <c r="L99" s="79"/>
-      <c r="M99" s="79"/>
-      <c r="N99" s="79"/>
-      <c r="O99" s="79"/>
-      <c r="P99" s="79"/>
-      <c r="Q99" s="79"/>
-      <c r="R99" s="79"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="69"/>
+      <c r="F99" s="69"/>
+      <c r="G99" s="69"/>
+      <c r="H99" s="69"/>
+      <c r="I99" s="69"/>
+      <c r="J99" s="69"/>
+      <c r="K99" s="69"/>
+      <c r="L99" s="69"/>
+      <c r="M99" s="69"/>
+      <c r="N99" s="69"/>
+      <c r="O99" s="69"/>
+      <c r="P99" s="69"/>
+      <c r="Q99" s="69"/>
+      <c r="R99" s="69"/>
       <c r="S99" s="51"/>
       <c r="T99" s="51"/>
       <c r="U99" s="54"/>
@@ -4691,13 +4723,13 @@
         <f>B93+7</f>
         <v>43787</v>
       </c>
-      <c r="C103" s="79" t="s">
+      <c r="C103" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="79"/>
-      <c r="E103" s="79"/>
-      <c r="F103" s="79"/>
-      <c r="G103" s="79"/>
+      <c r="D103" s="69"/>
+      <c r="E103" s="69"/>
+      <c r="F103" s="69"/>
+      <c r="G103" s="69"/>
       <c r="H103" s="49"/>
       <c r="I103" s="49"/>
       <c r="J103" s="49"/>
@@ -4723,17 +4755,17 @@
         <f t="shared" ref="B104:B109" si="8">B94+7</f>
         <v>43788</v>
       </c>
-      <c r="C104" s="79" t="s">
+      <c r="C104" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D104" s="79"/>
-      <c r="E104" s="79"/>
-      <c r="F104" s="79"/>
-      <c r="G104" s="79"/>
-      <c r="H104" s="79" t="s">
+      <c r="D104" s="69"/>
+      <c r="E104" s="69"/>
+      <c r="F104" s="69"/>
+      <c r="G104" s="69"/>
+      <c r="H104" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="I104" s="79"/>
+      <c r="I104" s="69"/>
       <c r="J104" s="20"/>
       <c r="K104" s="49"/>
       <c r="L104" s="49"/>
@@ -4787,13 +4819,13 @@
         <f t="shared" si="8"/>
         <v>43790</v>
       </c>
-      <c r="C106" s="79" t="s">
+      <c r="C106" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D106" s="79"/>
-      <c r="E106" s="79"/>
-      <c r="F106" s="79"/>
-      <c r="G106" s="79"/>
+      <c r="D106" s="69"/>
+      <c r="E106" s="69"/>
+      <c r="F106" s="69"/>
+      <c r="G106" s="69"/>
       <c r="H106" s="49"/>
       <c r="I106" s="49"/>
       <c r="J106" s="49"/>
@@ -4875,24 +4907,24 @@
         <f t="shared" si="8"/>
         <v>43793</v>
       </c>
-      <c r="C109" s="79" t="s">
+      <c r="C109" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="D109" s="79"/>
-      <c r="E109" s="79"/>
-      <c r="F109" s="79"/>
-      <c r="G109" s="79"/>
-      <c r="H109" s="79"/>
-      <c r="I109" s="79"/>
-      <c r="J109" s="79"/>
-      <c r="K109" s="79"/>
-      <c r="L109" s="79"/>
-      <c r="M109" s="79"/>
-      <c r="N109" s="79"/>
-      <c r="O109" s="79"/>
-      <c r="P109" s="79"/>
-      <c r="Q109" s="79"/>
-      <c r="R109" s="79"/>
+      <c r="D109" s="69"/>
+      <c r="E109" s="69"/>
+      <c r="F109" s="69"/>
+      <c r="G109" s="69"/>
+      <c r="H109" s="69"/>
+      <c r="I109" s="69"/>
+      <c r="J109" s="69"/>
+      <c r="K109" s="69"/>
+      <c r="L109" s="69"/>
+      <c r="M109" s="69"/>
+      <c r="N109" s="69"/>
+      <c r="O109" s="69"/>
+      <c r="P109" s="69"/>
+      <c r="Q109" s="69"/>
+      <c r="R109" s="69"/>
       <c r="S109" s="51"/>
       <c r="T109" s="51"/>
       <c r="U109" s="54"/>
@@ -4967,11 +4999,11 @@
         <f>C102+1</f>
         <v>11</v>
       </c>
-      <c r="D112" s="74" t="s">
+      <c r="D112" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="E112" s="74"/>
-      <c r="F112" s="74"/>
+      <c r="E112" s="85"/>
+      <c r="F112" s="85"/>
       <c r="G112" s="15"/>
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
@@ -4996,13 +5028,13 @@
         <f>B103+7</f>
         <v>43794</v>
       </c>
-      <c r="C113" s="79" t="s">
+      <c r="C113" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D113" s="79"/>
-      <c r="E113" s="79"/>
-      <c r="F113" s="79"/>
-      <c r="G113" s="79"/>
+      <c r="D113" s="69"/>
+      <c r="E113" s="69"/>
+      <c r="F113" s="69"/>
+      <c r="G113" s="69"/>
       <c r="H113" s="49"/>
       <c r="I113" s="49"/>
       <c r="J113" s="49"/>
@@ -5028,13 +5060,13 @@
         <f t="shared" ref="B114:B119" si="9">B104+7</f>
         <v>43795</v>
       </c>
-      <c r="C114" s="79" t="s">
+      <c r="C114" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D114" s="79"/>
-      <c r="E114" s="79"/>
-      <c r="F114" s="79"/>
-      <c r="G114" s="79"/>
+      <c r="D114" s="69"/>
+      <c r="E114" s="69"/>
+      <c r="F114" s="69"/>
+      <c r="G114" s="69"/>
       <c r="H114" s="20"/>
       <c r="I114" s="20"/>
       <c r="J114" s="20"/>
@@ -5062,23 +5094,23 @@
       </c>
       <c r="C115" s="32"/>
       <c r="D115" s="20"/>
-      <c r="E115" s="67" t="s">
+      <c r="E115" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="F115" s="67"/>
-      <c r="G115" s="67"/>
-      <c r="H115" s="67"/>
-      <c r="I115" s="67"/>
-      <c r="J115" s="67"/>
+      <c r="F115" s="70"/>
+      <c r="G115" s="70"/>
+      <c r="H115" s="70"/>
+      <c r="I115" s="70"/>
+      <c r="J115" s="70"/>
       <c r="K115" s="49"/>
-      <c r="L115" s="68" t="s">
+      <c r="L115" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="M115" s="69"/>
-      <c r="N115" s="69"/>
-      <c r="O115" s="69"/>
-      <c r="P115" s="69"/>
-      <c r="Q115" s="70"/>
+      <c r="M115" s="75"/>
+      <c r="N115" s="75"/>
+      <c r="O115" s="75"/>
+      <c r="P115" s="75"/>
+      <c r="Q115" s="76"/>
       <c r="R115" s="49"/>
       <c r="S115" s="51"/>
       <c r="T115" s="52" t="s">
@@ -5094,18 +5126,18 @@
         <f t="shared" si="9"/>
         <v>43797</v>
       </c>
-      <c r="C116" s="79" t="s">
+      <c r="C116" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D116" s="79"/>
-      <c r="E116" s="79"/>
-      <c r="F116" s="79"/>
-      <c r="G116" s="79"/>
-      <c r="H116" s="67" t="s">
+      <c r="D116" s="69"/>
+      <c r="E116" s="69"/>
+      <c r="F116" s="69"/>
+      <c r="G116" s="69"/>
+      <c r="H116" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="I116" s="67"/>
-      <c r="J116" s="67"/>
+      <c r="I116" s="70"/>
+      <c r="J116" s="70"/>
       <c r="K116" s="71" t="s">
         <v>65</v>
       </c>
@@ -5114,7 +5146,7 @@
       <c r="N116" s="72"/>
       <c r="O116" s="72"/>
       <c r="P116" s="72"/>
-      <c r="Q116" s="113"/>
+      <c r="Q116" s="73"/>
       <c r="R116" s="20"/>
       <c r="S116" s="51"/>
       <c r="T116" s="18" t="s">
@@ -5132,23 +5164,23 @@
       </c>
       <c r="C117" s="32"/>
       <c r="D117" s="20"/>
-      <c r="E117" s="67" t="s">
+      <c r="E117" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="F117" s="67"/>
-      <c r="G117" s="67"/>
-      <c r="H117" s="67"/>
-      <c r="I117" s="67"/>
-      <c r="J117" s="67"/>
+      <c r="F117" s="70"/>
+      <c r="G117" s="70"/>
+      <c r="H117" s="70"/>
+      <c r="I117" s="70"/>
+      <c r="J117" s="70"/>
       <c r="K117" s="49"/>
-      <c r="L117" s="68" t="s">
+      <c r="L117" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="M117" s="69"/>
-      <c r="N117" s="69"/>
-      <c r="O117" s="69"/>
-      <c r="P117" s="69"/>
-      <c r="Q117" s="70"/>
+      <c r="M117" s="75"/>
+      <c r="N117" s="75"/>
+      <c r="O117" s="75"/>
+      <c r="P117" s="75"/>
+      <c r="Q117" s="76"/>
       <c r="R117" s="20"/>
       <c r="S117" s="51"/>
       <c r="T117" s="51"/>
@@ -5164,23 +5196,23 @@
       </c>
       <c r="C118" s="50"/>
       <c r="D118" s="49"/>
-      <c r="E118" s="67" t="s">
+      <c r="E118" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="F118" s="67"/>
-      <c r="G118" s="67"/>
-      <c r="H118" s="67"/>
-      <c r="I118" s="67"/>
-      <c r="J118" s="67"/>
+      <c r="F118" s="70"/>
+      <c r="G118" s="70"/>
+      <c r="H118" s="70"/>
+      <c r="I118" s="70"/>
+      <c r="J118" s="70"/>
       <c r="K118" s="49"/>
-      <c r="L118" s="68" t="s">
+      <c r="L118" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="M118" s="69"/>
-      <c r="N118" s="69"/>
-      <c r="O118" s="69"/>
-      <c r="P118" s="69"/>
-      <c r="Q118" s="70"/>
+      <c r="M118" s="75"/>
+      <c r="N118" s="75"/>
+      <c r="O118" s="75"/>
+      <c r="P118" s="75"/>
+      <c r="Q118" s="76"/>
       <c r="R118" s="49"/>
       <c r="S118" s="51"/>
       <c r="T118" s="51"/>
@@ -5194,24 +5226,24 @@
         <f t="shared" si="9"/>
         <v>43800</v>
       </c>
-      <c r="C119" s="79" t="s">
+      <c r="C119" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="D119" s="79"/>
-      <c r="E119" s="79"/>
-      <c r="F119" s="79"/>
-      <c r="G119" s="79"/>
-      <c r="H119" s="79"/>
-      <c r="I119" s="79"/>
-      <c r="J119" s="79"/>
-      <c r="K119" s="79"/>
-      <c r="L119" s="79"/>
-      <c r="M119" s="79"/>
-      <c r="N119" s="79"/>
-      <c r="O119" s="79"/>
-      <c r="P119" s="79"/>
-      <c r="Q119" s="79"/>
-      <c r="R119" s="79"/>
+      <c r="D119" s="69"/>
+      <c r="E119" s="69"/>
+      <c r="F119" s="69"/>
+      <c r="G119" s="69"/>
+      <c r="H119" s="69"/>
+      <c r="I119" s="69"/>
+      <c r="J119" s="69"/>
+      <c r="K119" s="69"/>
+      <c r="L119" s="69"/>
+      <c r="M119" s="69"/>
+      <c r="N119" s="69"/>
+      <c r="O119" s="69"/>
+      <c r="P119" s="69"/>
+      <c r="Q119" s="69"/>
+      <c r="R119" s="69"/>
       <c r="S119" s="51"/>
       <c r="T119" s="51"/>
       <c r="U119" s="54"/>
@@ -5286,11 +5318,11 @@
         <f>C112+1</f>
         <v>12</v>
       </c>
-      <c r="D122" s="74" t="s">
+      <c r="D122" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="E122" s="74"/>
-      <c r="F122" s="74"/>
+      <c r="E122" s="85"/>
+      <c r="F122" s="85"/>
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
@@ -5315,13 +5347,13 @@
         <f>B113+7</f>
         <v>43801</v>
       </c>
-      <c r="C123" s="79" t="s">
+      <c r="C123" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="79"/>
-      <c r="E123" s="79"/>
-      <c r="F123" s="79"/>
-      <c r="G123" s="79"/>
+      <c r="D123" s="69"/>
+      <c r="E123" s="69"/>
+      <c r="F123" s="69"/>
+      <c r="G123" s="69"/>
       <c r="H123" s="71" t="s">
         <v>65</v>
       </c>
@@ -5332,7 +5364,7 @@
       <c r="M123" s="72"/>
       <c r="N123" s="72"/>
       <c r="O123" s="72"/>
-      <c r="P123" s="73"/>
+      <c r="P123" s="104"/>
       <c r="Q123" s="20"/>
       <c r="R123" s="20"/>
       <c r="S123" s="51"/>
@@ -5349,17 +5381,17 @@
         <f t="shared" ref="B124:B129" si="10">B114+7</f>
         <v>43802</v>
       </c>
-      <c r="C124" s="79" t="s">
+      <c r="C124" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D124" s="79"/>
-      <c r="E124" s="79"/>
-      <c r="F124" s="79"/>
-      <c r="G124" s="79"/>
-      <c r="H124" s="79" t="s">
+      <c r="D124" s="69"/>
+      <c r="E124" s="69"/>
+      <c r="F124" s="69"/>
+      <c r="G124" s="69"/>
+      <c r="H124" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="I124" s="79"/>
+      <c r="I124" s="69"/>
       <c r="J124" s="20"/>
       <c r="K124" s="49"/>
       <c r="L124" s="49"/>
@@ -5413,13 +5445,13 @@
         <f t="shared" si="10"/>
         <v>43804</v>
       </c>
-      <c r="C126" s="112" t="s">
+      <c r="C126" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="D126" s="112"/>
-      <c r="E126" s="112"/>
-      <c r="F126" s="112"/>
-      <c r="G126" s="112"/>
+      <c r="D126" s="103"/>
+      <c r="E126" s="103"/>
+      <c r="F126" s="103"/>
+      <c r="G126" s="103"/>
       <c r="H126" s="49"/>
       <c r="I126" s="49"/>
       <c r="J126" s="49"/>
@@ -5501,24 +5533,24 @@
         <f t="shared" si="10"/>
         <v>43807</v>
       </c>
-      <c r="C129" s="79" t="s">
+      <c r="C129" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="D129" s="79"/>
-      <c r="E129" s="79"/>
-      <c r="F129" s="79"/>
-      <c r="G129" s="79"/>
-      <c r="H129" s="79"/>
-      <c r="I129" s="79"/>
-      <c r="J129" s="79"/>
-      <c r="K129" s="79"/>
-      <c r="L129" s="79"/>
-      <c r="M129" s="79"/>
-      <c r="N129" s="79"/>
-      <c r="O129" s="79"/>
-      <c r="P129" s="79"/>
-      <c r="Q129" s="79"/>
-      <c r="R129" s="79"/>
+      <c r="D129" s="69"/>
+      <c r="E129" s="69"/>
+      <c r="F129" s="69"/>
+      <c r="G129" s="69"/>
+      <c r="H129" s="69"/>
+      <c r="I129" s="69"/>
+      <c r="J129" s="69"/>
+      <c r="K129" s="69"/>
+      <c r="L129" s="69"/>
+      <c r="M129" s="69"/>
+      <c r="N129" s="69"/>
+      <c r="O129" s="69"/>
+      <c r="P129" s="69"/>
+      <c r="Q129" s="69"/>
+      <c r="R129" s="69"/>
       <c r="S129" s="51"/>
       <c r="T129" s="51"/>
       <c r="U129" s="54"/>
@@ -5620,13 +5652,13 @@
         <f>B123+7</f>
         <v>43808</v>
       </c>
-      <c r="C133" s="79" t="s">
+      <c r="C133" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D133" s="79"/>
-      <c r="E133" s="79"/>
-      <c r="F133" s="79"/>
-      <c r="G133" s="79"/>
+      <c r="D133" s="69"/>
+      <c r="E133" s="69"/>
+      <c r="F133" s="69"/>
+      <c r="G133" s="69"/>
       <c r="H133" s="49"/>
       <c r="I133" s="49"/>
       <c r="J133" s="49"/>
@@ -5652,13 +5684,13 @@
         <f t="shared" ref="B134:B139" si="11">B124+7</f>
         <v>43809</v>
       </c>
-      <c r="C134" s="79" t="s">
+      <c r="C134" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D134" s="79"/>
-      <c r="E134" s="79"/>
-      <c r="F134" s="79"/>
-      <c r="G134" s="79"/>
+      <c r="D134" s="69"/>
+      <c r="E134" s="69"/>
+      <c r="F134" s="69"/>
+      <c r="G134" s="69"/>
       <c r="H134" s="20"/>
       <c r="I134" s="20"/>
       <c r="J134" s="20"/>
@@ -5714,13 +5746,13 @@
         <f t="shared" si="11"/>
         <v>43811</v>
       </c>
-      <c r="C136" s="79" t="s">
+      <c r="C136" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D136" s="79"/>
-      <c r="E136" s="79"/>
-      <c r="F136" s="79"/>
-      <c r="G136" s="79"/>
+      <c r="D136" s="69"/>
+      <c r="E136" s="69"/>
+      <c r="F136" s="69"/>
+      <c r="G136" s="69"/>
       <c r="H136" s="20"/>
       <c r="I136" s="49"/>
       <c r="J136" s="49"/>
@@ -5802,24 +5834,24 @@
         <f t="shared" si="11"/>
         <v>43814</v>
       </c>
-      <c r="C139" s="79" t="s">
+      <c r="C139" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="D139" s="79"/>
-      <c r="E139" s="79"/>
-      <c r="F139" s="79"/>
-      <c r="G139" s="79"/>
-      <c r="H139" s="79"/>
-      <c r="I139" s="79"/>
-      <c r="J139" s="79"/>
-      <c r="K139" s="79"/>
-      <c r="L139" s="79"/>
-      <c r="M139" s="79"/>
-      <c r="N139" s="79"/>
-      <c r="O139" s="79"/>
-      <c r="P139" s="79"/>
-      <c r="Q139" s="79"/>
-      <c r="R139" s="79"/>
+      <c r="D139" s="69"/>
+      <c r="E139" s="69"/>
+      <c r="F139" s="69"/>
+      <c r="G139" s="69"/>
+      <c r="H139" s="69"/>
+      <c r="I139" s="69"/>
+      <c r="J139" s="69"/>
+      <c r="K139" s="69"/>
+      <c r="L139" s="69"/>
+      <c r="M139" s="69"/>
+      <c r="N139" s="69"/>
+      <c r="O139" s="69"/>
+      <c r="P139" s="69"/>
+      <c r="Q139" s="69"/>
+      <c r="R139" s="69"/>
       <c r="S139" s="51"/>
       <c r="T139" s="51"/>
       <c r="U139" s="54"/>
@@ -5914,19 +5946,19 @@
         <f>C132+1</f>
         <v>14</v>
       </c>
-      <c r="D142" s="74" t="s">
+      <c r="D142" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="E142" s="74"/>
-      <c r="F142" s="74"/>
+      <c r="E142" s="85"/>
+      <c r="F142" s="85"/>
       <c r="G142" s="15"/>
-      <c r="H142" s="74" t="s">
+      <c r="H142" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="I142" s="74"/>
-      <c r="J142" s="74"/>
-      <c r="K142" s="74"/>
-      <c r="L142" s="74"/>
+      <c r="I142" s="85"/>
+      <c r="J142" s="85"/>
+      <c r="K142" s="85"/>
+      <c r="L142" s="85"/>
       <c r="M142" s="19"/>
       <c r="N142" s="19"/>
       <c r="O142" s="19"/>
@@ -5945,11 +5977,11 @@
         <f>B133+7</f>
         <v>43815</v>
       </c>
-      <c r="C143" s="67" t="s">
+      <c r="C143" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D143" s="67"/>
-      <c r="E143" s="67"/>
+      <c r="D143" s="70"/>
+      <c r="E143" s="70"/>
       <c r="F143" s="20"/>
       <c r="G143" s="20"/>
       <c r="H143" s="20"/>
@@ -6320,24 +6352,24 @@
         <f t="shared" si="13"/>
         <v>43824</v>
       </c>
-      <c r="C155" s="106" t="s">
+      <c r="C155" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="D155" s="106"/>
-      <c r="E155" s="106"/>
-      <c r="F155" s="106"/>
-      <c r="G155" s="106"/>
-      <c r="H155" s="106"/>
-      <c r="I155" s="106"/>
-      <c r="J155" s="106"/>
-      <c r="K155" s="106"/>
-      <c r="L155" s="106"/>
-      <c r="M155" s="106"/>
-      <c r="N155" s="106"/>
-      <c r="O155" s="106"/>
-      <c r="P155" s="106"/>
-      <c r="Q155" s="106"/>
-      <c r="R155" s="106"/>
+      <c r="D155" s="111"/>
+      <c r="E155" s="111"/>
+      <c r="F155" s="111"/>
+      <c r="G155" s="111"/>
+      <c r="H155" s="111"/>
+      <c r="I155" s="111"/>
+      <c r="J155" s="111"/>
+      <c r="K155" s="111"/>
+      <c r="L155" s="111"/>
+      <c r="M155" s="111"/>
+      <c r="N155" s="111"/>
+      <c r="O155" s="111"/>
+      <c r="P155" s="111"/>
+      <c r="Q155" s="111"/>
+      <c r="R155" s="111"/>
       <c r="S155" s="51"/>
       <c r="T155" s="52" t="s">
         <v>20</v>
@@ -6352,22 +6384,22 @@
         <f t="shared" si="13"/>
         <v>43825</v>
       </c>
-      <c r="C156" s="106"/>
-      <c r="D156" s="106"/>
-      <c r="E156" s="106"/>
-      <c r="F156" s="106"/>
-      <c r="G156" s="106"/>
-      <c r="H156" s="106"/>
-      <c r="I156" s="106"/>
-      <c r="J156" s="106"/>
-      <c r="K156" s="106"/>
-      <c r="L156" s="106"/>
-      <c r="M156" s="106"/>
-      <c r="N156" s="106"/>
-      <c r="O156" s="106"/>
-      <c r="P156" s="106"/>
-      <c r="Q156" s="106"/>
-      <c r="R156" s="106"/>
+      <c r="C156" s="111"/>
+      <c r="D156" s="111"/>
+      <c r="E156" s="111"/>
+      <c r="F156" s="111"/>
+      <c r="G156" s="111"/>
+      <c r="H156" s="111"/>
+      <c r="I156" s="111"/>
+      <c r="J156" s="111"/>
+      <c r="K156" s="111"/>
+      <c r="L156" s="111"/>
+      <c r="M156" s="111"/>
+      <c r="N156" s="111"/>
+      <c r="O156" s="111"/>
+      <c r="P156" s="111"/>
+      <c r="Q156" s="111"/>
+      <c r="R156" s="111"/>
       <c r="S156" s="51"/>
       <c r="T156" s="18" t="s">
         <v>21</v>
@@ -6382,22 +6414,22 @@
         <f t="shared" si="13"/>
         <v>43826</v>
       </c>
-      <c r="C157" s="106"/>
-      <c r="D157" s="106"/>
-      <c r="E157" s="106"/>
-      <c r="F157" s="106"/>
-      <c r="G157" s="106"/>
-      <c r="H157" s="106"/>
-      <c r="I157" s="106"/>
-      <c r="J157" s="106"/>
-      <c r="K157" s="106"/>
-      <c r="L157" s="106"/>
-      <c r="M157" s="106"/>
-      <c r="N157" s="106"/>
-      <c r="O157" s="106"/>
-      <c r="P157" s="106"/>
-      <c r="Q157" s="106"/>
-      <c r="R157" s="106"/>
+      <c r="C157" s="111"/>
+      <c r="D157" s="111"/>
+      <c r="E157" s="111"/>
+      <c r="F157" s="111"/>
+      <c r="G157" s="111"/>
+      <c r="H157" s="111"/>
+      <c r="I157" s="111"/>
+      <c r="J157" s="111"/>
+      <c r="K157" s="111"/>
+      <c r="L157" s="111"/>
+      <c r="M157" s="111"/>
+      <c r="N157" s="111"/>
+      <c r="O157" s="111"/>
+      <c r="P157" s="111"/>
+      <c r="Q157" s="111"/>
+      <c r="R157" s="111"/>
       <c r="S157" s="51"/>
       <c r="T157" s="51"/>
       <c r="U157" s="54"/>
@@ -6410,22 +6442,22 @@
         <f t="shared" si="13"/>
         <v>43827</v>
       </c>
-      <c r="C158" s="106"/>
-      <c r="D158" s="106"/>
-      <c r="E158" s="106"/>
-      <c r="F158" s="106"/>
-      <c r="G158" s="106"/>
-      <c r="H158" s="106"/>
-      <c r="I158" s="106"/>
-      <c r="J158" s="106"/>
-      <c r="K158" s="106"/>
-      <c r="L158" s="106"/>
-      <c r="M158" s="106"/>
-      <c r="N158" s="106"/>
-      <c r="O158" s="106"/>
-      <c r="P158" s="106"/>
-      <c r="Q158" s="106"/>
-      <c r="R158" s="106"/>
+      <c r="C158" s="111"/>
+      <c r="D158" s="111"/>
+      <c r="E158" s="111"/>
+      <c r="F158" s="111"/>
+      <c r="G158" s="111"/>
+      <c r="H158" s="111"/>
+      <c r="I158" s="111"/>
+      <c r="J158" s="111"/>
+      <c r="K158" s="111"/>
+      <c r="L158" s="111"/>
+      <c r="M158" s="111"/>
+      <c r="N158" s="111"/>
+      <c r="O158" s="111"/>
+      <c r="P158" s="111"/>
+      <c r="Q158" s="111"/>
+      <c r="R158" s="111"/>
       <c r="S158" s="51"/>
       <c r="T158" s="51"/>
       <c r="U158" s="54"/>
@@ -6438,22 +6470,22 @@
         <f t="shared" si="13"/>
         <v>43828</v>
       </c>
-      <c r="C159" s="106"/>
-      <c r="D159" s="106"/>
-      <c r="E159" s="106"/>
-      <c r="F159" s="106"/>
-      <c r="G159" s="106"/>
-      <c r="H159" s="106"/>
-      <c r="I159" s="106"/>
-      <c r="J159" s="106"/>
-      <c r="K159" s="106"/>
-      <c r="L159" s="106"/>
-      <c r="M159" s="106"/>
-      <c r="N159" s="106"/>
-      <c r="O159" s="106"/>
-      <c r="P159" s="106"/>
-      <c r="Q159" s="106"/>
-      <c r="R159" s="106"/>
+      <c r="C159" s="111"/>
+      <c r="D159" s="111"/>
+      <c r="E159" s="111"/>
+      <c r="F159" s="111"/>
+      <c r="G159" s="111"/>
+      <c r="H159" s="111"/>
+      <c r="I159" s="111"/>
+      <c r="J159" s="111"/>
+      <c r="K159" s="111"/>
+      <c r="L159" s="111"/>
+      <c r="M159" s="111"/>
+      <c r="N159" s="111"/>
+      <c r="O159" s="111"/>
+      <c r="P159" s="111"/>
+      <c r="Q159" s="111"/>
+      <c r="R159" s="111"/>
       <c r="S159" s="51"/>
       <c r="T159" s="51"/>
       <c r="U159" s="54"/>
@@ -6575,24 +6607,24 @@
         <f>B153+7</f>
         <v>43829</v>
       </c>
-      <c r="C163" s="106" t="s">
+      <c r="C163" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="D163" s="106"/>
-      <c r="E163" s="106"/>
-      <c r="F163" s="106"/>
-      <c r="G163" s="106"/>
-      <c r="H163" s="106"/>
-      <c r="I163" s="106"/>
-      <c r="J163" s="106"/>
-      <c r="K163" s="106"/>
-      <c r="L163" s="106"/>
-      <c r="M163" s="106"/>
-      <c r="N163" s="106"/>
-      <c r="O163" s="106"/>
-      <c r="P163" s="106"/>
-      <c r="Q163" s="106"/>
-      <c r="R163" s="106"/>
+      <c r="D163" s="111"/>
+      <c r="E163" s="111"/>
+      <c r="F163" s="111"/>
+      <c r="G163" s="111"/>
+      <c r="H163" s="111"/>
+      <c r="I163" s="111"/>
+      <c r="J163" s="111"/>
+      <c r="K163" s="111"/>
+      <c r="L163" s="111"/>
+      <c r="M163" s="111"/>
+      <c r="N163" s="111"/>
+      <c r="O163" s="111"/>
+      <c r="P163" s="111"/>
+      <c r="Q163" s="111"/>
+      <c r="R163" s="111"/>
       <c r="S163" s="51"/>
       <c r="T163" s="30" t="s">
         <v>22</v>
@@ -6607,22 +6639,22 @@
         <f t="shared" ref="B164:B169" si="14">B154+7</f>
         <v>43830</v>
       </c>
-      <c r="C164" s="106"/>
-      <c r="D164" s="106"/>
-      <c r="E164" s="106"/>
-      <c r="F164" s="106"/>
-      <c r="G164" s="106"/>
-      <c r="H164" s="106"/>
-      <c r="I164" s="106"/>
-      <c r="J164" s="106"/>
-      <c r="K164" s="106"/>
-      <c r="L164" s="106"/>
-      <c r="M164" s="106"/>
-      <c r="N164" s="106"/>
-      <c r="O164" s="106"/>
-      <c r="P164" s="106"/>
-      <c r="Q164" s="106"/>
-      <c r="R164" s="106"/>
+      <c r="C164" s="111"/>
+      <c r="D164" s="111"/>
+      <c r="E164" s="111"/>
+      <c r="F164" s="111"/>
+      <c r="G164" s="111"/>
+      <c r="H164" s="111"/>
+      <c r="I164" s="111"/>
+      <c r="J164" s="111"/>
+      <c r="K164" s="111"/>
+      <c r="L164" s="111"/>
+      <c r="M164" s="111"/>
+      <c r="N164" s="111"/>
+      <c r="O164" s="111"/>
+      <c r="P164" s="111"/>
+      <c r="Q164" s="111"/>
+      <c r="R164" s="111"/>
       <c r="S164" s="51"/>
       <c r="T164" s="53" t="s">
         <v>19</v>
@@ -6637,22 +6669,22 @@
         <f t="shared" si="14"/>
         <v>43831</v>
       </c>
-      <c r="C165" s="106"/>
-      <c r="D165" s="106"/>
-      <c r="E165" s="106"/>
-      <c r="F165" s="106"/>
-      <c r="G165" s="106"/>
-      <c r="H165" s="106"/>
-      <c r="I165" s="106"/>
-      <c r="J165" s="106"/>
-      <c r="K165" s="106"/>
-      <c r="L165" s="106"/>
-      <c r="M165" s="106"/>
-      <c r="N165" s="106"/>
-      <c r="O165" s="106"/>
-      <c r="P165" s="106"/>
-      <c r="Q165" s="106"/>
-      <c r="R165" s="106"/>
+      <c r="C165" s="111"/>
+      <c r="D165" s="111"/>
+      <c r="E165" s="111"/>
+      <c r="F165" s="111"/>
+      <c r="G165" s="111"/>
+      <c r="H165" s="111"/>
+      <c r="I165" s="111"/>
+      <c r="J165" s="111"/>
+      <c r="K165" s="111"/>
+      <c r="L165" s="111"/>
+      <c r="M165" s="111"/>
+      <c r="N165" s="111"/>
+      <c r="O165" s="111"/>
+      <c r="P165" s="111"/>
+      <c r="Q165" s="111"/>
+      <c r="R165" s="111"/>
       <c r="S165" s="51"/>
       <c r="T165" s="52" t="s">
         <v>20</v>
@@ -6669,23 +6701,23 @@
       </c>
       <c r="C166" s="32"/>
       <c r="D166" s="20"/>
-      <c r="E166" s="67" t="s">
+      <c r="E166" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F166" s="67"/>
-      <c r="G166" s="67"/>
-      <c r="H166" s="67"/>
-      <c r="I166" s="67"/>
-      <c r="J166" s="67"/>
+      <c r="F166" s="70"/>
+      <c r="G166" s="70"/>
+      <c r="H166" s="70"/>
+      <c r="I166" s="70"/>
+      <c r="J166" s="70"/>
       <c r="K166" s="49"/>
-      <c r="L166" s="68" t="s">
+      <c r="L166" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="M166" s="69"/>
-      <c r="N166" s="69"/>
-      <c r="O166" s="69"/>
-      <c r="P166" s="69"/>
-      <c r="Q166" s="70"/>
+      <c r="M166" s="75"/>
+      <c r="N166" s="75"/>
+      <c r="O166" s="75"/>
+      <c r="P166" s="75"/>
+      <c r="Q166" s="76"/>
       <c r="R166" s="20"/>
       <c r="S166" s="51"/>
       <c r="T166" s="18" t="s">
@@ -6703,23 +6735,23 @@
       </c>
       <c r="C167" s="50"/>
       <c r="D167" s="49"/>
-      <c r="E167" s="67" t="s">
+      <c r="E167" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F167" s="67"/>
-      <c r="G167" s="67"/>
-      <c r="H167" s="67"/>
-      <c r="I167" s="67"/>
-      <c r="J167" s="67"/>
+      <c r="F167" s="70"/>
+      <c r="G167" s="70"/>
+      <c r="H167" s="70"/>
+      <c r="I167" s="70"/>
+      <c r="J167" s="70"/>
       <c r="K167" s="49"/>
-      <c r="L167" s="68" t="s">
+      <c r="L167" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="M167" s="69"/>
-      <c r="N167" s="69"/>
-      <c r="O167" s="69"/>
-      <c r="P167" s="69"/>
-      <c r="Q167" s="70"/>
+      <c r="M167" s="75"/>
+      <c r="N167" s="75"/>
+      <c r="O167" s="75"/>
+      <c r="P167" s="75"/>
+      <c r="Q167" s="76"/>
       <c r="R167" s="49"/>
       <c r="S167" s="51"/>
       <c r="T167" s="51"/>
@@ -6880,23 +6912,23 @@
       </c>
       <c r="C173" s="32"/>
       <c r="D173" s="20"/>
-      <c r="E173" s="67" t="s">
+      <c r="E173" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F173" s="67"/>
-      <c r="G173" s="67"/>
-      <c r="H173" s="67"/>
-      <c r="I173" s="67"/>
-      <c r="J173" s="67"/>
+      <c r="F173" s="70"/>
+      <c r="G173" s="70"/>
+      <c r="H173" s="70"/>
+      <c r="I173" s="70"/>
+      <c r="J173" s="70"/>
       <c r="K173" s="49"/>
-      <c r="L173" s="68" t="s">
+      <c r="L173" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="M173" s="69"/>
-      <c r="N173" s="69"/>
-      <c r="O173" s="69"/>
-      <c r="P173" s="69"/>
-      <c r="Q173" s="70"/>
+      <c r="M173" s="75"/>
+      <c r="N173" s="75"/>
+      <c r="O173" s="75"/>
+      <c r="P173" s="75"/>
+      <c r="Q173" s="76"/>
       <c r="R173" s="49"/>
       <c r="S173" s="51"/>
       <c r="T173" s="30" t="s">
@@ -6914,23 +6946,23 @@
       </c>
       <c r="C174" s="32"/>
       <c r="D174" s="20"/>
-      <c r="E174" s="67" t="s">
+      <c r="E174" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F174" s="67"/>
-      <c r="G174" s="67"/>
-      <c r="H174" s="67"/>
-      <c r="I174" s="67"/>
-      <c r="J174" s="67"/>
+      <c r="F174" s="70"/>
+      <c r="G174" s="70"/>
+      <c r="H174" s="70"/>
+      <c r="I174" s="70"/>
+      <c r="J174" s="70"/>
       <c r="K174" s="49"/>
-      <c r="L174" s="68" t="s">
+      <c r="L174" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="M174" s="69"/>
-      <c r="N174" s="69"/>
-      <c r="O174" s="69"/>
-      <c r="P174" s="69"/>
-      <c r="Q174" s="70"/>
+      <c r="M174" s="75"/>
+      <c r="N174" s="75"/>
+      <c r="O174" s="75"/>
+      <c r="P174" s="75"/>
+      <c r="Q174" s="76"/>
       <c r="R174" s="20"/>
       <c r="S174" s="51"/>
       <c r="T174" s="53" t="s">
@@ -6948,23 +6980,23 @@
       </c>
       <c r="C175" s="32"/>
       <c r="D175" s="20"/>
-      <c r="E175" s="67" t="s">
+      <c r="E175" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F175" s="67"/>
-      <c r="G175" s="67"/>
-      <c r="H175" s="67"/>
-      <c r="I175" s="67"/>
-      <c r="J175" s="67"/>
+      <c r="F175" s="70"/>
+      <c r="G175" s="70"/>
+      <c r="H175" s="70"/>
+      <c r="I175" s="70"/>
+      <c r="J175" s="70"/>
       <c r="K175" s="20"/>
-      <c r="L175" s="68" t="s">
+      <c r="L175" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="M175" s="69"/>
-      <c r="N175" s="69"/>
-      <c r="O175" s="69"/>
-      <c r="P175" s="69"/>
-      <c r="Q175" s="70"/>
+      <c r="M175" s="75"/>
+      <c r="N175" s="75"/>
+      <c r="O175" s="75"/>
+      <c r="P175" s="75"/>
+      <c r="Q175" s="76"/>
       <c r="R175" s="49"/>
       <c r="S175" s="51"/>
       <c r="T175" s="52" t="s">
@@ -6982,23 +7014,23 @@
       </c>
       <c r="C176" s="49"/>
       <c r="D176" s="49"/>
-      <c r="E176" s="67" t="s">
+      <c r="E176" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F176" s="67"/>
-      <c r="G176" s="67"/>
-      <c r="H176" s="67"/>
-      <c r="I176" s="67"/>
-      <c r="J176" s="67"/>
+      <c r="F176" s="70"/>
+      <c r="G176" s="70"/>
+      <c r="H176" s="70"/>
+      <c r="I176" s="70"/>
+      <c r="J176" s="70"/>
       <c r="K176" s="20"/>
-      <c r="L176" s="68" t="s">
+      <c r="L176" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="M176" s="69"/>
-      <c r="N176" s="69"/>
-      <c r="O176" s="69"/>
-      <c r="P176" s="69"/>
-      <c r="Q176" s="70"/>
+      <c r="M176" s="75"/>
+      <c r="N176" s="75"/>
+      <c r="O176" s="75"/>
+      <c r="P176" s="75"/>
+      <c r="Q176" s="76"/>
       <c r="R176" s="20"/>
       <c r="S176" s="51"/>
       <c r="T176" s="18" t="s">
@@ -7016,23 +7048,23 @@
       </c>
       <c r="C177" s="32"/>
       <c r="D177" s="20"/>
-      <c r="E177" s="67" t="s">
+      <c r="E177" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F177" s="67"/>
-      <c r="G177" s="67"/>
-      <c r="H177" s="67"/>
-      <c r="I177" s="67"/>
-      <c r="J177" s="67"/>
+      <c r="F177" s="70"/>
+      <c r="G177" s="70"/>
+      <c r="H177" s="70"/>
+      <c r="I177" s="70"/>
+      <c r="J177" s="70"/>
       <c r="K177" s="20"/>
-      <c r="L177" s="68" t="s">
+      <c r="L177" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="M177" s="69"/>
-      <c r="N177" s="69"/>
-      <c r="O177" s="69"/>
-      <c r="P177" s="69"/>
-      <c r="Q177" s="70"/>
+      <c r="M177" s="75"/>
+      <c r="N177" s="75"/>
+      <c r="O177" s="75"/>
+      <c r="P177" s="75"/>
+      <c r="Q177" s="76"/>
       <c r="R177" s="20"/>
       <c r="S177" s="51"/>
       <c r="T177" s="51"/>
@@ -7191,23 +7223,23 @@
       </c>
       <c r="C183" s="32"/>
       <c r="D183" s="20"/>
-      <c r="E183" s="67" t="s">
+      <c r="E183" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F183" s="67"/>
-      <c r="G183" s="67"/>
-      <c r="H183" s="67"/>
-      <c r="I183" s="67"/>
-      <c r="J183" s="67"/>
+      <c r="F183" s="70"/>
+      <c r="G183" s="70"/>
+      <c r="H183" s="70"/>
+      <c r="I183" s="70"/>
+      <c r="J183" s="70"/>
       <c r="K183" s="49"/>
-      <c r="L183" s="68" t="s">
+      <c r="L183" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="M183" s="69"/>
-      <c r="N183" s="69"/>
-      <c r="O183" s="69"/>
-      <c r="P183" s="69"/>
-      <c r="Q183" s="70"/>
+      <c r="M183" s="75"/>
+      <c r="N183" s="75"/>
+      <c r="O183" s="75"/>
+      <c r="P183" s="75"/>
+      <c r="Q183" s="76"/>
       <c r="R183" s="49"/>
       <c r="S183" s="51"/>
       <c r="T183" s="30" t="s">
@@ -7224,23 +7256,23 @@
       </c>
       <c r="C184" s="32"/>
       <c r="D184" s="20"/>
-      <c r="E184" s="67" t="s">
+      <c r="E184" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F184" s="67"/>
-      <c r="G184" s="67"/>
-      <c r="H184" s="67"/>
-      <c r="I184" s="67"/>
-      <c r="J184" s="67"/>
+      <c r="F184" s="70"/>
+      <c r="G184" s="70"/>
+      <c r="H184" s="70"/>
+      <c r="I184" s="70"/>
+      <c r="J184" s="70"/>
       <c r="K184" s="49"/>
-      <c r="L184" s="68" t="s">
+      <c r="L184" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="M184" s="69"/>
-      <c r="N184" s="69"/>
-      <c r="O184" s="69"/>
-      <c r="P184" s="69"/>
-      <c r="Q184" s="70"/>
+      <c r="M184" s="75"/>
+      <c r="N184" s="75"/>
+      <c r="O184" s="75"/>
+      <c r="P184" s="75"/>
+      <c r="Q184" s="76"/>
       <c r="R184" s="20"/>
       <c r="S184" s="51"/>
       <c r="T184" s="53" t="s">
@@ -7257,23 +7289,23 @@
       </c>
       <c r="C185" s="32"/>
       <c r="D185" s="20"/>
-      <c r="E185" s="67" t="s">
+      <c r="E185" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F185" s="67"/>
-      <c r="G185" s="67"/>
-      <c r="H185" s="67"/>
-      <c r="I185" s="67"/>
-      <c r="J185" s="67"/>
+      <c r="F185" s="70"/>
+      <c r="G185" s="70"/>
+      <c r="H185" s="70"/>
+      <c r="I185" s="70"/>
+      <c r="J185" s="70"/>
       <c r="K185" s="20"/>
-      <c r="L185" s="68" t="s">
+      <c r="L185" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="M185" s="69"/>
-      <c r="N185" s="69"/>
-      <c r="O185" s="69"/>
-      <c r="P185" s="69"/>
-      <c r="Q185" s="70"/>
+      <c r="M185" s="75"/>
+      <c r="N185" s="75"/>
+      <c r="O185" s="75"/>
+      <c r="P185" s="75"/>
+      <c r="Q185" s="76"/>
       <c r="R185" s="49"/>
       <c r="S185" s="51"/>
       <c r="T185" s="52" t="s">
@@ -7290,23 +7322,23 @@
       </c>
       <c r="C186" s="49"/>
       <c r="D186" s="49"/>
-      <c r="E186" s="67" t="s">
+      <c r="E186" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F186" s="67"/>
-      <c r="G186" s="67"/>
-      <c r="H186" s="67"/>
-      <c r="I186" s="67"/>
-      <c r="J186" s="67"/>
+      <c r="F186" s="70"/>
+      <c r="G186" s="70"/>
+      <c r="H186" s="70"/>
+      <c r="I186" s="70"/>
+      <c r="J186" s="70"/>
       <c r="K186" s="20"/>
-      <c r="L186" s="68" t="s">
+      <c r="L186" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="M186" s="69"/>
-      <c r="N186" s="69"/>
-      <c r="O186" s="69"/>
-      <c r="P186" s="69"/>
-      <c r="Q186" s="70"/>
+      <c r="M186" s="75"/>
+      <c r="N186" s="75"/>
+      <c r="O186" s="75"/>
+      <c r="P186" s="75"/>
+      <c r="Q186" s="76"/>
       <c r="R186" s="20"/>
       <c r="S186" s="51"/>
       <c r="T186" s="18" t="s">
@@ -7323,23 +7355,23 @@
       </c>
       <c r="C187" s="32"/>
       <c r="D187" s="20"/>
-      <c r="E187" s="67" t="s">
+      <c r="E187" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F187" s="67"/>
-      <c r="G187" s="67"/>
-      <c r="H187" s="67"/>
-      <c r="I187" s="67"/>
-      <c r="J187" s="67"/>
+      <c r="F187" s="70"/>
+      <c r="G187" s="70"/>
+      <c r="H187" s="70"/>
+      <c r="I187" s="70"/>
+      <c r="J187" s="70"/>
       <c r="K187" s="20"/>
-      <c r="L187" s="68" t="s">
+      <c r="L187" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="M187" s="69"/>
-      <c r="N187" s="69"/>
-      <c r="O187" s="69"/>
-      <c r="P187" s="69"/>
-      <c r="Q187" s="70"/>
+      <c r="M187" s="75"/>
+      <c r="N187" s="75"/>
+      <c r="O187" s="75"/>
+      <c r="P187" s="75"/>
+      <c r="Q187" s="76"/>
       <c r="R187" s="20"/>
       <c r="S187" s="51"/>
       <c r="T187" s="51"/>
@@ -15769,39 +15801,81 @@
       <c r="T507"/>
     </row>
   </sheetData>
-  <mergeCells count="143">
-    <mergeCell ref="C119:R119"/>
-    <mergeCell ref="C129:R129"/>
-    <mergeCell ref="C139:R139"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="K116:Q116"/>
-    <mergeCell ref="E115:J115"/>
-    <mergeCell ref="L115:Q115"/>
-    <mergeCell ref="L67:R67"/>
-    <mergeCell ref="L68:R68"/>
-    <mergeCell ref="M72:R72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="C69:R69"/>
-    <mergeCell ref="C79:R79"/>
-    <mergeCell ref="C89:R89"/>
-    <mergeCell ref="C99:R99"/>
-    <mergeCell ref="C109:R109"/>
-    <mergeCell ref="H46:P46"/>
-    <mergeCell ref="H44:N44"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="I63:P63"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="L75:Q75"/>
-    <mergeCell ref="I53:M53"/>
-    <mergeCell ref="J64:Q64"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="L65:R65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="J66:Q66"/>
-    <mergeCell ref="C67:J67"/>
+  <mergeCells count="140">
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="H64:N64"/>
+    <mergeCell ref="T58:U60"/>
+    <mergeCell ref="E187:J187"/>
+    <mergeCell ref="L187:Q187"/>
+    <mergeCell ref="E117:J117"/>
+    <mergeCell ref="L117:Q117"/>
+    <mergeCell ref="E118:J118"/>
+    <mergeCell ref="L118:Q118"/>
+    <mergeCell ref="H123:P123"/>
+    <mergeCell ref="E184:J184"/>
+    <mergeCell ref="L184:Q184"/>
+    <mergeCell ref="E185:J185"/>
+    <mergeCell ref="L185:Q185"/>
+    <mergeCell ref="E186:J186"/>
+    <mergeCell ref="L186:Q186"/>
+    <mergeCell ref="E176:J176"/>
+    <mergeCell ref="L176:Q176"/>
+    <mergeCell ref="E177:J177"/>
+    <mergeCell ref="L177:Q177"/>
+    <mergeCell ref="E183:J183"/>
+    <mergeCell ref="L183:Q183"/>
+    <mergeCell ref="E173:J173"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="H66:Q66"/>
+    <mergeCell ref="E175:J175"/>
+    <mergeCell ref="L175:Q175"/>
+    <mergeCell ref="L167:Q167"/>
+    <mergeCell ref="C155:R159"/>
+    <mergeCell ref="C163:R165"/>
+    <mergeCell ref="E166:J166"/>
+    <mergeCell ref="L166:Q166"/>
+    <mergeCell ref="E167:J167"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="L173:Q173"/>
+    <mergeCell ref="E174:J174"/>
+    <mergeCell ref="L174:Q174"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H142:L142"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="E77:J77"/>
+    <mergeCell ref="H116:J116"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H83:P83"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="E73:J73"/>
+    <mergeCell ref="L73:Q73"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="H54:P54"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="L74:Q74"/>
+    <mergeCell ref="L77:Q77"/>
+    <mergeCell ref="L78:Q78"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="J58:P58"/>
+    <mergeCell ref="E74:J74"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="E78:J78"/>
+    <mergeCell ref="G55:H55"/>
     <mergeCell ref="H13:R13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="O14:P14"/>
@@ -15826,93 +15900,48 @@
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H46:P46"/>
+    <mergeCell ref="H44:N44"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="L75:Q75"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="C67:J67"/>
     <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C134:G134"/>
-    <mergeCell ref="C103:G103"/>
-    <mergeCell ref="C104:G104"/>
     <mergeCell ref="C54:G54"/>
     <mergeCell ref="C56:G56"/>
     <mergeCell ref="C63:G63"/>
     <mergeCell ref="C64:G64"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C76:R76"/>
+    <mergeCell ref="C119:R119"/>
+    <mergeCell ref="C129:R129"/>
+    <mergeCell ref="C139:R139"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="E115:J115"/>
+    <mergeCell ref="L115:Q115"/>
+    <mergeCell ref="L67:R67"/>
+    <mergeCell ref="L68:R68"/>
+    <mergeCell ref="M72:R72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="C69:R69"/>
+    <mergeCell ref="C79:R79"/>
+    <mergeCell ref="C89:R89"/>
+    <mergeCell ref="C99:R99"/>
+    <mergeCell ref="C109:R109"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="C104:G104"/>
     <mergeCell ref="C114:G114"/>
     <mergeCell ref="C83:G83"/>
     <mergeCell ref="C84:G84"/>
     <mergeCell ref="C86:G86"/>
     <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="E75:J75"/>
-    <mergeCell ref="E77:J77"/>
-    <mergeCell ref="H116:J116"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H83:P83"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="E73:J73"/>
-    <mergeCell ref="L73:Q73"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="H54:P54"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="L74:Q74"/>
-    <mergeCell ref="L77:Q77"/>
-    <mergeCell ref="L78:Q78"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="J58:P58"/>
-    <mergeCell ref="E74:J74"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="E78:J78"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C76:R76"/>
-    <mergeCell ref="E175:J175"/>
-    <mergeCell ref="L175:Q175"/>
-    <mergeCell ref="L167:Q167"/>
-    <mergeCell ref="C155:R159"/>
-    <mergeCell ref="C163:R165"/>
-    <mergeCell ref="E166:J166"/>
-    <mergeCell ref="L166:Q166"/>
-    <mergeCell ref="E167:J167"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="C136:G136"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="C124:G124"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="L173:Q173"/>
-    <mergeCell ref="E174:J174"/>
-    <mergeCell ref="L174:Q174"/>
-    <mergeCell ref="C126:G126"/>
-    <mergeCell ref="H142:L142"/>
-    <mergeCell ref="C133:G133"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="T58:U60"/>
-    <mergeCell ref="E187:J187"/>
-    <mergeCell ref="L187:Q187"/>
-    <mergeCell ref="E117:J117"/>
-    <mergeCell ref="L117:Q117"/>
-    <mergeCell ref="E118:J118"/>
-    <mergeCell ref="L118:Q118"/>
-    <mergeCell ref="H123:P123"/>
-    <mergeCell ref="E184:J184"/>
-    <mergeCell ref="L184:Q184"/>
-    <mergeCell ref="E185:J185"/>
-    <mergeCell ref="L185:Q185"/>
-    <mergeCell ref="E186:J186"/>
-    <mergeCell ref="L186:Q186"/>
-    <mergeCell ref="E176:J176"/>
-    <mergeCell ref="L176:Q176"/>
-    <mergeCell ref="E177:J177"/>
-    <mergeCell ref="L177:Q177"/>
-    <mergeCell ref="E183:J183"/>
-    <mergeCell ref="L183:Q183"/>
-    <mergeCell ref="E173:J173"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D142:F142"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -15923,7 +15952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -15940,10 +15969,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="105"/>
+      <c r="B2" s="113"/>
       <c r="C2" s="41" t="s">
         <v>18</v>
       </c>
@@ -15962,10 +15991,10 @@
       <c r="I2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="107" t="s">
+      <c r="J2" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="107"/>
+      <c r="K2" s="114"/>
     </row>
     <row r="3" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
@@ -15980,10 +16009,10 @@
       <c r="I3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="108" t="s">
+      <c r="J3" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="108"/>
+      <c r="K3" s="115"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -16005,10 +16034,10 @@
       <c r="I4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="108" t="s">
+      <c r="J4" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="108"/>
+      <c r="K4" s="115"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -16086,11 +16115,11 @@
         <f t="shared" si="0"/>
         <v>43401</v>
       </c>
-      <c r="D10" s="109" t="s">
+      <c r="D10" s="66" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="40"/>
-      <c r="F10" s="115" t="s">
+      <c r="F10" s="68" t="s">
         <v>84</v>
       </c>
       <c r="G10" s="55"/>
@@ -16283,10 +16312,10 @@
       <c r="H22" s="51"/>
     </row>
     <row r="23" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="105" t="s">
+      <c r="A23" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="105"/>
+      <c r="B23" s="113"/>
       <c r="C23" s="41" t="s">
         <v>18</v>
       </c>
@@ -16491,7 +16520,7 @@
         <v>43929</v>
       </c>
       <c r="D36" s="29"/>
-      <c r="F36" s="106" t="s">
+      <c r="F36" s="111" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16509,7 +16538,7 @@
         <v>43936</v>
       </c>
       <c r="D37" s="44"/>
-      <c r="F37" s="106"/>
+      <c r="F37" s="111"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
@@ -16525,7 +16554,7 @@
         <v>43943</v>
       </c>
       <c r="D38" s="29"/>
-      <c r="F38" s="106"/>
+      <c r="F38" s="111"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="23">

--- a/Weekly Planner.xlsx
+++ b/Weekly Planner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SoftwareProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F87D004-1780-439E-9501-488BC68AFBE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D990BC-FA64-444A-A232-5EDDABBA4A77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Planner" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="87">
   <si>
     <t>Monday</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>Data Application Dev - Python Tutorial</t>
+  </si>
+  <si>
+    <t>Software Project - Requirements Specifications</t>
   </si>
 </sst>
 </file>
@@ -851,7 +854,7 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1029,10 +1032,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="16" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="9" applyBorder="1" applyAlignment="1">
@@ -1041,58 +1065,61 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="29" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="30" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="16" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="24" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="9" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="31" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="8" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="5" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1119,9 +1146,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="6" fillId="11" borderId="4" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1131,35 +1155,23 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="5" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="29" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="20" fontId="9" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1170,13 +1182,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="30" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="24" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="31" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1479,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y66" sqref="Y66"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q95" sqref="Q95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,26 +1875,26 @@
       <c r="B13" s="57">
         <v>43724</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="88" t="s">
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="90"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="91"/>
       <c r="S13" s="51"/>
       <c r="T13" s="30" t="s">
         <v>22</v>
@@ -1895,26 +1907,26 @@
       <c r="B14" s="57">
         <v>43725</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="91" t="s">
+      <c r="J14" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="88" t="s">
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="90"/>
+      <c r="P14" s="91"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="51"/>
@@ -1957,20 +1969,20 @@
       <c r="B16" s="57">
         <v>43727</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="101" t="s">
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
@@ -2175,26 +2187,26 @@
         <f>B13+7</f>
         <v>43731</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="88" t="s">
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="89"/>
-      <c r="Q23" s="89"/>
-      <c r="R23" s="90"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="91"/>
       <c r="S23" s="51"/>
       <c r="T23" s="30" t="s">
         <v>22</v>
@@ -2208,30 +2220,30 @@
         <f t="shared" ref="B24:B29" si="0">B14+7</f>
         <v>43732</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="88" t="s">
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="102"/>
-      <c r="J24" s="86" t="s">
+      <c r="I24" s="109"/>
+      <c r="J24" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="K24" s="87"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="86" t="s">
+      <c r="K24" s="72"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="N24" s="99"/>
-      <c r="O24" s="91" t="s">
+      <c r="N24" s="95"/>
+      <c r="O24" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="P24" s="93"/>
+      <c r="P24" s="101"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
       <c r="S24" s="51"/>
@@ -2276,20 +2288,20 @@
         <f t="shared" si="0"/>
         <v>43734</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="97" t="s">
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="97"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="97"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
@@ -2471,12 +2483,12 @@
         <f>C22+1</f>
         <v>3</v>
       </c>
-      <c r="D32" s="100" t="s">
+      <c r="D32" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
@@ -2499,24 +2511,24 @@
         <f>B23+7</f>
         <v>43738</v>
       </c>
-      <c r="C33" s="69" t="s">
+      <c r="C33" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="97" t="s">
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="97"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="97"/>
-      <c r="L33" s="97"/>
-      <c r="M33" s="97"/>
-      <c r="N33" s="97"/>
-      <c r="O33" s="97"/>
-      <c r="P33" s="97"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="105"/>
+      <c r="O33" s="105"/>
+      <c r="P33" s="105"/>
       <c r="Q33" s="62"/>
       <c r="R33" s="62"/>
       <c r="S33" s="51"/>
@@ -2532,13 +2544,13 @@
         <f t="shared" ref="B34:B39" si="1">B24+7</f>
         <v>43739</v>
       </c>
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="62"/>
       <c r="I34" s="62"/>
       <c r="J34" s="62"/>
@@ -2592,13 +2604,13 @@
         <f t="shared" si="1"/>
         <v>43741</v>
       </c>
-      <c r="C36" s="69" t="s">
+      <c r="C36" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="63"/>
@@ -2811,24 +2823,24 @@
         <f>B33+7</f>
         <v>43745</v>
       </c>
-      <c r="C43" s="69" t="s">
+      <c r="C43" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="98" t="s">
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="98"/>
-      <c r="J43" s="98"/>
-      <c r="K43" s="98"/>
-      <c r="L43" s="98"/>
-      <c r="M43" s="98"/>
-      <c r="N43" s="98"/>
-      <c r="O43" s="98"/>
-      <c r="P43" s="98"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="106"/>
+      <c r="K43" s="106"/>
+      <c r="L43" s="106"/>
+      <c r="M43" s="106"/>
+      <c r="N43" s="106"/>
+      <c r="O43" s="106"/>
+      <c r="P43" s="106"/>
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
       <c r="S43" s="51"/>
@@ -2844,22 +2856,22 @@
         <f t="shared" ref="B44:B49" si="2">B34+7</f>
         <v>43746</v>
       </c>
-      <c r="C44" s="69" t="s">
+      <c r="C44" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="82" t="s">
+      <c r="D44" s="86"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="83"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="97"/>
+      <c r="M44" s="97"/>
+      <c r="N44" s="97"/>
       <c r="O44" s="49"/>
       <c r="P44" s="49"/>
       <c r="Q44" s="49"/>
@@ -2882,17 +2894,17 @@
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
-      <c r="H45" s="94" t="s">
+      <c r="H45" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="I45" s="95"/>
-      <c r="J45" s="95"/>
-      <c r="K45" s="95"/>
-      <c r="L45" s="95"/>
-      <c r="M45" s="95"/>
-      <c r="N45" s="95"/>
-      <c r="O45" s="95"/>
-      <c r="P45" s="96"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="103"/>
+      <c r="K45" s="103"/>
+      <c r="L45" s="103"/>
+      <c r="M45" s="103"/>
+      <c r="N45" s="103"/>
+      <c r="O45" s="103"/>
+      <c r="P45" s="104"/>
       <c r="Q45" s="49"/>
       <c r="R45" s="49"/>
       <c r="S45" s="51"/>
@@ -2908,24 +2920,24 @@
         <f t="shared" si="2"/>
         <v>43748</v>
       </c>
-      <c r="C46" s="69" t="s">
+      <c r="C46" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="79" t="s">
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="I46" s="80"/>
-      <c r="J46" s="80"/>
-      <c r="K46" s="80"/>
-      <c r="L46" s="80"/>
-      <c r="M46" s="80"/>
-      <c r="N46" s="80"/>
-      <c r="O46" s="80"/>
-      <c r="P46" s="81"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="74"/>
+      <c r="N46" s="74"/>
+      <c r="O46" s="74"/>
+      <c r="P46" s="89"/>
       <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
       <c r="S46" s="51"/>
@@ -3104,11 +3116,11 @@
         <v>5</v>
       </c>
       <c r="G52" s="15"/>
-      <c r="H52" s="84" t="s">
+      <c r="H52" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="I52" s="84"/>
-      <c r="J52" s="84"/>
+      <c r="I52" s="111"/>
+      <c r="J52" s="111"/>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
       <c r="M52" s="19"/>
@@ -3128,23 +3140,23 @@
         <f>B43+7</f>
         <v>43752</v>
       </c>
-      <c r="C53" s="69" t="s">
+      <c r="C53" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="H53" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="I53" s="86" t="s">
+      <c r="I53" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="87"/>
-      <c r="K53" s="87"/>
-      <c r="L53" s="87"/>
-      <c r="M53" s="87"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="72"/>
       <c r="N53" s="49"/>
       <c r="O53" s="49"/>
       <c r="P53" s="49"/>
@@ -3163,28 +3175,28 @@
         <f t="shared" ref="B54:B59" si="3">B44+7</f>
         <v>43753</v>
       </c>
-      <c r="C54" s="69" t="s">
+      <c r="C54" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="69"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="105" t="s">
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="H54" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="I54" s="106"/>
-      <c r="J54" s="106"/>
-      <c r="K54" s="106"/>
-      <c r="L54" s="106"/>
-      <c r="M54" s="106"/>
-      <c r="N54" s="106"/>
-      <c r="O54" s="106"/>
-      <c r="P54" s="106"/>
-      <c r="Q54" s="88" t="s">
+      <c r="I54" s="93"/>
+      <c r="J54" s="93"/>
+      <c r="K54" s="93"/>
+      <c r="L54" s="93"/>
+      <c r="M54" s="93"/>
+      <c r="N54" s="93"/>
+      <c r="O54" s="93"/>
+      <c r="P54" s="93"/>
+      <c r="Q54" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="R54" s="90"/>
+      <c r="R54" s="91"/>
       <c r="S54" s="51"/>
       <c r="T54" s="53" t="s">
         <v>19</v>
@@ -3202,18 +3214,18 @@
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
-      <c r="G55" s="69" t="s">
+      <c r="G55" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="H55" s="69"/>
-      <c r="I55" s="110" t="s">
+      <c r="H55" s="86"/>
+      <c r="I55" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="J55" s="87"/>
-      <c r="K55" s="87"/>
-      <c r="L55" s="87"/>
-      <c r="M55" s="87"/>
-      <c r="N55" s="87"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="72"/>
+      <c r="L55" s="72"/>
+      <c r="M55" s="72"/>
+      <c r="N55" s="72"/>
       <c r="O55" s="49"/>
       <c r="P55" s="49"/>
       <c r="Q55" s="49"/>
@@ -3231,21 +3243,21 @@
         <f t="shared" si="3"/>
         <v>43755</v>
       </c>
-      <c r="C56" s="69" t="s">
+      <c r="C56" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="109" t="s">
+      <c r="D56" s="86"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="86"/>
+      <c r="H56" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="I56" s="83"/>
-      <c r="J56" s="83"/>
-      <c r="K56" s="83"/>
-      <c r="L56" s="83"/>
-      <c r="M56" s="83"/>
+      <c r="I56" s="97"/>
+      <c r="J56" s="97"/>
+      <c r="K56" s="97"/>
+      <c r="L56" s="97"/>
+      <c r="M56" s="97"/>
       <c r="N56" s="49"/>
       <c r="O56" s="49"/>
       <c r="P56" s="49"/>
@@ -3277,11 +3289,11 @@
       <c r="M57" s="49"/>
       <c r="N57" s="49"/>
       <c r="O57" s="49"/>
-      <c r="P57" s="79" t="s">
+      <c r="P57" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="Q57" s="80"/>
-      <c r="R57" s="81"/>
+      <c r="Q57" s="74"/>
+      <c r="R57" s="89"/>
       <c r="S57" s="51"/>
       <c r="T57" s="51"/>
     </row>
@@ -3295,31 +3307,31 @@
       </c>
       <c r="C58" s="50"/>
       <c r="D58" s="49"/>
-      <c r="E58" s="107" t="s">
+      <c r="E58" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="F58" s="80"/>
-      <c r="G58" s="108"/>
-      <c r="H58" s="69" t="s">
+      <c r="F58" s="74"/>
+      <c r="G58" s="94"/>
+      <c r="H58" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="I58" s="69"/>
-      <c r="J58" s="86" t="s">
+      <c r="I58" s="86"/>
+      <c r="J58" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="K58" s="87"/>
-      <c r="L58" s="87"/>
-      <c r="M58" s="87"/>
-      <c r="N58" s="87"/>
-      <c r="O58" s="87"/>
-      <c r="P58" s="99"/>
+      <c r="K58" s="72"/>
+      <c r="L58" s="72"/>
+      <c r="M58" s="72"/>
+      <c r="N58" s="72"/>
+      <c r="O58" s="72"/>
+      <c r="P58" s="95"/>
       <c r="Q58" s="20"/>
       <c r="R58" s="20"/>
       <c r="S58" s="51"/>
-      <c r="T58" s="112" t="s">
+      <c r="T58" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="U58" s="112"/>
+      <c r="U58" s="75"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -3346,8 +3358,8 @@
       <c r="Q59" s="20"/>
       <c r="R59" s="20"/>
       <c r="S59" s="51"/>
-      <c r="T59" s="112"/>
-      <c r="U59" s="112"/>
+      <c r="T59" s="75"/>
+      <c r="U59" s="75"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B60"/>
@@ -3368,8 +3380,8 @@
       <c r="Q60"/>
       <c r="R60"/>
       <c r="S60"/>
-      <c r="T60" s="112"/>
-      <c r="U60" s="112"/>
+      <c r="T60" s="75"/>
+      <c r="U60" s="75"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
@@ -3443,11 +3455,11 @@
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
-      <c r="H62" s="84" t="s">
+      <c r="H62" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="I62" s="84"/>
-      <c r="J62" s="84"/>
+      <c r="I62" s="111"/>
+      <c r="J62" s="111"/>
       <c r="K62" s="19"/>
       <c r="L62" s="19"/>
       <c r="M62" s="19"/>
@@ -3467,22 +3479,22 @@
         <f>B53+7</f>
         <v>43759</v>
       </c>
-      <c r="C63" s="69" t="s">
+      <c r="C63" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="69"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="69"/>
+      <c r="D63" s="86"/>
+      <c r="E63" s="86"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
       <c r="H63" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="I63" s="86" t="s">
+      <c r="I63" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="J63" s="87"/>
-      <c r="K63" s="87"/>
-      <c r="L63" s="87"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="72"/>
       <c r="M63" s="49"/>
       <c r="N63" s="49"/>
       <c r="O63" s="49"/>
@@ -3502,22 +3514,22 @@
         <f t="shared" ref="B64:B69" si="4">B54+7</f>
         <v>43760</v>
       </c>
-      <c r="C64" s="69" t="s">
+      <c r="C64" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="69"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="69"/>
-      <c r="H64" s="107" t="s">
+      <c r="D64" s="86"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="H64" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="I64" s="80"/>
-      <c r="J64" s="80"/>
-      <c r="K64" s="80"/>
-      <c r="L64" s="80"/>
-      <c r="M64" s="80"/>
-      <c r="N64" s="80"/>
+      <c r="I64" s="74"/>
+      <c r="J64" s="74"/>
+      <c r="K64" s="74"/>
+      <c r="L64" s="74"/>
+      <c r="M64" s="74"/>
+      <c r="N64" s="74"/>
       <c r="O64" s="49"/>
       <c r="P64" s="49"/>
       <c r="Q64" s="49"/>
@@ -3566,25 +3578,25 @@
         <f t="shared" si="4"/>
         <v>43762</v>
       </c>
-      <c r="C66" s="69" t="s">
+      <c r="C66" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="69"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="69"/>
-      <c r="G66" s="69"/>
-      <c r="H66" s="116" t="s">
+      <c r="D66" s="86"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="H66" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="I66" s="117"/>
-      <c r="J66" s="117"/>
-      <c r="K66" s="117"/>
-      <c r="L66" s="117"/>
-      <c r="M66" s="117"/>
-      <c r="N66" s="117"/>
-      <c r="O66" s="117"/>
-      <c r="P66" s="117"/>
-      <c r="Q66" s="118"/>
+      <c r="I66" s="83"/>
+      <c r="J66" s="83"/>
+      <c r="K66" s="83"/>
+      <c r="L66" s="83"/>
+      <c r="M66" s="83"/>
+      <c r="N66" s="83"/>
+      <c r="O66" s="83"/>
+      <c r="P66" s="83"/>
+      <c r="Q66" s="84"/>
       <c r="R66" s="20"/>
       <c r="S66" s="51"/>
       <c r="T66" s="18" t="s">
@@ -3599,26 +3611,26 @@
         <f t="shared" si="4"/>
         <v>43763</v>
       </c>
-      <c r="C67" s="74" t="s">
+      <c r="C67" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="D67" s="75"/>
-      <c r="E67" s="75"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="75"/>
-      <c r="H67" s="75"/>
-      <c r="I67" s="75"/>
-      <c r="J67" s="76"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="77"/>
+      <c r="I67" s="77"/>
+      <c r="J67" s="70"/>
       <c r="K67" s="49"/>
-      <c r="L67" s="75" t="s">
+      <c r="L67" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="M67" s="75"/>
-      <c r="N67" s="75"/>
-      <c r="O67" s="75"/>
-      <c r="P67" s="75"/>
-      <c r="Q67" s="75"/>
-      <c r="R67" s="76"/>
+      <c r="M67" s="77"/>
+      <c r="N67" s="77"/>
+      <c r="O67" s="77"/>
+      <c r="P67" s="77"/>
+      <c r="Q67" s="77"/>
+      <c r="R67" s="70"/>
       <c r="S67" s="51"/>
       <c r="T67" s="51"/>
     </row>
@@ -3630,26 +3642,26 @@
         <f t="shared" si="4"/>
         <v>43764</v>
       </c>
-      <c r="C68" s="74" t="s">
+      <c r="C68" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="D68" s="75"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="75"/>
-      <c r="H68" s="75"/>
-      <c r="I68" s="75"/>
-      <c r="J68" s="76"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="70"/>
       <c r="K68" s="49"/>
-      <c r="L68" s="75" t="s">
+      <c r="L68" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="M68" s="75"/>
-      <c r="N68" s="75"/>
-      <c r="O68" s="75"/>
-      <c r="P68" s="75"/>
-      <c r="Q68" s="75"/>
-      <c r="R68" s="76"/>
+      <c r="M68" s="77"/>
+      <c r="N68" s="77"/>
+      <c r="O68" s="77"/>
+      <c r="P68" s="77"/>
+      <c r="Q68" s="77"/>
+      <c r="R68" s="70"/>
       <c r="S68" s="51"/>
       <c r="T68" s="51"/>
     </row>
@@ -3661,24 +3673,24 @@
         <f t="shared" si="4"/>
         <v>43765</v>
       </c>
-      <c r="C69" s="69" t="s">
+      <c r="C69" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="D69" s="69"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="69"/>
-      <c r="G69" s="69"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="69"/>
-      <c r="J69" s="69"/>
-      <c r="K69" s="69"/>
-      <c r="L69" s="69"/>
-      <c r="M69" s="69"/>
-      <c r="N69" s="69"/>
-      <c r="O69" s="69"/>
-      <c r="P69" s="69"/>
-      <c r="Q69" s="69"/>
-      <c r="R69" s="69"/>
+      <c r="D69" s="86"/>
+      <c r="E69" s="86"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="H69" s="86"/>
+      <c r="I69" s="86"/>
+      <c r="J69" s="86"/>
+      <c r="K69" s="86"/>
+      <c r="L69" s="86"/>
+      <c r="M69" s="86"/>
+      <c r="N69" s="86"/>
+      <c r="O69" s="86"/>
+      <c r="P69" s="86"/>
+      <c r="Q69" s="86"/>
+      <c r="R69" s="86"/>
       <c r="S69" s="51"/>
       <c r="T69" s="51"/>
     </row>
@@ -3771,27 +3783,27 @@
         <f>C62+1</f>
         <v>7</v>
       </c>
-      <c r="D72" s="85" t="s">
+      <c r="D72" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="85"/>
-      <c r="F72" s="85"/>
+      <c r="E72" s="81"/>
+      <c r="F72" s="81"/>
       <c r="G72" s="15"/>
-      <c r="H72" s="78" t="s">
+      <c r="H72" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="I72" s="78"/>
-      <c r="J72" s="78"/>
-      <c r="K72" s="78"/>
+      <c r="I72" s="115"/>
+      <c r="J72" s="115"/>
+      <c r="K72" s="115"/>
       <c r="L72" s="19"/>
-      <c r="M72" s="77" t="s">
+      <c r="M72" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="N72" s="77"/>
-      <c r="O72" s="77"/>
-      <c r="P72" s="77"/>
-      <c r="Q72" s="77"/>
-      <c r="R72" s="77"/>
+      <c r="N72" s="114"/>
+      <c r="O72" s="114"/>
+      <c r="P72" s="114"/>
+      <c r="Q72" s="114"/>
+      <c r="R72" s="114"/>
       <c r="S72" s="51"/>
       <c r="T72" s="51"/>
     </row>
@@ -3805,23 +3817,23 @@
       </c>
       <c r="C73" s="32"/>
       <c r="D73" s="20"/>
-      <c r="E73" s="70" t="s">
+      <c r="E73" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="F73" s="70"/>
-      <c r="G73" s="70"/>
-      <c r="H73" s="70"/>
-      <c r="I73" s="70"/>
-      <c r="J73" s="70"/>
+      <c r="F73" s="106"/>
+      <c r="G73" s="106"/>
+      <c r="H73" s="106"/>
+      <c r="I73" s="106"/>
+      <c r="J73" s="106"/>
       <c r="K73" s="49"/>
-      <c r="L73" s="74" t="s">
+      <c r="L73" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="M73" s="75"/>
-      <c r="N73" s="75"/>
-      <c r="O73" s="75"/>
-      <c r="P73" s="75"/>
-      <c r="Q73" s="76"/>
+      <c r="M73" s="72"/>
+      <c r="N73" s="72"/>
+      <c r="O73" s="72"/>
+      <c r="P73" s="72"/>
+      <c r="Q73" s="95"/>
       <c r="R73" s="49"/>
       <c r="S73" s="51"/>
       <c r="T73" s="30" t="s">
@@ -3836,27 +3848,27 @@
         <f t="shared" ref="B74:B79" si="5">B64+7</f>
         <v>43767</v>
       </c>
-      <c r="C74" s="74" t="s">
+      <c r="C74" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="D74" s="76"/>
-      <c r="E74" s="70" t="s">
+      <c r="D74" s="95"/>
+      <c r="E74" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="F74" s="70"/>
-      <c r="G74" s="70"/>
-      <c r="H74" s="70"/>
-      <c r="I74" s="70"/>
-      <c r="J74" s="70"/>
+      <c r="F74" s="106"/>
+      <c r="G74" s="106"/>
+      <c r="H74" s="106"/>
+      <c r="I74" s="106"/>
+      <c r="J74" s="106"/>
       <c r="K74" s="49"/>
-      <c r="L74" s="74" t="s">
+      <c r="L74" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="M74" s="75"/>
-      <c r="N74" s="75"/>
-      <c r="O74" s="75"/>
-      <c r="P74" s="75"/>
-      <c r="Q74" s="76"/>
+      <c r="M74" s="72"/>
+      <c r="N74" s="72"/>
+      <c r="O74" s="72"/>
+      <c r="P74" s="72"/>
+      <c r="Q74" s="95"/>
       <c r="R74" s="20"/>
       <c r="S74" s="51"/>
       <c r="T74" s="53" t="s">
@@ -3873,23 +3885,23 @@
       </c>
       <c r="C75" s="32"/>
       <c r="D75" s="20"/>
-      <c r="E75" s="70" t="s">
+      <c r="E75" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="F75" s="70"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="70"/>
-      <c r="I75" s="70"/>
-      <c r="J75" s="70"/>
+      <c r="F75" s="106"/>
+      <c r="G75" s="106"/>
+      <c r="H75" s="106"/>
+      <c r="I75" s="106"/>
+      <c r="J75" s="106"/>
       <c r="K75" s="49"/>
-      <c r="L75" s="74" t="s">
+      <c r="L75" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="M75" s="75"/>
-      <c r="N75" s="75"/>
-      <c r="O75" s="75"/>
-      <c r="P75" s="75"/>
-      <c r="Q75" s="76"/>
+      <c r="M75" s="72"/>
+      <c r="N75" s="72"/>
+      <c r="O75" s="72"/>
+      <c r="P75" s="72"/>
+      <c r="Q75" s="95"/>
       <c r="R75" s="49"/>
       <c r="S75" s="51"/>
       <c r="T75" s="52" t="s">
@@ -3904,24 +3916,24 @@
         <f t="shared" si="5"/>
         <v>43769</v>
       </c>
-      <c r="C76" s="69" t="s">
+      <c r="C76" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="D76" s="69"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="69"/>
-      <c r="G76" s="69"/>
-      <c r="H76" s="69"/>
-      <c r="I76" s="69"/>
-      <c r="J76" s="69"/>
-      <c r="K76" s="69"/>
-      <c r="L76" s="69"/>
-      <c r="M76" s="69"/>
-      <c r="N76" s="69"/>
-      <c r="O76" s="69"/>
-      <c r="P76" s="69"/>
-      <c r="Q76" s="69"/>
-      <c r="R76" s="69"/>
+      <c r="D76" s="86"/>
+      <c r="E76" s="86"/>
+      <c r="F76" s="86"/>
+      <c r="G76" s="86"/>
+      <c r="H76" s="86"/>
+      <c r="I76" s="86"/>
+      <c r="J76" s="86"/>
+      <c r="K76" s="86"/>
+      <c r="L76" s="86"/>
+      <c r="M76" s="86"/>
+      <c r="N76" s="86"/>
+      <c r="O76" s="86"/>
+      <c r="P76" s="86"/>
+      <c r="Q76" s="86"/>
+      <c r="R76" s="86"/>
       <c r="S76" s="51"/>
       <c r="T76" s="18" t="s">
         <v>21</v>
@@ -3937,23 +3949,23 @@
       </c>
       <c r="C77" s="32"/>
       <c r="D77" s="20"/>
-      <c r="E77" s="70" t="s">
+      <c r="E77" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="F77" s="70"/>
-      <c r="G77" s="70"/>
-      <c r="H77" s="70"/>
-      <c r="I77" s="70"/>
-      <c r="J77" s="70"/>
+      <c r="F77" s="105"/>
+      <c r="G77" s="105"/>
+      <c r="H77" s="105"/>
+      <c r="I77" s="105"/>
+      <c r="J77" s="105"/>
       <c r="K77" s="49"/>
-      <c r="L77" s="74" t="s">
+      <c r="L77" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="M77" s="75"/>
-      <c r="N77" s="75"/>
-      <c r="O77" s="75"/>
-      <c r="P77" s="75"/>
-      <c r="Q77" s="76"/>
+      <c r="M77" s="120"/>
+      <c r="N77" s="120"/>
+      <c r="O77" s="120"/>
+      <c r="P77" s="120"/>
+      <c r="Q77" s="121"/>
       <c r="R77" s="20"/>
       <c r="S77" s="51"/>
       <c r="T77" s="51"/>
@@ -3968,23 +3980,23 @@
       </c>
       <c r="C78" s="50"/>
       <c r="D78" s="49"/>
-      <c r="E78" s="70" t="s">
+      <c r="E78" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="F78" s="70"/>
-      <c r="G78" s="70"/>
-      <c r="H78" s="70"/>
-      <c r="I78" s="70"/>
-      <c r="J78" s="70"/>
+      <c r="F78" s="105"/>
+      <c r="G78" s="105"/>
+      <c r="H78" s="105"/>
+      <c r="I78" s="105"/>
+      <c r="J78" s="105"/>
       <c r="K78" s="49"/>
-      <c r="L78" s="74" t="s">
+      <c r="L78" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="M78" s="75"/>
-      <c r="N78" s="75"/>
-      <c r="O78" s="75"/>
-      <c r="P78" s="75"/>
-      <c r="Q78" s="76"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="120"/>
+      <c r="P78" s="120"/>
+      <c r="Q78" s="121"/>
       <c r="R78" s="49"/>
       <c r="S78" s="51"/>
       <c r="T78" s="51"/>
@@ -3997,24 +4009,24 @@
         <f t="shared" si="5"/>
         <v>43772</v>
       </c>
-      <c r="C79" s="69" t="s">
+      <c r="C79" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="D79" s="69"/>
-      <c r="E79" s="69"/>
-      <c r="F79" s="69"/>
-      <c r="G79" s="69"/>
-      <c r="H79" s="69"/>
-      <c r="I79" s="69"/>
-      <c r="J79" s="69"/>
-      <c r="K79" s="69"/>
-      <c r="L79" s="69"/>
-      <c r="M79" s="69"/>
-      <c r="N79" s="69"/>
-      <c r="O79" s="69"/>
-      <c r="P79" s="69"/>
-      <c r="Q79" s="69"/>
-      <c r="R79" s="69"/>
+      <c r="D79" s="86"/>
+      <c r="E79" s="86"/>
+      <c r="F79" s="86"/>
+      <c r="G79" s="86"/>
+      <c r="H79" s="86"/>
+      <c r="I79" s="86"/>
+      <c r="J79" s="86"/>
+      <c r="K79" s="86"/>
+      <c r="L79" s="86"/>
+      <c r="M79" s="86"/>
+      <c r="N79" s="86"/>
+      <c r="O79" s="86"/>
+      <c r="P79" s="86"/>
+      <c r="Q79" s="86"/>
+      <c r="R79" s="86"/>
       <c r="S79" s="51"/>
       <c r="T79" s="51"/>
     </row>
@@ -4088,11 +4100,11 @@
         <f>C72+1</f>
         <v>8</v>
       </c>
-      <c r="D82" s="85" t="s">
+      <c r="D82" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="85"/>
-      <c r="F82" s="85"/>
+      <c r="E82" s="81"/>
+      <c r="F82" s="81"/>
       <c r="G82" s="15"/>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -4117,24 +4129,24 @@
         <f>B73+7</f>
         <v>43773</v>
       </c>
-      <c r="C83" s="69" t="s">
+      <c r="C83" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="69"/>
-      <c r="E83" s="69"/>
-      <c r="F83" s="69"/>
-      <c r="G83" s="69"/>
-      <c r="H83" s="71" t="s">
+      <c r="D83" s="86"/>
+      <c r="E83" s="86"/>
+      <c r="F83" s="86"/>
+      <c r="G83" s="86"/>
+      <c r="H83" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="I83" s="72"/>
-      <c r="J83" s="72"/>
-      <c r="K83" s="72"/>
-      <c r="L83" s="72"/>
-      <c r="M83" s="72"/>
-      <c r="N83" s="72"/>
-      <c r="O83" s="72"/>
-      <c r="P83" s="104"/>
+      <c r="I83" s="74"/>
+      <c r="J83" s="74"/>
+      <c r="K83" s="74"/>
+      <c r="L83" s="74"/>
+      <c r="M83" s="74"/>
+      <c r="N83" s="74"/>
+      <c r="O83" s="74"/>
+      <c r="P83" s="89"/>
       <c r="Q83" s="20"/>
       <c r="R83" s="20"/>
       <c r="S83" s="51"/>
@@ -4151,26 +4163,28 @@
         <f t="shared" ref="B84:B89" si="6">B74+7</f>
         <v>43774</v>
       </c>
-      <c r="C84" s="69" t="s">
+      <c r="C84" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="69"/>
-      <c r="E84" s="69"/>
-      <c r="F84" s="69"/>
-      <c r="G84" s="69"/>
-      <c r="H84" s="69" t="s">
+      <c r="D84" s="86"/>
+      <c r="E84" s="86"/>
+      <c r="F84" s="86"/>
+      <c r="G84" s="86"/>
+      <c r="H84" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="I84" s="69"/>
-      <c r="J84" s="20"/>
-      <c r="K84" s="49"/>
-      <c r="L84" s="49"/>
-      <c r="M84" s="20"/>
-      <c r="N84" s="20"/>
-      <c r="O84" s="49"/>
-      <c r="P84" s="49"/>
-      <c r="Q84" s="20"/>
-      <c r="R84" s="20"/>
+      <c r="I84" s="86"/>
+      <c r="J84" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="K84" s="74"/>
+      <c r="L84" s="74"/>
+      <c r="M84" s="74"/>
+      <c r="N84" s="74"/>
+      <c r="O84" s="74"/>
+      <c r="P84" s="74"/>
+      <c r="Q84" s="74"/>
+      <c r="R84" s="89"/>
       <c r="S84" s="51"/>
       <c r="T84" s="53" t="s">
         <v>19</v>
@@ -4187,15 +4201,17 @@
       </c>
       <c r="C85" s="32"/>
       <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="49"/>
-      <c r="L85" s="49"/>
-      <c r="M85" s="49"/>
+      <c r="E85" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="F85" s="74"/>
+      <c r="G85" s="74"/>
+      <c r="H85" s="74"/>
+      <c r="I85" s="74"/>
+      <c r="J85" s="74"/>
+      <c r="K85" s="74"/>
+      <c r="L85" s="74"/>
+      <c r="M85" s="89"/>
       <c r="N85" s="49"/>
       <c r="O85" s="49"/>
       <c r="P85" s="49"/>
@@ -4215,13 +4231,13 @@
         <f t="shared" si="6"/>
         <v>43776</v>
       </c>
-      <c r="C86" s="103" t="s">
+      <c r="C86" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="D86" s="103"/>
-      <c r="E86" s="103"/>
-      <c r="F86" s="103"/>
-      <c r="G86" s="103"/>
+      <c r="D86" s="87"/>
+      <c r="E86" s="87"/>
+      <c r="F86" s="87"/>
+      <c r="G86" s="87"/>
       <c r="H86" s="49"/>
       <c r="I86" s="49"/>
       <c r="J86" s="49"/>
@@ -4303,24 +4319,24 @@
         <f t="shared" si="6"/>
         <v>43779</v>
       </c>
-      <c r="C89" s="69" t="s">
+      <c r="C89" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="D89" s="69"/>
-      <c r="E89" s="69"/>
-      <c r="F89" s="69"/>
-      <c r="G89" s="69"/>
-      <c r="H89" s="69"/>
-      <c r="I89" s="69"/>
-      <c r="J89" s="69"/>
-      <c r="K89" s="69"/>
-      <c r="L89" s="69"/>
-      <c r="M89" s="69"/>
-      <c r="N89" s="69"/>
-      <c r="O89" s="69"/>
-      <c r="P89" s="69"/>
-      <c r="Q89" s="69"/>
-      <c r="R89" s="69"/>
+      <c r="D89" s="86"/>
+      <c r="E89" s="86"/>
+      <c r="F89" s="86"/>
+      <c r="G89" s="86"/>
+      <c r="H89" s="86"/>
+      <c r="I89" s="86"/>
+      <c r="J89" s="86"/>
+      <c r="K89" s="86"/>
+      <c r="L89" s="86"/>
+      <c r="M89" s="86"/>
+      <c r="N89" s="86"/>
+      <c r="O89" s="86"/>
+      <c r="P89" s="86"/>
+      <c r="Q89" s="86"/>
+      <c r="R89" s="86"/>
       <c r="S89" s="51"/>
       <c r="T89" s="51"/>
       <c r="U89" s="54"/>
@@ -4383,7 +4399,7 @@
       <c r="T91" s="51"/>
       <c r="U91" s="54"/>
     </row>
-    <row r="92" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="57">
         <f>A82+7</f>
         <v>43780</v>
@@ -4414,7 +4430,7 @@
       <c r="T92" s="51"/>
       <c r="U92" s="54"/>
     </row>
-    <row r="93" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" s="27" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>0</v>
       </c>
@@ -4422,22 +4438,24 @@
         <f>B83+7</f>
         <v>43780</v>
       </c>
-      <c r="C93" s="69" t="s">
+      <c r="C93" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="69"/>
-      <c r="E93" s="69"/>
-      <c r="F93" s="69"/>
-      <c r="G93" s="69"/>
-      <c r="H93" s="49"/>
-      <c r="I93" s="49"/>
-      <c r="J93" s="49"/>
-      <c r="K93" s="20"/>
-      <c r="L93" s="20"/>
-      <c r="M93" s="20"/>
-      <c r="N93" s="20"/>
-      <c r="O93" s="20"/>
-      <c r="P93" s="20"/>
+      <c r="D93" s="86"/>
+      <c r="E93" s="86"/>
+      <c r="F93" s="86"/>
+      <c r="G93" s="86"/>
+      <c r="H93" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="I93" s="106"/>
+      <c r="J93" s="106"/>
+      <c r="K93" s="106"/>
+      <c r="L93" s="106"/>
+      <c r="M93" s="106"/>
+      <c r="N93" s="106"/>
+      <c r="O93" s="106"/>
+      <c r="P93" s="106"/>
       <c r="Q93" s="20"/>
       <c r="R93" s="20"/>
       <c r="S93" s="51"/>
@@ -4446,7 +4464,7 @@
       </c>
       <c r="U93" s="54"/>
     </row>
-    <row r="94" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" s="27" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>1</v>
       </c>
@@ -4454,22 +4472,24 @@
         <f t="shared" ref="B94:B99" si="7">B84+7</f>
         <v>43781</v>
       </c>
-      <c r="C94" s="69" t="s">
+      <c r="C94" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="69"/>
-      <c r="E94" s="69"/>
-      <c r="F94" s="69"/>
-      <c r="G94" s="69"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="20"/>
-      <c r="K94" s="49"/>
-      <c r="L94" s="49"/>
-      <c r="M94" s="20"/>
-      <c r="N94" s="20"/>
-      <c r="O94" s="49"/>
-      <c r="P94" s="49"/>
+      <c r="D94" s="86"/>
+      <c r="E94" s="86"/>
+      <c r="F94" s="86"/>
+      <c r="G94" s="86"/>
+      <c r="H94" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="I94" s="106"/>
+      <c r="J94" s="106"/>
+      <c r="K94" s="106"/>
+      <c r="L94" s="106"/>
+      <c r="M94" s="106"/>
+      <c r="N94" s="106"/>
+      <c r="O94" s="106"/>
+      <c r="P94" s="106"/>
       <c r="Q94" s="20"/>
       <c r="R94" s="20"/>
       <c r="S94" s="51"/>
@@ -4478,7 +4498,7 @@
       </c>
       <c r="U94" s="54"/>
     </row>
-    <row r="95" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" s="27" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>2</v>
       </c>
@@ -4508,7 +4528,7 @@
       </c>
       <c r="U95" s="54"/>
     </row>
-    <row r="96" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" s="27" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>3</v>
       </c>
@@ -4516,18 +4536,20 @@
         <f t="shared" si="7"/>
         <v>43783</v>
       </c>
-      <c r="C96" s="69" t="s">
+      <c r="C96" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D96" s="69"/>
-      <c r="E96" s="69"/>
-      <c r="F96" s="69"/>
-      <c r="G96" s="69"/>
-      <c r="H96" s="49"/>
-      <c r="I96" s="49"/>
-      <c r="J96" s="49"/>
-      <c r="K96" s="49"/>
-      <c r="L96" s="49"/>
+      <c r="D96" s="86"/>
+      <c r="E96" s="86"/>
+      <c r="F96" s="86"/>
+      <c r="G96" s="86"/>
+      <c r="H96" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="I96" s="72"/>
+      <c r="J96" s="72"/>
+      <c r="K96" s="72"/>
+      <c r="L96" s="95"/>
       <c r="M96" s="20"/>
       <c r="N96" s="20"/>
       <c r="O96" s="20"/>
@@ -4540,7 +4562,7 @@
       </c>
       <c r="U96" s="54"/>
     </row>
-    <row r="97" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" s="27" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>4</v>
       </c>
@@ -4604,24 +4626,24 @@
         <f t="shared" si="7"/>
         <v>43786</v>
       </c>
-      <c r="C99" s="69" t="s">
+      <c r="C99" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="D99" s="69"/>
-      <c r="E99" s="69"/>
-      <c r="F99" s="69"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="69"/>
-      <c r="I99" s="69"/>
-      <c r="J99" s="69"/>
-      <c r="K99" s="69"/>
-      <c r="L99" s="69"/>
-      <c r="M99" s="69"/>
-      <c r="N99" s="69"/>
-      <c r="O99" s="69"/>
-      <c r="P99" s="69"/>
-      <c r="Q99" s="69"/>
-      <c r="R99" s="69"/>
+      <c r="D99" s="86"/>
+      <c r="E99" s="86"/>
+      <c r="F99" s="86"/>
+      <c r="G99" s="86"/>
+      <c r="H99" s="86"/>
+      <c r="I99" s="86"/>
+      <c r="J99" s="86"/>
+      <c r="K99" s="86"/>
+      <c r="L99" s="86"/>
+      <c r="M99" s="86"/>
+      <c r="N99" s="86"/>
+      <c r="O99" s="86"/>
+      <c r="P99" s="86"/>
+      <c r="Q99" s="86"/>
+      <c r="R99" s="86"/>
       <c r="S99" s="51"/>
       <c r="T99" s="51"/>
       <c r="U99" s="54"/>
@@ -4723,13 +4745,13 @@
         <f>B93+7</f>
         <v>43787</v>
       </c>
-      <c r="C103" s="69" t="s">
+      <c r="C103" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="69"/>
-      <c r="E103" s="69"/>
-      <c r="F103" s="69"/>
-      <c r="G103" s="69"/>
+      <c r="D103" s="86"/>
+      <c r="E103" s="86"/>
+      <c r="F103" s="86"/>
+      <c r="G103" s="86"/>
       <c r="H103" s="49"/>
       <c r="I103" s="49"/>
       <c r="J103" s="49"/>
@@ -4755,17 +4777,17 @@
         <f t="shared" ref="B104:B109" si="8">B94+7</f>
         <v>43788</v>
       </c>
-      <c r="C104" s="69" t="s">
+      <c r="C104" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D104" s="69"/>
-      <c r="E104" s="69"/>
-      <c r="F104" s="69"/>
-      <c r="G104" s="69"/>
-      <c r="H104" s="69" t="s">
+      <c r="D104" s="86"/>
+      <c r="E104" s="86"/>
+      <c r="F104" s="86"/>
+      <c r="G104" s="86"/>
+      <c r="H104" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="I104" s="69"/>
+      <c r="I104" s="86"/>
       <c r="J104" s="20"/>
       <c r="K104" s="49"/>
       <c r="L104" s="49"/>
@@ -4819,13 +4841,13 @@
         <f t="shared" si="8"/>
         <v>43790</v>
       </c>
-      <c r="C106" s="69" t="s">
+      <c r="C106" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D106" s="69"/>
-      <c r="E106" s="69"/>
-      <c r="F106" s="69"/>
-      <c r="G106" s="69"/>
+      <c r="D106" s="86"/>
+      <c r="E106" s="86"/>
+      <c r="F106" s="86"/>
+      <c r="G106" s="86"/>
       <c r="H106" s="49"/>
       <c r="I106" s="49"/>
       <c r="J106" s="49"/>
@@ -4907,24 +4929,24 @@
         <f t="shared" si="8"/>
         <v>43793</v>
       </c>
-      <c r="C109" s="69" t="s">
+      <c r="C109" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="D109" s="69"/>
-      <c r="E109" s="69"/>
-      <c r="F109" s="69"/>
-      <c r="G109" s="69"/>
-      <c r="H109" s="69"/>
-      <c r="I109" s="69"/>
-      <c r="J109" s="69"/>
-      <c r="K109" s="69"/>
-      <c r="L109" s="69"/>
-      <c r="M109" s="69"/>
-      <c r="N109" s="69"/>
-      <c r="O109" s="69"/>
-      <c r="P109" s="69"/>
-      <c r="Q109" s="69"/>
-      <c r="R109" s="69"/>
+      <c r="D109" s="86"/>
+      <c r="E109" s="86"/>
+      <c r="F109" s="86"/>
+      <c r="G109" s="86"/>
+      <c r="H109" s="86"/>
+      <c r="I109" s="86"/>
+      <c r="J109" s="86"/>
+      <c r="K109" s="86"/>
+      <c r="L109" s="86"/>
+      <c r="M109" s="86"/>
+      <c r="N109" s="86"/>
+      <c r="O109" s="86"/>
+      <c r="P109" s="86"/>
+      <c r="Q109" s="86"/>
+      <c r="R109" s="86"/>
       <c r="S109" s="51"/>
       <c r="T109" s="51"/>
       <c r="U109" s="54"/>
@@ -4999,11 +5021,11 @@
         <f>C102+1</f>
         <v>11</v>
       </c>
-      <c r="D112" s="85" t="s">
+      <c r="D112" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="E112" s="85"/>
-      <c r="F112" s="85"/>
+      <c r="E112" s="81"/>
+      <c r="F112" s="81"/>
       <c r="G112" s="15"/>
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
@@ -5028,13 +5050,13 @@
         <f>B103+7</f>
         <v>43794</v>
       </c>
-      <c r="C113" s="69" t="s">
+      <c r="C113" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D113" s="69"/>
-      <c r="E113" s="69"/>
-      <c r="F113" s="69"/>
-      <c r="G113" s="69"/>
+      <c r="D113" s="86"/>
+      <c r="E113" s="86"/>
+      <c r="F113" s="86"/>
+      <c r="G113" s="86"/>
       <c r="H113" s="49"/>
       <c r="I113" s="49"/>
       <c r="J113" s="49"/>
@@ -5060,13 +5082,13 @@
         <f t="shared" ref="B114:B119" si="9">B104+7</f>
         <v>43795</v>
       </c>
-      <c r="C114" s="69" t="s">
+      <c r="C114" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D114" s="69"/>
-      <c r="E114" s="69"/>
-      <c r="F114" s="69"/>
-      <c r="G114" s="69"/>
+      <c r="D114" s="86"/>
+      <c r="E114" s="86"/>
+      <c r="F114" s="86"/>
+      <c r="G114" s="86"/>
       <c r="H114" s="20"/>
       <c r="I114" s="20"/>
       <c r="J114" s="20"/>
@@ -5094,23 +5116,23 @@
       </c>
       <c r="C115" s="32"/>
       <c r="D115" s="20"/>
-      <c r="E115" s="70" t="s">
+      <c r="E115" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="F115" s="70"/>
-      <c r="G115" s="70"/>
-      <c r="H115" s="70"/>
-      <c r="I115" s="70"/>
-      <c r="J115" s="70"/>
+      <c r="F115" s="76"/>
+      <c r="G115" s="76"/>
+      <c r="H115" s="76"/>
+      <c r="I115" s="76"/>
+      <c r="J115" s="76"/>
       <c r="K115" s="49"/>
-      <c r="L115" s="74" t="s">
+      <c r="L115" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="M115" s="75"/>
-      <c r="N115" s="75"/>
-      <c r="O115" s="75"/>
-      <c r="P115" s="75"/>
-      <c r="Q115" s="76"/>
+      <c r="M115" s="77"/>
+      <c r="N115" s="77"/>
+      <c r="O115" s="77"/>
+      <c r="P115" s="77"/>
+      <c r="Q115" s="70"/>
       <c r="R115" s="49"/>
       <c r="S115" s="51"/>
       <c r="T115" s="52" t="s">
@@ -5126,27 +5148,27 @@
         <f t="shared" si="9"/>
         <v>43797</v>
       </c>
-      <c r="C116" s="69" t="s">
+      <c r="C116" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D116" s="69"/>
-      <c r="E116" s="69"/>
-      <c r="F116" s="69"/>
-      <c r="G116" s="69"/>
-      <c r="H116" s="70" t="s">
+      <c r="D116" s="86"/>
+      <c r="E116" s="86"/>
+      <c r="F116" s="86"/>
+      <c r="G116" s="86"/>
+      <c r="H116" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="I116" s="70"/>
-      <c r="J116" s="70"/>
-      <c r="K116" s="71" t="s">
+      <c r="I116" s="76"/>
+      <c r="J116" s="76"/>
+      <c r="K116" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="L116" s="72"/>
-      <c r="M116" s="72"/>
-      <c r="N116" s="72"/>
-      <c r="O116" s="72"/>
-      <c r="P116" s="72"/>
-      <c r="Q116" s="73"/>
+      <c r="L116" s="79"/>
+      <c r="M116" s="79"/>
+      <c r="N116" s="79"/>
+      <c r="O116" s="79"/>
+      <c r="P116" s="79"/>
+      <c r="Q116" s="113"/>
       <c r="R116" s="20"/>
       <c r="S116" s="51"/>
       <c r="T116" s="18" t="s">
@@ -5164,23 +5186,23 @@
       </c>
       <c r="C117" s="32"/>
       <c r="D117" s="20"/>
-      <c r="E117" s="70" t="s">
+      <c r="E117" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="F117" s="70"/>
-      <c r="G117" s="70"/>
-      <c r="H117" s="70"/>
-      <c r="I117" s="70"/>
-      <c r="J117" s="70"/>
+      <c r="F117" s="76"/>
+      <c r="G117" s="76"/>
+      <c r="H117" s="76"/>
+      <c r="I117" s="76"/>
+      <c r="J117" s="76"/>
       <c r="K117" s="49"/>
-      <c r="L117" s="74" t="s">
+      <c r="L117" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="M117" s="75"/>
-      <c r="N117" s="75"/>
-      <c r="O117" s="75"/>
-      <c r="P117" s="75"/>
-      <c r="Q117" s="76"/>
+      <c r="M117" s="77"/>
+      <c r="N117" s="77"/>
+      <c r="O117" s="77"/>
+      <c r="P117" s="77"/>
+      <c r="Q117" s="70"/>
       <c r="R117" s="20"/>
       <c r="S117" s="51"/>
       <c r="T117" s="51"/>
@@ -5196,23 +5218,23 @@
       </c>
       <c r="C118" s="50"/>
       <c r="D118" s="49"/>
-      <c r="E118" s="70" t="s">
+      <c r="E118" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="F118" s="70"/>
-      <c r="G118" s="70"/>
-      <c r="H118" s="70"/>
-      <c r="I118" s="70"/>
-      <c r="J118" s="70"/>
+      <c r="F118" s="76"/>
+      <c r="G118" s="76"/>
+      <c r="H118" s="76"/>
+      <c r="I118" s="76"/>
+      <c r="J118" s="76"/>
       <c r="K118" s="49"/>
-      <c r="L118" s="74" t="s">
+      <c r="L118" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="M118" s="75"/>
-      <c r="N118" s="75"/>
-      <c r="O118" s="75"/>
-      <c r="P118" s="75"/>
-      <c r="Q118" s="76"/>
+      <c r="M118" s="77"/>
+      <c r="N118" s="77"/>
+      <c r="O118" s="77"/>
+      <c r="P118" s="77"/>
+      <c r="Q118" s="70"/>
       <c r="R118" s="49"/>
       <c r="S118" s="51"/>
       <c r="T118" s="51"/>
@@ -5226,24 +5248,24 @@
         <f t="shared" si="9"/>
         <v>43800</v>
       </c>
-      <c r="C119" s="69" t="s">
+      <c r="C119" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="D119" s="69"/>
-      <c r="E119" s="69"/>
-      <c r="F119" s="69"/>
-      <c r="G119" s="69"/>
-      <c r="H119" s="69"/>
-      <c r="I119" s="69"/>
-      <c r="J119" s="69"/>
-      <c r="K119" s="69"/>
-      <c r="L119" s="69"/>
-      <c r="M119" s="69"/>
-      <c r="N119" s="69"/>
-      <c r="O119" s="69"/>
-      <c r="P119" s="69"/>
-      <c r="Q119" s="69"/>
-      <c r="R119" s="69"/>
+      <c r="D119" s="86"/>
+      <c r="E119" s="86"/>
+      <c r="F119" s="86"/>
+      <c r="G119" s="86"/>
+      <c r="H119" s="86"/>
+      <c r="I119" s="86"/>
+      <c r="J119" s="86"/>
+      <c r="K119" s="86"/>
+      <c r="L119" s="86"/>
+      <c r="M119" s="86"/>
+      <c r="N119" s="86"/>
+      <c r="O119" s="86"/>
+      <c r="P119" s="86"/>
+      <c r="Q119" s="86"/>
+      <c r="R119" s="86"/>
       <c r="S119" s="51"/>
       <c r="T119" s="51"/>
       <c r="U119" s="54"/>
@@ -5318,11 +5340,11 @@
         <f>C112+1</f>
         <v>12</v>
       </c>
-      <c r="D122" s="85" t="s">
+      <c r="D122" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="E122" s="85"/>
-      <c r="F122" s="85"/>
+      <c r="E122" s="81"/>
+      <c r="F122" s="81"/>
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
@@ -5347,24 +5369,24 @@
         <f>B113+7</f>
         <v>43801</v>
       </c>
-      <c r="C123" s="69" t="s">
+      <c r="C123" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="69"/>
-      <c r="E123" s="69"/>
-      <c r="F123" s="69"/>
-      <c r="G123" s="69"/>
-      <c r="H123" s="71" t="s">
+      <c r="D123" s="86"/>
+      <c r="E123" s="86"/>
+      <c r="F123" s="86"/>
+      <c r="G123" s="86"/>
+      <c r="H123" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="I123" s="72"/>
-      <c r="J123" s="72"/>
-      <c r="K123" s="72"/>
-      <c r="L123" s="72"/>
-      <c r="M123" s="72"/>
-      <c r="N123" s="72"/>
-      <c r="O123" s="72"/>
-      <c r="P123" s="104"/>
+      <c r="I123" s="79"/>
+      <c r="J123" s="79"/>
+      <c r="K123" s="79"/>
+      <c r="L123" s="79"/>
+      <c r="M123" s="79"/>
+      <c r="N123" s="79"/>
+      <c r="O123" s="79"/>
+      <c r="P123" s="80"/>
       <c r="Q123" s="20"/>
       <c r="R123" s="20"/>
       <c r="S123" s="51"/>
@@ -5381,17 +5403,17 @@
         <f t="shared" ref="B124:B129" si="10">B114+7</f>
         <v>43802</v>
       </c>
-      <c r="C124" s="69" t="s">
+      <c r="C124" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D124" s="69"/>
-      <c r="E124" s="69"/>
-      <c r="F124" s="69"/>
-      <c r="G124" s="69"/>
-      <c r="H124" s="69" t="s">
+      <c r="D124" s="86"/>
+      <c r="E124" s="86"/>
+      <c r="F124" s="86"/>
+      <c r="G124" s="86"/>
+      <c r="H124" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="I124" s="69"/>
+      <c r="I124" s="86"/>
       <c r="J124" s="20"/>
       <c r="K124" s="49"/>
       <c r="L124" s="49"/>
@@ -5445,13 +5467,13 @@
         <f t="shared" si="10"/>
         <v>43804</v>
       </c>
-      <c r="C126" s="103" t="s">
+      <c r="C126" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="D126" s="103"/>
-      <c r="E126" s="103"/>
-      <c r="F126" s="103"/>
-      <c r="G126" s="103"/>
+      <c r="D126" s="87"/>
+      <c r="E126" s="87"/>
+      <c r="F126" s="87"/>
+      <c r="G126" s="87"/>
       <c r="H126" s="49"/>
       <c r="I126" s="49"/>
       <c r="J126" s="49"/>
@@ -5533,24 +5555,24 @@
         <f t="shared" si="10"/>
         <v>43807</v>
       </c>
-      <c r="C129" s="69" t="s">
+      <c r="C129" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="D129" s="69"/>
-      <c r="E129" s="69"/>
-      <c r="F129" s="69"/>
-      <c r="G129" s="69"/>
-      <c r="H129" s="69"/>
-      <c r="I129" s="69"/>
-      <c r="J129" s="69"/>
-      <c r="K129" s="69"/>
-      <c r="L129" s="69"/>
-      <c r="M129" s="69"/>
-      <c r="N129" s="69"/>
-      <c r="O129" s="69"/>
-      <c r="P129" s="69"/>
-      <c r="Q129" s="69"/>
-      <c r="R129" s="69"/>
+      <c r="D129" s="86"/>
+      <c r="E129" s="86"/>
+      <c r="F129" s="86"/>
+      <c r="G129" s="86"/>
+      <c r="H129" s="86"/>
+      <c r="I129" s="86"/>
+      <c r="J129" s="86"/>
+      <c r="K129" s="86"/>
+      <c r="L129" s="86"/>
+      <c r="M129" s="86"/>
+      <c r="N129" s="86"/>
+      <c r="O129" s="86"/>
+      <c r="P129" s="86"/>
+      <c r="Q129" s="86"/>
+      <c r="R129" s="86"/>
       <c r="S129" s="51"/>
       <c r="T129" s="51"/>
       <c r="U129" s="54"/>
@@ -5652,13 +5674,13 @@
         <f>B123+7</f>
         <v>43808</v>
       </c>
-      <c r="C133" s="69" t="s">
+      <c r="C133" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D133" s="69"/>
-      <c r="E133" s="69"/>
-      <c r="F133" s="69"/>
-      <c r="G133" s="69"/>
+      <c r="D133" s="86"/>
+      <c r="E133" s="86"/>
+      <c r="F133" s="86"/>
+      <c r="G133" s="86"/>
       <c r="H133" s="49"/>
       <c r="I133" s="49"/>
       <c r="J133" s="49"/>
@@ -5684,13 +5706,13 @@
         <f t="shared" ref="B134:B139" si="11">B124+7</f>
         <v>43809</v>
       </c>
-      <c r="C134" s="69" t="s">
+      <c r="C134" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D134" s="69"/>
-      <c r="E134" s="69"/>
-      <c r="F134" s="69"/>
-      <c r="G134" s="69"/>
+      <c r="D134" s="86"/>
+      <c r="E134" s="86"/>
+      <c r="F134" s="86"/>
+      <c r="G134" s="86"/>
       <c r="H134" s="20"/>
       <c r="I134" s="20"/>
       <c r="J134" s="20"/>
@@ -5746,13 +5768,13 @@
         <f t="shared" si="11"/>
         <v>43811</v>
       </c>
-      <c r="C136" s="69" t="s">
+      <c r="C136" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D136" s="69"/>
-      <c r="E136" s="69"/>
-      <c r="F136" s="69"/>
-      <c r="G136" s="69"/>
+      <c r="D136" s="86"/>
+      <c r="E136" s="86"/>
+      <c r="F136" s="86"/>
+      <c r="G136" s="86"/>
       <c r="H136" s="20"/>
       <c r="I136" s="49"/>
       <c r="J136" s="49"/>
@@ -5834,24 +5856,24 @@
         <f t="shared" si="11"/>
         <v>43814</v>
       </c>
-      <c r="C139" s="69" t="s">
+      <c r="C139" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="D139" s="69"/>
-      <c r="E139" s="69"/>
-      <c r="F139" s="69"/>
-      <c r="G139" s="69"/>
-      <c r="H139" s="69"/>
-      <c r="I139" s="69"/>
-      <c r="J139" s="69"/>
-      <c r="K139" s="69"/>
-      <c r="L139" s="69"/>
-      <c r="M139" s="69"/>
-      <c r="N139" s="69"/>
-      <c r="O139" s="69"/>
-      <c r="P139" s="69"/>
-      <c r="Q139" s="69"/>
-      <c r="R139" s="69"/>
+      <c r="D139" s="86"/>
+      <c r="E139" s="86"/>
+      <c r="F139" s="86"/>
+      <c r="G139" s="86"/>
+      <c r="H139" s="86"/>
+      <c r="I139" s="86"/>
+      <c r="J139" s="86"/>
+      <c r="K139" s="86"/>
+      <c r="L139" s="86"/>
+      <c r="M139" s="86"/>
+      <c r="N139" s="86"/>
+      <c r="O139" s="86"/>
+      <c r="P139" s="86"/>
+      <c r="Q139" s="86"/>
+      <c r="R139" s="86"/>
       <c r="S139" s="51"/>
       <c r="T139" s="51"/>
       <c r="U139" s="54"/>
@@ -5946,19 +5968,19 @@
         <f>C132+1</f>
         <v>14</v>
       </c>
-      <c r="D142" s="85" t="s">
+      <c r="D142" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="E142" s="85"/>
-      <c r="F142" s="85"/>
+      <c r="E142" s="81"/>
+      <c r="F142" s="81"/>
       <c r="G142" s="15"/>
-      <c r="H142" s="85" t="s">
+      <c r="H142" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="I142" s="85"/>
-      <c r="J142" s="85"/>
-      <c r="K142" s="85"/>
-      <c r="L142" s="85"/>
+      <c r="I142" s="81"/>
+      <c r="J142" s="81"/>
+      <c r="K142" s="81"/>
+      <c r="L142" s="81"/>
       <c r="M142" s="19"/>
       <c r="N142" s="19"/>
       <c r="O142" s="19"/>
@@ -5977,11 +5999,11 @@
         <f>B133+7</f>
         <v>43815</v>
       </c>
-      <c r="C143" s="70" t="s">
+      <c r="C143" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="D143" s="70"/>
-      <c r="E143" s="70"/>
+      <c r="D143" s="76"/>
+      <c r="E143" s="76"/>
       <c r="F143" s="20"/>
       <c r="G143" s="20"/>
       <c r="H143" s="20"/>
@@ -6352,24 +6374,24 @@
         <f t="shared" si="13"/>
         <v>43824</v>
       </c>
-      <c r="C155" s="111" t="s">
+      <c r="C155" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="D155" s="111"/>
-      <c r="E155" s="111"/>
-      <c r="F155" s="111"/>
-      <c r="G155" s="111"/>
-      <c r="H155" s="111"/>
-      <c r="I155" s="111"/>
-      <c r="J155" s="111"/>
-      <c r="K155" s="111"/>
-      <c r="L155" s="111"/>
-      <c r="M155" s="111"/>
-      <c r="N155" s="111"/>
-      <c r="O155" s="111"/>
-      <c r="P155" s="111"/>
-      <c r="Q155" s="111"/>
-      <c r="R155" s="111"/>
+      <c r="D155" s="85"/>
+      <c r="E155" s="85"/>
+      <c r="F155" s="85"/>
+      <c r="G155" s="85"/>
+      <c r="H155" s="85"/>
+      <c r="I155" s="85"/>
+      <c r="J155" s="85"/>
+      <c r="K155" s="85"/>
+      <c r="L155" s="85"/>
+      <c r="M155" s="85"/>
+      <c r="N155" s="85"/>
+      <c r="O155" s="85"/>
+      <c r="P155" s="85"/>
+      <c r="Q155" s="85"/>
+      <c r="R155" s="85"/>
       <c r="S155" s="51"/>
       <c r="T155" s="52" t="s">
         <v>20</v>
@@ -6384,22 +6406,22 @@
         <f t="shared" si="13"/>
         <v>43825</v>
       </c>
-      <c r="C156" s="111"/>
-      <c r="D156" s="111"/>
-      <c r="E156" s="111"/>
-      <c r="F156" s="111"/>
-      <c r="G156" s="111"/>
-      <c r="H156" s="111"/>
-      <c r="I156" s="111"/>
-      <c r="J156" s="111"/>
-      <c r="K156" s="111"/>
-      <c r="L156" s="111"/>
-      <c r="M156" s="111"/>
-      <c r="N156" s="111"/>
-      <c r="O156" s="111"/>
-      <c r="P156" s="111"/>
-      <c r="Q156" s="111"/>
-      <c r="R156" s="111"/>
+      <c r="C156" s="85"/>
+      <c r="D156" s="85"/>
+      <c r="E156" s="85"/>
+      <c r="F156" s="85"/>
+      <c r="G156" s="85"/>
+      <c r="H156" s="85"/>
+      <c r="I156" s="85"/>
+      <c r="J156" s="85"/>
+      <c r="K156" s="85"/>
+      <c r="L156" s="85"/>
+      <c r="M156" s="85"/>
+      <c r="N156" s="85"/>
+      <c r="O156" s="85"/>
+      <c r="P156" s="85"/>
+      <c r="Q156" s="85"/>
+      <c r="R156" s="85"/>
       <c r="S156" s="51"/>
       <c r="T156" s="18" t="s">
         <v>21</v>
@@ -6414,22 +6436,22 @@
         <f t="shared" si="13"/>
         <v>43826</v>
       </c>
-      <c r="C157" s="111"/>
-      <c r="D157" s="111"/>
-      <c r="E157" s="111"/>
-      <c r="F157" s="111"/>
-      <c r="G157" s="111"/>
-      <c r="H157" s="111"/>
-      <c r="I157" s="111"/>
-      <c r="J157" s="111"/>
-      <c r="K157" s="111"/>
-      <c r="L157" s="111"/>
-      <c r="M157" s="111"/>
-      <c r="N157" s="111"/>
-      <c r="O157" s="111"/>
-      <c r="P157" s="111"/>
-      <c r="Q157" s="111"/>
-      <c r="R157" s="111"/>
+      <c r="C157" s="85"/>
+      <c r="D157" s="85"/>
+      <c r="E157" s="85"/>
+      <c r="F157" s="85"/>
+      <c r="G157" s="85"/>
+      <c r="H157" s="85"/>
+      <c r="I157" s="85"/>
+      <c r="J157" s="85"/>
+      <c r="K157" s="85"/>
+      <c r="L157" s="85"/>
+      <c r="M157" s="85"/>
+      <c r="N157" s="85"/>
+      <c r="O157" s="85"/>
+      <c r="P157" s="85"/>
+      <c r="Q157" s="85"/>
+      <c r="R157" s="85"/>
       <c r="S157" s="51"/>
       <c r="T157" s="51"/>
       <c r="U157" s="54"/>
@@ -6442,22 +6464,22 @@
         <f t="shared" si="13"/>
         <v>43827</v>
       </c>
-      <c r="C158" s="111"/>
-      <c r="D158" s="111"/>
-      <c r="E158" s="111"/>
-      <c r="F158" s="111"/>
-      <c r="G158" s="111"/>
-      <c r="H158" s="111"/>
-      <c r="I158" s="111"/>
-      <c r="J158" s="111"/>
-      <c r="K158" s="111"/>
-      <c r="L158" s="111"/>
-      <c r="M158" s="111"/>
-      <c r="N158" s="111"/>
-      <c r="O158" s="111"/>
-      <c r="P158" s="111"/>
-      <c r="Q158" s="111"/>
-      <c r="R158" s="111"/>
+      <c r="C158" s="85"/>
+      <c r="D158" s="85"/>
+      <c r="E158" s="85"/>
+      <c r="F158" s="85"/>
+      <c r="G158" s="85"/>
+      <c r="H158" s="85"/>
+      <c r="I158" s="85"/>
+      <c r="J158" s="85"/>
+      <c r="K158" s="85"/>
+      <c r="L158" s="85"/>
+      <c r="M158" s="85"/>
+      <c r="N158" s="85"/>
+      <c r="O158" s="85"/>
+      <c r="P158" s="85"/>
+      <c r="Q158" s="85"/>
+      <c r="R158" s="85"/>
       <c r="S158" s="51"/>
       <c r="T158" s="51"/>
       <c r="U158" s="54"/>
@@ -6470,22 +6492,22 @@
         <f t="shared" si="13"/>
         <v>43828</v>
       </c>
-      <c r="C159" s="111"/>
-      <c r="D159" s="111"/>
-      <c r="E159" s="111"/>
-      <c r="F159" s="111"/>
-      <c r="G159" s="111"/>
-      <c r="H159" s="111"/>
-      <c r="I159" s="111"/>
-      <c r="J159" s="111"/>
-      <c r="K159" s="111"/>
-      <c r="L159" s="111"/>
-      <c r="M159" s="111"/>
-      <c r="N159" s="111"/>
-      <c r="O159" s="111"/>
-      <c r="P159" s="111"/>
-      <c r="Q159" s="111"/>
-      <c r="R159" s="111"/>
+      <c r="C159" s="85"/>
+      <c r="D159" s="85"/>
+      <c r="E159" s="85"/>
+      <c r="F159" s="85"/>
+      <c r="G159" s="85"/>
+      <c r="H159" s="85"/>
+      <c r="I159" s="85"/>
+      <c r="J159" s="85"/>
+      <c r="K159" s="85"/>
+      <c r="L159" s="85"/>
+      <c r="M159" s="85"/>
+      <c r="N159" s="85"/>
+      <c r="O159" s="85"/>
+      <c r="P159" s="85"/>
+      <c r="Q159" s="85"/>
+      <c r="R159" s="85"/>
       <c r="S159" s="51"/>
       <c r="T159" s="51"/>
       <c r="U159" s="54"/>
@@ -6607,24 +6629,24 @@
         <f>B153+7</f>
         <v>43829</v>
       </c>
-      <c r="C163" s="111" t="s">
+      <c r="C163" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D163" s="111"/>
-      <c r="E163" s="111"/>
-      <c r="F163" s="111"/>
-      <c r="G163" s="111"/>
-      <c r="H163" s="111"/>
-      <c r="I163" s="111"/>
-      <c r="J163" s="111"/>
-      <c r="K163" s="111"/>
-      <c r="L163" s="111"/>
-      <c r="M163" s="111"/>
-      <c r="N163" s="111"/>
-      <c r="O163" s="111"/>
-      <c r="P163" s="111"/>
-      <c r="Q163" s="111"/>
-      <c r="R163" s="111"/>
+      <c r="D163" s="85"/>
+      <c r="E163" s="85"/>
+      <c r="F163" s="85"/>
+      <c r="G163" s="85"/>
+      <c r="H163" s="85"/>
+      <c r="I163" s="85"/>
+      <c r="J163" s="85"/>
+      <c r="K163" s="85"/>
+      <c r="L163" s="85"/>
+      <c r="M163" s="85"/>
+      <c r="N163" s="85"/>
+      <c r="O163" s="85"/>
+      <c r="P163" s="85"/>
+      <c r="Q163" s="85"/>
+      <c r="R163" s="85"/>
       <c r="S163" s="51"/>
       <c r="T163" s="30" t="s">
         <v>22</v>
@@ -6639,22 +6661,22 @@
         <f t="shared" ref="B164:B169" si="14">B154+7</f>
         <v>43830</v>
       </c>
-      <c r="C164" s="111"/>
-      <c r="D164" s="111"/>
-      <c r="E164" s="111"/>
-      <c r="F164" s="111"/>
-      <c r="G164" s="111"/>
-      <c r="H164" s="111"/>
-      <c r="I164" s="111"/>
-      <c r="J164" s="111"/>
-      <c r="K164" s="111"/>
-      <c r="L164" s="111"/>
-      <c r="M164" s="111"/>
-      <c r="N164" s="111"/>
-      <c r="O164" s="111"/>
-      <c r="P164" s="111"/>
-      <c r="Q164" s="111"/>
-      <c r="R164" s="111"/>
+      <c r="C164" s="85"/>
+      <c r="D164" s="85"/>
+      <c r="E164" s="85"/>
+      <c r="F164" s="85"/>
+      <c r="G164" s="85"/>
+      <c r="H164" s="85"/>
+      <c r="I164" s="85"/>
+      <c r="J164" s="85"/>
+      <c r="K164" s="85"/>
+      <c r="L164" s="85"/>
+      <c r="M164" s="85"/>
+      <c r="N164" s="85"/>
+      <c r="O164" s="85"/>
+      <c r="P164" s="85"/>
+      <c r="Q164" s="85"/>
+      <c r="R164" s="85"/>
       <c r="S164" s="51"/>
       <c r="T164" s="53" t="s">
         <v>19</v>
@@ -6669,22 +6691,22 @@
         <f t="shared" si="14"/>
         <v>43831</v>
       </c>
-      <c r="C165" s="111"/>
-      <c r="D165" s="111"/>
-      <c r="E165" s="111"/>
-      <c r="F165" s="111"/>
-      <c r="G165" s="111"/>
-      <c r="H165" s="111"/>
-      <c r="I165" s="111"/>
-      <c r="J165" s="111"/>
-      <c r="K165" s="111"/>
-      <c r="L165" s="111"/>
-      <c r="M165" s="111"/>
-      <c r="N165" s="111"/>
-      <c r="O165" s="111"/>
-      <c r="P165" s="111"/>
-      <c r="Q165" s="111"/>
-      <c r="R165" s="111"/>
+      <c r="C165" s="85"/>
+      <c r="D165" s="85"/>
+      <c r="E165" s="85"/>
+      <c r="F165" s="85"/>
+      <c r="G165" s="85"/>
+      <c r="H165" s="85"/>
+      <c r="I165" s="85"/>
+      <c r="J165" s="85"/>
+      <c r="K165" s="85"/>
+      <c r="L165" s="85"/>
+      <c r="M165" s="85"/>
+      <c r="N165" s="85"/>
+      <c r="O165" s="85"/>
+      <c r="P165" s="85"/>
+      <c r="Q165" s="85"/>
+      <c r="R165" s="85"/>
       <c r="S165" s="51"/>
       <c r="T165" s="52" t="s">
         <v>20</v>
@@ -6701,23 +6723,23 @@
       </c>
       <c r="C166" s="32"/>
       <c r="D166" s="20"/>
-      <c r="E166" s="70" t="s">
+      <c r="E166" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="F166" s="70"/>
-      <c r="G166" s="70"/>
-      <c r="H166" s="70"/>
-      <c r="I166" s="70"/>
-      <c r="J166" s="70"/>
+      <c r="F166" s="76"/>
+      <c r="G166" s="76"/>
+      <c r="H166" s="76"/>
+      <c r="I166" s="76"/>
+      <c r="J166" s="76"/>
       <c r="K166" s="49"/>
-      <c r="L166" s="74" t="s">
+      <c r="L166" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M166" s="75"/>
-      <c r="N166" s="75"/>
-      <c r="O166" s="75"/>
-      <c r="P166" s="75"/>
-      <c r="Q166" s="76"/>
+      <c r="M166" s="77"/>
+      <c r="N166" s="77"/>
+      <c r="O166" s="77"/>
+      <c r="P166" s="77"/>
+      <c r="Q166" s="70"/>
       <c r="R166" s="20"/>
       <c r="S166" s="51"/>
       <c r="T166" s="18" t="s">
@@ -6735,23 +6757,23 @@
       </c>
       <c r="C167" s="50"/>
       <c r="D167" s="49"/>
-      <c r="E167" s="70" t="s">
+      <c r="E167" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="F167" s="70"/>
-      <c r="G167" s="70"/>
-      <c r="H167" s="70"/>
-      <c r="I167" s="70"/>
-      <c r="J167" s="70"/>
+      <c r="F167" s="76"/>
+      <c r="G167" s="76"/>
+      <c r="H167" s="76"/>
+      <c r="I167" s="76"/>
+      <c r="J167" s="76"/>
       <c r="K167" s="49"/>
-      <c r="L167" s="74" t="s">
+      <c r="L167" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M167" s="75"/>
-      <c r="N167" s="75"/>
-      <c r="O167" s="75"/>
-      <c r="P167" s="75"/>
-      <c r="Q167" s="76"/>
+      <c r="M167" s="77"/>
+      <c r="N167" s="77"/>
+      <c r="O167" s="77"/>
+      <c r="P167" s="77"/>
+      <c r="Q167" s="70"/>
       <c r="R167" s="49"/>
       <c r="S167" s="51"/>
       <c r="T167" s="51"/>
@@ -6912,23 +6934,23 @@
       </c>
       <c r="C173" s="32"/>
       <c r="D173" s="20"/>
-      <c r="E173" s="70" t="s">
+      <c r="E173" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="F173" s="70"/>
-      <c r="G173" s="70"/>
-      <c r="H173" s="70"/>
-      <c r="I173" s="70"/>
-      <c r="J173" s="70"/>
+      <c r="F173" s="76"/>
+      <c r="G173" s="76"/>
+      <c r="H173" s="76"/>
+      <c r="I173" s="76"/>
+      <c r="J173" s="76"/>
       <c r="K173" s="49"/>
-      <c r="L173" s="74" t="s">
+      <c r="L173" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M173" s="75"/>
-      <c r="N173" s="75"/>
-      <c r="O173" s="75"/>
-      <c r="P173" s="75"/>
-      <c r="Q173" s="76"/>
+      <c r="M173" s="77"/>
+      <c r="N173" s="77"/>
+      <c r="O173" s="77"/>
+      <c r="P173" s="77"/>
+      <c r="Q173" s="70"/>
       <c r="R173" s="49"/>
       <c r="S173" s="51"/>
       <c r="T173" s="30" t="s">
@@ -6946,23 +6968,23 @@
       </c>
       <c r="C174" s="32"/>
       <c r="D174" s="20"/>
-      <c r="E174" s="70" t="s">
+      <c r="E174" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="F174" s="70"/>
-      <c r="G174" s="70"/>
-      <c r="H174" s="70"/>
-      <c r="I174" s="70"/>
-      <c r="J174" s="70"/>
+      <c r="F174" s="76"/>
+      <c r="G174" s="76"/>
+      <c r="H174" s="76"/>
+      <c r="I174" s="76"/>
+      <c r="J174" s="76"/>
       <c r="K174" s="49"/>
-      <c r="L174" s="74" t="s">
+      <c r="L174" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M174" s="75"/>
-      <c r="N174" s="75"/>
-      <c r="O174" s="75"/>
-      <c r="P174" s="75"/>
-      <c r="Q174" s="76"/>
+      <c r="M174" s="77"/>
+      <c r="N174" s="77"/>
+      <c r="O174" s="77"/>
+      <c r="P174" s="77"/>
+      <c r="Q174" s="70"/>
       <c r="R174" s="20"/>
       <c r="S174" s="51"/>
       <c r="T174" s="53" t="s">
@@ -6980,23 +7002,23 @@
       </c>
       <c r="C175" s="32"/>
       <c r="D175" s="20"/>
-      <c r="E175" s="70" t="s">
+      <c r="E175" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="F175" s="70"/>
-      <c r="G175" s="70"/>
-      <c r="H175" s="70"/>
-      <c r="I175" s="70"/>
-      <c r="J175" s="70"/>
+      <c r="F175" s="76"/>
+      <c r="G175" s="76"/>
+      <c r="H175" s="76"/>
+      <c r="I175" s="76"/>
+      <c r="J175" s="76"/>
       <c r="K175" s="20"/>
-      <c r="L175" s="74" t="s">
+      <c r="L175" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M175" s="75"/>
-      <c r="N175" s="75"/>
-      <c r="O175" s="75"/>
-      <c r="P175" s="75"/>
-      <c r="Q175" s="76"/>
+      <c r="M175" s="77"/>
+      <c r="N175" s="77"/>
+      <c r="O175" s="77"/>
+      <c r="P175" s="77"/>
+      <c r="Q175" s="70"/>
       <c r="R175" s="49"/>
       <c r="S175" s="51"/>
       <c r="T175" s="52" t="s">
@@ -7014,23 +7036,23 @@
       </c>
       <c r="C176" s="49"/>
       <c r="D176" s="49"/>
-      <c r="E176" s="70" t="s">
+      <c r="E176" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="F176" s="70"/>
-      <c r="G176" s="70"/>
-      <c r="H176" s="70"/>
-      <c r="I176" s="70"/>
-      <c r="J176" s="70"/>
+      <c r="F176" s="76"/>
+      <c r="G176" s="76"/>
+      <c r="H176" s="76"/>
+      <c r="I176" s="76"/>
+      <c r="J176" s="76"/>
       <c r="K176" s="20"/>
-      <c r="L176" s="74" t="s">
+      <c r="L176" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M176" s="75"/>
-      <c r="N176" s="75"/>
-      <c r="O176" s="75"/>
-      <c r="P176" s="75"/>
-      <c r="Q176" s="76"/>
+      <c r="M176" s="77"/>
+      <c r="N176" s="77"/>
+      <c r="O176" s="77"/>
+      <c r="P176" s="77"/>
+      <c r="Q176" s="70"/>
       <c r="R176" s="20"/>
       <c r="S176" s="51"/>
       <c r="T176" s="18" t="s">
@@ -7048,23 +7070,23 @@
       </c>
       <c r="C177" s="32"/>
       <c r="D177" s="20"/>
-      <c r="E177" s="70" t="s">
+      <c r="E177" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="F177" s="70"/>
-      <c r="G177" s="70"/>
-      <c r="H177" s="70"/>
-      <c r="I177" s="70"/>
-      <c r="J177" s="70"/>
+      <c r="F177" s="76"/>
+      <c r="G177" s="76"/>
+      <c r="H177" s="76"/>
+      <c r="I177" s="76"/>
+      <c r="J177" s="76"/>
       <c r="K177" s="20"/>
-      <c r="L177" s="74" t="s">
+      <c r="L177" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M177" s="75"/>
-      <c r="N177" s="75"/>
-      <c r="O177" s="75"/>
-      <c r="P177" s="75"/>
-      <c r="Q177" s="76"/>
+      <c r="M177" s="77"/>
+      <c r="N177" s="77"/>
+      <c r="O177" s="77"/>
+      <c r="P177" s="77"/>
+      <c r="Q177" s="70"/>
       <c r="R177" s="20"/>
       <c r="S177" s="51"/>
       <c r="T177" s="51"/>
@@ -7223,23 +7245,23 @@
       </c>
       <c r="C183" s="32"/>
       <c r="D183" s="20"/>
-      <c r="E183" s="70" t="s">
+      <c r="E183" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="F183" s="70"/>
-      <c r="G183" s="70"/>
-      <c r="H183" s="70"/>
-      <c r="I183" s="70"/>
-      <c r="J183" s="70"/>
+      <c r="F183" s="76"/>
+      <c r="G183" s="76"/>
+      <c r="H183" s="76"/>
+      <c r="I183" s="76"/>
+      <c r="J183" s="76"/>
       <c r="K183" s="49"/>
-      <c r="L183" s="74" t="s">
+      <c r="L183" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M183" s="75"/>
-      <c r="N183" s="75"/>
-      <c r="O183" s="75"/>
-      <c r="P183" s="75"/>
-      <c r="Q183" s="76"/>
+      <c r="M183" s="77"/>
+      <c r="N183" s="77"/>
+      <c r="O183" s="77"/>
+      <c r="P183" s="77"/>
+      <c r="Q183" s="70"/>
       <c r="R183" s="49"/>
       <c r="S183" s="51"/>
       <c r="T183" s="30" t="s">
@@ -7256,23 +7278,23 @@
       </c>
       <c r="C184" s="32"/>
       <c r="D184" s="20"/>
-      <c r="E184" s="70" t="s">
+      <c r="E184" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="F184" s="70"/>
-      <c r="G184" s="70"/>
-      <c r="H184" s="70"/>
-      <c r="I184" s="70"/>
-      <c r="J184" s="70"/>
+      <c r="F184" s="76"/>
+      <c r="G184" s="76"/>
+      <c r="H184" s="76"/>
+      <c r="I184" s="76"/>
+      <c r="J184" s="76"/>
       <c r="K184" s="49"/>
-      <c r="L184" s="74" t="s">
+      <c r="L184" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M184" s="75"/>
-      <c r="N184" s="75"/>
-      <c r="O184" s="75"/>
-      <c r="P184" s="75"/>
-      <c r="Q184" s="76"/>
+      <c r="M184" s="77"/>
+      <c r="N184" s="77"/>
+      <c r="O184" s="77"/>
+      <c r="P184" s="77"/>
+      <c r="Q184" s="70"/>
       <c r="R184" s="20"/>
       <c r="S184" s="51"/>
       <c r="T184" s="53" t="s">
@@ -7289,23 +7311,23 @@
       </c>
       <c r="C185" s="32"/>
       <c r="D185" s="20"/>
-      <c r="E185" s="70" t="s">
+      <c r="E185" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="F185" s="70"/>
-      <c r="G185" s="70"/>
-      <c r="H185" s="70"/>
-      <c r="I185" s="70"/>
-      <c r="J185" s="70"/>
+      <c r="F185" s="76"/>
+      <c r="G185" s="76"/>
+      <c r="H185" s="76"/>
+      <c r="I185" s="76"/>
+      <c r="J185" s="76"/>
       <c r="K185" s="20"/>
-      <c r="L185" s="74" t="s">
+      <c r="L185" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M185" s="75"/>
-      <c r="N185" s="75"/>
-      <c r="O185" s="75"/>
-      <c r="P185" s="75"/>
-      <c r="Q185" s="76"/>
+      <c r="M185" s="77"/>
+      <c r="N185" s="77"/>
+      <c r="O185" s="77"/>
+      <c r="P185" s="77"/>
+      <c r="Q185" s="70"/>
       <c r="R185" s="49"/>
       <c r="S185" s="51"/>
       <c r="T185" s="52" t="s">
@@ -7322,23 +7344,23 @@
       </c>
       <c r="C186" s="49"/>
       <c r="D186" s="49"/>
-      <c r="E186" s="70" t="s">
+      <c r="E186" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="F186" s="70"/>
-      <c r="G186" s="70"/>
-      <c r="H186" s="70"/>
-      <c r="I186" s="70"/>
-      <c r="J186" s="70"/>
+      <c r="F186" s="76"/>
+      <c r="G186" s="76"/>
+      <c r="H186" s="76"/>
+      <c r="I186" s="76"/>
+      <c r="J186" s="76"/>
       <c r="K186" s="20"/>
-      <c r="L186" s="74" t="s">
+      <c r="L186" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M186" s="75"/>
-      <c r="N186" s="75"/>
-      <c r="O186" s="75"/>
-      <c r="P186" s="75"/>
-      <c r="Q186" s="76"/>
+      <c r="M186" s="77"/>
+      <c r="N186" s="77"/>
+      <c r="O186" s="77"/>
+      <c r="P186" s="77"/>
+      <c r="Q186" s="70"/>
       <c r="R186" s="20"/>
       <c r="S186" s="51"/>
       <c r="T186" s="18" t="s">
@@ -7355,23 +7377,23 @@
       </c>
       <c r="C187" s="32"/>
       <c r="D187" s="20"/>
-      <c r="E187" s="70" t="s">
+      <c r="E187" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="F187" s="70"/>
-      <c r="G187" s="70"/>
-      <c r="H187" s="70"/>
-      <c r="I187" s="70"/>
-      <c r="J187" s="70"/>
+      <c r="F187" s="76"/>
+      <c r="G187" s="76"/>
+      <c r="H187" s="76"/>
+      <c r="I187" s="76"/>
+      <c r="J187" s="76"/>
       <c r="K187" s="20"/>
-      <c r="L187" s="74" t="s">
+      <c r="L187" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M187" s="75"/>
-      <c r="N187" s="75"/>
-      <c r="O187" s="75"/>
-      <c r="P187" s="75"/>
-      <c r="Q187" s="76"/>
+      <c r="M187" s="77"/>
+      <c r="N187" s="77"/>
+      <c r="O187" s="77"/>
+      <c r="P187" s="77"/>
+      <c r="Q187" s="70"/>
       <c r="R187" s="20"/>
       <c r="S187" s="51"/>
       <c r="T187" s="51"/>
@@ -15801,7 +15823,128 @@
       <c r="T507"/>
     </row>
   </sheetData>
-  <mergeCells count="140">
+  <mergeCells count="145">
+    <mergeCell ref="J84:R84"/>
+    <mergeCell ref="E85:M85"/>
+    <mergeCell ref="H93:P93"/>
+    <mergeCell ref="H94:P94"/>
+    <mergeCell ref="H96:L96"/>
+    <mergeCell ref="C119:R119"/>
+    <mergeCell ref="C129:R129"/>
+    <mergeCell ref="C139:R139"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="E115:J115"/>
+    <mergeCell ref="L115:Q115"/>
+    <mergeCell ref="L67:R67"/>
+    <mergeCell ref="L68:R68"/>
+    <mergeCell ref="M72:R72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="C69:R69"/>
+    <mergeCell ref="C79:R79"/>
+    <mergeCell ref="C89:R89"/>
+    <mergeCell ref="C99:R99"/>
+    <mergeCell ref="C109:R109"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H46:P46"/>
+    <mergeCell ref="H44:N44"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="L75:Q75"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C76:R76"/>
+    <mergeCell ref="E78:J78"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="H13:R13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="H45:P45"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H43:P43"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="H33:P33"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H23:R23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="E77:J77"/>
+    <mergeCell ref="H116:J116"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H83:P83"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="E73:J73"/>
+    <mergeCell ref="L73:Q73"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="H54:P54"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="L74:Q74"/>
+    <mergeCell ref="L77:Q77"/>
+    <mergeCell ref="L78:Q78"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="J58:P58"/>
+    <mergeCell ref="E74:J74"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="H66:Q66"/>
+    <mergeCell ref="E175:J175"/>
+    <mergeCell ref="L175:Q175"/>
+    <mergeCell ref="L167:Q167"/>
+    <mergeCell ref="C155:R159"/>
+    <mergeCell ref="C163:R165"/>
+    <mergeCell ref="E166:J166"/>
+    <mergeCell ref="L166:Q166"/>
+    <mergeCell ref="E167:J167"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="L173:Q173"/>
+    <mergeCell ref="E174:J174"/>
+    <mergeCell ref="L174:Q174"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H142:L142"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="I63:L63"/>
     <mergeCell ref="H64:N64"/>
@@ -15826,122 +15969,6 @@
     <mergeCell ref="E183:J183"/>
     <mergeCell ref="L183:Q183"/>
     <mergeCell ref="E173:J173"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="H66:Q66"/>
-    <mergeCell ref="E175:J175"/>
-    <mergeCell ref="L175:Q175"/>
-    <mergeCell ref="L167:Q167"/>
-    <mergeCell ref="C155:R159"/>
-    <mergeCell ref="C163:R165"/>
-    <mergeCell ref="E166:J166"/>
-    <mergeCell ref="L166:Q166"/>
-    <mergeCell ref="E167:J167"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="C136:G136"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="C124:G124"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="L173:Q173"/>
-    <mergeCell ref="E174:J174"/>
-    <mergeCell ref="L174:Q174"/>
-    <mergeCell ref="C126:G126"/>
-    <mergeCell ref="H142:L142"/>
-    <mergeCell ref="C133:G133"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="E75:J75"/>
-    <mergeCell ref="E77:J77"/>
-    <mergeCell ref="H116:J116"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H83:P83"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="E73:J73"/>
-    <mergeCell ref="L73:Q73"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="H54:P54"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="L74:Q74"/>
-    <mergeCell ref="L77:Q77"/>
-    <mergeCell ref="L78:Q78"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="J58:P58"/>
-    <mergeCell ref="E74:J74"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="E78:J78"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="H13:R13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="H45:P45"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H43:P43"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="H33:P33"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H23:R23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H46:P46"/>
-    <mergeCell ref="H44:N44"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="L75:Q75"/>
-    <mergeCell ref="I53:M53"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C76:R76"/>
-    <mergeCell ref="C119:R119"/>
-    <mergeCell ref="C129:R129"/>
-    <mergeCell ref="C139:R139"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="K116:Q116"/>
-    <mergeCell ref="E115:J115"/>
-    <mergeCell ref="L115:Q115"/>
-    <mergeCell ref="L67:R67"/>
-    <mergeCell ref="L68:R68"/>
-    <mergeCell ref="M72:R72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="C69:R69"/>
-    <mergeCell ref="C79:R79"/>
-    <mergeCell ref="C89:R89"/>
-    <mergeCell ref="C99:R99"/>
-    <mergeCell ref="C109:R109"/>
-    <mergeCell ref="C134:G134"/>
-    <mergeCell ref="C103:G103"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C93:G93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -15969,10 +15996,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="113"/>
+      <c r="B2" s="116"/>
       <c r="C2" s="41" t="s">
         <v>18</v>
       </c>
@@ -15991,10 +16018,10 @@
       <c r="I2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="114" t="s">
+      <c r="J2" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="114"/>
+      <c r="K2" s="117"/>
     </row>
     <row r="3" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
@@ -16009,10 +16036,10 @@
       <c r="I3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="115" t="s">
+      <c r="J3" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="115"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -16034,10 +16061,10 @@
       <c r="I4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="115" t="s">
+      <c r="J4" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="115"/>
+      <c r="K4" s="118"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -16312,10 +16339,10 @@
       <c r="H22" s="51"/>
     </row>
     <row r="23" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="113" t="s">
+      <c r="A23" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="113"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="41" t="s">
         <v>18</v>
       </c>
@@ -16520,7 +16547,7 @@
         <v>43929</v>
       </c>
       <c r="D36" s="29"/>
-      <c r="F36" s="111" t="s">
+      <c r="F36" s="85" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16538,7 +16565,7 @@
         <v>43936</v>
       </c>
       <c r="D37" s="44"/>
-      <c r="F37" s="111"/>
+      <c r="F37" s="85"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
@@ -16554,7 +16581,7 @@
         <v>43943</v>
       </c>
       <c r="D38" s="29"/>
-      <c r="F38" s="111"/>
+      <c r="F38" s="85"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="23">

--- a/Weekly Planner.xlsx
+++ b/Weekly Planner.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20351"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SoftwareProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D990BC-FA64-444A-A232-5EDDABBA4A77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DB77DF-A779-43F0-9365-1D17C7B3A277}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="88">
   <si>
     <t>Monday</t>
   </si>
@@ -302,6 +302,9 @@
   <si>
     <t>Software Project - Requirements Specifications</t>
   </si>
+  <si>
+    <t>DAD - Project</t>
+  </si>
 </sst>
 </file>
 
@@ -465,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -840,6 +843,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -854,7 +899,7 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1032,10 +1077,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="16" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1044,19 +1095,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="9" applyBorder="1" applyAlignment="1">
@@ -1065,70 +1110,64 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="29" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="16" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="5" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="6" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="30" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="24" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="31" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1140,37 +1179,43 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="6" fillId="11" borderId="4" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="5" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="29" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="9" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="8" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1182,13 +1227,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="35" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1491,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q95" sqref="Q95"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107:M107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,26 +1938,26 @@
       <c r="B13" s="57">
         <v>43724</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="90" t="s">
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="91"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="98"/>
       <c r="S13" s="51"/>
       <c r="T13" s="30" t="s">
         <v>22</v>
@@ -1907,26 +1970,26 @@
       <c r="B14" s="57">
         <v>43725</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="99" t="s">
+      <c r="J14" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="90" t="s">
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="91"/>
+      <c r="P14" s="98"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="51"/>
@@ -1969,20 +2032,20 @@
       <c r="B16" s="57">
         <v>43727</v>
       </c>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="108" t="s">
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
@@ -2187,26 +2250,26 @@
         <f>B13+7</f>
         <v>43731</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="90" t="s">
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="98"/>
-      <c r="Q23" s="98"/>
-      <c r="R23" s="91"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="98"/>
       <c r="S23" s="51"/>
       <c r="T23" s="30" t="s">
         <v>22</v>
@@ -2220,30 +2283,30 @@
         <f t="shared" ref="B24:B29" si="0">B14+7</f>
         <v>43732</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="90" t="s">
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="109"/>
-      <c r="J24" s="71" t="s">
+      <c r="I24" s="90"/>
+      <c r="J24" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="K24" s="72"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="71" t="s">
+      <c r="K24" s="74"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="N24" s="95"/>
-      <c r="O24" s="99" t="s">
+      <c r="N24" s="75"/>
+      <c r="O24" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="P24" s="101"/>
+      <c r="P24" s="88"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
       <c r="S24" s="51"/>
@@ -2288,20 +2351,20 @@
         <f t="shared" si="0"/>
         <v>43734</v>
       </c>
-      <c r="C26" s="86" t="s">
+      <c r="C26" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="105" t="s">
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="105"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="105"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
@@ -2483,12 +2546,12 @@
         <f>C22+1</f>
         <v>3</v>
       </c>
-      <c r="D32" s="107" t="s">
+      <c r="D32" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
@@ -2511,24 +2574,24 @@
         <f>B23+7</f>
         <v>43738</v>
       </c>
-      <c r="C33" s="86" t="s">
+      <c r="C33" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="105" t="s">
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="105"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="105"/>
-      <c r="N33" s="105"/>
-      <c r="O33" s="105"/>
-      <c r="P33" s="105"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="96"/>
       <c r="Q33" s="62"/>
       <c r="R33" s="62"/>
       <c r="S33" s="51"/>
@@ -2544,13 +2607,13 @@
         <f t="shared" ref="B34:B39" si="1">B24+7</f>
         <v>43739</v>
       </c>
-      <c r="C34" s="86" t="s">
+      <c r="C34" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
       <c r="H34" s="62"/>
       <c r="I34" s="62"/>
       <c r="J34" s="62"/>
@@ -2604,13 +2667,13 @@
         <f t="shared" si="1"/>
         <v>43741</v>
       </c>
-      <c r="C36" s="86" t="s">
+      <c r="C36" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="63"/>
@@ -2823,24 +2886,24 @@
         <f>B33+7</f>
         <v>43745</v>
       </c>
-      <c r="C43" s="86" t="s">
+      <c r="C43" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="106" t="s">
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="106"/>
-      <c r="J43" s="106"/>
-      <c r="K43" s="106"/>
-      <c r="L43" s="106"/>
-      <c r="M43" s="106"/>
-      <c r="N43" s="106"/>
-      <c r="O43" s="106"/>
-      <c r="P43" s="106"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="72"/>
+      <c r="O43" s="72"/>
+      <c r="P43" s="72"/>
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
       <c r="S43" s="51"/>
@@ -2856,22 +2919,22 @@
         <f t="shared" ref="B44:B49" si="2">B34+7</f>
         <v>43746</v>
       </c>
-      <c r="C44" s="86" t="s">
+      <c r="C44" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="110" t="s">
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
-      <c r="L44" s="97"/>
-      <c r="M44" s="97"/>
-      <c r="N44" s="97"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="92"/>
+      <c r="K44" s="92"/>
+      <c r="L44" s="92"/>
+      <c r="M44" s="92"/>
+      <c r="N44" s="92"/>
       <c r="O44" s="49"/>
       <c r="P44" s="49"/>
       <c r="Q44" s="49"/>
@@ -2894,17 +2957,17 @@
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
-      <c r="H45" s="102" t="s">
+      <c r="H45" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="103"/>
-      <c r="L45" s="103"/>
-      <c r="M45" s="103"/>
-      <c r="N45" s="103"/>
-      <c r="O45" s="103"/>
-      <c r="P45" s="104"/>
+      <c r="I45" s="101"/>
+      <c r="J45" s="101"/>
+      <c r="K45" s="101"/>
+      <c r="L45" s="101"/>
+      <c r="M45" s="101"/>
+      <c r="N45" s="101"/>
+      <c r="O45" s="101"/>
+      <c r="P45" s="102"/>
       <c r="Q45" s="49"/>
       <c r="R45" s="49"/>
       <c r="S45" s="51"/>
@@ -2920,24 +2983,24 @@
         <f t="shared" si="2"/>
         <v>43748</v>
       </c>
-      <c r="C46" s="86" t="s">
+      <c r="C46" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="88" t="s">
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="I46" s="74"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="74"/>
-      <c r="L46" s="74"/>
-      <c r="M46" s="74"/>
-      <c r="N46" s="74"/>
-      <c r="O46" s="74"/>
-      <c r="P46" s="89"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="70"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
+      <c r="N46" s="70"/>
+      <c r="O46" s="70"/>
+      <c r="P46" s="71"/>
       <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
       <c r="S46" s="51"/>
@@ -3116,11 +3179,11 @@
         <v>5</v>
       </c>
       <c r="G52" s="15"/>
-      <c r="H52" s="111" t="s">
+      <c r="H52" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="I52" s="111"/>
-      <c r="J52" s="111"/>
+      <c r="I52" s="93"/>
+      <c r="J52" s="93"/>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
       <c r="M52" s="19"/>
@@ -3140,23 +3203,23 @@
         <f>B43+7</f>
         <v>43752</v>
       </c>
-      <c r="C53" s="86" t="s">
+      <c r="C53" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
       <c r="H53" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="I53" s="71" t="s">
+      <c r="I53" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="72"/>
-      <c r="K53" s="72"/>
-      <c r="L53" s="72"/>
-      <c r="M53" s="72"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="74"/>
+      <c r="M53" s="74"/>
       <c r="N53" s="49"/>
       <c r="O53" s="49"/>
       <c r="P53" s="49"/>
@@ -3175,28 +3238,28 @@
         <f t="shared" ref="B54:B59" si="3">B44+7</f>
         <v>43753</v>
       </c>
-      <c r="C54" s="86" t="s">
+      <c r="C54" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="86"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="86"/>
-      <c r="H54" s="92" t="s">
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="I54" s="93"/>
-      <c r="J54" s="93"/>
-      <c r="K54" s="93"/>
-      <c r="L54" s="93"/>
-      <c r="M54" s="93"/>
-      <c r="N54" s="93"/>
-      <c r="O54" s="93"/>
-      <c r="P54" s="93"/>
-      <c r="Q54" s="90" t="s">
+      <c r="I54" s="106"/>
+      <c r="J54" s="106"/>
+      <c r="K54" s="106"/>
+      <c r="L54" s="106"/>
+      <c r="M54" s="106"/>
+      <c r="N54" s="106"/>
+      <c r="O54" s="106"/>
+      <c r="P54" s="106"/>
+      <c r="Q54" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="R54" s="91"/>
+      <c r="R54" s="98"/>
       <c r="S54" s="51"/>
       <c r="T54" s="53" t="s">
         <v>19</v>
@@ -3214,18 +3277,18 @@
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
-      <c r="G55" s="86" t="s">
+      <c r="G55" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="H55" s="86"/>
-      <c r="I55" s="112" t="s">
+      <c r="H55" s="76"/>
+      <c r="I55" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="J55" s="72"/>
-      <c r="K55" s="72"/>
-      <c r="L55" s="72"/>
-      <c r="M55" s="72"/>
-      <c r="N55" s="72"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="74"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="74"/>
+      <c r="N55" s="74"/>
       <c r="O55" s="49"/>
       <c r="P55" s="49"/>
       <c r="Q55" s="49"/>
@@ -3243,21 +3306,21 @@
         <f t="shared" si="3"/>
         <v>43755</v>
       </c>
-      <c r="C56" s="86" t="s">
+      <c r="C56" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="86"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="86"/>
-      <c r="H56" s="96" t="s">
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="I56" s="97"/>
-      <c r="J56" s="97"/>
-      <c r="K56" s="97"/>
-      <c r="L56" s="97"/>
-      <c r="M56" s="97"/>
+      <c r="I56" s="92"/>
+      <c r="J56" s="92"/>
+      <c r="K56" s="92"/>
+      <c r="L56" s="92"/>
+      <c r="M56" s="92"/>
       <c r="N56" s="49"/>
       <c r="O56" s="49"/>
       <c r="P56" s="49"/>
@@ -3289,11 +3352,11 @@
       <c r="M57" s="49"/>
       <c r="N57" s="49"/>
       <c r="O57" s="49"/>
-      <c r="P57" s="88" t="s">
+      <c r="P57" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="Q57" s="74"/>
-      <c r="R57" s="89"/>
+      <c r="Q57" s="70"/>
+      <c r="R57" s="71"/>
       <c r="S57" s="51"/>
       <c r="T57" s="51"/>
     </row>
@@ -3307,31 +3370,31 @@
       </c>
       <c r="C58" s="50"/>
       <c r="D58" s="49"/>
-      <c r="E58" s="73" t="s">
+      <c r="E58" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="F58" s="74"/>
-      <c r="G58" s="94"/>
-      <c r="H58" s="86" t="s">
+      <c r="F58" s="70"/>
+      <c r="G58" s="111"/>
+      <c r="H58" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="I58" s="86"/>
-      <c r="J58" s="71" t="s">
+      <c r="I58" s="76"/>
+      <c r="J58" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="K58" s="72"/>
-      <c r="L58" s="72"/>
-      <c r="M58" s="72"/>
-      <c r="N58" s="72"/>
-      <c r="O58" s="72"/>
-      <c r="P58" s="95"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="74"/>
+      <c r="M58" s="74"/>
+      <c r="N58" s="74"/>
+      <c r="O58" s="74"/>
+      <c r="P58" s="75"/>
       <c r="Q58" s="20"/>
       <c r="R58" s="20"/>
       <c r="S58" s="51"/>
-      <c r="T58" s="75" t="s">
+      <c r="T58" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="U58" s="75"/>
+      <c r="U58" s="114"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -3358,8 +3421,8 @@
       <c r="Q59" s="20"/>
       <c r="R59" s="20"/>
       <c r="S59" s="51"/>
-      <c r="T59" s="75"/>
-      <c r="U59" s="75"/>
+      <c r="T59" s="114"/>
+      <c r="U59" s="114"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B60"/>
@@ -3380,8 +3443,8 @@
       <c r="Q60"/>
       <c r="R60"/>
       <c r="S60"/>
-      <c r="T60" s="75"/>
-      <c r="U60" s="75"/>
+      <c r="T60" s="114"/>
+      <c r="U60" s="114"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
@@ -3455,11 +3518,11 @@
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
-      <c r="H62" s="111" t="s">
+      <c r="H62" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="I62" s="111"/>
-      <c r="J62" s="111"/>
+      <c r="I62" s="93"/>
+      <c r="J62" s="93"/>
       <c r="K62" s="19"/>
       <c r="L62" s="19"/>
       <c r="M62" s="19"/>
@@ -3479,22 +3542,22 @@
         <f>B53+7</f>
         <v>43759</v>
       </c>
-      <c r="C63" s="86" t="s">
+      <c r="C63" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="86"/>
-      <c r="E63" s="86"/>
-      <c r="F63" s="86"/>
-      <c r="G63" s="86"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="76"/>
       <c r="H63" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="I63" s="71" t="s">
+      <c r="I63" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="J63" s="72"/>
-      <c r="K63" s="72"/>
-      <c r="L63" s="72"/>
+      <c r="J63" s="74"/>
+      <c r="K63" s="74"/>
+      <c r="L63" s="74"/>
       <c r="M63" s="49"/>
       <c r="N63" s="49"/>
       <c r="O63" s="49"/>
@@ -3514,22 +3577,22 @@
         <f t="shared" ref="B64:B69" si="4">B54+7</f>
         <v>43760</v>
       </c>
-      <c r="C64" s="86" t="s">
+      <c r="C64" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="86"/>
-      <c r="E64" s="86"/>
-      <c r="F64" s="86"/>
-      <c r="G64" s="86"/>
-      <c r="H64" s="73" t="s">
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="I64" s="74"/>
-      <c r="J64" s="74"/>
-      <c r="K64" s="74"/>
-      <c r="L64" s="74"/>
-      <c r="M64" s="74"/>
-      <c r="N64" s="74"/>
+      <c r="I64" s="70"/>
+      <c r="J64" s="70"/>
+      <c r="K64" s="70"/>
+      <c r="L64" s="70"/>
+      <c r="M64" s="70"/>
+      <c r="N64" s="70"/>
       <c r="O64" s="49"/>
       <c r="P64" s="49"/>
       <c r="Q64" s="49"/>
@@ -3578,25 +3641,25 @@
         <f t="shared" si="4"/>
         <v>43762</v>
       </c>
-      <c r="C66" s="86" t="s">
+      <c r="C66" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="86"/>
-      <c r="E66" s="86"/>
-      <c r="F66" s="86"/>
-      <c r="G66" s="86"/>
-      <c r="H66" s="82" t="s">
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="I66" s="83"/>
-      <c r="J66" s="83"/>
-      <c r="K66" s="83"/>
-      <c r="L66" s="83"/>
-      <c r="M66" s="83"/>
-      <c r="N66" s="83"/>
-      <c r="O66" s="83"/>
-      <c r="P66" s="83"/>
-      <c r="Q66" s="84"/>
+      <c r="I66" s="123"/>
+      <c r="J66" s="123"/>
+      <c r="K66" s="123"/>
+      <c r="L66" s="123"/>
+      <c r="M66" s="123"/>
+      <c r="N66" s="123"/>
+      <c r="O66" s="123"/>
+      <c r="P66" s="123"/>
+      <c r="Q66" s="124"/>
       <c r="R66" s="20"/>
       <c r="S66" s="51"/>
       <c r="T66" s="18" t="s">
@@ -3611,30 +3674,30 @@
         <f t="shared" si="4"/>
         <v>43763</v>
       </c>
-      <c r="C67" s="69" t="s">
+      <c r="C67" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="D67" s="77"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="77"/>
-      <c r="G67" s="77"/>
-      <c r="H67" s="77"/>
-      <c r="I67" s="77"/>
-      <c r="J67" s="70"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="74"/>
+      <c r="J67" s="75"/>
       <c r="K67" s="49"/>
-      <c r="L67" s="77" t="s">
+      <c r="L67" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="M67" s="77"/>
-      <c r="N67" s="77"/>
-      <c r="O67" s="77"/>
-      <c r="P67" s="77"/>
-      <c r="Q67" s="77"/>
-      <c r="R67" s="70"/>
+      <c r="M67" s="74"/>
+      <c r="N67" s="74"/>
+      <c r="O67" s="74"/>
+      <c r="P67" s="74"/>
+      <c r="Q67" s="74"/>
+      <c r="R67" s="75"/>
       <c r="S67" s="51"/>
       <c r="T67" s="51"/>
     </row>
-    <row r="68" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
@@ -3642,30 +3705,26 @@
         <f t="shared" si="4"/>
         <v>43764</v>
       </c>
-      <c r="C68" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="D68" s="77"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="77"/>
-      <c r="I68" s="77"/>
-      <c r="J68" s="70"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="49"/>
       <c r="K68" s="49"/>
-      <c r="L68" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="M68" s="77"/>
-      <c r="N68" s="77"/>
-      <c r="O68" s="77"/>
-      <c r="P68" s="77"/>
-      <c r="Q68" s="77"/>
-      <c r="R68" s="70"/>
+      <c r="L68" s="49"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="49"/>
+      <c r="O68" s="49"/>
+      <c r="P68" s="49"/>
+      <c r="Q68" s="49"/>
+      <c r="R68" s="49"/>
       <c r="S68" s="51"/>
       <c r="T68" s="51"/>
     </row>
-    <row r="69" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>6</v>
       </c>
@@ -3673,24 +3732,24 @@
         <f t="shared" si="4"/>
         <v>43765</v>
       </c>
-      <c r="C69" s="86" t="s">
+      <c r="C69" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="D69" s="86"/>
-      <c r="E69" s="86"/>
-      <c r="F69" s="86"/>
-      <c r="G69" s="86"/>
-      <c r="H69" s="86"/>
-      <c r="I69" s="86"/>
-      <c r="J69" s="86"/>
-      <c r="K69" s="86"/>
-      <c r="L69" s="86"/>
-      <c r="M69" s="86"/>
-      <c r="N69" s="86"/>
-      <c r="O69" s="86"/>
-      <c r="P69" s="86"/>
-      <c r="Q69" s="86"/>
-      <c r="R69" s="86"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="76"/>
+      <c r="F69" s="76"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="76"/>
+      <c r="I69" s="76"/>
+      <c r="J69" s="76"/>
+      <c r="K69" s="76"/>
+      <c r="L69" s="76"/>
+      <c r="M69" s="76"/>
+      <c r="N69" s="76"/>
+      <c r="O69" s="76"/>
+      <c r="P69" s="76"/>
+      <c r="Q69" s="76"/>
+      <c r="R69" s="76"/>
       <c r="S69" s="51"/>
       <c r="T69" s="51"/>
     </row>
@@ -3783,27 +3842,27 @@
         <f>C62+1</f>
         <v>7</v>
       </c>
-      <c r="D72" s="81" t="s">
+      <c r="D72" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="81"/>
-      <c r="F72" s="81"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="94"/>
       <c r="G72" s="15"/>
-      <c r="H72" s="115" t="s">
+      <c r="H72" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="I72" s="115"/>
-      <c r="J72" s="115"/>
-      <c r="K72" s="115"/>
+      <c r="I72" s="85"/>
+      <c r="J72" s="85"/>
+      <c r="K72" s="85"/>
       <c r="L72" s="19"/>
-      <c r="M72" s="114" t="s">
+      <c r="M72" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="N72" s="114"/>
-      <c r="O72" s="114"/>
-      <c r="P72" s="114"/>
-      <c r="Q72" s="114"/>
-      <c r="R72" s="114"/>
+      <c r="N72" s="84"/>
+      <c r="O72" s="84"/>
+      <c r="P72" s="84"/>
+      <c r="Q72" s="84"/>
+      <c r="R72" s="84"/>
       <c r="S72" s="51"/>
       <c r="T72" s="51"/>
     </row>
@@ -3817,23 +3876,23 @@
       </c>
       <c r="C73" s="32"/>
       <c r="D73" s="20"/>
-      <c r="E73" s="106" t="s">
+      <c r="E73" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="F73" s="106"/>
-      <c r="G73" s="106"/>
-      <c r="H73" s="106"/>
-      <c r="I73" s="106"/>
-      <c r="J73" s="106"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
+      <c r="J73" s="72"/>
       <c r="K73" s="49"/>
-      <c r="L73" s="71" t="s">
+      <c r="L73" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="M73" s="72"/>
-      <c r="N73" s="72"/>
-      <c r="O73" s="72"/>
-      <c r="P73" s="72"/>
-      <c r="Q73" s="95"/>
+      <c r="M73" s="74"/>
+      <c r="N73" s="74"/>
+      <c r="O73" s="74"/>
+      <c r="P73" s="74"/>
+      <c r="Q73" s="75"/>
       <c r="R73" s="49"/>
       <c r="S73" s="51"/>
       <c r="T73" s="30" t="s">
@@ -3848,27 +3907,27 @@
         <f t="shared" ref="B74:B79" si="5">B64+7</f>
         <v>43767</v>
       </c>
-      <c r="C74" s="71" t="s">
+      <c r="C74" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="D74" s="95"/>
-      <c r="E74" s="106" t="s">
+      <c r="D74" s="75"/>
+      <c r="E74" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="F74" s="106"/>
-      <c r="G74" s="106"/>
-      <c r="H74" s="106"/>
-      <c r="I74" s="106"/>
-      <c r="J74" s="106"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="72"/>
+      <c r="H74" s="72"/>
+      <c r="I74" s="72"/>
+      <c r="J74" s="72"/>
       <c r="K74" s="49"/>
-      <c r="L74" s="71" t="s">
+      <c r="L74" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="M74" s="72"/>
-      <c r="N74" s="72"/>
-      <c r="O74" s="72"/>
-      <c r="P74" s="72"/>
-      <c r="Q74" s="95"/>
+      <c r="M74" s="74"/>
+      <c r="N74" s="74"/>
+      <c r="O74" s="74"/>
+      <c r="P74" s="74"/>
+      <c r="Q74" s="75"/>
       <c r="R74" s="20"/>
       <c r="S74" s="51"/>
       <c r="T74" s="53" t="s">
@@ -3885,23 +3944,23 @@
       </c>
       <c r="C75" s="32"/>
       <c r="D75" s="20"/>
-      <c r="E75" s="106" t="s">
+      <c r="E75" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="F75" s="106"/>
-      <c r="G75" s="106"/>
-      <c r="H75" s="106"/>
-      <c r="I75" s="106"/>
-      <c r="J75" s="106"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="72"/>
+      <c r="H75" s="72"/>
+      <c r="I75" s="72"/>
+      <c r="J75" s="72"/>
       <c r="K75" s="49"/>
-      <c r="L75" s="71" t="s">
+      <c r="L75" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="M75" s="72"/>
-      <c r="N75" s="72"/>
-      <c r="O75" s="72"/>
-      <c r="P75" s="72"/>
-      <c r="Q75" s="95"/>
+      <c r="M75" s="74"/>
+      <c r="N75" s="74"/>
+      <c r="O75" s="74"/>
+      <c r="P75" s="74"/>
+      <c r="Q75" s="75"/>
       <c r="R75" s="49"/>
       <c r="S75" s="51"/>
       <c r="T75" s="52" t="s">
@@ -3916,24 +3975,24 @@
         <f t="shared" si="5"/>
         <v>43769</v>
       </c>
-      <c r="C76" s="86" t="s">
+      <c r="C76" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="D76" s="86"/>
-      <c r="E76" s="86"/>
-      <c r="F76" s="86"/>
-      <c r="G76" s="86"/>
-      <c r="H76" s="86"/>
-      <c r="I76" s="86"/>
-      <c r="J76" s="86"/>
-      <c r="K76" s="86"/>
-      <c r="L76" s="86"/>
-      <c r="M76" s="86"/>
-      <c r="N76" s="86"/>
-      <c r="O76" s="86"/>
-      <c r="P76" s="86"/>
-      <c r="Q76" s="86"/>
-      <c r="R76" s="86"/>
+      <c r="D76" s="76"/>
+      <c r="E76" s="76"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="76"/>
+      <c r="H76" s="76"/>
+      <c r="I76" s="76"/>
+      <c r="J76" s="76"/>
+      <c r="K76" s="76"/>
+      <c r="L76" s="76"/>
+      <c r="M76" s="76"/>
+      <c r="N76" s="76"/>
+      <c r="O76" s="76"/>
+      <c r="P76" s="76"/>
+      <c r="Q76" s="76"/>
+      <c r="R76" s="76"/>
       <c r="S76" s="51"/>
       <c r="T76" s="18" t="s">
         <v>21</v>
@@ -3949,23 +4008,23 @@
       </c>
       <c r="C77" s="32"/>
       <c r="D77" s="20"/>
-      <c r="E77" s="105" t="s">
+      <c r="E77" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="F77" s="105"/>
-      <c r="G77" s="105"/>
-      <c r="H77" s="105"/>
-      <c r="I77" s="105"/>
-      <c r="J77" s="105"/>
+      <c r="F77" s="96"/>
+      <c r="G77" s="96"/>
+      <c r="H77" s="96"/>
+      <c r="I77" s="96"/>
+      <c r="J77" s="96"/>
       <c r="K77" s="49"/>
-      <c r="L77" s="119" t="s">
+      <c r="L77" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="M77" s="120"/>
-      <c r="N77" s="120"/>
-      <c r="O77" s="120"/>
-      <c r="P77" s="120"/>
-      <c r="Q77" s="121"/>
+      <c r="M77" s="108"/>
+      <c r="N77" s="108"/>
+      <c r="O77" s="108"/>
+      <c r="P77" s="108"/>
+      <c r="Q77" s="109"/>
       <c r="R77" s="20"/>
       <c r="S77" s="51"/>
       <c r="T77" s="51"/>
@@ -3980,23 +4039,23 @@
       </c>
       <c r="C78" s="50"/>
       <c r="D78" s="49"/>
-      <c r="E78" s="105" t="s">
+      <c r="E78" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="F78" s="105"/>
-      <c r="G78" s="105"/>
-      <c r="H78" s="105"/>
-      <c r="I78" s="105"/>
-      <c r="J78" s="105"/>
+      <c r="F78" s="96"/>
+      <c r="G78" s="96"/>
+      <c r="H78" s="96"/>
+      <c r="I78" s="96"/>
+      <c r="J78" s="96"/>
       <c r="K78" s="49"/>
-      <c r="L78" s="119" t="s">
+      <c r="L78" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="M78" s="120"/>
-      <c r="N78" s="120"/>
-      <c r="O78" s="120"/>
-      <c r="P78" s="120"/>
-      <c r="Q78" s="121"/>
+      <c r="M78" s="108"/>
+      <c r="N78" s="108"/>
+      <c r="O78" s="108"/>
+      <c r="P78" s="108"/>
+      <c r="Q78" s="109"/>
       <c r="R78" s="49"/>
       <c r="S78" s="51"/>
       <c r="T78" s="51"/>
@@ -4009,24 +4068,24 @@
         <f t="shared" si="5"/>
         <v>43772</v>
       </c>
-      <c r="C79" s="86" t="s">
+      <c r="C79" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="D79" s="86"/>
-      <c r="E79" s="86"/>
-      <c r="F79" s="86"/>
-      <c r="G79" s="86"/>
-      <c r="H79" s="86"/>
-      <c r="I79" s="86"/>
-      <c r="J79" s="86"/>
-      <c r="K79" s="86"/>
-      <c r="L79" s="86"/>
-      <c r="M79" s="86"/>
-      <c r="N79" s="86"/>
-      <c r="O79" s="86"/>
-      <c r="P79" s="86"/>
-      <c r="Q79" s="86"/>
-      <c r="R79" s="86"/>
+      <c r="D79" s="76"/>
+      <c r="E79" s="76"/>
+      <c r="F79" s="76"/>
+      <c r="G79" s="76"/>
+      <c r="H79" s="76"/>
+      <c r="I79" s="76"/>
+      <c r="J79" s="76"/>
+      <c r="K79" s="76"/>
+      <c r="L79" s="76"/>
+      <c r="M79" s="76"/>
+      <c r="N79" s="76"/>
+      <c r="O79" s="76"/>
+      <c r="P79" s="76"/>
+      <c r="Q79" s="76"/>
+      <c r="R79" s="76"/>
       <c r="S79" s="51"/>
       <c r="T79" s="51"/>
     </row>
@@ -4100,11 +4159,11 @@
         <f>C72+1</f>
         <v>8</v>
       </c>
-      <c r="D82" s="81" t="s">
+      <c r="D82" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="81"/>
-      <c r="F82" s="81"/>
+      <c r="E82" s="94"/>
+      <c r="F82" s="94"/>
       <c r="G82" s="15"/>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -4129,24 +4188,24 @@
         <f>B73+7</f>
         <v>43773</v>
       </c>
-      <c r="C83" s="86" t="s">
+      <c r="C83" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="86"/>
-      <c r="E83" s="86"/>
-      <c r="F83" s="86"/>
-      <c r="G83" s="86"/>
-      <c r="H83" s="88" t="s">
+      <c r="D83" s="76"/>
+      <c r="E83" s="76"/>
+      <c r="F83" s="76"/>
+      <c r="G83" s="76"/>
+      <c r="H83" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="I83" s="74"/>
-      <c r="J83" s="74"/>
-      <c r="K83" s="74"/>
-      <c r="L83" s="74"/>
-      <c r="M83" s="74"/>
-      <c r="N83" s="74"/>
-      <c r="O83" s="74"/>
-      <c r="P83" s="89"/>
+      <c r="I83" s="70"/>
+      <c r="J83" s="70"/>
+      <c r="K83" s="70"/>
+      <c r="L83" s="70"/>
+      <c r="M83" s="70"/>
+      <c r="N83" s="70"/>
+      <c r="O83" s="70"/>
+      <c r="P83" s="71"/>
       <c r="Q83" s="20"/>
       <c r="R83" s="20"/>
       <c r="S83" s="51"/>
@@ -4163,28 +4222,28 @@
         <f t="shared" ref="B84:B89" si="6">B74+7</f>
         <v>43774</v>
       </c>
-      <c r="C84" s="86" t="s">
+      <c r="C84" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="86"/>
-      <c r="E84" s="86"/>
-      <c r="F84" s="86"/>
-      <c r="G84" s="86"/>
-      <c r="H84" s="86" t="s">
+      <c r="D84" s="76"/>
+      <c r="E84" s="76"/>
+      <c r="F84" s="76"/>
+      <c r="G84" s="76"/>
+      <c r="H84" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="I84" s="86"/>
-      <c r="J84" s="88" t="s">
+      <c r="I84" s="76"/>
+      <c r="J84" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="K84" s="74"/>
-      <c r="L84" s="74"/>
-      <c r="M84" s="74"/>
-      <c r="N84" s="74"/>
-      <c r="O84" s="74"/>
-      <c r="P84" s="74"/>
-      <c r="Q84" s="74"/>
-      <c r="R84" s="89"/>
+      <c r="K84" s="70"/>
+      <c r="L84" s="70"/>
+      <c r="M84" s="70"/>
+      <c r="N84" s="70"/>
+      <c r="O84" s="70"/>
+      <c r="P84" s="70"/>
+      <c r="Q84" s="70"/>
+      <c r="R84" s="71"/>
       <c r="S84" s="51"/>
       <c r="T84" s="53" t="s">
         <v>19</v>
@@ -4201,17 +4260,17 @@
       </c>
       <c r="C85" s="32"/>
       <c r="D85" s="20"/>
-      <c r="E85" s="88" t="s">
+      <c r="E85" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="F85" s="74"/>
-      <c r="G85" s="74"/>
-      <c r="H85" s="74"/>
-      <c r="I85" s="74"/>
-      <c r="J85" s="74"/>
-      <c r="K85" s="74"/>
-      <c r="L85" s="74"/>
-      <c r="M85" s="89"/>
+      <c r="F85" s="70"/>
+      <c r="G85" s="70"/>
+      <c r="H85" s="70"/>
+      <c r="I85" s="70"/>
+      <c r="J85" s="70"/>
+      <c r="K85" s="70"/>
+      <c r="L85" s="70"/>
+      <c r="M85" s="71"/>
       <c r="N85" s="49"/>
       <c r="O85" s="49"/>
       <c r="P85" s="49"/>
@@ -4231,13 +4290,13 @@
         <f t="shared" si="6"/>
         <v>43776</v>
       </c>
-      <c r="C86" s="87" t="s">
+      <c r="C86" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="D86" s="87"/>
-      <c r="E86" s="87"/>
-      <c r="F86" s="87"/>
-      <c r="G86" s="87"/>
+      <c r="D86" s="86"/>
+      <c r="E86" s="86"/>
+      <c r="F86" s="86"/>
+      <c r="G86" s="86"/>
       <c r="H86" s="49"/>
       <c r="I86" s="49"/>
       <c r="J86" s="49"/>
@@ -4319,24 +4378,24 @@
         <f t="shared" si="6"/>
         <v>43779</v>
       </c>
-      <c r="C89" s="86" t="s">
+      <c r="C89" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="D89" s="86"/>
-      <c r="E89" s="86"/>
-      <c r="F89" s="86"/>
-      <c r="G89" s="86"/>
-      <c r="H89" s="86"/>
-      <c r="I89" s="86"/>
-      <c r="J89" s="86"/>
-      <c r="K89" s="86"/>
-      <c r="L89" s="86"/>
-      <c r="M89" s="86"/>
-      <c r="N89" s="86"/>
-      <c r="O89" s="86"/>
-      <c r="P89" s="86"/>
-      <c r="Q89" s="86"/>
-      <c r="R89" s="86"/>
+      <c r="D89" s="76"/>
+      <c r="E89" s="76"/>
+      <c r="F89" s="76"/>
+      <c r="G89" s="76"/>
+      <c r="H89" s="76"/>
+      <c r="I89" s="76"/>
+      <c r="J89" s="76"/>
+      <c r="K89" s="76"/>
+      <c r="L89" s="76"/>
+      <c r="M89" s="76"/>
+      <c r="N89" s="76"/>
+      <c r="O89" s="76"/>
+      <c r="P89" s="76"/>
+      <c r="Q89" s="76"/>
+      <c r="R89" s="76"/>
       <c r="S89" s="51"/>
       <c r="T89" s="51"/>
       <c r="U89" s="54"/>
@@ -4438,24 +4497,24 @@
         <f>B83+7</f>
         <v>43780</v>
       </c>
-      <c r="C93" s="86" t="s">
+      <c r="C93" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="86"/>
-      <c r="E93" s="86"/>
-      <c r="F93" s="86"/>
-      <c r="G93" s="86"/>
-      <c r="H93" s="106" t="s">
+      <c r="D93" s="76"/>
+      <c r="E93" s="76"/>
+      <c r="F93" s="76"/>
+      <c r="G93" s="76"/>
+      <c r="H93" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="I93" s="106"/>
-      <c r="J93" s="106"/>
-      <c r="K93" s="106"/>
-      <c r="L93" s="106"/>
-      <c r="M93" s="106"/>
-      <c r="N93" s="106"/>
-      <c r="O93" s="106"/>
-      <c r="P93" s="106"/>
+      <c r="I93" s="72"/>
+      <c r="J93" s="72"/>
+      <c r="K93" s="72"/>
+      <c r="L93" s="72"/>
+      <c r="M93" s="72"/>
+      <c r="N93" s="72"/>
+      <c r="O93" s="72"/>
+      <c r="P93" s="72"/>
       <c r="Q93" s="20"/>
       <c r="R93" s="20"/>
       <c r="S93" s="51"/>
@@ -4472,24 +4531,24 @@
         <f t="shared" ref="B94:B99" si="7">B84+7</f>
         <v>43781</v>
       </c>
-      <c r="C94" s="86" t="s">
+      <c r="C94" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="86"/>
-      <c r="E94" s="86"/>
-      <c r="F94" s="86"/>
-      <c r="G94" s="86"/>
-      <c r="H94" s="106" t="s">
+      <c r="D94" s="76"/>
+      <c r="E94" s="76"/>
+      <c r="F94" s="76"/>
+      <c r="G94" s="76"/>
+      <c r="H94" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="I94" s="106"/>
-      <c r="J94" s="106"/>
-      <c r="K94" s="106"/>
-      <c r="L94" s="106"/>
-      <c r="M94" s="106"/>
-      <c r="N94" s="106"/>
-      <c r="O94" s="106"/>
-      <c r="P94" s="106"/>
+      <c r="I94" s="72"/>
+      <c r="J94" s="72"/>
+      <c r="K94" s="72"/>
+      <c r="L94" s="72"/>
+      <c r="M94" s="72"/>
+      <c r="N94" s="72"/>
+      <c r="O94" s="72"/>
+      <c r="P94" s="72"/>
       <c r="Q94" s="20"/>
       <c r="R94" s="20"/>
       <c r="S94" s="51"/>
@@ -4536,20 +4595,20 @@
         <f t="shared" si="7"/>
         <v>43783</v>
       </c>
-      <c r="C96" s="86" t="s">
+      <c r="C96" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D96" s="86"/>
-      <c r="E96" s="86"/>
-      <c r="F96" s="86"/>
-      <c r="G96" s="86"/>
-      <c r="H96" s="71" t="s">
+      <c r="D96" s="76"/>
+      <c r="E96" s="76"/>
+      <c r="F96" s="76"/>
+      <c r="G96" s="76"/>
+      <c r="H96" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="I96" s="72"/>
-      <c r="J96" s="72"/>
-      <c r="K96" s="72"/>
-      <c r="L96" s="95"/>
+      <c r="I96" s="74"/>
+      <c r="J96" s="74"/>
+      <c r="K96" s="74"/>
+      <c r="L96" s="75"/>
       <c r="M96" s="20"/>
       <c r="N96" s="20"/>
       <c r="O96" s="20"/>
@@ -4626,24 +4685,24 @@
         <f t="shared" si="7"/>
         <v>43786</v>
       </c>
-      <c r="C99" s="86" t="s">
+      <c r="C99" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="D99" s="86"/>
-      <c r="E99" s="86"/>
-      <c r="F99" s="86"/>
-      <c r="G99" s="86"/>
-      <c r="H99" s="86"/>
-      <c r="I99" s="86"/>
-      <c r="J99" s="86"/>
-      <c r="K99" s="86"/>
-      <c r="L99" s="86"/>
-      <c r="M99" s="86"/>
-      <c r="N99" s="86"/>
-      <c r="O99" s="86"/>
-      <c r="P99" s="86"/>
-      <c r="Q99" s="86"/>
-      <c r="R99" s="86"/>
+      <c r="D99" s="76"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="76"/>
+      <c r="H99" s="76"/>
+      <c r="I99" s="76"/>
+      <c r="J99" s="76"/>
+      <c r="K99" s="76"/>
+      <c r="L99" s="76"/>
+      <c r="M99" s="76"/>
+      <c r="N99" s="76"/>
+      <c r="O99" s="76"/>
+      <c r="P99" s="76"/>
+      <c r="Q99" s="76"/>
+      <c r="R99" s="76"/>
       <c r="S99" s="51"/>
       <c r="T99" s="51"/>
       <c r="U99" s="54"/>
@@ -4706,7 +4765,7 @@
       <c r="T101" s="51"/>
       <c r="U101" s="54"/>
     </row>
-    <row r="102" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="57">
         <f>A92+7</f>
         <v>43787</v>
@@ -4737,7 +4796,7 @@
       <c r="T102" s="51"/>
       <c r="U102" s="54"/>
     </row>
-    <row r="103" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" s="27" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>0</v>
       </c>
@@ -4745,22 +4804,24 @@
         <f>B93+7</f>
         <v>43787</v>
       </c>
-      <c r="C103" s="86" t="s">
+      <c r="C103" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="86"/>
-      <c r="E103" s="86"/>
-      <c r="F103" s="86"/>
-      <c r="G103" s="86"/>
-      <c r="H103" s="49"/>
-      <c r="I103" s="49"/>
-      <c r="J103" s="49"/>
-      <c r="K103" s="20"/>
-      <c r="L103" s="20"/>
-      <c r="M103" s="20"/>
-      <c r="N103" s="20"/>
-      <c r="O103" s="20"/>
-      <c r="P103" s="20"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="76"/>
+      <c r="H103" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="I103" s="72"/>
+      <c r="J103" s="72"/>
+      <c r="K103" s="72"/>
+      <c r="L103" s="72"/>
+      <c r="M103" s="72"/>
+      <c r="N103" s="72"/>
+      <c r="O103" s="72"/>
+      <c r="P103" s="72"/>
       <c r="Q103" s="20"/>
       <c r="R103" s="20"/>
       <c r="S103" s="51"/>
@@ -4769,7 +4830,7 @@
       </c>
       <c r="U103" s="54"/>
     </row>
-    <row r="104" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" s="27" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>1</v>
       </c>
@@ -4777,24 +4838,24 @@
         <f t="shared" ref="B104:B109" si="8">B94+7</f>
         <v>43788</v>
       </c>
-      <c r="C104" s="86" t="s">
+      <c r="C104" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D104" s="86"/>
-      <c r="E104" s="86"/>
-      <c r="F104" s="86"/>
-      <c r="G104" s="86"/>
-      <c r="H104" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="I104" s="86"/>
-      <c r="J104" s="20"/>
-      <c r="K104" s="49"/>
-      <c r="L104" s="49"/>
-      <c r="M104" s="20"/>
-      <c r="N104" s="20"/>
-      <c r="O104" s="49"/>
-      <c r="P104" s="49"/>
+      <c r="D104" s="76"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="76"/>
+      <c r="G104" s="76"/>
+      <c r="H104" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="I104" s="72"/>
+      <c r="J104" s="72"/>
+      <c r="K104" s="72"/>
+      <c r="L104" s="72"/>
+      <c r="M104" s="72"/>
+      <c r="N104" s="72"/>
+      <c r="O104" s="72"/>
+      <c r="P104" s="72"/>
       <c r="Q104" s="20"/>
       <c r="R104" s="20"/>
       <c r="S104" s="51"/>
@@ -4803,7 +4864,7 @@
       </c>
       <c r="U104" s="54"/>
     </row>
-    <row r="105" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" s="27" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>2</v>
       </c>
@@ -4811,17 +4872,19 @@
         <f t="shared" si="8"/>
         <v>43789</v>
       </c>
-      <c r="C105" s="32"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="20"/>
-      <c r="J105" s="20"/>
-      <c r="K105" s="49"/>
-      <c r="L105" s="49"/>
-      <c r="M105" s="49"/>
+      <c r="C105" s="119" t="s">
+        <v>86</v>
+      </c>
+      <c r="D105" s="120"/>
+      <c r="E105" s="120"/>
+      <c r="F105" s="120"/>
+      <c r="G105" s="120"/>
+      <c r="H105" s="120"/>
+      <c r="I105" s="120"/>
+      <c r="J105" s="120"/>
+      <c r="K105" s="120"/>
+      <c r="L105" s="120"/>
+      <c r="M105" s="121"/>
       <c r="N105" s="49"/>
       <c r="O105" s="49"/>
       <c r="P105" s="49"/>
@@ -4841,22 +4904,24 @@
         <f t="shared" si="8"/>
         <v>43790</v>
       </c>
-      <c r="C106" s="86" t="s">
+      <c r="C106" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D106" s="86"/>
-      <c r="E106" s="86"/>
-      <c r="F106" s="86"/>
-      <c r="G106" s="86"/>
-      <c r="H106" s="49"/>
-      <c r="I106" s="49"/>
-      <c r="J106" s="49"/>
-      <c r="K106" s="49"/>
-      <c r="L106" s="49"/>
-      <c r="M106" s="20"/>
-      <c r="N106" s="20"/>
-      <c r="O106" s="20"/>
-      <c r="P106" s="20"/>
+      <c r="D106" s="76"/>
+      <c r="E106" s="76"/>
+      <c r="F106" s="76"/>
+      <c r="G106" s="76"/>
+      <c r="H106" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="I106" s="79"/>
+      <c r="J106" s="79"/>
+      <c r="K106" s="79"/>
+      <c r="L106" s="79"/>
+      <c r="M106" s="79"/>
+      <c r="N106" s="79"/>
+      <c r="O106" s="79"/>
+      <c r="P106" s="115"/>
       <c r="Q106" s="20"/>
       <c r="R106" s="20"/>
       <c r="S106" s="51"/>
@@ -4873,17 +4938,19 @@
         <f t="shared" si="8"/>
         <v>43791</v>
       </c>
-      <c r="C107" s="32"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="20"/>
-      <c r="H107" s="20"/>
-      <c r="I107" s="49"/>
-      <c r="J107" s="49"/>
-      <c r="K107" s="49"/>
-      <c r="L107" s="49"/>
-      <c r="M107" s="20"/>
+      <c r="C107" s="125" t="s">
+        <v>87</v>
+      </c>
+      <c r="D107" s="126"/>
+      <c r="E107" s="126"/>
+      <c r="F107" s="126"/>
+      <c r="G107" s="126"/>
+      <c r="H107" s="126"/>
+      <c r="I107" s="126"/>
+      <c r="J107" s="126"/>
+      <c r="K107" s="126"/>
+      <c r="L107" s="126"/>
+      <c r="M107" s="127"/>
       <c r="N107" s="20"/>
       <c r="O107" s="20"/>
       <c r="P107" s="20"/>
@@ -4929,24 +4996,24 @@
         <f t="shared" si="8"/>
         <v>43793</v>
       </c>
-      <c r="C109" s="86" t="s">
+      <c r="C109" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="D109" s="86"/>
-      <c r="E109" s="86"/>
-      <c r="F109" s="86"/>
-      <c r="G109" s="86"/>
-      <c r="H109" s="86"/>
-      <c r="I109" s="86"/>
-      <c r="J109" s="86"/>
-      <c r="K109" s="86"/>
-      <c r="L109" s="86"/>
-      <c r="M109" s="86"/>
-      <c r="N109" s="86"/>
-      <c r="O109" s="86"/>
-      <c r="P109" s="86"/>
-      <c r="Q109" s="86"/>
-      <c r="R109" s="86"/>
+      <c r="D109" s="76"/>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="76"/>
+      <c r="H109" s="76"/>
+      <c r="I109" s="76"/>
+      <c r="J109" s="76"/>
+      <c r="K109" s="76"/>
+      <c r="L109" s="76"/>
+      <c r="M109" s="76"/>
+      <c r="N109" s="76"/>
+      <c r="O109" s="76"/>
+      <c r="P109" s="76"/>
+      <c r="Q109" s="76"/>
+      <c r="R109" s="76"/>
       <c r="S109" s="51"/>
       <c r="T109" s="51"/>
       <c r="U109" s="54"/>
@@ -5021,11 +5088,11 @@
         <f>C102+1</f>
         <v>11</v>
       </c>
-      <c r="D112" s="81" t="s">
+      <c r="D112" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="E112" s="81"/>
-      <c r="F112" s="81"/>
+      <c r="E112" s="94"/>
+      <c r="F112" s="94"/>
       <c r="G112" s="15"/>
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
@@ -5050,13 +5117,13 @@
         <f>B103+7</f>
         <v>43794</v>
       </c>
-      <c r="C113" s="86" t="s">
+      <c r="C113" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D113" s="86"/>
-      <c r="E113" s="86"/>
-      <c r="F113" s="86"/>
-      <c r="G113" s="86"/>
+      <c r="D113" s="76"/>
+      <c r="E113" s="76"/>
+      <c r="F113" s="76"/>
+      <c r="G113" s="76"/>
       <c r="H113" s="49"/>
       <c r="I113" s="49"/>
       <c r="J113" s="49"/>
@@ -5082,13 +5149,13 @@
         <f t="shared" ref="B114:B119" si="9">B104+7</f>
         <v>43795</v>
       </c>
-      <c r="C114" s="86" t="s">
+      <c r="C114" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D114" s="86"/>
-      <c r="E114" s="86"/>
-      <c r="F114" s="86"/>
-      <c r="G114" s="86"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
       <c r="H114" s="20"/>
       <c r="I114" s="20"/>
       <c r="J114" s="20"/>
@@ -5116,23 +5183,23 @@
       </c>
       <c r="C115" s="32"/>
       <c r="D115" s="20"/>
-      <c r="E115" s="76" t="s">
+      <c r="E115" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="F115" s="76"/>
-      <c r="G115" s="76"/>
-      <c r="H115" s="76"/>
-      <c r="I115" s="76"/>
-      <c r="J115" s="76"/>
+      <c r="F115" s="77"/>
+      <c r="G115" s="77"/>
+      <c r="H115" s="77"/>
+      <c r="I115" s="77"/>
+      <c r="J115" s="77"/>
       <c r="K115" s="49"/>
-      <c r="L115" s="69" t="s">
+      <c r="L115" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="M115" s="77"/>
-      <c r="N115" s="77"/>
-      <c r="O115" s="77"/>
-      <c r="P115" s="77"/>
-      <c r="Q115" s="70"/>
+      <c r="M115" s="82"/>
+      <c r="N115" s="82"/>
+      <c r="O115" s="82"/>
+      <c r="P115" s="82"/>
+      <c r="Q115" s="83"/>
       <c r="R115" s="49"/>
       <c r="S115" s="51"/>
       <c r="T115" s="52" t="s">
@@ -5148,18 +5215,18 @@
         <f t="shared" si="9"/>
         <v>43797</v>
       </c>
-      <c r="C116" s="86" t="s">
+      <c r="C116" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D116" s="86"/>
-      <c r="E116" s="86"/>
-      <c r="F116" s="86"/>
-      <c r="G116" s="86"/>
-      <c r="H116" s="76" t="s">
+      <c r="D116" s="76"/>
+      <c r="E116" s="76"/>
+      <c r="F116" s="76"/>
+      <c r="G116" s="76"/>
+      <c r="H116" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="I116" s="76"/>
-      <c r="J116" s="76"/>
+      <c r="I116" s="77"/>
+      <c r="J116" s="77"/>
       <c r="K116" s="78" t="s">
         <v>65</v>
       </c>
@@ -5168,7 +5235,7 @@
       <c r="N116" s="79"/>
       <c r="O116" s="79"/>
       <c r="P116" s="79"/>
-      <c r="Q116" s="113"/>
+      <c r="Q116" s="80"/>
       <c r="R116" s="20"/>
       <c r="S116" s="51"/>
       <c r="T116" s="18" t="s">
@@ -5186,23 +5253,23 @@
       </c>
       <c r="C117" s="32"/>
       <c r="D117" s="20"/>
-      <c r="E117" s="76" t="s">
+      <c r="E117" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="F117" s="76"/>
-      <c r="G117" s="76"/>
-      <c r="H117" s="76"/>
-      <c r="I117" s="76"/>
-      <c r="J117" s="76"/>
+      <c r="F117" s="77"/>
+      <c r="G117" s="77"/>
+      <c r="H117" s="77"/>
+      <c r="I117" s="77"/>
+      <c r="J117" s="77"/>
       <c r="K117" s="49"/>
-      <c r="L117" s="69" t="s">
+      <c r="L117" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="M117" s="77"/>
-      <c r="N117" s="77"/>
-      <c r="O117" s="77"/>
-      <c r="P117" s="77"/>
-      <c r="Q117" s="70"/>
+      <c r="M117" s="82"/>
+      <c r="N117" s="82"/>
+      <c r="O117" s="82"/>
+      <c r="P117" s="82"/>
+      <c r="Q117" s="83"/>
       <c r="R117" s="20"/>
       <c r="S117" s="51"/>
       <c r="T117" s="51"/>
@@ -5218,23 +5285,23 @@
       </c>
       <c r="C118" s="50"/>
       <c r="D118" s="49"/>
-      <c r="E118" s="76" t="s">
+      <c r="E118" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="F118" s="76"/>
-      <c r="G118" s="76"/>
-      <c r="H118" s="76"/>
-      <c r="I118" s="76"/>
-      <c r="J118" s="76"/>
+      <c r="F118" s="77"/>
+      <c r="G118" s="77"/>
+      <c r="H118" s="77"/>
+      <c r="I118" s="77"/>
+      <c r="J118" s="77"/>
       <c r="K118" s="49"/>
-      <c r="L118" s="69" t="s">
+      <c r="L118" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="M118" s="77"/>
-      <c r="N118" s="77"/>
-      <c r="O118" s="77"/>
-      <c r="P118" s="77"/>
-      <c r="Q118" s="70"/>
+      <c r="M118" s="82"/>
+      <c r="N118" s="82"/>
+      <c r="O118" s="82"/>
+      <c r="P118" s="82"/>
+      <c r="Q118" s="83"/>
       <c r="R118" s="49"/>
       <c r="S118" s="51"/>
       <c r="T118" s="51"/>
@@ -5248,24 +5315,24 @@
         <f t="shared" si="9"/>
         <v>43800</v>
       </c>
-      <c r="C119" s="86" t="s">
+      <c r="C119" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="D119" s="86"/>
-      <c r="E119" s="86"/>
-      <c r="F119" s="86"/>
-      <c r="G119" s="86"/>
-      <c r="H119" s="86"/>
-      <c r="I119" s="86"/>
-      <c r="J119" s="86"/>
-      <c r="K119" s="86"/>
-      <c r="L119" s="86"/>
-      <c r="M119" s="86"/>
-      <c r="N119" s="86"/>
-      <c r="O119" s="86"/>
-      <c r="P119" s="86"/>
-      <c r="Q119" s="86"/>
-      <c r="R119" s="86"/>
+      <c r="D119" s="76"/>
+      <c r="E119" s="76"/>
+      <c r="F119" s="76"/>
+      <c r="G119" s="76"/>
+      <c r="H119" s="76"/>
+      <c r="I119" s="76"/>
+      <c r="J119" s="76"/>
+      <c r="K119" s="76"/>
+      <c r="L119" s="76"/>
+      <c r="M119" s="76"/>
+      <c r="N119" s="76"/>
+      <c r="O119" s="76"/>
+      <c r="P119" s="76"/>
+      <c r="Q119" s="76"/>
+      <c r="R119" s="76"/>
       <c r="S119" s="51"/>
       <c r="T119" s="51"/>
       <c r="U119" s="54"/>
@@ -5340,11 +5407,11 @@
         <f>C112+1</f>
         <v>12</v>
       </c>
-      <c r="D122" s="81" t="s">
+      <c r="D122" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="E122" s="81"/>
-      <c r="F122" s="81"/>
+      <c r="E122" s="94"/>
+      <c r="F122" s="94"/>
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
@@ -5369,13 +5436,13 @@
         <f>B113+7</f>
         <v>43801</v>
       </c>
-      <c r="C123" s="86" t="s">
+      <c r="C123" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="86"/>
-      <c r="E123" s="86"/>
-      <c r="F123" s="86"/>
-      <c r="G123" s="86"/>
+      <c r="D123" s="76"/>
+      <c r="E123" s="76"/>
+      <c r="F123" s="76"/>
+      <c r="G123" s="76"/>
       <c r="H123" s="78" t="s">
         <v>65</v>
       </c>
@@ -5386,7 +5453,7 @@
       <c r="M123" s="79"/>
       <c r="N123" s="79"/>
       <c r="O123" s="79"/>
-      <c r="P123" s="80"/>
+      <c r="P123" s="115"/>
       <c r="Q123" s="20"/>
       <c r="R123" s="20"/>
       <c r="S123" s="51"/>
@@ -5403,17 +5470,17 @@
         <f t="shared" ref="B124:B129" si="10">B114+7</f>
         <v>43802</v>
       </c>
-      <c r="C124" s="86" t="s">
+      <c r="C124" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D124" s="86"/>
-      <c r="E124" s="86"/>
-      <c r="F124" s="86"/>
-      <c r="G124" s="86"/>
-      <c r="H124" s="86" t="s">
+      <c r="D124" s="76"/>
+      <c r="E124" s="76"/>
+      <c r="F124" s="76"/>
+      <c r="G124" s="76"/>
+      <c r="H124" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="I124" s="86"/>
+      <c r="I124" s="76"/>
       <c r="J124" s="20"/>
       <c r="K124" s="49"/>
       <c r="L124" s="49"/>
@@ -5467,13 +5534,13 @@
         <f t="shared" si="10"/>
         <v>43804</v>
       </c>
-      <c r="C126" s="87" t="s">
+      <c r="C126" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="D126" s="87"/>
-      <c r="E126" s="87"/>
-      <c r="F126" s="87"/>
-      <c r="G126" s="87"/>
+      <c r="D126" s="86"/>
+      <c r="E126" s="86"/>
+      <c r="F126" s="86"/>
+      <c r="G126" s="86"/>
       <c r="H126" s="49"/>
       <c r="I126" s="49"/>
       <c r="J126" s="49"/>
@@ -5555,24 +5622,24 @@
         <f t="shared" si="10"/>
         <v>43807</v>
       </c>
-      <c r="C129" s="86" t="s">
+      <c r="C129" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="D129" s="86"/>
-      <c r="E129" s="86"/>
-      <c r="F129" s="86"/>
-      <c r="G129" s="86"/>
-      <c r="H129" s="86"/>
-      <c r="I129" s="86"/>
-      <c r="J129" s="86"/>
-      <c r="K129" s="86"/>
-      <c r="L129" s="86"/>
-      <c r="M129" s="86"/>
-      <c r="N129" s="86"/>
-      <c r="O129" s="86"/>
-      <c r="P129" s="86"/>
-      <c r="Q129" s="86"/>
-      <c r="R129" s="86"/>
+      <c r="D129" s="76"/>
+      <c r="E129" s="76"/>
+      <c r="F129" s="76"/>
+      <c r="G129" s="76"/>
+      <c r="H129" s="76"/>
+      <c r="I129" s="76"/>
+      <c r="J129" s="76"/>
+      <c r="K129" s="76"/>
+      <c r="L129" s="76"/>
+      <c r="M129" s="76"/>
+      <c r="N129" s="76"/>
+      <c r="O129" s="76"/>
+      <c r="P129" s="76"/>
+      <c r="Q129" s="76"/>
+      <c r="R129" s="76"/>
       <c r="S129" s="51"/>
       <c r="T129" s="51"/>
       <c r="U129" s="54"/>
@@ -5674,13 +5741,13 @@
         <f>B123+7</f>
         <v>43808</v>
       </c>
-      <c r="C133" s="86" t="s">
+      <c r="C133" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D133" s="86"/>
-      <c r="E133" s="86"/>
-      <c r="F133" s="86"/>
-      <c r="G133" s="86"/>
+      <c r="D133" s="76"/>
+      <c r="E133" s="76"/>
+      <c r="F133" s="76"/>
+      <c r="G133" s="76"/>
       <c r="H133" s="49"/>
       <c r="I133" s="49"/>
       <c r="J133" s="49"/>
@@ -5706,13 +5773,13 @@
         <f t="shared" ref="B134:B139" si="11">B124+7</f>
         <v>43809</v>
       </c>
-      <c r="C134" s="86" t="s">
+      <c r="C134" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D134" s="86"/>
-      <c r="E134" s="86"/>
-      <c r="F134" s="86"/>
-      <c r="G134" s="86"/>
+      <c r="D134" s="76"/>
+      <c r="E134" s="76"/>
+      <c r="F134" s="76"/>
+      <c r="G134" s="76"/>
       <c r="H134" s="20"/>
       <c r="I134" s="20"/>
       <c r="J134" s="20"/>
@@ -5768,13 +5835,13 @@
         <f t="shared" si="11"/>
         <v>43811</v>
       </c>
-      <c r="C136" s="86" t="s">
+      <c r="C136" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D136" s="86"/>
-      <c r="E136" s="86"/>
-      <c r="F136" s="86"/>
-      <c r="G136" s="86"/>
+      <c r="D136" s="76"/>
+      <c r="E136" s="76"/>
+      <c r="F136" s="76"/>
+      <c r="G136" s="76"/>
       <c r="H136" s="20"/>
       <c r="I136" s="49"/>
       <c r="J136" s="49"/>
@@ -5856,24 +5923,24 @@
         <f t="shared" si="11"/>
         <v>43814</v>
       </c>
-      <c r="C139" s="86" t="s">
+      <c r="C139" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="D139" s="86"/>
-      <c r="E139" s="86"/>
-      <c r="F139" s="86"/>
-      <c r="G139" s="86"/>
-      <c r="H139" s="86"/>
-      <c r="I139" s="86"/>
-      <c r="J139" s="86"/>
-      <c r="K139" s="86"/>
-      <c r="L139" s="86"/>
-      <c r="M139" s="86"/>
-      <c r="N139" s="86"/>
-      <c r="O139" s="86"/>
-      <c r="P139" s="86"/>
-      <c r="Q139" s="86"/>
-      <c r="R139" s="86"/>
+      <c r="D139" s="76"/>
+      <c r="E139" s="76"/>
+      <c r="F139" s="76"/>
+      <c r="G139" s="76"/>
+      <c r="H139" s="76"/>
+      <c r="I139" s="76"/>
+      <c r="J139" s="76"/>
+      <c r="K139" s="76"/>
+      <c r="L139" s="76"/>
+      <c r="M139" s="76"/>
+      <c r="N139" s="76"/>
+      <c r="O139" s="76"/>
+      <c r="P139" s="76"/>
+      <c r="Q139" s="76"/>
+      <c r="R139" s="76"/>
       <c r="S139" s="51"/>
       <c r="T139" s="51"/>
       <c r="U139" s="54"/>
@@ -5968,19 +6035,19 @@
         <f>C132+1</f>
         <v>14</v>
       </c>
-      <c r="D142" s="81" t="s">
+      <c r="D142" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="E142" s="81"/>
-      <c r="F142" s="81"/>
+      <c r="E142" s="94"/>
+      <c r="F142" s="94"/>
       <c r="G142" s="15"/>
-      <c r="H142" s="81" t="s">
+      <c r="H142" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="I142" s="81"/>
-      <c r="J142" s="81"/>
-      <c r="K142" s="81"/>
-      <c r="L142" s="81"/>
+      <c r="I142" s="94"/>
+      <c r="J142" s="94"/>
+      <c r="K142" s="94"/>
+      <c r="L142" s="94"/>
       <c r="M142" s="19"/>
       <c r="N142" s="19"/>
       <c r="O142" s="19"/>
@@ -5999,11 +6066,11 @@
         <f>B133+7</f>
         <v>43815</v>
       </c>
-      <c r="C143" s="76" t="s">
+      <c r="C143" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="D143" s="76"/>
-      <c r="E143" s="76"/>
+      <c r="D143" s="77"/>
+      <c r="E143" s="77"/>
       <c r="F143" s="20"/>
       <c r="G143" s="20"/>
       <c r="H143" s="20"/>
@@ -6374,24 +6441,24 @@
         <f t="shared" si="13"/>
         <v>43824</v>
       </c>
-      <c r="C155" s="85" t="s">
+      <c r="C155" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="D155" s="85"/>
-      <c r="E155" s="85"/>
-      <c r="F155" s="85"/>
-      <c r="G155" s="85"/>
-      <c r="H155" s="85"/>
-      <c r="I155" s="85"/>
-      <c r="J155" s="85"/>
-      <c r="K155" s="85"/>
-      <c r="L155" s="85"/>
-      <c r="M155" s="85"/>
-      <c r="N155" s="85"/>
-      <c r="O155" s="85"/>
-      <c r="P155" s="85"/>
-      <c r="Q155" s="85"/>
-      <c r="R155" s="85"/>
+      <c r="D155" s="113"/>
+      <c r="E155" s="113"/>
+      <c r="F155" s="113"/>
+      <c r="G155" s="113"/>
+      <c r="H155" s="113"/>
+      <c r="I155" s="113"/>
+      <c r="J155" s="113"/>
+      <c r="K155" s="113"/>
+      <c r="L155" s="113"/>
+      <c r="M155" s="113"/>
+      <c r="N155" s="113"/>
+      <c r="O155" s="113"/>
+      <c r="P155" s="113"/>
+      <c r="Q155" s="113"/>
+      <c r="R155" s="113"/>
       <c r="S155" s="51"/>
       <c r="T155" s="52" t="s">
         <v>20</v>
@@ -6406,22 +6473,22 @@
         <f t="shared" si="13"/>
         <v>43825</v>
       </c>
-      <c r="C156" s="85"/>
-      <c r="D156" s="85"/>
-      <c r="E156" s="85"/>
-      <c r="F156" s="85"/>
-      <c r="G156" s="85"/>
-      <c r="H156" s="85"/>
-      <c r="I156" s="85"/>
-      <c r="J156" s="85"/>
-      <c r="K156" s="85"/>
-      <c r="L156" s="85"/>
-      <c r="M156" s="85"/>
-      <c r="N156" s="85"/>
-      <c r="O156" s="85"/>
-      <c r="P156" s="85"/>
-      <c r="Q156" s="85"/>
-      <c r="R156" s="85"/>
+      <c r="C156" s="113"/>
+      <c r="D156" s="113"/>
+      <c r="E156" s="113"/>
+      <c r="F156" s="113"/>
+      <c r="G156" s="113"/>
+      <c r="H156" s="113"/>
+      <c r="I156" s="113"/>
+      <c r="J156" s="113"/>
+      <c r="K156" s="113"/>
+      <c r="L156" s="113"/>
+      <c r="M156" s="113"/>
+      <c r="N156" s="113"/>
+      <c r="O156" s="113"/>
+      <c r="P156" s="113"/>
+      <c r="Q156" s="113"/>
+      <c r="R156" s="113"/>
       <c r="S156" s="51"/>
       <c r="T156" s="18" t="s">
         <v>21</v>
@@ -6436,22 +6503,22 @@
         <f t="shared" si="13"/>
         <v>43826</v>
       </c>
-      <c r="C157" s="85"/>
-      <c r="D157" s="85"/>
-      <c r="E157" s="85"/>
-      <c r="F157" s="85"/>
-      <c r="G157" s="85"/>
-      <c r="H157" s="85"/>
-      <c r="I157" s="85"/>
-      <c r="J157" s="85"/>
-      <c r="K157" s="85"/>
-      <c r="L157" s="85"/>
-      <c r="M157" s="85"/>
-      <c r="N157" s="85"/>
-      <c r="O157" s="85"/>
-      <c r="P157" s="85"/>
-      <c r="Q157" s="85"/>
-      <c r="R157" s="85"/>
+      <c r="C157" s="113"/>
+      <c r="D157" s="113"/>
+      <c r="E157" s="113"/>
+      <c r="F157" s="113"/>
+      <c r="G157" s="113"/>
+      <c r="H157" s="113"/>
+      <c r="I157" s="113"/>
+      <c r="J157" s="113"/>
+      <c r="K157" s="113"/>
+      <c r="L157" s="113"/>
+      <c r="M157" s="113"/>
+      <c r="N157" s="113"/>
+      <c r="O157" s="113"/>
+      <c r="P157" s="113"/>
+      <c r="Q157" s="113"/>
+      <c r="R157" s="113"/>
       <c r="S157" s="51"/>
       <c r="T157" s="51"/>
       <c r="U157" s="54"/>
@@ -6464,22 +6531,22 @@
         <f t="shared" si="13"/>
         <v>43827</v>
       </c>
-      <c r="C158" s="85"/>
-      <c r="D158" s="85"/>
-      <c r="E158" s="85"/>
-      <c r="F158" s="85"/>
-      <c r="G158" s="85"/>
-      <c r="H158" s="85"/>
-      <c r="I158" s="85"/>
-      <c r="J158" s="85"/>
-      <c r="K158" s="85"/>
-      <c r="L158" s="85"/>
-      <c r="M158" s="85"/>
-      <c r="N158" s="85"/>
-      <c r="O158" s="85"/>
-      <c r="P158" s="85"/>
-      <c r="Q158" s="85"/>
-      <c r="R158" s="85"/>
+      <c r="C158" s="113"/>
+      <c r="D158" s="113"/>
+      <c r="E158" s="113"/>
+      <c r="F158" s="113"/>
+      <c r="G158" s="113"/>
+      <c r="H158" s="113"/>
+      <c r="I158" s="113"/>
+      <c r="J158" s="113"/>
+      <c r="K158" s="113"/>
+      <c r="L158" s="113"/>
+      <c r="M158" s="113"/>
+      <c r="N158" s="113"/>
+      <c r="O158" s="113"/>
+      <c r="P158" s="113"/>
+      <c r="Q158" s="113"/>
+      <c r="R158" s="113"/>
       <c r="S158" s="51"/>
       <c r="T158" s="51"/>
       <c r="U158" s="54"/>
@@ -6492,22 +6559,22 @@
         <f t="shared" si="13"/>
         <v>43828</v>
       </c>
-      <c r="C159" s="85"/>
-      <c r="D159" s="85"/>
-      <c r="E159" s="85"/>
-      <c r="F159" s="85"/>
-      <c r="G159" s="85"/>
-      <c r="H159" s="85"/>
-      <c r="I159" s="85"/>
-      <c r="J159" s="85"/>
-      <c r="K159" s="85"/>
-      <c r="L159" s="85"/>
-      <c r="M159" s="85"/>
-      <c r="N159" s="85"/>
-      <c r="O159" s="85"/>
-      <c r="P159" s="85"/>
-      <c r="Q159" s="85"/>
-      <c r="R159" s="85"/>
+      <c r="C159" s="113"/>
+      <c r="D159" s="113"/>
+      <c r="E159" s="113"/>
+      <c r="F159" s="113"/>
+      <c r="G159" s="113"/>
+      <c r="H159" s="113"/>
+      <c r="I159" s="113"/>
+      <c r="J159" s="113"/>
+      <c r="K159" s="113"/>
+      <c r="L159" s="113"/>
+      <c r="M159" s="113"/>
+      <c r="N159" s="113"/>
+      <c r="O159" s="113"/>
+      <c r="P159" s="113"/>
+      <c r="Q159" s="113"/>
+      <c r="R159" s="113"/>
       <c r="S159" s="51"/>
       <c r="T159" s="51"/>
       <c r="U159" s="54"/>
@@ -6629,24 +6696,24 @@
         <f>B153+7</f>
         <v>43829</v>
       </c>
-      <c r="C163" s="85" t="s">
+      <c r="C163" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="D163" s="85"/>
-      <c r="E163" s="85"/>
-      <c r="F163" s="85"/>
-      <c r="G163" s="85"/>
-      <c r="H163" s="85"/>
-      <c r="I163" s="85"/>
-      <c r="J163" s="85"/>
-      <c r="K163" s="85"/>
-      <c r="L163" s="85"/>
-      <c r="M163" s="85"/>
-      <c r="N163" s="85"/>
-      <c r="O163" s="85"/>
-      <c r="P163" s="85"/>
-      <c r="Q163" s="85"/>
-      <c r="R163" s="85"/>
+      <c r="D163" s="113"/>
+      <c r="E163" s="113"/>
+      <c r="F163" s="113"/>
+      <c r="G163" s="113"/>
+      <c r="H163" s="113"/>
+      <c r="I163" s="113"/>
+      <c r="J163" s="113"/>
+      <c r="K163" s="113"/>
+      <c r="L163" s="113"/>
+      <c r="M163" s="113"/>
+      <c r="N163" s="113"/>
+      <c r="O163" s="113"/>
+      <c r="P163" s="113"/>
+      <c r="Q163" s="113"/>
+      <c r="R163" s="113"/>
       <c r="S163" s="51"/>
       <c r="T163" s="30" t="s">
         <v>22</v>
@@ -6661,22 +6728,22 @@
         <f t="shared" ref="B164:B169" si="14">B154+7</f>
         <v>43830</v>
       </c>
-      <c r="C164" s="85"/>
-      <c r="D164" s="85"/>
-      <c r="E164" s="85"/>
-      <c r="F164" s="85"/>
-      <c r="G164" s="85"/>
-      <c r="H164" s="85"/>
-      <c r="I164" s="85"/>
-      <c r="J164" s="85"/>
-      <c r="K164" s="85"/>
-      <c r="L164" s="85"/>
-      <c r="M164" s="85"/>
-      <c r="N164" s="85"/>
-      <c r="O164" s="85"/>
-      <c r="P164" s="85"/>
-      <c r="Q164" s="85"/>
-      <c r="R164" s="85"/>
+      <c r="C164" s="113"/>
+      <c r="D164" s="113"/>
+      <c r="E164" s="113"/>
+      <c r="F164" s="113"/>
+      <c r="G164" s="113"/>
+      <c r="H164" s="113"/>
+      <c r="I164" s="113"/>
+      <c r="J164" s="113"/>
+      <c r="K164" s="113"/>
+      <c r="L164" s="113"/>
+      <c r="M164" s="113"/>
+      <c r="N164" s="113"/>
+      <c r="O164" s="113"/>
+      <c r="P164" s="113"/>
+      <c r="Q164" s="113"/>
+      <c r="R164" s="113"/>
       <c r="S164" s="51"/>
       <c r="T164" s="53" t="s">
         <v>19</v>
@@ -6691,22 +6758,22 @@
         <f t="shared" si="14"/>
         <v>43831</v>
       </c>
-      <c r="C165" s="85"/>
-      <c r="D165" s="85"/>
-      <c r="E165" s="85"/>
-      <c r="F165" s="85"/>
-      <c r="G165" s="85"/>
-      <c r="H165" s="85"/>
-      <c r="I165" s="85"/>
-      <c r="J165" s="85"/>
-      <c r="K165" s="85"/>
-      <c r="L165" s="85"/>
-      <c r="M165" s="85"/>
-      <c r="N165" s="85"/>
-      <c r="O165" s="85"/>
-      <c r="P165" s="85"/>
-      <c r="Q165" s="85"/>
-      <c r="R165" s="85"/>
+      <c r="C165" s="113"/>
+      <c r="D165" s="113"/>
+      <c r="E165" s="113"/>
+      <c r="F165" s="113"/>
+      <c r="G165" s="113"/>
+      <c r="H165" s="113"/>
+      <c r="I165" s="113"/>
+      <c r="J165" s="113"/>
+      <c r="K165" s="113"/>
+      <c r="L165" s="113"/>
+      <c r="M165" s="113"/>
+      <c r="N165" s="113"/>
+      <c r="O165" s="113"/>
+      <c r="P165" s="113"/>
+      <c r="Q165" s="113"/>
+      <c r="R165" s="113"/>
       <c r="S165" s="51"/>
       <c r="T165" s="52" t="s">
         <v>20</v>
@@ -6723,23 +6790,23 @@
       </c>
       <c r="C166" s="32"/>
       <c r="D166" s="20"/>
-      <c r="E166" s="76" t="s">
+      <c r="E166" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="F166" s="76"/>
-      <c r="G166" s="76"/>
-      <c r="H166" s="76"/>
-      <c r="I166" s="76"/>
-      <c r="J166" s="76"/>
+      <c r="F166" s="77"/>
+      <c r="G166" s="77"/>
+      <c r="H166" s="77"/>
+      <c r="I166" s="77"/>
+      <c r="J166" s="77"/>
       <c r="K166" s="49"/>
-      <c r="L166" s="69" t="s">
+      <c r="L166" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="M166" s="77"/>
-      <c r="N166" s="77"/>
-      <c r="O166" s="77"/>
-      <c r="P166" s="77"/>
-      <c r="Q166" s="70"/>
+      <c r="M166" s="82"/>
+      <c r="N166" s="82"/>
+      <c r="O166" s="82"/>
+      <c r="P166" s="82"/>
+      <c r="Q166" s="83"/>
       <c r="R166" s="20"/>
       <c r="S166" s="51"/>
       <c r="T166" s="18" t="s">
@@ -6757,23 +6824,23 @@
       </c>
       <c r="C167" s="50"/>
       <c r="D167" s="49"/>
-      <c r="E167" s="76" t="s">
+      <c r="E167" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="F167" s="76"/>
-      <c r="G167" s="76"/>
-      <c r="H167" s="76"/>
-      <c r="I167" s="76"/>
-      <c r="J167" s="76"/>
+      <c r="F167" s="77"/>
+      <c r="G167" s="77"/>
+      <c r="H167" s="77"/>
+      <c r="I167" s="77"/>
+      <c r="J167" s="77"/>
       <c r="K167" s="49"/>
-      <c r="L167" s="69" t="s">
+      <c r="L167" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="M167" s="77"/>
-      <c r="N167" s="77"/>
-      <c r="O167" s="77"/>
-      <c r="P167" s="77"/>
-      <c r="Q167" s="70"/>
+      <c r="M167" s="82"/>
+      <c r="N167" s="82"/>
+      <c r="O167" s="82"/>
+      <c r="P167" s="82"/>
+      <c r="Q167" s="83"/>
       <c r="R167" s="49"/>
       <c r="S167" s="51"/>
       <c r="T167" s="51"/>
@@ -6934,23 +7001,23 @@
       </c>
       <c r="C173" s="32"/>
       <c r="D173" s="20"/>
-      <c r="E173" s="76" t="s">
+      <c r="E173" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="F173" s="76"/>
-      <c r="G173" s="76"/>
-      <c r="H173" s="76"/>
-      <c r="I173" s="76"/>
-      <c r="J173" s="76"/>
+      <c r="F173" s="77"/>
+      <c r="G173" s="77"/>
+      <c r="H173" s="77"/>
+      <c r="I173" s="77"/>
+      <c r="J173" s="77"/>
       <c r="K173" s="49"/>
-      <c r="L173" s="69" t="s">
+      <c r="L173" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="M173" s="77"/>
-      <c r="N173" s="77"/>
-      <c r="O173" s="77"/>
-      <c r="P173" s="77"/>
-      <c r="Q173" s="70"/>
+      <c r="M173" s="82"/>
+      <c r="N173" s="82"/>
+      <c r="O173" s="82"/>
+      <c r="P173" s="82"/>
+      <c r="Q173" s="83"/>
       <c r="R173" s="49"/>
       <c r="S173" s="51"/>
       <c r="T173" s="30" t="s">
@@ -6968,23 +7035,23 @@
       </c>
       <c r="C174" s="32"/>
       <c r="D174" s="20"/>
-      <c r="E174" s="76" t="s">
+      <c r="E174" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="F174" s="76"/>
-      <c r="G174" s="76"/>
-      <c r="H174" s="76"/>
-      <c r="I174" s="76"/>
-      <c r="J174" s="76"/>
+      <c r="F174" s="77"/>
+      <c r="G174" s="77"/>
+      <c r="H174" s="77"/>
+      <c r="I174" s="77"/>
+      <c r="J174" s="77"/>
       <c r="K174" s="49"/>
-      <c r="L174" s="69" t="s">
+      <c r="L174" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="M174" s="77"/>
-      <c r="N174" s="77"/>
-      <c r="O174" s="77"/>
-      <c r="P174" s="77"/>
-      <c r="Q174" s="70"/>
+      <c r="M174" s="82"/>
+      <c r="N174" s="82"/>
+      <c r="O174" s="82"/>
+      <c r="P174" s="82"/>
+      <c r="Q174" s="83"/>
       <c r="R174" s="20"/>
       <c r="S174" s="51"/>
       <c r="T174" s="53" t="s">
@@ -7002,23 +7069,23 @@
       </c>
       <c r="C175" s="32"/>
       <c r="D175" s="20"/>
-      <c r="E175" s="76" t="s">
+      <c r="E175" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="F175" s="76"/>
-      <c r="G175" s="76"/>
-      <c r="H175" s="76"/>
-      <c r="I175" s="76"/>
-      <c r="J175" s="76"/>
+      <c r="F175" s="77"/>
+      <c r="G175" s="77"/>
+      <c r="H175" s="77"/>
+      <c r="I175" s="77"/>
+      <c r="J175" s="77"/>
       <c r="K175" s="20"/>
-      <c r="L175" s="69" t="s">
+      <c r="L175" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="M175" s="77"/>
-      <c r="N175" s="77"/>
-      <c r="O175" s="77"/>
-      <c r="P175" s="77"/>
-      <c r="Q175" s="70"/>
+      <c r="M175" s="82"/>
+      <c r="N175" s="82"/>
+      <c r="O175" s="82"/>
+      <c r="P175" s="82"/>
+      <c r="Q175" s="83"/>
       <c r="R175" s="49"/>
       <c r="S175" s="51"/>
       <c r="T175" s="52" t="s">
@@ -7036,23 +7103,23 @@
       </c>
       <c r="C176" s="49"/>
       <c r="D176" s="49"/>
-      <c r="E176" s="76" t="s">
+      <c r="E176" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="F176" s="76"/>
-      <c r="G176" s="76"/>
-      <c r="H176" s="76"/>
-      <c r="I176" s="76"/>
-      <c r="J176" s="76"/>
+      <c r="F176" s="77"/>
+      <c r="G176" s="77"/>
+      <c r="H176" s="77"/>
+      <c r="I176" s="77"/>
+      <c r="J176" s="77"/>
       <c r="K176" s="20"/>
-      <c r="L176" s="69" t="s">
+      <c r="L176" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="M176" s="77"/>
-      <c r="N176" s="77"/>
-      <c r="O176" s="77"/>
-      <c r="P176" s="77"/>
-      <c r="Q176" s="70"/>
+      <c r="M176" s="82"/>
+      <c r="N176" s="82"/>
+      <c r="O176" s="82"/>
+      <c r="P176" s="82"/>
+      <c r="Q176" s="83"/>
       <c r="R176" s="20"/>
       <c r="S176" s="51"/>
       <c r="T176" s="18" t="s">
@@ -7070,23 +7137,23 @@
       </c>
       <c r="C177" s="32"/>
       <c r="D177" s="20"/>
-      <c r="E177" s="76" t="s">
+      <c r="E177" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="F177" s="76"/>
-      <c r="G177" s="76"/>
-      <c r="H177" s="76"/>
-      <c r="I177" s="76"/>
-      <c r="J177" s="76"/>
+      <c r="F177" s="77"/>
+      <c r="G177" s="77"/>
+      <c r="H177" s="77"/>
+      <c r="I177" s="77"/>
+      <c r="J177" s="77"/>
       <c r="K177" s="20"/>
-      <c r="L177" s="69" t="s">
+      <c r="L177" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="M177" s="77"/>
-      <c r="N177" s="77"/>
-      <c r="O177" s="77"/>
-      <c r="P177" s="77"/>
-      <c r="Q177" s="70"/>
+      <c r="M177" s="82"/>
+      <c r="N177" s="82"/>
+      <c r="O177" s="82"/>
+      <c r="P177" s="82"/>
+      <c r="Q177" s="83"/>
       <c r="R177" s="20"/>
       <c r="S177" s="51"/>
       <c r="T177" s="51"/>
@@ -7245,23 +7312,23 @@
       </c>
       <c r="C183" s="32"/>
       <c r="D183" s="20"/>
-      <c r="E183" s="76" t="s">
+      <c r="E183" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="F183" s="76"/>
-      <c r="G183" s="76"/>
-      <c r="H183" s="76"/>
-      <c r="I183" s="76"/>
-      <c r="J183" s="76"/>
+      <c r="F183" s="77"/>
+      <c r="G183" s="77"/>
+      <c r="H183" s="77"/>
+      <c r="I183" s="77"/>
+      <c r="J183" s="77"/>
       <c r="K183" s="49"/>
-      <c r="L183" s="69" t="s">
+      <c r="L183" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="M183" s="77"/>
-      <c r="N183" s="77"/>
-      <c r="O183" s="77"/>
-      <c r="P183" s="77"/>
-      <c r="Q183" s="70"/>
+      <c r="M183" s="82"/>
+      <c r="N183" s="82"/>
+      <c r="O183" s="82"/>
+      <c r="P183" s="82"/>
+      <c r="Q183" s="83"/>
       <c r="R183" s="49"/>
       <c r="S183" s="51"/>
       <c r="T183" s="30" t="s">
@@ -7278,23 +7345,23 @@
       </c>
       <c r="C184" s="32"/>
       <c r="D184" s="20"/>
-      <c r="E184" s="76" t="s">
+      <c r="E184" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="F184" s="76"/>
-      <c r="G184" s="76"/>
-      <c r="H184" s="76"/>
-      <c r="I184" s="76"/>
-      <c r="J184" s="76"/>
+      <c r="F184" s="77"/>
+      <c r="G184" s="77"/>
+      <c r="H184" s="77"/>
+      <c r="I184" s="77"/>
+      <c r="J184" s="77"/>
       <c r="K184" s="49"/>
-      <c r="L184" s="69" t="s">
+      <c r="L184" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="M184" s="77"/>
-      <c r="N184" s="77"/>
-      <c r="O184" s="77"/>
-      <c r="P184" s="77"/>
-      <c r="Q184" s="70"/>
+      <c r="M184" s="82"/>
+      <c r="N184" s="82"/>
+      <c r="O184" s="82"/>
+      <c r="P184" s="82"/>
+      <c r="Q184" s="83"/>
       <c r="R184" s="20"/>
       <c r="S184" s="51"/>
       <c r="T184" s="53" t="s">
@@ -7311,23 +7378,23 @@
       </c>
       <c r="C185" s="32"/>
       <c r="D185" s="20"/>
-      <c r="E185" s="76" t="s">
+      <c r="E185" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="F185" s="76"/>
-      <c r="G185" s="76"/>
-      <c r="H185" s="76"/>
-      <c r="I185" s="76"/>
-      <c r="J185" s="76"/>
+      <c r="F185" s="77"/>
+      <c r="G185" s="77"/>
+      <c r="H185" s="77"/>
+      <c r="I185" s="77"/>
+      <c r="J185" s="77"/>
       <c r="K185" s="20"/>
-      <c r="L185" s="69" t="s">
+      <c r="L185" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="M185" s="77"/>
-      <c r="N185" s="77"/>
-      <c r="O185" s="77"/>
-      <c r="P185" s="77"/>
-      <c r="Q185" s="70"/>
+      <c r="M185" s="82"/>
+      <c r="N185" s="82"/>
+      <c r="O185" s="82"/>
+      <c r="P185" s="82"/>
+      <c r="Q185" s="83"/>
       <c r="R185" s="49"/>
       <c r="S185" s="51"/>
       <c r="T185" s="52" t="s">
@@ -7344,23 +7411,23 @@
       </c>
       <c r="C186" s="49"/>
       <c r="D186" s="49"/>
-      <c r="E186" s="76" t="s">
+      <c r="E186" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="F186" s="76"/>
-      <c r="G186" s="76"/>
-      <c r="H186" s="76"/>
-      <c r="I186" s="76"/>
-      <c r="J186" s="76"/>
+      <c r="F186" s="77"/>
+      <c r="G186" s="77"/>
+      <c r="H186" s="77"/>
+      <c r="I186" s="77"/>
+      <c r="J186" s="77"/>
       <c r="K186" s="20"/>
-      <c r="L186" s="69" t="s">
+      <c r="L186" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="M186" s="77"/>
-      <c r="N186" s="77"/>
-      <c r="O186" s="77"/>
-      <c r="P186" s="77"/>
-      <c r="Q186" s="70"/>
+      <c r="M186" s="82"/>
+      <c r="N186" s="82"/>
+      <c r="O186" s="82"/>
+      <c r="P186" s="82"/>
+      <c r="Q186" s="83"/>
       <c r="R186" s="20"/>
       <c r="S186" s="51"/>
       <c r="T186" s="18" t="s">
@@ -7377,23 +7444,23 @@
       </c>
       <c r="C187" s="32"/>
       <c r="D187" s="20"/>
-      <c r="E187" s="76" t="s">
+      <c r="E187" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="F187" s="76"/>
-      <c r="G187" s="76"/>
-      <c r="H187" s="76"/>
-      <c r="I187" s="76"/>
-      <c r="J187" s="76"/>
+      <c r="F187" s="77"/>
+      <c r="G187" s="77"/>
+      <c r="H187" s="77"/>
+      <c r="I187" s="77"/>
+      <c r="J187" s="77"/>
       <c r="K187" s="20"/>
-      <c r="L187" s="69" t="s">
+      <c r="L187" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="M187" s="77"/>
-      <c r="N187" s="77"/>
-      <c r="O187" s="77"/>
-      <c r="P187" s="77"/>
-      <c r="Q187" s="70"/>
+      <c r="M187" s="82"/>
+      <c r="N187" s="82"/>
+      <c r="O187" s="82"/>
+      <c r="P187" s="82"/>
+      <c r="Q187" s="83"/>
       <c r="R187" s="20"/>
       <c r="S187" s="51"/>
       <c r="T187" s="51"/>
@@ -15823,58 +15890,70 @@
       <c r="T507"/>
     </row>
   </sheetData>
-  <mergeCells count="145">
-    <mergeCell ref="J84:R84"/>
-    <mergeCell ref="E85:M85"/>
-    <mergeCell ref="H93:P93"/>
-    <mergeCell ref="H94:P94"/>
-    <mergeCell ref="H96:L96"/>
-    <mergeCell ref="C119:R119"/>
-    <mergeCell ref="C129:R129"/>
-    <mergeCell ref="C139:R139"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="K116:Q116"/>
-    <mergeCell ref="E115:J115"/>
-    <mergeCell ref="L115:Q115"/>
-    <mergeCell ref="L67:R67"/>
-    <mergeCell ref="L68:R68"/>
-    <mergeCell ref="M72:R72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="C69:R69"/>
-    <mergeCell ref="C79:R79"/>
-    <mergeCell ref="C89:R89"/>
-    <mergeCell ref="C99:R99"/>
-    <mergeCell ref="C109:R109"/>
-    <mergeCell ref="C134:G134"/>
-    <mergeCell ref="C103:G103"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H46:P46"/>
-    <mergeCell ref="H44:N44"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="L75:Q75"/>
-    <mergeCell ref="I53:M53"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C76:R76"/>
-    <mergeCell ref="E78:J78"/>
-    <mergeCell ref="G55:H55"/>
+  <mergeCells count="147">
+    <mergeCell ref="T58:U60"/>
+    <mergeCell ref="E187:J187"/>
+    <mergeCell ref="L187:Q187"/>
+    <mergeCell ref="E117:J117"/>
+    <mergeCell ref="L117:Q117"/>
+    <mergeCell ref="E118:J118"/>
+    <mergeCell ref="L118:Q118"/>
+    <mergeCell ref="H123:P123"/>
+    <mergeCell ref="E184:J184"/>
+    <mergeCell ref="L184:Q184"/>
+    <mergeCell ref="E185:J185"/>
+    <mergeCell ref="L185:Q185"/>
+    <mergeCell ref="E186:J186"/>
+    <mergeCell ref="L186:Q186"/>
+    <mergeCell ref="E176:J176"/>
+    <mergeCell ref="L176:Q176"/>
+    <mergeCell ref="E177:J177"/>
+    <mergeCell ref="L177:Q177"/>
+    <mergeCell ref="E183:J183"/>
+    <mergeCell ref="L183:Q183"/>
+    <mergeCell ref="E173:J173"/>
+    <mergeCell ref="H103:P103"/>
+    <mergeCell ref="H104:P104"/>
+    <mergeCell ref="E175:J175"/>
+    <mergeCell ref="L175:Q175"/>
+    <mergeCell ref="L167:Q167"/>
+    <mergeCell ref="C155:R159"/>
+    <mergeCell ref="C163:R165"/>
+    <mergeCell ref="E166:J166"/>
+    <mergeCell ref="L166:Q166"/>
+    <mergeCell ref="E167:J167"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="L173:Q173"/>
+    <mergeCell ref="E174:J174"/>
+    <mergeCell ref="L174:Q174"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H142:L142"/>
+    <mergeCell ref="C105:M105"/>
+    <mergeCell ref="H106:P106"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="E73:J73"/>
+    <mergeCell ref="L73:Q73"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="H54:P54"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="L74:Q74"/>
+    <mergeCell ref="L77:Q77"/>
+    <mergeCell ref="L78:Q78"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="J58:P58"/>
+    <mergeCell ref="E74:J74"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="H66:Q66"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="H64:N64"/>
     <mergeCell ref="H13:R13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="O14:P14"/>
@@ -15897,78 +15976,68 @@
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="H23:R23"/>
     <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H46:P46"/>
+    <mergeCell ref="H44:N44"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="L75:Q75"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="C76:R76"/>
+    <mergeCell ref="E78:J78"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="E77:J77"/>
+    <mergeCell ref="L67:R67"/>
+    <mergeCell ref="M72:R72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="C69:R69"/>
+    <mergeCell ref="C79:R79"/>
+    <mergeCell ref="C89:R89"/>
+    <mergeCell ref="C99:R99"/>
+    <mergeCell ref="C109:R109"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H83:P83"/>
+    <mergeCell ref="C107:M107"/>
+    <mergeCell ref="J84:R84"/>
+    <mergeCell ref="E85:M85"/>
+    <mergeCell ref="H93:P93"/>
+    <mergeCell ref="H94:P94"/>
+    <mergeCell ref="H96:L96"/>
+    <mergeCell ref="C119:R119"/>
+    <mergeCell ref="C129:R129"/>
+    <mergeCell ref="C139:R139"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="E115:J115"/>
+    <mergeCell ref="L115:Q115"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="C114:G114"/>
     <mergeCell ref="C133:G133"/>
     <mergeCell ref="H124:I124"/>
     <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="E75:J75"/>
-    <mergeCell ref="E77:J77"/>
     <mergeCell ref="H116:J116"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H83:P83"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="E73:J73"/>
-    <mergeCell ref="L73:Q73"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="H54:P54"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="L74:Q74"/>
-    <mergeCell ref="L77:Q77"/>
-    <mergeCell ref="L78:Q78"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="J58:P58"/>
-    <mergeCell ref="E74:J74"/>
-    <mergeCell ref="H56:M56"/>
     <mergeCell ref="D122:F122"/>
     <mergeCell ref="D142:F142"/>
-    <mergeCell ref="H66:Q66"/>
-    <mergeCell ref="E175:J175"/>
-    <mergeCell ref="L175:Q175"/>
-    <mergeCell ref="L167:Q167"/>
-    <mergeCell ref="C155:R159"/>
-    <mergeCell ref="C163:R165"/>
-    <mergeCell ref="E166:J166"/>
-    <mergeCell ref="L166:Q166"/>
-    <mergeCell ref="E167:J167"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="C136:G136"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="C124:G124"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="L173:Q173"/>
-    <mergeCell ref="E174:J174"/>
-    <mergeCell ref="L174:Q174"/>
-    <mergeCell ref="C126:G126"/>
-    <mergeCell ref="H142:L142"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="H64:N64"/>
-    <mergeCell ref="T58:U60"/>
-    <mergeCell ref="E187:J187"/>
-    <mergeCell ref="L187:Q187"/>
-    <mergeCell ref="E117:J117"/>
-    <mergeCell ref="L117:Q117"/>
-    <mergeCell ref="E118:J118"/>
-    <mergeCell ref="L118:Q118"/>
-    <mergeCell ref="H123:P123"/>
-    <mergeCell ref="E184:J184"/>
-    <mergeCell ref="L184:Q184"/>
-    <mergeCell ref="E185:J185"/>
-    <mergeCell ref="L185:Q185"/>
-    <mergeCell ref="E186:J186"/>
-    <mergeCell ref="L186:Q186"/>
-    <mergeCell ref="E176:J176"/>
-    <mergeCell ref="L176:Q176"/>
-    <mergeCell ref="E177:J177"/>
-    <mergeCell ref="L177:Q177"/>
-    <mergeCell ref="E183:J183"/>
-    <mergeCell ref="L183:Q183"/>
-    <mergeCell ref="E173:J173"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -16547,7 +16616,7 @@
         <v>43929</v>
       </c>
       <c r="D36" s="29"/>
-      <c r="F36" s="85" t="s">
+      <c r="F36" s="113" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16565,7 +16634,7 @@
         <v>43936</v>
       </c>
       <c r="D37" s="44"/>
-      <c r="F37" s="85"/>
+      <c r="F37" s="113"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
@@ -16581,7 +16650,7 @@
         <v>43943</v>
       </c>
       <c r="D38" s="29"/>
-      <c r="F38" s="85"/>
+      <c r="F38" s="113"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="23">

--- a/Weekly Planner.xlsx
+++ b/Weekly Planner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SoftwareProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DB77DF-A779-43F0-9365-1D17C7B3A277}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246BF56E-0D70-49FA-85C6-F5773F8E342B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="87">
   <si>
     <t>Monday</t>
   </si>
@@ -301,9 +301,6 @@
   </si>
   <si>
     <t>Software Project - Requirements Specifications</t>
-  </si>
-  <si>
-    <t>DAD - Project</t>
   </si>
 </sst>
 </file>
@@ -899,7 +896,7 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1077,6 +1074,54 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="16" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1084,9 +1129,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1098,91 +1140,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="29" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="16" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="8" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="5" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="11" borderId="4" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1209,13 +1170,67 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="11" borderId="4" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="5" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="29" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1227,31 +1242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="35" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1554,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107:M107"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155:R159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,26 +1929,26 @@
       <c r="B13" s="57">
         <v>43724</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="89" t="s">
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="98"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="105"/>
+      <c r="N13" s="105"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="105"/>
+      <c r="R13" s="92"/>
       <c r="S13" s="51"/>
       <c r="T13" s="30" t="s">
         <v>22</v>
@@ -1970,26 +1961,26 @@
       <c r="B14" s="57">
         <v>43725</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="87" t="s">
+      <c r="J14" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="89" t="s">
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="98"/>
+      <c r="P14" s="92"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="51"/>
@@ -2032,20 +2023,20 @@
       <c r="B16" s="57">
         <v>43727</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="104" t="s">
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
@@ -2250,26 +2241,26 @@
         <f>B13+7</f>
         <v>43731</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="89" t="s">
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="98"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="105"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="105"/>
+      <c r="R23" s="92"/>
       <c r="S23" s="51"/>
       <c r="T23" s="30" t="s">
         <v>22</v>
@@ -2283,30 +2274,30 @@
         <f t="shared" ref="B24:B29" si="0">B14+7</f>
         <v>43732</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="89" t="s">
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="90"/>
-      <c r="J24" s="73" t="s">
+      <c r="I24" s="115"/>
+      <c r="J24" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="K24" s="74"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="73" t="s">
+      <c r="K24" s="89"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="N24" s="75"/>
-      <c r="O24" s="87" t="s">
+      <c r="N24" s="90"/>
+      <c r="O24" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="P24" s="88"/>
+      <c r="P24" s="108"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
       <c r="S24" s="51"/>
@@ -2351,20 +2342,20 @@
         <f t="shared" si="0"/>
         <v>43734</v>
       </c>
-      <c r="C26" s="76" t="s">
+      <c r="C26" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="96" t="s">
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="112"/>
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
@@ -2546,12 +2537,12 @@
         <f>C22+1</f>
         <v>3</v>
       </c>
-      <c r="D32" s="103" t="s">
+      <c r="D32" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
@@ -2574,24 +2565,24 @@
         <f>B23+7</f>
         <v>43738</v>
       </c>
-      <c r="C33" s="76" t="s">
+      <c r="C33" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="96" t="s">
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="112"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="112"/>
+      <c r="N33" s="112"/>
+      <c r="O33" s="112"/>
+      <c r="P33" s="112"/>
       <c r="Q33" s="62"/>
       <c r="R33" s="62"/>
       <c r="S33" s="51"/>
@@ -2607,13 +2598,13 @@
         <f t="shared" ref="B34:B39" si="1">B24+7</f>
         <v>43739</v>
       </c>
-      <c r="C34" s="76" t="s">
+      <c r="C34" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
       <c r="H34" s="62"/>
       <c r="I34" s="62"/>
       <c r="J34" s="62"/>
@@ -2667,13 +2658,13 @@
         <f t="shared" si="1"/>
         <v>43741</v>
       </c>
-      <c r="C36" s="76" t="s">
+      <c r="C36" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="63"/>
@@ -2886,24 +2877,24 @@
         <f>B33+7</f>
         <v>43745</v>
       </c>
-      <c r="C43" s="76" t="s">
+      <c r="C43" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="72" t="s">
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="72"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="72"/>
-      <c r="P43" s="72"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="77"/>
+      <c r="P43" s="77"/>
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
       <c r="S43" s="51"/>
@@ -2919,22 +2910,22 @@
         <f t="shared" ref="B44:B49" si="2">B34+7</f>
         <v>43746</v>
       </c>
-      <c r="C44" s="76" t="s">
+      <c r="C44" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="91" t="s">
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="92"/>
-      <c r="J44" s="92"/>
-      <c r="K44" s="92"/>
-      <c r="L44" s="92"/>
-      <c r="M44" s="92"/>
-      <c r="N44" s="92"/>
+      <c r="I44" s="101"/>
+      <c r="J44" s="101"/>
+      <c r="K44" s="101"/>
+      <c r="L44" s="101"/>
+      <c r="M44" s="101"/>
+      <c r="N44" s="101"/>
       <c r="O44" s="49"/>
       <c r="P44" s="49"/>
       <c r="Q44" s="49"/>
@@ -2957,17 +2948,17 @@
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
-      <c r="H45" s="100" t="s">
+      <c r="H45" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="I45" s="101"/>
-      <c r="J45" s="101"/>
-      <c r="K45" s="101"/>
-      <c r="L45" s="101"/>
-      <c r="M45" s="101"/>
-      <c r="N45" s="101"/>
-      <c r="O45" s="101"/>
-      <c r="P45" s="102"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="110"/>
+      <c r="L45" s="110"/>
+      <c r="M45" s="110"/>
+      <c r="N45" s="110"/>
+      <c r="O45" s="110"/>
+      <c r="P45" s="111"/>
       <c r="Q45" s="49"/>
       <c r="R45" s="49"/>
       <c r="S45" s="51"/>
@@ -2983,24 +2974,24 @@
         <f t="shared" si="2"/>
         <v>43748</v>
       </c>
-      <c r="C46" s="76" t="s">
+      <c r="C46" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="69" t="s">
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="I46" s="70"/>
-      <c r="J46" s="70"/>
-      <c r="K46" s="70"/>
-      <c r="L46" s="70"/>
-      <c r="M46" s="70"/>
-      <c r="N46" s="70"/>
-      <c r="O46" s="70"/>
-      <c r="P46" s="71"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="86"/>
+      <c r="L46" s="86"/>
+      <c r="M46" s="86"/>
+      <c r="N46" s="86"/>
+      <c r="O46" s="86"/>
+      <c r="P46" s="87"/>
       <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
       <c r="S46" s="51"/>
@@ -3179,11 +3170,11 @@
         <v>5</v>
       </c>
       <c r="G52" s="15"/>
-      <c r="H52" s="93" t="s">
+      <c r="H52" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="I52" s="93"/>
-      <c r="J52" s="93"/>
+      <c r="I52" s="117"/>
+      <c r="J52" s="117"/>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
       <c r="M52" s="19"/>
@@ -3203,23 +3194,23 @@
         <f>B43+7</f>
         <v>43752</v>
       </c>
-      <c r="C53" s="76" t="s">
+      <c r="C53" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="76"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="79"/>
       <c r="H53" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="I53" s="73" t="s">
+      <c r="I53" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="74"/>
-      <c r="K53" s="74"/>
-      <c r="L53" s="74"/>
-      <c r="M53" s="74"/>
+      <c r="J53" s="89"/>
+      <c r="K53" s="89"/>
+      <c r="L53" s="89"/>
+      <c r="M53" s="89"/>
       <c r="N53" s="49"/>
       <c r="O53" s="49"/>
       <c r="P53" s="49"/>
@@ -3238,28 +3229,28 @@
         <f t="shared" ref="B54:B59" si="3">B44+7</f>
         <v>43753</v>
       </c>
-      <c r="C54" s="76" t="s">
+      <c r="C54" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="105" t="s">
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="79"/>
+      <c r="H54" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="I54" s="106"/>
-      <c r="J54" s="106"/>
-      <c r="K54" s="106"/>
-      <c r="L54" s="106"/>
-      <c r="M54" s="106"/>
-      <c r="N54" s="106"/>
-      <c r="O54" s="106"/>
-      <c r="P54" s="106"/>
-      <c r="Q54" s="89" t="s">
+      <c r="I54" s="94"/>
+      <c r="J54" s="94"/>
+      <c r="K54" s="94"/>
+      <c r="L54" s="94"/>
+      <c r="M54" s="94"/>
+      <c r="N54" s="94"/>
+      <c r="O54" s="94"/>
+      <c r="P54" s="94"/>
+      <c r="Q54" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="R54" s="98"/>
+      <c r="R54" s="92"/>
       <c r="S54" s="51"/>
       <c r="T54" s="53" t="s">
         <v>19</v>
@@ -3277,18 +3268,18 @@
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
-      <c r="G55" s="76" t="s">
+      <c r="G55" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="H55" s="76"/>
-      <c r="I55" s="95" t="s">
+      <c r="H55" s="79"/>
+      <c r="I55" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="J55" s="74"/>
-      <c r="K55" s="74"/>
-      <c r="L55" s="74"/>
-      <c r="M55" s="74"/>
-      <c r="N55" s="74"/>
+      <c r="J55" s="89"/>
+      <c r="K55" s="89"/>
+      <c r="L55" s="89"/>
+      <c r="M55" s="89"/>
+      <c r="N55" s="89"/>
       <c r="O55" s="49"/>
       <c r="P55" s="49"/>
       <c r="Q55" s="49"/>
@@ -3306,21 +3297,21 @@
         <f t="shared" si="3"/>
         <v>43755</v>
       </c>
-      <c r="C56" s="76" t="s">
+      <c r="C56" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="76"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="76"/>
-      <c r="H56" s="112" t="s">
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="I56" s="92"/>
-      <c r="J56" s="92"/>
-      <c r="K56" s="92"/>
-      <c r="L56" s="92"/>
-      <c r="M56" s="92"/>
+      <c r="I56" s="101"/>
+      <c r="J56" s="101"/>
+      <c r="K56" s="101"/>
+      <c r="L56" s="101"/>
+      <c r="M56" s="101"/>
       <c r="N56" s="49"/>
       <c r="O56" s="49"/>
       <c r="P56" s="49"/>
@@ -3352,11 +3343,11 @@
       <c r="M57" s="49"/>
       <c r="N57" s="49"/>
       <c r="O57" s="49"/>
-      <c r="P57" s="69" t="s">
+      <c r="P57" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="Q57" s="70"/>
-      <c r="R57" s="71"/>
+      <c r="Q57" s="86"/>
+      <c r="R57" s="87"/>
       <c r="S57" s="51"/>
       <c r="T57" s="51"/>
     </row>
@@ -3370,31 +3361,31 @@
       </c>
       <c r="C58" s="50"/>
       <c r="D58" s="49"/>
-      <c r="E58" s="110" t="s">
+      <c r="E58" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="F58" s="70"/>
-      <c r="G58" s="111"/>
-      <c r="H58" s="76" t="s">
+      <c r="F58" s="86"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="I58" s="76"/>
-      <c r="J58" s="73" t="s">
+      <c r="I58" s="79"/>
+      <c r="J58" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="K58" s="74"/>
-      <c r="L58" s="74"/>
-      <c r="M58" s="74"/>
-      <c r="N58" s="74"/>
-      <c r="O58" s="74"/>
-      <c r="P58" s="75"/>
+      <c r="K58" s="89"/>
+      <c r="L58" s="89"/>
+      <c r="M58" s="89"/>
+      <c r="N58" s="89"/>
+      <c r="O58" s="89"/>
+      <c r="P58" s="90"/>
       <c r="Q58" s="20"/>
       <c r="R58" s="20"/>
       <c r="S58" s="51"/>
-      <c r="T58" s="114" t="s">
+      <c r="T58" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="U58" s="114"/>
+      <c r="U58" s="69"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -3421,8 +3412,8 @@
       <c r="Q59" s="20"/>
       <c r="R59" s="20"/>
       <c r="S59" s="51"/>
-      <c r="T59" s="114"/>
-      <c r="U59" s="114"/>
+      <c r="T59" s="69"/>
+      <c r="U59" s="69"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B60"/>
@@ -3443,8 +3434,8 @@
       <c r="Q60"/>
       <c r="R60"/>
       <c r="S60"/>
-      <c r="T60" s="114"/>
-      <c r="U60" s="114"/>
+      <c r="T60" s="69"/>
+      <c r="U60" s="69"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
@@ -3518,11 +3509,11 @@
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
-      <c r="H62" s="93" t="s">
+      <c r="H62" s="117" t="s">
         <v>73</v>
       </c>
-      <c r="I62" s="93"/>
-      <c r="J62" s="93"/>
+      <c r="I62" s="117"/>
+      <c r="J62" s="117"/>
       <c r="K62" s="19"/>
       <c r="L62" s="19"/>
       <c r="M62" s="19"/>
@@ -3542,22 +3533,22 @@
         <f>B53+7</f>
         <v>43759</v>
       </c>
-      <c r="C63" s="76" t="s">
+      <c r="C63" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="76"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="76"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="79"/>
       <c r="H63" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="I63" s="73" t="s">
+      <c r="I63" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="J63" s="74"/>
-      <c r="K63" s="74"/>
-      <c r="L63" s="74"/>
+      <c r="J63" s="89"/>
+      <c r="K63" s="89"/>
+      <c r="L63" s="89"/>
       <c r="M63" s="49"/>
       <c r="N63" s="49"/>
       <c r="O63" s="49"/>
@@ -3577,22 +3568,22 @@
         <f t="shared" ref="B64:B69" si="4">B54+7</f>
         <v>43760</v>
       </c>
-      <c r="C64" s="76" t="s">
+      <c r="C64" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="76"/>
-      <c r="H64" s="110" t="s">
+      <c r="D64" s="79"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="79"/>
+      <c r="H64" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="I64" s="70"/>
-      <c r="J64" s="70"/>
-      <c r="K64" s="70"/>
-      <c r="L64" s="70"/>
-      <c r="M64" s="70"/>
-      <c r="N64" s="70"/>
+      <c r="I64" s="86"/>
+      <c r="J64" s="86"/>
+      <c r="K64" s="86"/>
+      <c r="L64" s="86"/>
+      <c r="M64" s="86"/>
+      <c r="N64" s="86"/>
       <c r="O64" s="49"/>
       <c r="P64" s="49"/>
       <c r="Q64" s="49"/>
@@ -3641,25 +3632,25 @@
         <f t="shared" si="4"/>
         <v>43762</v>
       </c>
-      <c r="C66" s="76" t="s">
+      <c r="C66" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="122" t="s">
+      <c r="D66" s="79"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="79"/>
+      <c r="H66" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="I66" s="123"/>
-      <c r="J66" s="123"/>
-      <c r="K66" s="123"/>
-      <c r="L66" s="123"/>
-      <c r="M66" s="123"/>
-      <c r="N66" s="123"/>
-      <c r="O66" s="123"/>
-      <c r="P66" s="123"/>
-      <c r="Q66" s="124"/>
+      <c r="I66" s="103"/>
+      <c r="J66" s="103"/>
+      <c r="K66" s="103"/>
+      <c r="L66" s="103"/>
+      <c r="M66" s="103"/>
+      <c r="N66" s="103"/>
+      <c r="O66" s="103"/>
+      <c r="P66" s="103"/>
+      <c r="Q66" s="104"/>
       <c r="R66" s="20"/>
       <c r="S66" s="51"/>
       <c r="T66" s="18" t="s">
@@ -3674,26 +3665,26 @@
         <f t="shared" si="4"/>
         <v>43763</v>
       </c>
-      <c r="C67" s="73" t="s">
+      <c r="C67" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="74"/>
-      <c r="H67" s="74"/>
-      <c r="I67" s="74"/>
-      <c r="J67" s="75"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="89"/>
+      <c r="H67" s="89"/>
+      <c r="I67" s="89"/>
+      <c r="J67" s="90"/>
       <c r="K67" s="49"/>
-      <c r="L67" s="74" t="s">
+      <c r="L67" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="M67" s="74"/>
-      <c r="N67" s="74"/>
-      <c r="O67" s="74"/>
-      <c r="P67" s="74"/>
-      <c r="Q67" s="74"/>
-      <c r="R67" s="75"/>
+      <c r="M67" s="89"/>
+      <c r="N67" s="89"/>
+      <c r="O67" s="89"/>
+      <c r="P67" s="89"/>
+      <c r="Q67" s="89"/>
+      <c r="R67" s="90"/>
       <c r="S67" s="51"/>
       <c r="T67" s="51"/>
     </row>
@@ -3732,24 +3723,24 @@
         <f t="shared" si="4"/>
         <v>43765</v>
       </c>
-      <c r="C69" s="76" t="s">
+      <c r="C69" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="D69" s="76"/>
-      <c r="E69" s="76"/>
-      <c r="F69" s="76"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="76"/>
-      <c r="I69" s="76"/>
-      <c r="J69" s="76"/>
-      <c r="K69" s="76"/>
-      <c r="L69" s="76"/>
-      <c r="M69" s="76"/>
-      <c r="N69" s="76"/>
-      <c r="O69" s="76"/>
-      <c r="P69" s="76"/>
-      <c r="Q69" s="76"/>
-      <c r="R69" s="76"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="79"/>
+      <c r="H69" s="79"/>
+      <c r="I69" s="79"/>
+      <c r="J69" s="79"/>
+      <c r="K69" s="79"/>
+      <c r="L69" s="79"/>
+      <c r="M69" s="79"/>
+      <c r="N69" s="79"/>
+      <c r="O69" s="79"/>
+      <c r="P69" s="79"/>
+      <c r="Q69" s="79"/>
+      <c r="R69" s="79"/>
       <c r="S69" s="51"/>
       <c r="T69" s="51"/>
     </row>
@@ -3842,27 +3833,27 @@
         <f>C62+1</f>
         <v>7</v>
       </c>
-      <c r="D72" s="94" t="s">
+      <c r="D72" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="94"/>
-      <c r="F72" s="94"/>
+      <c r="E72" s="80"/>
+      <c r="F72" s="80"/>
       <c r="G72" s="15"/>
-      <c r="H72" s="85" t="s">
+      <c r="H72" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="I72" s="85"/>
-      <c r="J72" s="85"/>
-      <c r="K72" s="85"/>
+      <c r="I72" s="120"/>
+      <c r="J72" s="120"/>
+      <c r="K72" s="120"/>
       <c r="L72" s="19"/>
-      <c r="M72" s="84" t="s">
+      <c r="M72" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="N72" s="84"/>
-      <c r="O72" s="84"/>
-      <c r="P72" s="84"/>
-      <c r="Q72" s="84"/>
-      <c r="R72" s="84"/>
+      <c r="N72" s="119"/>
+      <c r="O72" s="119"/>
+      <c r="P72" s="119"/>
+      <c r="Q72" s="119"/>
+      <c r="R72" s="119"/>
       <c r="S72" s="51"/>
       <c r="T72" s="51"/>
     </row>
@@ -3876,23 +3867,23 @@
       </c>
       <c r="C73" s="32"/>
       <c r="D73" s="20"/>
-      <c r="E73" s="72" t="s">
+      <c r="E73" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="F73" s="72"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="72"/>
-      <c r="J73" s="72"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="77"/>
+      <c r="H73" s="77"/>
+      <c r="I73" s="77"/>
+      <c r="J73" s="77"/>
       <c r="K73" s="49"/>
-      <c r="L73" s="73" t="s">
+      <c r="L73" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="M73" s="74"/>
-      <c r="N73" s="74"/>
-      <c r="O73" s="74"/>
-      <c r="P73" s="74"/>
-      <c r="Q73" s="75"/>
+      <c r="M73" s="89"/>
+      <c r="N73" s="89"/>
+      <c r="O73" s="89"/>
+      <c r="P73" s="89"/>
+      <c r="Q73" s="90"/>
       <c r="R73" s="49"/>
       <c r="S73" s="51"/>
       <c r="T73" s="30" t="s">
@@ -3907,27 +3898,27 @@
         <f t="shared" ref="B74:B79" si="5">B64+7</f>
         <v>43767</v>
       </c>
-      <c r="C74" s="73" t="s">
+      <c r="C74" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="D74" s="75"/>
-      <c r="E74" s="72" t="s">
+      <c r="D74" s="90"/>
+      <c r="E74" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="F74" s="72"/>
-      <c r="G74" s="72"/>
-      <c r="H74" s="72"/>
-      <c r="I74" s="72"/>
-      <c r="J74" s="72"/>
+      <c r="F74" s="77"/>
+      <c r="G74" s="77"/>
+      <c r="H74" s="77"/>
+      <c r="I74" s="77"/>
+      <c r="J74" s="77"/>
       <c r="K74" s="49"/>
-      <c r="L74" s="73" t="s">
+      <c r="L74" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="M74" s="74"/>
-      <c r="N74" s="74"/>
-      <c r="O74" s="74"/>
-      <c r="P74" s="74"/>
-      <c r="Q74" s="75"/>
+      <c r="M74" s="89"/>
+      <c r="N74" s="89"/>
+      <c r="O74" s="89"/>
+      <c r="P74" s="89"/>
+      <c r="Q74" s="90"/>
       <c r="R74" s="20"/>
       <c r="S74" s="51"/>
       <c r="T74" s="53" t="s">
@@ -3944,23 +3935,23 @@
       </c>
       <c r="C75" s="32"/>
       <c r="D75" s="20"/>
-      <c r="E75" s="72" t="s">
+      <c r="E75" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="F75" s="72"/>
-      <c r="G75" s="72"/>
-      <c r="H75" s="72"/>
-      <c r="I75" s="72"/>
-      <c r="J75" s="72"/>
+      <c r="F75" s="77"/>
+      <c r="G75" s="77"/>
+      <c r="H75" s="77"/>
+      <c r="I75" s="77"/>
+      <c r="J75" s="77"/>
       <c r="K75" s="49"/>
-      <c r="L75" s="73" t="s">
+      <c r="L75" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="M75" s="74"/>
-      <c r="N75" s="74"/>
-      <c r="O75" s="74"/>
-      <c r="P75" s="74"/>
-      <c r="Q75" s="75"/>
+      <c r="M75" s="89"/>
+      <c r="N75" s="89"/>
+      <c r="O75" s="89"/>
+      <c r="P75" s="89"/>
+      <c r="Q75" s="90"/>
       <c r="R75" s="49"/>
       <c r="S75" s="51"/>
       <c r="T75" s="52" t="s">
@@ -3975,24 +3966,24 @@
         <f t="shared" si="5"/>
         <v>43769</v>
       </c>
-      <c r="C76" s="76" t="s">
+      <c r="C76" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="D76" s="76"/>
-      <c r="E76" s="76"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="76"/>
-      <c r="H76" s="76"/>
-      <c r="I76" s="76"/>
-      <c r="J76" s="76"/>
-      <c r="K76" s="76"/>
-      <c r="L76" s="76"/>
-      <c r="M76" s="76"/>
-      <c r="N76" s="76"/>
-      <c r="O76" s="76"/>
-      <c r="P76" s="76"/>
-      <c r="Q76" s="76"/>
-      <c r="R76" s="76"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="79"/>
+      <c r="H76" s="79"/>
+      <c r="I76" s="79"/>
+      <c r="J76" s="79"/>
+      <c r="K76" s="79"/>
+      <c r="L76" s="79"/>
+      <c r="M76" s="79"/>
+      <c r="N76" s="79"/>
+      <c r="O76" s="79"/>
+      <c r="P76" s="79"/>
+      <c r="Q76" s="79"/>
+      <c r="R76" s="79"/>
       <c r="S76" s="51"/>
       <c r="T76" s="18" t="s">
         <v>21</v>
@@ -4008,23 +3999,23 @@
       </c>
       <c r="C77" s="32"/>
       <c r="D77" s="20"/>
-      <c r="E77" s="96" t="s">
+      <c r="E77" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="F77" s="96"/>
-      <c r="G77" s="96"/>
-      <c r="H77" s="96"/>
-      <c r="I77" s="96"/>
-      <c r="J77" s="96"/>
+      <c r="F77" s="112"/>
+      <c r="G77" s="112"/>
+      <c r="H77" s="112"/>
+      <c r="I77" s="112"/>
+      <c r="J77" s="112"/>
       <c r="K77" s="49"/>
-      <c r="L77" s="107" t="s">
+      <c r="L77" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="M77" s="108"/>
-      <c r="N77" s="108"/>
-      <c r="O77" s="108"/>
-      <c r="P77" s="108"/>
-      <c r="Q77" s="109"/>
+      <c r="M77" s="96"/>
+      <c r="N77" s="96"/>
+      <c r="O77" s="96"/>
+      <c r="P77" s="96"/>
+      <c r="Q77" s="97"/>
       <c r="R77" s="20"/>
       <c r="S77" s="51"/>
       <c r="T77" s="51"/>
@@ -4039,23 +4030,23 @@
       </c>
       <c r="C78" s="50"/>
       <c r="D78" s="49"/>
-      <c r="E78" s="96" t="s">
+      <c r="E78" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="F78" s="96"/>
-      <c r="G78" s="96"/>
-      <c r="H78" s="96"/>
-      <c r="I78" s="96"/>
-      <c r="J78" s="96"/>
+      <c r="F78" s="112"/>
+      <c r="G78" s="112"/>
+      <c r="H78" s="112"/>
+      <c r="I78" s="112"/>
+      <c r="J78" s="112"/>
       <c r="K78" s="49"/>
-      <c r="L78" s="107" t="s">
+      <c r="L78" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="M78" s="108"/>
-      <c r="N78" s="108"/>
-      <c r="O78" s="108"/>
-      <c r="P78" s="108"/>
-      <c r="Q78" s="109"/>
+      <c r="M78" s="96"/>
+      <c r="N78" s="96"/>
+      <c r="O78" s="96"/>
+      <c r="P78" s="96"/>
+      <c r="Q78" s="97"/>
       <c r="R78" s="49"/>
       <c r="S78" s="51"/>
       <c r="T78" s="51"/>
@@ -4068,24 +4059,24 @@
         <f t="shared" si="5"/>
         <v>43772</v>
       </c>
-      <c r="C79" s="76" t="s">
+      <c r="C79" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="D79" s="76"/>
-      <c r="E79" s="76"/>
-      <c r="F79" s="76"/>
-      <c r="G79" s="76"/>
-      <c r="H79" s="76"/>
-      <c r="I79" s="76"/>
-      <c r="J79" s="76"/>
-      <c r="K79" s="76"/>
-      <c r="L79" s="76"/>
-      <c r="M79" s="76"/>
-      <c r="N79" s="76"/>
-      <c r="O79" s="76"/>
-      <c r="P79" s="76"/>
-      <c r="Q79" s="76"/>
-      <c r="R79" s="76"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="79"/>
+      <c r="F79" s="79"/>
+      <c r="G79" s="79"/>
+      <c r="H79" s="79"/>
+      <c r="I79" s="79"/>
+      <c r="J79" s="79"/>
+      <c r="K79" s="79"/>
+      <c r="L79" s="79"/>
+      <c r="M79" s="79"/>
+      <c r="N79" s="79"/>
+      <c r="O79" s="79"/>
+      <c r="P79" s="79"/>
+      <c r="Q79" s="79"/>
+      <c r="R79" s="79"/>
       <c r="S79" s="51"/>
       <c r="T79" s="51"/>
     </row>
@@ -4159,11 +4150,11 @@
         <f>C72+1</f>
         <v>8</v>
       </c>
-      <c r="D82" s="94" t="s">
+      <c r="D82" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="94"/>
-      <c r="F82" s="94"/>
+      <c r="E82" s="80"/>
+      <c r="F82" s="80"/>
       <c r="G82" s="15"/>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -4188,24 +4179,24 @@
         <f>B73+7</f>
         <v>43773</v>
       </c>
-      <c r="C83" s="76" t="s">
+      <c r="C83" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="76"/>
-      <c r="E83" s="76"/>
-      <c r="F83" s="76"/>
-      <c r="G83" s="76"/>
-      <c r="H83" s="69" t="s">
+      <c r="D83" s="79"/>
+      <c r="E83" s="79"/>
+      <c r="F83" s="79"/>
+      <c r="G83" s="79"/>
+      <c r="H83" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="I83" s="70"/>
-      <c r="J83" s="70"/>
-      <c r="K83" s="70"/>
-      <c r="L83" s="70"/>
-      <c r="M83" s="70"/>
-      <c r="N83" s="70"/>
-      <c r="O83" s="70"/>
-      <c r="P83" s="71"/>
+      <c r="I83" s="86"/>
+      <c r="J83" s="86"/>
+      <c r="K83" s="86"/>
+      <c r="L83" s="86"/>
+      <c r="M83" s="86"/>
+      <c r="N83" s="86"/>
+      <c r="O83" s="86"/>
+      <c r="P83" s="87"/>
       <c r="Q83" s="20"/>
       <c r="R83" s="20"/>
       <c r="S83" s="51"/>
@@ -4222,28 +4213,28 @@
         <f t="shared" ref="B84:B89" si="6">B74+7</f>
         <v>43774</v>
       </c>
-      <c r="C84" s="76" t="s">
+      <c r="C84" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="76"/>
-      <c r="E84" s="76"/>
-      <c r="F84" s="76"/>
-      <c r="G84" s="76"/>
-      <c r="H84" s="76" t="s">
+      <c r="D84" s="79"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="79"/>
+      <c r="G84" s="79"/>
+      <c r="H84" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="I84" s="76"/>
-      <c r="J84" s="69" t="s">
+      <c r="I84" s="79"/>
+      <c r="J84" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="K84" s="70"/>
-      <c r="L84" s="70"/>
-      <c r="M84" s="70"/>
-      <c r="N84" s="70"/>
-      <c r="O84" s="70"/>
-      <c r="P84" s="70"/>
-      <c r="Q84" s="70"/>
-      <c r="R84" s="71"/>
+      <c r="K84" s="86"/>
+      <c r="L84" s="86"/>
+      <c r="M84" s="86"/>
+      <c r="N84" s="86"/>
+      <c r="O84" s="86"/>
+      <c r="P84" s="86"/>
+      <c r="Q84" s="86"/>
+      <c r="R84" s="87"/>
       <c r="S84" s="51"/>
       <c r="T84" s="53" t="s">
         <v>19</v>
@@ -4260,17 +4251,17 @@
       </c>
       <c r="C85" s="32"/>
       <c r="D85" s="20"/>
-      <c r="E85" s="69" t="s">
+      <c r="E85" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="F85" s="70"/>
-      <c r="G85" s="70"/>
-      <c r="H85" s="70"/>
-      <c r="I85" s="70"/>
-      <c r="J85" s="70"/>
-      <c r="K85" s="70"/>
-      <c r="L85" s="70"/>
-      <c r="M85" s="71"/>
+      <c r="F85" s="86"/>
+      <c r="G85" s="86"/>
+      <c r="H85" s="86"/>
+      <c r="I85" s="86"/>
+      <c r="J85" s="86"/>
+      <c r="K85" s="86"/>
+      <c r="L85" s="86"/>
+      <c r="M85" s="87"/>
       <c r="N85" s="49"/>
       <c r="O85" s="49"/>
       <c r="P85" s="49"/>
@@ -4290,13 +4281,13 @@
         <f t="shared" si="6"/>
         <v>43776</v>
       </c>
-      <c r="C86" s="86" t="s">
+      <c r="C86" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="D86" s="86"/>
-      <c r="E86" s="86"/>
-      <c r="F86" s="86"/>
-      <c r="G86" s="86"/>
+      <c r="D86" s="81"/>
+      <c r="E86" s="81"/>
+      <c r="F86" s="81"/>
+      <c r="G86" s="81"/>
       <c r="H86" s="49"/>
       <c r="I86" s="49"/>
       <c r="J86" s="49"/>
@@ -4378,24 +4369,24 @@
         <f t="shared" si="6"/>
         <v>43779</v>
       </c>
-      <c r="C89" s="76" t="s">
+      <c r="C89" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="D89" s="76"/>
-      <c r="E89" s="76"/>
-      <c r="F89" s="76"/>
-      <c r="G89" s="76"/>
-      <c r="H89" s="76"/>
-      <c r="I89" s="76"/>
-      <c r="J89" s="76"/>
-      <c r="K89" s="76"/>
-      <c r="L89" s="76"/>
-      <c r="M89" s="76"/>
-      <c r="N89" s="76"/>
-      <c r="O89" s="76"/>
-      <c r="P89" s="76"/>
-      <c r="Q89" s="76"/>
-      <c r="R89" s="76"/>
+      <c r="D89" s="79"/>
+      <c r="E89" s="79"/>
+      <c r="F89" s="79"/>
+      <c r="G89" s="79"/>
+      <c r="H89" s="79"/>
+      <c r="I89" s="79"/>
+      <c r="J89" s="79"/>
+      <c r="K89" s="79"/>
+      <c r="L89" s="79"/>
+      <c r="M89" s="79"/>
+      <c r="N89" s="79"/>
+      <c r="O89" s="79"/>
+      <c r="P89" s="79"/>
+      <c r="Q89" s="79"/>
+      <c r="R89" s="79"/>
       <c r="S89" s="51"/>
       <c r="T89" s="51"/>
       <c r="U89" s="54"/>
@@ -4497,24 +4488,24 @@
         <f>B83+7</f>
         <v>43780</v>
       </c>
-      <c r="C93" s="76" t="s">
+      <c r="C93" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="76"/>
-      <c r="E93" s="76"/>
-      <c r="F93" s="76"/>
-      <c r="G93" s="76"/>
-      <c r="H93" s="72" t="s">
+      <c r="D93" s="79"/>
+      <c r="E93" s="79"/>
+      <c r="F93" s="79"/>
+      <c r="G93" s="79"/>
+      <c r="H93" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="I93" s="72"/>
-      <c r="J93" s="72"/>
-      <c r="K93" s="72"/>
-      <c r="L93" s="72"/>
-      <c r="M93" s="72"/>
-      <c r="N93" s="72"/>
-      <c r="O93" s="72"/>
-      <c r="P93" s="72"/>
+      <c r="I93" s="77"/>
+      <c r="J93" s="77"/>
+      <c r="K93" s="77"/>
+      <c r="L93" s="77"/>
+      <c r="M93" s="77"/>
+      <c r="N93" s="77"/>
+      <c r="O93" s="77"/>
+      <c r="P93" s="77"/>
       <c r="Q93" s="20"/>
       <c r="R93" s="20"/>
       <c r="S93" s="51"/>
@@ -4531,24 +4522,24 @@
         <f t="shared" ref="B94:B99" si="7">B84+7</f>
         <v>43781</v>
       </c>
-      <c r="C94" s="76" t="s">
+      <c r="C94" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="76"/>
-      <c r="E94" s="76"/>
-      <c r="F94" s="76"/>
-      <c r="G94" s="76"/>
-      <c r="H94" s="72" t="s">
+      <c r="D94" s="79"/>
+      <c r="E94" s="79"/>
+      <c r="F94" s="79"/>
+      <c r="G94" s="79"/>
+      <c r="H94" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="I94" s="72"/>
-      <c r="J94" s="72"/>
-      <c r="K94" s="72"/>
-      <c r="L94" s="72"/>
-      <c r="M94" s="72"/>
-      <c r="N94" s="72"/>
-      <c r="O94" s="72"/>
-      <c r="P94" s="72"/>
+      <c r="I94" s="77"/>
+      <c r="J94" s="77"/>
+      <c r="K94" s="77"/>
+      <c r="L94" s="77"/>
+      <c r="M94" s="77"/>
+      <c r="N94" s="77"/>
+      <c r="O94" s="77"/>
+      <c r="P94" s="77"/>
       <c r="Q94" s="20"/>
       <c r="R94" s="20"/>
       <c r="S94" s="51"/>
@@ -4595,20 +4586,20 @@
         <f t="shared" si="7"/>
         <v>43783</v>
       </c>
-      <c r="C96" s="76" t="s">
+      <c r="C96" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D96" s="76"/>
-      <c r="E96" s="76"/>
-      <c r="F96" s="76"/>
-      <c r="G96" s="76"/>
-      <c r="H96" s="73" t="s">
+      <c r="D96" s="79"/>
+      <c r="E96" s="79"/>
+      <c r="F96" s="79"/>
+      <c r="G96" s="79"/>
+      <c r="H96" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="I96" s="74"/>
-      <c r="J96" s="74"/>
-      <c r="K96" s="74"/>
-      <c r="L96" s="75"/>
+      <c r="I96" s="89"/>
+      <c r="J96" s="89"/>
+      <c r="K96" s="89"/>
+      <c r="L96" s="90"/>
       <c r="M96" s="20"/>
       <c r="N96" s="20"/>
       <c r="O96" s="20"/>
@@ -4685,24 +4676,24 @@
         <f t="shared" si="7"/>
         <v>43786</v>
       </c>
-      <c r="C99" s="76" t="s">
+      <c r="C99" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="D99" s="76"/>
-      <c r="E99" s="76"/>
-      <c r="F99" s="76"/>
-      <c r="G99" s="76"/>
-      <c r="H99" s="76"/>
-      <c r="I99" s="76"/>
-      <c r="J99" s="76"/>
-      <c r="K99" s="76"/>
-      <c r="L99" s="76"/>
-      <c r="M99" s="76"/>
-      <c r="N99" s="76"/>
-      <c r="O99" s="76"/>
-      <c r="P99" s="76"/>
-      <c r="Q99" s="76"/>
-      <c r="R99" s="76"/>
+      <c r="D99" s="79"/>
+      <c r="E99" s="79"/>
+      <c r="F99" s="79"/>
+      <c r="G99" s="79"/>
+      <c r="H99" s="79"/>
+      <c r="I99" s="79"/>
+      <c r="J99" s="79"/>
+      <c r="K99" s="79"/>
+      <c r="L99" s="79"/>
+      <c r="M99" s="79"/>
+      <c r="N99" s="79"/>
+      <c r="O99" s="79"/>
+      <c r="P99" s="79"/>
+      <c r="Q99" s="79"/>
+      <c r="R99" s="79"/>
       <c r="S99" s="51"/>
       <c r="T99" s="51"/>
       <c r="U99" s="54"/>
@@ -4804,24 +4795,24 @@
         <f>B93+7</f>
         <v>43787</v>
       </c>
-      <c r="C103" s="76" t="s">
+      <c r="C103" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="76"/>
-      <c r="E103" s="76"/>
-      <c r="F103" s="76"/>
-      <c r="G103" s="76"/>
-      <c r="H103" s="72" t="s">
+      <c r="D103" s="79"/>
+      <c r="E103" s="79"/>
+      <c r="F103" s="79"/>
+      <c r="G103" s="79"/>
+      <c r="H103" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="I103" s="72"/>
-      <c r="J103" s="72"/>
-      <c r="K103" s="72"/>
-      <c r="L103" s="72"/>
-      <c r="M103" s="72"/>
-      <c r="N103" s="72"/>
-      <c r="O103" s="72"/>
-      <c r="P103" s="72"/>
+      <c r="I103" s="77"/>
+      <c r="J103" s="77"/>
+      <c r="K103" s="77"/>
+      <c r="L103" s="77"/>
+      <c r="M103" s="77"/>
+      <c r="N103" s="77"/>
+      <c r="O103" s="77"/>
+      <c r="P103" s="77"/>
       <c r="Q103" s="20"/>
       <c r="R103" s="20"/>
       <c r="S103" s="51"/>
@@ -4838,24 +4829,24 @@
         <f t="shared" ref="B104:B109" si="8">B94+7</f>
         <v>43788</v>
       </c>
-      <c r="C104" s="76" t="s">
+      <c r="C104" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D104" s="76"/>
-      <c r="E104" s="76"/>
-      <c r="F104" s="76"/>
-      <c r="G104" s="76"/>
-      <c r="H104" s="72" t="s">
+      <c r="D104" s="79"/>
+      <c r="E104" s="79"/>
+      <c r="F104" s="79"/>
+      <c r="G104" s="79"/>
+      <c r="H104" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="I104" s="72"/>
-      <c r="J104" s="72"/>
-      <c r="K104" s="72"/>
-      <c r="L104" s="72"/>
-      <c r="M104" s="72"/>
-      <c r="N104" s="72"/>
-      <c r="O104" s="72"/>
-      <c r="P104" s="72"/>
+      <c r="I104" s="77"/>
+      <c r="J104" s="77"/>
+      <c r="K104" s="77"/>
+      <c r="L104" s="77"/>
+      <c r="M104" s="77"/>
+      <c r="N104" s="77"/>
+      <c r="O104" s="77"/>
+      <c r="P104" s="77"/>
       <c r="Q104" s="20"/>
       <c r="R104" s="20"/>
       <c r="S104" s="51"/>
@@ -4864,7 +4855,7 @@
       </c>
       <c r="U104" s="54"/>
     </row>
-    <row r="105" spans="1:21" s="27" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" s="27" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>2</v>
       </c>
@@ -4872,19 +4863,19 @@
         <f t="shared" si="8"/>
         <v>43789</v>
       </c>
-      <c r="C105" s="119" t="s">
+      <c r="C105" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="D105" s="120"/>
-      <c r="E105" s="120"/>
-      <c r="F105" s="120"/>
-      <c r="G105" s="120"/>
-      <c r="H105" s="120"/>
-      <c r="I105" s="120"/>
-      <c r="J105" s="120"/>
-      <c r="K105" s="120"/>
-      <c r="L105" s="120"/>
-      <c r="M105" s="121"/>
+      <c r="D105" s="83"/>
+      <c r="E105" s="83"/>
+      <c r="F105" s="83"/>
+      <c r="G105" s="83"/>
+      <c r="H105" s="83"/>
+      <c r="I105" s="83"/>
+      <c r="J105" s="83"/>
+      <c r="K105" s="83"/>
+      <c r="L105" s="83"/>
+      <c r="M105" s="84"/>
       <c r="N105" s="49"/>
       <c r="O105" s="49"/>
       <c r="P105" s="49"/>
@@ -4896,7 +4887,7 @@
       </c>
       <c r="U105" s="54"/>
     </row>
-    <row r="106" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" s="27" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>3</v>
       </c>
@@ -4904,24 +4895,24 @@
         <f t="shared" si="8"/>
         <v>43790</v>
       </c>
-      <c r="C106" s="76" t="s">
+      <c r="C106" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D106" s="76"/>
-      <c r="E106" s="76"/>
-      <c r="F106" s="76"/>
-      <c r="G106" s="76"/>
-      <c r="H106" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="I106" s="79"/>
-      <c r="J106" s="79"/>
-      <c r="K106" s="79"/>
-      <c r="L106" s="79"/>
-      <c r="M106" s="79"/>
-      <c r="N106" s="79"/>
-      <c r="O106" s="79"/>
-      <c r="P106" s="115"/>
+      <c r="D106" s="79"/>
+      <c r="E106" s="79"/>
+      <c r="F106" s="79"/>
+      <c r="G106" s="79"/>
+      <c r="H106" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="I106" s="77"/>
+      <c r="J106" s="77"/>
+      <c r="K106" s="77"/>
+      <c r="L106" s="77"/>
+      <c r="M106" s="77"/>
+      <c r="N106" s="77"/>
+      <c r="O106" s="77"/>
+      <c r="P106" s="77"/>
       <c r="Q106" s="20"/>
       <c r="R106" s="20"/>
       <c r="S106" s="51"/>
@@ -4930,7 +4921,7 @@
       </c>
       <c r="U106" s="54"/>
     </row>
-    <row r="107" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" s="27" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>4</v>
       </c>
@@ -4939,18 +4930,18 @@
         <v>43791</v>
       </c>
       <c r="C107" s="125" t="s">
-        <v>87</v>
-      </c>
-      <c r="D107" s="126"/>
-      <c r="E107" s="126"/>
-      <c r="F107" s="126"/>
-      <c r="G107" s="126"/>
-      <c r="H107" s="126"/>
-      <c r="I107" s="126"/>
-      <c r="J107" s="126"/>
-      <c r="K107" s="126"/>
-      <c r="L107" s="126"/>
-      <c r="M107" s="127"/>
+        <v>86</v>
+      </c>
+      <c r="D107" s="110"/>
+      <c r="E107" s="110"/>
+      <c r="F107" s="110"/>
+      <c r="G107" s="110"/>
+      <c r="H107" s="110"/>
+      <c r="I107" s="110"/>
+      <c r="J107" s="110"/>
+      <c r="K107" s="110"/>
+      <c r="L107" s="110"/>
+      <c r="M107" s="111"/>
       <c r="N107" s="20"/>
       <c r="O107" s="20"/>
       <c r="P107" s="20"/>
@@ -4996,24 +4987,24 @@
         <f t="shared" si="8"/>
         <v>43793</v>
       </c>
-      <c r="C109" s="76" t="s">
+      <c r="C109" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="D109" s="76"/>
-      <c r="E109" s="76"/>
-      <c r="F109" s="76"/>
-      <c r="G109" s="76"/>
-      <c r="H109" s="76"/>
-      <c r="I109" s="76"/>
-      <c r="J109" s="76"/>
-      <c r="K109" s="76"/>
-      <c r="L109" s="76"/>
-      <c r="M109" s="76"/>
-      <c r="N109" s="76"/>
-      <c r="O109" s="76"/>
-      <c r="P109" s="76"/>
-      <c r="Q109" s="76"/>
-      <c r="R109" s="76"/>
+      <c r="D109" s="79"/>
+      <c r="E109" s="79"/>
+      <c r="F109" s="79"/>
+      <c r="G109" s="79"/>
+      <c r="H109" s="79"/>
+      <c r="I109" s="79"/>
+      <c r="J109" s="79"/>
+      <c r="K109" s="79"/>
+      <c r="L109" s="79"/>
+      <c r="M109" s="79"/>
+      <c r="N109" s="79"/>
+      <c r="O109" s="79"/>
+      <c r="P109" s="79"/>
+      <c r="Q109" s="79"/>
+      <c r="R109" s="79"/>
       <c r="S109" s="51"/>
       <c r="T109" s="51"/>
       <c r="U109" s="54"/>
@@ -5076,7 +5067,7 @@
       <c r="T111" s="51"/>
       <c r="U111" s="54"/>
     </row>
-    <row r="112" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="57">
         <f>A102+7</f>
         <v>43794</v>
@@ -5088,11 +5079,11 @@
         <f>C102+1</f>
         <v>11</v>
       </c>
-      <c r="D112" s="94" t="s">
+      <c r="D112" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E112" s="94"/>
-      <c r="F112" s="94"/>
+      <c r="E112" s="80"/>
+      <c r="F112" s="80"/>
       <c r="G112" s="15"/>
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
@@ -5109,7 +5100,7 @@
       <c r="T112" s="51"/>
       <c r="U112" s="54"/>
     </row>
-    <row r="113" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" s="27" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>0</v>
       </c>
@@ -5117,19 +5108,21 @@
         <f>B103+7</f>
         <v>43794</v>
       </c>
-      <c r="C113" s="76" t="s">
+      <c r="C113" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D113" s="76"/>
-      <c r="E113" s="76"/>
-      <c r="F113" s="76"/>
-      <c r="G113" s="76"/>
-      <c r="H113" s="49"/>
-      <c r="I113" s="49"/>
-      <c r="J113" s="49"/>
-      <c r="K113" s="20"/>
-      <c r="L113" s="20"/>
-      <c r="M113" s="20"/>
+      <c r="D113" s="79"/>
+      <c r="E113" s="79"/>
+      <c r="F113" s="79"/>
+      <c r="G113" s="79"/>
+      <c r="H113" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="I113" s="77"/>
+      <c r="J113" s="77"/>
+      <c r="K113" s="77"/>
+      <c r="L113" s="77"/>
+      <c r="M113" s="77"/>
       <c r="N113" s="20"/>
       <c r="O113" s="20"/>
       <c r="P113" s="20"/>
@@ -5141,7 +5134,7 @@
       </c>
       <c r="U113" s="54"/>
     </row>
-    <row r="114" spans="1:21" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" s="27" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>1</v>
       </c>
@@ -5149,19 +5142,21 @@
         <f t="shared" ref="B114:B119" si="9">B104+7</f>
         <v>43795</v>
       </c>
-      <c r="C114" s="76" t="s">
+      <c r="C114" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D114" s="76"/>
-      <c r="E114" s="76"/>
-      <c r="F114" s="76"/>
-      <c r="G114" s="76"/>
-      <c r="H114" s="20"/>
-      <c r="I114" s="20"/>
-      <c r="J114" s="20"/>
-      <c r="K114" s="49"/>
-      <c r="L114" s="49"/>
-      <c r="M114" s="20"/>
+      <c r="D114" s="79"/>
+      <c r="E114" s="79"/>
+      <c r="F114" s="79"/>
+      <c r="G114" s="79"/>
+      <c r="H114" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="I114" s="77"/>
+      <c r="J114" s="77"/>
+      <c r="K114" s="77"/>
+      <c r="L114" s="77"/>
+      <c r="M114" s="77"/>
       <c r="N114" s="20"/>
       <c r="O114" s="49"/>
       <c r="P114" s="49"/>
@@ -5183,23 +5178,23 @@
       </c>
       <c r="C115" s="32"/>
       <c r="D115" s="20"/>
-      <c r="E115" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="F115" s="77"/>
-      <c r="G115" s="77"/>
-      <c r="H115" s="77"/>
-      <c r="I115" s="77"/>
-      <c r="J115" s="77"/>
+      <c r="E115" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="F115" s="70"/>
+      <c r="G115" s="70"/>
+      <c r="H115" s="70"/>
+      <c r="I115" s="70"/>
+      <c r="J115" s="70"/>
       <c r="K115" s="49"/>
-      <c r="L115" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="M115" s="82"/>
-      <c r="N115" s="82"/>
-      <c r="O115" s="82"/>
-      <c r="P115" s="82"/>
-      <c r="Q115" s="83"/>
+      <c r="L115" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="M115" s="72"/>
+      <c r="N115" s="72"/>
+      <c r="O115" s="72"/>
+      <c r="P115" s="72"/>
+      <c r="Q115" s="73"/>
       <c r="R115" s="49"/>
       <c r="S115" s="51"/>
       <c r="T115" s="52" t="s">
@@ -5215,27 +5210,27 @@
         <f t="shared" si="9"/>
         <v>43797</v>
       </c>
-      <c r="C116" s="76" t="s">
+      <c r="C116" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D116" s="76"/>
-      <c r="E116" s="76"/>
-      <c r="F116" s="76"/>
-      <c r="G116" s="76"/>
-      <c r="H116" s="77" t="s">
+      <c r="D116" s="79"/>
+      <c r="E116" s="79"/>
+      <c r="F116" s="79"/>
+      <c r="G116" s="79"/>
+      <c r="H116" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="I116" s="77"/>
-      <c r="J116" s="77"/>
-      <c r="K116" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="L116" s="79"/>
-      <c r="M116" s="79"/>
-      <c r="N116" s="79"/>
-      <c r="O116" s="79"/>
-      <c r="P116" s="79"/>
-      <c r="Q116" s="80"/>
+      <c r="I116" s="70"/>
+      <c r="J116" s="70"/>
+      <c r="K116" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="L116" s="75"/>
+      <c r="M116" s="75"/>
+      <c r="N116" s="75"/>
+      <c r="O116" s="75"/>
+      <c r="P116" s="75"/>
+      <c r="Q116" s="121"/>
       <c r="R116" s="20"/>
       <c r="S116" s="51"/>
       <c r="T116" s="18" t="s">
@@ -5243,7 +5238,7 @@
       </c>
       <c r="U116" s="54"/>
     </row>
-    <row r="117" spans="1:21" s="27" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" s="27" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>4</v>
       </c>
@@ -5253,29 +5248,25 @@
       </c>
       <c r="C117" s="32"/>
       <c r="D117" s="20"/>
-      <c r="E117" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="F117" s="77"/>
-      <c r="G117" s="77"/>
-      <c r="H117" s="77"/>
-      <c r="I117" s="77"/>
-      <c r="J117" s="77"/>
-      <c r="K117" s="49"/>
-      <c r="L117" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="M117" s="82"/>
-      <c r="N117" s="82"/>
-      <c r="O117" s="82"/>
-      <c r="P117" s="82"/>
-      <c r="Q117" s="83"/>
+      <c r="E117" s="49"/>
+      <c r="F117" s="49"/>
+      <c r="G117" s="49"/>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="20"/>
+      <c r="K117" s="20"/>
+      <c r="L117" s="49"/>
+      <c r="M117" s="49"/>
+      <c r="N117" s="49"/>
+      <c r="O117" s="20"/>
+      <c r="P117" s="20"/>
+      <c r="Q117" s="20"/>
       <c r="R117" s="20"/>
       <c r="S117" s="51"/>
       <c r="T117" s="51"/>
       <c r="U117" s="54"/>
     </row>
-    <row r="118" spans="1:21" s="27" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>5</v>
       </c>
@@ -5285,29 +5276,25 @@
       </c>
       <c r="C118" s="50"/>
       <c r="D118" s="49"/>
-      <c r="E118" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="F118" s="77"/>
-      <c r="G118" s="77"/>
-      <c r="H118" s="77"/>
-      <c r="I118" s="77"/>
-      <c r="J118" s="77"/>
-      <c r="K118" s="49"/>
-      <c r="L118" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="M118" s="82"/>
-      <c r="N118" s="82"/>
-      <c r="O118" s="82"/>
-      <c r="P118" s="82"/>
-      <c r="Q118" s="83"/>
-      <c r="R118" s="49"/>
+      <c r="E118" s="49"/>
+      <c r="F118" s="49"/>
+      <c r="G118" s="49"/>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="20"/>
+      <c r="K118" s="20"/>
+      <c r="L118" s="49"/>
+      <c r="M118" s="49"/>
+      <c r="N118" s="49"/>
+      <c r="O118" s="20"/>
+      <c r="P118" s="20"/>
+      <c r="Q118" s="20"/>
+      <c r="R118" s="20"/>
       <c r="S118" s="51"/>
       <c r="T118" s="51"/>
       <c r="U118" s="54"/>
     </row>
-    <row r="119" spans="1:21" s="27" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>6</v>
       </c>
@@ -5315,24 +5302,24 @@
         <f t="shared" si="9"/>
         <v>43800</v>
       </c>
-      <c r="C119" s="76" t="s">
+      <c r="C119" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="D119" s="76"/>
-      <c r="E119" s="76"/>
-      <c r="F119" s="76"/>
-      <c r="G119" s="76"/>
-      <c r="H119" s="76"/>
-      <c r="I119" s="76"/>
-      <c r="J119" s="76"/>
-      <c r="K119" s="76"/>
-      <c r="L119" s="76"/>
-      <c r="M119" s="76"/>
-      <c r="N119" s="76"/>
-      <c r="O119" s="76"/>
-      <c r="P119" s="76"/>
-      <c r="Q119" s="76"/>
-      <c r="R119" s="76"/>
+      <c r="D119" s="79"/>
+      <c r="E119" s="79"/>
+      <c r="F119" s="79"/>
+      <c r="G119" s="79"/>
+      <c r="H119" s="79"/>
+      <c r="I119" s="79"/>
+      <c r="J119" s="79"/>
+      <c r="K119" s="79"/>
+      <c r="L119" s="79"/>
+      <c r="M119" s="79"/>
+      <c r="N119" s="79"/>
+      <c r="O119" s="79"/>
+      <c r="P119" s="79"/>
+      <c r="Q119" s="79"/>
+      <c r="R119" s="79"/>
       <c r="S119" s="51"/>
       <c r="T119" s="51"/>
       <c r="U119" s="54"/>
@@ -5407,11 +5394,11 @@
         <f>C112+1</f>
         <v>12</v>
       </c>
-      <c r="D122" s="94" t="s">
+      <c r="D122" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="E122" s="94"/>
-      <c r="F122" s="94"/>
+      <c r="E122" s="80"/>
+      <c r="F122" s="80"/>
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
@@ -5436,24 +5423,24 @@
         <f>B113+7</f>
         <v>43801</v>
       </c>
-      <c r="C123" s="76" t="s">
+      <c r="C123" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="76"/>
-      <c r="E123" s="76"/>
-      <c r="F123" s="76"/>
-      <c r="G123" s="76"/>
-      <c r="H123" s="78" t="s">
+      <c r="D123" s="79"/>
+      <c r="E123" s="79"/>
+      <c r="F123" s="79"/>
+      <c r="G123" s="79"/>
+      <c r="H123" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="I123" s="79"/>
-      <c r="J123" s="79"/>
-      <c r="K123" s="79"/>
-      <c r="L123" s="79"/>
-      <c r="M123" s="79"/>
-      <c r="N123" s="79"/>
-      <c r="O123" s="79"/>
-      <c r="P123" s="115"/>
+      <c r="I123" s="75"/>
+      <c r="J123" s="75"/>
+      <c r="K123" s="75"/>
+      <c r="L123" s="75"/>
+      <c r="M123" s="75"/>
+      <c r="N123" s="75"/>
+      <c r="O123" s="75"/>
+      <c r="P123" s="76"/>
       <c r="Q123" s="20"/>
       <c r="R123" s="20"/>
       <c r="S123" s="51"/>
@@ -5470,24 +5457,24 @@
         <f t="shared" ref="B124:B129" si="10">B114+7</f>
         <v>43802</v>
       </c>
-      <c r="C124" s="76" t="s">
+      <c r="C124" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D124" s="76"/>
-      <c r="E124" s="76"/>
-      <c r="F124" s="76"/>
-      <c r="G124" s="76"/>
-      <c r="H124" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="I124" s="76"/>
-      <c r="J124" s="20"/>
-      <c r="K124" s="49"/>
-      <c r="L124" s="49"/>
-      <c r="M124" s="20"/>
-      <c r="N124" s="20"/>
-      <c r="O124" s="49"/>
-      <c r="P124" s="49"/>
+      <c r="D124" s="79"/>
+      <c r="E124" s="79"/>
+      <c r="F124" s="79"/>
+      <c r="G124" s="79"/>
+      <c r="H124" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="I124" s="75"/>
+      <c r="J124" s="75"/>
+      <c r="K124" s="75"/>
+      <c r="L124" s="75"/>
+      <c r="M124" s="75"/>
+      <c r="N124" s="75"/>
+      <c r="O124" s="75"/>
+      <c r="P124" s="76"/>
       <c r="Q124" s="20"/>
       <c r="R124" s="20"/>
       <c r="S124" s="51"/>
@@ -5504,15 +5491,17 @@
         <f t="shared" si="10"/>
         <v>43803</v>
       </c>
-      <c r="C125" s="32"/>
-      <c r="D125" s="20"/>
-      <c r="E125" s="20"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="20"/>
-      <c r="H125" s="20"/>
-      <c r="I125" s="20"/>
-      <c r="J125" s="20"/>
-      <c r="K125" s="49"/>
+      <c r="C125" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="D125" s="75"/>
+      <c r="E125" s="75"/>
+      <c r="F125" s="75"/>
+      <c r="G125" s="75"/>
+      <c r="H125" s="75"/>
+      <c r="I125" s="75"/>
+      <c r="J125" s="75"/>
+      <c r="K125" s="76"/>
       <c r="L125" s="49"/>
       <c r="M125" s="49"/>
       <c r="N125" s="49"/>
@@ -5534,13 +5523,13 @@
         <f t="shared" si="10"/>
         <v>43804</v>
       </c>
-      <c r="C126" s="86" t="s">
+      <c r="C126" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="D126" s="86"/>
-      <c r="E126" s="86"/>
-      <c r="F126" s="86"/>
-      <c r="G126" s="86"/>
+      <c r="D126" s="81"/>
+      <c r="E126" s="81"/>
+      <c r="F126" s="81"/>
+      <c r="G126" s="81"/>
       <c r="H126" s="49"/>
       <c r="I126" s="49"/>
       <c r="J126" s="49"/>
@@ -5622,24 +5611,24 @@
         <f t="shared" si="10"/>
         <v>43807</v>
       </c>
-      <c r="C129" s="76" t="s">
+      <c r="C129" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="D129" s="76"/>
-      <c r="E129" s="76"/>
-      <c r="F129" s="76"/>
-      <c r="G129" s="76"/>
-      <c r="H129" s="76"/>
-      <c r="I129" s="76"/>
-      <c r="J129" s="76"/>
-      <c r="K129" s="76"/>
-      <c r="L129" s="76"/>
-      <c r="M129" s="76"/>
-      <c r="N129" s="76"/>
-      <c r="O129" s="76"/>
-      <c r="P129" s="76"/>
-      <c r="Q129" s="76"/>
-      <c r="R129" s="76"/>
+      <c r="D129" s="79"/>
+      <c r="E129" s="79"/>
+      <c r="F129" s="79"/>
+      <c r="G129" s="79"/>
+      <c r="H129" s="79"/>
+      <c r="I129" s="79"/>
+      <c r="J129" s="79"/>
+      <c r="K129" s="79"/>
+      <c r="L129" s="79"/>
+      <c r="M129" s="79"/>
+      <c r="N129" s="79"/>
+      <c r="O129" s="79"/>
+      <c r="P129" s="79"/>
+      <c r="Q129" s="79"/>
+      <c r="R129" s="79"/>
       <c r="S129" s="51"/>
       <c r="T129" s="51"/>
       <c r="U129" s="54"/>
@@ -5741,13 +5730,13 @@
         <f>B123+7</f>
         <v>43808</v>
       </c>
-      <c r="C133" s="76" t="s">
+      <c r="C133" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D133" s="76"/>
-      <c r="E133" s="76"/>
-      <c r="F133" s="76"/>
-      <c r="G133" s="76"/>
+      <c r="D133" s="79"/>
+      <c r="E133" s="79"/>
+      <c r="F133" s="79"/>
+      <c r="G133" s="79"/>
       <c r="H133" s="49"/>
       <c r="I133" s="49"/>
       <c r="J133" s="49"/>
@@ -5773,13 +5762,13 @@
         <f t="shared" ref="B134:B139" si="11">B124+7</f>
         <v>43809</v>
       </c>
-      <c r="C134" s="76" t="s">
+      <c r="C134" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D134" s="76"/>
-      <c r="E134" s="76"/>
-      <c r="F134" s="76"/>
-      <c r="G134" s="76"/>
+      <c r="D134" s="79"/>
+      <c r="E134" s="79"/>
+      <c r="F134" s="79"/>
+      <c r="G134" s="79"/>
       <c r="H134" s="20"/>
       <c r="I134" s="20"/>
       <c r="J134" s="20"/>
@@ -5835,13 +5824,13 @@
         <f t="shared" si="11"/>
         <v>43811</v>
       </c>
-      <c r="C136" s="76" t="s">
+      <c r="C136" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D136" s="76"/>
-      <c r="E136" s="76"/>
-      <c r="F136" s="76"/>
-      <c r="G136" s="76"/>
+      <c r="D136" s="79"/>
+      <c r="E136" s="79"/>
+      <c r="F136" s="79"/>
+      <c r="G136" s="79"/>
       <c r="H136" s="20"/>
       <c r="I136" s="49"/>
       <c r="J136" s="49"/>
@@ -5923,24 +5912,24 @@
         <f t="shared" si="11"/>
         <v>43814</v>
       </c>
-      <c r="C139" s="76" t="s">
+      <c r="C139" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="D139" s="76"/>
-      <c r="E139" s="76"/>
-      <c r="F139" s="76"/>
-      <c r="G139" s="76"/>
-      <c r="H139" s="76"/>
-      <c r="I139" s="76"/>
-      <c r="J139" s="76"/>
-      <c r="K139" s="76"/>
-      <c r="L139" s="76"/>
-      <c r="M139" s="76"/>
-      <c r="N139" s="76"/>
-      <c r="O139" s="76"/>
-      <c r="P139" s="76"/>
-      <c r="Q139" s="76"/>
-      <c r="R139" s="76"/>
+      <c r="D139" s="79"/>
+      <c r="E139" s="79"/>
+      <c r="F139" s="79"/>
+      <c r="G139" s="79"/>
+      <c r="H139" s="79"/>
+      <c r="I139" s="79"/>
+      <c r="J139" s="79"/>
+      <c r="K139" s="79"/>
+      <c r="L139" s="79"/>
+      <c r="M139" s="79"/>
+      <c r="N139" s="79"/>
+      <c r="O139" s="79"/>
+      <c r="P139" s="79"/>
+      <c r="Q139" s="79"/>
+      <c r="R139" s="79"/>
       <c r="S139" s="51"/>
       <c r="T139" s="51"/>
       <c r="U139" s="54"/>
@@ -6035,19 +6024,19 @@
         <f>C132+1</f>
         <v>14</v>
       </c>
-      <c r="D142" s="94" t="s">
+      <c r="D142" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="E142" s="94"/>
-      <c r="F142" s="94"/>
+      <c r="E142" s="80"/>
+      <c r="F142" s="80"/>
       <c r="G142" s="15"/>
-      <c r="H142" s="94" t="s">
+      <c r="H142" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="I142" s="94"/>
-      <c r="J142" s="94"/>
-      <c r="K142" s="94"/>
-      <c r="L142" s="94"/>
+      <c r="I142" s="80"/>
+      <c r="J142" s="80"/>
+      <c r="K142" s="80"/>
+      <c r="L142" s="80"/>
       <c r="M142" s="19"/>
       <c r="N142" s="19"/>
       <c r="O142" s="19"/>
@@ -6066,11 +6055,11 @@
         <f>B133+7</f>
         <v>43815</v>
       </c>
-      <c r="C143" s="77" t="s">
+      <c r="C143" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D143" s="77"/>
-      <c r="E143" s="77"/>
+      <c r="D143" s="70"/>
+      <c r="E143" s="70"/>
       <c r="F143" s="20"/>
       <c r="G143" s="20"/>
       <c r="H143" s="20"/>
@@ -6441,24 +6430,24 @@
         <f t="shared" si="13"/>
         <v>43824</v>
       </c>
-      <c r="C155" s="113" t="s">
+      <c r="C155" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="D155" s="113"/>
-      <c r="E155" s="113"/>
-      <c r="F155" s="113"/>
-      <c r="G155" s="113"/>
-      <c r="H155" s="113"/>
-      <c r="I155" s="113"/>
-      <c r="J155" s="113"/>
-      <c r="K155" s="113"/>
-      <c r="L155" s="113"/>
-      <c r="M155" s="113"/>
-      <c r="N155" s="113"/>
-      <c r="O155" s="113"/>
-      <c r="P155" s="113"/>
-      <c r="Q155" s="113"/>
-      <c r="R155" s="113"/>
+      <c r="D155" s="78"/>
+      <c r="E155" s="78"/>
+      <c r="F155" s="78"/>
+      <c r="G155" s="78"/>
+      <c r="H155" s="78"/>
+      <c r="I155" s="78"/>
+      <c r="J155" s="78"/>
+      <c r="K155" s="78"/>
+      <c r="L155" s="78"/>
+      <c r="M155" s="78"/>
+      <c r="N155" s="78"/>
+      <c r="O155" s="78"/>
+      <c r="P155" s="78"/>
+      <c r="Q155" s="78"/>
+      <c r="R155" s="78"/>
       <c r="S155" s="51"/>
       <c r="T155" s="52" t="s">
         <v>20</v>
@@ -6473,22 +6462,22 @@
         <f t="shared" si="13"/>
         <v>43825</v>
       </c>
-      <c r="C156" s="113"/>
-      <c r="D156" s="113"/>
-      <c r="E156" s="113"/>
-      <c r="F156" s="113"/>
-      <c r="G156" s="113"/>
-      <c r="H156" s="113"/>
-      <c r="I156" s="113"/>
-      <c r="J156" s="113"/>
-      <c r="K156" s="113"/>
-      <c r="L156" s="113"/>
-      <c r="M156" s="113"/>
-      <c r="N156" s="113"/>
-      <c r="O156" s="113"/>
-      <c r="P156" s="113"/>
-      <c r="Q156" s="113"/>
-      <c r="R156" s="113"/>
+      <c r="C156" s="78"/>
+      <c r="D156" s="78"/>
+      <c r="E156" s="78"/>
+      <c r="F156" s="78"/>
+      <c r="G156" s="78"/>
+      <c r="H156" s="78"/>
+      <c r="I156" s="78"/>
+      <c r="J156" s="78"/>
+      <c r="K156" s="78"/>
+      <c r="L156" s="78"/>
+      <c r="M156" s="78"/>
+      <c r="N156" s="78"/>
+      <c r="O156" s="78"/>
+      <c r="P156" s="78"/>
+      <c r="Q156" s="78"/>
+      <c r="R156" s="78"/>
       <c r="S156" s="51"/>
       <c r="T156" s="18" t="s">
         <v>21</v>
@@ -6503,22 +6492,22 @@
         <f t="shared" si="13"/>
         <v>43826</v>
       </c>
-      <c r="C157" s="113"/>
-      <c r="D157" s="113"/>
-      <c r="E157" s="113"/>
-      <c r="F157" s="113"/>
-      <c r="G157" s="113"/>
-      <c r="H157" s="113"/>
-      <c r="I157" s="113"/>
-      <c r="J157" s="113"/>
-      <c r="K157" s="113"/>
-      <c r="L157" s="113"/>
-      <c r="M157" s="113"/>
-      <c r="N157" s="113"/>
-      <c r="O157" s="113"/>
-      <c r="P157" s="113"/>
-      <c r="Q157" s="113"/>
-      <c r="R157" s="113"/>
+      <c r="C157" s="78"/>
+      <c r="D157" s="78"/>
+      <c r="E157" s="78"/>
+      <c r="F157" s="78"/>
+      <c r="G157" s="78"/>
+      <c r="H157" s="78"/>
+      <c r="I157" s="78"/>
+      <c r="J157" s="78"/>
+      <c r="K157" s="78"/>
+      <c r="L157" s="78"/>
+      <c r="M157" s="78"/>
+      <c r="N157" s="78"/>
+      <c r="O157" s="78"/>
+      <c r="P157" s="78"/>
+      <c r="Q157" s="78"/>
+      <c r="R157" s="78"/>
       <c r="S157" s="51"/>
       <c r="T157" s="51"/>
       <c r="U157" s="54"/>
@@ -6531,22 +6520,22 @@
         <f t="shared" si="13"/>
         <v>43827</v>
       </c>
-      <c r="C158" s="113"/>
-      <c r="D158" s="113"/>
-      <c r="E158" s="113"/>
-      <c r="F158" s="113"/>
-      <c r="G158" s="113"/>
-      <c r="H158" s="113"/>
-      <c r="I158" s="113"/>
-      <c r="J158" s="113"/>
-      <c r="K158" s="113"/>
-      <c r="L158" s="113"/>
-      <c r="M158" s="113"/>
-      <c r="N158" s="113"/>
-      <c r="O158" s="113"/>
-      <c r="P158" s="113"/>
-      <c r="Q158" s="113"/>
-      <c r="R158" s="113"/>
+      <c r="C158" s="78"/>
+      <c r="D158" s="78"/>
+      <c r="E158" s="78"/>
+      <c r="F158" s="78"/>
+      <c r="G158" s="78"/>
+      <c r="H158" s="78"/>
+      <c r="I158" s="78"/>
+      <c r="J158" s="78"/>
+      <c r="K158" s="78"/>
+      <c r="L158" s="78"/>
+      <c r="M158" s="78"/>
+      <c r="N158" s="78"/>
+      <c r="O158" s="78"/>
+      <c r="P158" s="78"/>
+      <c r="Q158" s="78"/>
+      <c r="R158" s="78"/>
       <c r="S158" s="51"/>
       <c r="T158" s="51"/>
       <c r="U158" s="54"/>
@@ -6559,22 +6548,22 @@
         <f t="shared" si="13"/>
         <v>43828</v>
       </c>
-      <c r="C159" s="113"/>
-      <c r="D159" s="113"/>
-      <c r="E159" s="113"/>
-      <c r="F159" s="113"/>
-      <c r="G159" s="113"/>
-      <c r="H159" s="113"/>
-      <c r="I159" s="113"/>
-      <c r="J159" s="113"/>
-      <c r="K159" s="113"/>
-      <c r="L159" s="113"/>
-      <c r="M159" s="113"/>
-      <c r="N159" s="113"/>
-      <c r="O159" s="113"/>
-      <c r="P159" s="113"/>
-      <c r="Q159" s="113"/>
-      <c r="R159" s="113"/>
+      <c r="C159" s="78"/>
+      <c r="D159" s="78"/>
+      <c r="E159" s="78"/>
+      <c r="F159" s="78"/>
+      <c r="G159" s="78"/>
+      <c r="H159" s="78"/>
+      <c r="I159" s="78"/>
+      <c r="J159" s="78"/>
+      <c r="K159" s="78"/>
+      <c r="L159" s="78"/>
+      <c r="M159" s="78"/>
+      <c r="N159" s="78"/>
+      <c r="O159" s="78"/>
+      <c r="P159" s="78"/>
+      <c r="Q159" s="78"/>
+      <c r="R159" s="78"/>
       <c r="S159" s="51"/>
       <c r="T159" s="51"/>
       <c r="U159" s="54"/>
@@ -6696,24 +6685,24 @@
         <f>B153+7</f>
         <v>43829</v>
       </c>
-      <c r="C163" s="113" t="s">
+      <c r="C163" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="D163" s="113"/>
-      <c r="E163" s="113"/>
-      <c r="F163" s="113"/>
-      <c r="G163" s="113"/>
-      <c r="H163" s="113"/>
-      <c r="I163" s="113"/>
-      <c r="J163" s="113"/>
-      <c r="K163" s="113"/>
-      <c r="L163" s="113"/>
-      <c r="M163" s="113"/>
-      <c r="N163" s="113"/>
-      <c r="O163" s="113"/>
-      <c r="P163" s="113"/>
-      <c r="Q163" s="113"/>
-      <c r="R163" s="113"/>
+      <c r="D163" s="78"/>
+      <c r="E163" s="78"/>
+      <c r="F163" s="78"/>
+      <c r="G163" s="78"/>
+      <c r="H163" s="78"/>
+      <c r="I163" s="78"/>
+      <c r="J163" s="78"/>
+      <c r="K163" s="78"/>
+      <c r="L163" s="78"/>
+      <c r="M163" s="78"/>
+      <c r="N163" s="78"/>
+      <c r="O163" s="78"/>
+      <c r="P163" s="78"/>
+      <c r="Q163" s="78"/>
+      <c r="R163" s="78"/>
       <c r="S163" s="51"/>
       <c r="T163" s="30" t="s">
         <v>22</v>
@@ -6728,22 +6717,22 @@
         <f t="shared" ref="B164:B169" si="14">B154+7</f>
         <v>43830</v>
       </c>
-      <c r="C164" s="113"/>
-      <c r="D164" s="113"/>
-      <c r="E164" s="113"/>
-      <c r="F164" s="113"/>
-      <c r="G164" s="113"/>
-      <c r="H164" s="113"/>
-      <c r="I164" s="113"/>
-      <c r="J164" s="113"/>
-      <c r="K164" s="113"/>
-      <c r="L164" s="113"/>
-      <c r="M164" s="113"/>
-      <c r="N164" s="113"/>
-      <c r="O164" s="113"/>
-      <c r="P164" s="113"/>
-      <c r="Q164" s="113"/>
-      <c r="R164" s="113"/>
+      <c r="C164" s="78"/>
+      <c r="D164" s="78"/>
+      <c r="E164" s="78"/>
+      <c r="F164" s="78"/>
+      <c r="G164" s="78"/>
+      <c r="H164" s="78"/>
+      <c r="I164" s="78"/>
+      <c r="J164" s="78"/>
+      <c r="K164" s="78"/>
+      <c r="L164" s="78"/>
+      <c r="M164" s="78"/>
+      <c r="N164" s="78"/>
+      <c r="O164" s="78"/>
+      <c r="P164" s="78"/>
+      <c r="Q164" s="78"/>
+      <c r="R164" s="78"/>
       <c r="S164" s="51"/>
       <c r="T164" s="53" t="s">
         <v>19</v>
@@ -6758,22 +6747,22 @@
         <f t="shared" si="14"/>
         <v>43831</v>
       </c>
-      <c r="C165" s="113"/>
-      <c r="D165" s="113"/>
-      <c r="E165" s="113"/>
-      <c r="F165" s="113"/>
-      <c r="G165" s="113"/>
-      <c r="H165" s="113"/>
-      <c r="I165" s="113"/>
-      <c r="J165" s="113"/>
-      <c r="K165" s="113"/>
-      <c r="L165" s="113"/>
-      <c r="M165" s="113"/>
-      <c r="N165" s="113"/>
-      <c r="O165" s="113"/>
-      <c r="P165" s="113"/>
-      <c r="Q165" s="113"/>
-      <c r="R165" s="113"/>
+      <c r="C165" s="78"/>
+      <c r="D165" s="78"/>
+      <c r="E165" s="78"/>
+      <c r="F165" s="78"/>
+      <c r="G165" s="78"/>
+      <c r="H165" s="78"/>
+      <c r="I165" s="78"/>
+      <c r="J165" s="78"/>
+      <c r="K165" s="78"/>
+      <c r="L165" s="78"/>
+      <c r="M165" s="78"/>
+      <c r="N165" s="78"/>
+      <c r="O165" s="78"/>
+      <c r="P165" s="78"/>
+      <c r="Q165" s="78"/>
+      <c r="R165" s="78"/>
       <c r="S165" s="51"/>
       <c r="T165" s="52" t="s">
         <v>20</v>
@@ -6790,23 +6779,23 @@
       </c>
       <c r="C166" s="32"/>
       <c r="D166" s="20"/>
-      <c r="E166" s="77" t="s">
+      <c r="E166" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F166" s="77"/>
-      <c r="G166" s="77"/>
-      <c r="H166" s="77"/>
-      <c r="I166" s="77"/>
-      <c r="J166" s="77"/>
+      <c r="F166" s="70"/>
+      <c r="G166" s="70"/>
+      <c r="H166" s="70"/>
+      <c r="I166" s="70"/>
+      <c r="J166" s="70"/>
       <c r="K166" s="49"/>
-      <c r="L166" s="81" t="s">
+      <c r="L166" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="M166" s="82"/>
-      <c r="N166" s="82"/>
-      <c r="O166" s="82"/>
-      <c r="P166" s="82"/>
-      <c r="Q166" s="83"/>
+      <c r="M166" s="72"/>
+      <c r="N166" s="72"/>
+      <c r="O166" s="72"/>
+      <c r="P166" s="72"/>
+      <c r="Q166" s="73"/>
       <c r="R166" s="20"/>
       <c r="S166" s="51"/>
       <c r="T166" s="18" t="s">
@@ -6824,23 +6813,23 @@
       </c>
       <c r="C167" s="50"/>
       <c r="D167" s="49"/>
-      <c r="E167" s="77" t="s">
+      <c r="E167" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F167" s="77"/>
-      <c r="G167" s="77"/>
-      <c r="H167" s="77"/>
-      <c r="I167" s="77"/>
-      <c r="J167" s="77"/>
+      <c r="F167" s="70"/>
+      <c r="G167" s="70"/>
+      <c r="H167" s="70"/>
+      <c r="I167" s="70"/>
+      <c r="J167" s="70"/>
       <c r="K167" s="49"/>
-      <c r="L167" s="81" t="s">
+      <c r="L167" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="M167" s="82"/>
-      <c r="N167" s="82"/>
-      <c r="O167" s="82"/>
-      <c r="P167" s="82"/>
-      <c r="Q167" s="83"/>
+      <c r="M167" s="72"/>
+      <c r="N167" s="72"/>
+      <c r="O167" s="72"/>
+      <c r="P167" s="72"/>
+      <c r="Q167" s="73"/>
       <c r="R167" s="49"/>
       <c r="S167" s="51"/>
       <c r="T167" s="51"/>
@@ -7001,23 +6990,23 @@
       </c>
       <c r="C173" s="32"/>
       <c r="D173" s="20"/>
-      <c r="E173" s="77" t="s">
+      <c r="E173" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F173" s="77"/>
-      <c r="G173" s="77"/>
-      <c r="H173" s="77"/>
-      <c r="I173" s="77"/>
-      <c r="J173" s="77"/>
+      <c r="F173" s="70"/>
+      <c r="G173" s="70"/>
+      <c r="H173" s="70"/>
+      <c r="I173" s="70"/>
+      <c r="J173" s="70"/>
       <c r="K173" s="49"/>
-      <c r="L173" s="81" t="s">
+      <c r="L173" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="M173" s="82"/>
-      <c r="N173" s="82"/>
-      <c r="O173" s="82"/>
-      <c r="P173" s="82"/>
-      <c r="Q173" s="83"/>
+      <c r="M173" s="72"/>
+      <c r="N173" s="72"/>
+      <c r="O173" s="72"/>
+      <c r="P173" s="72"/>
+      <c r="Q173" s="73"/>
       <c r="R173" s="49"/>
       <c r="S173" s="51"/>
       <c r="T173" s="30" t="s">
@@ -7035,23 +7024,23 @@
       </c>
       <c r="C174" s="32"/>
       <c r="D174" s="20"/>
-      <c r="E174" s="77" t="s">
+      <c r="E174" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F174" s="77"/>
-      <c r="G174" s="77"/>
-      <c r="H174" s="77"/>
-      <c r="I174" s="77"/>
-      <c r="J174" s="77"/>
+      <c r="F174" s="70"/>
+      <c r="G174" s="70"/>
+      <c r="H174" s="70"/>
+      <c r="I174" s="70"/>
+      <c r="J174" s="70"/>
       <c r="K174" s="49"/>
-      <c r="L174" s="81" t="s">
+      <c r="L174" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="M174" s="82"/>
-      <c r="N174" s="82"/>
-      <c r="O174" s="82"/>
-      <c r="P174" s="82"/>
-      <c r="Q174" s="83"/>
+      <c r="M174" s="72"/>
+      <c r="N174" s="72"/>
+      <c r="O174" s="72"/>
+      <c r="P174" s="72"/>
+      <c r="Q174" s="73"/>
       <c r="R174" s="20"/>
       <c r="S174" s="51"/>
       <c r="T174" s="53" t="s">
@@ -7069,23 +7058,23 @@
       </c>
       <c r="C175" s="32"/>
       <c r="D175" s="20"/>
-      <c r="E175" s="77" t="s">
+      <c r="E175" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F175" s="77"/>
-      <c r="G175" s="77"/>
-      <c r="H175" s="77"/>
-      <c r="I175" s="77"/>
-      <c r="J175" s="77"/>
+      <c r="F175" s="70"/>
+      <c r="G175" s="70"/>
+      <c r="H175" s="70"/>
+      <c r="I175" s="70"/>
+      <c r="J175" s="70"/>
       <c r="K175" s="20"/>
-      <c r="L175" s="81" t="s">
+      <c r="L175" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="M175" s="82"/>
-      <c r="N175" s="82"/>
-      <c r="O175" s="82"/>
-      <c r="P175" s="82"/>
-      <c r="Q175" s="83"/>
+      <c r="M175" s="72"/>
+      <c r="N175" s="72"/>
+      <c r="O175" s="72"/>
+      <c r="P175" s="72"/>
+      <c r="Q175" s="73"/>
       <c r="R175" s="49"/>
       <c r="S175" s="51"/>
       <c r="T175" s="52" t="s">
@@ -7103,23 +7092,23 @@
       </c>
       <c r="C176" s="49"/>
       <c r="D176" s="49"/>
-      <c r="E176" s="77" t="s">
+      <c r="E176" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F176" s="77"/>
-      <c r="G176" s="77"/>
-      <c r="H176" s="77"/>
-      <c r="I176" s="77"/>
-      <c r="J176" s="77"/>
+      <c r="F176" s="70"/>
+      <c r="G176" s="70"/>
+      <c r="H176" s="70"/>
+      <c r="I176" s="70"/>
+      <c r="J176" s="70"/>
       <c r="K176" s="20"/>
-      <c r="L176" s="81" t="s">
+      <c r="L176" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="M176" s="82"/>
-      <c r="N176" s="82"/>
-      <c r="O176" s="82"/>
-      <c r="P176" s="82"/>
-      <c r="Q176" s="83"/>
+      <c r="M176" s="72"/>
+      <c r="N176" s="72"/>
+      <c r="O176" s="72"/>
+      <c r="P176" s="72"/>
+      <c r="Q176" s="73"/>
       <c r="R176" s="20"/>
       <c r="S176" s="51"/>
       <c r="T176" s="18" t="s">
@@ -7137,23 +7126,23 @@
       </c>
       <c r="C177" s="32"/>
       <c r="D177" s="20"/>
-      <c r="E177" s="77" t="s">
+      <c r="E177" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F177" s="77"/>
-      <c r="G177" s="77"/>
-      <c r="H177" s="77"/>
-      <c r="I177" s="77"/>
-      <c r="J177" s="77"/>
+      <c r="F177" s="70"/>
+      <c r="G177" s="70"/>
+      <c r="H177" s="70"/>
+      <c r="I177" s="70"/>
+      <c r="J177" s="70"/>
       <c r="K177" s="20"/>
-      <c r="L177" s="81" t="s">
+      <c r="L177" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="M177" s="82"/>
-      <c r="N177" s="82"/>
-      <c r="O177" s="82"/>
-      <c r="P177" s="82"/>
-      <c r="Q177" s="83"/>
+      <c r="M177" s="72"/>
+      <c r="N177" s="72"/>
+      <c r="O177" s="72"/>
+      <c r="P177" s="72"/>
+      <c r="Q177" s="73"/>
       <c r="R177" s="20"/>
       <c r="S177" s="51"/>
       <c r="T177" s="51"/>
@@ -7312,23 +7301,23 @@
       </c>
       <c r="C183" s="32"/>
       <c r="D183" s="20"/>
-      <c r="E183" s="77" t="s">
+      <c r="E183" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F183" s="77"/>
-      <c r="G183" s="77"/>
-      <c r="H183" s="77"/>
-      <c r="I183" s="77"/>
-      <c r="J183" s="77"/>
+      <c r="F183" s="70"/>
+      <c r="G183" s="70"/>
+      <c r="H183" s="70"/>
+      <c r="I183" s="70"/>
+      <c r="J183" s="70"/>
       <c r="K183" s="49"/>
-      <c r="L183" s="81" t="s">
+      <c r="L183" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="M183" s="82"/>
-      <c r="N183" s="82"/>
-      <c r="O183" s="82"/>
-      <c r="P183" s="82"/>
-      <c r="Q183" s="83"/>
+      <c r="M183" s="72"/>
+      <c r="N183" s="72"/>
+      <c r="O183" s="72"/>
+      <c r="P183" s="72"/>
+      <c r="Q183" s="73"/>
       <c r="R183" s="49"/>
       <c r="S183" s="51"/>
       <c r="T183" s="30" t="s">
@@ -7345,23 +7334,23 @@
       </c>
       <c r="C184" s="32"/>
       <c r="D184" s="20"/>
-      <c r="E184" s="77" t="s">
+      <c r="E184" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F184" s="77"/>
-      <c r="G184" s="77"/>
-      <c r="H184" s="77"/>
-      <c r="I184" s="77"/>
-      <c r="J184" s="77"/>
+      <c r="F184" s="70"/>
+      <c r="G184" s="70"/>
+      <c r="H184" s="70"/>
+      <c r="I184" s="70"/>
+      <c r="J184" s="70"/>
       <c r="K184" s="49"/>
-      <c r="L184" s="81" t="s">
+      <c r="L184" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="M184" s="82"/>
-      <c r="N184" s="82"/>
-      <c r="O184" s="82"/>
-      <c r="P184" s="82"/>
-      <c r="Q184" s="83"/>
+      <c r="M184" s="72"/>
+      <c r="N184" s="72"/>
+      <c r="O184" s="72"/>
+      <c r="P184" s="72"/>
+      <c r="Q184" s="73"/>
       <c r="R184" s="20"/>
       <c r="S184" s="51"/>
       <c r="T184" s="53" t="s">
@@ -7378,23 +7367,23 @@
       </c>
       <c r="C185" s="32"/>
       <c r="D185" s="20"/>
-      <c r="E185" s="77" t="s">
+      <c r="E185" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F185" s="77"/>
-      <c r="G185" s="77"/>
-      <c r="H185" s="77"/>
-      <c r="I185" s="77"/>
-      <c r="J185" s="77"/>
+      <c r="F185" s="70"/>
+      <c r="G185" s="70"/>
+      <c r="H185" s="70"/>
+      <c r="I185" s="70"/>
+      <c r="J185" s="70"/>
       <c r="K185" s="20"/>
-      <c r="L185" s="81" t="s">
+      <c r="L185" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="M185" s="82"/>
-      <c r="N185" s="82"/>
-      <c r="O185" s="82"/>
-      <c r="P185" s="82"/>
-      <c r="Q185" s="83"/>
+      <c r="M185" s="72"/>
+      <c r="N185" s="72"/>
+      <c r="O185" s="72"/>
+      <c r="P185" s="72"/>
+      <c r="Q185" s="73"/>
       <c r="R185" s="49"/>
       <c r="S185" s="51"/>
       <c r="T185" s="52" t="s">
@@ -7411,23 +7400,23 @@
       </c>
       <c r="C186" s="49"/>
       <c r="D186" s="49"/>
-      <c r="E186" s="77" t="s">
+      <c r="E186" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F186" s="77"/>
-      <c r="G186" s="77"/>
-      <c r="H186" s="77"/>
-      <c r="I186" s="77"/>
-      <c r="J186" s="77"/>
+      <c r="F186" s="70"/>
+      <c r="G186" s="70"/>
+      <c r="H186" s="70"/>
+      <c r="I186" s="70"/>
+      <c r="J186" s="70"/>
       <c r="K186" s="20"/>
-      <c r="L186" s="81" t="s">
+      <c r="L186" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="M186" s="82"/>
-      <c r="N186" s="82"/>
-      <c r="O186" s="82"/>
-      <c r="P186" s="82"/>
-      <c r="Q186" s="83"/>
+      <c r="M186" s="72"/>
+      <c r="N186" s="72"/>
+      <c r="O186" s="72"/>
+      <c r="P186" s="72"/>
+      <c r="Q186" s="73"/>
       <c r="R186" s="20"/>
       <c r="S186" s="51"/>
       <c r="T186" s="18" t="s">
@@ -7444,23 +7433,23 @@
       </c>
       <c r="C187" s="32"/>
       <c r="D187" s="20"/>
-      <c r="E187" s="77" t="s">
+      <c r="E187" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F187" s="77"/>
-      <c r="G187" s="77"/>
-      <c r="H187" s="77"/>
-      <c r="I187" s="77"/>
-      <c r="J187" s="77"/>
+      <c r="F187" s="70"/>
+      <c r="G187" s="70"/>
+      <c r="H187" s="70"/>
+      <c r="I187" s="70"/>
+      <c r="J187" s="70"/>
       <c r="K187" s="20"/>
-      <c r="L187" s="81" t="s">
+      <c r="L187" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="M187" s="82"/>
-      <c r="N187" s="82"/>
-      <c r="O187" s="82"/>
-      <c r="P187" s="82"/>
-      <c r="Q187" s="83"/>
+      <c r="M187" s="72"/>
+      <c r="N187" s="72"/>
+      <c r="O187" s="72"/>
+      <c r="P187" s="72"/>
+      <c r="Q187" s="73"/>
       <c r="R187" s="20"/>
       <c r="S187" s="51"/>
       <c r="T187" s="51"/>
@@ -15890,70 +15879,65 @@
       <c r="T507"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
-    <mergeCell ref="T58:U60"/>
-    <mergeCell ref="E187:J187"/>
-    <mergeCell ref="L187:Q187"/>
-    <mergeCell ref="E117:J117"/>
-    <mergeCell ref="L117:Q117"/>
-    <mergeCell ref="E118:J118"/>
-    <mergeCell ref="L118:Q118"/>
-    <mergeCell ref="H123:P123"/>
-    <mergeCell ref="E184:J184"/>
-    <mergeCell ref="L184:Q184"/>
-    <mergeCell ref="E185:J185"/>
-    <mergeCell ref="L185:Q185"/>
-    <mergeCell ref="E186:J186"/>
-    <mergeCell ref="L186:Q186"/>
-    <mergeCell ref="E176:J176"/>
-    <mergeCell ref="L176:Q176"/>
-    <mergeCell ref="E177:J177"/>
-    <mergeCell ref="L177:Q177"/>
-    <mergeCell ref="E183:J183"/>
-    <mergeCell ref="L183:Q183"/>
-    <mergeCell ref="E173:J173"/>
-    <mergeCell ref="H103:P103"/>
-    <mergeCell ref="H104:P104"/>
-    <mergeCell ref="E175:J175"/>
-    <mergeCell ref="L175:Q175"/>
-    <mergeCell ref="L167:Q167"/>
-    <mergeCell ref="C155:R159"/>
-    <mergeCell ref="C163:R165"/>
-    <mergeCell ref="E166:J166"/>
-    <mergeCell ref="L166:Q166"/>
-    <mergeCell ref="E167:J167"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="C136:G136"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="C124:G124"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="L173:Q173"/>
-    <mergeCell ref="E174:J174"/>
-    <mergeCell ref="L174:Q174"/>
-    <mergeCell ref="C126:G126"/>
-    <mergeCell ref="H142:L142"/>
-    <mergeCell ref="C105:M105"/>
-    <mergeCell ref="H106:P106"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="E73:J73"/>
-    <mergeCell ref="L73:Q73"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="H54:P54"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="L74:Q74"/>
-    <mergeCell ref="L77:Q77"/>
-    <mergeCell ref="L78:Q78"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="J58:P58"/>
-    <mergeCell ref="E74:J74"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="H66:Q66"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="H64:N64"/>
+  <mergeCells count="146">
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="E115:J115"/>
+    <mergeCell ref="L115:Q115"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H116:J116"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="H124:P124"/>
+    <mergeCell ref="C125:K125"/>
+    <mergeCell ref="H113:M113"/>
+    <mergeCell ref="H114:M114"/>
+    <mergeCell ref="C79:R79"/>
+    <mergeCell ref="C89:R89"/>
+    <mergeCell ref="C99:R99"/>
+    <mergeCell ref="C109:R109"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H83:P83"/>
+    <mergeCell ref="C107:M107"/>
+    <mergeCell ref="J84:R84"/>
+    <mergeCell ref="E85:M85"/>
+    <mergeCell ref="H93:P93"/>
+    <mergeCell ref="H94:P94"/>
+    <mergeCell ref="H96:L96"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H46:P46"/>
+    <mergeCell ref="H44:N44"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="L75:Q75"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="C76:R76"/>
+    <mergeCell ref="E78:J78"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="E77:J77"/>
+    <mergeCell ref="L67:R67"/>
+    <mergeCell ref="M72:R72"/>
     <mergeCell ref="H13:R13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="O14:P14"/>
@@ -15978,66 +15962,70 @@
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C34:G34"/>
     <mergeCell ref="O24:P24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H46:P46"/>
-    <mergeCell ref="H44:N44"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="L75:Q75"/>
-    <mergeCell ref="I53:M53"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="C76:R76"/>
-    <mergeCell ref="E78:J78"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="E75:J75"/>
-    <mergeCell ref="E77:J77"/>
-    <mergeCell ref="L67:R67"/>
-    <mergeCell ref="M72:R72"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="E73:J73"/>
+    <mergeCell ref="L73:Q73"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="H54:P54"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="L74:Q74"/>
+    <mergeCell ref="L77:Q77"/>
+    <mergeCell ref="L78:Q78"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="J58:P58"/>
+    <mergeCell ref="E74:J74"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="H66:Q66"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="H64:N64"/>
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="C69:R69"/>
-    <mergeCell ref="C79:R79"/>
-    <mergeCell ref="C89:R89"/>
-    <mergeCell ref="C99:R99"/>
-    <mergeCell ref="C109:R109"/>
-    <mergeCell ref="C103:G103"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="H83:P83"/>
-    <mergeCell ref="C107:M107"/>
-    <mergeCell ref="J84:R84"/>
-    <mergeCell ref="E85:M85"/>
-    <mergeCell ref="H93:P93"/>
-    <mergeCell ref="H94:P94"/>
-    <mergeCell ref="H96:L96"/>
+    <mergeCell ref="L175:Q175"/>
+    <mergeCell ref="L167:Q167"/>
+    <mergeCell ref="C155:R159"/>
+    <mergeCell ref="C163:R165"/>
+    <mergeCell ref="E166:J166"/>
+    <mergeCell ref="L166:Q166"/>
+    <mergeCell ref="E167:J167"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="L173:Q173"/>
+    <mergeCell ref="E174:J174"/>
+    <mergeCell ref="L174:Q174"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H142:L142"/>
+    <mergeCell ref="C105:M105"/>
+    <mergeCell ref="H106:P106"/>
     <mergeCell ref="C119:R119"/>
     <mergeCell ref="C129:R129"/>
     <mergeCell ref="C139:R139"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="K116:Q116"/>
-    <mergeCell ref="E115:J115"/>
-    <mergeCell ref="L115:Q115"/>
-    <mergeCell ref="C134:G134"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C133:G133"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="H116:J116"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="T58:U60"/>
+    <mergeCell ref="E187:J187"/>
+    <mergeCell ref="L187:Q187"/>
+    <mergeCell ref="H123:P123"/>
+    <mergeCell ref="E184:J184"/>
+    <mergeCell ref="L184:Q184"/>
+    <mergeCell ref="E185:J185"/>
+    <mergeCell ref="L185:Q185"/>
+    <mergeCell ref="E186:J186"/>
+    <mergeCell ref="L186:Q186"/>
+    <mergeCell ref="E176:J176"/>
+    <mergeCell ref="L176:Q176"/>
+    <mergeCell ref="E177:J177"/>
+    <mergeCell ref="L177:Q177"/>
+    <mergeCell ref="E183:J183"/>
+    <mergeCell ref="L183:Q183"/>
+    <mergeCell ref="E173:J173"/>
+    <mergeCell ref="H103:P103"/>
+    <mergeCell ref="H104:P104"/>
+    <mergeCell ref="E175:J175"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -16065,10 +16053,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="122"/>
       <c r="C2" s="41" t="s">
         <v>18</v>
       </c>
@@ -16087,10 +16075,10 @@
       <c r="I2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="117" t="s">
+      <c r="J2" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="117"/>
+      <c r="K2" s="123"/>
     </row>
     <row r="3" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
@@ -16105,10 +16093,10 @@
       <c r="I3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="118" t="s">
+      <c r="J3" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="118"/>
+      <c r="K3" s="124"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -16130,10 +16118,10 @@
       <c r="I4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="118" t="s">
+      <c r="J4" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="118"/>
+      <c r="K4" s="124"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -16408,10 +16396,10 @@
       <c r="H22" s="51"/>
     </row>
     <row r="23" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="116" t="s">
+      <c r="A23" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="116"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="41" t="s">
         <v>18</v>
       </c>
@@ -16616,7 +16604,7 @@
         <v>43929</v>
       </c>
       <c r="D36" s="29"/>
-      <c r="F36" s="113" t="s">
+      <c r="F36" s="78" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16634,7 +16622,7 @@
         <v>43936</v>
       </c>
       <c r="D37" s="44"/>
-      <c r="F37" s="113"/>
+      <c r="F37" s="78"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
@@ -16650,7 +16638,7 @@
         <v>43943</v>
       </c>
       <c r="D38" s="29"/>
-      <c r="F38" s="113"/>
+      <c r="F38" s="78"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="23">

--- a/Weekly Planner.xlsx
+++ b/Weekly Planner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SoftwareProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246BF56E-0D70-49FA-85C6-F5773F8E342B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59DFA32-7E8E-4BD0-BF38-B3488EE39FC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Planner" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="90">
   <si>
     <t>Monday</t>
   </si>
@@ -302,12 +302,21 @@
   <si>
     <t>Software Project - Requirements Specifications</t>
   </si>
+  <si>
+    <t>Software Project - Prototype</t>
+  </si>
+  <si>
+    <t>DAD - Project</t>
+  </si>
+  <si>
+    <t>SP - Montly journal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +409,15 @@
       <u val="double"/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -896,7 +914,7 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1074,31 +1092,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="16" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
@@ -1110,7 +1131,10 @@
     <xf numFmtId="20" fontId="6" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1120,15 +1144,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1182,6 +1197,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1227,10 +1245,22 @@
     <xf numFmtId="20" fontId="9" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="8" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="29" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1242,7 +1272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1545,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C155" sqref="C155:R159"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J116" sqref="J116:N116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1929,14 +1959,14 @@
       <c r="B13" s="57">
         <v>43724</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="91" t="s">
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="90" t="s">
         <v>39</v>
       </c>
       <c r="I13" s="105"/>
@@ -1948,7 +1978,7 @@
       <c r="O13" s="105"/>
       <c r="P13" s="105"/>
       <c r="Q13" s="105"/>
-      <c r="R13" s="92"/>
+      <c r="R13" s="91"/>
       <c r="S13" s="51"/>
       <c r="T13" s="30" t="s">
         <v>22</v>
@@ -1961,13 +1991,13 @@
       <c r="B14" s="57">
         <v>43725</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="106" t="s">
@@ -1977,10 +2007,10 @@
       <c r="L14" s="107"/>
       <c r="M14" s="107"/>
       <c r="N14" s="108"/>
-      <c r="O14" s="91" t="s">
+      <c r="O14" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="92"/>
+      <c r="P14" s="91"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="51"/>
@@ -2023,13 +2053,13 @@
       <c r="B16" s="57">
         <v>43727</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
       <c r="H16" s="114" t="s">
         <v>47</v>
       </c>
@@ -2241,14 +2271,14 @@
         <f>B13+7</f>
         <v>43731</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="91" t="s">
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="90" t="s">
         <v>39</v>
       </c>
       <c r="I23" s="105"/>
@@ -2260,7 +2290,7 @@
       <c r="O23" s="105"/>
       <c r="P23" s="105"/>
       <c r="Q23" s="105"/>
-      <c r="R23" s="92"/>
+      <c r="R23" s="91"/>
       <c r="S23" s="51"/>
       <c r="T23" s="30" t="s">
         <v>22</v>
@@ -2274,26 +2304,26 @@
         <f t="shared" ref="B24:B29" si="0">B14+7</f>
         <v>43732</v>
       </c>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="91" t="s">
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="90" t="s">
         <v>44</v>
       </c>
       <c r="I24" s="115"/>
-      <c r="J24" s="88" t="s">
+      <c r="J24" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="K24" s="89"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="88" t="s">
+      <c r="K24" s="88"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="N24" s="90"/>
+      <c r="N24" s="89"/>
       <c r="O24" s="106" t="s">
         <v>38</v>
       </c>
@@ -2342,13 +2372,13 @@
         <f t="shared" si="0"/>
         <v>43734</v>
       </c>
-      <c r="C26" s="79" t="s">
+      <c r="C26" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
       <c r="H26" s="112" t="s">
         <v>57</v>
       </c>
@@ -2565,13 +2595,13 @@
         <f>B23+7</f>
         <v>43738</v>
       </c>
-      <c r="C33" s="79" t="s">
+      <c r="C33" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
       <c r="H33" s="112" t="s">
         <v>14</v>
       </c>
@@ -2598,13 +2628,13 @@
         <f t="shared" ref="B34:B39" si="1">B24+7</f>
         <v>43739</v>
       </c>
-      <c r="C34" s="79" t="s">
+      <c r="C34" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
       <c r="H34" s="62"/>
       <c r="I34" s="62"/>
       <c r="J34" s="62"/>
@@ -2658,13 +2688,13 @@
         <f t="shared" si="1"/>
         <v>43741</v>
       </c>
-      <c r="C36" s="79" t="s">
+      <c r="C36" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="63"/>
@@ -2877,24 +2907,24 @@
         <f>B33+7</f>
         <v>43745</v>
       </c>
-      <c r="C43" s="79" t="s">
+      <c r="C43" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="77" t="s">
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="77"/>
-      <c r="O43" s="77"/>
-      <c r="P43" s="77"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="75"/>
+      <c r="N43" s="75"/>
+      <c r="O43" s="75"/>
+      <c r="P43" s="75"/>
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
       <c r="S43" s="51"/>
@@ -2910,22 +2940,22 @@
         <f t="shared" ref="B44:B49" si="2">B34+7</f>
         <v>43746</v>
       </c>
-      <c r="C44" s="79" t="s">
+      <c r="C44" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
       <c r="H44" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="101"/>
-      <c r="J44" s="101"/>
-      <c r="K44" s="101"/>
-      <c r="L44" s="101"/>
-      <c r="M44" s="101"/>
-      <c r="N44" s="101"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="100"/>
       <c r="O44" s="49"/>
       <c r="P44" s="49"/>
       <c r="Q44" s="49"/>
@@ -2974,24 +3004,24 @@
         <f t="shared" si="2"/>
         <v>43748</v>
       </c>
-      <c r="C46" s="79" t="s">
+      <c r="C46" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="85" t="s">
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="I46" s="86"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="86"/>
-      <c r="L46" s="86"/>
-      <c r="M46" s="86"/>
-      <c r="N46" s="86"/>
-      <c r="O46" s="86"/>
-      <c r="P46" s="87"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="77"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="77"/>
+      <c r="N46" s="77"/>
+      <c r="O46" s="77"/>
+      <c r="P46" s="78"/>
       <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
       <c r="S46" s="51"/>
@@ -3194,23 +3224,23 @@
         <f>B43+7</f>
         <v>43752</v>
       </c>
-      <c r="C53" s="79" t="s">
+      <c r="C53" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="80"/>
       <c r="H53" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="I53" s="88" t="s">
+      <c r="I53" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="89"/>
-      <c r="K53" s="89"/>
-      <c r="L53" s="89"/>
-      <c r="M53" s="89"/>
+      <c r="J53" s="88"/>
+      <c r="K53" s="88"/>
+      <c r="L53" s="88"/>
+      <c r="M53" s="88"/>
       <c r="N53" s="49"/>
       <c r="O53" s="49"/>
       <c r="P53" s="49"/>
@@ -3229,28 +3259,28 @@
         <f t="shared" ref="B54:B59" si="3">B44+7</f>
         <v>43753</v>
       </c>
-      <c r="C54" s="79" t="s">
+      <c r="C54" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="93" t="s">
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="I54" s="94"/>
-      <c r="J54" s="94"/>
-      <c r="K54" s="94"/>
-      <c r="L54" s="94"/>
-      <c r="M54" s="94"/>
-      <c r="N54" s="94"/>
-      <c r="O54" s="94"/>
-      <c r="P54" s="94"/>
-      <c r="Q54" s="91" t="s">
+      <c r="I54" s="93"/>
+      <c r="J54" s="93"/>
+      <c r="K54" s="93"/>
+      <c r="L54" s="93"/>
+      <c r="M54" s="93"/>
+      <c r="N54" s="93"/>
+      <c r="O54" s="93"/>
+      <c r="P54" s="93"/>
+      <c r="Q54" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="R54" s="92"/>
+      <c r="R54" s="91"/>
       <c r="S54" s="51"/>
       <c r="T54" s="53" t="s">
         <v>19</v>
@@ -3268,18 +3298,18 @@
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
-      <c r="G55" s="79" t="s">
+      <c r="G55" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="H55" s="79"/>
+      <c r="H55" s="80"/>
       <c r="I55" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="J55" s="89"/>
-      <c r="K55" s="89"/>
-      <c r="L55" s="89"/>
-      <c r="M55" s="89"/>
-      <c r="N55" s="89"/>
+      <c r="J55" s="88"/>
+      <c r="K55" s="88"/>
+      <c r="L55" s="88"/>
+      <c r="M55" s="88"/>
+      <c r="N55" s="88"/>
       <c r="O55" s="49"/>
       <c r="P55" s="49"/>
       <c r="Q55" s="49"/>
@@ -3297,21 +3327,21 @@
         <f t="shared" si="3"/>
         <v>43755</v>
       </c>
-      <c r="C56" s="79" t="s">
+      <c r="C56" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="100" t="s">
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="I56" s="101"/>
-      <c r="J56" s="101"/>
-      <c r="K56" s="101"/>
-      <c r="L56" s="101"/>
-      <c r="M56" s="101"/>
+      <c r="I56" s="100"/>
+      <c r="J56" s="100"/>
+      <c r="K56" s="100"/>
+      <c r="L56" s="100"/>
+      <c r="M56" s="100"/>
       <c r="N56" s="49"/>
       <c r="O56" s="49"/>
       <c r="P56" s="49"/>
@@ -3343,11 +3373,11 @@
       <c r="M57" s="49"/>
       <c r="N57" s="49"/>
       <c r="O57" s="49"/>
-      <c r="P57" s="85" t="s">
+      <c r="P57" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="Q57" s="86"/>
-      <c r="R57" s="87"/>
+      <c r="Q57" s="77"/>
+      <c r="R57" s="78"/>
       <c r="S57" s="51"/>
       <c r="T57" s="51"/>
     </row>
@@ -3361,31 +3391,31 @@
       </c>
       <c r="C58" s="50"/>
       <c r="D58" s="49"/>
-      <c r="E58" s="98" t="s">
+      <c r="E58" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="F58" s="86"/>
-      <c r="G58" s="99"/>
-      <c r="H58" s="79" t="s">
+      <c r="F58" s="77"/>
+      <c r="G58" s="98"/>
+      <c r="H58" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="I58" s="79"/>
-      <c r="J58" s="88" t="s">
+      <c r="I58" s="80"/>
+      <c r="J58" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="K58" s="89"/>
-      <c r="L58" s="89"/>
-      <c r="M58" s="89"/>
-      <c r="N58" s="89"/>
-      <c r="O58" s="89"/>
-      <c r="P58" s="90"/>
+      <c r="K58" s="88"/>
+      <c r="L58" s="88"/>
+      <c r="M58" s="88"/>
+      <c r="N58" s="88"/>
+      <c r="O58" s="88"/>
+      <c r="P58" s="89"/>
       <c r="Q58" s="20"/>
       <c r="R58" s="20"/>
       <c r="S58" s="51"/>
-      <c r="T58" s="69" t="s">
+      <c r="T58" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="U58" s="69"/>
+      <c r="U58" s="73"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -3412,8 +3442,8 @@
       <c r="Q59" s="20"/>
       <c r="R59" s="20"/>
       <c r="S59" s="51"/>
-      <c r="T59" s="69"/>
-      <c r="U59" s="69"/>
+      <c r="T59" s="73"/>
+      <c r="U59" s="73"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B60"/>
@@ -3434,8 +3464,8 @@
       <c r="Q60"/>
       <c r="R60"/>
       <c r="S60"/>
-      <c r="T60" s="69"/>
-      <c r="U60" s="69"/>
+      <c r="T60" s="73"/>
+      <c r="U60" s="73"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
@@ -3533,22 +3563,22 @@
         <f>B53+7</f>
         <v>43759</v>
       </c>
-      <c r="C63" s="79" t="s">
+      <c r="C63" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="79"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="80"/>
+      <c r="G63" s="80"/>
       <c r="H63" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="I63" s="88" t="s">
+      <c r="I63" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="J63" s="89"/>
-      <c r="K63" s="89"/>
-      <c r="L63" s="89"/>
+      <c r="J63" s="88"/>
+      <c r="K63" s="88"/>
+      <c r="L63" s="88"/>
       <c r="M63" s="49"/>
       <c r="N63" s="49"/>
       <c r="O63" s="49"/>
@@ -3568,22 +3598,22 @@
         <f t="shared" ref="B64:B69" si="4">B54+7</f>
         <v>43760</v>
       </c>
-      <c r="C64" s="79" t="s">
+      <c r="C64" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="79"/>
-      <c r="H64" s="98" t="s">
+      <c r="D64" s="80"/>
+      <c r="E64" s="80"/>
+      <c r="F64" s="80"/>
+      <c r="G64" s="80"/>
+      <c r="H64" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="I64" s="86"/>
-      <c r="J64" s="86"/>
-      <c r="K64" s="86"/>
-      <c r="L64" s="86"/>
-      <c r="M64" s="86"/>
-      <c r="N64" s="86"/>
+      <c r="I64" s="77"/>
+      <c r="J64" s="77"/>
+      <c r="K64" s="77"/>
+      <c r="L64" s="77"/>
+      <c r="M64" s="77"/>
+      <c r="N64" s="77"/>
       <c r="O64" s="49"/>
       <c r="P64" s="49"/>
       <c r="Q64" s="49"/>
@@ -3632,25 +3662,25 @@
         <f t="shared" si="4"/>
         <v>43762</v>
       </c>
-      <c r="C66" s="79" t="s">
+      <c r="C66" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="79"/>
-      <c r="H66" s="102" t="s">
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="80"/>
+      <c r="G66" s="80"/>
+      <c r="H66" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="I66" s="103"/>
-      <c r="J66" s="103"/>
-      <c r="K66" s="103"/>
-      <c r="L66" s="103"/>
-      <c r="M66" s="103"/>
-      <c r="N66" s="103"/>
-      <c r="O66" s="103"/>
-      <c r="P66" s="103"/>
-      <c r="Q66" s="104"/>
+      <c r="I66" s="102"/>
+      <c r="J66" s="102"/>
+      <c r="K66" s="102"/>
+      <c r="L66" s="102"/>
+      <c r="M66" s="102"/>
+      <c r="N66" s="102"/>
+      <c r="O66" s="102"/>
+      <c r="P66" s="102"/>
+      <c r="Q66" s="103"/>
       <c r="R66" s="20"/>
       <c r="S66" s="51"/>
       <c r="T66" s="18" t="s">
@@ -3665,26 +3695,26 @@
         <f t="shared" si="4"/>
         <v>43763</v>
       </c>
-      <c r="C67" s="88" t="s">
+      <c r="C67" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="89"/>
-      <c r="G67" s="89"/>
-      <c r="H67" s="89"/>
-      <c r="I67" s="89"/>
-      <c r="J67" s="90"/>
+      <c r="D67" s="88"/>
+      <c r="E67" s="88"/>
+      <c r="F67" s="88"/>
+      <c r="G67" s="88"/>
+      <c r="H67" s="88"/>
+      <c r="I67" s="88"/>
+      <c r="J67" s="89"/>
       <c r="K67" s="49"/>
-      <c r="L67" s="89" t="s">
+      <c r="L67" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="M67" s="89"/>
-      <c r="N67" s="89"/>
-      <c r="O67" s="89"/>
-      <c r="P67" s="89"/>
-      <c r="Q67" s="89"/>
-      <c r="R67" s="90"/>
+      <c r="M67" s="88"/>
+      <c r="N67" s="88"/>
+      <c r="O67" s="88"/>
+      <c r="P67" s="88"/>
+      <c r="Q67" s="88"/>
+      <c r="R67" s="89"/>
       <c r="S67" s="51"/>
       <c r="T67" s="51"/>
     </row>
@@ -3723,24 +3753,24 @@
         <f t="shared" si="4"/>
         <v>43765</v>
       </c>
-      <c r="C69" s="79" t="s">
+      <c r="C69" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="D69" s="79"/>
-      <c r="E69" s="79"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="79"/>
-      <c r="H69" s="79"/>
-      <c r="I69" s="79"/>
-      <c r="J69" s="79"/>
-      <c r="K69" s="79"/>
-      <c r="L69" s="79"/>
-      <c r="M69" s="79"/>
-      <c r="N69" s="79"/>
-      <c r="O69" s="79"/>
-      <c r="P69" s="79"/>
-      <c r="Q69" s="79"/>
-      <c r="R69" s="79"/>
+      <c r="D69" s="80"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="80"/>
+      <c r="G69" s="80"/>
+      <c r="H69" s="80"/>
+      <c r="I69" s="80"/>
+      <c r="J69" s="80"/>
+      <c r="K69" s="80"/>
+      <c r="L69" s="80"/>
+      <c r="M69" s="80"/>
+      <c r="N69" s="80"/>
+      <c r="O69" s="80"/>
+      <c r="P69" s="80"/>
+      <c r="Q69" s="80"/>
+      <c r="R69" s="80"/>
       <c r="S69" s="51"/>
       <c r="T69" s="51"/>
     </row>
@@ -3833,18 +3863,18 @@
         <f>C62+1</f>
         <v>7</v>
       </c>
-      <c r="D72" s="80" t="s">
+      <c r="D72" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="80"/>
-      <c r="F72" s="80"/>
+      <c r="E72" s="81"/>
+      <c r="F72" s="81"/>
       <c r="G72" s="15"/>
-      <c r="H72" s="120" t="s">
+      <c r="H72" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="I72" s="120"/>
-      <c r="J72" s="120"/>
-      <c r="K72" s="120"/>
+      <c r="I72" s="104"/>
+      <c r="J72" s="104"/>
+      <c r="K72" s="104"/>
       <c r="L72" s="19"/>
       <c r="M72" s="119" t="s">
         <v>75</v>
@@ -3867,23 +3897,23 @@
       </c>
       <c r="C73" s="32"/>
       <c r="D73" s="20"/>
-      <c r="E73" s="77" t="s">
+      <c r="E73" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="F73" s="77"/>
-      <c r="G73" s="77"/>
-      <c r="H73" s="77"/>
-      <c r="I73" s="77"/>
-      <c r="J73" s="77"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="75"/>
+      <c r="H73" s="75"/>
+      <c r="I73" s="75"/>
+      <c r="J73" s="75"/>
       <c r="K73" s="49"/>
-      <c r="L73" s="88" t="s">
+      <c r="L73" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="M73" s="89"/>
-      <c r="N73" s="89"/>
-      <c r="O73" s="89"/>
-      <c r="P73" s="89"/>
-      <c r="Q73" s="90"/>
+      <c r="M73" s="88"/>
+      <c r="N73" s="88"/>
+      <c r="O73" s="88"/>
+      <c r="P73" s="88"/>
+      <c r="Q73" s="89"/>
       <c r="R73" s="49"/>
       <c r="S73" s="51"/>
       <c r="T73" s="30" t="s">
@@ -3898,27 +3928,27 @@
         <f t="shared" ref="B74:B79" si="5">B64+7</f>
         <v>43767</v>
       </c>
-      <c r="C74" s="88" t="s">
+      <c r="C74" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="D74" s="90"/>
-      <c r="E74" s="77" t="s">
+      <c r="D74" s="89"/>
+      <c r="E74" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="F74" s="77"/>
-      <c r="G74" s="77"/>
-      <c r="H74" s="77"/>
-      <c r="I74" s="77"/>
-      <c r="J74" s="77"/>
+      <c r="F74" s="75"/>
+      <c r="G74" s="75"/>
+      <c r="H74" s="75"/>
+      <c r="I74" s="75"/>
+      <c r="J74" s="75"/>
       <c r="K74" s="49"/>
-      <c r="L74" s="88" t="s">
+      <c r="L74" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="M74" s="89"/>
-      <c r="N74" s="89"/>
-      <c r="O74" s="89"/>
-      <c r="P74" s="89"/>
-      <c r="Q74" s="90"/>
+      <c r="M74" s="88"/>
+      <c r="N74" s="88"/>
+      <c r="O74" s="88"/>
+      <c r="P74" s="88"/>
+      <c r="Q74" s="89"/>
       <c r="R74" s="20"/>
       <c r="S74" s="51"/>
       <c r="T74" s="53" t="s">
@@ -3935,23 +3965,23 @@
       </c>
       <c r="C75" s="32"/>
       <c r="D75" s="20"/>
-      <c r="E75" s="77" t="s">
+      <c r="E75" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="F75" s="77"/>
-      <c r="G75" s="77"/>
-      <c r="H75" s="77"/>
-      <c r="I75" s="77"/>
-      <c r="J75" s="77"/>
+      <c r="F75" s="75"/>
+      <c r="G75" s="75"/>
+      <c r="H75" s="75"/>
+      <c r="I75" s="75"/>
+      <c r="J75" s="75"/>
       <c r="K75" s="49"/>
-      <c r="L75" s="88" t="s">
+      <c r="L75" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="M75" s="89"/>
-      <c r="N75" s="89"/>
-      <c r="O75" s="89"/>
-      <c r="P75" s="89"/>
-      <c r="Q75" s="90"/>
+      <c r="M75" s="88"/>
+      <c r="N75" s="88"/>
+      <c r="O75" s="88"/>
+      <c r="P75" s="88"/>
+      <c r="Q75" s="89"/>
       <c r="R75" s="49"/>
       <c r="S75" s="51"/>
       <c r="T75" s="52" t="s">
@@ -3966,24 +3996,24 @@
         <f t="shared" si="5"/>
         <v>43769</v>
       </c>
-      <c r="C76" s="79" t="s">
+      <c r="C76" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="D76" s="79"/>
-      <c r="E76" s="79"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="79"/>
-      <c r="H76" s="79"/>
-      <c r="I76" s="79"/>
-      <c r="J76" s="79"/>
-      <c r="K76" s="79"/>
-      <c r="L76" s="79"/>
-      <c r="M76" s="79"/>
-      <c r="N76" s="79"/>
-      <c r="O76" s="79"/>
-      <c r="P76" s="79"/>
-      <c r="Q76" s="79"/>
-      <c r="R76" s="79"/>
+      <c r="D76" s="80"/>
+      <c r="E76" s="80"/>
+      <c r="F76" s="80"/>
+      <c r="G76" s="80"/>
+      <c r="H76" s="80"/>
+      <c r="I76" s="80"/>
+      <c r="J76" s="80"/>
+      <c r="K76" s="80"/>
+      <c r="L76" s="80"/>
+      <c r="M76" s="80"/>
+      <c r="N76" s="80"/>
+      <c r="O76" s="80"/>
+      <c r="P76" s="80"/>
+      <c r="Q76" s="80"/>
+      <c r="R76" s="80"/>
       <c r="S76" s="51"/>
       <c r="T76" s="18" t="s">
         <v>21</v>
@@ -4008,14 +4038,14 @@
       <c r="I77" s="112"/>
       <c r="J77" s="112"/>
       <c r="K77" s="49"/>
-      <c r="L77" s="95" t="s">
+      <c r="L77" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="M77" s="96"/>
-      <c r="N77" s="96"/>
-      <c r="O77" s="96"/>
-      <c r="P77" s="96"/>
-      <c r="Q77" s="97"/>
+      <c r="M77" s="95"/>
+      <c r="N77" s="95"/>
+      <c r="O77" s="95"/>
+      <c r="P77" s="95"/>
+      <c r="Q77" s="96"/>
       <c r="R77" s="20"/>
       <c r="S77" s="51"/>
       <c r="T77" s="51"/>
@@ -4039,14 +4069,14 @@
       <c r="I78" s="112"/>
       <c r="J78" s="112"/>
       <c r="K78" s="49"/>
-      <c r="L78" s="95" t="s">
+      <c r="L78" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="M78" s="96"/>
-      <c r="N78" s="96"/>
-      <c r="O78" s="96"/>
-      <c r="P78" s="96"/>
-      <c r="Q78" s="97"/>
+      <c r="M78" s="95"/>
+      <c r="N78" s="95"/>
+      <c r="O78" s="95"/>
+      <c r="P78" s="95"/>
+      <c r="Q78" s="96"/>
       <c r="R78" s="49"/>
       <c r="S78" s="51"/>
       <c r="T78" s="51"/>
@@ -4059,24 +4089,24 @@
         <f t="shared" si="5"/>
         <v>43772</v>
       </c>
-      <c r="C79" s="79" t="s">
+      <c r="C79" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="D79" s="79"/>
-      <c r="E79" s="79"/>
-      <c r="F79" s="79"/>
-      <c r="G79" s="79"/>
-      <c r="H79" s="79"/>
-      <c r="I79" s="79"/>
-      <c r="J79" s="79"/>
-      <c r="K79" s="79"/>
-      <c r="L79" s="79"/>
-      <c r="M79" s="79"/>
-      <c r="N79" s="79"/>
-      <c r="O79" s="79"/>
-      <c r="P79" s="79"/>
-      <c r="Q79" s="79"/>
-      <c r="R79" s="79"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="80"/>
+      <c r="F79" s="80"/>
+      <c r="G79" s="80"/>
+      <c r="H79" s="80"/>
+      <c r="I79" s="80"/>
+      <c r="J79" s="80"/>
+      <c r="K79" s="80"/>
+      <c r="L79" s="80"/>
+      <c r="M79" s="80"/>
+      <c r="N79" s="80"/>
+      <c r="O79" s="80"/>
+      <c r="P79" s="80"/>
+      <c r="Q79" s="80"/>
+      <c r="R79" s="80"/>
       <c r="S79" s="51"/>
       <c r="T79" s="51"/>
     </row>
@@ -4150,11 +4180,11 @@
         <f>C72+1</f>
         <v>8</v>
       </c>
-      <c r="D82" s="80" t="s">
+      <c r="D82" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="80"/>
-      <c r="F82" s="80"/>
+      <c r="E82" s="81"/>
+      <c r="F82" s="81"/>
       <c r="G82" s="15"/>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -4179,24 +4209,24 @@
         <f>B73+7</f>
         <v>43773</v>
       </c>
-      <c r="C83" s="79" t="s">
+      <c r="C83" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="79"/>
-      <c r="E83" s="79"/>
-      <c r="F83" s="79"/>
-      <c r="G83" s="79"/>
-      <c r="H83" s="85" t="s">
+      <c r="D83" s="80"/>
+      <c r="E83" s="80"/>
+      <c r="F83" s="80"/>
+      <c r="G83" s="80"/>
+      <c r="H83" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="I83" s="86"/>
-      <c r="J83" s="86"/>
-      <c r="K83" s="86"/>
-      <c r="L83" s="86"/>
-      <c r="M83" s="86"/>
-      <c r="N83" s="86"/>
-      <c r="O83" s="86"/>
-      <c r="P83" s="87"/>
+      <c r="I83" s="77"/>
+      <c r="J83" s="77"/>
+      <c r="K83" s="77"/>
+      <c r="L83" s="77"/>
+      <c r="M83" s="77"/>
+      <c r="N83" s="77"/>
+      <c r="O83" s="77"/>
+      <c r="P83" s="78"/>
       <c r="Q83" s="20"/>
       <c r="R83" s="20"/>
       <c r="S83" s="51"/>
@@ -4213,28 +4243,28 @@
         <f t="shared" ref="B84:B89" si="6">B74+7</f>
         <v>43774</v>
       </c>
-      <c r="C84" s="79" t="s">
+      <c r="C84" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="79"/>
-      <c r="E84" s="79"/>
-      <c r="F84" s="79"/>
-      <c r="G84" s="79"/>
-      <c r="H84" s="79" t="s">
+      <c r="D84" s="80"/>
+      <c r="E84" s="80"/>
+      <c r="F84" s="80"/>
+      <c r="G84" s="80"/>
+      <c r="H84" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="I84" s="79"/>
-      <c r="J84" s="85" t="s">
+      <c r="I84" s="80"/>
+      <c r="J84" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="K84" s="86"/>
-      <c r="L84" s="86"/>
-      <c r="M84" s="86"/>
-      <c r="N84" s="86"/>
-      <c r="O84" s="86"/>
-      <c r="P84" s="86"/>
-      <c r="Q84" s="86"/>
-      <c r="R84" s="87"/>
+      <c r="K84" s="77"/>
+      <c r="L84" s="77"/>
+      <c r="M84" s="77"/>
+      <c r="N84" s="77"/>
+      <c r="O84" s="77"/>
+      <c r="P84" s="77"/>
+      <c r="Q84" s="77"/>
+      <c r="R84" s="78"/>
       <c r="S84" s="51"/>
       <c r="T84" s="53" t="s">
         <v>19</v>
@@ -4251,17 +4281,17 @@
       </c>
       <c r="C85" s="32"/>
       <c r="D85" s="20"/>
-      <c r="E85" s="85" t="s">
+      <c r="E85" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="F85" s="86"/>
-      <c r="G85" s="86"/>
-      <c r="H85" s="86"/>
-      <c r="I85" s="86"/>
-      <c r="J85" s="86"/>
-      <c r="K85" s="86"/>
-      <c r="L85" s="86"/>
-      <c r="M85" s="87"/>
+      <c r="F85" s="77"/>
+      <c r="G85" s="77"/>
+      <c r="H85" s="77"/>
+      <c r="I85" s="77"/>
+      <c r="J85" s="77"/>
+      <c r="K85" s="77"/>
+      <c r="L85" s="77"/>
+      <c r="M85" s="78"/>
       <c r="N85" s="49"/>
       <c r="O85" s="49"/>
       <c r="P85" s="49"/>
@@ -4281,13 +4311,13 @@
         <f t="shared" si="6"/>
         <v>43776</v>
       </c>
-      <c r="C86" s="81" t="s">
+      <c r="C86" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="D86" s="81"/>
-      <c r="E86" s="81"/>
-      <c r="F86" s="81"/>
-      <c r="G86" s="81"/>
+      <c r="D86" s="120"/>
+      <c r="E86" s="120"/>
+      <c r="F86" s="120"/>
+      <c r="G86" s="120"/>
       <c r="H86" s="49"/>
       <c r="I86" s="49"/>
       <c r="J86" s="49"/>
@@ -4369,24 +4399,24 @@
         <f t="shared" si="6"/>
         <v>43779</v>
       </c>
-      <c r="C89" s="79" t="s">
+      <c r="C89" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="D89" s="79"/>
-      <c r="E89" s="79"/>
-      <c r="F89" s="79"/>
-      <c r="G89" s="79"/>
-      <c r="H89" s="79"/>
-      <c r="I89" s="79"/>
-      <c r="J89" s="79"/>
-      <c r="K89" s="79"/>
-      <c r="L89" s="79"/>
-      <c r="M89" s="79"/>
-      <c r="N89" s="79"/>
-      <c r="O89" s="79"/>
-      <c r="P89" s="79"/>
-      <c r="Q89" s="79"/>
-      <c r="R89" s="79"/>
+      <c r="D89" s="80"/>
+      <c r="E89" s="80"/>
+      <c r="F89" s="80"/>
+      <c r="G89" s="80"/>
+      <c r="H89" s="80"/>
+      <c r="I89" s="80"/>
+      <c r="J89" s="80"/>
+      <c r="K89" s="80"/>
+      <c r="L89" s="80"/>
+      <c r="M89" s="80"/>
+      <c r="N89" s="80"/>
+      <c r="O89" s="80"/>
+      <c r="P89" s="80"/>
+      <c r="Q89" s="80"/>
+      <c r="R89" s="80"/>
       <c r="S89" s="51"/>
       <c r="T89" s="51"/>
       <c r="U89" s="54"/>
@@ -4488,24 +4518,24 @@
         <f>B83+7</f>
         <v>43780</v>
       </c>
-      <c r="C93" s="79" t="s">
+      <c r="C93" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="79"/>
-      <c r="E93" s="79"/>
-      <c r="F93" s="79"/>
-      <c r="G93" s="79"/>
-      <c r="H93" s="77" t="s">
+      <c r="D93" s="80"/>
+      <c r="E93" s="80"/>
+      <c r="F93" s="80"/>
+      <c r="G93" s="80"/>
+      <c r="H93" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="I93" s="77"/>
-      <c r="J93" s="77"/>
-      <c r="K93" s="77"/>
-      <c r="L93" s="77"/>
-      <c r="M93" s="77"/>
-      <c r="N93" s="77"/>
-      <c r="O93" s="77"/>
-      <c r="P93" s="77"/>
+      <c r="I93" s="75"/>
+      <c r="J93" s="75"/>
+      <c r="K93" s="75"/>
+      <c r="L93" s="75"/>
+      <c r="M93" s="75"/>
+      <c r="N93" s="75"/>
+      <c r="O93" s="75"/>
+      <c r="P93" s="75"/>
       <c r="Q93" s="20"/>
       <c r="R93" s="20"/>
       <c r="S93" s="51"/>
@@ -4522,24 +4552,24 @@
         <f t="shared" ref="B94:B99" si="7">B84+7</f>
         <v>43781</v>
       </c>
-      <c r="C94" s="79" t="s">
+      <c r="C94" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="79"/>
-      <c r="E94" s="79"/>
-      <c r="F94" s="79"/>
-      <c r="G94" s="79"/>
-      <c r="H94" s="77" t="s">
+      <c r="D94" s="80"/>
+      <c r="E94" s="80"/>
+      <c r="F94" s="80"/>
+      <c r="G94" s="80"/>
+      <c r="H94" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="I94" s="77"/>
-      <c r="J94" s="77"/>
-      <c r="K94" s="77"/>
-      <c r="L94" s="77"/>
-      <c r="M94" s="77"/>
-      <c r="N94" s="77"/>
-      <c r="O94" s="77"/>
-      <c r="P94" s="77"/>
+      <c r="I94" s="75"/>
+      <c r="J94" s="75"/>
+      <c r="K94" s="75"/>
+      <c r="L94" s="75"/>
+      <c r="M94" s="75"/>
+      <c r="N94" s="75"/>
+      <c r="O94" s="75"/>
+      <c r="P94" s="75"/>
       <c r="Q94" s="20"/>
       <c r="R94" s="20"/>
       <c r="S94" s="51"/>
@@ -4586,20 +4616,20 @@
         <f t="shared" si="7"/>
         <v>43783</v>
       </c>
-      <c r="C96" s="79" t="s">
+      <c r="C96" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D96" s="79"/>
-      <c r="E96" s="79"/>
-      <c r="F96" s="79"/>
-      <c r="G96" s="79"/>
-      <c r="H96" s="88" t="s">
+      <c r="D96" s="80"/>
+      <c r="E96" s="80"/>
+      <c r="F96" s="80"/>
+      <c r="G96" s="80"/>
+      <c r="H96" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="I96" s="89"/>
-      <c r="J96" s="89"/>
-      <c r="K96" s="89"/>
-      <c r="L96" s="90"/>
+      <c r="I96" s="88"/>
+      <c r="J96" s="88"/>
+      <c r="K96" s="88"/>
+      <c r="L96" s="89"/>
       <c r="M96" s="20"/>
       <c r="N96" s="20"/>
       <c r="O96" s="20"/>
@@ -4676,24 +4706,24 @@
         <f t="shared" si="7"/>
         <v>43786</v>
       </c>
-      <c r="C99" s="79" t="s">
+      <c r="C99" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="D99" s="79"/>
-      <c r="E99" s="79"/>
-      <c r="F99" s="79"/>
-      <c r="G99" s="79"/>
-      <c r="H99" s="79"/>
-      <c r="I99" s="79"/>
-      <c r="J99" s="79"/>
-      <c r="K99" s="79"/>
-      <c r="L99" s="79"/>
-      <c r="M99" s="79"/>
-      <c r="N99" s="79"/>
-      <c r="O99" s="79"/>
-      <c r="P99" s="79"/>
-      <c r="Q99" s="79"/>
-      <c r="R99" s="79"/>
+      <c r="D99" s="80"/>
+      <c r="E99" s="80"/>
+      <c r="F99" s="80"/>
+      <c r="G99" s="80"/>
+      <c r="H99" s="80"/>
+      <c r="I99" s="80"/>
+      <c r="J99" s="80"/>
+      <c r="K99" s="80"/>
+      <c r="L99" s="80"/>
+      <c r="M99" s="80"/>
+      <c r="N99" s="80"/>
+      <c r="O99" s="80"/>
+      <c r="P99" s="80"/>
+      <c r="Q99" s="80"/>
+      <c r="R99" s="80"/>
       <c r="S99" s="51"/>
       <c r="T99" s="51"/>
       <c r="U99" s="54"/>
@@ -4795,24 +4825,24 @@
         <f>B93+7</f>
         <v>43787</v>
       </c>
-      <c r="C103" s="79" t="s">
+      <c r="C103" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="79"/>
-      <c r="E103" s="79"/>
-      <c r="F103" s="79"/>
-      <c r="G103" s="79"/>
-      <c r="H103" s="77" t="s">
+      <c r="D103" s="80"/>
+      <c r="E103" s="80"/>
+      <c r="F103" s="80"/>
+      <c r="G103" s="80"/>
+      <c r="H103" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="I103" s="77"/>
-      <c r="J103" s="77"/>
-      <c r="K103" s="77"/>
-      <c r="L103" s="77"/>
-      <c r="M103" s="77"/>
-      <c r="N103" s="77"/>
-      <c r="O103" s="77"/>
-      <c r="P103" s="77"/>
+      <c r="I103" s="75"/>
+      <c r="J103" s="75"/>
+      <c r="K103" s="75"/>
+      <c r="L103" s="75"/>
+      <c r="M103" s="75"/>
+      <c r="N103" s="75"/>
+      <c r="O103" s="75"/>
+      <c r="P103" s="75"/>
       <c r="Q103" s="20"/>
       <c r="R103" s="20"/>
       <c r="S103" s="51"/>
@@ -4829,24 +4859,24 @@
         <f t="shared" ref="B104:B109" si="8">B94+7</f>
         <v>43788</v>
       </c>
-      <c r="C104" s="79" t="s">
+      <c r="C104" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D104" s="79"/>
-      <c r="E104" s="79"/>
-      <c r="F104" s="79"/>
-      <c r="G104" s="79"/>
-      <c r="H104" s="77" t="s">
+      <c r="D104" s="80"/>
+      <c r="E104" s="80"/>
+      <c r="F104" s="80"/>
+      <c r="G104" s="80"/>
+      <c r="H104" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="I104" s="77"/>
-      <c r="J104" s="77"/>
-      <c r="K104" s="77"/>
-      <c r="L104" s="77"/>
-      <c r="M104" s="77"/>
-      <c r="N104" s="77"/>
-      <c r="O104" s="77"/>
-      <c r="P104" s="77"/>
+      <c r="I104" s="75"/>
+      <c r="J104" s="75"/>
+      <c r="K104" s="75"/>
+      <c r="L104" s="75"/>
+      <c r="M104" s="75"/>
+      <c r="N104" s="75"/>
+      <c r="O104" s="75"/>
+      <c r="P104" s="75"/>
       <c r="Q104" s="20"/>
       <c r="R104" s="20"/>
       <c r="S104" s="51"/>
@@ -4863,19 +4893,19 @@
         <f t="shared" si="8"/>
         <v>43789</v>
       </c>
-      <c r="C105" s="82" t="s">
+      <c r="C105" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="D105" s="83"/>
-      <c r="E105" s="83"/>
-      <c r="F105" s="83"/>
-      <c r="G105" s="83"/>
-      <c r="H105" s="83"/>
-      <c r="I105" s="83"/>
-      <c r="J105" s="83"/>
-      <c r="K105" s="83"/>
-      <c r="L105" s="83"/>
-      <c r="M105" s="84"/>
+      <c r="D105" s="85"/>
+      <c r="E105" s="85"/>
+      <c r="F105" s="85"/>
+      <c r="G105" s="85"/>
+      <c r="H105" s="85"/>
+      <c r="I105" s="85"/>
+      <c r="J105" s="85"/>
+      <c r="K105" s="85"/>
+      <c r="L105" s="85"/>
+      <c r="M105" s="86"/>
       <c r="N105" s="49"/>
       <c r="O105" s="49"/>
       <c r="P105" s="49"/>
@@ -4895,24 +4925,24 @@
         <f t="shared" si="8"/>
         <v>43790</v>
       </c>
-      <c r="C106" s="79" t="s">
+      <c r="C106" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D106" s="79"/>
-      <c r="E106" s="79"/>
-      <c r="F106" s="79"/>
-      <c r="G106" s="79"/>
-      <c r="H106" s="77" t="s">
+      <c r="D106" s="80"/>
+      <c r="E106" s="80"/>
+      <c r="F106" s="80"/>
+      <c r="G106" s="80"/>
+      <c r="H106" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="I106" s="77"/>
-      <c r="J106" s="77"/>
-      <c r="K106" s="77"/>
-      <c r="L106" s="77"/>
-      <c r="M106" s="77"/>
-      <c r="N106" s="77"/>
-      <c r="O106" s="77"/>
-      <c r="P106" s="77"/>
+      <c r="I106" s="75"/>
+      <c r="J106" s="75"/>
+      <c r="K106" s="75"/>
+      <c r="L106" s="75"/>
+      <c r="M106" s="75"/>
+      <c r="N106" s="75"/>
+      <c r="O106" s="75"/>
+      <c r="P106" s="75"/>
       <c r="Q106" s="20"/>
       <c r="R106" s="20"/>
       <c r="S106" s="51"/>
@@ -4929,7 +4959,7 @@
         <f t="shared" si="8"/>
         <v>43791</v>
       </c>
-      <c r="C107" s="125" t="s">
+      <c r="C107" s="121" t="s">
         <v>86</v>
       </c>
       <c r="D107" s="110"/>
@@ -4987,24 +5017,24 @@
         <f t="shared" si="8"/>
         <v>43793</v>
       </c>
-      <c r="C109" s="79" t="s">
+      <c r="C109" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="D109" s="79"/>
-      <c r="E109" s="79"/>
-      <c r="F109" s="79"/>
-      <c r="G109" s="79"/>
-      <c r="H109" s="79"/>
-      <c r="I109" s="79"/>
-      <c r="J109" s="79"/>
-      <c r="K109" s="79"/>
-      <c r="L109" s="79"/>
-      <c r="M109" s="79"/>
-      <c r="N109" s="79"/>
-      <c r="O109" s="79"/>
-      <c r="P109" s="79"/>
-      <c r="Q109" s="79"/>
-      <c r="R109" s="79"/>
+      <c r="D109" s="80"/>
+      <c r="E109" s="80"/>
+      <c r="F109" s="80"/>
+      <c r="G109" s="80"/>
+      <c r="H109" s="80"/>
+      <c r="I109" s="80"/>
+      <c r="J109" s="80"/>
+      <c r="K109" s="80"/>
+      <c r="L109" s="80"/>
+      <c r="M109" s="80"/>
+      <c r="N109" s="80"/>
+      <c r="O109" s="80"/>
+      <c r="P109" s="80"/>
+      <c r="Q109" s="80"/>
+      <c r="R109" s="80"/>
       <c r="S109" s="51"/>
       <c r="T109" s="51"/>
       <c r="U109" s="54"/>
@@ -5079,11 +5109,11 @@
         <f>C102+1</f>
         <v>11</v>
       </c>
-      <c r="D112" s="80" t="s">
+      <c r="D112" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="E112" s="80"/>
-      <c r="F112" s="80"/>
+      <c r="E112" s="81"/>
+      <c r="F112" s="81"/>
       <c r="G112" s="15"/>
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
@@ -5108,21 +5138,21 @@
         <f>B103+7</f>
         <v>43794</v>
       </c>
-      <c r="C113" s="79" t="s">
+      <c r="C113" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D113" s="79"/>
-      <c r="E113" s="79"/>
-      <c r="F113" s="79"/>
-      <c r="G113" s="79"/>
-      <c r="H113" s="77" t="s">
+      <c r="D113" s="80"/>
+      <c r="E113" s="80"/>
+      <c r="F113" s="80"/>
+      <c r="G113" s="80"/>
+      <c r="H113" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="I113" s="77"/>
-      <c r="J113" s="77"/>
-      <c r="K113" s="77"/>
-      <c r="L113" s="77"/>
-      <c r="M113" s="77"/>
+      <c r="I113" s="75"/>
+      <c r="J113" s="75"/>
+      <c r="K113" s="75"/>
+      <c r="L113" s="75"/>
+      <c r="M113" s="75"/>
       <c r="N113" s="20"/>
       <c r="O113" s="20"/>
       <c r="P113" s="20"/>
@@ -5142,21 +5172,21 @@
         <f t="shared" ref="B114:B119" si="9">B104+7</f>
         <v>43795</v>
       </c>
-      <c r="C114" s="79" t="s">
+      <c r="C114" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D114" s="79"/>
-      <c r="E114" s="79"/>
-      <c r="F114" s="79"/>
-      <c r="G114" s="79"/>
-      <c r="H114" s="77" t="s">
+      <c r="D114" s="80"/>
+      <c r="E114" s="80"/>
+      <c r="F114" s="80"/>
+      <c r="G114" s="80"/>
+      <c r="H114" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="I114" s="77"/>
-      <c r="J114" s="77"/>
-      <c r="K114" s="77"/>
-      <c r="L114" s="77"/>
-      <c r="M114" s="77"/>
+      <c r="I114" s="75"/>
+      <c r="J114" s="75"/>
+      <c r="K114" s="75"/>
+      <c r="L114" s="75"/>
+      <c r="M114" s="75"/>
       <c r="N114" s="20"/>
       <c r="O114" s="49"/>
       <c r="P114" s="49"/>
@@ -5176,26 +5206,24 @@
         <f t="shared" si="9"/>
         <v>43796</v>
       </c>
-      <c r="C115" s="32"/>
-      <c r="D115" s="20"/>
-      <c r="E115" s="70" t="s">
+      <c r="C115" s="50"/>
+      <c r="D115" s="49"/>
+      <c r="E115" s="49"/>
+      <c r="F115" s="49"/>
+      <c r="G115" s="49"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="F115" s="70"/>
-      <c r="G115" s="70"/>
-      <c r="H115" s="70"/>
-      <c r="I115" s="70"/>
-      <c r="J115" s="70"/>
-      <c r="K115" s="49"/>
-      <c r="L115" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="M115" s="72"/>
-      <c r="N115" s="72"/>
-      <c r="O115" s="72"/>
-      <c r="P115" s="72"/>
-      <c r="Q115" s="73"/>
-      <c r="R115" s="49"/>
+      <c r="J115" s="77"/>
+      <c r="K115" s="77"/>
+      <c r="L115" s="77"/>
+      <c r="M115" s="77"/>
+      <c r="N115" s="77"/>
+      <c r="O115" s="77"/>
+      <c r="P115" s="77"/>
+      <c r="Q115" s="77"/>
+      <c r="R115" s="78"/>
       <c r="S115" s="51"/>
       <c r="T115" s="52" t="s">
         <v>20</v>
@@ -5210,27 +5238,27 @@
         <f t="shared" si="9"/>
         <v>43797</v>
       </c>
-      <c r="C116" s="79" t="s">
+      <c r="C116" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D116" s="79"/>
-      <c r="E116" s="79"/>
-      <c r="F116" s="79"/>
-      <c r="G116" s="79"/>
-      <c r="H116" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="I116" s="70"/>
-      <c r="J116" s="70"/>
-      <c r="K116" s="74" t="s">
-        <v>86</v>
-      </c>
-      <c r="L116" s="75"/>
-      <c r="M116" s="75"/>
-      <c r="N116" s="75"/>
-      <c r="O116" s="75"/>
-      <c r="P116" s="75"/>
-      <c r="Q116" s="121"/>
+      <c r="D116" s="80"/>
+      <c r="E116" s="80"/>
+      <c r="F116" s="80"/>
+      <c r="G116" s="80"/>
+      <c r="H116" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="I116" s="89"/>
+      <c r="J116" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="K116" s="77"/>
+      <c r="L116" s="77"/>
+      <c r="M116" s="77"/>
+      <c r="N116" s="78"/>
+      <c r="O116" s="20"/>
+      <c r="P116" s="20"/>
+      <c r="Q116" s="20"/>
       <c r="R116" s="20"/>
       <c r="S116" s="51"/>
       <c r="T116" s="18" t="s">
@@ -5302,24 +5330,24 @@
         <f t="shared" si="9"/>
         <v>43800</v>
       </c>
-      <c r="C119" s="79" t="s">
+      <c r="C119" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="D119" s="79"/>
-      <c r="E119" s="79"/>
-      <c r="F119" s="79"/>
-      <c r="G119" s="79"/>
-      <c r="H119" s="79"/>
-      <c r="I119" s="79"/>
-      <c r="J119" s="79"/>
-      <c r="K119" s="79"/>
-      <c r="L119" s="79"/>
-      <c r="M119" s="79"/>
-      <c r="N119" s="79"/>
-      <c r="O119" s="79"/>
-      <c r="P119" s="79"/>
-      <c r="Q119" s="79"/>
-      <c r="R119" s="79"/>
+      <c r="D119" s="80"/>
+      <c r="E119" s="80"/>
+      <c r="F119" s="80"/>
+      <c r="G119" s="80"/>
+      <c r="H119" s="80"/>
+      <c r="I119" s="80"/>
+      <c r="J119" s="80"/>
+      <c r="K119" s="80"/>
+      <c r="L119" s="80"/>
+      <c r="M119" s="80"/>
+      <c r="N119" s="80"/>
+      <c r="O119" s="80"/>
+      <c r="P119" s="80"/>
+      <c r="Q119" s="80"/>
+      <c r="R119" s="80"/>
       <c r="S119" s="51"/>
       <c r="T119" s="51"/>
       <c r="U119" s="54"/>
@@ -5394,11 +5422,11 @@
         <f>C112+1</f>
         <v>12</v>
       </c>
-      <c r="D122" s="80" t="s">
+      <c r="D122" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="E122" s="80"/>
-      <c r="F122" s="80"/>
+      <c r="E122" s="104"/>
+      <c r="F122" s="104"/>
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
@@ -5419,28 +5447,28 @@
       <c r="A123" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B123" s="57">
+      <c r="B123" s="69">
         <f>B113+7</f>
         <v>43801</v>
       </c>
-      <c r="C123" s="79" t="s">
+      <c r="C123" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="79"/>
-      <c r="E123" s="79"/>
-      <c r="F123" s="79"/>
-      <c r="G123" s="79"/>
+      <c r="D123" s="82"/>
+      <c r="E123" s="82"/>
+      <c r="F123" s="82"/>
+      <c r="G123" s="82"/>
       <c r="H123" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="I123" s="75"/>
-      <c r="J123" s="75"/>
-      <c r="K123" s="75"/>
-      <c r="L123" s="75"/>
-      <c r="M123" s="75"/>
-      <c r="N123" s="75"/>
-      <c r="O123" s="75"/>
-      <c r="P123" s="76"/>
+        <v>87</v>
+      </c>
+      <c r="I123" s="74"/>
+      <c r="J123" s="74"/>
+      <c r="K123" s="74"/>
+      <c r="L123" s="74"/>
+      <c r="M123" s="74"/>
+      <c r="N123" s="74"/>
+      <c r="O123" s="74"/>
+      <c r="P123" s="74"/>
       <c r="Q123" s="20"/>
       <c r="R123" s="20"/>
       <c r="S123" s="51"/>
@@ -5453,28 +5481,28 @@
       <c r="A124" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B124" s="57">
+      <c r="B124" s="69">
         <f t="shared" ref="B124:B129" si="10">B114+7</f>
         <v>43802</v>
       </c>
-      <c r="C124" s="79" t="s">
+      <c r="C124" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="D124" s="79"/>
-      <c r="E124" s="79"/>
-      <c r="F124" s="79"/>
-      <c r="G124" s="79"/>
+      <c r="D124" s="82"/>
+      <c r="E124" s="82"/>
+      <c r="F124" s="82"/>
+      <c r="G124" s="82"/>
       <c r="H124" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="I124" s="75"/>
-      <c r="J124" s="75"/>
-      <c r="K124" s="75"/>
-      <c r="L124" s="75"/>
-      <c r="M124" s="75"/>
-      <c r="N124" s="75"/>
-      <c r="O124" s="75"/>
-      <c r="P124" s="76"/>
+      <c r="I124" s="74"/>
+      <c r="J124" s="74"/>
+      <c r="K124" s="74"/>
+      <c r="L124" s="74"/>
+      <c r="M124" s="74"/>
+      <c r="N124" s="74"/>
+      <c r="O124" s="74"/>
+      <c r="P124" s="74"/>
       <c r="Q124" s="20"/>
       <c r="R124" s="20"/>
       <c r="S124" s="51"/>
@@ -5487,26 +5515,28 @@
       <c r="A125" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B125" s="57">
+      <c r="B125" s="69">
         <f t="shared" si="10"/>
         <v>43803</v>
       </c>
       <c r="C125" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="D125" s="75"/>
-      <c r="E125" s="75"/>
-      <c r="F125" s="75"/>
-      <c r="G125" s="75"/>
-      <c r="H125" s="75"/>
-      <c r="I125" s="75"/>
-      <c r="J125" s="75"/>
-      <c r="K125" s="76"/>
+      <c r="D125" s="74"/>
+      <c r="E125" s="74"/>
+      <c r="F125" s="74"/>
+      <c r="G125" s="74"/>
+      <c r="H125" s="74"/>
+      <c r="I125" s="74"/>
+      <c r="J125" s="74"/>
+      <c r="K125" s="74"/>
       <c r="L125" s="49"/>
-      <c r="M125" s="49"/>
-      <c r="N125" s="49"/>
-      <c r="O125" s="49"/>
-      <c r="P125" s="49"/>
+      <c r="M125" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="N125" s="74"/>
+      <c r="O125" s="74"/>
+      <c r="P125" s="74"/>
       <c r="Q125" s="49"/>
       <c r="R125" s="49"/>
       <c r="S125" s="51"/>
@@ -5519,17 +5549,17 @@
       <c r="A126" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B126" s="57">
+      <c r="B126" s="69">
         <f t="shared" si="10"/>
         <v>43804</v>
       </c>
-      <c r="C126" s="81" t="s">
+      <c r="C126" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="D126" s="81"/>
-      <c r="E126" s="81"/>
-      <c r="F126" s="81"/>
-      <c r="G126" s="81"/>
+      <c r="D126" s="83"/>
+      <c r="E126" s="83"/>
+      <c r="F126" s="83"/>
+      <c r="G126" s="83"/>
       <c r="H126" s="49"/>
       <c r="I126" s="49"/>
       <c r="J126" s="49"/>
@@ -5611,24 +5641,24 @@
         <f t="shared" si="10"/>
         <v>43807</v>
       </c>
-      <c r="C129" s="79" t="s">
+      <c r="C129" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="D129" s="79"/>
-      <c r="E129" s="79"/>
-      <c r="F129" s="79"/>
-      <c r="G129" s="79"/>
-      <c r="H129" s="79"/>
-      <c r="I129" s="79"/>
-      <c r="J129" s="79"/>
-      <c r="K129" s="79"/>
-      <c r="L129" s="79"/>
-      <c r="M129" s="79"/>
-      <c r="N129" s="79"/>
-      <c r="O129" s="79"/>
-      <c r="P129" s="79"/>
-      <c r="Q129" s="79"/>
-      <c r="R129" s="79"/>
+      <c r="D129" s="80"/>
+      <c r="E129" s="80"/>
+      <c r="F129" s="80"/>
+      <c r="G129" s="80"/>
+      <c r="H129" s="80"/>
+      <c r="I129" s="80"/>
+      <c r="J129" s="80"/>
+      <c r="K129" s="80"/>
+      <c r="L129" s="80"/>
+      <c r="M129" s="80"/>
+      <c r="N129" s="80"/>
+      <c r="O129" s="80"/>
+      <c r="P129" s="80"/>
+      <c r="Q129" s="80"/>
+      <c r="R129" s="80"/>
       <c r="S129" s="51"/>
       <c r="T129" s="51"/>
       <c r="U129" s="54"/>
@@ -5730,22 +5760,24 @@
         <f>B123+7</f>
         <v>43808</v>
       </c>
-      <c r="C133" s="79" t="s">
+      <c r="C133" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D133" s="79"/>
-      <c r="E133" s="79"/>
-      <c r="F133" s="79"/>
-      <c r="G133" s="79"/>
-      <c r="H133" s="49"/>
-      <c r="I133" s="49"/>
-      <c r="J133" s="49"/>
-      <c r="K133" s="20"/>
-      <c r="L133" s="20"/>
-      <c r="M133" s="20"/>
-      <c r="N133" s="20"/>
-      <c r="O133" s="20"/>
-      <c r="P133" s="20"/>
+      <c r="D133" s="80"/>
+      <c r="E133" s="80"/>
+      <c r="F133" s="80"/>
+      <c r="G133" s="80"/>
+      <c r="H133" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="I133" s="74"/>
+      <c r="J133" s="74"/>
+      <c r="K133" s="74"/>
+      <c r="L133" s="74"/>
+      <c r="M133" s="74"/>
+      <c r="N133" s="74"/>
+      <c r="O133" s="74"/>
+      <c r="P133" s="74"/>
       <c r="Q133" s="20"/>
       <c r="R133" s="20"/>
       <c r="S133" s="51"/>
@@ -5762,22 +5794,24 @@
         <f t="shared" ref="B134:B139" si="11">B124+7</f>
         <v>43809</v>
       </c>
-      <c r="C134" s="79" t="s">
+      <c r="C134" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D134" s="79"/>
-      <c r="E134" s="79"/>
-      <c r="F134" s="79"/>
-      <c r="G134" s="79"/>
-      <c r="H134" s="20"/>
-      <c r="I134" s="20"/>
-      <c r="J134" s="20"/>
-      <c r="K134" s="49"/>
-      <c r="L134" s="49"/>
-      <c r="M134" s="20"/>
-      <c r="N134" s="20"/>
-      <c r="O134" s="49"/>
-      <c r="P134" s="49"/>
+      <c r="D134" s="80"/>
+      <c r="E134" s="80"/>
+      <c r="F134" s="80"/>
+      <c r="G134" s="80"/>
+      <c r="H134" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="I134" s="74"/>
+      <c r="J134" s="74"/>
+      <c r="K134" s="74"/>
+      <c r="L134" s="74"/>
+      <c r="M134" s="74"/>
+      <c r="N134" s="74"/>
+      <c r="O134" s="74"/>
+      <c r="P134" s="74"/>
       <c r="Q134" s="20"/>
       <c r="R134" s="20"/>
       <c r="S134" s="51"/>
@@ -5794,20 +5828,24 @@
         <f t="shared" si="11"/>
         <v>43810</v>
       </c>
-      <c r="C135" s="32"/>
-      <c r="D135" s="20"/>
-      <c r="E135" s="20"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="20"/>
-      <c r="H135" s="20"/>
-      <c r="I135" s="20"/>
-      <c r="J135" s="20"/>
-      <c r="K135" s="49"/>
+      <c r="C135" s="123" t="s">
+        <v>66</v>
+      </c>
+      <c r="D135" s="124"/>
+      <c r="E135" s="124"/>
+      <c r="F135" s="124"/>
+      <c r="G135" s="124"/>
+      <c r="H135" s="124"/>
+      <c r="I135" s="124"/>
+      <c r="J135" s="124"/>
+      <c r="K135" s="125"/>
       <c r="L135" s="49"/>
-      <c r="M135" s="49"/>
-      <c r="N135" s="49"/>
-      <c r="O135" s="49"/>
-      <c r="P135" s="49"/>
+      <c r="M135" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="N135" s="74"/>
+      <c r="O135" s="74"/>
+      <c r="P135" s="74"/>
       <c r="Q135" s="49"/>
       <c r="R135" s="49"/>
       <c r="S135" s="51"/>
@@ -5824,21 +5862,21 @@
         <f t="shared" si="11"/>
         <v>43811</v>
       </c>
-      <c r="C136" s="79" t="s">
-        <v>37</v>
-      </c>
-      <c r="D136" s="79"/>
-      <c r="E136" s="79"/>
-      <c r="F136" s="79"/>
-      <c r="G136" s="79"/>
+      <c r="C136" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="D136" s="80"/>
+      <c r="E136" s="80"/>
+      <c r="F136" s="80"/>
+      <c r="G136" s="80"/>
       <c r="H136" s="20"/>
       <c r="I136" s="49"/>
       <c r="J136" s="49"/>
       <c r="K136" s="49"/>
       <c r="L136" s="49"/>
-      <c r="M136" s="20"/>
-      <c r="N136" s="20"/>
-      <c r="O136" s="20"/>
+      <c r="M136" s="49"/>
+      <c r="N136" s="49"/>
+      <c r="O136" s="49"/>
       <c r="P136" s="20"/>
       <c r="Q136" s="20"/>
       <c r="R136" s="20"/>
@@ -5866,10 +5904,10 @@
       <c r="J137" s="20"/>
       <c r="K137" s="49"/>
       <c r="L137" s="49"/>
-      <c r="M137" s="20"/>
-      <c r="N137" s="20"/>
-      <c r="O137" s="20"/>
-      <c r="P137" s="20"/>
+      <c r="M137" s="49"/>
+      <c r="N137" s="49"/>
+      <c r="O137" s="49"/>
+      <c r="P137" s="49"/>
       <c r="Q137" s="20"/>
       <c r="R137" s="20"/>
       <c r="S137" s="51"/>
@@ -5912,24 +5950,24 @@
         <f t="shared" si="11"/>
         <v>43814</v>
       </c>
-      <c r="C139" s="79" t="s">
+      <c r="C139" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="D139" s="79"/>
-      <c r="E139" s="79"/>
-      <c r="F139" s="79"/>
-      <c r="G139" s="79"/>
-      <c r="H139" s="79"/>
-      <c r="I139" s="79"/>
-      <c r="J139" s="79"/>
-      <c r="K139" s="79"/>
-      <c r="L139" s="79"/>
-      <c r="M139" s="79"/>
-      <c r="N139" s="79"/>
-      <c r="O139" s="79"/>
-      <c r="P139" s="79"/>
-      <c r="Q139" s="79"/>
-      <c r="R139" s="79"/>
+      <c r="D139" s="80"/>
+      <c r="E139" s="80"/>
+      <c r="F139" s="80"/>
+      <c r="G139" s="80"/>
+      <c r="H139" s="80"/>
+      <c r="I139" s="80"/>
+      <c r="J139" s="80"/>
+      <c r="K139" s="80"/>
+      <c r="L139" s="80"/>
+      <c r="M139" s="80"/>
+      <c r="N139" s="80"/>
+      <c r="O139" s="80"/>
+      <c r="P139" s="80"/>
+      <c r="Q139" s="80"/>
+      <c r="R139" s="80"/>
       <c r="S139" s="51"/>
       <c r="T139" s="51"/>
       <c r="U139" s="54"/>
@@ -6024,19 +6062,19 @@
         <f>C132+1</f>
         <v>14</v>
       </c>
-      <c r="D142" s="80" t="s">
+      <c r="D142" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="E142" s="80"/>
-      <c r="F142" s="80"/>
+      <c r="E142" s="81"/>
+      <c r="F142" s="81"/>
       <c r="G142" s="15"/>
-      <c r="H142" s="80" t="s">
+      <c r="H142" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="I142" s="80"/>
-      <c r="J142" s="80"/>
-      <c r="K142" s="80"/>
-      <c r="L142" s="80"/>
+      <c r="I142" s="81"/>
+      <c r="J142" s="81"/>
+      <c r="K142" s="81"/>
+      <c r="L142" s="81"/>
       <c r="M142" s="19"/>
       <c r="N142" s="19"/>
       <c r="O142" s="19"/>
@@ -6055,22 +6093,22 @@
         <f>B133+7</f>
         <v>43815</v>
       </c>
-      <c r="C143" s="70" t="s">
+      <c r="C143" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="D143" s="70"/>
-      <c r="E143" s="70"/>
-      <c r="F143" s="20"/>
-      <c r="G143" s="20"/>
-      <c r="H143" s="20"/>
+      <c r="D143" s="122"/>
+      <c r="E143" s="122"/>
+      <c r="F143" s="49"/>
+      <c r="G143" s="49"/>
+      <c r="H143" s="49"/>
       <c r="I143" s="49"/>
       <c r="J143" s="49"/>
-      <c r="K143" s="49"/>
-      <c r="L143" s="49"/>
-      <c r="M143" s="49"/>
-      <c r="N143" s="49"/>
-      <c r="O143" s="49"/>
-      <c r="P143" s="49"/>
+      <c r="K143" s="20"/>
+      <c r="L143" s="20"/>
+      <c r="M143" s="20"/>
+      <c r="N143" s="20"/>
+      <c r="O143" s="20"/>
+      <c r="P143" s="20"/>
       <c r="Q143" s="49"/>
       <c r="R143" s="49"/>
       <c r="S143" s="51"/>
@@ -6087,20 +6125,22 @@
         <f t="shared" ref="B144:B149" si="12">B134+7</f>
         <v>43816</v>
       </c>
-      <c r="C144" s="32"/>
-      <c r="D144" s="20"/>
-      <c r="E144" s="20"/>
-      <c r="F144" s="20"/>
-      <c r="G144" s="20"/>
-      <c r="H144" s="20"/>
-      <c r="I144" s="20"/>
-      <c r="J144" s="20"/>
-      <c r="K144" s="49"/>
-      <c r="L144" s="49"/>
-      <c r="M144" s="20"/>
-      <c r="N144" s="20"/>
-      <c r="O144" s="20"/>
-      <c r="P144" s="20"/>
+      <c r="C144" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D144" s="71"/>
+      <c r="E144" s="71"/>
+      <c r="F144" s="71"/>
+      <c r="G144" s="71"/>
+      <c r="H144" s="71"/>
+      <c r="I144" s="71"/>
+      <c r="J144" s="71"/>
+      <c r="K144" s="71"/>
+      <c r="L144" s="71"/>
+      <c r="M144" s="71"/>
+      <c r="N144" s="71"/>
+      <c r="O144" s="71"/>
+      <c r="P144" s="72"/>
       <c r="Q144" s="20"/>
       <c r="R144" s="20"/>
       <c r="S144" s="51"/>
@@ -6117,20 +6157,22 @@
         <f t="shared" si="12"/>
         <v>43817</v>
       </c>
-      <c r="C145" s="32"/>
-      <c r="D145" s="20"/>
-      <c r="E145" s="20"/>
-      <c r="F145" s="20"/>
-      <c r="G145" s="20"/>
-      <c r="H145" s="20"/>
-      <c r="I145" s="20"/>
-      <c r="J145" s="20"/>
-      <c r="K145" s="49"/>
-      <c r="L145" s="49"/>
-      <c r="M145" s="49"/>
-      <c r="N145" s="49"/>
-      <c r="O145" s="49"/>
-      <c r="P145" s="49"/>
+      <c r="C145" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D145" s="71"/>
+      <c r="E145" s="71"/>
+      <c r="F145" s="71"/>
+      <c r="G145" s="71"/>
+      <c r="H145" s="71"/>
+      <c r="I145" s="71"/>
+      <c r="J145" s="71"/>
+      <c r="K145" s="71"/>
+      <c r="L145" s="71"/>
+      <c r="M145" s="71"/>
+      <c r="N145" s="71"/>
+      <c r="O145" s="71"/>
+      <c r="P145" s="72"/>
       <c r="Q145" s="49"/>
       <c r="R145" s="49"/>
       <c r="S145" s="51"/>
@@ -6147,20 +6189,22 @@
         <f t="shared" si="12"/>
         <v>43818</v>
       </c>
-      <c r="C146" s="49"/>
-      <c r="D146" s="49"/>
-      <c r="E146" s="49"/>
-      <c r="F146" s="49"/>
-      <c r="G146" s="49"/>
-      <c r="H146" s="49"/>
-      <c r="I146" s="49"/>
-      <c r="J146" s="49"/>
-      <c r="K146" s="49"/>
-      <c r="L146" s="49"/>
-      <c r="M146" s="20"/>
-      <c r="N146" s="20"/>
-      <c r="O146" s="20"/>
-      <c r="P146" s="20"/>
+      <c r="C146" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D146" s="71"/>
+      <c r="E146" s="71"/>
+      <c r="F146" s="71"/>
+      <c r="G146" s="71"/>
+      <c r="H146" s="71"/>
+      <c r="I146" s="71"/>
+      <c r="J146" s="71"/>
+      <c r="K146" s="71"/>
+      <c r="L146" s="71"/>
+      <c r="M146" s="71"/>
+      <c r="N146" s="71"/>
+      <c r="O146" s="71"/>
+      <c r="P146" s="72"/>
       <c r="Q146" s="20"/>
       <c r="R146" s="20"/>
       <c r="S146" s="51"/>
@@ -6177,20 +6221,22 @@
         <f t="shared" si="12"/>
         <v>43819</v>
       </c>
-      <c r="C147" s="20"/>
-      <c r="D147" s="20"/>
-      <c r="E147" s="20"/>
-      <c r="F147" s="20"/>
-      <c r="G147" s="20"/>
-      <c r="H147" s="20"/>
-      <c r="I147" s="49"/>
-      <c r="J147" s="49"/>
-      <c r="K147" s="49"/>
-      <c r="L147" s="49"/>
-      <c r="M147" s="20"/>
-      <c r="N147" s="20"/>
-      <c r="O147" s="20"/>
-      <c r="P147" s="20"/>
+      <c r="C147" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D147" s="71"/>
+      <c r="E147" s="71"/>
+      <c r="F147" s="71"/>
+      <c r="G147" s="71"/>
+      <c r="H147" s="71"/>
+      <c r="I147" s="71"/>
+      <c r="J147" s="71"/>
+      <c r="K147" s="71"/>
+      <c r="L147" s="71"/>
+      <c r="M147" s="71"/>
+      <c r="N147" s="71"/>
+      <c r="O147" s="71"/>
+      <c r="P147" s="72"/>
       <c r="Q147" s="20"/>
       <c r="R147" s="20"/>
       <c r="S147" s="51"/>
@@ -6205,20 +6251,22 @@
         <f t="shared" si="12"/>
         <v>43820</v>
       </c>
-      <c r="C148" s="50"/>
-      <c r="D148" s="49"/>
-      <c r="E148" s="49"/>
-      <c r="F148" s="49"/>
-      <c r="G148" s="49"/>
-      <c r="H148" s="49"/>
-      <c r="I148" s="49"/>
-      <c r="J148" s="49"/>
-      <c r="K148" s="49"/>
-      <c r="L148" s="49"/>
-      <c r="M148" s="49"/>
-      <c r="N148" s="49"/>
-      <c r="O148" s="49"/>
-      <c r="P148" s="49"/>
+      <c r="C148" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D148" s="71"/>
+      <c r="E148" s="71"/>
+      <c r="F148" s="71"/>
+      <c r="G148" s="71"/>
+      <c r="H148" s="71"/>
+      <c r="I148" s="71"/>
+      <c r="J148" s="71"/>
+      <c r="K148" s="71"/>
+      <c r="L148" s="71"/>
+      <c r="M148" s="71"/>
+      <c r="N148" s="71"/>
+      <c r="O148" s="71"/>
+      <c r="P148" s="72"/>
       <c r="Q148" s="49"/>
       <c r="R148" s="49"/>
       <c r="S148" s="51"/>
@@ -6370,20 +6418,22 @@
         <f>B143+7</f>
         <v>43822</v>
       </c>
-      <c r="C153" s="32"/>
-      <c r="D153" s="20"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="20"/>
-      <c r="G153" s="20"/>
-      <c r="H153" s="20"/>
-      <c r="I153" s="49"/>
-      <c r="J153" s="49"/>
-      <c r="K153" s="49"/>
-      <c r="L153" s="49"/>
-      <c r="M153" s="49"/>
-      <c r="N153" s="49"/>
-      <c r="O153" s="49"/>
-      <c r="P153" s="49"/>
+      <c r="C153" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D153" s="71"/>
+      <c r="E153" s="71"/>
+      <c r="F153" s="71"/>
+      <c r="G153" s="71"/>
+      <c r="H153" s="71"/>
+      <c r="I153" s="71"/>
+      <c r="J153" s="71"/>
+      <c r="K153" s="71"/>
+      <c r="L153" s="71"/>
+      <c r="M153" s="71"/>
+      <c r="N153" s="71"/>
+      <c r="O153" s="71"/>
+      <c r="P153" s="72"/>
       <c r="Q153" s="49"/>
       <c r="R153" s="49"/>
       <c r="S153" s="51"/>
@@ -6400,20 +6450,22 @@
         <f t="shared" ref="B154:B159" si="13">B144+7</f>
         <v>43823</v>
       </c>
-      <c r="C154" s="32"/>
-      <c r="D154" s="20"/>
-      <c r="E154" s="20"/>
-      <c r="F154" s="20"/>
-      <c r="G154" s="20"/>
-      <c r="H154" s="20"/>
-      <c r="I154" s="20"/>
-      <c r="J154" s="20"/>
-      <c r="K154" s="49"/>
-      <c r="L154" s="49"/>
-      <c r="M154" s="20"/>
-      <c r="N154" s="20"/>
-      <c r="O154" s="20"/>
-      <c r="P154" s="20"/>
+      <c r="C154" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D154" s="71"/>
+      <c r="E154" s="71"/>
+      <c r="F154" s="71"/>
+      <c r="G154" s="71"/>
+      <c r="H154" s="71"/>
+      <c r="I154" s="71"/>
+      <c r="J154" s="71"/>
+      <c r="K154" s="71"/>
+      <c r="L154" s="71"/>
+      <c r="M154" s="71"/>
+      <c r="N154" s="71"/>
+      <c r="O154" s="71"/>
+      <c r="P154" s="72"/>
       <c r="Q154" s="20"/>
       <c r="R154" s="20"/>
       <c r="S154" s="51"/>
@@ -6430,24 +6482,24 @@
         <f t="shared" si="13"/>
         <v>43824</v>
       </c>
-      <c r="C155" s="78" t="s">
+      <c r="C155" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="D155" s="78"/>
-      <c r="E155" s="78"/>
-      <c r="F155" s="78"/>
-      <c r="G155" s="78"/>
-      <c r="H155" s="78"/>
-      <c r="I155" s="78"/>
-      <c r="J155" s="78"/>
-      <c r="K155" s="78"/>
-      <c r="L155" s="78"/>
-      <c r="M155" s="78"/>
-      <c r="N155" s="78"/>
-      <c r="O155" s="78"/>
-      <c r="P155" s="78"/>
-      <c r="Q155" s="78"/>
-      <c r="R155" s="78"/>
+      <c r="D155" s="79"/>
+      <c r="E155" s="79"/>
+      <c r="F155" s="79"/>
+      <c r="G155" s="79"/>
+      <c r="H155" s="79"/>
+      <c r="I155" s="79"/>
+      <c r="J155" s="79"/>
+      <c r="K155" s="79"/>
+      <c r="L155" s="79"/>
+      <c r="M155" s="79"/>
+      <c r="N155" s="79"/>
+      <c r="O155" s="79"/>
+      <c r="P155" s="79"/>
+      <c r="Q155" s="79"/>
+      <c r="R155" s="79"/>
       <c r="S155" s="51"/>
       <c r="T155" s="52" t="s">
         <v>20</v>
@@ -6462,22 +6514,22 @@
         <f t="shared" si="13"/>
         <v>43825</v>
       </c>
-      <c r="C156" s="78"/>
-      <c r="D156" s="78"/>
-      <c r="E156" s="78"/>
-      <c r="F156" s="78"/>
-      <c r="G156" s="78"/>
-      <c r="H156" s="78"/>
-      <c r="I156" s="78"/>
-      <c r="J156" s="78"/>
-      <c r="K156" s="78"/>
-      <c r="L156" s="78"/>
-      <c r="M156" s="78"/>
-      <c r="N156" s="78"/>
-      <c r="O156" s="78"/>
-      <c r="P156" s="78"/>
-      <c r="Q156" s="78"/>
-      <c r="R156" s="78"/>
+      <c r="C156" s="79"/>
+      <c r="D156" s="79"/>
+      <c r="E156" s="79"/>
+      <c r="F156" s="79"/>
+      <c r="G156" s="79"/>
+      <c r="H156" s="79"/>
+      <c r="I156" s="79"/>
+      <c r="J156" s="79"/>
+      <c r="K156" s="79"/>
+      <c r="L156" s="79"/>
+      <c r="M156" s="79"/>
+      <c r="N156" s="79"/>
+      <c r="O156" s="79"/>
+      <c r="P156" s="79"/>
+      <c r="Q156" s="79"/>
+      <c r="R156" s="79"/>
       <c r="S156" s="51"/>
       <c r="T156" s="18" t="s">
         <v>21</v>
@@ -6492,22 +6544,22 @@
         <f t="shared" si="13"/>
         <v>43826</v>
       </c>
-      <c r="C157" s="78"/>
-      <c r="D157" s="78"/>
-      <c r="E157" s="78"/>
-      <c r="F157" s="78"/>
-      <c r="G157" s="78"/>
-      <c r="H157" s="78"/>
-      <c r="I157" s="78"/>
-      <c r="J157" s="78"/>
-      <c r="K157" s="78"/>
-      <c r="L157" s="78"/>
-      <c r="M157" s="78"/>
-      <c r="N157" s="78"/>
-      <c r="O157" s="78"/>
-      <c r="P157" s="78"/>
-      <c r="Q157" s="78"/>
-      <c r="R157" s="78"/>
+      <c r="C157" s="79"/>
+      <c r="D157" s="79"/>
+      <c r="E157" s="79"/>
+      <c r="F157" s="79"/>
+      <c r="G157" s="79"/>
+      <c r="H157" s="79"/>
+      <c r="I157" s="79"/>
+      <c r="J157" s="79"/>
+      <c r="K157" s="79"/>
+      <c r="L157" s="79"/>
+      <c r="M157" s="79"/>
+      <c r="N157" s="79"/>
+      <c r="O157" s="79"/>
+      <c r="P157" s="79"/>
+      <c r="Q157" s="79"/>
+      <c r="R157" s="79"/>
       <c r="S157" s="51"/>
       <c r="T157" s="51"/>
       <c r="U157" s="54"/>
@@ -6520,22 +6572,22 @@
         <f t="shared" si="13"/>
         <v>43827</v>
       </c>
-      <c r="C158" s="78"/>
-      <c r="D158" s="78"/>
-      <c r="E158" s="78"/>
-      <c r="F158" s="78"/>
-      <c r="G158" s="78"/>
-      <c r="H158" s="78"/>
-      <c r="I158" s="78"/>
-      <c r="J158" s="78"/>
-      <c r="K158" s="78"/>
-      <c r="L158" s="78"/>
-      <c r="M158" s="78"/>
-      <c r="N158" s="78"/>
-      <c r="O158" s="78"/>
-      <c r="P158" s="78"/>
-      <c r="Q158" s="78"/>
-      <c r="R158" s="78"/>
+      <c r="C158" s="79"/>
+      <c r="D158" s="79"/>
+      <c r="E158" s="79"/>
+      <c r="F158" s="79"/>
+      <c r="G158" s="79"/>
+      <c r="H158" s="79"/>
+      <c r="I158" s="79"/>
+      <c r="J158" s="79"/>
+      <c r="K158" s="79"/>
+      <c r="L158" s="79"/>
+      <c r="M158" s="79"/>
+      <c r="N158" s="79"/>
+      <c r="O158" s="79"/>
+      <c r="P158" s="79"/>
+      <c r="Q158" s="79"/>
+      <c r="R158" s="79"/>
       <c r="S158" s="51"/>
       <c r="T158" s="51"/>
       <c r="U158" s="54"/>
@@ -6548,22 +6600,22 @@
         <f t="shared" si="13"/>
         <v>43828</v>
       </c>
-      <c r="C159" s="78"/>
-      <c r="D159" s="78"/>
-      <c r="E159" s="78"/>
-      <c r="F159" s="78"/>
-      <c r="G159" s="78"/>
-      <c r="H159" s="78"/>
-      <c r="I159" s="78"/>
-      <c r="J159" s="78"/>
-      <c r="K159" s="78"/>
-      <c r="L159" s="78"/>
-      <c r="M159" s="78"/>
-      <c r="N159" s="78"/>
-      <c r="O159" s="78"/>
-      <c r="P159" s="78"/>
-      <c r="Q159" s="78"/>
-      <c r="R159" s="78"/>
+      <c r="C159" s="79"/>
+      <c r="D159" s="79"/>
+      <c r="E159" s="79"/>
+      <c r="F159" s="79"/>
+      <c r="G159" s="79"/>
+      <c r="H159" s="79"/>
+      <c r="I159" s="79"/>
+      <c r="J159" s="79"/>
+      <c r="K159" s="79"/>
+      <c r="L159" s="79"/>
+      <c r="M159" s="79"/>
+      <c r="N159" s="79"/>
+      <c r="O159" s="79"/>
+      <c r="P159" s="79"/>
+      <c r="Q159" s="79"/>
+      <c r="R159" s="79"/>
       <c r="S159" s="51"/>
       <c r="T159" s="51"/>
       <c r="U159" s="54"/>
@@ -6685,24 +6737,24 @@
         <f>B153+7</f>
         <v>43829</v>
       </c>
-      <c r="C163" s="78" t="s">
+      <c r="C163" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D163" s="78"/>
-      <c r="E163" s="78"/>
-      <c r="F163" s="78"/>
-      <c r="G163" s="78"/>
-      <c r="H163" s="78"/>
-      <c r="I163" s="78"/>
-      <c r="J163" s="78"/>
-      <c r="K163" s="78"/>
-      <c r="L163" s="78"/>
-      <c r="M163" s="78"/>
-      <c r="N163" s="78"/>
-      <c r="O163" s="78"/>
-      <c r="P163" s="78"/>
-      <c r="Q163" s="78"/>
-      <c r="R163" s="78"/>
+      <c r="D163" s="79"/>
+      <c r="E163" s="79"/>
+      <c r="F163" s="79"/>
+      <c r="G163" s="79"/>
+      <c r="H163" s="79"/>
+      <c r="I163" s="79"/>
+      <c r="J163" s="79"/>
+      <c r="K163" s="79"/>
+      <c r="L163" s="79"/>
+      <c r="M163" s="79"/>
+      <c r="N163" s="79"/>
+      <c r="O163" s="79"/>
+      <c r="P163" s="79"/>
+      <c r="Q163" s="79"/>
+      <c r="R163" s="79"/>
       <c r="S163" s="51"/>
       <c r="T163" s="30" t="s">
         <v>22</v>
@@ -6717,29 +6769,29 @@
         <f t="shared" ref="B164:B169" si="14">B154+7</f>
         <v>43830</v>
       </c>
-      <c r="C164" s="78"/>
-      <c r="D164" s="78"/>
-      <c r="E164" s="78"/>
-      <c r="F164" s="78"/>
-      <c r="G164" s="78"/>
-      <c r="H164" s="78"/>
-      <c r="I164" s="78"/>
-      <c r="J164" s="78"/>
-      <c r="K164" s="78"/>
-      <c r="L164" s="78"/>
-      <c r="M164" s="78"/>
-      <c r="N164" s="78"/>
-      <c r="O164" s="78"/>
-      <c r="P164" s="78"/>
-      <c r="Q164" s="78"/>
-      <c r="R164" s="78"/>
+      <c r="C164" s="79"/>
+      <c r="D164" s="79"/>
+      <c r="E164" s="79"/>
+      <c r="F164" s="79"/>
+      <c r="G164" s="79"/>
+      <c r="H164" s="79"/>
+      <c r="I164" s="79"/>
+      <c r="J164" s="79"/>
+      <c r="K164" s="79"/>
+      <c r="L164" s="79"/>
+      <c r="M164" s="79"/>
+      <c r="N164" s="79"/>
+      <c r="O164" s="79"/>
+      <c r="P164" s="79"/>
+      <c r="Q164" s="79"/>
+      <c r="R164" s="79"/>
       <c r="S164" s="51"/>
       <c r="T164" s="53" t="s">
         <v>19</v>
       </c>
       <c r="U164" s="54"/>
     </row>
-    <row r="165" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>2</v>
       </c>
@@ -6747,29 +6799,29 @@
         <f t="shared" si="14"/>
         <v>43831</v>
       </c>
-      <c r="C165" s="78"/>
-      <c r="D165" s="78"/>
-      <c r="E165" s="78"/>
-      <c r="F165" s="78"/>
-      <c r="G165" s="78"/>
-      <c r="H165" s="78"/>
-      <c r="I165" s="78"/>
-      <c r="J165" s="78"/>
-      <c r="K165" s="78"/>
-      <c r="L165" s="78"/>
-      <c r="M165" s="78"/>
-      <c r="N165" s="78"/>
-      <c r="O165" s="78"/>
-      <c r="P165" s="78"/>
-      <c r="Q165" s="78"/>
-      <c r="R165" s="78"/>
+      <c r="C165" s="79"/>
+      <c r="D165" s="79"/>
+      <c r="E165" s="79"/>
+      <c r="F165" s="79"/>
+      <c r="G165" s="79"/>
+      <c r="H165" s="79"/>
+      <c r="I165" s="79"/>
+      <c r="J165" s="79"/>
+      <c r="K165" s="79"/>
+      <c r="L165" s="79"/>
+      <c r="M165" s="79"/>
+      <c r="N165" s="79"/>
+      <c r="O165" s="79"/>
+      <c r="P165" s="79"/>
+      <c r="Q165" s="79"/>
+      <c r="R165" s="79"/>
       <c r="S165" s="51"/>
       <c r="T165" s="52" t="s">
         <v>20</v>
       </c>
       <c r="U165" s="54"/>
     </row>
-    <row r="166" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>3</v>
       </c>
@@ -6777,25 +6829,23 @@
         <f t="shared" si="14"/>
         <v>43832</v>
       </c>
-      <c r="C166" s="32"/>
-      <c r="D166" s="20"/>
-      <c r="E166" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F166" s="70"/>
-      <c r="G166" s="70"/>
-      <c r="H166" s="70"/>
-      <c r="I166" s="70"/>
-      <c r="J166" s="70"/>
-      <c r="K166" s="49"/>
-      <c r="L166" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="M166" s="72"/>
-      <c r="N166" s="72"/>
-      <c r="O166" s="72"/>
+      <c r="C166" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D166" s="71"/>
+      <c r="E166" s="71"/>
+      <c r="F166" s="71"/>
+      <c r="G166" s="71"/>
+      <c r="H166" s="71"/>
+      <c r="I166" s="71"/>
+      <c r="J166" s="71"/>
+      <c r="K166" s="71"/>
+      <c r="L166" s="71"/>
+      <c r="M166" s="71"/>
+      <c r="N166" s="71"/>
+      <c r="O166" s="71"/>
       <c r="P166" s="72"/>
-      <c r="Q166" s="73"/>
+      <c r="Q166" s="49"/>
       <c r="R166" s="20"/>
       <c r="S166" s="51"/>
       <c r="T166" s="18" t="s">
@@ -6803,7 +6853,7 @@
       </c>
       <c r="U166" s="54"/>
     </row>
-    <row r="167" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>4</v>
       </c>
@@ -6811,31 +6861,29 @@
         <f t="shared" si="14"/>
         <v>43833</v>
       </c>
-      <c r="C167" s="50"/>
-      <c r="D167" s="49"/>
-      <c r="E167" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F167" s="70"/>
-      <c r="G167" s="70"/>
-      <c r="H167" s="70"/>
-      <c r="I167" s="70"/>
-      <c r="J167" s="70"/>
-      <c r="K167" s="49"/>
-      <c r="L167" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="M167" s="72"/>
-      <c r="N167" s="72"/>
-      <c r="O167" s="72"/>
+      <c r="C167" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D167" s="71"/>
+      <c r="E167" s="71"/>
+      <c r="F167" s="71"/>
+      <c r="G167" s="71"/>
+      <c r="H167" s="71"/>
+      <c r="I167" s="71"/>
+      <c r="J167" s="71"/>
+      <c r="K167" s="71"/>
+      <c r="L167" s="71"/>
+      <c r="M167" s="71"/>
+      <c r="N167" s="71"/>
+      <c r="O167" s="71"/>
       <c r="P167" s="72"/>
-      <c r="Q167" s="73"/>
+      <c r="Q167" s="49"/>
       <c r="R167" s="49"/>
       <c r="S167" s="51"/>
       <c r="T167" s="51"/>
       <c r="U167" s="54"/>
     </row>
-    <row r="168" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>5</v>
       </c>
@@ -6843,20 +6891,22 @@
         <f t="shared" si="14"/>
         <v>43834</v>
       </c>
-      <c r="C168" s="50"/>
-      <c r="D168" s="49"/>
-      <c r="E168" s="49"/>
-      <c r="F168" s="49"/>
-      <c r="G168" s="49"/>
-      <c r="H168" s="49"/>
-      <c r="I168" s="49"/>
-      <c r="J168" s="49"/>
-      <c r="K168" s="49"/>
-      <c r="L168" s="49"/>
-      <c r="M168" s="49"/>
-      <c r="N168" s="49"/>
-      <c r="O168" s="49"/>
-      <c r="P168" s="49"/>
+      <c r="C168" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D168" s="71"/>
+      <c r="E168" s="71"/>
+      <c r="F168" s="71"/>
+      <c r="G168" s="71"/>
+      <c r="H168" s="71"/>
+      <c r="I168" s="71"/>
+      <c r="J168" s="71"/>
+      <c r="K168" s="71"/>
+      <c r="L168" s="71"/>
+      <c r="M168" s="71"/>
+      <c r="N168" s="71"/>
+      <c r="O168" s="71"/>
+      <c r="P168" s="72"/>
       <c r="Q168" s="49"/>
       <c r="R168" s="49"/>
       <c r="S168" s="51"/>
@@ -6949,7 +6999,7 @@
       <c r="T171" s="51"/>
       <c r="U171" s="54"/>
     </row>
-    <row r="172" spans="1:21" s="38" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="57">
         <f>A162+7</f>
         <v>43836</v>
@@ -6980,7 +7030,7 @@
       <c r="T172" s="51"/>
       <c r="U172" s="54"/>
     </row>
-    <row r="173" spans="1:21" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>0</v>
       </c>
@@ -6988,25 +7038,23 @@
         <f>B163+7</f>
         <v>43836</v>
       </c>
-      <c r="C173" s="32"/>
-      <c r="D173" s="20"/>
-      <c r="E173" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F173" s="70"/>
-      <c r="G173" s="70"/>
-      <c r="H173" s="70"/>
-      <c r="I173" s="70"/>
-      <c r="J173" s="70"/>
-      <c r="K173" s="49"/>
-      <c r="L173" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="M173" s="72"/>
-      <c r="N173" s="72"/>
-      <c r="O173" s="72"/>
+      <c r="C173" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D173" s="71"/>
+      <c r="E173" s="71"/>
+      <c r="F173" s="71"/>
+      <c r="G173" s="71"/>
+      <c r="H173" s="71"/>
+      <c r="I173" s="71"/>
+      <c r="J173" s="71"/>
+      <c r="K173" s="71"/>
+      <c r="L173" s="71"/>
+      <c r="M173" s="71"/>
+      <c r="N173" s="71"/>
+      <c r="O173" s="71"/>
       <c r="P173" s="72"/>
-      <c r="Q173" s="73"/>
+      <c r="Q173" s="49"/>
       <c r="R173" s="49"/>
       <c r="S173" s="51"/>
       <c r="T173" s="30" t="s">
@@ -7014,7 +7062,7 @@
       </c>
       <c r="U173" s="54"/>
     </row>
-    <row r="174" spans="1:21" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>1</v>
       </c>
@@ -7022,33 +7070,31 @@
         <f t="shared" ref="B174:B179" si="15">B164+7</f>
         <v>43837</v>
       </c>
-      <c r="C174" s="32"/>
-      <c r="D174" s="20"/>
-      <c r="E174" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F174" s="70"/>
-      <c r="G174" s="70"/>
-      <c r="H174" s="70"/>
-      <c r="I174" s="70"/>
-      <c r="J174" s="70"/>
-      <c r="K174" s="49"/>
-      <c r="L174" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="M174" s="72"/>
-      <c r="N174" s="72"/>
-      <c r="O174" s="72"/>
+      <c r="C174" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D174" s="71"/>
+      <c r="E174" s="71"/>
+      <c r="F174" s="71"/>
+      <c r="G174" s="71"/>
+      <c r="H174" s="71"/>
+      <c r="I174" s="71"/>
+      <c r="J174" s="71"/>
+      <c r="K174" s="71"/>
+      <c r="L174" s="71"/>
+      <c r="M174" s="71"/>
+      <c r="N174" s="71"/>
+      <c r="O174" s="71"/>
       <c r="P174" s="72"/>
-      <c r="Q174" s="73"/>
-      <c r="R174" s="20"/>
+      <c r="Q174" s="49"/>
+      <c r="R174" s="49"/>
       <c r="S174" s="51"/>
       <c r="T174" s="53" t="s">
         <v>19</v>
       </c>
       <c r="U174" s="54"/>
     </row>
-    <row r="175" spans="1:21" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>2</v>
       </c>
@@ -7056,25 +7102,23 @@
         <f t="shared" si="15"/>
         <v>43838</v>
       </c>
-      <c r="C175" s="32"/>
-      <c r="D175" s="20"/>
-      <c r="E175" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F175" s="70"/>
-      <c r="G175" s="70"/>
-      <c r="H175" s="70"/>
-      <c r="I175" s="70"/>
-      <c r="J175" s="70"/>
-      <c r="K175" s="20"/>
-      <c r="L175" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="M175" s="72"/>
-      <c r="N175" s="72"/>
-      <c r="O175" s="72"/>
+      <c r="C175" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D175" s="71"/>
+      <c r="E175" s="71"/>
+      <c r="F175" s="71"/>
+      <c r="G175" s="71"/>
+      <c r="H175" s="71"/>
+      <c r="I175" s="71"/>
+      <c r="J175" s="71"/>
+      <c r="K175" s="71"/>
+      <c r="L175" s="71"/>
+      <c r="M175" s="71"/>
+      <c r="N175" s="71"/>
+      <c r="O175" s="71"/>
       <c r="P175" s="72"/>
-      <c r="Q175" s="73"/>
+      <c r="Q175" s="49"/>
       <c r="R175" s="49"/>
       <c r="S175" s="51"/>
       <c r="T175" s="52" t="s">
@@ -7082,7 +7126,7 @@
       </c>
       <c r="U175" s="54"/>
     </row>
-    <row r="176" spans="1:21" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>3</v>
       </c>
@@ -7090,33 +7134,31 @@
         <f t="shared" si="15"/>
         <v>43839</v>
       </c>
-      <c r="C176" s="49"/>
-      <c r="D176" s="49"/>
-      <c r="E176" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F176" s="70"/>
-      <c r="G176" s="70"/>
-      <c r="H176" s="70"/>
-      <c r="I176" s="70"/>
-      <c r="J176" s="70"/>
-      <c r="K176" s="20"/>
-      <c r="L176" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="M176" s="72"/>
-      <c r="N176" s="72"/>
-      <c r="O176" s="72"/>
+      <c r="C176" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D176" s="71"/>
+      <c r="E176" s="71"/>
+      <c r="F176" s="71"/>
+      <c r="G176" s="71"/>
+      <c r="H176" s="71"/>
+      <c r="I176" s="71"/>
+      <c r="J176" s="71"/>
+      <c r="K176" s="71"/>
+      <c r="L176" s="71"/>
+      <c r="M176" s="71"/>
+      <c r="N176" s="71"/>
+      <c r="O176" s="71"/>
       <c r="P176" s="72"/>
-      <c r="Q176" s="73"/>
-      <c r="R176" s="20"/>
+      <c r="Q176" s="49"/>
+      <c r="R176" s="49"/>
       <c r="S176" s="51"/>
       <c r="T176" s="18" t="s">
         <v>21</v>
       </c>
       <c r="U176" s="54"/>
     </row>
-    <row r="177" spans="1:21" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>4</v>
       </c>
@@ -7124,31 +7166,29 @@
         <f t="shared" si="15"/>
         <v>43840</v>
       </c>
-      <c r="C177" s="32"/>
-      <c r="D177" s="20"/>
-      <c r="E177" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F177" s="70"/>
-      <c r="G177" s="70"/>
-      <c r="H177" s="70"/>
-      <c r="I177" s="70"/>
-      <c r="J177" s="70"/>
-      <c r="K177" s="20"/>
-      <c r="L177" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="M177" s="72"/>
-      <c r="N177" s="72"/>
-      <c r="O177" s="72"/>
+      <c r="C177" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D177" s="71"/>
+      <c r="E177" s="71"/>
+      <c r="F177" s="71"/>
+      <c r="G177" s="71"/>
+      <c r="H177" s="71"/>
+      <c r="I177" s="71"/>
+      <c r="J177" s="71"/>
+      <c r="K177" s="71"/>
+      <c r="L177" s="71"/>
+      <c r="M177" s="71"/>
+      <c r="N177" s="71"/>
+      <c r="O177" s="71"/>
       <c r="P177" s="72"/>
-      <c r="Q177" s="73"/>
-      <c r="R177" s="20"/>
+      <c r="Q177" s="49"/>
+      <c r="R177" s="49"/>
       <c r="S177" s="51"/>
       <c r="T177" s="51"/>
       <c r="U177" s="54"/>
     </row>
-    <row r="178" spans="1:21" s="38" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>5</v>
       </c>
@@ -7156,20 +7196,22 @@
         <f t="shared" si="15"/>
         <v>43841</v>
       </c>
-      <c r="C178" s="50"/>
-      <c r="D178" s="49"/>
-      <c r="E178" s="49"/>
-      <c r="F178" s="49"/>
-      <c r="G178" s="49"/>
-      <c r="H178" s="49"/>
-      <c r="I178" s="49"/>
-      <c r="J178" s="49"/>
-      <c r="K178" s="49"/>
-      <c r="L178" s="49"/>
-      <c r="M178" s="49"/>
-      <c r="N178" s="49"/>
-      <c r="O178" s="49"/>
-      <c r="P178" s="49"/>
+      <c r="C178" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D178" s="71"/>
+      <c r="E178" s="71"/>
+      <c r="F178" s="71"/>
+      <c r="G178" s="71"/>
+      <c r="H178" s="71"/>
+      <c r="I178" s="71"/>
+      <c r="J178" s="71"/>
+      <c r="K178" s="71"/>
+      <c r="L178" s="71"/>
+      <c r="M178" s="71"/>
+      <c r="N178" s="71"/>
+      <c r="O178" s="71"/>
+      <c r="P178" s="72"/>
       <c r="Q178" s="49"/>
       <c r="R178" s="49"/>
       <c r="S178" s="51"/>
@@ -7261,7 +7303,7 @@
       <c r="S181" s="51"/>
       <c r="T181" s="51"/>
     </row>
-    <row r="182" spans="1:21" s="38" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="57">
         <f>A172+7</f>
         <v>43843</v>
@@ -7291,7 +7333,7 @@
       <c r="S182" s="51"/>
       <c r="T182" s="51"/>
     </row>
-    <row r="183" spans="1:21" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>0</v>
       </c>
@@ -7299,32 +7341,30 @@
         <f>B173+7</f>
         <v>43843</v>
       </c>
-      <c r="C183" s="32"/>
-      <c r="D183" s="20"/>
-      <c r="E183" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F183" s="70"/>
-      <c r="G183" s="70"/>
-      <c r="H183" s="70"/>
-      <c r="I183" s="70"/>
-      <c r="J183" s="70"/>
-      <c r="K183" s="49"/>
-      <c r="L183" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="M183" s="72"/>
-      <c r="N183" s="72"/>
-      <c r="O183" s="72"/>
+      <c r="C183" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D183" s="71"/>
+      <c r="E183" s="71"/>
+      <c r="F183" s="71"/>
+      <c r="G183" s="71"/>
+      <c r="H183" s="71"/>
+      <c r="I183" s="71"/>
+      <c r="J183" s="71"/>
+      <c r="K183" s="71"/>
+      <c r="L183" s="71"/>
+      <c r="M183" s="71"/>
+      <c r="N183" s="71"/>
+      <c r="O183" s="71"/>
       <c r="P183" s="72"/>
-      <c r="Q183" s="73"/>
+      <c r="Q183" s="49"/>
       <c r="R183" s="49"/>
       <c r="S183" s="51"/>
       <c r="T183" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="1:21" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>1</v>
       </c>
@@ -7332,32 +7372,30 @@
         <f t="shared" ref="B184:B189" si="16">B174+7</f>
         <v>43844</v>
       </c>
-      <c r="C184" s="32"/>
-      <c r="D184" s="20"/>
-      <c r="E184" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F184" s="70"/>
-      <c r="G184" s="70"/>
-      <c r="H184" s="70"/>
-      <c r="I184" s="70"/>
-      <c r="J184" s="70"/>
-      <c r="K184" s="49"/>
-      <c r="L184" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="M184" s="72"/>
-      <c r="N184" s="72"/>
-      <c r="O184" s="72"/>
+      <c r="C184" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D184" s="71"/>
+      <c r="E184" s="71"/>
+      <c r="F184" s="71"/>
+      <c r="G184" s="71"/>
+      <c r="H184" s="71"/>
+      <c r="I184" s="71"/>
+      <c r="J184" s="71"/>
+      <c r="K184" s="71"/>
+      <c r="L184" s="71"/>
+      <c r="M184" s="71"/>
+      <c r="N184" s="71"/>
+      <c r="O184" s="71"/>
       <c r="P184" s="72"/>
-      <c r="Q184" s="73"/>
-      <c r="R184" s="20"/>
+      <c r="Q184" s="49"/>
+      <c r="R184" s="49"/>
       <c r="S184" s="51"/>
       <c r="T184" s="53" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:21" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>2</v>
       </c>
@@ -7365,32 +7403,30 @@
         <f t="shared" si="16"/>
         <v>43845</v>
       </c>
-      <c r="C185" s="32"/>
-      <c r="D185" s="20"/>
-      <c r="E185" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F185" s="70"/>
-      <c r="G185" s="70"/>
-      <c r="H185" s="70"/>
-      <c r="I185" s="70"/>
-      <c r="J185" s="70"/>
-      <c r="K185" s="20"/>
-      <c r="L185" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="M185" s="72"/>
-      <c r="N185" s="72"/>
-      <c r="O185" s="72"/>
+      <c r="C185" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D185" s="71"/>
+      <c r="E185" s="71"/>
+      <c r="F185" s="71"/>
+      <c r="G185" s="71"/>
+      <c r="H185" s="71"/>
+      <c r="I185" s="71"/>
+      <c r="J185" s="71"/>
+      <c r="K185" s="71"/>
+      <c r="L185" s="71"/>
+      <c r="M185" s="71"/>
+      <c r="N185" s="71"/>
+      <c r="O185" s="71"/>
       <c r="P185" s="72"/>
-      <c r="Q185" s="73"/>
+      <c r="Q185" s="49"/>
       <c r="R185" s="49"/>
       <c r="S185" s="51"/>
       <c r="T185" s="52" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:21" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>3</v>
       </c>
@@ -7398,32 +7434,28 @@
         <f t="shared" si="16"/>
         <v>43846</v>
       </c>
-      <c r="C186" s="49"/>
+      <c r="C186" s="50"/>
       <c r="D186" s="49"/>
-      <c r="E186" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F186" s="70"/>
-      <c r="G186" s="70"/>
-      <c r="H186" s="70"/>
-      <c r="I186" s="70"/>
-      <c r="J186" s="70"/>
-      <c r="K186" s="20"/>
-      <c r="L186" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="M186" s="72"/>
-      <c r="N186" s="72"/>
-      <c r="O186" s="72"/>
-      <c r="P186" s="72"/>
-      <c r="Q186" s="73"/>
-      <c r="R186" s="20"/>
+      <c r="E186" s="49"/>
+      <c r="F186" s="49"/>
+      <c r="G186" s="49"/>
+      <c r="H186" s="49"/>
+      <c r="I186" s="49"/>
+      <c r="J186" s="49"/>
+      <c r="K186" s="49"/>
+      <c r="L186" s="49"/>
+      <c r="M186" s="49"/>
+      <c r="N186" s="49"/>
+      <c r="O186" s="49"/>
+      <c r="P186" s="49"/>
+      <c r="Q186" s="49"/>
+      <c r="R186" s="49"/>
       <c r="S186" s="51"/>
       <c r="T186" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="187" spans="1:21" s="38" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>4</v>
       </c>
@@ -7431,30 +7463,26 @@
         <f t="shared" si="16"/>
         <v>43847</v>
       </c>
-      <c r="C187" s="32"/>
-      <c r="D187" s="20"/>
-      <c r="E187" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F187" s="70"/>
-      <c r="G187" s="70"/>
-      <c r="H187" s="70"/>
-      <c r="I187" s="70"/>
-      <c r="J187" s="70"/>
-      <c r="K187" s="20"/>
-      <c r="L187" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="M187" s="72"/>
-      <c r="N187" s="72"/>
-      <c r="O187" s="72"/>
-      <c r="P187" s="72"/>
-      <c r="Q187" s="73"/>
-      <c r="R187" s="20"/>
+      <c r="C187" s="50"/>
+      <c r="D187" s="49"/>
+      <c r="E187" s="49"/>
+      <c r="F187" s="49"/>
+      <c r="G187" s="49"/>
+      <c r="H187" s="49"/>
+      <c r="I187" s="49"/>
+      <c r="J187" s="49"/>
+      <c r="K187" s="49"/>
+      <c r="L187" s="49"/>
+      <c r="M187" s="49"/>
+      <c r="N187" s="49"/>
+      <c r="O187" s="49"/>
+      <c r="P187" s="49"/>
+      <c r="Q187" s="49"/>
+      <c r="R187" s="49"/>
       <c r="S187" s="51"/>
       <c r="T187" s="51"/>
     </row>
-    <row r="188" spans="1:21" s="38" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>5</v>
       </c>
@@ -15879,41 +15907,25 @@
       <c r="T507"/>
     </row>
   </sheetData>
-  <mergeCells count="146">
+  <mergeCells count="145">
+    <mergeCell ref="H96:L96"/>
     <mergeCell ref="C143:E143"/>
-    <mergeCell ref="K116:Q116"/>
-    <mergeCell ref="E115:J115"/>
-    <mergeCell ref="L115:Q115"/>
     <mergeCell ref="C134:G134"/>
     <mergeCell ref="C114:G114"/>
     <mergeCell ref="C133:G133"/>
     <mergeCell ref="C113:G113"/>
-    <mergeCell ref="H116:J116"/>
     <mergeCell ref="D122:F122"/>
     <mergeCell ref="D142:F142"/>
     <mergeCell ref="H124:P124"/>
     <mergeCell ref="C125:K125"/>
     <mergeCell ref="H113:M113"/>
     <mergeCell ref="H114:M114"/>
-    <mergeCell ref="C79:R79"/>
-    <mergeCell ref="C89:R89"/>
-    <mergeCell ref="C99:R99"/>
-    <mergeCell ref="C109:R109"/>
-    <mergeCell ref="C103:G103"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="H83:P83"/>
-    <mergeCell ref="C107:M107"/>
-    <mergeCell ref="J84:R84"/>
-    <mergeCell ref="E85:M85"/>
-    <mergeCell ref="H93:P93"/>
-    <mergeCell ref="H94:P94"/>
-    <mergeCell ref="H96:L96"/>
+    <mergeCell ref="H133:P133"/>
+    <mergeCell ref="C135:K135"/>
+    <mergeCell ref="M135:P135"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="J116:N116"/>
+    <mergeCell ref="H134:P134"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="H46:P46"/>
     <mergeCell ref="H44:N44"/>
@@ -15982,13 +15994,8 @@
     <mergeCell ref="H64:N64"/>
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="C69:R69"/>
-    <mergeCell ref="L175:Q175"/>
-    <mergeCell ref="L167:Q167"/>
     <mergeCell ref="C155:R159"/>
     <mergeCell ref="C163:R165"/>
-    <mergeCell ref="E166:J166"/>
-    <mergeCell ref="L166:Q166"/>
-    <mergeCell ref="E167:J167"/>
     <mergeCell ref="H84:I84"/>
     <mergeCell ref="D112:F112"/>
     <mergeCell ref="C136:G136"/>
@@ -15996,9 +16003,6 @@
     <mergeCell ref="C123:G123"/>
     <mergeCell ref="C124:G124"/>
     <mergeCell ref="C106:G106"/>
-    <mergeCell ref="L173:Q173"/>
-    <mergeCell ref="E174:J174"/>
-    <mergeCell ref="L174:Q174"/>
     <mergeCell ref="C126:G126"/>
     <mergeCell ref="H142:L142"/>
     <mergeCell ref="C105:M105"/>
@@ -16006,26 +16010,49 @@
     <mergeCell ref="C119:R119"/>
     <mergeCell ref="C129:R129"/>
     <mergeCell ref="C139:R139"/>
+    <mergeCell ref="C89:R89"/>
+    <mergeCell ref="C99:R99"/>
+    <mergeCell ref="C109:R109"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C144:P144"/>
+    <mergeCell ref="C145:P145"/>
+    <mergeCell ref="C146:P146"/>
+    <mergeCell ref="C147:P147"/>
+    <mergeCell ref="C148:P148"/>
+    <mergeCell ref="C153:P153"/>
+    <mergeCell ref="C154:P154"/>
     <mergeCell ref="T58:U60"/>
-    <mergeCell ref="E187:J187"/>
-    <mergeCell ref="L187:Q187"/>
     <mergeCell ref="H123:P123"/>
-    <mergeCell ref="E184:J184"/>
-    <mergeCell ref="L184:Q184"/>
-    <mergeCell ref="E185:J185"/>
-    <mergeCell ref="L185:Q185"/>
-    <mergeCell ref="E186:J186"/>
-    <mergeCell ref="L186:Q186"/>
-    <mergeCell ref="E176:J176"/>
-    <mergeCell ref="L176:Q176"/>
-    <mergeCell ref="E177:J177"/>
-    <mergeCell ref="L177:Q177"/>
-    <mergeCell ref="E183:J183"/>
-    <mergeCell ref="L183:Q183"/>
-    <mergeCell ref="E173:J173"/>
     <mergeCell ref="H103:P103"/>
     <mergeCell ref="H104:P104"/>
-    <mergeCell ref="E175:J175"/>
+    <mergeCell ref="I115:R115"/>
+    <mergeCell ref="M125:P125"/>
+    <mergeCell ref="C79:R79"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H83:P83"/>
+    <mergeCell ref="C107:M107"/>
+    <mergeCell ref="J84:R84"/>
+    <mergeCell ref="E85:M85"/>
+    <mergeCell ref="H93:P93"/>
+    <mergeCell ref="H94:P94"/>
+    <mergeCell ref="C183:P183"/>
+    <mergeCell ref="C184:P184"/>
+    <mergeCell ref="C185:P185"/>
+    <mergeCell ref="C166:P166"/>
+    <mergeCell ref="C167:P167"/>
+    <mergeCell ref="C168:P168"/>
+    <mergeCell ref="C173:P173"/>
+    <mergeCell ref="C174:P174"/>
+    <mergeCell ref="C175:P175"/>
+    <mergeCell ref="C176:P176"/>
+    <mergeCell ref="C177:P177"/>
+    <mergeCell ref="C178:P178"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -16036,8 +16063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16053,10 +16080,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="122"/>
+      <c r="B2" s="126"/>
       <c r="C2" s="41" t="s">
         <v>18</v>
       </c>
@@ -16075,10 +16102,10 @@
       <c r="I2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="123" t="s">
+      <c r="J2" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="123"/>
+      <c r="K2" s="127"/>
     </row>
     <row r="3" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
@@ -16093,10 +16120,10 @@
       <c r="I3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="124" t="s">
+      <c r="J3" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="124"/>
+      <c r="K3" s="128"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -16118,10 +16145,10 @@
       <c r="I4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="124" t="s">
+      <c r="J4" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="124"/>
+      <c r="K4" s="128"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -16220,8 +16247,11 @@
         <v>43408</v>
       </c>
       <c r="D11" s="29"/>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="129" t="s">
         <v>83</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -16252,7 +16282,9 @@
       <c r="D13" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="56"/>
+      <c r="E13" s="53" t="s">
+        <v>34</v>
+      </c>
       <c r="G13" s="56"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -16269,6 +16301,9 @@
       <c r="D14" s="56" t="s">
         <v>15</v>
       </c>
+      <c r="E14" s="53" t="s">
+        <v>34</v>
+      </c>
       <c r="F14" s="56" t="s">
         <v>10</v>
       </c>
@@ -16285,6 +16320,9 @@
         <v>43436</v>
       </c>
       <c r="D15" s="29"/>
+      <c r="F15" s="56" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
@@ -16396,10 +16434,10 @@
       <c r="H22" s="51"/>
     </row>
     <row r="23" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="122" t="s">
+      <c r="A23" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="122"/>
+      <c r="B23" s="126"/>
       <c r="C23" s="41" t="s">
         <v>18</v>
       </c>
@@ -16604,7 +16642,7 @@
         <v>43929</v>
       </c>
       <c r="D36" s="29"/>
-      <c r="F36" s="78" t="s">
+      <c r="F36" s="79" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16622,7 +16660,7 @@
         <v>43936</v>
       </c>
       <c r="D37" s="44"/>
-      <c r="F37" s="78"/>
+      <c r="F37" s="79"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
@@ -16638,7 +16676,7 @@
         <v>43943</v>
       </c>
       <c r="D38" s="29"/>
-      <c r="F38" s="78"/>
+      <c r="F38" s="79"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="23">

--- a/Weekly Planner.xlsx
+++ b/Weekly Planner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SoftwareProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59DFA32-7E8E-4BD0-BF38-B3488EE39FC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E327814C-1A4B-40DD-B7C8-6FDD8235B996}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="90">
   <si>
     <t>Monday</t>
   </si>
@@ -483,7 +483,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -900,6 +900,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -914,7 +927,7 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1095,22 +1108,43 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1122,43 +1156,58 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="5" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="11" borderId="4" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1185,9 +1234,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1197,70 +1243,40 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="8" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="11" borderId="4" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="5" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1272,7 +1288,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="36" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1575,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J116" sqref="J116:N116"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H133" sqref="H133:P133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1959,26 +1978,26 @@
       <c r="B13" s="57">
         <v>43724</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="90" t="s">
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="105"/>
-      <c r="R13" s="91"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="95"/>
       <c r="S13" s="51"/>
       <c r="T13" s="30" t="s">
         <v>22</v>
@@ -1991,26 +2010,26 @@
       <c r="B14" s="57">
         <v>43725</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="106" t="s">
+      <c r="J14" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="90" t="s">
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="91"/>
+      <c r="P14" s="95"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="51"/>
@@ -2053,20 +2072,20 @@
       <c r="B16" s="57">
         <v>43727</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="114" t="s">
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
@@ -2271,26 +2290,26 @@
         <f>B13+7</f>
         <v>43731</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="90" t="s">
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="105"/>
-      <c r="P23" s="105"/>
-      <c r="Q23" s="105"/>
-      <c r="R23" s="91"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="95"/>
       <c r="S23" s="51"/>
       <c r="T23" s="30" t="s">
         <v>22</v>
@@ -2304,30 +2323,30 @@
         <f t="shared" ref="B24:B29" si="0">B14+7</f>
         <v>43732</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="90" t="s">
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="115"/>
-      <c r="J24" s="87" t="s">
+      <c r="I24" s="87"/>
+      <c r="J24" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="K24" s="88"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="87" t="s">
+      <c r="K24" s="72"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="N24" s="89"/>
-      <c r="O24" s="106" t="s">
+      <c r="N24" s="73"/>
+      <c r="O24" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="P24" s="108"/>
+      <c r="P24" s="98"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
       <c r="S24" s="51"/>
@@ -2372,20 +2391,20 @@
         <f t="shared" si="0"/>
         <v>43734</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C26" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="112" t="s">
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="112"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="112"/>
-      <c r="L26" s="112"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
@@ -2567,12 +2586,12 @@
         <f>C22+1</f>
         <v>3</v>
       </c>
-      <c r="D32" s="113" t="s">
+      <c r="D32" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
@@ -2595,24 +2614,24 @@
         <f>B23+7</f>
         <v>43738</v>
       </c>
-      <c r="C33" s="80" t="s">
+      <c r="C33" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="112" t="s">
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="112"/>
-      <c r="M33" s="112"/>
-      <c r="N33" s="112"/>
-      <c r="O33" s="112"/>
-      <c r="P33" s="112"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="92"/>
       <c r="Q33" s="62"/>
       <c r="R33" s="62"/>
       <c r="S33" s="51"/>
@@ -2628,13 +2647,13 @@
         <f t="shared" ref="B34:B39" si="1">B24+7</f>
         <v>43739</v>
       </c>
-      <c r="C34" s="80" t="s">
+      <c r="C34" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
       <c r="H34" s="62"/>
       <c r="I34" s="62"/>
       <c r="J34" s="62"/>
@@ -2688,13 +2707,13 @@
         <f t="shared" si="1"/>
         <v>43741</v>
       </c>
-      <c r="C36" s="80" t="s">
+      <c r="C36" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="63"/>
@@ -2907,24 +2926,24 @@
         <f>B33+7</f>
         <v>43745</v>
       </c>
-      <c r="C43" s="80" t="s">
+      <c r="C43" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="75" t="s">
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
-      <c r="N43" s="75"/>
-      <c r="O43" s="75"/>
-      <c r="P43" s="75"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="79"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="79"/>
+      <c r="O43" s="79"/>
+      <c r="P43" s="79"/>
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
       <c r="S43" s="51"/>
@@ -2940,22 +2959,22 @@
         <f t="shared" ref="B44:B49" si="2">B34+7</f>
         <v>43746</v>
       </c>
-      <c r="C44" s="80" t="s">
+      <c r="C44" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="116" t="s">
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="100"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="100"/>
-      <c r="M44" s="100"/>
-      <c r="N44" s="100"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="89"/>
+      <c r="L44" s="89"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="89"/>
       <c r="O44" s="49"/>
       <c r="P44" s="49"/>
       <c r="Q44" s="49"/>
@@ -2978,17 +2997,17 @@
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
-      <c r="H45" s="109" t="s">
+      <c r="H45" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="I45" s="110"/>
-      <c r="J45" s="110"/>
-      <c r="K45" s="110"/>
-      <c r="L45" s="110"/>
-      <c r="M45" s="110"/>
-      <c r="N45" s="110"/>
-      <c r="O45" s="110"/>
-      <c r="P45" s="111"/>
+      <c r="I45" s="100"/>
+      <c r="J45" s="100"/>
+      <c r="K45" s="100"/>
+      <c r="L45" s="100"/>
+      <c r="M45" s="100"/>
+      <c r="N45" s="100"/>
+      <c r="O45" s="100"/>
+      <c r="P45" s="101"/>
       <c r="Q45" s="49"/>
       <c r="R45" s="49"/>
       <c r="S45" s="51"/>
@@ -3004,24 +3023,24 @@
         <f t="shared" si="2"/>
         <v>43748</v>
       </c>
-      <c r="C46" s="80" t="s">
+      <c r="C46" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="76" t="s">
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="I46" s="77"/>
-      <c r="J46" s="77"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="77"/>
-      <c r="M46" s="77"/>
-      <c r="N46" s="77"/>
-      <c r="O46" s="77"/>
-      <c r="P46" s="78"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="84"/>
+      <c r="M46" s="84"/>
+      <c r="N46" s="84"/>
+      <c r="O46" s="84"/>
+      <c r="P46" s="85"/>
       <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
       <c r="S46" s="51"/>
@@ -3200,11 +3219,11 @@
         <v>5</v>
       </c>
       <c r="G52" s="15"/>
-      <c r="H52" s="117" t="s">
+      <c r="H52" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="I52" s="117"/>
-      <c r="J52" s="117"/>
+      <c r="I52" s="90"/>
+      <c r="J52" s="90"/>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
       <c r="M52" s="19"/>
@@ -3224,23 +3243,23 @@
         <f>B43+7</f>
         <v>43752</v>
       </c>
-      <c r="C53" s="80" t="s">
+      <c r="C53" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="80"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
       <c r="H53" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="I53" s="87" t="s">
+      <c r="I53" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="88"/>
-      <c r="K53" s="88"/>
-      <c r="L53" s="88"/>
-      <c r="M53" s="88"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="72"/>
       <c r="N53" s="49"/>
       <c r="O53" s="49"/>
       <c r="P53" s="49"/>
@@ -3259,28 +3278,28 @@
         <f t="shared" ref="B54:B59" si="3">B44+7</f>
         <v>43753</v>
       </c>
-      <c r="C54" s="80" t="s">
+      <c r="C54" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="92" t="s">
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="I54" s="93"/>
-      <c r="J54" s="93"/>
-      <c r="K54" s="93"/>
-      <c r="L54" s="93"/>
-      <c r="M54" s="93"/>
-      <c r="N54" s="93"/>
-      <c r="O54" s="93"/>
-      <c r="P54" s="93"/>
-      <c r="Q54" s="90" t="s">
+      <c r="I54" s="105"/>
+      <c r="J54" s="105"/>
+      <c r="K54" s="105"/>
+      <c r="L54" s="105"/>
+      <c r="M54" s="105"/>
+      <c r="N54" s="105"/>
+      <c r="O54" s="105"/>
+      <c r="P54" s="105"/>
+      <c r="Q54" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="R54" s="91"/>
+      <c r="R54" s="95"/>
       <c r="S54" s="51"/>
       <c r="T54" s="53" t="s">
         <v>19</v>
@@ -3298,18 +3317,18 @@
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
-      <c r="G55" s="80" t="s">
+      <c r="G55" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="H55" s="80"/>
-      <c r="I55" s="118" t="s">
+      <c r="H55" s="75"/>
+      <c r="I55" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="J55" s="88"/>
-      <c r="K55" s="88"/>
-      <c r="L55" s="88"/>
-      <c r="M55" s="88"/>
-      <c r="N55" s="88"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="72"/>
+      <c r="L55" s="72"/>
+      <c r="M55" s="72"/>
+      <c r="N55" s="72"/>
       <c r="O55" s="49"/>
       <c r="P55" s="49"/>
       <c r="Q55" s="49"/>
@@ -3327,21 +3346,21 @@
         <f t="shared" si="3"/>
         <v>43755</v>
       </c>
-      <c r="C56" s="80" t="s">
+      <c r="C56" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="80"/>
-      <c r="H56" s="99" t="s">
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="I56" s="100"/>
-      <c r="J56" s="100"/>
-      <c r="K56" s="100"/>
-      <c r="L56" s="100"/>
-      <c r="M56" s="100"/>
+      <c r="I56" s="89"/>
+      <c r="J56" s="89"/>
+      <c r="K56" s="89"/>
+      <c r="L56" s="89"/>
+      <c r="M56" s="89"/>
       <c r="N56" s="49"/>
       <c r="O56" s="49"/>
       <c r="P56" s="49"/>
@@ -3373,11 +3392,11 @@
       <c r="M57" s="49"/>
       <c r="N57" s="49"/>
       <c r="O57" s="49"/>
-      <c r="P57" s="76" t="s">
+      <c r="P57" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="Q57" s="77"/>
-      <c r="R57" s="78"/>
+      <c r="Q57" s="84"/>
+      <c r="R57" s="85"/>
       <c r="S57" s="51"/>
       <c r="T57" s="51"/>
     </row>
@@ -3391,31 +3410,31 @@
       </c>
       <c r="C58" s="50"/>
       <c r="D58" s="49"/>
-      <c r="E58" s="97" t="s">
+      <c r="E58" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="F58" s="77"/>
-      <c r="G58" s="98"/>
-      <c r="H58" s="80" t="s">
+      <c r="F58" s="84"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="I58" s="80"/>
-      <c r="J58" s="87" t="s">
+      <c r="I58" s="75"/>
+      <c r="J58" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="K58" s="88"/>
-      <c r="L58" s="88"/>
-      <c r="M58" s="88"/>
-      <c r="N58" s="88"/>
-      <c r="O58" s="88"/>
-      <c r="P58" s="89"/>
+      <c r="K58" s="72"/>
+      <c r="L58" s="72"/>
+      <c r="M58" s="72"/>
+      <c r="N58" s="72"/>
+      <c r="O58" s="72"/>
+      <c r="P58" s="73"/>
       <c r="Q58" s="20"/>
       <c r="R58" s="20"/>
       <c r="S58" s="51"/>
-      <c r="T58" s="73" t="s">
+      <c r="T58" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="U58" s="73"/>
+      <c r="U58" s="125"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -3442,8 +3461,8 @@
       <c r="Q59" s="20"/>
       <c r="R59" s="20"/>
       <c r="S59" s="51"/>
-      <c r="T59" s="73"/>
-      <c r="U59" s="73"/>
+      <c r="T59" s="125"/>
+      <c r="U59" s="125"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B60"/>
@@ -3464,8 +3483,8 @@
       <c r="Q60"/>
       <c r="R60"/>
       <c r="S60"/>
-      <c r="T60" s="73"/>
-      <c r="U60" s="73"/>
+      <c r="T60" s="125"/>
+      <c r="U60" s="125"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
@@ -3539,11 +3558,11 @@
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
-      <c r="H62" s="117" t="s">
+      <c r="H62" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="I62" s="117"/>
-      <c r="J62" s="117"/>
+      <c r="I62" s="90"/>
+      <c r="J62" s="90"/>
       <c r="K62" s="19"/>
       <c r="L62" s="19"/>
       <c r="M62" s="19"/>
@@ -3563,22 +3582,22 @@
         <f>B53+7</f>
         <v>43759</v>
       </c>
-      <c r="C63" s="80" t="s">
+      <c r="C63" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="80"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="80"/>
-      <c r="G63" s="80"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="75"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="75"/>
       <c r="H63" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="I63" s="87" t="s">
+      <c r="I63" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="J63" s="88"/>
-      <c r="K63" s="88"/>
-      <c r="L63" s="88"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="72"/>
       <c r="M63" s="49"/>
       <c r="N63" s="49"/>
       <c r="O63" s="49"/>
@@ -3598,22 +3617,22 @@
         <f t="shared" ref="B64:B69" si="4">B54+7</f>
         <v>43760</v>
       </c>
-      <c r="C64" s="80" t="s">
+      <c r="C64" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="80"/>
-      <c r="E64" s="80"/>
-      <c r="F64" s="80"/>
-      <c r="G64" s="80"/>
-      <c r="H64" s="97" t="s">
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="I64" s="77"/>
-      <c r="J64" s="77"/>
-      <c r="K64" s="77"/>
-      <c r="L64" s="77"/>
-      <c r="M64" s="77"/>
-      <c r="N64" s="77"/>
+      <c r="I64" s="84"/>
+      <c r="J64" s="84"/>
+      <c r="K64" s="84"/>
+      <c r="L64" s="84"/>
+      <c r="M64" s="84"/>
+      <c r="N64" s="84"/>
       <c r="O64" s="49"/>
       <c r="P64" s="49"/>
       <c r="Q64" s="49"/>
@@ -3662,25 +3681,25 @@
         <f t="shared" si="4"/>
         <v>43762</v>
       </c>
-      <c r="C66" s="80" t="s">
+      <c r="C66" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
-      <c r="F66" s="80"/>
-      <c r="G66" s="80"/>
-      <c r="H66" s="101" t="s">
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="75"/>
+      <c r="H66" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="I66" s="102"/>
-      <c r="J66" s="102"/>
-      <c r="K66" s="102"/>
-      <c r="L66" s="102"/>
-      <c r="M66" s="102"/>
-      <c r="N66" s="102"/>
-      <c r="O66" s="102"/>
-      <c r="P66" s="102"/>
-      <c r="Q66" s="103"/>
+      <c r="I66" s="113"/>
+      <c r="J66" s="113"/>
+      <c r="K66" s="113"/>
+      <c r="L66" s="113"/>
+      <c r="M66" s="113"/>
+      <c r="N66" s="113"/>
+      <c r="O66" s="113"/>
+      <c r="P66" s="113"/>
+      <c r="Q66" s="114"/>
       <c r="R66" s="20"/>
       <c r="S66" s="51"/>
       <c r="T66" s="18" t="s">
@@ -3695,26 +3714,26 @@
         <f t="shared" si="4"/>
         <v>43763</v>
       </c>
-      <c r="C67" s="87" t="s">
+      <c r="C67" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="D67" s="88"/>
-      <c r="E67" s="88"/>
-      <c r="F67" s="88"/>
-      <c r="G67" s="88"/>
-      <c r="H67" s="88"/>
-      <c r="I67" s="88"/>
-      <c r="J67" s="89"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="72"/>
+      <c r="I67" s="72"/>
+      <c r="J67" s="73"/>
       <c r="K67" s="49"/>
-      <c r="L67" s="88" t="s">
+      <c r="L67" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="M67" s="88"/>
-      <c r="N67" s="88"/>
-      <c r="O67" s="88"/>
-      <c r="P67" s="88"/>
-      <c r="Q67" s="88"/>
-      <c r="R67" s="89"/>
+      <c r="M67" s="72"/>
+      <c r="N67" s="72"/>
+      <c r="O67" s="72"/>
+      <c r="P67" s="72"/>
+      <c r="Q67" s="72"/>
+      <c r="R67" s="73"/>
       <c r="S67" s="51"/>
       <c r="T67" s="51"/>
     </row>
@@ -3753,24 +3772,24 @@
         <f t="shared" si="4"/>
         <v>43765</v>
       </c>
-      <c r="C69" s="80" t="s">
+      <c r="C69" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="D69" s="80"/>
-      <c r="E69" s="80"/>
-      <c r="F69" s="80"/>
-      <c r="G69" s="80"/>
-      <c r="H69" s="80"/>
-      <c r="I69" s="80"/>
-      <c r="J69" s="80"/>
-      <c r="K69" s="80"/>
-      <c r="L69" s="80"/>
-      <c r="M69" s="80"/>
-      <c r="N69" s="80"/>
-      <c r="O69" s="80"/>
-      <c r="P69" s="80"/>
-      <c r="Q69" s="80"/>
-      <c r="R69" s="80"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="75"/>
+      <c r="G69" s="75"/>
+      <c r="H69" s="75"/>
+      <c r="I69" s="75"/>
+      <c r="J69" s="75"/>
+      <c r="K69" s="75"/>
+      <c r="L69" s="75"/>
+      <c r="M69" s="75"/>
+      <c r="N69" s="75"/>
+      <c r="O69" s="75"/>
+      <c r="P69" s="75"/>
+      <c r="Q69" s="75"/>
+      <c r="R69" s="75"/>
       <c r="S69" s="51"/>
       <c r="T69" s="51"/>
     </row>
@@ -3863,27 +3882,27 @@
         <f>C62+1</f>
         <v>7</v>
       </c>
-      <c r="D72" s="81" t="s">
+      <c r="D72" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="81"/>
-      <c r="F72" s="81"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="77"/>
       <c r="G72" s="15"/>
-      <c r="H72" s="104" t="s">
+      <c r="H72" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="I72" s="104"/>
-      <c r="J72" s="104"/>
-      <c r="K72" s="104"/>
+      <c r="I72" s="76"/>
+      <c r="J72" s="76"/>
+      <c r="K72" s="76"/>
       <c r="L72" s="19"/>
-      <c r="M72" s="119" t="s">
+      <c r="M72" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="N72" s="119"/>
-      <c r="O72" s="119"/>
-      <c r="P72" s="119"/>
-      <c r="Q72" s="119"/>
-      <c r="R72" s="119"/>
+      <c r="N72" s="93"/>
+      <c r="O72" s="93"/>
+      <c r="P72" s="93"/>
+      <c r="Q72" s="93"/>
+      <c r="R72" s="93"/>
       <c r="S72" s="51"/>
       <c r="T72" s="51"/>
     </row>
@@ -3897,23 +3916,23 @@
       </c>
       <c r="C73" s="32"/>
       <c r="D73" s="20"/>
-      <c r="E73" s="75" t="s">
+      <c r="E73" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="F73" s="75"/>
-      <c r="G73" s="75"/>
-      <c r="H73" s="75"/>
-      <c r="I73" s="75"/>
-      <c r="J73" s="75"/>
+      <c r="F73" s="79"/>
+      <c r="G73" s="79"/>
+      <c r="H73" s="79"/>
+      <c r="I73" s="79"/>
+      <c r="J73" s="79"/>
       <c r="K73" s="49"/>
-      <c r="L73" s="87" t="s">
+      <c r="L73" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="M73" s="88"/>
-      <c r="N73" s="88"/>
-      <c r="O73" s="88"/>
-      <c r="P73" s="88"/>
-      <c r="Q73" s="89"/>
+      <c r="M73" s="72"/>
+      <c r="N73" s="72"/>
+      <c r="O73" s="72"/>
+      <c r="P73" s="72"/>
+      <c r="Q73" s="73"/>
       <c r="R73" s="49"/>
       <c r="S73" s="51"/>
       <c r="T73" s="30" t="s">
@@ -3928,27 +3947,27 @@
         <f t="shared" ref="B74:B79" si="5">B64+7</f>
         <v>43767</v>
       </c>
-      <c r="C74" s="87" t="s">
+      <c r="C74" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="D74" s="89"/>
-      <c r="E74" s="75" t="s">
+      <c r="D74" s="73"/>
+      <c r="E74" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="F74" s="75"/>
-      <c r="G74" s="75"/>
-      <c r="H74" s="75"/>
-      <c r="I74" s="75"/>
-      <c r="J74" s="75"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="79"/>
+      <c r="I74" s="79"/>
+      <c r="J74" s="79"/>
       <c r="K74" s="49"/>
-      <c r="L74" s="87" t="s">
+      <c r="L74" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="M74" s="88"/>
-      <c r="N74" s="88"/>
-      <c r="O74" s="88"/>
-      <c r="P74" s="88"/>
-      <c r="Q74" s="89"/>
+      <c r="M74" s="72"/>
+      <c r="N74" s="72"/>
+      <c r="O74" s="72"/>
+      <c r="P74" s="72"/>
+      <c r="Q74" s="73"/>
       <c r="R74" s="20"/>
       <c r="S74" s="51"/>
       <c r="T74" s="53" t="s">
@@ -3965,23 +3984,23 @@
       </c>
       <c r="C75" s="32"/>
       <c r="D75" s="20"/>
-      <c r="E75" s="75" t="s">
+      <c r="E75" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="F75" s="75"/>
-      <c r="G75" s="75"/>
-      <c r="H75" s="75"/>
-      <c r="I75" s="75"/>
-      <c r="J75" s="75"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="79"/>
+      <c r="H75" s="79"/>
+      <c r="I75" s="79"/>
+      <c r="J75" s="79"/>
       <c r="K75" s="49"/>
-      <c r="L75" s="87" t="s">
+      <c r="L75" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="M75" s="88"/>
-      <c r="N75" s="88"/>
-      <c r="O75" s="88"/>
-      <c r="P75" s="88"/>
-      <c r="Q75" s="89"/>
+      <c r="M75" s="72"/>
+      <c r="N75" s="72"/>
+      <c r="O75" s="72"/>
+      <c r="P75" s="72"/>
+      <c r="Q75" s="73"/>
       <c r="R75" s="49"/>
       <c r="S75" s="51"/>
       <c r="T75" s="52" t="s">
@@ -3996,24 +4015,24 @@
         <f t="shared" si="5"/>
         <v>43769</v>
       </c>
-      <c r="C76" s="80" t="s">
+      <c r="C76" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="D76" s="80"/>
-      <c r="E76" s="80"/>
-      <c r="F76" s="80"/>
-      <c r="G76" s="80"/>
-      <c r="H76" s="80"/>
-      <c r="I76" s="80"/>
-      <c r="J76" s="80"/>
-      <c r="K76" s="80"/>
-      <c r="L76" s="80"/>
-      <c r="M76" s="80"/>
-      <c r="N76" s="80"/>
-      <c r="O76" s="80"/>
-      <c r="P76" s="80"/>
-      <c r="Q76" s="80"/>
-      <c r="R76" s="80"/>
+      <c r="D76" s="75"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="75"/>
+      <c r="G76" s="75"/>
+      <c r="H76" s="75"/>
+      <c r="I76" s="75"/>
+      <c r="J76" s="75"/>
+      <c r="K76" s="75"/>
+      <c r="L76" s="75"/>
+      <c r="M76" s="75"/>
+      <c r="N76" s="75"/>
+      <c r="O76" s="75"/>
+      <c r="P76" s="75"/>
+      <c r="Q76" s="75"/>
+      <c r="R76" s="75"/>
       <c r="S76" s="51"/>
       <c r="T76" s="18" t="s">
         <v>21</v>
@@ -4029,23 +4048,23 @@
       </c>
       <c r="C77" s="32"/>
       <c r="D77" s="20"/>
-      <c r="E77" s="112" t="s">
+      <c r="E77" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="F77" s="112"/>
-      <c r="G77" s="112"/>
-      <c r="H77" s="112"/>
-      <c r="I77" s="112"/>
-      <c r="J77" s="112"/>
+      <c r="F77" s="92"/>
+      <c r="G77" s="92"/>
+      <c r="H77" s="92"/>
+      <c r="I77" s="92"/>
+      <c r="J77" s="92"/>
       <c r="K77" s="49"/>
-      <c r="L77" s="94" t="s">
+      <c r="L77" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="M77" s="95"/>
-      <c r="N77" s="95"/>
-      <c r="O77" s="95"/>
-      <c r="P77" s="95"/>
-      <c r="Q77" s="96"/>
+      <c r="M77" s="107"/>
+      <c r="N77" s="107"/>
+      <c r="O77" s="107"/>
+      <c r="P77" s="107"/>
+      <c r="Q77" s="108"/>
       <c r="R77" s="20"/>
       <c r="S77" s="51"/>
       <c r="T77" s="51"/>
@@ -4060,23 +4079,23 @@
       </c>
       <c r="C78" s="50"/>
       <c r="D78" s="49"/>
-      <c r="E78" s="112" t="s">
+      <c r="E78" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="F78" s="112"/>
-      <c r="G78" s="112"/>
-      <c r="H78" s="112"/>
-      <c r="I78" s="112"/>
-      <c r="J78" s="112"/>
+      <c r="F78" s="92"/>
+      <c r="G78" s="92"/>
+      <c r="H78" s="92"/>
+      <c r="I78" s="92"/>
+      <c r="J78" s="92"/>
       <c r="K78" s="49"/>
-      <c r="L78" s="94" t="s">
+      <c r="L78" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="M78" s="95"/>
-      <c r="N78" s="95"/>
-      <c r="O78" s="95"/>
-      <c r="P78" s="95"/>
-      <c r="Q78" s="96"/>
+      <c r="M78" s="107"/>
+      <c r="N78" s="107"/>
+      <c r="O78" s="107"/>
+      <c r="P78" s="107"/>
+      <c r="Q78" s="108"/>
       <c r="R78" s="49"/>
       <c r="S78" s="51"/>
       <c r="T78" s="51"/>
@@ -4089,24 +4108,24 @@
         <f t="shared" si="5"/>
         <v>43772</v>
       </c>
-      <c r="C79" s="80" t="s">
+      <c r="C79" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="D79" s="80"/>
-      <c r="E79" s="80"/>
-      <c r="F79" s="80"/>
-      <c r="G79" s="80"/>
-      <c r="H79" s="80"/>
-      <c r="I79" s="80"/>
-      <c r="J79" s="80"/>
-      <c r="K79" s="80"/>
-      <c r="L79" s="80"/>
-      <c r="M79" s="80"/>
-      <c r="N79" s="80"/>
-      <c r="O79" s="80"/>
-      <c r="P79" s="80"/>
-      <c r="Q79" s="80"/>
-      <c r="R79" s="80"/>
+      <c r="D79" s="75"/>
+      <c r="E79" s="75"/>
+      <c r="F79" s="75"/>
+      <c r="G79" s="75"/>
+      <c r="H79" s="75"/>
+      <c r="I79" s="75"/>
+      <c r="J79" s="75"/>
+      <c r="K79" s="75"/>
+      <c r="L79" s="75"/>
+      <c r="M79" s="75"/>
+      <c r="N79" s="75"/>
+      <c r="O79" s="75"/>
+      <c r="P79" s="75"/>
+      <c r="Q79" s="75"/>
+      <c r="R79" s="75"/>
       <c r="S79" s="51"/>
       <c r="T79" s="51"/>
     </row>
@@ -4180,11 +4199,11 @@
         <f>C72+1</f>
         <v>8</v>
       </c>
-      <c r="D82" s="81" t="s">
+      <c r="D82" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="81"/>
-      <c r="F82" s="81"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="77"/>
       <c r="G82" s="15"/>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -4209,24 +4228,24 @@
         <f>B73+7</f>
         <v>43773</v>
       </c>
-      <c r="C83" s="80" t="s">
+      <c r="C83" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="80"/>
-      <c r="E83" s="80"/>
-      <c r="F83" s="80"/>
-      <c r="G83" s="80"/>
-      <c r="H83" s="76" t="s">
+      <c r="D83" s="75"/>
+      <c r="E83" s="75"/>
+      <c r="F83" s="75"/>
+      <c r="G83" s="75"/>
+      <c r="H83" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="I83" s="77"/>
-      <c r="J83" s="77"/>
-      <c r="K83" s="77"/>
-      <c r="L83" s="77"/>
-      <c r="M83" s="77"/>
-      <c r="N83" s="77"/>
-      <c r="O83" s="77"/>
-      <c r="P83" s="78"/>
+      <c r="I83" s="84"/>
+      <c r="J83" s="84"/>
+      <c r="K83" s="84"/>
+      <c r="L83" s="84"/>
+      <c r="M83" s="84"/>
+      <c r="N83" s="84"/>
+      <c r="O83" s="84"/>
+      <c r="P83" s="85"/>
       <c r="Q83" s="20"/>
       <c r="R83" s="20"/>
       <c r="S83" s="51"/>
@@ -4243,28 +4262,28 @@
         <f t="shared" ref="B84:B89" si="6">B74+7</f>
         <v>43774</v>
       </c>
-      <c r="C84" s="80" t="s">
+      <c r="C84" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="80"/>
-      <c r="E84" s="80"/>
-      <c r="F84" s="80"/>
-      <c r="G84" s="80"/>
-      <c r="H84" s="80" t="s">
+      <c r="D84" s="75"/>
+      <c r="E84" s="75"/>
+      <c r="F84" s="75"/>
+      <c r="G84" s="75"/>
+      <c r="H84" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="I84" s="80"/>
-      <c r="J84" s="76" t="s">
+      <c r="I84" s="75"/>
+      <c r="J84" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="K84" s="77"/>
-      <c r="L84" s="77"/>
-      <c r="M84" s="77"/>
-      <c r="N84" s="77"/>
-      <c r="O84" s="77"/>
-      <c r="P84" s="77"/>
-      <c r="Q84" s="77"/>
-      <c r="R84" s="78"/>
+      <c r="K84" s="84"/>
+      <c r="L84" s="84"/>
+      <c r="M84" s="84"/>
+      <c r="N84" s="84"/>
+      <c r="O84" s="84"/>
+      <c r="P84" s="84"/>
+      <c r="Q84" s="84"/>
+      <c r="R84" s="85"/>
       <c r="S84" s="51"/>
       <c r="T84" s="53" t="s">
         <v>19</v>
@@ -4281,17 +4300,17 @@
       </c>
       <c r="C85" s="32"/>
       <c r="D85" s="20"/>
-      <c r="E85" s="76" t="s">
+      <c r="E85" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="F85" s="77"/>
-      <c r="G85" s="77"/>
-      <c r="H85" s="77"/>
-      <c r="I85" s="77"/>
-      <c r="J85" s="77"/>
-      <c r="K85" s="77"/>
-      <c r="L85" s="77"/>
-      <c r="M85" s="78"/>
+      <c r="F85" s="84"/>
+      <c r="G85" s="84"/>
+      <c r="H85" s="84"/>
+      <c r="I85" s="84"/>
+      <c r="J85" s="84"/>
+      <c r="K85" s="84"/>
+      <c r="L85" s="84"/>
+      <c r="M85" s="85"/>
       <c r="N85" s="49"/>
       <c r="O85" s="49"/>
       <c r="P85" s="49"/>
@@ -4311,13 +4330,13 @@
         <f t="shared" si="6"/>
         <v>43776</v>
       </c>
-      <c r="C86" s="120" t="s">
+      <c r="C86" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="D86" s="120"/>
-      <c r="E86" s="120"/>
-      <c r="F86" s="120"/>
-      <c r="G86" s="120"/>
+      <c r="D86" s="121"/>
+      <c r="E86" s="121"/>
+      <c r="F86" s="121"/>
+      <c r="G86" s="121"/>
       <c r="H86" s="49"/>
       <c r="I86" s="49"/>
       <c r="J86" s="49"/>
@@ -4399,24 +4418,24 @@
         <f t="shared" si="6"/>
         <v>43779</v>
       </c>
-      <c r="C89" s="80" t="s">
+      <c r="C89" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="D89" s="80"/>
-      <c r="E89" s="80"/>
-      <c r="F89" s="80"/>
-      <c r="G89" s="80"/>
-      <c r="H89" s="80"/>
-      <c r="I89" s="80"/>
-      <c r="J89" s="80"/>
-      <c r="K89" s="80"/>
-      <c r="L89" s="80"/>
-      <c r="M89" s="80"/>
-      <c r="N89" s="80"/>
-      <c r="O89" s="80"/>
-      <c r="P89" s="80"/>
-      <c r="Q89" s="80"/>
-      <c r="R89" s="80"/>
+      <c r="D89" s="75"/>
+      <c r="E89" s="75"/>
+      <c r="F89" s="75"/>
+      <c r="G89" s="75"/>
+      <c r="H89" s="75"/>
+      <c r="I89" s="75"/>
+      <c r="J89" s="75"/>
+      <c r="K89" s="75"/>
+      <c r="L89" s="75"/>
+      <c r="M89" s="75"/>
+      <c r="N89" s="75"/>
+      <c r="O89" s="75"/>
+      <c r="P89" s="75"/>
+      <c r="Q89" s="75"/>
+      <c r="R89" s="75"/>
       <c r="S89" s="51"/>
       <c r="T89" s="51"/>
       <c r="U89" s="54"/>
@@ -4518,24 +4537,24 @@
         <f>B83+7</f>
         <v>43780</v>
       </c>
-      <c r="C93" s="80" t="s">
+      <c r="C93" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="80"/>
-      <c r="E93" s="80"/>
-      <c r="F93" s="80"/>
-      <c r="G93" s="80"/>
-      <c r="H93" s="75" t="s">
+      <c r="D93" s="75"/>
+      <c r="E93" s="75"/>
+      <c r="F93" s="75"/>
+      <c r="G93" s="75"/>
+      <c r="H93" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="I93" s="75"/>
-      <c r="J93" s="75"/>
-      <c r="K93" s="75"/>
-      <c r="L93" s="75"/>
-      <c r="M93" s="75"/>
-      <c r="N93" s="75"/>
-      <c r="O93" s="75"/>
-      <c r="P93" s="75"/>
+      <c r="I93" s="79"/>
+      <c r="J93" s="79"/>
+      <c r="K93" s="79"/>
+      <c r="L93" s="79"/>
+      <c r="M93" s="79"/>
+      <c r="N93" s="79"/>
+      <c r="O93" s="79"/>
+      <c r="P93" s="79"/>
       <c r="Q93" s="20"/>
       <c r="R93" s="20"/>
       <c r="S93" s="51"/>
@@ -4552,24 +4571,24 @@
         <f t="shared" ref="B94:B99" si="7">B84+7</f>
         <v>43781</v>
       </c>
-      <c r="C94" s="80" t="s">
+      <c r="C94" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="80"/>
-      <c r="E94" s="80"/>
-      <c r="F94" s="80"/>
-      <c r="G94" s="80"/>
-      <c r="H94" s="75" t="s">
+      <c r="D94" s="75"/>
+      <c r="E94" s="75"/>
+      <c r="F94" s="75"/>
+      <c r="G94" s="75"/>
+      <c r="H94" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="I94" s="75"/>
-      <c r="J94" s="75"/>
-      <c r="K94" s="75"/>
-      <c r="L94" s="75"/>
-      <c r="M94" s="75"/>
-      <c r="N94" s="75"/>
-      <c r="O94" s="75"/>
-      <c r="P94" s="75"/>
+      <c r="I94" s="79"/>
+      <c r="J94" s="79"/>
+      <c r="K94" s="79"/>
+      <c r="L94" s="79"/>
+      <c r="M94" s="79"/>
+      <c r="N94" s="79"/>
+      <c r="O94" s="79"/>
+      <c r="P94" s="79"/>
       <c r="Q94" s="20"/>
       <c r="R94" s="20"/>
       <c r="S94" s="51"/>
@@ -4616,20 +4635,20 @@
         <f t="shared" si="7"/>
         <v>43783</v>
       </c>
-      <c r="C96" s="80" t="s">
+      <c r="C96" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D96" s="80"/>
-      <c r="E96" s="80"/>
-      <c r="F96" s="80"/>
-      <c r="G96" s="80"/>
-      <c r="H96" s="87" t="s">
+      <c r="D96" s="75"/>
+      <c r="E96" s="75"/>
+      <c r="F96" s="75"/>
+      <c r="G96" s="75"/>
+      <c r="H96" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="I96" s="88"/>
-      <c r="J96" s="88"/>
-      <c r="K96" s="88"/>
-      <c r="L96" s="89"/>
+      <c r="I96" s="72"/>
+      <c r="J96" s="72"/>
+      <c r="K96" s="72"/>
+      <c r="L96" s="73"/>
       <c r="M96" s="20"/>
       <c r="N96" s="20"/>
       <c r="O96" s="20"/>
@@ -4706,24 +4725,24 @@
         <f t="shared" si="7"/>
         <v>43786</v>
       </c>
-      <c r="C99" s="80" t="s">
+      <c r="C99" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="D99" s="80"/>
-      <c r="E99" s="80"/>
-      <c r="F99" s="80"/>
-      <c r="G99" s="80"/>
-      <c r="H99" s="80"/>
-      <c r="I99" s="80"/>
-      <c r="J99" s="80"/>
-      <c r="K99" s="80"/>
-      <c r="L99" s="80"/>
-      <c r="M99" s="80"/>
-      <c r="N99" s="80"/>
-      <c r="O99" s="80"/>
-      <c r="P99" s="80"/>
-      <c r="Q99" s="80"/>
-      <c r="R99" s="80"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="75"/>
+      <c r="F99" s="75"/>
+      <c r="G99" s="75"/>
+      <c r="H99" s="75"/>
+      <c r="I99" s="75"/>
+      <c r="J99" s="75"/>
+      <c r="K99" s="75"/>
+      <c r="L99" s="75"/>
+      <c r="M99" s="75"/>
+      <c r="N99" s="75"/>
+      <c r="O99" s="75"/>
+      <c r="P99" s="75"/>
+      <c r="Q99" s="75"/>
+      <c r="R99" s="75"/>
       <c r="S99" s="51"/>
       <c r="T99" s="51"/>
       <c r="U99" s="54"/>
@@ -4825,24 +4844,24 @@
         <f>B93+7</f>
         <v>43787</v>
       </c>
-      <c r="C103" s="80" t="s">
+      <c r="C103" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="80"/>
-      <c r="E103" s="80"/>
-      <c r="F103" s="80"/>
-      <c r="G103" s="80"/>
-      <c r="H103" s="75" t="s">
+      <c r="D103" s="75"/>
+      <c r="E103" s="75"/>
+      <c r="F103" s="75"/>
+      <c r="G103" s="75"/>
+      <c r="H103" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="I103" s="75"/>
-      <c r="J103" s="75"/>
-      <c r="K103" s="75"/>
-      <c r="L103" s="75"/>
-      <c r="M103" s="75"/>
-      <c r="N103" s="75"/>
-      <c r="O103" s="75"/>
-      <c r="P103" s="75"/>
+      <c r="I103" s="79"/>
+      <c r="J103" s="79"/>
+      <c r="K103" s="79"/>
+      <c r="L103" s="79"/>
+      <c r="M103" s="79"/>
+      <c r="N103" s="79"/>
+      <c r="O103" s="79"/>
+      <c r="P103" s="79"/>
       <c r="Q103" s="20"/>
       <c r="R103" s="20"/>
       <c r="S103" s="51"/>
@@ -4859,24 +4878,24 @@
         <f t="shared" ref="B104:B109" si="8">B94+7</f>
         <v>43788</v>
       </c>
-      <c r="C104" s="80" t="s">
+      <c r="C104" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D104" s="80"/>
-      <c r="E104" s="80"/>
-      <c r="F104" s="80"/>
-      <c r="G104" s="80"/>
-      <c r="H104" s="75" t="s">
+      <c r="D104" s="75"/>
+      <c r="E104" s="75"/>
+      <c r="F104" s="75"/>
+      <c r="G104" s="75"/>
+      <c r="H104" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="I104" s="75"/>
-      <c r="J104" s="75"/>
-      <c r="K104" s="75"/>
-      <c r="L104" s="75"/>
-      <c r="M104" s="75"/>
-      <c r="N104" s="75"/>
-      <c r="O104" s="75"/>
-      <c r="P104" s="75"/>
+      <c r="I104" s="79"/>
+      <c r="J104" s="79"/>
+      <c r="K104" s="79"/>
+      <c r="L104" s="79"/>
+      <c r="M104" s="79"/>
+      <c r="N104" s="79"/>
+      <c r="O104" s="79"/>
+      <c r="P104" s="79"/>
       <c r="Q104" s="20"/>
       <c r="R104" s="20"/>
       <c r="S104" s="51"/>
@@ -4893,19 +4912,19 @@
         <f t="shared" si="8"/>
         <v>43789</v>
       </c>
-      <c r="C105" s="84" t="s">
+      <c r="C105" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="D105" s="85"/>
-      <c r="E105" s="85"/>
-      <c r="F105" s="85"/>
-      <c r="G105" s="85"/>
-      <c r="H105" s="85"/>
-      <c r="I105" s="85"/>
-      <c r="J105" s="85"/>
-      <c r="K105" s="85"/>
-      <c r="L105" s="85"/>
-      <c r="M105" s="86"/>
+      <c r="D105" s="119"/>
+      <c r="E105" s="119"/>
+      <c r="F105" s="119"/>
+      <c r="G105" s="119"/>
+      <c r="H105" s="119"/>
+      <c r="I105" s="119"/>
+      <c r="J105" s="119"/>
+      <c r="K105" s="119"/>
+      <c r="L105" s="119"/>
+      <c r="M105" s="120"/>
       <c r="N105" s="49"/>
       <c r="O105" s="49"/>
       <c r="P105" s="49"/>
@@ -4925,24 +4944,24 @@
         <f t="shared" si="8"/>
         <v>43790</v>
       </c>
-      <c r="C106" s="80" t="s">
+      <c r="C106" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D106" s="80"/>
-      <c r="E106" s="80"/>
-      <c r="F106" s="80"/>
-      <c r="G106" s="80"/>
-      <c r="H106" s="75" t="s">
+      <c r="D106" s="75"/>
+      <c r="E106" s="75"/>
+      <c r="F106" s="75"/>
+      <c r="G106" s="75"/>
+      <c r="H106" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="I106" s="75"/>
-      <c r="J106" s="75"/>
-      <c r="K106" s="75"/>
-      <c r="L106" s="75"/>
-      <c r="M106" s="75"/>
-      <c r="N106" s="75"/>
-      <c r="O106" s="75"/>
-      <c r="P106" s="75"/>
+      <c r="I106" s="79"/>
+      <c r="J106" s="79"/>
+      <c r="K106" s="79"/>
+      <c r="L106" s="79"/>
+      <c r="M106" s="79"/>
+      <c r="N106" s="79"/>
+      <c r="O106" s="79"/>
+      <c r="P106" s="79"/>
       <c r="Q106" s="20"/>
       <c r="R106" s="20"/>
       <c r="S106" s="51"/>
@@ -4959,19 +4978,19 @@
         <f t="shared" si="8"/>
         <v>43791</v>
       </c>
-      <c r="C107" s="121" t="s">
+      <c r="C107" s="126" t="s">
         <v>86</v>
       </c>
-      <c r="D107" s="110"/>
-      <c r="E107" s="110"/>
-      <c r="F107" s="110"/>
-      <c r="G107" s="110"/>
-      <c r="H107" s="110"/>
-      <c r="I107" s="110"/>
-      <c r="J107" s="110"/>
-      <c r="K107" s="110"/>
-      <c r="L107" s="110"/>
-      <c r="M107" s="111"/>
+      <c r="D107" s="100"/>
+      <c r="E107" s="100"/>
+      <c r="F107" s="100"/>
+      <c r="G107" s="100"/>
+      <c r="H107" s="100"/>
+      <c r="I107" s="100"/>
+      <c r="J107" s="100"/>
+      <c r="K107" s="100"/>
+      <c r="L107" s="100"/>
+      <c r="M107" s="101"/>
       <c r="N107" s="20"/>
       <c r="O107" s="20"/>
       <c r="P107" s="20"/>
@@ -5017,24 +5036,24 @@
         <f t="shared" si="8"/>
         <v>43793</v>
       </c>
-      <c r="C109" s="80" t="s">
+      <c r="C109" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="D109" s="80"/>
-      <c r="E109" s="80"/>
-      <c r="F109" s="80"/>
-      <c r="G109" s="80"/>
-      <c r="H109" s="80"/>
-      <c r="I109" s="80"/>
-      <c r="J109" s="80"/>
-      <c r="K109" s="80"/>
-      <c r="L109" s="80"/>
-      <c r="M109" s="80"/>
-      <c r="N109" s="80"/>
-      <c r="O109" s="80"/>
-      <c r="P109" s="80"/>
-      <c r="Q109" s="80"/>
-      <c r="R109" s="80"/>
+      <c r="D109" s="75"/>
+      <c r="E109" s="75"/>
+      <c r="F109" s="75"/>
+      <c r="G109" s="75"/>
+      <c r="H109" s="75"/>
+      <c r="I109" s="75"/>
+      <c r="J109" s="75"/>
+      <c r="K109" s="75"/>
+      <c r="L109" s="75"/>
+      <c r="M109" s="75"/>
+      <c r="N109" s="75"/>
+      <c r="O109" s="75"/>
+      <c r="P109" s="75"/>
+      <c r="Q109" s="75"/>
+      <c r="R109" s="75"/>
       <c r="S109" s="51"/>
       <c r="T109" s="51"/>
       <c r="U109" s="54"/>
@@ -5109,11 +5128,11 @@
         <f>C102+1</f>
         <v>11</v>
       </c>
-      <c r="D112" s="81" t="s">
+      <c r="D112" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="E112" s="81"/>
-      <c r="F112" s="81"/>
+      <c r="E112" s="77"/>
+      <c r="F112" s="77"/>
       <c r="G112" s="15"/>
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
@@ -5138,21 +5157,21 @@
         <f>B103+7</f>
         <v>43794</v>
       </c>
-      <c r="C113" s="80" t="s">
+      <c r="C113" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D113" s="80"/>
-      <c r="E113" s="80"/>
-      <c r="F113" s="80"/>
-      <c r="G113" s="80"/>
-      <c r="H113" s="75" t="s">
+      <c r="D113" s="75"/>
+      <c r="E113" s="75"/>
+      <c r="F113" s="75"/>
+      <c r="G113" s="75"/>
+      <c r="H113" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="I113" s="75"/>
-      <c r="J113" s="75"/>
-      <c r="K113" s="75"/>
-      <c r="L113" s="75"/>
-      <c r="M113" s="75"/>
+      <c r="I113" s="79"/>
+      <c r="J113" s="79"/>
+      <c r="K113" s="79"/>
+      <c r="L113" s="79"/>
+      <c r="M113" s="79"/>
       <c r="N113" s="20"/>
       <c r="O113" s="20"/>
       <c r="P113" s="20"/>
@@ -5172,21 +5191,21 @@
         <f t="shared" ref="B114:B119" si="9">B104+7</f>
         <v>43795</v>
       </c>
-      <c r="C114" s="80" t="s">
+      <c r="C114" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D114" s="80"/>
-      <c r="E114" s="80"/>
-      <c r="F114" s="80"/>
-      <c r="G114" s="80"/>
-      <c r="H114" s="75" t="s">
+      <c r="D114" s="75"/>
+      <c r="E114" s="75"/>
+      <c r="F114" s="75"/>
+      <c r="G114" s="75"/>
+      <c r="H114" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="I114" s="75"/>
-      <c r="J114" s="75"/>
-      <c r="K114" s="75"/>
-      <c r="L114" s="75"/>
-      <c r="M114" s="75"/>
+      <c r="I114" s="79"/>
+      <c r="J114" s="79"/>
+      <c r="K114" s="79"/>
+      <c r="L114" s="79"/>
+      <c r="M114" s="79"/>
       <c r="N114" s="20"/>
       <c r="O114" s="49"/>
       <c r="P114" s="49"/>
@@ -5212,18 +5231,18 @@
       <c r="F115" s="49"/>
       <c r="G115" s="49"/>
       <c r="H115" s="20"/>
-      <c r="I115" s="76" t="s">
+      <c r="I115" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="J115" s="77"/>
-      <c r="K115" s="77"/>
-      <c r="L115" s="77"/>
-      <c r="M115" s="77"/>
-      <c r="N115" s="77"/>
-      <c r="O115" s="77"/>
-      <c r="P115" s="77"/>
-      <c r="Q115" s="77"/>
-      <c r="R115" s="78"/>
+      <c r="J115" s="84"/>
+      <c r="K115" s="84"/>
+      <c r="L115" s="84"/>
+      <c r="M115" s="84"/>
+      <c r="N115" s="84"/>
+      <c r="O115" s="84"/>
+      <c r="P115" s="84"/>
+      <c r="Q115" s="84"/>
+      <c r="R115" s="85"/>
       <c r="S115" s="51"/>
       <c r="T115" s="52" t="s">
         <v>20</v>
@@ -5238,24 +5257,24 @@
         <f t="shared" si="9"/>
         <v>43797</v>
       </c>
-      <c r="C116" s="80" t="s">
+      <c r="C116" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D116" s="80"/>
-      <c r="E116" s="80"/>
-      <c r="F116" s="80"/>
-      <c r="G116" s="80"/>
-      <c r="H116" s="87" t="s">
+      <c r="D116" s="75"/>
+      <c r="E116" s="75"/>
+      <c r="F116" s="75"/>
+      <c r="G116" s="75"/>
+      <c r="H116" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="I116" s="89"/>
-      <c r="J116" s="76" t="s">
+      <c r="I116" s="73"/>
+      <c r="J116" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="K116" s="77"/>
-      <c r="L116" s="77"/>
-      <c r="M116" s="77"/>
-      <c r="N116" s="78"/>
+      <c r="K116" s="84"/>
+      <c r="L116" s="84"/>
+      <c r="M116" s="84"/>
+      <c r="N116" s="85"/>
       <c r="O116" s="20"/>
       <c r="P116" s="20"/>
       <c r="Q116" s="20"/>
@@ -5330,24 +5349,24 @@
         <f t="shared" si="9"/>
         <v>43800</v>
       </c>
-      <c r="C119" s="80" t="s">
+      <c r="C119" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="D119" s="80"/>
-      <c r="E119" s="80"/>
-      <c r="F119" s="80"/>
-      <c r="G119" s="80"/>
-      <c r="H119" s="80"/>
-      <c r="I119" s="80"/>
-      <c r="J119" s="80"/>
-      <c r="K119" s="80"/>
-      <c r="L119" s="80"/>
-      <c r="M119" s="80"/>
-      <c r="N119" s="80"/>
-      <c r="O119" s="80"/>
-      <c r="P119" s="80"/>
-      <c r="Q119" s="80"/>
-      <c r="R119" s="80"/>
+      <c r="D119" s="75"/>
+      <c r="E119" s="75"/>
+      <c r="F119" s="75"/>
+      <c r="G119" s="75"/>
+      <c r="H119" s="75"/>
+      <c r="I119" s="75"/>
+      <c r="J119" s="75"/>
+      <c r="K119" s="75"/>
+      <c r="L119" s="75"/>
+      <c r="M119" s="75"/>
+      <c r="N119" s="75"/>
+      <c r="O119" s="75"/>
+      <c r="P119" s="75"/>
+      <c r="Q119" s="75"/>
+      <c r="R119" s="75"/>
       <c r="S119" s="51"/>
       <c r="T119" s="51"/>
       <c r="U119" s="54"/>
@@ -5422,11 +5441,11 @@
         <f>C112+1</f>
         <v>12</v>
       </c>
-      <c r="D122" s="104" t="s">
+      <c r="D122" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="E122" s="104"/>
-      <c r="F122" s="104"/>
+      <c r="E122" s="76"/>
+      <c r="F122" s="76"/>
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
@@ -5451,24 +5470,24 @@
         <f>B113+7</f>
         <v>43801</v>
       </c>
-      <c r="C123" s="82" t="s">
+      <c r="C123" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="82"/>
-      <c r="E123" s="82"/>
-      <c r="F123" s="82"/>
-      <c r="G123" s="82"/>
-      <c r="H123" s="74" t="s">
+      <c r="D123" s="116"/>
+      <c r="E123" s="116"/>
+      <c r="F123" s="116"/>
+      <c r="G123" s="116"/>
+      <c r="H123" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="I123" s="74"/>
-      <c r="J123" s="74"/>
-      <c r="K123" s="74"/>
-      <c r="L123" s="74"/>
-      <c r="M123" s="74"/>
-      <c r="N123" s="74"/>
-      <c r="O123" s="74"/>
-      <c r="P123" s="74"/>
+      <c r="I123" s="130"/>
+      <c r="J123" s="130"/>
+      <c r="K123" s="130"/>
+      <c r="L123" s="130"/>
+      <c r="M123" s="130"/>
+      <c r="N123" s="130"/>
+      <c r="O123" s="130"/>
+      <c r="P123" s="130"/>
       <c r="Q123" s="20"/>
       <c r="R123" s="20"/>
       <c r="S123" s="51"/>
@@ -5485,24 +5504,24 @@
         <f t="shared" ref="B124:B129" si="10">B114+7</f>
         <v>43802</v>
       </c>
-      <c r="C124" s="82" t="s">
+      <c r="C124" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="D124" s="82"/>
-      <c r="E124" s="82"/>
-      <c r="F124" s="82"/>
-      <c r="G124" s="82"/>
-      <c r="H124" s="74" t="s">
+      <c r="D124" s="116"/>
+      <c r="E124" s="116"/>
+      <c r="F124" s="116"/>
+      <c r="G124" s="116"/>
+      <c r="H124" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="I124" s="74"/>
-      <c r="J124" s="74"/>
-      <c r="K124" s="74"/>
-      <c r="L124" s="74"/>
-      <c r="M124" s="74"/>
-      <c r="N124" s="74"/>
-      <c r="O124" s="74"/>
-      <c r="P124" s="74"/>
+      <c r="I124" s="130"/>
+      <c r="J124" s="130"/>
+      <c r="K124" s="130"/>
+      <c r="L124" s="130"/>
+      <c r="M124" s="130"/>
+      <c r="N124" s="130"/>
+      <c r="O124" s="130"/>
+      <c r="P124" s="130"/>
       <c r="Q124" s="20"/>
       <c r="R124" s="20"/>
       <c r="S124" s="51"/>
@@ -5519,24 +5538,24 @@
         <f t="shared" si="10"/>
         <v>43803</v>
       </c>
-      <c r="C125" s="74" t="s">
+      <c r="C125" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="D125" s="74"/>
-      <c r="E125" s="74"/>
-      <c r="F125" s="74"/>
-      <c r="G125" s="74"/>
-      <c r="H125" s="74"/>
-      <c r="I125" s="74"/>
-      <c r="J125" s="74"/>
-      <c r="K125" s="74"/>
+      <c r="D125" s="130"/>
+      <c r="E125" s="130"/>
+      <c r="F125" s="130"/>
+      <c r="G125" s="130"/>
+      <c r="H125" s="130"/>
+      <c r="I125" s="130"/>
+      <c r="J125" s="130"/>
+      <c r="K125" s="130"/>
       <c r="L125" s="49"/>
-      <c r="M125" s="74" t="s">
+      <c r="M125" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="N125" s="74"/>
-      <c r="O125" s="74"/>
-      <c r="P125" s="74"/>
+      <c r="N125" s="130"/>
+      <c r="O125" s="130"/>
+      <c r="P125" s="130"/>
       <c r="Q125" s="49"/>
       <c r="R125" s="49"/>
       <c r="S125" s="51"/>
@@ -5553,22 +5572,24 @@
         <f t="shared" si="10"/>
         <v>43804</v>
       </c>
-      <c r="C126" s="83" t="s">
+      <c r="C126" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="D126" s="83"/>
-      <c r="E126" s="83"/>
-      <c r="F126" s="83"/>
-      <c r="G126" s="83"/>
-      <c r="H126" s="49"/>
-      <c r="I126" s="49"/>
-      <c r="J126" s="49"/>
-      <c r="K126" s="49"/>
-      <c r="L126" s="49"/>
-      <c r="M126" s="20"/>
-      <c r="N126" s="20"/>
-      <c r="O126" s="20"/>
-      <c r="P126" s="20"/>
+      <c r="D126" s="117"/>
+      <c r="E126" s="117"/>
+      <c r="F126" s="117"/>
+      <c r="G126" s="117"/>
+      <c r="H126" s="130" t="s">
+        <v>87</v>
+      </c>
+      <c r="I126" s="130"/>
+      <c r="J126" s="130"/>
+      <c r="K126" s="130"/>
+      <c r="L126" s="130"/>
+      <c r="M126" s="130"/>
+      <c r="N126" s="130"/>
+      <c r="O126" s="130"/>
+      <c r="P126" s="130"/>
       <c r="Q126" s="20"/>
       <c r="R126" s="20"/>
       <c r="S126" s="51"/>
@@ -5641,24 +5662,24 @@
         <f t="shared" si="10"/>
         <v>43807</v>
       </c>
-      <c r="C129" s="80" t="s">
+      <c r="C129" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="D129" s="80"/>
-      <c r="E129" s="80"/>
-      <c r="F129" s="80"/>
-      <c r="G129" s="80"/>
-      <c r="H129" s="80"/>
-      <c r="I129" s="80"/>
-      <c r="J129" s="80"/>
-      <c r="K129" s="80"/>
-      <c r="L129" s="80"/>
-      <c r="M129" s="80"/>
-      <c r="N129" s="80"/>
-      <c r="O129" s="80"/>
-      <c r="P129" s="80"/>
-      <c r="Q129" s="80"/>
-      <c r="R129" s="80"/>
+      <c r="D129" s="75"/>
+      <c r="E129" s="75"/>
+      <c r="F129" s="75"/>
+      <c r="G129" s="75"/>
+      <c r="H129" s="75"/>
+      <c r="I129" s="75"/>
+      <c r="J129" s="75"/>
+      <c r="K129" s="75"/>
+      <c r="L129" s="75"/>
+      <c r="M129" s="75"/>
+      <c r="N129" s="75"/>
+      <c r="O129" s="75"/>
+      <c r="P129" s="75"/>
+      <c r="Q129" s="75"/>
+      <c r="R129" s="75"/>
       <c r="S129" s="51"/>
       <c r="T129" s="51"/>
       <c r="U129" s="54"/>
@@ -5721,7 +5742,7 @@
       <c r="T131" s="51"/>
       <c r="U131" s="54"/>
     </row>
-    <row r="132" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="57">
         <f>A122+7</f>
         <v>43808</v>
@@ -5752,7 +5773,7 @@
       <c r="T132" s="51"/>
       <c r="U132" s="54"/>
     </row>
-    <row r="133" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" s="27" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>0</v>
       </c>
@@ -5760,13 +5781,13 @@
         <f>B123+7</f>
         <v>43808</v>
       </c>
-      <c r="C133" s="80" t="s">
+      <c r="C133" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D133" s="80"/>
-      <c r="E133" s="80"/>
-      <c r="F133" s="80"/>
-      <c r="G133" s="80"/>
+      <c r="D133" s="75"/>
+      <c r="E133" s="75"/>
+      <c r="F133" s="75"/>
+      <c r="G133" s="75"/>
       <c r="H133" s="74" t="s">
         <v>87</v>
       </c>
@@ -5786,7 +5807,7 @@
       </c>
       <c r="U133" s="54"/>
     </row>
-    <row r="134" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" s="27" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>1</v>
       </c>
@@ -5794,24 +5815,24 @@
         <f t="shared" ref="B134:B139" si="11">B124+7</f>
         <v>43809</v>
       </c>
-      <c r="C134" s="80" t="s">
+      <c r="C134" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D134" s="80"/>
-      <c r="E134" s="80"/>
-      <c r="F134" s="80"/>
-      <c r="G134" s="80"/>
-      <c r="H134" s="74" t="s">
+      <c r="D134" s="75"/>
+      <c r="E134" s="75"/>
+      <c r="F134" s="75"/>
+      <c r="G134" s="75"/>
+      <c r="H134" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="I134" s="74"/>
-      <c r="J134" s="74"/>
-      <c r="K134" s="74"/>
-      <c r="L134" s="74"/>
-      <c r="M134" s="74"/>
-      <c r="N134" s="74"/>
-      <c r="O134" s="74"/>
-      <c r="P134" s="74"/>
+      <c r="I134" s="78"/>
+      <c r="J134" s="78"/>
+      <c r="K134" s="78"/>
+      <c r="L134" s="78"/>
+      <c r="M134" s="78"/>
+      <c r="N134" s="78"/>
+      <c r="O134" s="78"/>
+      <c r="P134" s="78"/>
       <c r="Q134" s="20"/>
       <c r="R134" s="20"/>
       <c r="S134" s="51"/>
@@ -5828,24 +5849,24 @@
         <f t="shared" si="11"/>
         <v>43810</v>
       </c>
-      <c r="C135" s="123" t="s">
+      <c r="C135" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="D135" s="124"/>
-      <c r="E135" s="124"/>
-      <c r="F135" s="124"/>
-      <c r="G135" s="124"/>
-      <c r="H135" s="124"/>
-      <c r="I135" s="124"/>
-      <c r="J135" s="124"/>
-      <c r="K135" s="125"/>
+      <c r="D135" s="81"/>
+      <c r="E135" s="81"/>
+      <c r="F135" s="81"/>
+      <c r="G135" s="81"/>
+      <c r="H135" s="81"/>
+      <c r="I135" s="81"/>
+      <c r="J135" s="81"/>
+      <c r="K135" s="82"/>
       <c r="L135" s="49"/>
-      <c r="M135" s="74" t="s">
+      <c r="M135" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="N135" s="74"/>
-      <c r="O135" s="74"/>
-      <c r="P135" s="74"/>
+      <c r="N135" s="78"/>
+      <c r="O135" s="78"/>
+      <c r="P135" s="78"/>
       <c r="Q135" s="49"/>
       <c r="R135" s="49"/>
       <c r="S135" s="51"/>
@@ -5862,13 +5883,13 @@
         <f t="shared" si="11"/>
         <v>43811</v>
       </c>
-      <c r="C136" s="80" t="s">
+      <c r="C136" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="D136" s="80"/>
-      <c r="E136" s="80"/>
-      <c r="F136" s="80"/>
-      <c r="G136" s="80"/>
+      <c r="D136" s="75"/>
+      <c r="E136" s="75"/>
+      <c r="F136" s="75"/>
+      <c r="G136" s="75"/>
       <c r="H136" s="20"/>
       <c r="I136" s="49"/>
       <c r="J136" s="49"/>
@@ -5950,24 +5971,24 @@
         <f t="shared" si="11"/>
         <v>43814</v>
       </c>
-      <c r="C139" s="80" t="s">
+      <c r="C139" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="D139" s="80"/>
-      <c r="E139" s="80"/>
-      <c r="F139" s="80"/>
-      <c r="G139" s="80"/>
-      <c r="H139" s="80"/>
-      <c r="I139" s="80"/>
-      <c r="J139" s="80"/>
-      <c r="K139" s="80"/>
-      <c r="L139" s="80"/>
-      <c r="M139" s="80"/>
-      <c r="N139" s="80"/>
-      <c r="O139" s="80"/>
-      <c r="P139" s="80"/>
-      <c r="Q139" s="80"/>
-      <c r="R139" s="80"/>
+      <c r="D139" s="75"/>
+      <c r="E139" s="75"/>
+      <c r="F139" s="75"/>
+      <c r="G139" s="75"/>
+      <c r="H139" s="75"/>
+      <c r="I139" s="75"/>
+      <c r="J139" s="75"/>
+      <c r="K139" s="75"/>
+      <c r="L139" s="75"/>
+      <c r="M139" s="75"/>
+      <c r="N139" s="75"/>
+      <c r="O139" s="75"/>
+      <c r="P139" s="75"/>
+      <c r="Q139" s="75"/>
+      <c r="R139" s="75"/>
       <c r="S139" s="51"/>
       <c r="T139" s="51"/>
       <c r="U139" s="54"/>
@@ -6062,19 +6083,19 @@
         <f>C132+1</f>
         <v>14</v>
       </c>
-      <c r="D142" s="81" t="s">
+      <c r="D142" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="E142" s="81"/>
-      <c r="F142" s="81"/>
+      <c r="E142" s="77"/>
+      <c r="F142" s="77"/>
       <c r="G142" s="15"/>
-      <c r="H142" s="81" t="s">
+      <c r="H142" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="I142" s="81"/>
-      <c r="J142" s="81"/>
-      <c r="K142" s="81"/>
-      <c r="L142" s="81"/>
+      <c r="I142" s="77"/>
+      <c r="J142" s="77"/>
+      <c r="K142" s="77"/>
+      <c r="L142" s="77"/>
       <c r="M142" s="19"/>
       <c r="N142" s="19"/>
       <c r="O142" s="19"/>
@@ -6093,22 +6114,24 @@
         <f>B133+7</f>
         <v>43815</v>
       </c>
-      <c r="C143" s="122" t="s">
+      <c r="C143" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="D143" s="122"/>
-      <c r="E143" s="122"/>
-      <c r="F143" s="49"/>
-      <c r="G143" s="49"/>
-      <c r="H143" s="49"/>
-      <c r="I143" s="49"/>
-      <c r="J143" s="49"/>
-      <c r="K143" s="20"/>
-      <c r="L143" s="20"/>
-      <c r="M143" s="20"/>
-      <c r="N143" s="20"/>
-      <c r="O143" s="20"/>
-      <c r="P143" s="20"/>
+      <c r="D143" s="74"/>
+      <c r="E143" s="74"/>
+      <c r="F143" s="131" t="s">
+        <v>87</v>
+      </c>
+      <c r="G143" s="81"/>
+      <c r="H143" s="81"/>
+      <c r="I143" s="81"/>
+      <c r="J143" s="81"/>
+      <c r="K143" s="81"/>
+      <c r="L143" s="81"/>
+      <c r="M143" s="81"/>
+      <c r="N143" s="81"/>
+      <c r="O143" s="81"/>
+      <c r="P143" s="82"/>
       <c r="Q143" s="49"/>
       <c r="R143" s="49"/>
       <c r="S143" s="51"/>
@@ -6125,22 +6148,22 @@
         <f t="shared" ref="B144:B149" si="12">B134+7</f>
         <v>43816</v>
       </c>
-      <c r="C144" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="D144" s="71"/>
-      <c r="E144" s="71"/>
-      <c r="F144" s="71"/>
-      <c r="G144" s="71"/>
-      <c r="H144" s="71"/>
-      <c r="I144" s="71"/>
-      <c r="J144" s="71"/>
-      <c r="K144" s="71"/>
-      <c r="L144" s="71"/>
-      <c r="M144" s="71"/>
-      <c r="N144" s="71"/>
-      <c r="O144" s="71"/>
-      <c r="P144" s="72"/>
+      <c r="C144" s="122" t="s">
+        <v>87</v>
+      </c>
+      <c r="D144" s="123"/>
+      <c r="E144" s="123"/>
+      <c r="F144" s="123"/>
+      <c r="G144" s="123"/>
+      <c r="H144" s="123"/>
+      <c r="I144" s="123"/>
+      <c r="J144" s="123"/>
+      <c r="K144" s="123"/>
+      <c r="L144" s="123"/>
+      <c r="M144" s="123"/>
+      <c r="N144" s="123"/>
+      <c r="O144" s="123"/>
+      <c r="P144" s="124"/>
       <c r="Q144" s="20"/>
       <c r="R144" s="20"/>
       <c r="S144" s="51"/>
@@ -6157,22 +6180,22 @@
         <f t="shared" si="12"/>
         <v>43817</v>
       </c>
-      <c r="C145" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="D145" s="71"/>
-      <c r="E145" s="71"/>
-      <c r="F145" s="71"/>
-      <c r="G145" s="71"/>
-      <c r="H145" s="71"/>
-      <c r="I145" s="71"/>
-      <c r="J145" s="71"/>
-      <c r="K145" s="71"/>
-      <c r="L145" s="71"/>
-      <c r="M145" s="71"/>
-      <c r="N145" s="71"/>
-      <c r="O145" s="71"/>
-      <c r="P145" s="72"/>
+      <c r="C145" s="122" t="s">
+        <v>87</v>
+      </c>
+      <c r="D145" s="123"/>
+      <c r="E145" s="123"/>
+      <c r="F145" s="123"/>
+      <c r="G145" s="123"/>
+      <c r="H145" s="123"/>
+      <c r="I145" s="123"/>
+      <c r="J145" s="123"/>
+      <c r="K145" s="123"/>
+      <c r="L145" s="123"/>
+      <c r="M145" s="123"/>
+      <c r="N145" s="123"/>
+      <c r="O145" s="123"/>
+      <c r="P145" s="124"/>
       <c r="Q145" s="49"/>
       <c r="R145" s="49"/>
       <c r="S145" s="51"/>
@@ -6189,22 +6212,22 @@
         <f t="shared" si="12"/>
         <v>43818</v>
       </c>
-      <c r="C146" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="D146" s="71"/>
-      <c r="E146" s="71"/>
-      <c r="F146" s="71"/>
-      <c r="G146" s="71"/>
-      <c r="H146" s="71"/>
-      <c r="I146" s="71"/>
-      <c r="J146" s="71"/>
-      <c r="K146" s="71"/>
-      <c r="L146" s="71"/>
-      <c r="M146" s="71"/>
-      <c r="N146" s="71"/>
-      <c r="O146" s="71"/>
-      <c r="P146" s="72"/>
+      <c r="C146" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D146" s="81"/>
+      <c r="E146" s="81"/>
+      <c r="F146" s="81"/>
+      <c r="G146" s="81"/>
+      <c r="H146" s="81"/>
+      <c r="I146" s="81"/>
+      <c r="J146" s="81"/>
+      <c r="K146" s="81"/>
+      <c r="L146" s="81"/>
+      <c r="M146" s="20"/>
+      <c r="N146" s="20"/>
+      <c r="O146" s="20"/>
+      <c r="P146" s="20"/>
       <c r="Q146" s="20"/>
       <c r="R146" s="20"/>
       <c r="S146" s="51"/>
@@ -6221,22 +6244,20 @@
         <f t="shared" si="12"/>
         <v>43819</v>
       </c>
-      <c r="C147" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="D147" s="71"/>
-      <c r="E147" s="71"/>
-      <c r="F147" s="71"/>
-      <c r="G147" s="71"/>
-      <c r="H147" s="71"/>
-      <c r="I147" s="71"/>
-      <c r="J147" s="71"/>
-      <c r="K147" s="71"/>
-      <c r="L147" s="71"/>
-      <c r="M147" s="71"/>
-      <c r="N147" s="71"/>
-      <c r="O147" s="71"/>
-      <c r="P147" s="72"/>
+      <c r="C147" s="50"/>
+      <c r="D147" s="49"/>
+      <c r="E147" s="49"/>
+      <c r="F147" s="49"/>
+      <c r="G147" s="49"/>
+      <c r="H147" s="49"/>
+      <c r="I147" s="49"/>
+      <c r="J147" s="49"/>
+      <c r="K147" s="20"/>
+      <c r="L147" s="20"/>
+      <c r="M147" s="20"/>
+      <c r="N147" s="20"/>
+      <c r="O147" s="20"/>
+      <c r="P147" s="20"/>
       <c r="Q147" s="20"/>
       <c r="R147" s="20"/>
       <c r="S147" s="51"/>
@@ -6251,22 +6272,20 @@
         <f t="shared" si="12"/>
         <v>43820</v>
       </c>
-      <c r="C148" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="D148" s="71"/>
-      <c r="E148" s="71"/>
-      <c r="F148" s="71"/>
-      <c r="G148" s="71"/>
-      <c r="H148" s="71"/>
-      <c r="I148" s="71"/>
-      <c r="J148" s="71"/>
-      <c r="K148" s="71"/>
-      <c r="L148" s="71"/>
-      <c r="M148" s="71"/>
-      <c r="N148" s="71"/>
-      <c r="O148" s="71"/>
-      <c r="P148" s="72"/>
+      <c r="C148" s="50"/>
+      <c r="D148" s="49"/>
+      <c r="E148" s="49"/>
+      <c r="F148" s="49"/>
+      <c r="G148" s="49"/>
+      <c r="H148" s="49"/>
+      <c r="I148" s="49"/>
+      <c r="J148" s="49"/>
+      <c r="K148" s="20"/>
+      <c r="L148" s="20"/>
+      <c r="M148" s="20"/>
+      <c r="N148" s="20"/>
+      <c r="O148" s="20"/>
+      <c r="P148" s="20"/>
       <c r="Q148" s="49"/>
       <c r="R148" s="49"/>
       <c r="S148" s="51"/>
@@ -6418,22 +6437,22 @@
         <f>B143+7</f>
         <v>43822</v>
       </c>
-      <c r="C153" s="70" t="s">
+      <c r="C153" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D153" s="71"/>
-      <c r="E153" s="71"/>
-      <c r="F153" s="71"/>
-      <c r="G153" s="71"/>
-      <c r="H153" s="71"/>
-      <c r="I153" s="71"/>
-      <c r="J153" s="71"/>
-      <c r="K153" s="71"/>
-      <c r="L153" s="71"/>
-      <c r="M153" s="71"/>
-      <c r="N153" s="71"/>
-      <c r="O153" s="71"/>
-      <c r="P153" s="72"/>
+      <c r="D153" s="123"/>
+      <c r="E153" s="123"/>
+      <c r="F153" s="123"/>
+      <c r="G153" s="123"/>
+      <c r="H153" s="123"/>
+      <c r="I153" s="123"/>
+      <c r="J153" s="123"/>
+      <c r="K153" s="123"/>
+      <c r="L153" s="123"/>
+      <c r="M153" s="123"/>
+      <c r="N153" s="123"/>
+      <c r="O153" s="123"/>
+      <c r="P153" s="124"/>
       <c r="Q153" s="49"/>
       <c r="R153" s="49"/>
       <c r="S153" s="51"/>
@@ -6450,22 +6469,22 @@
         <f t="shared" ref="B154:B159" si="13">B144+7</f>
         <v>43823</v>
       </c>
-      <c r="C154" s="70" t="s">
+      <c r="C154" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D154" s="71"/>
-      <c r="E154" s="71"/>
-      <c r="F154" s="71"/>
-      <c r="G154" s="71"/>
-      <c r="H154" s="71"/>
-      <c r="I154" s="71"/>
-      <c r="J154" s="71"/>
-      <c r="K154" s="71"/>
-      <c r="L154" s="71"/>
-      <c r="M154" s="71"/>
-      <c r="N154" s="71"/>
-      <c r="O154" s="71"/>
-      <c r="P154" s="72"/>
+      <c r="D154" s="123"/>
+      <c r="E154" s="123"/>
+      <c r="F154" s="123"/>
+      <c r="G154" s="123"/>
+      <c r="H154" s="123"/>
+      <c r="I154" s="123"/>
+      <c r="J154" s="123"/>
+      <c r="K154" s="123"/>
+      <c r="L154" s="123"/>
+      <c r="M154" s="123"/>
+      <c r="N154" s="123"/>
+      <c r="O154" s="123"/>
+      <c r="P154" s="124"/>
       <c r="Q154" s="20"/>
       <c r="R154" s="20"/>
       <c r="S154" s="51"/>
@@ -6482,24 +6501,24 @@
         <f t="shared" si="13"/>
         <v>43824</v>
       </c>
-      <c r="C155" s="79" t="s">
+      <c r="C155" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="D155" s="79"/>
-      <c r="E155" s="79"/>
-      <c r="F155" s="79"/>
-      <c r="G155" s="79"/>
-      <c r="H155" s="79"/>
-      <c r="I155" s="79"/>
-      <c r="J155" s="79"/>
-      <c r="K155" s="79"/>
-      <c r="L155" s="79"/>
-      <c r="M155" s="79"/>
-      <c r="N155" s="79"/>
-      <c r="O155" s="79"/>
-      <c r="P155" s="79"/>
-      <c r="Q155" s="79"/>
-      <c r="R155" s="79"/>
+      <c r="D155" s="115"/>
+      <c r="E155" s="115"/>
+      <c r="F155" s="115"/>
+      <c r="G155" s="115"/>
+      <c r="H155" s="115"/>
+      <c r="I155" s="115"/>
+      <c r="J155" s="115"/>
+      <c r="K155" s="115"/>
+      <c r="L155" s="115"/>
+      <c r="M155" s="115"/>
+      <c r="N155" s="115"/>
+      <c r="O155" s="115"/>
+      <c r="P155" s="115"/>
+      <c r="Q155" s="115"/>
+      <c r="R155" s="115"/>
       <c r="S155" s="51"/>
       <c r="T155" s="52" t="s">
         <v>20</v>
@@ -6514,22 +6533,22 @@
         <f t="shared" si="13"/>
         <v>43825</v>
       </c>
-      <c r="C156" s="79"/>
-      <c r="D156" s="79"/>
-      <c r="E156" s="79"/>
-      <c r="F156" s="79"/>
-      <c r="G156" s="79"/>
-      <c r="H156" s="79"/>
-      <c r="I156" s="79"/>
-      <c r="J156" s="79"/>
-      <c r="K156" s="79"/>
-      <c r="L156" s="79"/>
-      <c r="M156" s="79"/>
-      <c r="N156" s="79"/>
-      <c r="O156" s="79"/>
-      <c r="P156" s="79"/>
-      <c r="Q156" s="79"/>
-      <c r="R156" s="79"/>
+      <c r="C156" s="115"/>
+      <c r="D156" s="115"/>
+      <c r="E156" s="115"/>
+      <c r="F156" s="115"/>
+      <c r="G156" s="115"/>
+      <c r="H156" s="115"/>
+      <c r="I156" s="115"/>
+      <c r="J156" s="115"/>
+      <c r="K156" s="115"/>
+      <c r="L156" s="115"/>
+      <c r="M156" s="115"/>
+      <c r="N156" s="115"/>
+      <c r="O156" s="115"/>
+      <c r="P156" s="115"/>
+      <c r="Q156" s="115"/>
+      <c r="R156" s="115"/>
       <c r="S156" s="51"/>
       <c r="T156" s="18" t="s">
         <v>21</v>
@@ -6544,22 +6563,22 @@
         <f t="shared" si="13"/>
         <v>43826</v>
       </c>
-      <c r="C157" s="79"/>
-      <c r="D157" s="79"/>
-      <c r="E157" s="79"/>
-      <c r="F157" s="79"/>
-      <c r="G157" s="79"/>
-      <c r="H157" s="79"/>
-      <c r="I157" s="79"/>
-      <c r="J157" s="79"/>
-      <c r="K157" s="79"/>
-      <c r="L157" s="79"/>
-      <c r="M157" s="79"/>
-      <c r="N157" s="79"/>
-      <c r="O157" s="79"/>
-      <c r="P157" s="79"/>
-      <c r="Q157" s="79"/>
-      <c r="R157" s="79"/>
+      <c r="C157" s="115"/>
+      <c r="D157" s="115"/>
+      <c r="E157" s="115"/>
+      <c r="F157" s="115"/>
+      <c r="G157" s="115"/>
+      <c r="H157" s="115"/>
+      <c r="I157" s="115"/>
+      <c r="J157" s="115"/>
+      <c r="K157" s="115"/>
+      <c r="L157" s="115"/>
+      <c r="M157" s="115"/>
+      <c r="N157" s="115"/>
+      <c r="O157" s="115"/>
+      <c r="P157" s="115"/>
+      <c r="Q157" s="115"/>
+      <c r="R157" s="115"/>
       <c r="S157" s="51"/>
       <c r="T157" s="51"/>
       <c r="U157" s="54"/>
@@ -6572,22 +6591,22 @@
         <f t="shared" si="13"/>
         <v>43827</v>
       </c>
-      <c r="C158" s="79"/>
-      <c r="D158" s="79"/>
-      <c r="E158" s="79"/>
-      <c r="F158" s="79"/>
-      <c r="G158" s="79"/>
-      <c r="H158" s="79"/>
-      <c r="I158" s="79"/>
-      <c r="J158" s="79"/>
-      <c r="K158" s="79"/>
-      <c r="L158" s="79"/>
-      <c r="M158" s="79"/>
-      <c r="N158" s="79"/>
-      <c r="O158" s="79"/>
-      <c r="P158" s="79"/>
-      <c r="Q158" s="79"/>
-      <c r="R158" s="79"/>
+      <c r="C158" s="115"/>
+      <c r="D158" s="115"/>
+      <c r="E158" s="115"/>
+      <c r="F158" s="115"/>
+      <c r="G158" s="115"/>
+      <c r="H158" s="115"/>
+      <c r="I158" s="115"/>
+      <c r="J158" s="115"/>
+      <c r="K158" s="115"/>
+      <c r="L158" s="115"/>
+      <c r="M158" s="115"/>
+      <c r="N158" s="115"/>
+      <c r="O158" s="115"/>
+      <c r="P158" s="115"/>
+      <c r="Q158" s="115"/>
+      <c r="R158" s="115"/>
       <c r="S158" s="51"/>
       <c r="T158" s="51"/>
       <c r="U158" s="54"/>
@@ -6600,22 +6619,22 @@
         <f t="shared" si="13"/>
         <v>43828</v>
       </c>
-      <c r="C159" s="79"/>
-      <c r="D159" s="79"/>
-      <c r="E159" s="79"/>
-      <c r="F159" s="79"/>
-      <c r="G159" s="79"/>
-      <c r="H159" s="79"/>
-      <c r="I159" s="79"/>
-      <c r="J159" s="79"/>
-      <c r="K159" s="79"/>
-      <c r="L159" s="79"/>
-      <c r="M159" s="79"/>
-      <c r="N159" s="79"/>
-      <c r="O159" s="79"/>
-      <c r="P159" s="79"/>
-      <c r="Q159" s="79"/>
-      <c r="R159" s="79"/>
+      <c r="C159" s="115"/>
+      <c r="D159" s="115"/>
+      <c r="E159" s="115"/>
+      <c r="F159" s="115"/>
+      <c r="G159" s="115"/>
+      <c r="H159" s="115"/>
+      <c r="I159" s="115"/>
+      <c r="J159" s="115"/>
+      <c r="K159" s="115"/>
+      <c r="L159" s="115"/>
+      <c r="M159" s="115"/>
+      <c r="N159" s="115"/>
+      <c r="O159" s="115"/>
+      <c r="P159" s="115"/>
+      <c r="Q159" s="115"/>
+      <c r="R159" s="115"/>
       <c r="S159" s="51"/>
       <c r="T159" s="51"/>
       <c r="U159" s="54"/>
@@ -6737,24 +6756,24 @@
         <f>B153+7</f>
         <v>43829</v>
       </c>
-      <c r="C163" s="79" t="s">
+      <c r="C163" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="D163" s="79"/>
-      <c r="E163" s="79"/>
-      <c r="F163" s="79"/>
-      <c r="G163" s="79"/>
-      <c r="H163" s="79"/>
-      <c r="I163" s="79"/>
-      <c r="J163" s="79"/>
-      <c r="K163" s="79"/>
-      <c r="L163" s="79"/>
-      <c r="M163" s="79"/>
-      <c r="N163" s="79"/>
-      <c r="O163" s="79"/>
-      <c r="P163" s="79"/>
-      <c r="Q163" s="79"/>
-      <c r="R163" s="79"/>
+      <c r="D163" s="115"/>
+      <c r="E163" s="115"/>
+      <c r="F163" s="115"/>
+      <c r="G163" s="115"/>
+      <c r="H163" s="115"/>
+      <c r="I163" s="115"/>
+      <c r="J163" s="115"/>
+      <c r="K163" s="115"/>
+      <c r="L163" s="115"/>
+      <c r="M163" s="115"/>
+      <c r="N163" s="115"/>
+      <c r="O163" s="115"/>
+      <c r="P163" s="115"/>
+      <c r="Q163" s="115"/>
+      <c r="R163" s="115"/>
       <c r="S163" s="51"/>
       <c r="T163" s="30" t="s">
         <v>22</v>
@@ -6769,22 +6788,22 @@
         <f t="shared" ref="B164:B169" si="14">B154+7</f>
         <v>43830</v>
       </c>
-      <c r="C164" s="79"/>
-      <c r="D164" s="79"/>
-      <c r="E164" s="79"/>
-      <c r="F164" s="79"/>
-      <c r="G164" s="79"/>
-      <c r="H164" s="79"/>
-      <c r="I164" s="79"/>
-      <c r="J164" s="79"/>
-      <c r="K164" s="79"/>
-      <c r="L164" s="79"/>
-      <c r="M164" s="79"/>
-      <c r="N164" s="79"/>
-      <c r="O164" s="79"/>
-      <c r="P164" s="79"/>
-      <c r="Q164" s="79"/>
-      <c r="R164" s="79"/>
+      <c r="C164" s="115"/>
+      <c r="D164" s="115"/>
+      <c r="E164" s="115"/>
+      <c r="F164" s="115"/>
+      <c r="G164" s="115"/>
+      <c r="H164" s="115"/>
+      <c r="I164" s="115"/>
+      <c r="J164" s="115"/>
+      <c r="K164" s="115"/>
+      <c r="L164" s="115"/>
+      <c r="M164" s="115"/>
+      <c r="N164" s="115"/>
+      <c r="O164" s="115"/>
+      <c r="P164" s="115"/>
+      <c r="Q164" s="115"/>
+      <c r="R164" s="115"/>
       <c r="S164" s="51"/>
       <c r="T164" s="53" t="s">
         <v>19</v>
@@ -6799,22 +6818,22 @@
         <f t="shared" si="14"/>
         <v>43831</v>
       </c>
-      <c r="C165" s="79"/>
-      <c r="D165" s="79"/>
-      <c r="E165" s="79"/>
-      <c r="F165" s="79"/>
-      <c r="G165" s="79"/>
-      <c r="H165" s="79"/>
-      <c r="I165" s="79"/>
-      <c r="J165" s="79"/>
-      <c r="K165" s="79"/>
-      <c r="L165" s="79"/>
-      <c r="M165" s="79"/>
-      <c r="N165" s="79"/>
-      <c r="O165" s="79"/>
-      <c r="P165" s="79"/>
-      <c r="Q165" s="79"/>
-      <c r="R165" s="79"/>
+      <c r="C165" s="115"/>
+      <c r="D165" s="115"/>
+      <c r="E165" s="115"/>
+      <c r="F165" s="115"/>
+      <c r="G165" s="115"/>
+      <c r="H165" s="115"/>
+      <c r="I165" s="115"/>
+      <c r="J165" s="115"/>
+      <c r="K165" s="115"/>
+      <c r="L165" s="115"/>
+      <c r="M165" s="115"/>
+      <c r="N165" s="115"/>
+      <c r="O165" s="115"/>
+      <c r="P165" s="115"/>
+      <c r="Q165" s="115"/>
+      <c r="R165" s="115"/>
       <c r="S165" s="51"/>
       <c r="T165" s="52" t="s">
         <v>20</v>
@@ -6829,22 +6848,22 @@
         <f t="shared" si="14"/>
         <v>43832</v>
       </c>
-      <c r="C166" s="70" t="s">
+      <c r="C166" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D166" s="71"/>
-      <c r="E166" s="71"/>
-      <c r="F166" s="71"/>
-      <c r="G166" s="71"/>
-      <c r="H166" s="71"/>
-      <c r="I166" s="71"/>
-      <c r="J166" s="71"/>
-      <c r="K166" s="71"/>
-      <c r="L166" s="71"/>
-      <c r="M166" s="71"/>
-      <c r="N166" s="71"/>
-      <c r="O166" s="71"/>
-      <c r="P166" s="72"/>
+      <c r="D166" s="123"/>
+      <c r="E166" s="123"/>
+      <c r="F166" s="123"/>
+      <c r="G166" s="123"/>
+      <c r="H166" s="123"/>
+      <c r="I166" s="123"/>
+      <c r="J166" s="123"/>
+      <c r="K166" s="123"/>
+      <c r="L166" s="123"/>
+      <c r="M166" s="123"/>
+      <c r="N166" s="123"/>
+      <c r="O166" s="123"/>
+      <c r="P166" s="124"/>
       <c r="Q166" s="49"/>
       <c r="R166" s="20"/>
       <c r="S166" s="51"/>
@@ -6861,22 +6880,22 @@
         <f t="shared" si="14"/>
         <v>43833</v>
       </c>
-      <c r="C167" s="70" t="s">
+      <c r="C167" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D167" s="71"/>
-      <c r="E167" s="71"/>
-      <c r="F167" s="71"/>
-      <c r="G167" s="71"/>
-      <c r="H167" s="71"/>
-      <c r="I167" s="71"/>
-      <c r="J167" s="71"/>
-      <c r="K167" s="71"/>
-      <c r="L167" s="71"/>
-      <c r="M167" s="71"/>
-      <c r="N167" s="71"/>
-      <c r="O167" s="71"/>
-      <c r="P167" s="72"/>
+      <c r="D167" s="123"/>
+      <c r="E167" s="123"/>
+      <c r="F167" s="123"/>
+      <c r="G167" s="123"/>
+      <c r="H167" s="123"/>
+      <c r="I167" s="123"/>
+      <c r="J167" s="123"/>
+      <c r="K167" s="123"/>
+      <c r="L167" s="123"/>
+      <c r="M167" s="123"/>
+      <c r="N167" s="123"/>
+      <c r="O167" s="123"/>
+      <c r="P167" s="124"/>
       <c r="Q167" s="49"/>
       <c r="R167" s="49"/>
       <c r="S167" s="51"/>
@@ -6891,22 +6910,22 @@
         <f t="shared" si="14"/>
         <v>43834</v>
       </c>
-      <c r="C168" s="70" t="s">
+      <c r="C168" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D168" s="71"/>
-      <c r="E168" s="71"/>
-      <c r="F168" s="71"/>
-      <c r="G168" s="71"/>
-      <c r="H168" s="71"/>
-      <c r="I168" s="71"/>
-      <c r="J168" s="71"/>
-      <c r="K168" s="71"/>
-      <c r="L168" s="71"/>
-      <c r="M168" s="71"/>
-      <c r="N168" s="71"/>
-      <c r="O168" s="71"/>
-      <c r="P168" s="72"/>
+      <c r="D168" s="123"/>
+      <c r="E168" s="123"/>
+      <c r="F168" s="123"/>
+      <c r="G168" s="123"/>
+      <c r="H168" s="123"/>
+      <c r="I168" s="123"/>
+      <c r="J168" s="123"/>
+      <c r="K168" s="123"/>
+      <c r="L168" s="123"/>
+      <c r="M168" s="123"/>
+      <c r="N168" s="123"/>
+      <c r="O168" s="123"/>
+      <c r="P168" s="124"/>
       <c r="Q168" s="49"/>
       <c r="R168" s="49"/>
       <c r="S168" s="51"/>
@@ -7038,22 +7057,22 @@
         <f>B163+7</f>
         <v>43836</v>
       </c>
-      <c r="C173" s="70" t="s">
+      <c r="C173" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D173" s="71"/>
-      <c r="E173" s="71"/>
-      <c r="F173" s="71"/>
-      <c r="G173" s="71"/>
-      <c r="H173" s="71"/>
-      <c r="I173" s="71"/>
-      <c r="J173" s="71"/>
-      <c r="K173" s="71"/>
-      <c r="L173" s="71"/>
-      <c r="M173" s="71"/>
-      <c r="N173" s="71"/>
-      <c r="O173" s="71"/>
-      <c r="P173" s="72"/>
+      <c r="D173" s="123"/>
+      <c r="E173" s="123"/>
+      <c r="F173" s="123"/>
+      <c r="G173" s="123"/>
+      <c r="H173" s="123"/>
+      <c r="I173" s="123"/>
+      <c r="J173" s="123"/>
+      <c r="K173" s="123"/>
+      <c r="L173" s="123"/>
+      <c r="M173" s="123"/>
+      <c r="N173" s="123"/>
+      <c r="O173" s="123"/>
+      <c r="P173" s="124"/>
       <c r="Q173" s="49"/>
       <c r="R173" s="49"/>
       <c r="S173" s="51"/>
@@ -7070,22 +7089,22 @@
         <f t="shared" ref="B174:B179" si="15">B164+7</f>
         <v>43837</v>
       </c>
-      <c r="C174" s="70" t="s">
+      <c r="C174" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D174" s="71"/>
-      <c r="E174" s="71"/>
-      <c r="F174" s="71"/>
-      <c r="G174" s="71"/>
-      <c r="H174" s="71"/>
-      <c r="I174" s="71"/>
-      <c r="J174" s="71"/>
-      <c r="K174" s="71"/>
-      <c r="L174" s="71"/>
-      <c r="M174" s="71"/>
-      <c r="N174" s="71"/>
-      <c r="O174" s="71"/>
-      <c r="P174" s="72"/>
+      <c r="D174" s="123"/>
+      <c r="E174" s="123"/>
+      <c r="F174" s="123"/>
+      <c r="G174" s="123"/>
+      <c r="H174" s="123"/>
+      <c r="I174" s="123"/>
+      <c r="J174" s="123"/>
+      <c r="K174" s="123"/>
+      <c r="L174" s="123"/>
+      <c r="M174" s="123"/>
+      <c r="N174" s="123"/>
+      <c r="O174" s="123"/>
+      <c r="P174" s="124"/>
       <c r="Q174" s="49"/>
       <c r="R174" s="49"/>
       <c r="S174" s="51"/>
@@ -7102,22 +7121,22 @@
         <f t="shared" si="15"/>
         <v>43838</v>
       </c>
-      <c r="C175" s="70" t="s">
+      <c r="C175" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D175" s="71"/>
-      <c r="E175" s="71"/>
-      <c r="F175" s="71"/>
-      <c r="G175" s="71"/>
-      <c r="H175" s="71"/>
-      <c r="I175" s="71"/>
-      <c r="J175" s="71"/>
-      <c r="K175" s="71"/>
-      <c r="L175" s="71"/>
-      <c r="M175" s="71"/>
-      <c r="N175" s="71"/>
-      <c r="O175" s="71"/>
-      <c r="P175" s="72"/>
+      <c r="D175" s="123"/>
+      <c r="E175" s="123"/>
+      <c r="F175" s="123"/>
+      <c r="G175" s="123"/>
+      <c r="H175" s="123"/>
+      <c r="I175" s="123"/>
+      <c r="J175" s="123"/>
+      <c r="K175" s="123"/>
+      <c r="L175" s="123"/>
+      <c r="M175" s="123"/>
+      <c r="N175" s="123"/>
+      <c r="O175" s="123"/>
+      <c r="P175" s="124"/>
       <c r="Q175" s="49"/>
       <c r="R175" s="49"/>
       <c r="S175" s="51"/>
@@ -7134,22 +7153,22 @@
         <f t="shared" si="15"/>
         <v>43839</v>
       </c>
-      <c r="C176" s="70" t="s">
+      <c r="C176" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D176" s="71"/>
-      <c r="E176" s="71"/>
-      <c r="F176" s="71"/>
-      <c r="G176" s="71"/>
-      <c r="H176" s="71"/>
-      <c r="I176" s="71"/>
-      <c r="J176" s="71"/>
-      <c r="K176" s="71"/>
-      <c r="L176" s="71"/>
-      <c r="M176" s="71"/>
-      <c r="N176" s="71"/>
-      <c r="O176" s="71"/>
-      <c r="P176" s="72"/>
+      <c r="D176" s="123"/>
+      <c r="E176" s="123"/>
+      <c r="F176" s="123"/>
+      <c r="G176" s="123"/>
+      <c r="H176" s="123"/>
+      <c r="I176" s="123"/>
+      <c r="J176" s="123"/>
+      <c r="K176" s="123"/>
+      <c r="L176" s="123"/>
+      <c r="M176" s="123"/>
+      <c r="N176" s="123"/>
+      <c r="O176" s="123"/>
+      <c r="P176" s="124"/>
       <c r="Q176" s="49"/>
       <c r="R176" s="49"/>
       <c r="S176" s="51"/>
@@ -7166,22 +7185,22 @@
         <f t="shared" si="15"/>
         <v>43840</v>
       </c>
-      <c r="C177" s="70" t="s">
+      <c r="C177" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D177" s="71"/>
-      <c r="E177" s="71"/>
-      <c r="F177" s="71"/>
-      <c r="G177" s="71"/>
-      <c r="H177" s="71"/>
-      <c r="I177" s="71"/>
-      <c r="J177" s="71"/>
-      <c r="K177" s="71"/>
-      <c r="L177" s="71"/>
-      <c r="M177" s="71"/>
-      <c r="N177" s="71"/>
-      <c r="O177" s="71"/>
-      <c r="P177" s="72"/>
+      <c r="D177" s="123"/>
+      <c r="E177" s="123"/>
+      <c r="F177" s="123"/>
+      <c r="G177" s="123"/>
+      <c r="H177" s="123"/>
+      <c r="I177" s="123"/>
+      <c r="J177" s="123"/>
+      <c r="K177" s="123"/>
+      <c r="L177" s="123"/>
+      <c r="M177" s="123"/>
+      <c r="N177" s="123"/>
+      <c r="O177" s="123"/>
+      <c r="P177" s="124"/>
       <c r="Q177" s="49"/>
       <c r="R177" s="49"/>
       <c r="S177" s="51"/>
@@ -7196,22 +7215,22 @@
         <f t="shared" si="15"/>
         <v>43841</v>
       </c>
-      <c r="C178" s="70" t="s">
+      <c r="C178" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D178" s="71"/>
-      <c r="E178" s="71"/>
-      <c r="F178" s="71"/>
-      <c r="G178" s="71"/>
-      <c r="H178" s="71"/>
-      <c r="I178" s="71"/>
-      <c r="J178" s="71"/>
-      <c r="K178" s="71"/>
-      <c r="L178" s="71"/>
-      <c r="M178" s="71"/>
-      <c r="N178" s="71"/>
-      <c r="O178" s="71"/>
-      <c r="P178" s="72"/>
+      <c r="D178" s="123"/>
+      <c r="E178" s="123"/>
+      <c r="F178" s="123"/>
+      <c r="G178" s="123"/>
+      <c r="H178" s="123"/>
+      <c r="I178" s="123"/>
+      <c r="J178" s="123"/>
+      <c r="K178" s="123"/>
+      <c r="L178" s="123"/>
+      <c r="M178" s="123"/>
+      <c r="N178" s="123"/>
+      <c r="O178" s="123"/>
+      <c r="P178" s="124"/>
       <c r="Q178" s="49"/>
       <c r="R178" s="49"/>
       <c r="S178" s="51"/>
@@ -7341,22 +7360,22 @@
         <f>B173+7</f>
         <v>43843</v>
       </c>
-      <c r="C183" s="70" t="s">
+      <c r="C183" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D183" s="71"/>
-      <c r="E183" s="71"/>
-      <c r="F183" s="71"/>
-      <c r="G183" s="71"/>
-      <c r="H183" s="71"/>
-      <c r="I183" s="71"/>
-      <c r="J183" s="71"/>
-      <c r="K183" s="71"/>
-      <c r="L183" s="71"/>
-      <c r="M183" s="71"/>
-      <c r="N183" s="71"/>
-      <c r="O183" s="71"/>
-      <c r="P183" s="72"/>
+      <c r="D183" s="123"/>
+      <c r="E183" s="123"/>
+      <c r="F183" s="123"/>
+      <c r="G183" s="123"/>
+      <c r="H183" s="123"/>
+      <c r="I183" s="123"/>
+      <c r="J183" s="123"/>
+      <c r="K183" s="123"/>
+      <c r="L183" s="123"/>
+      <c r="M183" s="123"/>
+      <c r="N183" s="123"/>
+      <c r="O183" s="123"/>
+      <c r="P183" s="124"/>
       <c r="Q183" s="49"/>
       <c r="R183" s="49"/>
       <c r="S183" s="51"/>
@@ -7372,22 +7391,22 @@
         <f t="shared" ref="B184:B189" si="16">B174+7</f>
         <v>43844</v>
       </c>
-      <c r="C184" s="70" t="s">
+      <c r="C184" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D184" s="71"/>
-      <c r="E184" s="71"/>
-      <c r="F184" s="71"/>
-      <c r="G184" s="71"/>
-      <c r="H184" s="71"/>
-      <c r="I184" s="71"/>
-      <c r="J184" s="71"/>
-      <c r="K184" s="71"/>
-      <c r="L184" s="71"/>
-      <c r="M184" s="71"/>
-      <c r="N184" s="71"/>
-      <c r="O184" s="71"/>
-      <c r="P184" s="72"/>
+      <c r="D184" s="123"/>
+      <c r="E184" s="123"/>
+      <c r="F184" s="123"/>
+      <c r="G184" s="123"/>
+      <c r="H184" s="123"/>
+      <c r="I184" s="123"/>
+      <c r="J184" s="123"/>
+      <c r="K184" s="123"/>
+      <c r="L184" s="123"/>
+      <c r="M184" s="123"/>
+      <c r="N184" s="123"/>
+      <c r="O184" s="123"/>
+      <c r="P184" s="124"/>
       <c r="Q184" s="49"/>
       <c r="R184" s="49"/>
       <c r="S184" s="51"/>
@@ -7403,22 +7422,22 @@
         <f t="shared" si="16"/>
         <v>43845</v>
       </c>
-      <c r="C185" s="70" t="s">
+      <c r="C185" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D185" s="71"/>
-      <c r="E185" s="71"/>
-      <c r="F185" s="71"/>
-      <c r="G185" s="71"/>
-      <c r="H185" s="71"/>
-      <c r="I185" s="71"/>
-      <c r="J185" s="71"/>
-      <c r="K185" s="71"/>
-      <c r="L185" s="71"/>
-      <c r="M185" s="71"/>
-      <c r="N185" s="71"/>
-      <c r="O185" s="71"/>
-      <c r="P185" s="72"/>
+      <c r="D185" s="123"/>
+      <c r="E185" s="123"/>
+      <c r="F185" s="123"/>
+      <c r="G185" s="123"/>
+      <c r="H185" s="123"/>
+      <c r="I185" s="123"/>
+      <c r="J185" s="123"/>
+      <c r="K185" s="123"/>
+      <c r="L185" s="123"/>
+      <c r="M185" s="123"/>
+      <c r="N185" s="123"/>
+      <c r="O185" s="123"/>
+      <c r="P185" s="124"/>
       <c r="Q185" s="49"/>
       <c r="R185" s="49"/>
       <c r="S185" s="51"/>
@@ -15908,24 +15927,109 @@
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="H96:L96"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="C134:G134"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C133:G133"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="H124:P124"/>
-    <mergeCell ref="C125:K125"/>
-    <mergeCell ref="H113:M113"/>
-    <mergeCell ref="H114:M114"/>
+    <mergeCell ref="C144:P144"/>
+    <mergeCell ref="C146:L146"/>
     <mergeCell ref="H133:P133"/>
-    <mergeCell ref="C135:K135"/>
-    <mergeCell ref="M135:P135"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="J116:N116"/>
-    <mergeCell ref="H134:P134"/>
+    <mergeCell ref="C183:P183"/>
+    <mergeCell ref="C184:P184"/>
+    <mergeCell ref="C185:P185"/>
+    <mergeCell ref="C166:P166"/>
+    <mergeCell ref="C167:P167"/>
+    <mergeCell ref="C168:P168"/>
+    <mergeCell ref="C173:P173"/>
+    <mergeCell ref="C174:P174"/>
+    <mergeCell ref="C175:P175"/>
+    <mergeCell ref="C176:P176"/>
+    <mergeCell ref="C177:P177"/>
+    <mergeCell ref="C178:P178"/>
+    <mergeCell ref="C145:P145"/>
+    <mergeCell ref="C153:P153"/>
+    <mergeCell ref="C154:P154"/>
+    <mergeCell ref="T58:U60"/>
+    <mergeCell ref="H123:P123"/>
+    <mergeCell ref="H103:P103"/>
+    <mergeCell ref="H104:P104"/>
+    <mergeCell ref="I115:R115"/>
+    <mergeCell ref="M125:P125"/>
+    <mergeCell ref="C79:R79"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H83:P83"/>
+    <mergeCell ref="C107:M107"/>
+    <mergeCell ref="J84:R84"/>
+    <mergeCell ref="E85:M85"/>
+    <mergeCell ref="H93:P93"/>
+    <mergeCell ref="H94:P94"/>
+    <mergeCell ref="H126:P126"/>
+    <mergeCell ref="C155:R159"/>
+    <mergeCell ref="C163:R165"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H142:L142"/>
+    <mergeCell ref="C105:M105"/>
+    <mergeCell ref="H106:P106"/>
+    <mergeCell ref="C119:R119"/>
+    <mergeCell ref="C129:R129"/>
+    <mergeCell ref="C139:R139"/>
+    <mergeCell ref="C89:R89"/>
+    <mergeCell ref="C99:R99"/>
+    <mergeCell ref="C109:R109"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="E73:J73"/>
+    <mergeCell ref="L73:Q73"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="H54:P54"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="L74:Q74"/>
+    <mergeCell ref="L77:Q77"/>
+    <mergeCell ref="L78:Q78"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="J58:P58"/>
+    <mergeCell ref="E74:J74"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="H66:Q66"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="H64:N64"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="C69:R69"/>
+    <mergeCell ref="H13:R13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="H45:P45"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H43:P43"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="H33:P33"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H23:R23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="O24:P24"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="H46:P46"/>
     <mergeCell ref="H44:N44"/>
@@ -15950,109 +16054,24 @@
     <mergeCell ref="E77:J77"/>
     <mergeCell ref="L67:R67"/>
     <mergeCell ref="M72:R72"/>
-    <mergeCell ref="H13:R13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="H45:P45"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H43:P43"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="H33:P33"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H23:R23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="E73:J73"/>
-    <mergeCell ref="L73:Q73"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="H54:P54"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="L74:Q74"/>
-    <mergeCell ref="L77:Q77"/>
-    <mergeCell ref="L78:Q78"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="J58:P58"/>
-    <mergeCell ref="E74:J74"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="H66:Q66"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="H64:N64"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="C69:R69"/>
-    <mergeCell ref="C155:R159"/>
-    <mergeCell ref="C163:R165"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="C136:G136"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="C124:G124"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="C126:G126"/>
-    <mergeCell ref="H142:L142"/>
-    <mergeCell ref="C105:M105"/>
-    <mergeCell ref="H106:P106"/>
-    <mergeCell ref="C119:R119"/>
-    <mergeCell ref="C129:R129"/>
-    <mergeCell ref="C139:R139"/>
-    <mergeCell ref="C89:R89"/>
-    <mergeCell ref="C99:R99"/>
-    <mergeCell ref="C109:R109"/>
-    <mergeCell ref="C103:G103"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C144:P144"/>
-    <mergeCell ref="C145:P145"/>
-    <mergeCell ref="C146:P146"/>
-    <mergeCell ref="C147:P147"/>
-    <mergeCell ref="C148:P148"/>
-    <mergeCell ref="C153:P153"/>
-    <mergeCell ref="C154:P154"/>
-    <mergeCell ref="T58:U60"/>
-    <mergeCell ref="H123:P123"/>
-    <mergeCell ref="H103:P103"/>
-    <mergeCell ref="H104:P104"/>
-    <mergeCell ref="I115:R115"/>
-    <mergeCell ref="M125:P125"/>
-    <mergeCell ref="C79:R79"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="H83:P83"/>
-    <mergeCell ref="C107:M107"/>
-    <mergeCell ref="J84:R84"/>
-    <mergeCell ref="E85:M85"/>
-    <mergeCell ref="H93:P93"/>
-    <mergeCell ref="H94:P94"/>
-    <mergeCell ref="C183:P183"/>
-    <mergeCell ref="C184:P184"/>
-    <mergeCell ref="C185:P185"/>
-    <mergeCell ref="C166:P166"/>
-    <mergeCell ref="C167:P167"/>
-    <mergeCell ref="C168:P168"/>
-    <mergeCell ref="C173:P173"/>
-    <mergeCell ref="C174:P174"/>
-    <mergeCell ref="C175:P175"/>
-    <mergeCell ref="C176:P176"/>
-    <mergeCell ref="C177:P177"/>
-    <mergeCell ref="C178:P178"/>
+    <mergeCell ref="H96:L96"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="H124:P124"/>
+    <mergeCell ref="C125:K125"/>
+    <mergeCell ref="H113:M113"/>
+    <mergeCell ref="H114:M114"/>
+    <mergeCell ref="C135:K135"/>
+    <mergeCell ref="M135:P135"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="J116:N116"/>
+    <mergeCell ref="H134:P134"/>
+    <mergeCell ref="F143:P143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -16080,10 +16099,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="126"/>
+      <c r="B2" s="127"/>
       <c r="C2" s="41" t="s">
         <v>18</v>
       </c>
@@ -16102,10 +16121,10 @@
       <c r="I2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="127" t="s">
+      <c r="J2" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="127"/>
+      <c r="K2" s="128"/>
     </row>
     <row r="3" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
@@ -16120,10 +16139,10 @@
       <c r="I3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="128" t="s">
+      <c r="J3" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="128"/>
+      <c r="K3" s="129"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -16145,10 +16164,10 @@
       <c r="I4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="128" t="s">
+      <c r="J4" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="128"/>
+      <c r="K4" s="129"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -16247,7 +16266,7 @@
         <v>43408</v>
       </c>
       <c r="D11" s="29"/>
-      <c r="F11" s="129" t="s">
+      <c r="F11" s="70" t="s">
         <v>83</v>
       </c>
       <c r="G11" s="53" t="s">
@@ -16434,10 +16453,10 @@
       <c r="H22" s="51"/>
     </row>
     <row r="23" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="126" t="s">
+      <c r="A23" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="126"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="41" t="s">
         <v>18</v>
       </c>
@@ -16642,7 +16661,7 @@
         <v>43929</v>
       </c>
       <c r="D36" s="29"/>
-      <c r="F36" s="79" t="s">
+      <c r="F36" s="115" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16660,7 +16679,7 @@
         <v>43936</v>
       </c>
       <c r="D37" s="44"/>
-      <c r="F37" s="79"/>
+      <c r="F37" s="115"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
@@ -16676,7 +16695,7 @@
         <v>43943</v>
       </c>
       <c r="D38" s="29"/>
-      <c r="F38" s="79"/>
+      <c r="F38" s="115"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="23">

--- a/Weekly Planner.xlsx
+++ b/Weekly Planner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SoftwareProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E327814C-1A4B-40DD-B7C8-6FDD8235B996}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43901B9-C8AC-46A6-B014-29B4AD97EF6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="90">
   <si>
     <t>Monday</t>
   </si>
@@ -1111,31 +1111,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="8" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="9" applyBorder="1" applyAlignment="1">
@@ -1144,7 +1126,16 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1156,46 +1147,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="5" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1204,10 +1159,43 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="11" borderId="4" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1234,6 +1222,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1243,40 +1234,55 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="6" fillId="11" borderId="4" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="5" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="36" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1287,12 +1293,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="36" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1594,7 +1594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H133" sqref="H133:P133"/>
     </sheetView>
   </sheetViews>
@@ -1978,26 +1978,26 @@
       <c r="B13" s="57">
         <v>43724</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="86" t="s">
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="95"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="113"/>
+      <c r="R13" s="99"/>
       <c r="S13" s="51"/>
       <c r="T13" s="30" t="s">
         <v>22</v>
@@ -2010,26 +2010,26 @@
       <c r="B14" s="57">
         <v>43725</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="96" t="s">
+      <c r="J14" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="86" t="s">
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="95"/>
+      <c r="P14" s="99"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="51"/>
@@ -2072,20 +2072,20 @@
       <c r="B16" s="57">
         <v>43727</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="103" t="s">
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
@@ -2290,26 +2290,26 @@
         <f>B13+7</f>
         <v>43731</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="86" t="s">
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="95"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="113"/>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="99"/>
       <c r="S23" s="51"/>
       <c r="T23" s="30" t="s">
         <v>22</v>
@@ -2323,30 +2323,30 @@
         <f t="shared" ref="B24:B29" si="0">B14+7</f>
         <v>43732</v>
       </c>
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="86" t="s">
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="87"/>
-      <c r="J24" s="71" t="s">
+      <c r="I24" s="121"/>
+      <c r="J24" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="K24" s="72"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="71" t="s">
+      <c r="K24" s="96"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="N24" s="73"/>
-      <c r="O24" s="96" t="s">
+      <c r="N24" s="97"/>
+      <c r="O24" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="P24" s="98"/>
+      <c r="P24" s="116"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
       <c r="S24" s="51"/>
@@ -2391,20 +2391,20 @@
         <f t="shared" si="0"/>
         <v>43734</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="92" t="s">
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="118"/>
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
@@ -2586,12 +2586,12 @@
         <f>C22+1</f>
         <v>3</v>
       </c>
-      <c r="D32" s="102" t="s">
+      <c r="D32" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
@@ -2614,24 +2614,24 @@
         <f>B23+7</f>
         <v>43738</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="92" t="s">
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="92"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="118"/>
+      <c r="N33" s="118"/>
+      <c r="O33" s="118"/>
+      <c r="P33" s="118"/>
       <c r="Q33" s="62"/>
       <c r="R33" s="62"/>
       <c r="S33" s="51"/>
@@ -2647,13 +2647,13 @@
         <f t="shared" ref="B34:B39" si="1">B24+7</f>
         <v>43739</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
       <c r="H34" s="62"/>
       <c r="I34" s="62"/>
       <c r="J34" s="62"/>
@@ -2707,13 +2707,13 @@
         <f t="shared" si="1"/>
         <v>43741</v>
       </c>
-      <c r="C36" s="75" t="s">
+      <c r="C36" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="63"/>
@@ -2926,13 +2926,13 @@
         <f>B33+7</f>
         <v>43745</v>
       </c>
-      <c r="C43" s="75" t="s">
+      <c r="C43" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
       <c r="H43" s="79" t="s">
         <v>14</v>
       </c>
@@ -2959,22 +2959,22 @@
         <f t="shared" ref="B44:B49" si="2">B34+7</f>
         <v>43746</v>
       </c>
-      <c r="C44" s="75" t="s">
+      <c r="C44" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="88" t="s">
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="89"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="89"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="108"/>
+      <c r="L44" s="108"/>
+      <c r="M44" s="108"/>
+      <c r="N44" s="108"/>
       <c r="O44" s="49"/>
       <c r="P44" s="49"/>
       <c r="Q44" s="49"/>
@@ -2997,17 +2997,17 @@
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
-      <c r="H45" s="99" t="s">
+      <c r="H45" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="I45" s="100"/>
-      <c r="J45" s="100"/>
-      <c r="K45" s="100"/>
-      <c r="L45" s="100"/>
-      <c r="M45" s="100"/>
-      <c r="N45" s="100"/>
-      <c r="O45" s="100"/>
-      <c r="P45" s="101"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="85"/>
+      <c r="M45" s="85"/>
+      <c r="N45" s="85"/>
+      <c r="O45" s="85"/>
+      <c r="P45" s="86"/>
       <c r="Q45" s="49"/>
       <c r="R45" s="49"/>
       <c r="S45" s="51"/>
@@ -3023,24 +3023,24 @@
         <f t="shared" si="2"/>
         <v>43748</v>
       </c>
-      <c r="C46" s="75" t="s">
+      <c r="C46" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="83" t="s">
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="84"/>
-      <c r="M46" s="84"/>
-      <c r="N46" s="84"/>
-      <c r="O46" s="84"/>
-      <c r="P46" s="85"/>
+      <c r="I46" s="81"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="81"/>
+      <c r="L46" s="81"/>
+      <c r="M46" s="81"/>
+      <c r="N46" s="81"/>
+      <c r="O46" s="81"/>
+      <c r="P46" s="82"/>
       <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
       <c r="S46" s="51"/>
@@ -3219,11 +3219,11 @@
         <v>5</v>
       </c>
       <c r="G52" s="15"/>
-      <c r="H52" s="90" t="s">
+      <c r="H52" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="I52" s="90"/>
-      <c r="J52" s="90"/>
+      <c r="I52" s="123"/>
+      <c r="J52" s="123"/>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
       <c r="M52" s="19"/>
@@ -3243,23 +3243,23 @@
         <f>B43+7</f>
         <v>43752</v>
       </c>
-      <c r="C53" s="75" t="s">
+      <c r="C53" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="83"/>
       <c r="H53" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="I53" s="71" t="s">
+      <c r="I53" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="72"/>
-      <c r="K53" s="72"/>
-      <c r="L53" s="72"/>
-      <c r="M53" s="72"/>
+      <c r="J53" s="96"/>
+      <c r="K53" s="96"/>
+      <c r="L53" s="96"/>
+      <c r="M53" s="96"/>
       <c r="N53" s="49"/>
       <c r="O53" s="49"/>
       <c r="P53" s="49"/>
@@ -3278,28 +3278,28 @@
         <f t="shared" ref="B54:B59" si="3">B44+7</f>
         <v>43753</v>
       </c>
-      <c r="C54" s="75" t="s">
+      <c r="C54" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="104" t="s">
+      <c r="D54" s="83"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="83"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="I54" s="105"/>
-      <c r="J54" s="105"/>
-      <c r="K54" s="105"/>
-      <c r="L54" s="105"/>
-      <c r="M54" s="105"/>
-      <c r="N54" s="105"/>
-      <c r="O54" s="105"/>
-      <c r="P54" s="105"/>
-      <c r="Q54" s="86" t="s">
+      <c r="I54" s="101"/>
+      <c r="J54" s="101"/>
+      <c r="K54" s="101"/>
+      <c r="L54" s="101"/>
+      <c r="M54" s="101"/>
+      <c r="N54" s="101"/>
+      <c r="O54" s="101"/>
+      <c r="P54" s="101"/>
+      <c r="Q54" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="R54" s="95"/>
+      <c r="R54" s="99"/>
       <c r="S54" s="51"/>
       <c r="T54" s="53" t="s">
         <v>19</v>
@@ -3317,18 +3317,18 @@
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
-      <c r="G55" s="75" t="s">
+      <c r="G55" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="H55" s="75"/>
-      <c r="I55" s="91" t="s">
+      <c r="H55" s="83"/>
+      <c r="I55" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="J55" s="72"/>
-      <c r="K55" s="72"/>
-      <c r="L55" s="72"/>
-      <c r="M55" s="72"/>
-      <c r="N55" s="72"/>
+      <c r="J55" s="96"/>
+      <c r="K55" s="96"/>
+      <c r="L55" s="96"/>
+      <c r="M55" s="96"/>
+      <c r="N55" s="96"/>
       <c r="O55" s="49"/>
       <c r="P55" s="49"/>
       <c r="Q55" s="49"/>
@@ -3346,21 +3346,21 @@
         <f t="shared" si="3"/>
         <v>43755</v>
       </c>
-      <c r="C56" s="75" t="s">
+      <c r="C56" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="75"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="111" t="s">
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="I56" s="89"/>
-      <c r="J56" s="89"/>
-      <c r="K56" s="89"/>
-      <c r="L56" s="89"/>
-      <c r="M56" s="89"/>
+      <c r="I56" s="108"/>
+      <c r="J56" s="108"/>
+      <c r="K56" s="108"/>
+      <c r="L56" s="108"/>
+      <c r="M56" s="108"/>
       <c r="N56" s="49"/>
       <c r="O56" s="49"/>
       <c r="P56" s="49"/>
@@ -3392,11 +3392,11 @@
       <c r="M57" s="49"/>
       <c r="N57" s="49"/>
       <c r="O57" s="49"/>
-      <c r="P57" s="83" t="s">
+      <c r="P57" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="Q57" s="84"/>
-      <c r="R57" s="85"/>
+      <c r="Q57" s="81"/>
+      <c r="R57" s="82"/>
       <c r="S57" s="51"/>
       <c r="T57" s="51"/>
     </row>
@@ -3410,31 +3410,31 @@
       </c>
       <c r="C58" s="50"/>
       <c r="D58" s="49"/>
-      <c r="E58" s="109" t="s">
+      <c r="E58" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="F58" s="84"/>
-      <c r="G58" s="110"/>
-      <c r="H58" s="75" t="s">
+      <c r="F58" s="81"/>
+      <c r="G58" s="106"/>
+      <c r="H58" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="I58" s="75"/>
-      <c r="J58" s="71" t="s">
+      <c r="I58" s="83"/>
+      <c r="J58" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="K58" s="72"/>
-      <c r="L58" s="72"/>
-      <c r="M58" s="72"/>
-      <c r="N58" s="72"/>
-      <c r="O58" s="72"/>
-      <c r="P58" s="73"/>
+      <c r="K58" s="96"/>
+      <c r="L58" s="96"/>
+      <c r="M58" s="96"/>
+      <c r="N58" s="96"/>
+      <c r="O58" s="96"/>
+      <c r="P58" s="97"/>
       <c r="Q58" s="20"/>
       <c r="R58" s="20"/>
       <c r="S58" s="51"/>
-      <c r="T58" s="125" t="s">
+      <c r="T58" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="U58" s="125"/>
+      <c r="U58" s="77"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -3461,8 +3461,8 @@
       <c r="Q59" s="20"/>
       <c r="R59" s="20"/>
       <c r="S59" s="51"/>
-      <c r="T59" s="125"/>
-      <c r="U59" s="125"/>
+      <c r="T59" s="77"/>
+      <c r="U59" s="77"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B60"/>
@@ -3483,8 +3483,8 @@
       <c r="Q60"/>
       <c r="R60"/>
       <c r="S60"/>
-      <c r="T60" s="125"/>
-      <c r="U60" s="125"/>
+      <c r="T60" s="77"/>
+      <c r="U60" s="77"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
@@ -3558,11 +3558,11 @@
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
-      <c r="H62" s="90" t="s">
+      <c r="H62" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="I62" s="90"/>
-      <c r="J62" s="90"/>
+      <c r="I62" s="123"/>
+      <c r="J62" s="123"/>
       <c r="K62" s="19"/>
       <c r="L62" s="19"/>
       <c r="M62" s="19"/>
@@ -3582,22 +3582,22 @@
         <f>B53+7</f>
         <v>43759</v>
       </c>
-      <c r="C63" s="75" t="s">
+      <c r="C63" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="75"/>
-      <c r="E63" s="75"/>
-      <c r="F63" s="75"/>
-      <c r="G63" s="75"/>
+      <c r="D63" s="83"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="83"/>
       <c r="H63" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="I63" s="71" t="s">
+      <c r="I63" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="J63" s="72"/>
-      <c r="K63" s="72"/>
-      <c r="L63" s="72"/>
+      <c r="J63" s="96"/>
+      <c r="K63" s="96"/>
+      <c r="L63" s="96"/>
       <c r="M63" s="49"/>
       <c r="N63" s="49"/>
       <c r="O63" s="49"/>
@@ -3617,22 +3617,22 @@
         <f t="shared" ref="B64:B69" si="4">B54+7</f>
         <v>43760</v>
       </c>
-      <c r="C64" s="75" t="s">
+      <c r="C64" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="75"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="75"/>
-      <c r="H64" s="109" t="s">
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="I64" s="84"/>
-      <c r="J64" s="84"/>
-      <c r="K64" s="84"/>
-      <c r="L64" s="84"/>
-      <c r="M64" s="84"/>
-      <c r="N64" s="84"/>
+      <c r="I64" s="81"/>
+      <c r="J64" s="81"/>
+      <c r="K64" s="81"/>
+      <c r="L64" s="81"/>
+      <c r="M64" s="81"/>
+      <c r="N64" s="81"/>
       <c r="O64" s="49"/>
       <c r="P64" s="49"/>
       <c r="Q64" s="49"/>
@@ -3681,25 +3681,25 @@
         <f t="shared" si="4"/>
         <v>43762</v>
       </c>
-      <c r="C66" s="75" t="s">
+      <c r="C66" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="75"/>
-      <c r="E66" s="75"/>
-      <c r="F66" s="75"/>
-      <c r="G66" s="75"/>
-      <c r="H66" s="112" t="s">
+      <c r="D66" s="83"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="83"/>
+      <c r="H66" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="I66" s="113"/>
-      <c r="J66" s="113"/>
-      <c r="K66" s="113"/>
-      <c r="L66" s="113"/>
-      <c r="M66" s="113"/>
-      <c r="N66" s="113"/>
-      <c r="O66" s="113"/>
-      <c r="P66" s="113"/>
-      <c r="Q66" s="114"/>
+      <c r="I66" s="110"/>
+      <c r="J66" s="110"/>
+      <c r="K66" s="110"/>
+      <c r="L66" s="110"/>
+      <c r="M66" s="110"/>
+      <c r="N66" s="110"/>
+      <c r="O66" s="110"/>
+      <c r="P66" s="110"/>
+      <c r="Q66" s="111"/>
       <c r="R66" s="20"/>
       <c r="S66" s="51"/>
       <c r="T66" s="18" t="s">
@@ -3714,26 +3714,26 @@
         <f t="shared" si="4"/>
         <v>43763</v>
       </c>
-      <c r="C67" s="71" t="s">
+      <c r="C67" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="72"/>
-      <c r="I67" s="72"/>
-      <c r="J67" s="73"/>
+      <c r="D67" s="96"/>
+      <c r="E67" s="96"/>
+      <c r="F67" s="96"/>
+      <c r="G67" s="96"/>
+      <c r="H67" s="96"/>
+      <c r="I67" s="96"/>
+      <c r="J67" s="97"/>
       <c r="K67" s="49"/>
-      <c r="L67" s="72" t="s">
+      <c r="L67" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="M67" s="72"/>
-      <c r="N67" s="72"/>
-      <c r="O67" s="72"/>
-      <c r="P67" s="72"/>
-      <c r="Q67" s="72"/>
-      <c r="R67" s="73"/>
+      <c r="M67" s="96"/>
+      <c r="N67" s="96"/>
+      <c r="O67" s="96"/>
+      <c r="P67" s="96"/>
+      <c r="Q67" s="96"/>
+      <c r="R67" s="97"/>
       <c r="S67" s="51"/>
       <c r="T67" s="51"/>
     </row>
@@ -3772,24 +3772,24 @@
         <f t="shared" si="4"/>
         <v>43765</v>
       </c>
-      <c r="C69" s="75" t="s">
+      <c r="C69" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="D69" s="75"/>
-      <c r="E69" s="75"/>
-      <c r="F69" s="75"/>
-      <c r="G69" s="75"/>
-      <c r="H69" s="75"/>
-      <c r="I69" s="75"/>
-      <c r="J69" s="75"/>
-      <c r="K69" s="75"/>
-      <c r="L69" s="75"/>
-      <c r="M69" s="75"/>
-      <c r="N69" s="75"/>
-      <c r="O69" s="75"/>
-      <c r="P69" s="75"/>
-      <c r="Q69" s="75"/>
-      <c r="R69" s="75"/>
+      <c r="D69" s="83"/>
+      <c r="E69" s="83"/>
+      <c r="F69" s="83"/>
+      <c r="G69" s="83"/>
+      <c r="H69" s="83"/>
+      <c r="I69" s="83"/>
+      <c r="J69" s="83"/>
+      <c r="K69" s="83"/>
+      <c r="L69" s="83"/>
+      <c r="M69" s="83"/>
+      <c r="N69" s="83"/>
+      <c r="O69" s="83"/>
+      <c r="P69" s="83"/>
+      <c r="Q69" s="83"/>
+      <c r="R69" s="83"/>
       <c r="S69" s="51"/>
       <c r="T69" s="51"/>
     </row>
@@ -3882,27 +3882,27 @@
         <f>C62+1</f>
         <v>7</v>
       </c>
-      <c r="D72" s="77" t="s">
+      <c r="D72" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
+      <c r="E72" s="88"/>
+      <c r="F72" s="88"/>
       <c r="G72" s="15"/>
-      <c r="H72" s="76" t="s">
+      <c r="H72" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="I72" s="76"/>
-      <c r="J72" s="76"/>
-      <c r="K72" s="76"/>
+      <c r="I72" s="112"/>
+      <c r="J72" s="112"/>
+      <c r="K72" s="112"/>
       <c r="L72" s="19"/>
-      <c r="M72" s="93" t="s">
+      <c r="M72" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="N72" s="93"/>
-      <c r="O72" s="93"/>
-      <c r="P72" s="93"/>
-      <c r="Q72" s="93"/>
-      <c r="R72" s="93"/>
+      <c r="N72" s="125"/>
+      <c r="O72" s="125"/>
+      <c r="P72" s="125"/>
+      <c r="Q72" s="125"/>
+      <c r="R72" s="125"/>
       <c r="S72" s="51"/>
       <c r="T72" s="51"/>
     </row>
@@ -3925,14 +3925,14 @@
       <c r="I73" s="79"/>
       <c r="J73" s="79"/>
       <c r="K73" s="49"/>
-      <c r="L73" s="71" t="s">
+      <c r="L73" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="M73" s="72"/>
-      <c r="N73" s="72"/>
-      <c r="O73" s="72"/>
-      <c r="P73" s="72"/>
-      <c r="Q73" s="73"/>
+      <c r="M73" s="96"/>
+      <c r="N73" s="96"/>
+      <c r="O73" s="96"/>
+      <c r="P73" s="96"/>
+      <c r="Q73" s="97"/>
       <c r="R73" s="49"/>
       <c r="S73" s="51"/>
       <c r="T73" s="30" t="s">
@@ -3947,10 +3947,10 @@
         <f t="shared" ref="B74:B79" si="5">B64+7</f>
         <v>43767</v>
       </c>
-      <c r="C74" s="71" t="s">
+      <c r="C74" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="D74" s="73"/>
+      <c r="D74" s="97"/>
       <c r="E74" s="79" t="s">
         <v>66</v>
       </c>
@@ -3960,14 +3960,14 @@
       <c r="I74" s="79"/>
       <c r="J74" s="79"/>
       <c r="K74" s="49"/>
-      <c r="L74" s="71" t="s">
+      <c r="L74" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="M74" s="72"/>
-      <c r="N74" s="72"/>
-      <c r="O74" s="72"/>
-      <c r="P74" s="72"/>
-      <c r="Q74" s="73"/>
+      <c r="M74" s="96"/>
+      <c r="N74" s="96"/>
+      <c r="O74" s="96"/>
+      <c r="P74" s="96"/>
+      <c r="Q74" s="97"/>
       <c r="R74" s="20"/>
       <c r="S74" s="51"/>
       <c r="T74" s="53" t="s">
@@ -3993,14 +3993,14 @@
       <c r="I75" s="79"/>
       <c r="J75" s="79"/>
       <c r="K75" s="49"/>
-      <c r="L75" s="71" t="s">
+      <c r="L75" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="M75" s="72"/>
-      <c r="N75" s="72"/>
-      <c r="O75" s="72"/>
-      <c r="P75" s="72"/>
-      <c r="Q75" s="73"/>
+      <c r="M75" s="96"/>
+      <c r="N75" s="96"/>
+      <c r="O75" s="96"/>
+      <c r="P75" s="96"/>
+      <c r="Q75" s="97"/>
       <c r="R75" s="49"/>
       <c r="S75" s="51"/>
       <c r="T75" s="52" t="s">
@@ -4015,24 +4015,24 @@
         <f t="shared" si="5"/>
         <v>43769</v>
       </c>
-      <c r="C76" s="75" t="s">
+      <c r="C76" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="D76" s="75"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="75"/>
-      <c r="G76" s="75"/>
-      <c r="H76" s="75"/>
-      <c r="I76" s="75"/>
-      <c r="J76" s="75"/>
-      <c r="K76" s="75"/>
-      <c r="L76" s="75"/>
-      <c r="M76" s="75"/>
-      <c r="N76" s="75"/>
-      <c r="O76" s="75"/>
-      <c r="P76" s="75"/>
-      <c r="Q76" s="75"/>
-      <c r="R76" s="75"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="83"/>
+      <c r="H76" s="83"/>
+      <c r="I76" s="83"/>
+      <c r="J76" s="83"/>
+      <c r="K76" s="83"/>
+      <c r="L76" s="83"/>
+      <c r="M76" s="83"/>
+      <c r="N76" s="83"/>
+      <c r="O76" s="83"/>
+      <c r="P76" s="83"/>
+      <c r="Q76" s="83"/>
+      <c r="R76" s="83"/>
       <c r="S76" s="51"/>
       <c r="T76" s="18" t="s">
         <v>21</v>
@@ -4048,23 +4048,23 @@
       </c>
       <c r="C77" s="32"/>
       <c r="D77" s="20"/>
-      <c r="E77" s="92" t="s">
+      <c r="E77" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="F77" s="92"/>
-      <c r="G77" s="92"/>
-      <c r="H77" s="92"/>
-      <c r="I77" s="92"/>
-      <c r="J77" s="92"/>
+      <c r="F77" s="118"/>
+      <c r="G77" s="118"/>
+      <c r="H77" s="118"/>
+      <c r="I77" s="118"/>
+      <c r="J77" s="118"/>
       <c r="K77" s="49"/>
-      <c r="L77" s="106" t="s">
+      <c r="L77" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="M77" s="107"/>
-      <c r="N77" s="107"/>
-      <c r="O77" s="107"/>
-      <c r="P77" s="107"/>
-      <c r="Q77" s="108"/>
+      <c r="M77" s="103"/>
+      <c r="N77" s="103"/>
+      <c r="O77" s="103"/>
+      <c r="P77" s="103"/>
+      <c r="Q77" s="104"/>
       <c r="R77" s="20"/>
       <c r="S77" s="51"/>
       <c r="T77" s="51"/>
@@ -4079,23 +4079,23 @@
       </c>
       <c r="C78" s="50"/>
       <c r="D78" s="49"/>
-      <c r="E78" s="92" t="s">
+      <c r="E78" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="F78" s="92"/>
-      <c r="G78" s="92"/>
-      <c r="H78" s="92"/>
-      <c r="I78" s="92"/>
-      <c r="J78" s="92"/>
+      <c r="F78" s="118"/>
+      <c r="G78" s="118"/>
+      <c r="H78" s="118"/>
+      <c r="I78" s="118"/>
+      <c r="J78" s="118"/>
       <c r="K78" s="49"/>
-      <c r="L78" s="106" t="s">
+      <c r="L78" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="M78" s="107"/>
-      <c r="N78" s="107"/>
-      <c r="O78" s="107"/>
-      <c r="P78" s="107"/>
-      <c r="Q78" s="108"/>
+      <c r="M78" s="103"/>
+      <c r="N78" s="103"/>
+      <c r="O78" s="103"/>
+      <c r="P78" s="103"/>
+      <c r="Q78" s="104"/>
       <c r="R78" s="49"/>
       <c r="S78" s="51"/>
       <c r="T78" s="51"/>
@@ -4108,24 +4108,24 @@
         <f t="shared" si="5"/>
         <v>43772</v>
       </c>
-      <c r="C79" s="75" t="s">
+      <c r="C79" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="D79" s="75"/>
-      <c r="E79" s="75"/>
-      <c r="F79" s="75"/>
-      <c r="G79" s="75"/>
-      <c r="H79" s="75"/>
-      <c r="I79" s="75"/>
-      <c r="J79" s="75"/>
-      <c r="K79" s="75"/>
-      <c r="L79" s="75"/>
-      <c r="M79" s="75"/>
-      <c r="N79" s="75"/>
-      <c r="O79" s="75"/>
-      <c r="P79" s="75"/>
-      <c r="Q79" s="75"/>
-      <c r="R79" s="75"/>
+      <c r="D79" s="83"/>
+      <c r="E79" s="83"/>
+      <c r="F79" s="83"/>
+      <c r="G79" s="83"/>
+      <c r="H79" s="83"/>
+      <c r="I79" s="83"/>
+      <c r="J79" s="83"/>
+      <c r="K79" s="83"/>
+      <c r="L79" s="83"/>
+      <c r="M79" s="83"/>
+      <c r="N79" s="83"/>
+      <c r="O79" s="83"/>
+      <c r="P79" s="83"/>
+      <c r="Q79" s="83"/>
+      <c r="R79" s="83"/>
       <c r="S79" s="51"/>
       <c r="T79" s="51"/>
     </row>
@@ -4199,11 +4199,11 @@
         <f>C72+1</f>
         <v>8</v>
       </c>
-      <c r="D82" s="77" t="s">
+      <c r="D82" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="77"/>
-      <c r="F82" s="77"/>
+      <c r="E82" s="88"/>
+      <c r="F82" s="88"/>
       <c r="G82" s="15"/>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -4228,24 +4228,24 @@
         <f>B73+7</f>
         <v>43773</v>
       </c>
-      <c r="C83" s="75" t="s">
+      <c r="C83" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="75"/>
-      <c r="E83" s="75"/>
-      <c r="F83" s="75"/>
-      <c r="G83" s="75"/>
-      <c r="H83" s="83" t="s">
+      <c r="D83" s="83"/>
+      <c r="E83" s="83"/>
+      <c r="F83" s="83"/>
+      <c r="G83" s="83"/>
+      <c r="H83" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="I83" s="84"/>
-      <c r="J83" s="84"/>
-      <c r="K83" s="84"/>
-      <c r="L83" s="84"/>
-      <c r="M83" s="84"/>
-      <c r="N83" s="84"/>
-      <c r="O83" s="84"/>
-      <c r="P83" s="85"/>
+      <c r="I83" s="81"/>
+      <c r="J83" s="81"/>
+      <c r="K83" s="81"/>
+      <c r="L83" s="81"/>
+      <c r="M83" s="81"/>
+      <c r="N83" s="81"/>
+      <c r="O83" s="81"/>
+      <c r="P83" s="82"/>
       <c r="Q83" s="20"/>
       <c r="R83" s="20"/>
       <c r="S83" s="51"/>
@@ -4262,28 +4262,28 @@
         <f t="shared" ref="B84:B89" si="6">B74+7</f>
         <v>43774</v>
       </c>
-      <c r="C84" s="75" t="s">
+      <c r="C84" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="75"/>
-      <c r="E84" s="75"/>
-      <c r="F84" s="75"/>
-      <c r="G84" s="75"/>
-      <c r="H84" s="75" t="s">
+      <c r="D84" s="83"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="83"/>
+      <c r="G84" s="83"/>
+      <c r="H84" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="I84" s="75"/>
-      <c r="J84" s="83" t="s">
+      <c r="I84" s="83"/>
+      <c r="J84" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="K84" s="84"/>
-      <c r="L84" s="84"/>
-      <c r="M84" s="84"/>
-      <c r="N84" s="84"/>
-      <c r="O84" s="84"/>
-      <c r="P84" s="84"/>
-      <c r="Q84" s="84"/>
-      <c r="R84" s="85"/>
+      <c r="K84" s="81"/>
+      <c r="L84" s="81"/>
+      <c r="M84" s="81"/>
+      <c r="N84" s="81"/>
+      <c r="O84" s="81"/>
+      <c r="P84" s="81"/>
+      <c r="Q84" s="81"/>
+      <c r="R84" s="82"/>
       <c r="S84" s="51"/>
       <c r="T84" s="53" t="s">
         <v>19</v>
@@ -4300,17 +4300,17 @@
       </c>
       <c r="C85" s="32"/>
       <c r="D85" s="20"/>
-      <c r="E85" s="83" t="s">
+      <c r="E85" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F85" s="84"/>
-      <c r="G85" s="84"/>
-      <c r="H85" s="84"/>
-      <c r="I85" s="84"/>
-      <c r="J85" s="84"/>
-      <c r="K85" s="84"/>
-      <c r="L85" s="84"/>
-      <c r="M85" s="85"/>
+      <c r="F85" s="81"/>
+      <c r="G85" s="81"/>
+      <c r="H85" s="81"/>
+      <c r="I85" s="81"/>
+      <c r="J85" s="81"/>
+      <c r="K85" s="81"/>
+      <c r="L85" s="81"/>
+      <c r="M85" s="82"/>
       <c r="N85" s="49"/>
       <c r="O85" s="49"/>
       <c r="P85" s="49"/>
@@ -4330,13 +4330,13 @@
         <f t="shared" si="6"/>
         <v>43776</v>
       </c>
-      <c r="C86" s="121" t="s">
+      <c r="C86" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="D86" s="121"/>
-      <c r="E86" s="121"/>
-      <c r="F86" s="121"/>
-      <c r="G86" s="121"/>
+      <c r="D86" s="94"/>
+      <c r="E86" s="94"/>
+      <c r="F86" s="94"/>
+      <c r="G86" s="94"/>
       <c r="H86" s="49"/>
       <c r="I86" s="49"/>
       <c r="J86" s="49"/>
@@ -4418,24 +4418,24 @@
         <f t="shared" si="6"/>
         <v>43779</v>
       </c>
-      <c r="C89" s="75" t="s">
+      <c r="C89" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="D89" s="75"/>
-      <c r="E89" s="75"/>
-      <c r="F89" s="75"/>
-      <c r="G89" s="75"/>
-      <c r="H89" s="75"/>
-      <c r="I89" s="75"/>
-      <c r="J89" s="75"/>
-      <c r="K89" s="75"/>
-      <c r="L89" s="75"/>
-      <c r="M89" s="75"/>
-      <c r="N89" s="75"/>
-      <c r="O89" s="75"/>
-      <c r="P89" s="75"/>
-      <c r="Q89" s="75"/>
-      <c r="R89" s="75"/>
+      <c r="D89" s="83"/>
+      <c r="E89" s="83"/>
+      <c r="F89" s="83"/>
+      <c r="G89" s="83"/>
+      <c r="H89" s="83"/>
+      <c r="I89" s="83"/>
+      <c r="J89" s="83"/>
+      <c r="K89" s="83"/>
+      <c r="L89" s="83"/>
+      <c r="M89" s="83"/>
+      <c r="N89" s="83"/>
+      <c r="O89" s="83"/>
+      <c r="P89" s="83"/>
+      <c r="Q89" s="83"/>
+      <c r="R89" s="83"/>
       <c r="S89" s="51"/>
       <c r="T89" s="51"/>
       <c r="U89" s="54"/>
@@ -4537,13 +4537,13 @@
         <f>B83+7</f>
         <v>43780</v>
       </c>
-      <c r="C93" s="75" t="s">
+      <c r="C93" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="75"/>
-      <c r="E93" s="75"/>
-      <c r="F93" s="75"/>
-      <c r="G93" s="75"/>
+      <c r="D93" s="83"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="83"/>
+      <c r="G93" s="83"/>
       <c r="H93" s="79" t="s">
         <v>86</v>
       </c>
@@ -4571,13 +4571,13 @@
         <f t="shared" ref="B94:B99" si="7">B84+7</f>
         <v>43781</v>
       </c>
-      <c r="C94" s="75" t="s">
+      <c r="C94" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="75"/>
-      <c r="E94" s="75"/>
-      <c r="F94" s="75"/>
-      <c r="G94" s="75"/>
+      <c r="D94" s="83"/>
+      <c r="E94" s="83"/>
+      <c r="F94" s="83"/>
+      <c r="G94" s="83"/>
       <c r="H94" s="79" t="s">
         <v>86</v>
       </c>
@@ -4635,20 +4635,20 @@
         <f t="shared" si="7"/>
         <v>43783</v>
       </c>
-      <c r="C96" s="75" t="s">
+      <c r="C96" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D96" s="75"/>
-      <c r="E96" s="75"/>
-      <c r="F96" s="75"/>
-      <c r="G96" s="75"/>
-      <c r="H96" s="71" t="s">
+      <c r="D96" s="83"/>
+      <c r="E96" s="83"/>
+      <c r="F96" s="83"/>
+      <c r="G96" s="83"/>
+      <c r="H96" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="I96" s="72"/>
-      <c r="J96" s="72"/>
-      <c r="K96" s="72"/>
-      <c r="L96" s="73"/>
+      <c r="I96" s="96"/>
+      <c r="J96" s="96"/>
+      <c r="K96" s="96"/>
+      <c r="L96" s="97"/>
       <c r="M96" s="20"/>
       <c r="N96" s="20"/>
       <c r="O96" s="20"/>
@@ -4725,24 +4725,24 @@
         <f t="shared" si="7"/>
         <v>43786</v>
       </c>
-      <c r="C99" s="75" t="s">
+      <c r="C99" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="D99" s="75"/>
-      <c r="E99" s="75"/>
-      <c r="F99" s="75"/>
-      <c r="G99" s="75"/>
-      <c r="H99" s="75"/>
-      <c r="I99" s="75"/>
-      <c r="J99" s="75"/>
-      <c r="K99" s="75"/>
-      <c r="L99" s="75"/>
-      <c r="M99" s="75"/>
-      <c r="N99" s="75"/>
-      <c r="O99" s="75"/>
-      <c r="P99" s="75"/>
-      <c r="Q99" s="75"/>
-      <c r="R99" s="75"/>
+      <c r="D99" s="83"/>
+      <c r="E99" s="83"/>
+      <c r="F99" s="83"/>
+      <c r="G99" s="83"/>
+      <c r="H99" s="83"/>
+      <c r="I99" s="83"/>
+      <c r="J99" s="83"/>
+      <c r="K99" s="83"/>
+      <c r="L99" s="83"/>
+      <c r="M99" s="83"/>
+      <c r="N99" s="83"/>
+      <c r="O99" s="83"/>
+      <c r="P99" s="83"/>
+      <c r="Q99" s="83"/>
+      <c r="R99" s="83"/>
       <c r="S99" s="51"/>
       <c r="T99" s="51"/>
       <c r="U99" s="54"/>
@@ -4844,13 +4844,13 @@
         <f>B93+7</f>
         <v>43787</v>
       </c>
-      <c r="C103" s="75" t="s">
+      <c r="C103" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="75"/>
-      <c r="E103" s="75"/>
-      <c r="F103" s="75"/>
-      <c r="G103" s="75"/>
+      <c r="D103" s="83"/>
+      <c r="E103" s="83"/>
+      <c r="F103" s="83"/>
+      <c r="G103" s="83"/>
       <c r="H103" s="79" t="s">
         <v>86</v>
       </c>
@@ -4878,13 +4878,13 @@
         <f t="shared" ref="B104:B109" si="8">B94+7</f>
         <v>43788</v>
       </c>
-      <c r="C104" s="75" t="s">
+      <c r="C104" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D104" s="75"/>
-      <c r="E104" s="75"/>
-      <c r="F104" s="75"/>
-      <c r="G104" s="75"/>
+      <c r="D104" s="83"/>
+      <c r="E104" s="83"/>
+      <c r="F104" s="83"/>
+      <c r="G104" s="83"/>
       <c r="H104" s="79" t="s">
         <v>86</v>
       </c>
@@ -4912,19 +4912,19 @@
         <f t="shared" si="8"/>
         <v>43789</v>
       </c>
-      <c r="C105" s="118" t="s">
+      <c r="C105" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="D105" s="119"/>
-      <c r="E105" s="119"/>
-      <c r="F105" s="119"/>
-      <c r="G105" s="119"/>
-      <c r="H105" s="119"/>
-      <c r="I105" s="119"/>
-      <c r="J105" s="119"/>
-      <c r="K105" s="119"/>
-      <c r="L105" s="119"/>
-      <c r="M105" s="120"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="92"/>
+      <c r="F105" s="92"/>
+      <c r="G105" s="92"/>
+      <c r="H105" s="92"/>
+      <c r="I105" s="92"/>
+      <c r="J105" s="92"/>
+      <c r="K105" s="92"/>
+      <c r="L105" s="92"/>
+      <c r="M105" s="93"/>
       <c r="N105" s="49"/>
       <c r="O105" s="49"/>
       <c r="P105" s="49"/>
@@ -4944,13 +4944,13 @@
         <f t="shared" si="8"/>
         <v>43790</v>
       </c>
-      <c r="C106" s="75" t="s">
+      <c r="C106" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D106" s="75"/>
-      <c r="E106" s="75"/>
-      <c r="F106" s="75"/>
-      <c r="G106" s="75"/>
+      <c r="D106" s="83"/>
+      <c r="E106" s="83"/>
+      <c r="F106" s="83"/>
+      <c r="G106" s="83"/>
       <c r="H106" s="79" t="s">
         <v>86</v>
       </c>
@@ -4978,19 +4978,19 @@
         <f t="shared" si="8"/>
         <v>43791</v>
       </c>
-      <c r="C107" s="126" t="s">
+      <c r="C107" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="D107" s="100"/>
-      <c r="E107" s="100"/>
-      <c r="F107" s="100"/>
-      <c r="G107" s="100"/>
-      <c r="H107" s="100"/>
-      <c r="I107" s="100"/>
-      <c r="J107" s="100"/>
-      <c r="K107" s="100"/>
-      <c r="L107" s="100"/>
-      <c r="M107" s="101"/>
+      <c r="D107" s="85"/>
+      <c r="E107" s="85"/>
+      <c r="F107" s="85"/>
+      <c r="G107" s="85"/>
+      <c r="H107" s="85"/>
+      <c r="I107" s="85"/>
+      <c r="J107" s="85"/>
+      <c r="K107" s="85"/>
+      <c r="L107" s="85"/>
+      <c r="M107" s="86"/>
       <c r="N107" s="20"/>
       <c r="O107" s="20"/>
       <c r="P107" s="20"/>
@@ -5036,24 +5036,24 @@
         <f t="shared" si="8"/>
         <v>43793</v>
       </c>
-      <c r="C109" s="75" t="s">
+      <c r="C109" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="D109" s="75"/>
-      <c r="E109" s="75"/>
-      <c r="F109" s="75"/>
-      <c r="G109" s="75"/>
-      <c r="H109" s="75"/>
-      <c r="I109" s="75"/>
-      <c r="J109" s="75"/>
-      <c r="K109" s="75"/>
-      <c r="L109" s="75"/>
-      <c r="M109" s="75"/>
-      <c r="N109" s="75"/>
-      <c r="O109" s="75"/>
-      <c r="P109" s="75"/>
-      <c r="Q109" s="75"/>
-      <c r="R109" s="75"/>
+      <c r="D109" s="83"/>
+      <c r="E109" s="83"/>
+      <c r="F109" s="83"/>
+      <c r="G109" s="83"/>
+      <c r="H109" s="83"/>
+      <c r="I109" s="83"/>
+      <c r="J109" s="83"/>
+      <c r="K109" s="83"/>
+      <c r="L109" s="83"/>
+      <c r="M109" s="83"/>
+      <c r="N109" s="83"/>
+      <c r="O109" s="83"/>
+      <c r="P109" s="83"/>
+      <c r="Q109" s="83"/>
+      <c r="R109" s="83"/>
       <c r="S109" s="51"/>
       <c r="T109" s="51"/>
       <c r="U109" s="54"/>
@@ -5128,11 +5128,11 @@
         <f>C102+1</f>
         <v>11</v>
       </c>
-      <c r="D112" s="77" t="s">
+      <c r="D112" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="E112" s="77"/>
-      <c r="F112" s="77"/>
+      <c r="E112" s="88"/>
+      <c r="F112" s="88"/>
       <c r="G112" s="15"/>
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
@@ -5157,13 +5157,13 @@
         <f>B103+7</f>
         <v>43794</v>
       </c>
-      <c r="C113" s="75" t="s">
+      <c r="C113" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D113" s="75"/>
-      <c r="E113" s="75"/>
-      <c r="F113" s="75"/>
-      <c r="G113" s="75"/>
+      <c r="D113" s="83"/>
+      <c r="E113" s="83"/>
+      <c r="F113" s="83"/>
+      <c r="G113" s="83"/>
       <c r="H113" s="79" t="s">
         <v>86</v>
       </c>
@@ -5191,13 +5191,13 @@
         <f t="shared" ref="B114:B119" si="9">B104+7</f>
         <v>43795</v>
       </c>
-      <c r="C114" s="75" t="s">
+      <c r="C114" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D114" s="75"/>
-      <c r="E114" s="75"/>
-      <c r="F114" s="75"/>
-      <c r="G114" s="75"/>
+      <c r="D114" s="83"/>
+      <c r="E114" s="83"/>
+      <c r="F114" s="83"/>
+      <c r="G114" s="83"/>
       <c r="H114" s="79" t="s">
         <v>86</v>
       </c>
@@ -5231,18 +5231,18 @@
       <c r="F115" s="49"/>
       <c r="G115" s="49"/>
       <c r="H115" s="20"/>
-      <c r="I115" s="83" t="s">
+      <c r="I115" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="J115" s="84"/>
-      <c r="K115" s="84"/>
-      <c r="L115" s="84"/>
-      <c r="M115" s="84"/>
-      <c r="N115" s="84"/>
-      <c r="O115" s="84"/>
-      <c r="P115" s="84"/>
-      <c r="Q115" s="84"/>
-      <c r="R115" s="85"/>
+      <c r="J115" s="81"/>
+      <c r="K115" s="81"/>
+      <c r="L115" s="81"/>
+      <c r="M115" s="81"/>
+      <c r="N115" s="81"/>
+      <c r="O115" s="81"/>
+      <c r="P115" s="81"/>
+      <c r="Q115" s="81"/>
+      <c r="R115" s="82"/>
       <c r="S115" s="51"/>
       <c r="T115" s="52" t="s">
         <v>20</v>
@@ -5257,24 +5257,24 @@
         <f t="shared" si="9"/>
         <v>43797</v>
       </c>
-      <c r="C116" s="75" t="s">
+      <c r="C116" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D116" s="75"/>
-      <c r="E116" s="75"/>
-      <c r="F116" s="75"/>
-      <c r="G116" s="75"/>
-      <c r="H116" s="71" t="s">
+      <c r="D116" s="83"/>
+      <c r="E116" s="83"/>
+      <c r="F116" s="83"/>
+      <c r="G116" s="83"/>
+      <c r="H116" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="I116" s="73"/>
-      <c r="J116" s="83" t="s">
+      <c r="I116" s="97"/>
+      <c r="J116" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="K116" s="84"/>
-      <c r="L116" s="84"/>
-      <c r="M116" s="84"/>
-      <c r="N116" s="85"/>
+      <c r="K116" s="81"/>
+      <c r="L116" s="81"/>
+      <c r="M116" s="81"/>
+      <c r="N116" s="82"/>
       <c r="O116" s="20"/>
       <c r="P116" s="20"/>
       <c r="Q116" s="20"/>
@@ -5349,24 +5349,24 @@
         <f t="shared" si="9"/>
         <v>43800</v>
       </c>
-      <c r="C119" s="75" t="s">
+      <c r="C119" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="D119" s="75"/>
-      <c r="E119" s="75"/>
-      <c r="F119" s="75"/>
-      <c r="G119" s="75"/>
-      <c r="H119" s="75"/>
-      <c r="I119" s="75"/>
-      <c r="J119" s="75"/>
-      <c r="K119" s="75"/>
-      <c r="L119" s="75"/>
-      <c r="M119" s="75"/>
-      <c r="N119" s="75"/>
-      <c r="O119" s="75"/>
-      <c r="P119" s="75"/>
-      <c r="Q119" s="75"/>
-      <c r="R119" s="75"/>
+      <c r="D119" s="83"/>
+      <c r="E119" s="83"/>
+      <c r="F119" s="83"/>
+      <c r="G119" s="83"/>
+      <c r="H119" s="83"/>
+      <c r="I119" s="83"/>
+      <c r="J119" s="83"/>
+      <c r="K119" s="83"/>
+      <c r="L119" s="83"/>
+      <c r="M119" s="83"/>
+      <c r="N119" s="83"/>
+      <c r="O119" s="83"/>
+      <c r="P119" s="83"/>
+      <c r="Q119" s="83"/>
+      <c r="R119" s="83"/>
       <c r="S119" s="51"/>
       <c r="T119" s="51"/>
       <c r="U119" s="54"/>
@@ -5441,11 +5441,11 @@
         <f>C112+1</f>
         <v>12</v>
       </c>
-      <c r="D122" s="76" t="s">
+      <c r="D122" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="E122" s="76"/>
-      <c r="F122" s="76"/>
+      <c r="E122" s="112"/>
+      <c r="F122" s="112"/>
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
@@ -5470,24 +5470,24 @@
         <f>B113+7</f>
         <v>43801</v>
       </c>
-      <c r="C123" s="116" t="s">
+      <c r="C123" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="116"/>
-      <c r="E123" s="116"/>
-      <c r="F123" s="116"/>
-      <c r="G123" s="116"/>
-      <c r="H123" s="130" t="s">
+      <c r="D123" s="89"/>
+      <c r="E123" s="89"/>
+      <c r="F123" s="89"/>
+      <c r="G123" s="89"/>
+      <c r="H123" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="I123" s="130"/>
-      <c r="J123" s="130"/>
-      <c r="K123" s="130"/>
-      <c r="L123" s="130"/>
-      <c r="M123" s="130"/>
-      <c r="N123" s="130"/>
-      <c r="O123" s="130"/>
-      <c r="P123" s="130"/>
+      <c r="I123" s="78"/>
+      <c r="J123" s="78"/>
+      <c r="K123" s="78"/>
+      <c r="L123" s="78"/>
+      <c r="M123" s="78"/>
+      <c r="N123" s="78"/>
+      <c r="O123" s="78"/>
+      <c r="P123" s="78"/>
       <c r="Q123" s="20"/>
       <c r="R123" s="20"/>
       <c r="S123" s="51"/>
@@ -5504,24 +5504,24 @@
         <f t="shared" ref="B124:B129" si="10">B114+7</f>
         <v>43802</v>
       </c>
-      <c r="C124" s="116" t="s">
+      <c r="C124" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="D124" s="116"/>
-      <c r="E124" s="116"/>
-      <c r="F124" s="116"/>
-      <c r="G124" s="116"/>
-      <c r="H124" s="130" t="s">
+      <c r="D124" s="89"/>
+      <c r="E124" s="89"/>
+      <c r="F124" s="89"/>
+      <c r="G124" s="89"/>
+      <c r="H124" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="I124" s="130"/>
-      <c r="J124" s="130"/>
-      <c r="K124" s="130"/>
-      <c r="L124" s="130"/>
-      <c r="M124" s="130"/>
-      <c r="N124" s="130"/>
-      <c r="O124" s="130"/>
-      <c r="P124" s="130"/>
+      <c r="I124" s="78"/>
+      <c r="J124" s="78"/>
+      <c r="K124" s="78"/>
+      <c r="L124" s="78"/>
+      <c r="M124" s="78"/>
+      <c r="N124" s="78"/>
+      <c r="O124" s="78"/>
+      <c r="P124" s="78"/>
       <c r="Q124" s="20"/>
       <c r="R124" s="20"/>
       <c r="S124" s="51"/>
@@ -5538,24 +5538,24 @@
         <f t="shared" si="10"/>
         <v>43803</v>
       </c>
-      <c r="C125" s="130" t="s">
+      <c r="C125" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="D125" s="130"/>
-      <c r="E125" s="130"/>
-      <c r="F125" s="130"/>
-      <c r="G125" s="130"/>
-      <c r="H125" s="130"/>
-      <c r="I125" s="130"/>
-      <c r="J125" s="130"/>
-      <c r="K125" s="130"/>
+      <c r="D125" s="78"/>
+      <c r="E125" s="78"/>
+      <c r="F125" s="78"/>
+      <c r="G125" s="78"/>
+      <c r="H125" s="78"/>
+      <c r="I125" s="78"/>
+      <c r="J125" s="78"/>
+      <c r="K125" s="78"/>
       <c r="L125" s="49"/>
-      <c r="M125" s="130" t="s">
+      <c r="M125" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="N125" s="130"/>
-      <c r="O125" s="130"/>
-      <c r="P125" s="130"/>
+      <c r="N125" s="78"/>
+      <c r="O125" s="78"/>
+      <c r="P125" s="78"/>
       <c r="Q125" s="49"/>
       <c r="R125" s="49"/>
       <c r="S125" s="51"/>
@@ -5572,24 +5572,24 @@
         <f t="shared" si="10"/>
         <v>43804</v>
       </c>
-      <c r="C126" s="117" t="s">
+      <c r="C126" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="D126" s="117"/>
-      <c r="E126" s="117"/>
-      <c r="F126" s="117"/>
-      <c r="G126" s="117"/>
-      <c r="H126" s="130" t="s">
+      <c r="D126" s="90"/>
+      <c r="E126" s="90"/>
+      <c r="F126" s="90"/>
+      <c r="G126" s="90"/>
+      <c r="H126" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="I126" s="130"/>
-      <c r="J126" s="130"/>
-      <c r="K126" s="130"/>
-      <c r="L126" s="130"/>
-      <c r="M126" s="130"/>
-      <c r="N126" s="130"/>
-      <c r="O126" s="130"/>
-      <c r="P126" s="130"/>
+      <c r="I126" s="78"/>
+      <c r="J126" s="78"/>
+      <c r="K126" s="78"/>
+      <c r="L126" s="78"/>
+      <c r="M126" s="78"/>
+      <c r="N126" s="78"/>
+      <c r="O126" s="78"/>
+      <c r="P126" s="78"/>
       <c r="Q126" s="20"/>
       <c r="R126" s="20"/>
       <c r="S126" s="51"/>
@@ -5662,24 +5662,24 @@
         <f t="shared" si="10"/>
         <v>43807</v>
       </c>
-      <c r="C129" s="75" t="s">
+      <c r="C129" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="D129" s="75"/>
-      <c r="E129" s="75"/>
-      <c r="F129" s="75"/>
-      <c r="G129" s="75"/>
-      <c r="H129" s="75"/>
-      <c r="I129" s="75"/>
-      <c r="J129" s="75"/>
-      <c r="K129" s="75"/>
-      <c r="L129" s="75"/>
-      <c r="M129" s="75"/>
-      <c r="N129" s="75"/>
-      <c r="O129" s="75"/>
-      <c r="P129" s="75"/>
-      <c r="Q129" s="75"/>
-      <c r="R129" s="75"/>
+      <c r="D129" s="83"/>
+      <c r="E129" s="83"/>
+      <c r="F129" s="83"/>
+      <c r="G129" s="83"/>
+      <c r="H129" s="83"/>
+      <c r="I129" s="83"/>
+      <c r="J129" s="83"/>
+      <c r="K129" s="83"/>
+      <c r="L129" s="83"/>
+      <c r="M129" s="83"/>
+      <c r="N129" s="83"/>
+      <c r="O129" s="83"/>
+      <c r="P129" s="83"/>
+      <c r="Q129" s="83"/>
+      <c r="R129" s="83"/>
       <c r="S129" s="51"/>
       <c r="T129" s="51"/>
       <c r="U129" s="54"/>
@@ -5781,24 +5781,24 @@
         <f>B123+7</f>
         <v>43808</v>
       </c>
-      <c r="C133" s="75" t="s">
+      <c r="C133" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D133" s="75"/>
-      <c r="E133" s="75"/>
-      <c r="F133" s="75"/>
-      <c r="G133" s="75"/>
-      <c r="H133" s="74" t="s">
+      <c r="D133" s="83"/>
+      <c r="E133" s="83"/>
+      <c r="F133" s="83"/>
+      <c r="G133" s="83"/>
+      <c r="H133" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="I133" s="74"/>
-      <c r="J133" s="74"/>
-      <c r="K133" s="74"/>
-      <c r="L133" s="74"/>
-      <c r="M133" s="74"/>
-      <c r="N133" s="74"/>
-      <c r="O133" s="74"/>
-      <c r="P133" s="74"/>
+      <c r="I133" s="76"/>
+      <c r="J133" s="76"/>
+      <c r="K133" s="76"/>
+      <c r="L133" s="76"/>
+      <c r="M133" s="76"/>
+      <c r="N133" s="76"/>
+      <c r="O133" s="76"/>
+      <c r="P133" s="76"/>
       <c r="Q133" s="20"/>
       <c r="R133" s="20"/>
       <c r="S133" s="51"/>
@@ -5815,24 +5815,24 @@
         <f t="shared" ref="B134:B139" si="11">B124+7</f>
         <v>43809</v>
       </c>
-      <c r="C134" s="75" t="s">
+      <c r="C134" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D134" s="75"/>
-      <c r="E134" s="75"/>
-      <c r="F134" s="75"/>
-      <c r="G134" s="75"/>
-      <c r="H134" s="78" t="s">
+      <c r="D134" s="83"/>
+      <c r="E134" s="83"/>
+      <c r="F134" s="83"/>
+      <c r="G134" s="83"/>
+      <c r="H134" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="I134" s="78"/>
-      <c r="J134" s="78"/>
-      <c r="K134" s="78"/>
-      <c r="L134" s="78"/>
-      <c r="M134" s="78"/>
-      <c r="N134" s="78"/>
-      <c r="O134" s="78"/>
-      <c r="P134" s="78"/>
+      <c r="I134" s="127"/>
+      <c r="J134" s="127"/>
+      <c r="K134" s="127"/>
+      <c r="L134" s="127"/>
+      <c r="M134" s="127"/>
+      <c r="N134" s="127"/>
+      <c r="O134" s="127"/>
+      <c r="P134" s="127"/>
       <c r="Q134" s="20"/>
       <c r="R134" s="20"/>
       <c r="S134" s="51"/>
@@ -5849,24 +5849,24 @@
         <f t="shared" si="11"/>
         <v>43810</v>
       </c>
-      <c r="C135" s="80" t="s">
+      <c r="C135" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="D135" s="81"/>
-      <c r="E135" s="81"/>
-      <c r="F135" s="81"/>
-      <c r="G135" s="81"/>
-      <c r="H135" s="81"/>
-      <c r="I135" s="81"/>
-      <c r="J135" s="81"/>
-      <c r="K135" s="82"/>
+      <c r="D135" s="75"/>
+      <c r="E135" s="75"/>
+      <c r="F135" s="75"/>
+      <c r="G135" s="75"/>
+      <c r="H135" s="75"/>
+      <c r="I135" s="75"/>
+      <c r="J135" s="75"/>
+      <c r="K135" s="126"/>
       <c r="L135" s="49"/>
-      <c r="M135" s="78" t="s">
+      <c r="M135" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="N135" s="78"/>
-      <c r="O135" s="78"/>
-      <c r="P135" s="78"/>
+      <c r="N135" s="127"/>
+      <c r="O135" s="127"/>
+      <c r="P135" s="127"/>
       <c r="Q135" s="49"/>
       <c r="R135" s="49"/>
       <c r="S135" s="51"/>
@@ -5883,13 +5883,13 @@
         <f t="shared" si="11"/>
         <v>43811</v>
       </c>
-      <c r="C136" s="75" t="s">
+      <c r="C136" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="D136" s="75"/>
-      <c r="E136" s="75"/>
-      <c r="F136" s="75"/>
-      <c r="G136" s="75"/>
+      <c r="D136" s="83"/>
+      <c r="E136" s="83"/>
+      <c r="F136" s="83"/>
+      <c r="G136" s="83"/>
       <c r="H136" s="20"/>
       <c r="I136" s="49"/>
       <c r="J136" s="49"/>
@@ -5971,24 +5971,24 @@
         <f t="shared" si="11"/>
         <v>43814</v>
       </c>
-      <c r="C139" s="75" t="s">
+      <c r="C139" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="D139" s="75"/>
-      <c r="E139" s="75"/>
-      <c r="F139" s="75"/>
-      <c r="G139" s="75"/>
-      <c r="H139" s="75"/>
-      <c r="I139" s="75"/>
-      <c r="J139" s="75"/>
-      <c r="K139" s="75"/>
-      <c r="L139" s="75"/>
-      <c r="M139" s="75"/>
-      <c r="N139" s="75"/>
-      <c r="O139" s="75"/>
-      <c r="P139" s="75"/>
-      <c r="Q139" s="75"/>
-      <c r="R139" s="75"/>
+      <c r="D139" s="83"/>
+      <c r="E139" s="83"/>
+      <c r="F139" s="83"/>
+      <c r="G139" s="83"/>
+      <c r="H139" s="83"/>
+      <c r="I139" s="83"/>
+      <c r="J139" s="83"/>
+      <c r="K139" s="83"/>
+      <c r="L139" s="83"/>
+      <c r="M139" s="83"/>
+      <c r="N139" s="83"/>
+      <c r="O139" s="83"/>
+      <c r="P139" s="83"/>
+      <c r="Q139" s="83"/>
+      <c r="R139" s="83"/>
       <c r="S139" s="51"/>
       <c r="T139" s="51"/>
       <c r="U139" s="54"/>
@@ -6083,19 +6083,19 @@
         <f>C132+1</f>
         <v>14</v>
       </c>
-      <c r="D142" s="77" t="s">
+      <c r="D142" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="E142" s="77"/>
-      <c r="F142" s="77"/>
+      <c r="E142" s="88"/>
+      <c r="F142" s="88"/>
       <c r="G142" s="15"/>
-      <c r="H142" s="77" t="s">
+      <c r="H142" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="I142" s="77"/>
-      <c r="J142" s="77"/>
-      <c r="K142" s="77"/>
-      <c r="L142" s="77"/>
+      <c r="I142" s="88"/>
+      <c r="J142" s="88"/>
+      <c r="K142" s="88"/>
+      <c r="L142" s="88"/>
       <c r="M142" s="19"/>
       <c r="N142" s="19"/>
       <c r="O142" s="19"/>
@@ -6114,24 +6114,24 @@
         <f>B133+7</f>
         <v>43815</v>
       </c>
-      <c r="C143" s="74" t="s">
+      <c r="C143" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="D143" s="74"/>
-      <c r="E143" s="74"/>
-      <c r="F143" s="131" t="s">
+      <c r="D143" s="76"/>
+      <c r="E143" s="76"/>
+      <c r="F143" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="G143" s="81"/>
-      <c r="H143" s="81"/>
-      <c r="I143" s="81"/>
-      <c r="J143" s="81"/>
-      <c r="K143" s="81"/>
-      <c r="L143" s="81"/>
-      <c r="M143" s="81"/>
-      <c r="N143" s="81"/>
-      <c r="O143" s="81"/>
-      <c r="P143" s="82"/>
+      <c r="G143" s="75"/>
+      <c r="H143" s="75"/>
+      <c r="I143" s="75"/>
+      <c r="J143" s="75"/>
+      <c r="K143" s="75"/>
+      <c r="L143" s="75"/>
+      <c r="M143" s="75"/>
+      <c r="N143" s="75"/>
+      <c r="O143" s="75"/>
+      <c r="P143" s="126"/>
       <c r="Q143" s="49"/>
       <c r="R143" s="49"/>
       <c r="S143" s="51"/>
@@ -6148,22 +6148,22 @@
         <f t="shared" ref="B144:B149" si="12">B134+7</f>
         <v>43816</v>
       </c>
-      <c r="C144" s="122" t="s">
+      <c r="C144" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="D144" s="123"/>
-      <c r="E144" s="123"/>
-      <c r="F144" s="123"/>
-      <c r="G144" s="123"/>
-      <c r="H144" s="123"/>
-      <c r="I144" s="123"/>
-      <c r="J144" s="123"/>
-      <c r="K144" s="123"/>
-      <c r="L144" s="123"/>
-      <c r="M144" s="123"/>
-      <c r="N144" s="123"/>
-      <c r="O144" s="123"/>
-      <c r="P144" s="124"/>
+      <c r="D144" s="72"/>
+      <c r="E144" s="72"/>
+      <c r="F144" s="72"/>
+      <c r="G144" s="72"/>
+      <c r="H144" s="72"/>
+      <c r="I144" s="72"/>
+      <c r="J144" s="72"/>
+      <c r="K144" s="72"/>
+      <c r="L144" s="72"/>
+      <c r="M144" s="72"/>
+      <c r="N144" s="72"/>
+      <c r="O144" s="72"/>
+      <c r="P144" s="73"/>
       <c r="Q144" s="20"/>
       <c r="R144" s="20"/>
       <c r="S144" s="51"/>
@@ -6180,22 +6180,22 @@
         <f t="shared" si="12"/>
         <v>43817</v>
       </c>
-      <c r="C145" s="122" t="s">
+      <c r="C145" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="D145" s="123"/>
-      <c r="E145" s="123"/>
-      <c r="F145" s="123"/>
-      <c r="G145" s="123"/>
-      <c r="H145" s="123"/>
-      <c r="I145" s="123"/>
-      <c r="J145" s="123"/>
-      <c r="K145" s="123"/>
-      <c r="L145" s="123"/>
-      <c r="M145" s="123"/>
-      <c r="N145" s="123"/>
-      <c r="O145" s="123"/>
-      <c r="P145" s="124"/>
+      <c r="D145" s="72"/>
+      <c r="E145" s="72"/>
+      <c r="F145" s="72"/>
+      <c r="G145" s="72"/>
+      <c r="H145" s="72"/>
+      <c r="I145" s="72"/>
+      <c r="J145" s="72"/>
+      <c r="K145" s="72"/>
+      <c r="L145" s="72"/>
+      <c r="M145" s="72"/>
+      <c r="N145" s="72"/>
+      <c r="O145" s="72"/>
+      <c r="P145" s="73"/>
       <c r="Q145" s="49"/>
       <c r="R145" s="49"/>
       <c r="S145" s="51"/>
@@ -6212,18 +6212,18 @@
         <f t="shared" si="12"/>
         <v>43818</v>
       </c>
-      <c r="C146" s="80" t="s">
+      <c r="C146" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="D146" s="81"/>
-      <c r="E146" s="81"/>
-      <c r="F146" s="81"/>
-      <c r="G146" s="81"/>
-      <c r="H146" s="81"/>
-      <c r="I146" s="81"/>
-      <c r="J146" s="81"/>
-      <c r="K146" s="81"/>
-      <c r="L146" s="81"/>
+      <c r="D146" s="75"/>
+      <c r="E146" s="75"/>
+      <c r="F146" s="75"/>
+      <c r="G146" s="75"/>
+      <c r="H146" s="75"/>
+      <c r="I146" s="75"/>
+      <c r="J146" s="75"/>
+      <c r="K146" s="75"/>
+      <c r="L146" s="75"/>
       <c r="M146" s="20"/>
       <c r="N146" s="20"/>
       <c r="O146" s="20"/>
@@ -6437,22 +6437,22 @@
         <f>B143+7</f>
         <v>43822</v>
       </c>
-      <c r="C153" s="122" t="s">
+      <c r="C153" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="D153" s="123"/>
-      <c r="E153" s="123"/>
-      <c r="F153" s="123"/>
-      <c r="G153" s="123"/>
-      <c r="H153" s="123"/>
-      <c r="I153" s="123"/>
-      <c r="J153" s="123"/>
-      <c r="K153" s="123"/>
-      <c r="L153" s="123"/>
-      <c r="M153" s="123"/>
-      <c r="N153" s="123"/>
-      <c r="O153" s="123"/>
-      <c r="P153" s="124"/>
+      <c r="D153" s="72"/>
+      <c r="E153" s="72"/>
+      <c r="F153" s="72"/>
+      <c r="G153" s="72"/>
+      <c r="H153" s="72"/>
+      <c r="I153" s="72"/>
+      <c r="J153" s="72"/>
+      <c r="K153" s="72"/>
+      <c r="L153" s="72"/>
+      <c r="M153" s="72"/>
+      <c r="N153" s="72"/>
+      <c r="O153" s="72"/>
+      <c r="P153" s="73"/>
       <c r="Q153" s="49"/>
       <c r="R153" s="49"/>
       <c r="S153" s="51"/>
@@ -6469,22 +6469,22 @@
         <f t="shared" ref="B154:B159" si="13">B144+7</f>
         <v>43823</v>
       </c>
-      <c r="C154" s="122" t="s">
+      <c r="C154" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="D154" s="123"/>
-      <c r="E154" s="123"/>
-      <c r="F154" s="123"/>
-      <c r="G154" s="123"/>
-      <c r="H154" s="123"/>
-      <c r="I154" s="123"/>
-      <c r="J154" s="123"/>
-      <c r="K154" s="123"/>
-      <c r="L154" s="123"/>
-      <c r="M154" s="123"/>
-      <c r="N154" s="123"/>
-      <c r="O154" s="123"/>
-      <c r="P154" s="124"/>
+      <c r="D154" s="72"/>
+      <c r="E154" s="72"/>
+      <c r="F154" s="72"/>
+      <c r="G154" s="72"/>
+      <c r="H154" s="72"/>
+      <c r="I154" s="72"/>
+      <c r="J154" s="72"/>
+      <c r="K154" s="72"/>
+      <c r="L154" s="72"/>
+      <c r="M154" s="72"/>
+      <c r="N154" s="72"/>
+      <c r="O154" s="72"/>
+      <c r="P154" s="73"/>
       <c r="Q154" s="20"/>
       <c r="R154" s="20"/>
       <c r="S154" s="51"/>
@@ -6501,24 +6501,24 @@
         <f t="shared" si="13"/>
         <v>43824</v>
       </c>
-      <c r="C155" s="115" t="s">
+      <c r="C155" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="D155" s="115"/>
-      <c r="E155" s="115"/>
-      <c r="F155" s="115"/>
-      <c r="G155" s="115"/>
-      <c r="H155" s="115"/>
-      <c r="I155" s="115"/>
-      <c r="J155" s="115"/>
-      <c r="K155" s="115"/>
-      <c r="L155" s="115"/>
-      <c r="M155" s="115"/>
-      <c r="N155" s="115"/>
-      <c r="O155" s="115"/>
-      <c r="P155" s="115"/>
-      <c r="Q155" s="115"/>
-      <c r="R155" s="115"/>
+      <c r="D155" s="87"/>
+      <c r="E155" s="87"/>
+      <c r="F155" s="87"/>
+      <c r="G155" s="87"/>
+      <c r="H155" s="87"/>
+      <c r="I155" s="87"/>
+      <c r="J155" s="87"/>
+      <c r="K155" s="87"/>
+      <c r="L155" s="87"/>
+      <c r="M155" s="87"/>
+      <c r="N155" s="87"/>
+      <c r="O155" s="87"/>
+      <c r="P155" s="87"/>
+      <c r="Q155" s="87"/>
+      <c r="R155" s="87"/>
       <c r="S155" s="51"/>
       <c r="T155" s="52" t="s">
         <v>20</v>
@@ -6533,22 +6533,22 @@
         <f t="shared" si="13"/>
         <v>43825</v>
       </c>
-      <c r="C156" s="115"/>
-      <c r="D156" s="115"/>
-      <c r="E156" s="115"/>
-      <c r="F156" s="115"/>
-      <c r="G156" s="115"/>
-      <c r="H156" s="115"/>
-      <c r="I156" s="115"/>
-      <c r="J156" s="115"/>
-      <c r="K156" s="115"/>
-      <c r="L156" s="115"/>
-      <c r="M156" s="115"/>
-      <c r="N156" s="115"/>
-      <c r="O156" s="115"/>
-      <c r="P156" s="115"/>
-      <c r="Q156" s="115"/>
-      <c r="R156" s="115"/>
+      <c r="C156" s="87"/>
+      <c r="D156" s="87"/>
+      <c r="E156" s="87"/>
+      <c r="F156" s="87"/>
+      <c r="G156" s="87"/>
+      <c r="H156" s="87"/>
+      <c r="I156" s="87"/>
+      <c r="J156" s="87"/>
+      <c r="K156" s="87"/>
+      <c r="L156" s="87"/>
+      <c r="M156" s="87"/>
+      <c r="N156" s="87"/>
+      <c r="O156" s="87"/>
+      <c r="P156" s="87"/>
+      <c r="Q156" s="87"/>
+      <c r="R156" s="87"/>
       <c r="S156" s="51"/>
       <c r="T156" s="18" t="s">
         <v>21</v>
@@ -6563,22 +6563,22 @@
         <f t="shared" si="13"/>
         <v>43826</v>
       </c>
-      <c r="C157" s="115"/>
-      <c r="D157" s="115"/>
-      <c r="E157" s="115"/>
-      <c r="F157" s="115"/>
-      <c r="G157" s="115"/>
-      <c r="H157" s="115"/>
-      <c r="I157" s="115"/>
-      <c r="J157" s="115"/>
-      <c r="K157" s="115"/>
-      <c r="L157" s="115"/>
-      <c r="M157" s="115"/>
-      <c r="N157" s="115"/>
-      <c r="O157" s="115"/>
-      <c r="P157" s="115"/>
-      <c r="Q157" s="115"/>
-      <c r="R157" s="115"/>
+      <c r="C157" s="87"/>
+      <c r="D157" s="87"/>
+      <c r="E157" s="87"/>
+      <c r="F157" s="87"/>
+      <c r="G157" s="87"/>
+      <c r="H157" s="87"/>
+      <c r="I157" s="87"/>
+      <c r="J157" s="87"/>
+      <c r="K157" s="87"/>
+      <c r="L157" s="87"/>
+      <c r="M157" s="87"/>
+      <c r="N157" s="87"/>
+      <c r="O157" s="87"/>
+      <c r="P157" s="87"/>
+      <c r="Q157" s="87"/>
+      <c r="R157" s="87"/>
       <c r="S157" s="51"/>
       <c r="T157" s="51"/>
       <c r="U157" s="54"/>
@@ -6591,22 +6591,22 @@
         <f t="shared" si="13"/>
         <v>43827</v>
       </c>
-      <c r="C158" s="115"/>
-      <c r="D158" s="115"/>
-      <c r="E158" s="115"/>
-      <c r="F158" s="115"/>
-      <c r="G158" s="115"/>
-      <c r="H158" s="115"/>
-      <c r="I158" s="115"/>
-      <c r="J158" s="115"/>
-      <c r="K158" s="115"/>
-      <c r="L158" s="115"/>
-      <c r="M158" s="115"/>
-      <c r="N158" s="115"/>
-      <c r="O158" s="115"/>
-      <c r="P158" s="115"/>
-      <c r="Q158" s="115"/>
-      <c r="R158" s="115"/>
+      <c r="C158" s="87"/>
+      <c r="D158" s="87"/>
+      <c r="E158" s="87"/>
+      <c r="F158" s="87"/>
+      <c r="G158" s="87"/>
+      <c r="H158" s="87"/>
+      <c r="I158" s="87"/>
+      <c r="J158" s="87"/>
+      <c r="K158" s="87"/>
+      <c r="L158" s="87"/>
+      <c r="M158" s="87"/>
+      <c r="N158" s="87"/>
+      <c r="O158" s="87"/>
+      <c r="P158" s="87"/>
+      <c r="Q158" s="87"/>
+      <c r="R158" s="87"/>
       <c r="S158" s="51"/>
       <c r="T158" s="51"/>
       <c r="U158" s="54"/>
@@ -6619,22 +6619,22 @@
         <f t="shared" si="13"/>
         <v>43828</v>
       </c>
-      <c r="C159" s="115"/>
-      <c r="D159" s="115"/>
-      <c r="E159" s="115"/>
-      <c r="F159" s="115"/>
-      <c r="G159" s="115"/>
-      <c r="H159" s="115"/>
-      <c r="I159" s="115"/>
-      <c r="J159" s="115"/>
-      <c r="K159" s="115"/>
-      <c r="L159" s="115"/>
-      <c r="M159" s="115"/>
-      <c r="N159" s="115"/>
-      <c r="O159" s="115"/>
-      <c r="P159" s="115"/>
-      <c r="Q159" s="115"/>
-      <c r="R159" s="115"/>
+      <c r="C159" s="87"/>
+      <c r="D159" s="87"/>
+      <c r="E159" s="87"/>
+      <c r="F159" s="87"/>
+      <c r="G159" s="87"/>
+      <c r="H159" s="87"/>
+      <c r="I159" s="87"/>
+      <c r="J159" s="87"/>
+      <c r="K159" s="87"/>
+      <c r="L159" s="87"/>
+      <c r="M159" s="87"/>
+      <c r="N159" s="87"/>
+      <c r="O159" s="87"/>
+      <c r="P159" s="87"/>
+      <c r="Q159" s="87"/>
+      <c r="R159" s="87"/>
       <c r="S159" s="51"/>
       <c r="T159" s="51"/>
       <c r="U159" s="54"/>
@@ -6756,24 +6756,24 @@
         <f>B153+7</f>
         <v>43829</v>
       </c>
-      <c r="C163" s="115" t="s">
+      <c r="C163" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="D163" s="115"/>
-      <c r="E163" s="115"/>
-      <c r="F163" s="115"/>
-      <c r="G163" s="115"/>
-      <c r="H163" s="115"/>
-      <c r="I163" s="115"/>
-      <c r="J163" s="115"/>
-      <c r="K163" s="115"/>
-      <c r="L163" s="115"/>
-      <c r="M163" s="115"/>
-      <c r="N163" s="115"/>
-      <c r="O163" s="115"/>
-      <c r="P163" s="115"/>
-      <c r="Q163" s="115"/>
-      <c r="R163" s="115"/>
+      <c r="D163" s="87"/>
+      <c r="E163" s="87"/>
+      <c r="F163" s="87"/>
+      <c r="G163" s="87"/>
+      <c r="H163" s="87"/>
+      <c r="I163" s="87"/>
+      <c r="J163" s="87"/>
+      <c r="K163" s="87"/>
+      <c r="L163" s="87"/>
+      <c r="M163" s="87"/>
+      <c r="N163" s="87"/>
+      <c r="O163" s="87"/>
+      <c r="P163" s="87"/>
+      <c r="Q163" s="87"/>
+      <c r="R163" s="87"/>
       <c r="S163" s="51"/>
       <c r="T163" s="30" t="s">
         <v>22</v>
@@ -6788,22 +6788,22 @@
         <f t="shared" ref="B164:B169" si="14">B154+7</f>
         <v>43830</v>
       </c>
-      <c r="C164" s="115"/>
-      <c r="D164" s="115"/>
-      <c r="E164" s="115"/>
-      <c r="F164" s="115"/>
-      <c r="G164" s="115"/>
-      <c r="H164" s="115"/>
-      <c r="I164" s="115"/>
-      <c r="J164" s="115"/>
-      <c r="K164" s="115"/>
-      <c r="L164" s="115"/>
-      <c r="M164" s="115"/>
-      <c r="N164" s="115"/>
-      <c r="O164" s="115"/>
-      <c r="P164" s="115"/>
-      <c r="Q164" s="115"/>
-      <c r="R164" s="115"/>
+      <c r="C164" s="87"/>
+      <c r="D164" s="87"/>
+      <c r="E164" s="87"/>
+      <c r="F164" s="87"/>
+      <c r="G164" s="87"/>
+      <c r="H164" s="87"/>
+      <c r="I164" s="87"/>
+      <c r="J164" s="87"/>
+      <c r="K164" s="87"/>
+      <c r="L164" s="87"/>
+      <c r="M164" s="87"/>
+      <c r="N164" s="87"/>
+      <c r="O164" s="87"/>
+      <c r="P164" s="87"/>
+      <c r="Q164" s="87"/>
+      <c r="R164" s="87"/>
       <c r="S164" s="51"/>
       <c r="T164" s="53" t="s">
         <v>19</v>
@@ -6818,22 +6818,22 @@
         <f t="shared" si="14"/>
         <v>43831</v>
       </c>
-      <c r="C165" s="115"/>
-      <c r="D165" s="115"/>
-      <c r="E165" s="115"/>
-      <c r="F165" s="115"/>
-      <c r="G165" s="115"/>
-      <c r="H165" s="115"/>
-      <c r="I165" s="115"/>
-      <c r="J165" s="115"/>
-      <c r="K165" s="115"/>
-      <c r="L165" s="115"/>
-      <c r="M165" s="115"/>
-      <c r="N165" s="115"/>
-      <c r="O165" s="115"/>
-      <c r="P165" s="115"/>
-      <c r="Q165" s="115"/>
-      <c r="R165" s="115"/>
+      <c r="C165" s="87"/>
+      <c r="D165" s="87"/>
+      <c r="E165" s="87"/>
+      <c r="F165" s="87"/>
+      <c r="G165" s="87"/>
+      <c r="H165" s="87"/>
+      <c r="I165" s="87"/>
+      <c r="J165" s="87"/>
+      <c r="K165" s="87"/>
+      <c r="L165" s="87"/>
+      <c r="M165" s="87"/>
+      <c r="N165" s="87"/>
+      <c r="O165" s="87"/>
+      <c r="P165" s="87"/>
+      <c r="Q165" s="87"/>
+      <c r="R165" s="87"/>
       <c r="S165" s="51"/>
       <c r="T165" s="52" t="s">
         <v>20</v>
@@ -6848,22 +6848,22 @@
         <f t="shared" si="14"/>
         <v>43832</v>
       </c>
-      <c r="C166" s="122" t="s">
+      <c r="C166" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="D166" s="123"/>
-      <c r="E166" s="123"/>
-      <c r="F166" s="123"/>
-      <c r="G166" s="123"/>
-      <c r="H166" s="123"/>
-      <c r="I166" s="123"/>
-      <c r="J166" s="123"/>
-      <c r="K166" s="123"/>
-      <c r="L166" s="123"/>
-      <c r="M166" s="123"/>
-      <c r="N166" s="123"/>
-      <c r="O166" s="123"/>
-      <c r="P166" s="124"/>
+      <c r="D166" s="72"/>
+      <c r="E166" s="72"/>
+      <c r="F166" s="72"/>
+      <c r="G166" s="72"/>
+      <c r="H166" s="72"/>
+      <c r="I166" s="72"/>
+      <c r="J166" s="72"/>
+      <c r="K166" s="72"/>
+      <c r="L166" s="72"/>
+      <c r="M166" s="72"/>
+      <c r="N166" s="72"/>
+      <c r="O166" s="72"/>
+      <c r="P166" s="73"/>
       <c r="Q166" s="49"/>
       <c r="R166" s="20"/>
       <c r="S166" s="51"/>
@@ -6880,22 +6880,22 @@
         <f t="shared" si="14"/>
         <v>43833</v>
       </c>
-      <c r="C167" s="122" t="s">
+      <c r="C167" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="D167" s="123"/>
-      <c r="E167" s="123"/>
-      <c r="F167" s="123"/>
-      <c r="G167" s="123"/>
-      <c r="H167" s="123"/>
-      <c r="I167" s="123"/>
-      <c r="J167" s="123"/>
-      <c r="K167" s="123"/>
-      <c r="L167" s="123"/>
-      <c r="M167" s="123"/>
-      <c r="N167" s="123"/>
-      <c r="O167" s="123"/>
-      <c r="P167" s="124"/>
+      <c r="D167" s="72"/>
+      <c r="E167" s="72"/>
+      <c r="F167" s="72"/>
+      <c r="G167" s="72"/>
+      <c r="H167" s="72"/>
+      <c r="I167" s="72"/>
+      <c r="J167" s="72"/>
+      <c r="K167" s="72"/>
+      <c r="L167" s="72"/>
+      <c r="M167" s="72"/>
+      <c r="N167" s="72"/>
+      <c r="O167" s="72"/>
+      <c r="P167" s="73"/>
       <c r="Q167" s="49"/>
       <c r="R167" s="49"/>
       <c r="S167" s="51"/>
@@ -6910,22 +6910,22 @@
         <f t="shared" si="14"/>
         <v>43834</v>
       </c>
-      <c r="C168" s="122" t="s">
+      <c r="C168" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="D168" s="123"/>
-      <c r="E168" s="123"/>
-      <c r="F168" s="123"/>
-      <c r="G168" s="123"/>
-      <c r="H168" s="123"/>
-      <c r="I168" s="123"/>
-      <c r="J168" s="123"/>
-      <c r="K168" s="123"/>
-      <c r="L168" s="123"/>
-      <c r="M168" s="123"/>
-      <c r="N168" s="123"/>
-      <c r="O168" s="123"/>
-      <c r="P168" s="124"/>
+      <c r="D168" s="72"/>
+      <c r="E168" s="72"/>
+      <c r="F168" s="72"/>
+      <c r="G168" s="72"/>
+      <c r="H168" s="72"/>
+      <c r="I168" s="72"/>
+      <c r="J168" s="72"/>
+      <c r="K168" s="72"/>
+      <c r="L168" s="72"/>
+      <c r="M168" s="72"/>
+      <c r="N168" s="72"/>
+      <c r="O168" s="72"/>
+      <c r="P168" s="73"/>
       <c r="Q168" s="49"/>
       <c r="R168" s="49"/>
       <c r="S168" s="51"/>
@@ -7057,22 +7057,22 @@
         <f>B163+7</f>
         <v>43836</v>
       </c>
-      <c r="C173" s="122" t="s">
+      <c r="C173" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="D173" s="123"/>
-      <c r="E173" s="123"/>
-      <c r="F173" s="123"/>
-      <c r="G173" s="123"/>
-      <c r="H173" s="123"/>
-      <c r="I173" s="123"/>
-      <c r="J173" s="123"/>
-      <c r="K173" s="123"/>
-      <c r="L173" s="123"/>
-      <c r="M173" s="123"/>
-      <c r="N173" s="123"/>
-      <c r="O173" s="123"/>
-      <c r="P173" s="124"/>
+      <c r="D173" s="72"/>
+      <c r="E173" s="72"/>
+      <c r="F173" s="72"/>
+      <c r="G173" s="72"/>
+      <c r="H173" s="72"/>
+      <c r="I173" s="72"/>
+      <c r="J173" s="72"/>
+      <c r="K173" s="72"/>
+      <c r="L173" s="72"/>
+      <c r="M173" s="72"/>
+      <c r="N173" s="72"/>
+      <c r="O173" s="72"/>
+      <c r="P173" s="73"/>
       <c r="Q173" s="49"/>
       <c r="R173" s="49"/>
       <c r="S173" s="51"/>
@@ -7089,22 +7089,22 @@
         <f t="shared" ref="B174:B179" si="15">B164+7</f>
         <v>43837</v>
       </c>
-      <c r="C174" s="122" t="s">
+      <c r="C174" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="D174" s="123"/>
-      <c r="E174" s="123"/>
-      <c r="F174" s="123"/>
-      <c r="G174" s="123"/>
-      <c r="H174" s="123"/>
-      <c r="I174" s="123"/>
-      <c r="J174" s="123"/>
-      <c r="K174" s="123"/>
-      <c r="L174" s="123"/>
-      <c r="M174" s="123"/>
-      <c r="N174" s="123"/>
-      <c r="O174" s="123"/>
-      <c r="P174" s="124"/>
+      <c r="D174" s="72"/>
+      <c r="E174" s="72"/>
+      <c r="F174" s="72"/>
+      <c r="G174" s="72"/>
+      <c r="H174" s="72"/>
+      <c r="I174" s="72"/>
+      <c r="J174" s="72"/>
+      <c r="K174" s="72"/>
+      <c r="L174" s="72"/>
+      <c r="M174" s="72"/>
+      <c r="N174" s="72"/>
+      <c r="O174" s="72"/>
+      <c r="P174" s="73"/>
       <c r="Q174" s="49"/>
       <c r="R174" s="49"/>
       <c r="S174" s="51"/>
@@ -7121,22 +7121,22 @@
         <f t="shared" si="15"/>
         <v>43838</v>
       </c>
-      <c r="C175" s="122" t="s">
+      <c r="C175" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="D175" s="123"/>
-      <c r="E175" s="123"/>
-      <c r="F175" s="123"/>
-      <c r="G175" s="123"/>
-      <c r="H175" s="123"/>
-      <c r="I175" s="123"/>
-      <c r="J175" s="123"/>
-      <c r="K175" s="123"/>
-      <c r="L175" s="123"/>
-      <c r="M175" s="123"/>
-      <c r="N175" s="123"/>
-      <c r="O175" s="123"/>
-      <c r="P175" s="124"/>
+      <c r="D175" s="72"/>
+      <c r="E175" s="72"/>
+      <c r="F175" s="72"/>
+      <c r="G175" s="72"/>
+      <c r="H175" s="72"/>
+      <c r="I175" s="72"/>
+      <c r="J175" s="72"/>
+      <c r="K175" s="72"/>
+      <c r="L175" s="72"/>
+      <c r="M175" s="72"/>
+      <c r="N175" s="72"/>
+      <c r="O175" s="72"/>
+      <c r="P175" s="73"/>
       <c r="Q175" s="49"/>
       <c r="R175" s="49"/>
       <c r="S175" s="51"/>
@@ -7153,22 +7153,22 @@
         <f t="shared" si="15"/>
         <v>43839</v>
       </c>
-      <c r="C176" s="122" t="s">
+      <c r="C176" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="D176" s="123"/>
-      <c r="E176" s="123"/>
-      <c r="F176" s="123"/>
-      <c r="G176" s="123"/>
-      <c r="H176" s="123"/>
-      <c r="I176" s="123"/>
-      <c r="J176" s="123"/>
-      <c r="K176" s="123"/>
-      <c r="L176" s="123"/>
-      <c r="M176" s="123"/>
-      <c r="N176" s="123"/>
-      <c r="O176" s="123"/>
-      <c r="P176" s="124"/>
+      <c r="D176" s="72"/>
+      <c r="E176" s="72"/>
+      <c r="F176" s="72"/>
+      <c r="G176" s="72"/>
+      <c r="H176" s="72"/>
+      <c r="I176" s="72"/>
+      <c r="J176" s="72"/>
+      <c r="K176" s="72"/>
+      <c r="L176" s="72"/>
+      <c r="M176" s="72"/>
+      <c r="N176" s="72"/>
+      <c r="O176" s="72"/>
+      <c r="P176" s="73"/>
       <c r="Q176" s="49"/>
       <c r="R176" s="49"/>
       <c r="S176" s="51"/>
@@ -7185,22 +7185,22 @@
         <f t="shared" si="15"/>
         <v>43840</v>
       </c>
-      <c r="C177" s="122" t="s">
+      <c r="C177" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="D177" s="123"/>
-      <c r="E177" s="123"/>
-      <c r="F177" s="123"/>
-      <c r="G177" s="123"/>
-      <c r="H177" s="123"/>
-      <c r="I177" s="123"/>
-      <c r="J177" s="123"/>
-      <c r="K177" s="123"/>
-      <c r="L177" s="123"/>
-      <c r="M177" s="123"/>
-      <c r="N177" s="123"/>
-      <c r="O177" s="123"/>
-      <c r="P177" s="124"/>
+      <c r="D177" s="72"/>
+      <c r="E177" s="72"/>
+      <c r="F177" s="72"/>
+      <c r="G177" s="72"/>
+      <c r="H177" s="72"/>
+      <c r="I177" s="72"/>
+      <c r="J177" s="72"/>
+      <c r="K177" s="72"/>
+      <c r="L177" s="72"/>
+      <c r="M177" s="72"/>
+      <c r="N177" s="72"/>
+      <c r="O177" s="72"/>
+      <c r="P177" s="73"/>
       <c r="Q177" s="49"/>
       <c r="R177" s="49"/>
       <c r="S177" s="51"/>
@@ -7215,22 +7215,22 @@
         <f t="shared" si="15"/>
         <v>43841</v>
       </c>
-      <c r="C178" s="122" t="s">
+      <c r="C178" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="D178" s="123"/>
-      <c r="E178" s="123"/>
-      <c r="F178" s="123"/>
-      <c r="G178" s="123"/>
-      <c r="H178" s="123"/>
-      <c r="I178" s="123"/>
-      <c r="J178" s="123"/>
-      <c r="K178" s="123"/>
-      <c r="L178" s="123"/>
-      <c r="M178" s="123"/>
-      <c r="N178" s="123"/>
-      <c r="O178" s="123"/>
-      <c r="P178" s="124"/>
+      <c r="D178" s="72"/>
+      <c r="E178" s="72"/>
+      <c r="F178" s="72"/>
+      <c r="G178" s="72"/>
+      <c r="H178" s="72"/>
+      <c r="I178" s="72"/>
+      <c r="J178" s="72"/>
+      <c r="K178" s="72"/>
+      <c r="L178" s="72"/>
+      <c r="M178" s="72"/>
+      <c r="N178" s="72"/>
+      <c r="O178" s="72"/>
+      <c r="P178" s="73"/>
       <c r="Q178" s="49"/>
       <c r="R178" s="49"/>
       <c r="S178" s="51"/>
@@ -7360,22 +7360,22 @@
         <f>B173+7</f>
         <v>43843</v>
       </c>
-      <c r="C183" s="122" t="s">
+      <c r="C183" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="D183" s="123"/>
-      <c r="E183" s="123"/>
-      <c r="F183" s="123"/>
-      <c r="G183" s="123"/>
-      <c r="H183" s="123"/>
-      <c r="I183" s="123"/>
-      <c r="J183" s="123"/>
-      <c r="K183" s="123"/>
-      <c r="L183" s="123"/>
-      <c r="M183" s="123"/>
-      <c r="N183" s="123"/>
-      <c r="O183" s="123"/>
-      <c r="P183" s="124"/>
+      <c r="D183" s="72"/>
+      <c r="E183" s="72"/>
+      <c r="F183" s="72"/>
+      <c r="G183" s="72"/>
+      <c r="H183" s="72"/>
+      <c r="I183" s="72"/>
+      <c r="J183" s="72"/>
+      <c r="K183" s="72"/>
+      <c r="L183" s="72"/>
+      <c r="M183" s="72"/>
+      <c r="N183" s="72"/>
+      <c r="O183" s="72"/>
+      <c r="P183" s="73"/>
       <c r="Q183" s="49"/>
       <c r="R183" s="49"/>
       <c r="S183" s="51"/>
@@ -7391,22 +7391,22 @@
         <f t="shared" ref="B184:B189" si="16">B174+7</f>
         <v>43844</v>
       </c>
-      <c r="C184" s="122" t="s">
+      <c r="C184" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="D184" s="123"/>
-      <c r="E184" s="123"/>
-      <c r="F184" s="123"/>
-      <c r="G184" s="123"/>
-      <c r="H184" s="123"/>
-      <c r="I184" s="123"/>
-      <c r="J184" s="123"/>
-      <c r="K184" s="123"/>
-      <c r="L184" s="123"/>
-      <c r="M184" s="123"/>
-      <c r="N184" s="123"/>
-      <c r="O184" s="123"/>
-      <c r="P184" s="124"/>
+      <c r="D184" s="72"/>
+      <c r="E184" s="72"/>
+      <c r="F184" s="72"/>
+      <c r="G184" s="72"/>
+      <c r="H184" s="72"/>
+      <c r="I184" s="72"/>
+      <c r="J184" s="72"/>
+      <c r="K184" s="72"/>
+      <c r="L184" s="72"/>
+      <c r="M184" s="72"/>
+      <c r="N184" s="72"/>
+      <c r="O184" s="72"/>
+      <c r="P184" s="73"/>
       <c r="Q184" s="49"/>
       <c r="R184" s="49"/>
       <c r="S184" s="51"/>
@@ -7422,22 +7422,22 @@
         <f t="shared" si="16"/>
         <v>43845</v>
       </c>
-      <c r="C185" s="122" t="s">
+      <c r="C185" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="D185" s="123"/>
-      <c r="E185" s="123"/>
-      <c r="F185" s="123"/>
-      <c r="G185" s="123"/>
-      <c r="H185" s="123"/>
-      <c r="I185" s="123"/>
-      <c r="J185" s="123"/>
-      <c r="K185" s="123"/>
-      <c r="L185" s="123"/>
-      <c r="M185" s="123"/>
-      <c r="N185" s="123"/>
-      <c r="O185" s="123"/>
-      <c r="P185" s="124"/>
+      <c r="D185" s="72"/>
+      <c r="E185" s="72"/>
+      <c r="F185" s="72"/>
+      <c r="G185" s="72"/>
+      <c r="H185" s="72"/>
+      <c r="I185" s="72"/>
+      <c r="J185" s="72"/>
+      <c r="K185" s="72"/>
+      <c r="L185" s="72"/>
+      <c r="M185" s="72"/>
+      <c r="N185" s="72"/>
+      <c r="O185" s="72"/>
+      <c r="P185" s="73"/>
       <c r="Q185" s="49"/>
       <c r="R185" s="49"/>
       <c r="S185" s="51"/>
@@ -15927,40 +15927,81 @@
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="C144:P144"/>
-    <mergeCell ref="C146:L146"/>
-    <mergeCell ref="H133:P133"/>
-    <mergeCell ref="C183:P183"/>
-    <mergeCell ref="C184:P184"/>
-    <mergeCell ref="C185:P185"/>
-    <mergeCell ref="C166:P166"/>
-    <mergeCell ref="C167:P167"/>
-    <mergeCell ref="C168:P168"/>
-    <mergeCell ref="C173:P173"/>
-    <mergeCell ref="C174:P174"/>
-    <mergeCell ref="C175:P175"/>
-    <mergeCell ref="C176:P176"/>
-    <mergeCell ref="C177:P177"/>
-    <mergeCell ref="C178:P178"/>
-    <mergeCell ref="C145:P145"/>
-    <mergeCell ref="C153:P153"/>
-    <mergeCell ref="C154:P154"/>
-    <mergeCell ref="T58:U60"/>
-    <mergeCell ref="H123:P123"/>
-    <mergeCell ref="H103:P103"/>
-    <mergeCell ref="H104:P104"/>
-    <mergeCell ref="I115:R115"/>
-    <mergeCell ref="M125:P125"/>
-    <mergeCell ref="C79:R79"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="H83:P83"/>
-    <mergeCell ref="C107:M107"/>
-    <mergeCell ref="J84:R84"/>
-    <mergeCell ref="E85:M85"/>
-    <mergeCell ref="H93:P93"/>
-    <mergeCell ref="H94:P94"/>
+    <mergeCell ref="H114:M114"/>
+    <mergeCell ref="C135:K135"/>
+    <mergeCell ref="M135:P135"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="J116:N116"/>
+    <mergeCell ref="H134:P134"/>
+    <mergeCell ref="F143:P143"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H46:P46"/>
+    <mergeCell ref="H44:N44"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="L75:Q75"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="C76:R76"/>
+    <mergeCell ref="E78:J78"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="E77:J77"/>
+    <mergeCell ref="L67:R67"/>
+    <mergeCell ref="M72:R72"/>
+    <mergeCell ref="H13:R13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="H45:P45"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H43:P43"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="H33:P33"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H23:R23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="E73:J73"/>
+    <mergeCell ref="L73:Q73"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="H54:P54"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="L74:Q74"/>
+    <mergeCell ref="L77:Q77"/>
+    <mergeCell ref="L78:Q78"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="J58:P58"/>
+    <mergeCell ref="E74:J74"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="H66:Q66"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="H64:N64"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="C69:R69"/>
     <mergeCell ref="H126:P126"/>
     <mergeCell ref="C155:R159"/>
     <mergeCell ref="C163:R165"/>
@@ -15985,93 +16026,52 @@
     <mergeCell ref="C104:G104"/>
     <mergeCell ref="C84:G84"/>
     <mergeCell ref="C86:G86"/>
+    <mergeCell ref="T58:U60"/>
+    <mergeCell ref="H123:P123"/>
+    <mergeCell ref="H103:P103"/>
+    <mergeCell ref="H104:P104"/>
+    <mergeCell ref="I115:R115"/>
+    <mergeCell ref="M125:P125"/>
+    <mergeCell ref="C79:R79"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H83:P83"/>
+    <mergeCell ref="C107:M107"/>
+    <mergeCell ref="J84:R84"/>
+    <mergeCell ref="E85:M85"/>
+    <mergeCell ref="H93:P93"/>
+    <mergeCell ref="H94:P94"/>
     <mergeCell ref="C93:G93"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="E73:J73"/>
-    <mergeCell ref="L73:Q73"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="H54:P54"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="L74:Q74"/>
-    <mergeCell ref="L77:Q77"/>
-    <mergeCell ref="L78:Q78"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="J58:P58"/>
-    <mergeCell ref="E74:J74"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="H66:Q66"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="H64:N64"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="C69:R69"/>
-    <mergeCell ref="H13:R13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="H45:P45"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H43:P43"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="H33:P33"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H23:R23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H46:P46"/>
-    <mergeCell ref="H44:N44"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="L75:Q75"/>
-    <mergeCell ref="I53:M53"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="C76:R76"/>
-    <mergeCell ref="E78:J78"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="E75:J75"/>
-    <mergeCell ref="E77:J77"/>
-    <mergeCell ref="L67:R67"/>
-    <mergeCell ref="M72:R72"/>
     <mergeCell ref="H96:L96"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="C134:G134"/>
     <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C133:G133"/>
     <mergeCell ref="C113:G113"/>
     <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D142:F142"/>
     <mergeCell ref="H124:P124"/>
     <mergeCell ref="C125:K125"/>
     <mergeCell ref="H113:M113"/>
-    <mergeCell ref="H114:M114"/>
-    <mergeCell ref="C135:K135"/>
-    <mergeCell ref="M135:P135"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="J116:N116"/>
-    <mergeCell ref="H134:P134"/>
-    <mergeCell ref="F143:P143"/>
+    <mergeCell ref="C144:P144"/>
+    <mergeCell ref="C146:L146"/>
+    <mergeCell ref="H133:P133"/>
+    <mergeCell ref="C183:P183"/>
+    <mergeCell ref="C184:P184"/>
+    <mergeCell ref="C185:P185"/>
+    <mergeCell ref="C166:P166"/>
+    <mergeCell ref="C167:P167"/>
+    <mergeCell ref="C168:P168"/>
+    <mergeCell ref="C173:P173"/>
+    <mergeCell ref="C174:P174"/>
+    <mergeCell ref="C175:P175"/>
+    <mergeCell ref="C176:P176"/>
+    <mergeCell ref="C177:P177"/>
+    <mergeCell ref="C178:P178"/>
+    <mergeCell ref="C145:P145"/>
+    <mergeCell ref="C153:P153"/>
+    <mergeCell ref="C154:P154"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="D142:F142"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -16099,10 +16099,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="127"/>
+      <c r="B2" s="129"/>
       <c r="C2" s="41" t="s">
         <v>18</v>
       </c>
@@ -16121,10 +16121,10 @@
       <c r="I2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="128" t="s">
+      <c r="J2" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="128"/>
+      <c r="K2" s="130"/>
     </row>
     <row r="3" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
@@ -16139,10 +16139,10 @@
       <c r="I3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="129" t="s">
+      <c r="J3" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="129"/>
+      <c r="K3" s="131"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -16164,10 +16164,10 @@
       <c r="I4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="129" t="s">
+      <c r="J4" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="129"/>
+      <c r="K4" s="131"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -16453,10 +16453,10 @@
       <c r="H22" s="51"/>
     </row>
     <row r="23" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="127" t="s">
+      <c r="A23" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="127"/>
+      <c r="B23" s="129"/>
       <c r="C23" s="41" t="s">
         <v>18</v>
       </c>
@@ -16661,7 +16661,7 @@
         <v>43929</v>
       </c>
       <c r="D36" s="29"/>
-      <c r="F36" s="115" t="s">
+      <c r="F36" s="87" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16679,7 +16679,7 @@
         <v>43936</v>
       </c>
       <c r="D37" s="44"/>
-      <c r="F37" s="115"/>
+      <c r="F37" s="87"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
@@ -16695,7 +16695,7 @@
         <v>43943</v>
       </c>
       <c r="D38" s="29"/>
-      <c r="F38" s="115"/>
+      <c r="F38" s="87"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="23">

--- a/Weekly Planner.xlsx
+++ b/Weekly Planner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SoftwareProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43901B9-C8AC-46A6-B014-29B4AD97EF6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B4D734-ED13-4242-B0CF-4AE37FC5B5A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="93">
   <si>
     <t>Monday</t>
   </si>
@@ -311,6 +311,15 @@
   <si>
     <t>SP - Montly journal</t>
   </si>
+  <si>
+    <t>SP - Tech Report</t>
+  </si>
+  <si>
+    <t>SP - Pres</t>
+  </si>
+  <si>
+    <t>Break</t>
+  </si>
 </sst>
 </file>
 
@@ -483,7 +492,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -913,6 +922,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -927,7 +1024,7 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1111,13 +1208,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="9" applyBorder="1" applyAlignment="1">
@@ -1126,16 +1217,16 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1147,10 +1238,58 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="36" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="5" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1159,43 +1298,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="6" fillId="11" borderId="4" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1222,9 +1328,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1237,52 +1340,46 @@
     <xf numFmtId="20" fontId="6" fillId="8" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="11" borderId="4" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="5" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="36" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="9" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1293,6 +1390,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="21" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="37" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="21" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="39" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="40" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="23" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="41" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="42" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="43" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="44" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1594,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H133" sqref="H133:P133"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1978,26 +2114,26 @@
       <c r="B13" s="57">
         <v>43724</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="98" t="s">
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="99"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="94"/>
       <c r="S13" s="51"/>
       <c r="T13" s="30" t="s">
         <v>22</v>
@@ -2010,26 +2146,26 @@
       <c r="B14" s="57">
         <v>43725</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="114" t="s">
+      <c r="J14" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="116"/>
-      <c r="O14" s="98" t="s">
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="99"/>
+      <c r="P14" s="94"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="51"/>
@@ -2072,20 +2208,20 @@
       <c r="B16" s="57">
         <v>43727</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="120" t="s">
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
@@ -2290,26 +2426,26 @@
         <f>B13+7</f>
         <v>43731</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="98" t="s">
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="113"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="99"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="93"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="93"/>
+      <c r="R23" s="94"/>
       <c r="S23" s="51"/>
       <c r="T23" s="30" t="s">
         <v>22</v>
@@ -2323,30 +2459,30 @@
         <f t="shared" ref="B24:B29" si="0">B14+7</f>
         <v>43732</v>
       </c>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="98" t="s">
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="121"/>
-      <c r="J24" s="95" t="s">
+      <c r="I24" s="83"/>
+      <c r="J24" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="K24" s="96"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="95" t="s">
+      <c r="K24" s="89"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="N24" s="97"/>
-      <c r="O24" s="114" t="s">
+      <c r="N24" s="77"/>
+      <c r="O24" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="P24" s="116"/>
+      <c r="P24" s="97"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
       <c r="S24" s="51"/>
@@ -2391,20 +2527,20 @@
         <f t="shared" si="0"/>
         <v>43734</v>
       </c>
-      <c r="C26" s="83" t="s">
+      <c r="C26" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="118" t="s">
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="118"/>
-      <c r="J26" s="118"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="118"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
@@ -2586,12 +2722,12 @@
         <f>C22+1</f>
         <v>3</v>
       </c>
-      <c r="D32" s="119" t="s">
+      <c r="D32" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
@@ -2614,24 +2750,24 @@
         <f>B23+7</f>
         <v>43738</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="118" t="s">
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="118"/>
-      <c r="J33" s="118"/>
-      <c r="K33" s="118"/>
-      <c r="L33" s="118"/>
-      <c r="M33" s="118"/>
-      <c r="N33" s="118"/>
-      <c r="O33" s="118"/>
-      <c r="P33" s="118"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="91"/>
+      <c r="P33" s="91"/>
       <c r="Q33" s="62"/>
       <c r="R33" s="62"/>
       <c r="S33" s="51"/>
@@ -2647,13 +2783,13 @@
         <f t="shared" ref="B34:B39" si="1">B24+7</f>
         <v>43739</v>
       </c>
-      <c r="C34" s="83" t="s">
+      <c r="C34" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
       <c r="H34" s="62"/>
       <c r="I34" s="62"/>
       <c r="J34" s="62"/>
@@ -2707,13 +2843,13 @@
         <f t="shared" si="1"/>
         <v>43741</v>
       </c>
-      <c r="C36" s="83" t="s">
+      <c r="C36" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="63"/>
@@ -2926,24 +3062,24 @@
         <f>B33+7</f>
         <v>43745</v>
       </c>
-      <c r="C43" s="83" t="s">
+      <c r="C43" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="79" t="s">
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="79"/>
-      <c r="J43" s="79"/>
-      <c r="K43" s="79"/>
-      <c r="L43" s="79"/>
-      <c r="M43" s="79"/>
-      <c r="N43" s="79"/>
-      <c r="O43" s="79"/>
-      <c r="P43" s="79"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="71"/>
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
       <c r="S43" s="51"/>
@@ -2959,22 +3095,22 @@
         <f t="shared" ref="B44:B49" si="2">B34+7</f>
         <v>43746</v>
       </c>
-      <c r="C44" s="83" t="s">
+      <c r="C44" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="122" t="s">
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="108"/>
-      <c r="J44" s="108"/>
-      <c r="K44" s="108"/>
-      <c r="L44" s="108"/>
-      <c r="M44" s="108"/>
-      <c r="N44" s="108"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="85"/>
       <c r="O44" s="49"/>
       <c r="P44" s="49"/>
       <c r="Q44" s="49"/>
@@ -2997,17 +3133,17 @@
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
-      <c r="H45" s="117" t="s">
+      <c r="H45" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
-      <c r="M45" s="85"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="85"/>
-      <c r="P45" s="86"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="99"/>
+      <c r="M45" s="99"/>
+      <c r="N45" s="99"/>
+      <c r="O45" s="99"/>
+      <c r="P45" s="100"/>
       <c r="Q45" s="49"/>
       <c r="R45" s="49"/>
       <c r="S45" s="51"/>
@@ -3023,24 +3159,24 @@
         <f t="shared" si="2"/>
         <v>43748</v>
       </c>
-      <c r="C46" s="83" t="s">
+      <c r="C46" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="80" t="s">
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="I46" s="81"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="81"/>
-      <c r="N46" s="81"/>
-      <c r="O46" s="81"/>
-      <c r="P46" s="82"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="79"/>
+      <c r="K46" s="79"/>
+      <c r="L46" s="79"/>
+      <c r="M46" s="79"/>
+      <c r="N46" s="79"/>
+      <c r="O46" s="79"/>
+      <c r="P46" s="80"/>
       <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
       <c r="S46" s="51"/>
@@ -3219,11 +3355,11 @@
         <v>5</v>
       </c>
       <c r="G52" s="15"/>
-      <c r="H52" s="123" t="s">
+      <c r="H52" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="I52" s="123"/>
-      <c r="J52" s="123"/>
+      <c r="I52" s="86"/>
+      <c r="J52" s="86"/>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
       <c r="M52" s="19"/>
@@ -3243,23 +3379,23 @@
         <f>B43+7</f>
         <v>43752</v>
       </c>
-      <c r="C53" s="83" t="s">
+      <c r="C53" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="88"/>
       <c r="H53" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="I53" s="95" t="s">
+      <c r="I53" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="96"/>
-      <c r="K53" s="96"/>
-      <c r="L53" s="96"/>
-      <c r="M53" s="96"/>
+      <c r="J53" s="89"/>
+      <c r="K53" s="89"/>
+      <c r="L53" s="89"/>
+      <c r="M53" s="89"/>
       <c r="N53" s="49"/>
       <c r="O53" s="49"/>
       <c r="P53" s="49"/>
@@ -3278,28 +3414,28 @@
         <f t="shared" ref="B54:B59" si="3">B44+7</f>
         <v>43753</v>
       </c>
-      <c r="C54" s="83" t="s">
+      <c r="C54" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="83"/>
-      <c r="E54" s="83"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="83"/>
-      <c r="H54" s="100" t="s">
+      <c r="D54" s="88"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="I54" s="101"/>
-      <c r="J54" s="101"/>
-      <c r="K54" s="101"/>
-      <c r="L54" s="101"/>
-      <c r="M54" s="101"/>
-      <c r="N54" s="101"/>
-      <c r="O54" s="101"/>
-      <c r="P54" s="101"/>
-      <c r="Q54" s="98" t="s">
+      <c r="I54" s="104"/>
+      <c r="J54" s="104"/>
+      <c r="K54" s="104"/>
+      <c r="L54" s="104"/>
+      <c r="M54" s="104"/>
+      <c r="N54" s="104"/>
+      <c r="O54" s="104"/>
+      <c r="P54" s="104"/>
+      <c r="Q54" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="R54" s="99"/>
+      <c r="R54" s="94"/>
       <c r="S54" s="51"/>
       <c r="T54" s="53" t="s">
         <v>19</v>
@@ -3317,18 +3453,18 @@
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
-      <c r="G55" s="83" t="s">
+      <c r="G55" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="H55" s="83"/>
-      <c r="I55" s="124" t="s">
+      <c r="H55" s="88"/>
+      <c r="I55" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="J55" s="96"/>
-      <c r="K55" s="96"/>
-      <c r="L55" s="96"/>
-      <c r="M55" s="96"/>
-      <c r="N55" s="96"/>
+      <c r="J55" s="89"/>
+      <c r="K55" s="89"/>
+      <c r="L55" s="89"/>
+      <c r="M55" s="89"/>
+      <c r="N55" s="89"/>
       <c r="O55" s="49"/>
       <c r="P55" s="49"/>
       <c r="Q55" s="49"/>
@@ -3346,21 +3482,21 @@
         <f t="shared" si="3"/>
         <v>43755</v>
       </c>
-      <c r="C56" s="83" t="s">
+      <c r="C56" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="107" t="s">
+      <c r="D56" s="88"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="88"/>
+      <c r="H56" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="I56" s="108"/>
-      <c r="J56" s="108"/>
-      <c r="K56" s="108"/>
-      <c r="L56" s="108"/>
-      <c r="M56" s="108"/>
+      <c r="I56" s="85"/>
+      <c r="J56" s="85"/>
+      <c r="K56" s="85"/>
+      <c r="L56" s="85"/>
+      <c r="M56" s="85"/>
       <c r="N56" s="49"/>
       <c r="O56" s="49"/>
       <c r="P56" s="49"/>
@@ -3392,11 +3528,11 @@
       <c r="M57" s="49"/>
       <c r="N57" s="49"/>
       <c r="O57" s="49"/>
-      <c r="P57" s="80" t="s">
+      <c r="P57" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="Q57" s="81"/>
-      <c r="R57" s="82"/>
+      <c r="Q57" s="79"/>
+      <c r="R57" s="80"/>
       <c r="S57" s="51"/>
       <c r="T57" s="51"/>
     </row>
@@ -3410,31 +3546,31 @@
       </c>
       <c r="C58" s="50"/>
       <c r="D58" s="49"/>
-      <c r="E58" s="105" t="s">
+      <c r="E58" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="F58" s="81"/>
-      <c r="G58" s="106"/>
-      <c r="H58" s="83" t="s">
+      <c r="F58" s="79"/>
+      <c r="G58" s="109"/>
+      <c r="H58" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="I58" s="83"/>
-      <c r="J58" s="95" t="s">
+      <c r="I58" s="88"/>
+      <c r="J58" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="K58" s="96"/>
-      <c r="L58" s="96"/>
-      <c r="M58" s="96"/>
-      <c r="N58" s="96"/>
-      <c r="O58" s="96"/>
-      <c r="P58" s="97"/>
+      <c r="K58" s="89"/>
+      <c r="L58" s="89"/>
+      <c r="M58" s="89"/>
+      <c r="N58" s="89"/>
+      <c r="O58" s="89"/>
+      <c r="P58" s="77"/>
       <c r="Q58" s="20"/>
       <c r="R58" s="20"/>
       <c r="S58" s="51"/>
-      <c r="T58" s="77" t="s">
+      <c r="T58" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="U58" s="77"/>
+      <c r="U58" s="123"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -3461,8 +3597,8 @@
       <c r="Q59" s="20"/>
       <c r="R59" s="20"/>
       <c r="S59" s="51"/>
-      <c r="T59" s="77"/>
-      <c r="U59" s="77"/>
+      <c r="T59" s="123"/>
+      <c r="U59" s="123"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B60"/>
@@ -3483,8 +3619,8 @@
       <c r="Q60"/>
       <c r="R60"/>
       <c r="S60"/>
-      <c r="T60" s="77"/>
-      <c r="U60" s="77"/>
+      <c r="T60" s="123"/>
+      <c r="U60" s="123"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
@@ -3558,11 +3694,11 @@
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
-      <c r="H62" s="123" t="s">
+      <c r="H62" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="I62" s="123"/>
-      <c r="J62" s="123"/>
+      <c r="I62" s="86"/>
+      <c r="J62" s="86"/>
       <c r="K62" s="19"/>
       <c r="L62" s="19"/>
       <c r="M62" s="19"/>
@@ -3582,22 +3718,22 @@
         <f>B53+7</f>
         <v>43759</v>
       </c>
-      <c r="C63" s="83" t="s">
+      <c r="C63" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="83"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="83"/>
-      <c r="G63" s="83"/>
+      <c r="D63" s="88"/>
+      <c r="E63" s="88"/>
+      <c r="F63" s="88"/>
+      <c r="G63" s="88"/>
       <c r="H63" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="I63" s="95" t="s">
+      <c r="I63" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="J63" s="96"/>
-      <c r="K63" s="96"/>
-      <c r="L63" s="96"/>
+      <c r="J63" s="89"/>
+      <c r="K63" s="89"/>
+      <c r="L63" s="89"/>
       <c r="M63" s="49"/>
       <c r="N63" s="49"/>
       <c r="O63" s="49"/>
@@ -3617,22 +3753,22 @@
         <f t="shared" ref="B64:B69" si="4">B54+7</f>
         <v>43760</v>
       </c>
-      <c r="C64" s="83" t="s">
+      <c r="C64" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="83"/>
-      <c r="E64" s="83"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="83"/>
-      <c r="H64" s="105" t="s">
+      <c r="D64" s="88"/>
+      <c r="E64" s="88"/>
+      <c r="F64" s="88"/>
+      <c r="G64" s="88"/>
+      <c r="H64" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="I64" s="81"/>
-      <c r="J64" s="81"/>
-      <c r="K64" s="81"/>
-      <c r="L64" s="81"/>
-      <c r="M64" s="81"/>
-      <c r="N64" s="81"/>
+      <c r="I64" s="79"/>
+      <c r="J64" s="79"/>
+      <c r="K64" s="79"/>
+      <c r="L64" s="79"/>
+      <c r="M64" s="79"/>
+      <c r="N64" s="79"/>
       <c r="O64" s="49"/>
       <c r="P64" s="49"/>
       <c r="Q64" s="49"/>
@@ -3681,25 +3817,25 @@
         <f t="shared" si="4"/>
         <v>43762</v>
       </c>
-      <c r="C66" s="83" t="s">
+      <c r="C66" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="83"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="83"/>
-      <c r="H66" s="109" t="s">
+      <c r="D66" s="88"/>
+      <c r="E66" s="88"/>
+      <c r="F66" s="88"/>
+      <c r="G66" s="88"/>
+      <c r="H66" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="I66" s="110"/>
-      <c r="J66" s="110"/>
-      <c r="K66" s="110"/>
-      <c r="L66" s="110"/>
-      <c r="M66" s="110"/>
-      <c r="N66" s="110"/>
-      <c r="O66" s="110"/>
-      <c r="P66" s="110"/>
-      <c r="Q66" s="111"/>
+      <c r="I66" s="112"/>
+      <c r="J66" s="112"/>
+      <c r="K66" s="112"/>
+      <c r="L66" s="112"/>
+      <c r="M66" s="112"/>
+      <c r="N66" s="112"/>
+      <c r="O66" s="112"/>
+      <c r="P66" s="112"/>
+      <c r="Q66" s="113"/>
       <c r="R66" s="20"/>
       <c r="S66" s="51"/>
       <c r="T66" s="18" t="s">
@@ -3714,26 +3850,26 @@
         <f t="shared" si="4"/>
         <v>43763</v>
       </c>
-      <c r="C67" s="95" t="s">
+      <c r="C67" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="D67" s="96"/>
-      <c r="E67" s="96"/>
-      <c r="F67" s="96"/>
-      <c r="G67" s="96"/>
-      <c r="H67" s="96"/>
-      <c r="I67" s="96"/>
-      <c r="J67" s="97"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="89"/>
+      <c r="H67" s="89"/>
+      <c r="I67" s="89"/>
+      <c r="J67" s="77"/>
       <c r="K67" s="49"/>
-      <c r="L67" s="96" t="s">
+      <c r="L67" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="M67" s="96"/>
-      <c r="N67" s="96"/>
-      <c r="O67" s="96"/>
-      <c r="P67" s="96"/>
-      <c r="Q67" s="96"/>
-      <c r="R67" s="97"/>
+      <c r="M67" s="89"/>
+      <c r="N67" s="89"/>
+      <c r="O67" s="89"/>
+      <c r="P67" s="89"/>
+      <c r="Q67" s="89"/>
+      <c r="R67" s="77"/>
       <c r="S67" s="51"/>
       <c r="T67" s="51"/>
     </row>
@@ -3772,24 +3908,24 @@
         <f t="shared" si="4"/>
         <v>43765</v>
       </c>
-      <c r="C69" s="83" t="s">
+      <c r="C69" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="D69" s="83"/>
-      <c r="E69" s="83"/>
-      <c r="F69" s="83"/>
-      <c r="G69" s="83"/>
-      <c r="H69" s="83"/>
-      <c r="I69" s="83"/>
-      <c r="J69" s="83"/>
-      <c r="K69" s="83"/>
-      <c r="L69" s="83"/>
-      <c r="M69" s="83"/>
-      <c r="N69" s="83"/>
-      <c r="O69" s="83"/>
-      <c r="P69" s="83"/>
-      <c r="Q69" s="83"/>
-      <c r="R69" s="83"/>
+      <c r="D69" s="88"/>
+      <c r="E69" s="88"/>
+      <c r="F69" s="88"/>
+      <c r="G69" s="88"/>
+      <c r="H69" s="88"/>
+      <c r="I69" s="88"/>
+      <c r="J69" s="88"/>
+      <c r="K69" s="88"/>
+      <c r="L69" s="88"/>
+      <c r="M69" s="88"/>
+      <c r="N69" s="88"/>
+      <c r="O69" s="88"/>
+      <c r="P69" s="88"/>
+      <c r="Q69" s="88"/>
+      <c r="R69" s="88"/>
       <c r="S69" s="51"/>
       <c r="T69" s="51"/>
     </row>
@@ -3882,27 +4018,27 @@
         <f>C62+1</f>
         <v>7</v>
       </c>
-      <c r="D72" s="88" t="s">
+      <c r="D72" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="88"/>
-      <c r="F72" s="88"/>
+      <c r="E72" s="87"/>
+      <c r="F72" s="87"/>
       <c r="G72" s="15"/>
-      <c r="H72" s="112" t="s">
+      <c r="H72" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="I72" s="112"/>
-      <c r="J72" s="112"/>
-      <c r="K72" s="112"/>
+      <c r="I72" s="114"/>
+      <c r="J72" s="114"/>
+      <c r="K72" s="114"/>
       <c r="L72" s="19"/>
-      <c r="M72" s="125" t="s">
+      <c r="M72" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="N72" s="125"/>
-      <c r="O72" s="125"/>
-      <c r="P72" s="125"/>
-      <c r="Q72" s="125"/>
-      <c r="R72" s="125"/>
+      <c r="N72" s="92"/>
+      <c r="O72" s="92"/>
+      <c r="P72" s="92"/>
+      <c r="Q72" s="92"/>
+      <c r="R72" s="92"/>
       <c r="S72" s="51"/>
       <c r="T72" s="51"/>
     </row>
@@ -3916,23 +4052,23 @@
       </c>
       <c r="C73" s="32"/>
       <c r="D73" s="20"/>
-      <c r="E73" s="79" t="s">
+      <c r="E73" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="F73" s="79"/>
-      <c r="G73" s="79"/>
-      <c r="H73" s="79"/>
-      <c r="I73" s="79"/>
-      <c r="J73" s="79"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="71"/>
+      <c r="I73" s="71"/>
+      <c r="J73" s="71"/>
       <c r="K73" s="49"/>
-      <c r="L73" s="95" t="s">
+      <c r="L73" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="M73" s="96"/>
-      <c r="N73" s="96"/>
-      <c r="O73" s="96"/>
-      <c r="P73" s="96"/>
-      <c r="Q73" s="97"/>
+      <c r="M73" s="89"/>
+      <c r="N73" s="89"/>
+      <c r="O73" s="89"/>
+      <c r="P73" s="89"/>
+      <c r="Q73" s="77"/>
       <c r="R73" s="49"/>
       <c r="S73" s="51"/>
       <c r="T73" s="30" t="s">
@@ -3947,27 +4083,27 @@
         <f t="shared" ref="B74:B79" si="5">B64+7</f>
         <v>43767</v>
       </c>
-      <c r="C74" s="95" t="s">
+      <c r="C74" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="D74" s="97"/>
-      <c r="E74" s="79" t="s">
+      <c r="D74" s="77"/>
+      <c r="E74" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="F74" s="79"/>
-      <c r="G74" s="79"/>
-      <c r="H74" s="79"/>
-      <c r="I74" s="79"/>
-      <c r="J74" s="79"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="71"/>
+      <c r="J74" s="71"/>
       <c r="K74" s="49"/>
-      <c r="L74" s="95" t="s">
+      <c r="L74" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="M74" s="96"/>
-      <c r="N74" s="96"/>
-      <c r="O74" s="96"/>
-      <c r="P74" s="96"/>
-      <c r="Q74" s="97"/>
+      <c r="M74" s="89"/>
+      <c r="N74" s="89"/>
+      <c r="O74" s="89"/>
+      <c r="P74" s="89"/>
+      <c r="Q74" s="77"/>
       <c r="R74" s="20"/>
       <c r="S74" s="51"/>
       <c r="T74" s="53" t="s">
@@ -3984,23 +4120,23 @@
       </c>
       <c r="C75" s="32"/>
       <c r="D75" s="20"/>
-      <c r="E75" s="79" t="s">
+      <c r="E75" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="F75" s="79"/>
-      <c r="G75" s="79"/>
-      <c r="H75" s="79"/>
-      <c r="I75" s="79"/>
-      <c r="J75" s="79"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="71"/>
+      <c r="I75" s="71"/>
+      <c r="J75" s="71"/>
       <c r="K75" s="49"/>
-      <c r="L75" s="95" t="s">
+      <c r="L75" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="M75" s="96"/>
-      <c r="N75" s="96"/>
-      <c r="O75" s="96"/>
-      <c r="P75" s="96"/>
-      <c r="Q75" s="97"/>
+      <c r="M75" s="89"/>
+      <c r="N75" s="89"/>
+      <c r="O75" s="89"/>
+      <c r="P75" s="89"/>
+      <c r="Q75" s="77"/>
       <c r="R75" s="49"/>
       <c r="S75" s="51"/>
       <c r="T75" s="52" t="s">
@@ -4015,24 +4151,24 @@
         <f t="shared" si="5"/>
         <v>43769</v>
       </c>
-      <c r="C76" s="83" t="s">
+      <c r="C76" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="D76" s="83"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="83"/>
-      <c r="H76" s="83"/>
-      <c r="I76" s="83"/>
-      <c r="J76" s="83"/>
-      <c r="K76" s="83"/>
-      <c r="L76" s="83"/>
-      <c r="M76" s="83"/>
-      <c r="N76" s="83"/>
-      <c r="O76" s="83"/>
-      <c r="P76" s="83"/>
-      <c r="Q76" s="83"/>
-      <c r="R76" s="83"/>
+      <c r="D76" s="88"/>
+      <c r="E76" s="88"/>
+      <c r="F76" s="88"/>
+      <c r="G76" s="88"/>
+      <c r="H76" s="88"/>
+      <c r="I76" s="88"/>
+      <c r="J76" s="88"/>
+      <c r="K76" s="88"/>
+      <c r="L76" s="88"/>
+      <c r="M76" s="88"/>
+      <c r="N76" s="88"/>
+      <c r="O76" s="88"/>
+      <c r="P76" s="88"/>
+      <c r="Q76" s="88"/>
+      <c r="R76" s="88"/>
       <c r="S76" s="51"/>
       <c r="T76" s="18" t="s">
         <v>21</v>
@@ -4048,23 +4184,23 @@
       </c>
       <c r="C77" s="32"/>
       <c r="D77" s="20"/>
-      <c r="E77" s="118" t="s">
+      <c r="E77" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="F77" s="118"/>
-      <c r="G77" s="118"/>
-      <c r="H77" s="118"/>
-      <c r="I77" s="118"/>
-      <c r="J77" s="118"/>
+      <c r="F77" s="91"/>
+      <c r="G77" s="91"/>
+      <c r="H77" s="91"/>
+      <c r="I77" s="91"/>
+      <c r="J77" s="91"/>
       <c r="K77" s="49"/>
-      <c r="L77" s="102" t="s">
+      <c r="L77" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="M77" s="103"/>
-      <c r="N77" s="103"/>
-      <c r="O77" s="103"/>
-      <c r="P77" s="103"/>
-      <c r="Q77" s="104"/>
+      <c r="M77" s="106"/>
+      <c r="N77" s="106"/>
+      <c r="O77" s="106"/>
+      <c r="P77" s="106"/>
+      <c r="Q77" s="107"/>
       <c r="R77" s="20"/>
       <c r="S77" s="51"/>
       <c r="T77" s="51"/>
@@ -4079,23 +4215,23 @@
       </c>
       <c r="C78" s="50"/>
       <c r="D78" s="49"/>
-      <c r="E78" s="118" t="s">
+      <c r="E78" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="F78" s="118"/>
-      <c r="G78" s="118"/>
-      <c r="H78" s="118"/>
-      <c r="I78" s="118"/>
-      <c r="J78" s="118"/>
+      <c r="F78" s="91"/>
+      <c r="G78" s="91"/>
+      <c r="H78" s="91"/>
+      <c r="I78" s="91"/>
+      <c r="J78" s="91"/>
       <c r="K78" s="49"/>
-      <c r="L78" s="102" t="s">
+      <c r="L78" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="M78" s="103"/>
-      <c r="N78" s="103"/>
-      <c r="O78" s="103"/>
-      <c r="P78" s="103"/>
-      <c r="Q78" s="104"/>
+      <c r="M78" s="106"/>
+      <c r="N78" s="106"/>
+      <c r="O78" s="106"/>
+      <c r="P78" s="106"/>
+      <c r="Q78" s="107"/>
       <c r="R78" s="49"/>
       <c r="S78" s="51"/>
       <c r="T78" s="51"/>
@@ -4108,24 +4244,24 @@
         <f t="shared" si="5"/>
         <v>43772</v>
       </c>
-      <c r="C79" s="83" t="s">
+      <c r="C79" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="D79" s="83"/>
-      <c r="E79" s="83"/>
-      <c r="F79" s="83"/>
-      <c r="G79" s="83"/>
-      <c r="H79" s="83"/>
-      <c r="I79" s="83"/>
-      <c r="J79" s="83"/>
-      <c r="K79" s="83"/>
-      <c r="L79" s="83"/>
-      <c r="M79" s="83"/>
-      <c r="N79" s="83"/>
-      <c r="O79" s="83"/>
-      <c r="P79" s="83"/>
-      <c r="Q79" s="83"/>
-      <c r="R79" s="83"/>
+      <c r="D79" s="88"/>
+      <c r="E79" s="88"/>
+      <c r="F79" s="88"/>
+      <c r="G79" s="88"/>
+      <c r="H79" s="88"/>
+      <c r="I79" s="88"/>
+      <c r="J79" s="88"/>
+      <c r="K79" s="88"/>
+      <c r="L79" s="88"/>
+      <c r="M79" s="88"/>
+      <c r="N79" s="88"/>
+      <c r="O79" s="88"/>
+      <c r="P79" s="88"/>
+      <c r="Q79" s="88"/>
+      <c r="R79" s="88"/>
       <c r="S79" s="51"/>
       <c r="T79" s="51"/>
     </row>
@@ -4199,11 +4335,11 @@
         <f>C72+1</f>
         <v>8</v>
       </c>
-      <c r="D82" s="88" t="s">
+      <c r="D82" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="88"/>
-      <c r="F82" s="88"/>
+      <c r="E82" s="87"/>
+      <c r="F82" s="87"/>
       <c r="G82" s="15"/>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -4228,24 +4364,24 @@
         <f>B73+7</f>
         <v>43773</v>
       </c>
-      <c r="C83" s="83" t="s">
+      <c r="C83" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="83"/>
-      <c r="E83" s="83"/>
-      <c r="F83" s="83"/>
-      <c r="G83" s="83"/>
-      <c r="H83" s="80" t="s">
+      <c r="D83" s="88"/>
+      <c r="E83" s="88"/>
+      <c r="F83" s="88"/>
+      <c r="G83" s="88"/>
+      <c r="H83" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="I83" s="81"/>
-      <c r="J83" s="81"/>
-      <c r="K83" s="81"/>
-      <c r="L83" s="81"/>
-      <c r="M83" s="81"/>
-      <c r="N83" s="81"/>
-      <c r="O83" s="81"/>
-      <c r="P83" s="82"/>
+      <c r="I83" s="79"/>
+      <c r="J83" s="79"/>
+      <c r="K83" s="79"/>
+      <c r="L83" s="79"/>
+      <c r="M83" s="79"/>
+      <c r="N83" s="79"/>
+      <c r="O83" s="79"/>
+      <c r="P83" s="80"/>
       <c r="Q83" s="20"/>
       <c r="R83" s="20"/>
       <c r="S83" s="51"/>
@@ -4262,28 +4398,28 @@
         <f t="shared" ref="B84:B89" si="6">B74+7</f>
         <v>43774</v>
       </c>
-      <c r="C84" s="83" t="s">
+      <c r="C84" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="83"/>
-      <c r="E84" s="83"/>
-      <c r="F84" s="83"/>
-      <c r="G84" s="83"/>
-      <c r="H84" s="83" t="s">
+      <c r="D84" s="88"/>
+      <c r="E84" s="88"/>
+      <c r="F84" s="88"/>
+      <c r="G84" s="88"/>
+      <c r="H84" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="I84" s="83"/>
-      <c r="J84" s="80" t="s">
+      <c r="I84" s="88"/>
+      <c r="J84" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="K84" s="81"/>
-      <c r="L84" s="81"/>
-      <c r="M84" s="81"/>
-      <c r="N84" s="81"/>
-      <c r="O84" s="81"/>
-      <c r="P84" s="81"/>
-      <c r="Q84" s="81"/>
-      <c r="R84" s="82"/>
+      <c r="K84" s="79"/>
+      <c r="L84" s="79"/>
+      <c r="M84" s="79"/>
+      <c r="N84" s="79"/>
+      <c r="O84" s="79"/>
+      <c r="P84" s="79"/>
+      <c r="Q84" s="79"/>
+      <c r="R84" s="80"/>
       <c r="S84" s="51"/>
       <c r="T84" s="53" t="s">
         <v>19</v>
@@ -4300,17 +4436,17 @@
       </c>
       <c r="C85" s="32"/>
       <c r="D85" s="20"/>
-      <c r="E85" s="80" t="s">
+      <c r="E85" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="F85" s="81"/>
-      <c r="G85" s="81"/>
-      <c r="H85" s="81"/>
-      <c r="I85" s="81"/>
-      <c r="J85" s="81"/>
-      <c r="K85" s="81"/>
-      <c r="L85" s="81"/>
-      <c r="M85" s="82"/>
+      <c r="F85" s="79"/>
+      <c r="G85" s="79"/>
+      <c r="H85" s="79"/>
+      <c r="I85" s="79"/>
+      <c r="J85" s="79"/>
+      <c r="K85" s="79"/>
+      <c r="L85" s="79"/>
+      <c r="M85" s="80"/>
       <c r="N85" s="49"/>
       <c r="O85" s="49"/>
       <c r="P85" s="49"/>
@@ -4330,13 +4466,13 @@
         <f t="shared" si="6"/>
         <v>43776</v>
       </c>
-      <c r="C86" s="94" t="s">
+      <c r="C86" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="D86" s="94"/>
-      <c r="E86" s="94"/>
-      <c r="F86" s="94"/>
-      <c r="G86" s="94"/>
+      <c r="D86" s="122"/>
+      <c r="E86" s="122"/>
+      <c r="F86" s="122"/>
+      <c r="G86" s="122"/>
       <c r="H86" s="49"/>
       <c r="I86" s="49"/>
       <c r="J86" s="49"/>
@@ -4418,24 +4554,24 @@
         <f t="shared" si="6"/>
         <v>43779</v>
       </c>
-      <c r="C89" s="83" t="s">
+      <c r="C89" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="D89" s="83"/>
-      <c r="E89" s="83"/>
-      <c r="F89" s="83"/>
-      <c r="G89" s="83"/>
-      <c r="H89" s="83"/>
-      <c r="I89" s="83"/>
-      <c r="J89" s="83"/>
-      <c r="K89" s="83"/>
-      <c r="L89" s="83"/>
-      <c r="M89" s="83"/>
-      <c r="N89" s="83"/>
-      <c r="O89" s="83"/>
-      <c r="P89" s="83"/>
-      <c r="Q89" s="83"/>
-      <c r="R89" s="83"/>
+      <c r="D89" s="88"/>
+      <c r="E89" s="88"/>
+      <c r="F89" s="88"/>
+      <c r="G89" s="88"/>
+      <c r="H89" s="88"/>
+      <c r="I89" s="88"/>
+      <c r="J89" s="88"/>
+      <c r="K89" s="88"/>
+      <c r="L89" s="88"/>
+      <c r="M89" s="88"/>
+      <c r="N89" s="88"/>
+      <c r="O89" s="88"/>
+      <c r="P89" s="88"/>
+      <c r="Q89" s="88"/>
+      <c r="R89" s="88"/>
       <c r="S89" s="51"/>
       <c r="T89" s="51"/>
       <c r="U89" s="54"/>
@@ -4537,24 +4673,24 @@
         <f>B83+7</f>
         <v>43780</v>
       </c>
-      <c r="C93" s="83" t="s">
+      <c r="C93" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="83"/>
-      <c r="E93" s="83"/>
-      <c r="F93" s="83"/>
-      <c r="G93" s="83"/>
-      <c r="H93" s="79" t="s">
+      <c r="D93" s="88"/>
+      <c r="E93" s="88"/>
+      <c r="F93" s="88"/>
+      <c r="G93" s="88"/>
+      <c r="H93" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="I93" s="79"/>
-      <c r="J93" s="79"/>
-      <c r="K93" s="79"/>
-      <c r="L93" s="79"/>
-      <c r="M93" s="79"/>
-      <c r="N93" s="79"/>
-      <c r="O93" s="79"/>
-      <c r="P93" s="79"/>
+      <c r="I93" s="71"/>
+      <c r="J93" s="71"/>
+      <c r="K93" s="71"/>
+      <c r="L93" s="71"/>
+      <c r="M93" s="71"/>
+      <c r="N93" s="71"/>
+      <c r="O93" s="71"/>
+      <c r="P93" s="71"/>
       <c r="Q93" s="20"/>
       <c r="R93" s="20"/>
       <c r="S93" s="51"/>
@@ -4571,24 +4707,24 @@
         <f t="shared" ref="B94:B99" si="7">B84+7</f>
         <v>43781</v>
       </c>
-      <c r="C94" s="83" t="s">
+      <c r="C94" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="83"/>
-      <c r="E94" s="83"/>
-      <c r="F94" s="83"/>
-      <c r="G94" s="83"/>
-      <c r="H94" s="79" t="s">
+      <c r="D94" s="88"/>
+      <c r="E94" s="88"/>
+      <c r="F94" s="88"/>
+      <c r="G94" s="88"/>
+      <c r="H94" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="I94" s="79"/>
-      <c r="J94" s="79"/>
-      <c r="K94" s="79"/>
-      <c r="L94" s="79"/>
-      <c r="M94" s="79"/>
-      <c r="N94" s="79"/>
-      <c r="O94" s="79"/>
-      <c r="P94" s="79"/>
+      <c r="I94" s="71"/>
+      <c r="J94" s="71"/>
+      <c r="K94" s="71"/>
+      <c r="L94" s="71"/>
+      <c r="M94" s="71"/>
+      <c r="N94" s="71"/>
+      <c r="O94" s="71"/>
+      <c r="P94" s="71"/>
       <c r="Q94" s="20"/>
       <c r="R94" s="20"/>
       <c r="S94" s="51"/>
@@ -4635,20 +4771,20 @@
         <f t="shared" si="7"/>
         <v>43783</v>
       </c>
-      <c r="C96" s="83" t="s">
+      <c r="C96" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D96" s="83"/>
-      <c r="E96" s="83"/>
-      <c r="F96" s="83"/>
-      <c r="G96" s="83"/>
-      <c r="H96" s="95" t="s">
+      <c r="D96" s="88"/>
+      <c r="E96" s="88"/>
+      <c r="F96" s="88"/>
+      <c r="G96" s="88"/>
+      <c r="H96" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="I96" s="96"/>
-      <c r="J96" s="96"/>
-      <c r="K96" s="96"/>
-      <c r="L96" s="97"/>
+      <c r="I96" s="89"/>
+      <c r="J96" s="89"/>
+      <c r="K96" s="89"/>
+      <c r="L96" s="77"/>
       <c r="M96" s="20"/>
       <c r="N96" s="20"/>
       <c r="O96" s="20"/>
@@ -4725,24 +4861,24 @@
         <f t="shared" si="7"/>
         <v>43786</v>
       </c>
-      <c r="C99" s="83" t="s">
+      <c r="C99" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="D99" s="83"/>
-      <c r="E99" s="83"/>
-      <c r="F99" s="83"/>
-      <c r="G99" s="83"/>
-      <c r="H99" s="83"/>
-      <c r="I99" s="83"/>
-      <c r="J99" s="83"/>
-      <c r="K99" s="83"/>
-      <c r="L99" s="83"/>
-      <c r="M99" s="83"/>
-      <c r="N99" s="83"/>
-      <c r="O99" s="83"/>
-      <c r="P99" s="83"/>
-      <c r="Q99" s="83"/>
-      <c r="R99" s="83"/>
+      <c r="D99" s="88"/>
+      <c r="E99" s="88"/>
+      <c r="F99" s="88"/>
+      <c r="G99" s="88"/>
+      <c r="H99" s="88"/>
+      <c r="I99" s="88"/>
+      <c r="J99" s="88"/>
+      <c r="K99" s="88"/>
+      <c r="L99" s="88"/>
+      <c r="M99" s="88"/>
+      <c r="N99" s="88"/>
+      <c r="O99" s="88"/>
+      <c r="P99" s="88"/>
+      <c r="Q99" s="88"/>
+      <c r="R99" s="88"/>
       <c r="S99" s="51"/>
       <c r="T99" s="51"/>
       <c r="U99" s="54"/>
@@ -4844,24 +4980,24 @@
         <f>B93+7</f>
         <v>43787</v>
       </c>
-      <c r="C103" s="83" t="s">
+      <c r="C103" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="83"/>
-      <c r="E103" s="83"/>
-      <c r="F103" s="83"/>
-      <c r="G103" s="83"/>
-      <c r="H103" s="79" t="s">
+      <c r="D103" s="88"/>
+      <c r="E103" s="88"/>
+      <c r="F103" s="88"/>
+      <c r="G103" s="88"/>
+      <c r="H103" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="I103" s="79"/>
-      <c r="J103" s="79"/>
-      <c r="K103" s="79"/>
-      <c r="L103" s="79"/>
-      <c r="M103" s="79"/>
-      <c r="N103" s="79"/>
-      <c r="O103" s="79"/>
-      <c r="P103" s="79"/>
+      <c r="I103" s="71"/>
+      <c r="J103" s="71"/>
+      <c r="K103" s="71"/>
+      <c r="L103" s="71"/>
+      <c r="M103" s="71"/>
+      <c r="N103" s="71"/>
+      <c r="O103" s="71"/>
+      <c r="P103" s="71"/>
       <c r="Q103" s="20"/>
       <c r="R103" s="20"/>
       <c r="S103" s="51"/>
@@ -4878,24 +5014,24 @@
         <f t="shared" ref="B104:B109" si="8">B94+7</f>
         <v>43788</v>
       </c>
-      <c r="C104" s="83" t="s">
+      <c r="C104" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D104" s="83"/>
-      <c r="E104" s="83"/>
-      <c r="F104" s="83"/>
-      <c r="G104" s="83"/>
-      <c r="H104" s="79" t="s">
+      <c r="D104" s="88"/>
+      <c r="E104" s="88"/>
+      <c r="F104" s="88"/>
+      <c r="G104" s="88"/>
+      <c r="H104" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="I104" s="79"/>
-      <c r="J104" s="79"/>
-      <c r="K104" s="79"/>
-      <c r="L104" s="79"/>
-      <c r="M104" s="79"/>
-      <c r="N104" s="79"/>
-      <c r="O104" s="79"/>
-      <c r="P104" s="79"/>
+      <c r="I104" s="71"/>
+      <c r="J104" s="71"/>
+      <c r="K104" s="71"/>
+      <c r="L104" s="71"/>
+      <c r="M104" s="71"/>
+      <c r="N104" s="71"/>
+      <c r="O104" s="71"/>
+      <c r="P104" s="71"/>
       <c r="Q104" s="20"/>
       <c r="R104" s="20"/>
       <c r="S104" s="51"/>
@@ -4912,19 +5048,19 @@
         <f t="shared" si="8"/>
         <v>43789</v>
       </c>
-      <c r="C105" s="91" t="s">
+      <c r="C105" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="D105" s="92"/>
-      <c r="E105" s="92"/>
-      <c r="F105" s="92"/>
-      <c r="G105" s="92"/>
-      <c r="H105" s="92"/>
-      <c r="I105" s="92"/>
-      <c r="J105" s="92"/>
-      <c r="K105" s="92"/>
-      <c r="L105" s="92"/>
-      <c r="M105" s="93"/>
+      <c r="D105" s="120"/>
+      <c r="E105" s="120"/>
+      <c r="F105" s="120"/>
+      <c r="G105" s="120"/>
+      <c r="H105" s="120"/>
+      <c r="I105" s="120"/>
+      <c r="J105" s="120"/>
+      <c r="K105" s="120"/>
+      <c r="L105" s="120"/>
+      <c r="M105" s="121"/>
       <c r="N105" s="49"/>
       <c r="O105" s="49"/>
       <c r="P105" s="49"/>
@@ -4944,24 +5080,24 @@
         <f t="shared" si="8"/>
         <v>43790</v>
       </c>
-      <c r="C106" s="83" t="s">
+      <c r="C106" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D106" s="83"/>
-      <c r="E106" s="83"/>
-      <c r="F106" s="83"/>
-      <c r="G106" s="83"/>
-      <c r="H106" s="79" t="s">
+      <c r="D106" s="88"/>
+      <c r="E106" s="88"/>
+      <c r="F106" s="88"/>
+      <c r="G106" s="88"/>
+      <c r="H106" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="I106" s="79"/>
-      <c r="J106" s="79"/>
-      <c r="K106" s="79"/>
-      <c r="L106" s="79"/>
-      <c r="M106" s="79"/>
-      <c r="N106" s="79"/>
-      <c r="O106" s="79"/>
-      <c r="P106" s="79"/>
+      <c r="I106" s="71"/>
+      <c r="J106" s="71"/>
+      <c r="K106" s="71"/>
+      <c r="L106" s="71"/>
+      <c r="M106" s="71"/>
+      <c r="N106" s="71"/>
+      <c r="O106" s="71"/>
+      <c r="P106" s="71"/>
       <c r="Q106" s="20"/>
       <c r="R106" s="20"/>
       <c r="S106" s="51"/>
@@ -4978,19 +5114,19 @@
         <f t="shared" si="8"/>
         <v>43791</v>
       </c>
-      <c r="C107" s="84" t="s">
+      <c r="C107" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="D107" s="85"/>
-      <c r="E107" s="85"/>
-      <c r="F107" s="85"/>
-      <c r="G107" s="85"/>
-      <c r="H107" s="85"/>
-      <c r="I107" s="85"/>
-      <c r="J107" s="85"/>
-      <c r="K107" s="85"/>
-      <c r="L107" s="85"/>
-      <c r="M107" s="86"/>
+      <c r="D107" s="99"/>
+      <c r="E107" s="99"/>
+      <c r="F107" s="99"/>
+      <c r="G107" s="99"/>
+      <c r="H107" s="99"/>
+      <c r="I107" s="99"/>
+      <c r="J107" s="99"/>
+      <c r="K107" s="99"/>
+      <c r="L107" s="99"/>
+      <c r="M107" s="100"/>
       <c r="N107" s="20"/>
       <c r="O107" s="20"/>
       <c r="P107" s="20"/>
@@ -5036,24 +5172,24 @@
         <f t="shared" si="8"/>
         <v>43793</v>
       </c>
-      <c r="C109" s="83" t="s">
+      <c r="C109" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="D109" s="83"/>
-      <c r="E109" s="83"/>
-      <c r="F109" s="83"/>
-      <c r="G109" s="83"/>
-      <c r="H109" s="83"/>
-      <c r="I109" s="83"/>
-      <c r="J109" s="83"/>
-      <c r="K109" s="83"/>
-      <c r="L109" s="83"/>
-      <c r="M109" s="83"/>
-      <c r="N109" s="83"/>
-      <c r="O109" s="83"/>
-      <c r="P109" s="83"/>
-      <c r="Q109" s="83"/>
-      <c r="R109" s="83"/>
+      <c r="D109" s="88"/>
+      <c r="E109" s="88"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="88"/>
+      <c r="H109" s="88"/>
+      <c r="I109" s="88"/>
+      <c r="J109" s="88"/>
+      <c r="K109" s="88"/>
+      <c r="L109" s="88"/>
+      <c r="M109" s="88"/>
+      <c r="N109" s="88"/>
+      <c r="O109" s="88"/>
+      <c r="P109" s="88"/>
+      <c r="Q109" s="88"/>
+      <c r="R109" s="88"/>
       <c r="S109" s="51"/>
       <c r="T109" s="51"/>
       <c r="U109" s="54"/>
@@ -5128,11 +5264,11 @@
         <f>C102+1</f>
         <v>11</v>
       </c>
-      <c r="D112" s="88" t="s">
+      <c r="D112" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="E112" s="88"/>
-      <c r="F112" s="88"/>
+      <c r="E112" s="87"/>
+      <c r="F112" s="87"/>
       <c r="G112" s="15"/>
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
@@ -5157,21 +5293,21 @@
         <f>B103+7</f>
         <v>43794</v>
       </c>
-      <c r="C113" s="83" t="s">
+      <c r="C113" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D113" s="83"/>
-      <c r="E113" s="83"/>
-      <c r="F113" s="83"/>
-      <c r="G113" s="83"/>
-      <c r="H113" s="79" t="s">
+      <c r="D113" s="88"/>
+      <c r="E113" s="88"/>
+      <c r="F113" s="88"/>
+      <c r="G113" s="88"/>
+      <c r="H113" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="I113" s="79"/>
-      <c r="J113" s="79"/>
-      <c r="K113" s="79"/>
-      <c r="L113" s="79"/>
-      <c r="M113" s="79"/>
+      <c r="I113" s="71"/>
+      <c r="J113" s="71"/>
+      <c r="K113" s="71"/>
+      <c r="L113" s="71"/>
+      <c r="M113" s="71"/>
       <c r="N113" s="20"/>
       <c r="O113" s="20"/>
       <c r="P113" s="20"/>
@@ -5191,21 +5327,21 @@
         <f t="shared" ref="B114:B119" si="9">B104+7</f>
         <v>43795</v>
       </c>
-      <c r="C114" s="83" t="s">
+      <c r="C114" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D114" s="83"/>
-      <c r="E114" s="83"/>
-      <c r="F114" s="83"/>
-      <c r="G114" s="83"/>
-      <c r="H114" s="79" t="s">
+      <c r="D114" s="88"/>
+      <c r="E114" s="88"/>
+      <c r="F114" s="88"/>
+      <c r="G114" s="88"/>
+      <c r="H114" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="I114" s="79"/>
-      <c r="J114" s="79"/>
-      <c r="K114" s="79"/>
-      <c r="L114" s="79"/>
-      <c r="M114" s="79"/>
+      <c r="I114" s="71"/>
+      <c r="J114" s="71"/>
+      <c r="K114" s="71"/>
+      <c r="L114" s="71"/>
+      <c r="M114" s="71"/>
       <c r="N114" s="20"/>
       <c r="O114" s="49"/>
       <c r="P114" s="49"/>
@@ -5231,18 +5367,18 @@
       <c r="F115" s="49"/>
       <c r="G115" s="49"/>
       <c r="H115" s="20"/>
-      <c r="I115" s="80" t="s">
+      <c r="I115" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="J115" s="81"/>
-      <c r="K115" s="81"/>
-      <c r="L115" s="81"/>
-      <c r="M115" s="81"/>
-      <c r="N115" s="81"/>
-      <c r="O115" s="81"/>
-      <c r="P115" s="81"/>
-      <c r="Q115" s="81"/>
-      <c r="R115" s="82"/>
+      <c r="J115" s="79"/>
+      <c r="K115" s="79"/>
+      <c r="L115" s="79"/>
+      <c r="M115" s="79"/>
+      <c r="N115" s="79"/>
+      <c r="O115" s="79"/>
+      <c r="P115" s="79"/>
+      <c r="Q115" s="79"/>
+      <c r="R115" s="80"/>
       <c r="S115" s="51"/>
       <c r="T115" s="52" t="s">
         <v>20</v>
@@ -5257,24 +5393,24 @@
         <f t="shared" si="9"/>
         <v>43797</v>
       </c>
-      <c r="C116" s="83" t="s">
+      <c r="C116" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D116" s="83"/>
-      <c r="E116" s="83"/>
-      <c r="F116" s="83"/>
-      <c r="G116" s="83"/>
-      <c r="H116" s="95" t="s">
+      <c r="D116" s="88"/>
+      <c r="E116" s="88"/>
+      <c r="F116" s="88"/>
+      <c r="G116" s="88"/>
+      <c r="H116" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="I116" s="97"/>
-      <c r="J116" s="80" t="s">
+      <c r="I116" s="77"/>
+      <c r="J116" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="K116" s="81"/>
-      <c r="L116" s="81"/>
-      <c r="M116" s="81"/>
-      <c r="N116" s="82"/>
+      <c r="K116" s="79"/>
+      <c r="L116" s="79"/>
+      <c r="M116" s="79"/>
+      <c r="N116" s="80"/>
       <c r="O116" s="20"/>
       <c r="P116" s="20"/>
       <c r="Q116" s="20"/>
@@ -5349,24 +5485,24 @@
         <f t="shared" si="9"/>
         <v>43800</v>
       </c>
-      <c r="C119" s="83" t="s">
+      <c r="C119" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="D119" s="83"/>
-      <c r="E119" s="83"/>
-      <c r="F119" s="83"/>
-      <c r="G119" s="83"/>
-      <c r="H119" s="83"/>
-      <c r="I119" s="83"/>
-      <c r="J119" s="83"/>
-      <c r="K119" s="83"/>
-      <c r="L119" s="83"/>
-      <c r="M119" s="83"/>
-      <c r="N119" s="83"/>
-      <c r="O119" s="83"/>
-      <c r="P119" s="83"/>
-      <c r="Q119" s="83"/>
-      <c r="R119" s="83"/>
+      <c r="D119" s="88"/>
+      <c r="E119" s="88"/>
+      <c r="F119" s="88"/>
+      <c r="G119" s="88"/>
+      <c r="H119" s="88"/>
+      <c r="I119" s="88"/>
+      <c r="J119" s="88"/>
+      <c r="K119" s="88"/>
+      <c r="L119" s="88"/>
+      <c r="M119" s="88"/>
+      <c r="N119" s="88"/>
+      <c r="O119" s="88"/>
+      <c r="P119" s="88"/>
+      <c r="Q119" s="88"/>
+      <c r="R119" s="88"/>
       <c r="S119" s="51"/>
       <c r="T119" s="51"/>
       <c r="U119" s="54"/>
@@ -5441,11 +5577,11 @@
         <f>C112+1</f>
         <v>12</v>
       </c>
-      <c r="D122" s="112" t="s">
+      <c r="D122" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="E122" s="112"/>
-      <c r="F122" s="112"/>
+      <c r="E122" s="114"/>
+      <c r="F122" s="114"/>
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
@@ -5470,24 +5606,24 @@
         <f>B113+7</f>
         <v>43801</v>
       </c>
-      <c r="C123" s="89" t="s">
+      <c r="C123" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="89"/>
-      <c r="E123" s="89"/>
-      <c r="F123" s="89"/>
-      <c r="G123" s="89"/>
-      <c r="H123" s="78" t="s">
+      <c r="D123" s="117"/>
+      <c r="E123" s="117"/>
+      <c r="F123" s="117"/>
+      <c r="G123" s="117"/>
+      <c r="H123" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="I123" s="78"/>
-      <c r="J123" s="78"/>
-      <c r="K123" s="78"/>
-      <c r="L123" s="78"/>
-      <c r="M123" s="78"/>
-      <c r="N123" s="78"/>
-      <c r="O123" s="78"/>
-      <c r="P123" s="78"/>
+      <c r="I123" s="115"/>
+      <c r="J123" s="115"/>
+      <c r="K123" s="115"/>
+      <c r="L123" s="115"/>
+      <c r="M123" s="115"/>
+      <c r="N123" s="115"/>
+      <c r="O123" s="115"/>
+      <c r="P123" s="115"/>
       <c r="Q123" s="20"/>
       <c r="R123" s="20"/>
       <c r="S123" s="51"/>
@@ -5504,24 +5640,24 @@
         <f t="shared" ref="B124:B129" si="10">B114+7</f>
         <v>43802</v>
       </c>
-      <c r="C124" s="89" t="s">
+      <c r="C124" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="D124" s="89"/>
-      <c r="E124" s="89"/>
-      <c r="F124" s="89"/>
-      <c r="G124" s="89"/>
-      <c r="H124" s="78" t="s">
+      <c r="D124" s="117"/>
+      <c r="E124" s="117"/>
+      <c r="F124" s="117"/>
+      <c r="G124" s="117"/>
+      <c r="H124" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="I124" s="78"/>
-      <c r="J124" s="78"/>
-      <c r="K124" s="78"/>
-      <c r="L124" s="78"/>
-      <c r="M124" s="78"/>
-      <c r="N124" s="78"/>
-      <c r="O124" s="78"/>
-      <c r="P124" s="78"/>
+      <c r="I124" s="115"/>
+      <c r="J124" s="115"/>
+      <c r="K124" s="115"/>
+      <c r="L124" s="115"/>
+      <c r="M124" s="115"/>
+      <c r="N124" s="115"/>
+      <c r="O124" s="115"/>
+      <c r="P124" s="115"/>
       <c r="Q124" s="20"/>
       <c r="R124" s="20"/>
       <c r="S124" s="51"/>
@@ -5538,24 +5674,24 @@
         <f t="shared" si="10"/>
         <v>43803</v>
       </c>
-      <c r="C125" s="78" t="s">
+      <c r="C125" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="D125" s="78"/>
-      <c r="E125" s="78"/>
-      <c r="F125" s="78"/>
-      <c r="G125" s="78"/>
-      <c r="H125" s="78"/>
-      <c r="I125" s="78"/>
-      <c r="J125" s="78"/>
-      <c r="K125" s="78"/>
+      <c r="D125" s="115"/>
+      <c r="E125" s="115"/>
+      <c r="F125" s="115"/>
+      <c r="G125" s="115"/>
+      <c r="H125" s="115"/>
+      <c r="I125" s="115"/>
+      <c r="J125" s="115"/>
+      <c r="K125" s="115"/>
       <c r="L125" s="49"/>
-      <c r="M125" s="78" t="s">
+      <c r="M125" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="N125" s="78"/>
-      <c r="O125" s="78"/>
-      <c r="P125" s="78"/>
+      <c r="N125" s="115"/>
+      <c r="O125" s="115"/>
+      <c r="P125" s="115"/>
       <c r="Q125" s="49"/>
       <c r="R125" s="49"/>
       <c r="S125" s="51"/>
@@ -5572,24 +5708,24 @@
         <f t="shared" si="10"/>
         <v>43804</v>
       </c>
-      <c r="C126" s="90" t="s">
+      <c r="C126" s="118" t="s">
         <v>80</v>
       </c>
-      <c r="D126" s="90"/>
-      <c r="E126" s="90"/>
-      <c r="F126" s="90"/>
-      <c r="G126" s="90"/>
-      <c r="H126" s="78" t="s">
+      <c r="D126" s="118"/>
+      <c r="E126" s="118"/>
+      <c r="F126" s="118"/>
+      <c r="G126" s="118"/>
+      <c r="H126" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="I126" s="78"/>
-      <c r="J126" s="78"/>
-      <c r="K126" s="78"/>
-      <c r="L126" s="78"/>
-      <c r="M126" s="78"/>
-      <c r="N126" s="78"/>
-      <c r="O126" s="78"/>
-      <c r="P126" s="78"/>
+      <c r="I126" s="115"/>
+      <c r="J126" s="115"/>
+      <c r="K126" s="115"/>
+      <c r="L126" s="115"/>
+      <c r="M126" s="115"/>
+      <c r="N126" s="115"/>
+      <c r="O126" s="115"/>
+      <c r="P126" s="115"/>
       <c r="Q126" s="20"/>
       <c r="R126" s="20"/>
       <c r="S126" s="51"/>
@@ -5662,24 +5798,24 @@
         <f t="shared" si="10"/>
         <v>43807</v>
       </c>
-      <c r="C129" s="83" t="s">
+      <c r="C129" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="D129" s="83"/>
-      <c r="E129" s="83"/>
-      <c r="F129" s="83"/>
-      <c r="G129" s="83"/>
-      <c r="H129" s="83"/>
-      <c r="I129" s="83"/>
-      <c r="J129" s="83"/>
-      <c r="K129" s="83"/>
-      <c r="L129" s="83"/>
-      <c r="M129" s="83"/>
-      <c r="N129" s="83"/>
-      <c r="O129" s="83"/>
-      <c r="P129" s="83"/>
-      <c r="Q129" s="83"/>
-      <c r="R129" s="83"/>
+      <c r="D129" s="88"/>
+      <c r="E129" s="88"/>
+      <c r="F129" s="88"/>
+      <c r="G129" s="88"/>
+      <c r="H129" s="88"/>
+      <c r="I129" s="88"/>
+      <c r="J129" s="88"/>
+      <c r="K129" s="88"/>
+      <c r="L129" s="88"/>
+      <c r="M129" s="88"/>
+      <c r="N129" s="88"/>
+      <c r="O129" s="88"/>
+      <c r="P129" s="88"/>
+      <c r="Q129" s="88"/>
+      <c r="R129" s="88"/>
       <c r="S129" s="51"/>
       <c r="T129" s="51"/>
       <c r="U129" s="54"/>
@@ -5781,24 +5917,24 @@
         <f>B123+7</f>
         <v>43808</v>
       </c>
-      <c r="C133" s="83" t="s">
+      <c r="C133" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D133" s="83"/>
-      <c r="E133" s="83"/>
-      <c r="F133" s="83"/>
-      <c r="G133" s="83"/>
-      <c r="H133" s="76" t="s">
+      <c r="D133" s="88"/>
+      <c r="E133" s="88"/>
+      <c r="F133" s="88"/>
+      <c r="G133" s="88"/>
+      <c r="H133" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="I133" s="76"/>
-      <c r="J133" s="76"/>
-      <c r="K133" s="76"/>
-      <c r="L133" s="76"/>
-      <c r="M133" s="76"/>
-      <c r="N133" s="76"/>
-      <c r="O133" s="76"/>
-      <c r="P133" s="76"/>
+      <c r="I133" s="71"/>
+      <c r="J133" s="71"/>
+      <c r="K133" s="135"/>
+      <c r="L133" s="135"/>
+      <c r="M133" s="135"/>
+      <c r="N133" s="135"/>
+      <c r="O133" s="135"/>
+      <c r="P133" s="71"/>
       <c r="Q133" s="20"/>
       <c r="R133" s="20"/>
       <c r="S133" s="51"/>
@@ -5815,24 +5951,28 @@
         <f t="shared" ref="B134:B139" si="11">B124+7</f>
         <v>43809</v>
       </c>
-      <c r="C134" s="83" t="s">
+      <c r="C134" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D134" s="83"/>
-      <c r="E134" s="83"/>
-      <c r="F134" s="83"/>
-      <c r="G134" s="83"/>
-      <c r="H134" s="127" t="s">
+      <c r="D134" s="88"/>
+      <c r="E134" s="88"/>
+      <c r="F134" s="88"/>
+      <c r="G134" s="88"/>
+      <c r="H134" s="132" t="s">
+        <v>90</v>
+      </c>
+      <c r="I134" s="133"/>
+      <c r="J134" s="134" t="s">
+        <v>91</v>
+      </c>
+      <c r="K134" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="I134" s="127"/>
-      <c r="J134" s="127"/>
-      <c r="K134" s="127"/>
-      <c r="L134" s="127"/>
-      <c r="M134" s="127"/>
-      <c r="N134" s="127"/>
-      <c r="O134" s="127"/>
-      <c r="P134" s="127"/>
+      <c r="L134" s="75"/>
+      <c r="M134" s="75"/>
+      <c r="N134" s="75"/>
+      <c r="O134" s="75"/>
+      <c r="P134" s="20"/>
       <c r="Q134" s="20"/>
       <c r="R134" s="20"/>
       <c r="S134" s="51"/>
@@ -5841,7 +5981,7 @@
       </c>
       <c r="U134" s="54"/>
     </row>
-    <row r="135" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>2</v>
       </c>
@@ -5849,24 +5989,24 @@
         <f t="shared" si="11"/>
         <v>43810</v>
       </c>
-      <c r="C135" s="74" t="s">
+      <c r="C135" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="D135" s="75"/>
-      <c r="E135" s="75"/>
-      <c r="F135" s="75"/>
-      <c r="G135" s="75"/>
-      <c r="H135" s="75"/>
-      <c r="I135" s="75"/>
-      <c r="J135" s="75"/>
-      <c r="K135" s="126"/>
+      <c r="D135" s="73"/>
+      <c r="E135" s="73"/>
+      <c r="F135" s="73"/>
+      <c r="G135" s="73"/>
+      <c r="H135" s="73"/>
+      <c r="I135" s="73"/>
+      <c r="J135" s="73"/>
+      <c r="K135" s="74"/>
       <c r="L135" s="49"/>
-      <c r="M135" s="127" t="s">
+      <c r="M135" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="N135" s="127"/>
-      <c r="O135" s="127"/>
-      <c r="P135" s="127"/>
+      <c r="N135" s="75"/>
+      <c r="O135" s="75"/>
+      <c r="P135" s="75"/>
       <c r="Q135" s="49"/>
       <c r="R135" s="49"/>
       <c r="S135" s="51"/>
@@ -5875,7 +6015,7 @@
       </c>
       <c r="U135" s="54"/>
     </row>
-    <row r="136" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" s="27" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>3</v>
       </c>
@@ -5883,22 +6023,24 @@
         <f t="shared" si="11"/>
         <v>43811</v>
       </c>
-      <c r="C136" s="83" t="s">
+      <c r="C136" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="D136" s="83"/>
-      <c r="E136" s="83"/>
-      <c r="F136" s="83"/>
-      <c r="G136" s="83"/>
-      <c r="H136" s="20"/>
-      <c r="I136" s="49"/>
-      <c r="J136" s="49"/>
-      <c r="K136" s="49"/>
-      <c r="L136" s="49"/>
-      <c r="M136" s="49"/>
-      <c r="N136" s="49"/>
-      <c r="O136" s="49"/>
-      <c r="P136" s="20"/>
+      <c r="D136" s="88"/>
+      <c r="E136" s="88"/>
+      <c r="F136" s="88"/>
+      <c r="G136" s="88"/>
+      <c r="H136" s="128" t="s">
+        <v>87</v>
+      </c>
+      <c r="I136" s="128"/>
+      <c r="J136" s="128"/>
+      <c r="K136" s="128"/>
+      <c r="L136" s="128"/>
+      <c r="M136" s="128"/>
+      <c r="N136" s="128"/>
+      <c r="O136" s="128"/>
+      <c r="P136" s="128"/>
       <c r="Q136" s="20"/>
       <c r="R136" s="20"/>
       <c r="S136" s="51"/>
@@ -5907,7 +6049,7 @@
       </c>
       <c r="U136" s="54"/>
     </row>
-    <row r="137" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" s="27" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>4</v>
       </c>
@@ -5971,24 +6113,24 @@
         <f t="shared" si="11"/>
         <v>43814</v>
       </c>
-      <c r="C139" s="83" t="s">
+      <c r="C139" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="D139" s="83"/>
-      <c r="E139" s="83"/>
-      <c r="F139" s="83"/>
-      <c r="G139" s="83"/>
-      <c r="H139" s="83"/>
-      <c r="I139" s="83"/>
-      <c r="J139" s="83"/>
-      <c r="K139" s="83"/>
-      <c r="L139" s="83"/>
-      <c r="M139" s="83"/>
-      <c r="N139" s="83"/>
-      <c r="O139" s="83"/>
-      <c r="P139" s="83"/>
-      <c r="Q139" s="83"/>
-      <c r="R139" s="83"/>
+      <c r="D139" s="88"/>
+      <c r="E139" s="88"/>
+      <c r="F139" s="88"/>
+      <c r="G139" s="88"/>
+      <c r="H139" s="88"/>
+      <c r="I139" s="88"/>
+      <c r="J139" s="88"/>
+      <c r="K139" s="88"/>
+      <c r="L139" s="88"/>
+      <c r="M139" s="88"/>
+      <c r="N139" s="88"/>
+      <c r="O139" s="88"/>
+      <c r="P139" s="88"/>
+      <c r="Q139" s="88"/>
+      <c r="R139" s="88"/>
       <c r="S139" s="51"/>
       <c r="T139" s="51"/>
       <c r="U139" s="54"/>
@@ -6083,19 +6225,19 @@
         <f>C132+1</f>
         <v>14</v>
       </c>
-      <c r="D142" s="88" t="s">
+      <c r="D142" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E142" s="88"/>
-      <c r="F142" s="88"/>
+      <c r="E142" s="87"/>
+      <c r="F142" s="87"/>
       <c r="G142" s="15"/>
-      <c r="H142" s="88" t="s">
+      <c r="H142" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="I142" s="88"/>
-      <c r="J142" s="88"/>
-      <c r="K142" s="88"/>
-      <c r="L142" s="88"/>
+      <c r="I142" s="87"/>
+      <c r="J142" s="87"/>
+      <c r="K142" s="87"/>
+      <c r="L142" s="87"/>
       <c r="M142" s="19"/>
       <c r="N142" s="19"/>
       <c r="O142" s="19"/>
@@ -6114,24 +6256,24 @@
         <f>B133+7</f>
         <v>43815</v>
       </c>
-      <c r="C143" s="76" t="s">
+      <c r="C143" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="D143" s="76"/>
-      <c r="E143" s="76"/>
-      <c r="F143" s="128" t="s">
+      <c r="D143" s="128"/>
+      <c r="E143" s="128"/>
+      <c r="F143" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="G143" s="75"/>
-      <c r="H143" s="75"/>
-      <c r="I143" s="75"/>
-      <c r="J143" s="75"/>
-      <c r="K143" s="75"/>
-      <c r="L143" s="75"/>
-      <c r="M143" s="75"/>
-      <c r="N143" s="75"/>
-      <c r="O143" s="75"/>
-      <c r="P143" s="126"/>
+      <c r="G143" s="73"/>
+      <c r="H143" s="73"/>
+      <c r="I143" s="73"/>
+      <c r="J143" s="73"/>
+      <c r="K143" s="73"/>
+      <c r="L143" s="73"/>
+      <c r="M143" s="73"/>
+      <c r="N143" s="73"/>
+      <c r="O143" s="73"/>
+      <c r="P143" s="74"/>
       <c r="Q143" s="49"/>
       <c r="R143" s="49"/>
       <c r="S143" s="51"/>
@@ -6148,22 +6290,22 @@
         <f t="shared" ref="B144:B149" si="12">B134+7</f>
         <v>43816</v>
       </c>
-      <c r="C144" s="71" t="s">
+      <c r="C144" s="125" t="s">
         <v>87</v>
       </c>
-      <c r="D144" s="72"/>
-      <c r="E144" s="72"/>
-      <c r="F144" s="72"/>
-      <c r="G144" s="72"/>
-      <c r="H144" s="72"/>
-      <c r="I144" s="72"/>
-      <c r="J144" s="72"/>
-      <c r="K144" s="72"/>
-      <c r="L144" s="72"/>
-      <c r="M144" s="72"/>
-      <c r="N144" s="72"/>
-      <c r="O144" s="72"/>
-      <c r="P144" s="73"/>
+      <c r="D144" s="126"/>
+      <c r="E144" s="126"/>
+      <c r="F144" s="126"/>
+      <c r="G144" s="126"/>
+      <c r="H144" s="126"/>
+      <c r="I144" s="126"/>
+      <c r="J144" s="126"/>
+      <c r="K144" s="126"/>
+      <c r="L144" s="126"/>
+      <c r="M144" s="126"/>
+      <c r="N144" s="126"/>
+      <c r="O144" s="126"/>
+      <c r="P144" s="127"/>
       <c r="Q144" s="20"/>
       <c r="R144" s="20"/>
       <c r="S144" s="51"/>
@@ -6180,22 +6322,22 @@
         <f t="shared" si="12"/>
         <v>43817</v>
       </c>
-      <c r="C145" s="71" t="s">
+      <c r="C145" s="125" t="s">
         <v>87</v>
       </c>
-      <c r="D145" s="72"/>
-      <c r="E145" s="72"/>
-      <c r="F145" s="72"/>
-      <c r="G145" s="72"/>
-      <c r="H145" s="72"/>
-      <c r="I145" s="72"/>
-      <c r="J145" s="72"/>
-      <c r="K145" s="72"/>
-      <c r="L145" s="72"/>
-      <c r="M145" s="72"/>
-      <c r="N145" s="72"/>
-      <c r="O145" s="72"/>
-      <c r="P145" s="73"/>
+      <c r="D145" s="126"/>
+      <c r="E145" s="126"/>
+      <c r="F145" s="126"/>
+      <c r="G145" s="126"/>
+      <c r="H145" s="126"/>
+      <c r="I145" s="126"/>
+      <c r="J145" s="126"/>
+      <c r="K145" s="126"/>
+      <c r="L145" s="126"/>
+      <c r="M145" s="126"/>
+      <c r="N145" s="126"/>
+      <c r="O145" s="126"/>
+      <c r="P145" s="127"/>
       <c r="Q145" s="49"/>
       <c r="R145" s="49"/>
       <c r="S145" s="51"/>
@@ -6212,18 +6354,18 @@
         <f t="shared" si="12"/>
         <v>43818</v>
       </c>
-      <c r="C146" s="74" t="s">
+      <c r="C146" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="D146" s="75"/>
-      <c r="E146" s="75"/>
-      <c r="F146" s="75"/>
-      <c r="G146" s="75"/>
-      <c r="H146" s="75"/>
-      <c r="I146" s="75"/>
-      <c r="J146" s="75"/>
-      <c r="K146" s="75"/>
-      <c r="L146" s="75"/>
+      <c r="D146" s="73"/>
+      <c r="E146" s="73"/>
+      <c r="F146" s="73"/>
+      <c r="G146" s="73"/>
+      <c r="H146" s="73"/>
+      <c r="I146" s="73"/>
+      <c r="J146" s="73"/>
+      <c r="K146" s="73"/>
+      <c r="L146" s="73"/>
       <c r="M146" s="20"/>
       <c r="N146" s="20"/>
       <c r="O146" s="20"/>
@@ -6437,22 +6579,22 @@
         <f>B143+7</f>
         <v>43822</v>
       </c>
-      <c r="C153" s="71" t="s">
+      <c r="C153" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="D153" s="72"/>
-      <c r="E153" s="72"/>
-      <c r="F153" s="72"/>
-      <c r="G153" s="72"/>
-      <c r="H153" s="72"/>
-      <c r="I153" s="72"/>
-      <c r="J153" s="72"/>
-      <c r="K153" s="72"/>
-      <c r="L153" s="72"/>
-      <c r="M153" s="72"/>
-      <c r="N153" s="72"/>
-      <c r="O153" s="72"/>
-      <c r="P153" s="73"/>
+      <c r="D153" s="126"/>
+      <c r="E153" s="126"/>
+      <c r="F153" s="126"/>
+      <c r="G153" s="126"/>
+      <c r="H153" s="126"/>
+      <c r="I153" s="126"/>
+      <c r="J153" s="126"/>
+      <c r="K153" s="126"/>
+      <c r="L153" s="126"/>
+      <c r="M153" s="126"/>
+      <c r="N153" s="126"/>
+      <c r="O153" s="126"/>
+      <c r="P153" s="127"/>
       <c r="Q153" s="49"/>
       <c r="R153" s="49"/>
       <c r="S153" s="51"/>
@@ -6469,22 +6611,22 @@
         <f t="shared" ref="B154:B159" si="13">B144+7</f>
         <v>43823</v>
       </c>
-      <c r="C154" s="71" t="s">
+      <c r="C154" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="D154" s="72"/>
-      <c r="E154" s="72"/>
-      <c r="F154" s="72"/>
-      <c r="G154" s="72"/>
-      <c r="H154" s="72"/>
-      <c r="I154" s="72"/>
-      <c r="J154" s="72"/>
-      <c r="K154" s="72"/>
-      <c r="L154" s="72"/>
-      <c r="M154" s="72"/>
-      <c r="N154" s="72"/>
-      <c r="O154" s="72"/>
-      <c r="P154" s="73"/>
+      <c r="D154" s="126"/>
+      <c r="E154" s="126"/>
+      <c r="F154" s="126"/>
+      <c r="G154" s="126"/>
+      <c r="H154" s="126"/>
+      <c r="I154" s="126"/>
+      <c r="J154" s="126"/>
+      <c r="K154" s="126"/>
+      <c r="L154" s="126"/>
+      <c r="M154" s="126"/>
+      <c r="N154" s="126"/>
+      <c r="O154" s="126"/>
+      <c r="P154" s="127"/>
       <c r="Q154" s="20"/>
       <c r="R154" s="20"/>
       <c r="S154" s="51"/>
@@ -6501,24 +6643,24 @@
         <f t="shared" si="13"/>
         <v>43824</v>
       </c>
-      <c r="C155" s="87" t="s">
+      <c r="C155" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="D155" s="87"/>
-      <c r="E155" s="87"/>
-      <c r="F155" s="87"/>
-      <c r="G155" s="87"/>
-      <c r="H155" s="87"/>
-      <c r="I155" s="87"/>
-      <c r="J155" s="87"/>
-      <c r="K155" s="87"/>
-      <c r="L155" s="87"/>
-      <c r="M155" s="87"/>
-      <c r="N155" s="87"/>
-      <c r="O155" s="87"/>
-      <c r="P155" s="87"/>
-      <c r="Q155" s="87"/>
-      <c r="R155" s="87"/>
+      <c r="D155" s="116"/>
+      <c r="E155" s="116"/>
+      <c r="F155" s="116"/>
+      <c r="G155" s="116"/>
+      <c r="H155" s="116"/>
+      <c r="I155" s="116"/>
+      <c r="J155" s="116"/>
+      <c r="K155" s="116"/>
+      <c r="L155" s="116"/>
+      <c r="M155" s="116"/>
+      <c r="N155" s="116"/>
+      <c r="O155" s="116"/>
+      <c r="P155" s="116"/>
+      <c r="Q155" s="116"/>
+      <c r="R155" s="116"/>
       <c r="S155" s="51"/>
       <c r="T155" s="52" t="s">
         <v>20</v>
@@ -6533,22 +6675,22 @@
         <f t="shared" si="13"/>
         <v>43825</v>
       </c>
-      <c r="C156" s="87"/>
-      <c r="D156" s="87"/>
-      <c r="E156" s="87"/>
-      <c r="F156" s="87"/>
-      <c r="G156" s="87"/>
-      <c r="H156" s="87"/>
-      <c r="I156" s="87"/>
-      <c r="J156" s="87"/>
-      <c r="K156" s="87"/>
-      <c r="L156" s="87"/>
-      <c r="M156" s="87"/>
-      <c r="N156" s="87"/>
-      <c r="O156" s="87"/>
-      <c r="P156" s="87"/>
-      <c r="Q156" s="87"/>
-      <c r="R156" s="87"/>
+      <c r="C156" s="116"/>
+      <c r="D156" s="116"/>
+      <c r="E156" s="116"/>
+      <c r="F156" s="116"/>
+      <c r="G156" s="116"/>
+      <c r="H156" s="116"/>
+      <c r="I156" s="116"/>
+      <c r="J156" s="116"/>
+      <c r="K156" s="116"/>
+      <c r="L156" s="116"/>
+      <c r="M156" s="116"/>
+      <c r="N156" s="116"/>
+      <c r="O156" s="116"/>
+      <c r="P156" s="116"/>
+      <c r="Q156" s="116"/>
+      <c r="R156" s="116"/>
       <c r="S156" s="51"/>
       <c r="T156" s="18" t="s">
         <v>21</v>
@@ -6563,22 +6705,22 @@
         <f t="shared" si="13"/>
         <v>43826</v>
       </c>
-      <c r="C157" s="87"/>
-      <c r="D157" s="87"/>
-      <c r="E157" s="87"/>
-      <c r="F157" s="87"/>
-      <c r="G157" s="87"/>
-      <c r="H157" s="87"/>
-      <c r="I157" s="87"/>
-      <c r="J157" s="87"/>
-      <c r="K157" s="87"/>
-      <c r="L157" s="87"/>
-      <c r="M157" s="87"/>
-      <c r="N157" s="87"/>
-      <c r="O157" s="87"/>
-      <c r="P157" s="87"/>
-      <c r="Q157" s="87"/>
-      <c r="R157" s="87"/>
+      <c r="C157" s="116"/>
+      <c r="D157" s="116"/>
+      <c r="E157" s="116"/>
+      <c r="F157" s="116"/>
+      <c r="G157" s="116"/>
+      <c r="H157" s="116"/>
+      <c r="I157" s="116"/>
+      <c r="J157" s="116"/>
+      <c r="K157" s="116"/>
+      <c r="L157" s="116"/>
+      <c r="M157" s="116"/>
+      <c r="N157" s="116"/>
+      <c r="O157" s="116"/>
+      <c r="P157" s="116"/>
+      <c r="Q157" s="116"/>
+      <c r="R157" s="116"/>
       <c r="S157" s="51"/>
       <c r="T157" s="51"/>
       <c r="U157" s="54"/>
@@ -6591,22 +6733,22 @@
         <f t="shared" si="13"/>
         <v>43827</v>
       </c>
-      <c r="C158" s="87"/>
-      <c r="D158" s="87"/>
-      <c r="E158" s="87"/>
-      <c r="F158" s="87"/>
-      <c r="G158" s="87"/>
-      <c r="H158" s="87"/>
-      <c r="I158" s="87"/>
-      <c r="J158" s="87"/>
-      <c r="K158" s="87"/>
-      <c r="L158" s="87"/>
-      <c r="M158" s="87"/>
-      <c r="N158" s="87"/>
-      <c r="O158" s="87"/>
-      <c r="P158" s="87"/>
-      <c r="Q158" s="87"/>
-      <c r="R158" s="87"/>
+      <c r="C158" s="116"/>
+      <c r="D158" s="116"/>
+      <c r="E158" s="116"/>
+      <c r="F158" s="116"/>
+      <c r="G158" s="116"/>
+      <c r="H158" s="116"/>
+      <c r="I158" s="116"/>
+      <c r="J158" s="116"/>
+      <c r="K158" s="116"/>
+      <c r="L158" s="116"/>
+      <c r="M158" s="116"/>
+      <c r="N158" s="116"/>
+      <c r="O158" s="116"/>
+      <c r="P158" s="116"/>
+      <c r="Q158" s="116"/>
+      <c r="R158" s="116"/>
       <c r="S158" s="51"/>
       <c r="T158" s="51"/>
       <c r="U158" s="54"/>
@@ -6619,22 +6761,22 @@
         <f t="shared" si="13"/>
         <v>43828</v>
       </c>
-      <c r="C159" s="87"/>
-      <c r="D159" s="87"/>
-      <c r="E159" s="87"/>
-      <c r="F159" s="87"/>
-      <c r="G159" s="87"/>
-      <c r="H159" s="87"/>
-      <c r="I159" s="87"/>
-      <c r="J159" s="87"/>
-      <c r="K159" s="87"/>
-      <c r="L159" s="87"/>
-      <c r="M159" s="87"/>
-      <c r="N159" s="87"/>
-      <c r="O159" s="87"/>
-      <c r="P159" s="87"/>
-      <c r="Q159" s="87"/>
-      <c r="R159" s="87"/>
+      <c r="C159" s="116"/>
+      <c r="D159" s="116"/>
+      <c r="E159" s="116"/>
+      <c r="F159" s="116"/>
+      <c r="G159" s="116"/>
+      <c r="H159" s="116"/>
+      <c r="I159" s="116"/>
+      <c r="J159" s="116"/>
+      <c r="K159" s="116"/>
+      <c r="L159" s="116"/>
+      <c r="M159" s="116"/>
+      <c r="N159" s="116"/>
+      <c r="O159" s="116"/>
+      <c r="P159" s="116"/>
+      <c r="Q159" s="116"/>
+      <c r="R159" s="116"/>
       <c r="S159" s="51"/>
       <c r="T159" s="51"/>
       <c r="U159" s="54"/>
@@ -6756,24 +6898,24 @@
         <f>B153+7</f>
         <v>43829</v>
       </c>
-      <c r="C163" s="87" t="s">
+      <c r="C163" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="D163" s="87"/>
-      <c r="E163" s="87"/>
-      <c r="F163" s="87"/>
-      <c r="G163" s="87"/>
-      <c r="H163" s="87"/>
-      <c r="I163" s="87"/>
-      <c r="J163" s="87"/>
-      <c r="K163" s="87"/>
-      <c r="L163" s="87"/>
-      <c r="M163" s="87"/>
-      <c r="N163" s="87"/>
-      <c r="O163" s="87"/>
-      <c r="P163" s="87"/>
-      <c r="Q163" s="87"/>
-      <c r="R163" s="87"/>
+      <c r="D163" s="116"/>
+      <c r="E163" s="116"/>
+      <c r="F163" s="116"/>
+      <c r="G163" s="116"/>
+      <c r="H163" s="116"/>
+      <c r="I163" s="116"/>
+      <c r="J163" s="116"/>
+      <c r="K163" s="116"/>
+      <c r="L163" s="116"/>
+      <c r="M163" s="116"/>
+      <c r="N163" s="116"/>
+      <c r="O163" s="116"/>
+      <c r="P163" s="116"/>
+      <c r="Q163" s="116"/>
+      <c r="R163" s="116"/>
       <c r="S163" s="51"/>
       <c r="T163" s="30" t="s">
         <v>22</v>
@@ -6788,22 +6930,22 @@
         <f t="shared" ref="B164:B169" si="14">B154+7</f>
         <v>43830</v>
       </c>
-      <c r="C164" s="87"/>
-      <c r="D164" s="87"/>
-      <c r="E164" s="87"/>
-      <c r="F164" s="87"/>
-      <c r="G164" s="87"/>
-      <c r="H164" s="87"/>
-      <c r="I164" s="87"/>
-      <c r="J164" s="87"/>
-      <c r="K164" s="87"/>
-      <c r="L164" s="87"/>
-      <c r="M164" s="87"/>
-      <c r="N164" s="87"/>
-      <c r="O164" s="87"/>
-      <c r="P164" s="87"/>
-      <c r="Q164" s="87"/>
-      <c r="R164" s="87"/>
+      <c r="C164" s="116"/>
+      <c r="D164" s="116"/>
+      <c r="E164" s="116"/>
+      <c r="F164" s="116"/>
+      <c r="G164" s="116"/>
+      <c r="H164" s="116"/>
+      <c r="I164" s="116"/>
+      <c r="J164" s="116"/>
+      <c r="K164" s="116"/>
+      <c r="L164" s="116"/>
+      <c r="M164" s="116"/>
+      <c r="N164" s="116"/>
+      <c r="O164" s="116"/>
+      <c r="P164" s="116"/>
+      <c r="Q164" s="116"/>
+      <c r="R164" s="116"/>
       <c r="S164" s="51"/>
       <c r="T164" s="53" t="s">
         <v>19</v>
@@ -6818,22 +6960,22 @@
         <f t="shared" si="14"/>
         <v>43831</v>
       </c>
-      <c r="C165" s="87"/>
-      <c r="D165" s="87"/>
-      <c r="E165" s="87"/>
-      <c r="F165" s="87"/>
-      <c r="G165" s="87"/>
-      <c r="H165" s="87"/>
-      <c r="I165" s="87"/>
-      <c r="J165" s="87"/>
-      <c r="K165" s="87"/>
-      <c r="L165" s="87"/>
-      <c r="M165" s="87"/>
-      <c r="N165" s="87"/>
-      <c r="O165" s="87"/>
-      <c r="P165" s="87"/>
-      <c r="Q165" s="87"/>
-      <c r="R165" s="87"/>
+      <c r="C165" s="116"/>
+      <c r="D165" s="116"/>
+      <c r="E165" s="116"/>
+      <c r="F165" s="116"/>
+      <c r="G165" s="116"/>
+      <c r="H165" s="116"/>
+      <c r="I165" s="116"/>
+      <c r="J165" s="116"/>
+      <c r="K165" s="116"/>
+      <c r="L165" s="116"/>
+      <c r="M165" s="116"/>
+      <c r="N165" s="116"/>
+      <c r="O165" s="116"/>
+      <c r="P165" s="116"/>
+      <c r="Q165" s="116"/>
+      <c r="R165" s="116"/>
       <c r="S165" s="51"/>
       <c r="T165" s="52" t="s">
         <v>20</v>
@@ -6848,22 +6990,22 @@
         <f t="shared" si="14"/>
         <v>43832</v>
       </c>
-      <c r="C166" s="71" t="s">
+      <c r="C166" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="D166" s="72"/>
-      <c r="E166" s="72"/>
-      <c r="F166" s="72"/>
-      <c r="G166" s="72"/>
-      <c r="H166" s="72"/>
-      <c r="I166" s="72"/>
-      <c r="J166" s="72"/>
-      <c r="K166" s="72"/>
-      <c r="L166" s="72"/>
-      <c r="M166" s="72"/>
-      <c r="N166" s="72"/>
-      <c r="O166" s="72"/>
-      <c r="P166" s="73"/>
+      <c r="D166" s="126"/>
+      <c r="E166" s="126"/>
+      <c r="F166" s="126"/>
+      <c r="G166" s="126"/>
+      <c r="H166" s="126"/>
+      <c r="I166" s="126"/>
+      <c r="J166" s="126"/>
+      <c r="K166" s="126"/>
+      <c r="L166" s="126"/>
+      <c r="M166" s="126"/>
+      <c r="N166" s="126"/>
+      <c r="O166" s="126"/>
+      <c r="P166" s="127"/>
       <c r="Q166" s="49"/>
       <c r="R166" s="20"/>
       <c r="S166" s="51"/>
@@ -6880,22 +7022,22 @@
         <f t="shared" si="14"/>
         <v>43833</v>
       </c>
-      <c r="C167" s="71" t="s">
+      <c r="C167" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="D167" s="72"/>
-      <c r="E167" s="72"/>
-      <c r="F167" s="72"/>
-      <c r="G167" s="72"/>
-      <c r="H167" s="72"/>
-      <c r="I167" s="72"/>
-      <c r="J167" s="72"/>
-      <c r="K167" s="72"/>
-      <c r="L167" s="72"/>
-      <c r="M167" s="72"/>
-      <c r="N167" s="72"/>
-      <c r="O167" s="72"/>
-      <c r="P167" s="73"/>
+      <c r="D167" s="126"/>
+      <c r="E167" s="126"/>
+      <c r="F167" s="126"/>
+      <c r="G167" s="126"/>
+      <c r="H167" s="126"/>
+      <c r="I167" s="126"/>
+      <c r="J167" s="126"/>
+      <c r="K167" s="126"/>
+      <c r="L167" s="126"/>
+      <c r="M167" s="126"/>
+      <c r="N167" s="126"/>
+      <c r="O167" s="126"/>
+      <c r="P167" s="127"/>
       <c r="Q167" s="49"/>
       <c r="R167" s="49"/>
       <c r="S167" s="51"/>
@@ -6910,22 +7052,22 @@
         <f t="shared" si="14"/>
         <v>43834</v>
       </c>
-      <c r="C168" s="71" t="s">
+      <c r="C168" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="D168" s="72"/>
-      <c r="E168" s="72"/>
-      <c r="F168" s="72"/>
-      <c r="G168" s="72"/>
-      <c r="H168" s="72"/>
-      <c r="I168" s="72"/>
-      <c r="J168" s="72"/>
-      <c r="K168" s="72"/>
-      <c r="L168" s="72"/>
-      <c r="M168" s="72"/>
-      <c r="N168" s="72"/>
-      <c r="O168" s="72"/>
-      <c r="P168" s="73"/>
+      <c r="D168" s="126"/>
+      <c r="E168" s="126"/>
+      <c r="F168" s="126"/>
+      <c r="G168" s="126"/>
+      <c r="H168" s="126"/>
+      <c r="I168" s="126"/>
+      <c r="J168" s="126"/>
+      <c r="K168" s="126"/>
+      <c r="L168" s="126"/>
+      <c r="M168" s="126"/>
+      <c r="N168" s="126"/>
+      <c r="O168" s="126"/>
+      <c r="P168" s="127"/>
       <c r="Q168" s="49"/>
       <c r="R168" s="49"/>
       <c r="S168" s="51"/>
@@ -7057,22 +7199,22 @@
         <f>B163+7</f>
         <v>43836</v>
       </c>
-      <c r="C173" s="71" t="s">
+      <c r="C173" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="D173" s="72"/>
-      <c r="E173" s="72"/>
-      <c r="F173" s="72"/>
-      <c r="G173" s="72"/>
-      <c r="H173" s="72"/>
-      <c r="I173" s="72"/>
-      <c r="J173" s="72"/>
-      <c r="K173" s="72"/>
-      <c r="L173" s="72"/>
-      <c r="M173" s="72"/>
-      <c r="N173" s="72"/>
-      <c r="O173" s="72"/>
-      <c r="P173" s="73"/>
+      <c r="D173" s="126"/>
+      <c r="E173" s="126"/>
+      <c r="F173" s="126"/>
+      <c r="G173" s="126"/>
+      <c r="H173" s="126"/>
+      <c r="I173" s="126"/>
+      <c r="J173" s="126"/>
+      <c r="K173" s="126"/>
+      <c r="L173" s="126"/>
+      <c r="M173" s="126"/>
+      <c r="N173" s="126"/>
+      <c r="O173" s="126"/>
+      <c r="P173" s="127"/>
       <c r="Q173" s="49"/>
       <c r="R173" s="49"/>
       <c r="S173" s="51"/>
@@ -7089,22 +7231,22 @@
         <f t="shared" ref="B174:B179" si="15">B164+7</f>
         <v>43837</v>
       </c>
-      <c r="C174" s="71" t="s">
+      <c r="C174" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="D174" s="72"/>
-      <c r="E174" s="72"/>
-      <c r="F174" s="72"/>
-      <c r="G174" s="72"/>
-      <c r="H174" s="72"/>
-      <c r="I174" s="72"/>
-      <c r="J174" s="72"/>
-      <c r="K174" s="72"/>
-      <c r="L174" s="72"/>
-      <c r="M174" s="72"/>
-      <c r="N174" s="72"/>
-      <c r="O174" s="72"/>
-      <c r="P174" s="73"/>
+      <c r="D174" s="126"/>
+      <c r="E174" s="126"/>
+      <c r="F174" s="126"/>
+      <c r="G174" s="126"/>
+      <c r="H174" s="126"/>
+      <c r="I174" s="126"/>
+      <c r="J174" s="126"/>
+      <c r="K174" s="126"/>
+      <c r="L174" s="126"/>
+      <c r="M174" s="126"/>
+      <c r="N174" s="126"/>
+      <c r="O174" s="126"/>
+      <c r="P174" s="127"/>
       <c r="Q174" s="49"/>
       <c r="R174" s="49"/>
       <c r="S174" s="51"/>
@@ -7121,22 +7263,22 @@
         <f t="shared" si="15"/>
         <v>43838</v>
       </c>
-      <c r="C175" s="71" t="s">
+      <c r="C175" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="D175" s="72"/>
-      <c r="E175" s="72"/>
-      <c r="F175" s="72"/>
-      <c r="G175" s="72"/>
-      <c r="H175" s="72"/>
-      <c r="I175" s="72"/>
-      <c r="J175" s="72"/>
-      <c r="K175" s="72"/>
-      <c r="L175" s="72"/>
-      <c r="M175" s="72"/>
-      <c r="N175" s="72"/>
-      <c r="O175" s="72"/>
-      <c r="P175" s="73"/>
+      <c r="D175" s="126"/>
+      <c r="E175" s="126"/>
+      <c r="F175" s="126"/>
+      <c r="G175" s="126"/>
+      <c r="H175" s="126"/>
+      <c r="I175" s="126"/>
+      <c r="J175" s="126"/>
+      <c r="K175" s="126"/>
+      <c r="L175" s="126"/>
+      <c r="M175" s="126"/>
+      <c r="N175" s="126"/>
+      <c r="O175" s="126"/>
+      <c r="P175" s="127"/>
       <c r="Q175" s="49"/>
       <c r="R175" s="49"/>
       <c r="S175" s="51"/>
@@ -7153,22 +7295,22 @@
         <f t="shared" si="15"/>
         <v>43839</v>
       </c>
-      <c r="C176" s="71" t="s">
+      <c r="C176" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="D176" s="72"/>
-      <c r="E176" s="72"/>
-      <c r="F176" s="72"/>
-      <c r="G176" s="72"/>
-      <c r="H176" s="72"/>
-      <c r="I176" s="72"/>
-      <c r="J176" s="72"/>
-      <c r="K176" s="72"/>
-      <c r="L176" s="72"/>
-      <c r="M176" s="72"/>
-      <c r="N176" s="72"/>
-      <c r="O176" s="72"/>
-      <c r="P176" s="73"/>
+      <c r="D176" s="126"/>
+      <c r="E176" s="126"/>
+      <c r="F176" s="126"/>
+      <c r="G176" s="126"/>
+      <c r="H176" s="126"/>
+      <c r="I176" s="126"/>
+      <c r="J176" s="126"/>
+      <c r="K176" s="126"/>
+      <c r="L176" s="126"/>
+      <c r="M176" s="126"/>
+      <c r="N176" s="126"/>
+      <c r="O176" s="126"/>
+      <c r="P176" s="127"/>
       <c r="Q176" s="49"/>
       <c r="R176" s="49"/>
       <c r="S176" s="51"/>
@@ -7185,22 +7327,22 @@
         <f t="shared" si="15"/>
         <v>43840</v>
       </c>
-      <c r="C177" s="71" t="s">
+      <c r="C177" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="D177" s="72"/>
-      <c r="E177" s="72"/>
-      <c r="F177" s="72"/>
-      <c r="G177" s="72"/>
-      <c r="H177" s="72"/>
-      <c r="I177" s="72"/>
-      <c r="J177" s="72"/>
-      <c r="K177" s="72"/>
-      <c r="L177" s="72"/>
-      <c r="M177" s="72"/>
-      <c r="N177" s="72"/>
-      <c r="O177" s="72"/>
-      <c r="P177" s="73"/>
+      <c r="D177" s="126"/>
+      <c r="E177" s="126"/>
+      <c r="F177" s="126"/>
+      <c r="G177" s="126"/>
+      <c r="H177" s="126"/>
+      <c r="I177" s="126"/>
+      <c r="J177" s="126"/>
+      <c r="K177" s="126"/>
+      <c r="L177" s="126"/>
+      <c r="M177" s="126"/>
+      <c r="N177" s="126"/>
+      <c r="O177" s="126"/>
+      <c r="P177" s="127"/>
       <c r="Q177" s="49"/>
       <c r="R177" s="49"/>
       <c r="S177" s="51"/>
@@ -7215,22 +7357,22 @@
         <f t="shared" si="15"/>
         <v>43841</v>
       </c>
-      <c r="C178" s="71" t="s">
+      <c r="C178" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="D178" s="72"/>
-      <c r="E178" s="72"/>
-      <c r="F178" s="72"/>
-      <c r="G178" s="72"/>
-      <c r="H178" s="72"/>
-      <c r="I178" s="72"/>
-      <c r="J178" s="72"/>
-      <c r="K178" s="72"/>
-      <c r="L178" s="72"/>
-      <c r="M178" s="72"/>
-      <c r="N178" s="72"/>
-      <c r="O178" s="72"/>
-      <c r="P178" s="73"/>
+      <c r="D178" s="126"/>
+      <c r="E178" s="126"/>
+      <c r="F178" s="126"/>
+      <c r="G178" s="126"/>
+      <c r="H178" s="126"/>
+      <c r="I178" s="126"/>
+      <c r="J178" s="126"/>
+      <c r="K178" s="126"/>
+      <c r="L178" s="126"/>
+      <c r="M178" s="126"/>
+      <c r="N178" s="126"/>
+      <c r="O178" s="126"/>
+      <c r="P178" s="127"/>
       <c r="Q178" s="49"/>
       <c r="R178" s="49"/>
       <c r="S178" s="51"/>
@@ -7360,22 +7502,22 @@
         <f>B173+7</f>
         <v>43843</v>
       </c>
-      <c r="C183" s="71" t="s">
+      <c r="C183" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="D183" s="72"/>
-      <c r="E183" s="72"/>
-      <c r="F183" s="72"/>
-      <c r="G183" s="72"/>
-      <c r="H183" s="72"/>
-      <c r="I183" s="72"/>
-      <c r="J183" s="72"/>
-      <c r="K183" s="72"/>
-      <c r="L183" s="72"/>
-      <c r="M183" s="72"/>
-      <c r="N183" s="72"/>
-      <c r="O183" s="72"/>
-      <c r="P183" s="73"/>
+      <c r="D183" s="126"/>
+      <c r="E183" s="126"/>
+      <c r="F183" s="126"/>
+      <c r="G183" s="126"/>
+      <c r="H183" s="126"/>
+      <c r="I183" s="126"/>
+      <c r="J183" s="126"/>
+      <c r="K183" s="126"/>
+      <c r="L183" s="126"/>
+      <c r="M183" s="126"/>
+      <c r="N183" s="126"/>
+      <c r="O183" s="126"/>
+      <c r="P183" s="127"/>
       <c r="Q183" s="49"/>
       <c r="R183" s="49"/>
       <c r="S183" s="51"/>
@@ -7391,22 +7533,22 @@
         <f t="shared" ref="B184:B189" si="16">B174+7</f>
         <v>43844</v>
       </c>
-      <c r="C184" s="71" t="s">
+      <c r="C184" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="D184" s="72"/>
-      <c r="E184" s="72"/>
-      <c r="F184" s="72"/>
-      <c r="G184" s="72"/>
-      <c r="H184" s="72"/>
-      <c r="I184" s="72"/>
-      <c r="J184" s="72"/>
-      <c r="K184" s="72"/>
-      <c r="L184" s="72"/>
-      <c r="M184" s="72"/>
-      <c r="N184" s="72"/>
-      <c r="O184" s="72"/>
-      <c r="P184" s="73"/>
+      <c r="D184" s="126"/>
+      <c r="E184" s="126"/>
+      <c r="F184" s="126"/>
+      <c r="G184" s="126"/>
+      <c r="H184" s="126"/>
+      <c r="I184" s="126"/>
+      <c r="J184" s="126"/>
+      <c r="K184" s="126"/>
+      <c r="L184" s="126"/>
+      <c r="M184" s="126"/>
+      <c r="N184" s="126"/>
+      <c r="O184" s="126"/>
+      <c r="P184" s="127"/>
       <c r="Q184" s="49"/>
       <c r="R184" s="49"/>
       <c r="S184" s="51"/>
@@ -7422,22 +7564,22 @@
         <f t="shared" si="16"/>
         <v>43845</v>
       </c>
-      <c r="C185" s="71" t="s">
+      <c r="C185" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="D185" s="72"/>
-      <c r="E185" s="72"/>
-      <c r="F185" s="72"/>
-      <c r="G185" s="72"/>
-      <c r="H185" s="72"/>
-      <c r="I185" s="72"/>
-      <c r="J185" s="72"/>
-      <c r="K185" s="72"/>
-      <c r="L185" s="72"/>
-      <c r="M185" s="72"/>
-      <c r="N185" s="72"/>
-      <c r="O185" s="72"/>
-      <c r="P185" s="73"/>
+      <c r="D185" s="126"/>
+      <c r="E185" s="126"/>
+      <c r="F185" s="126"/>
+      <c r="G185" s="126"/>
+      <c r="H185" s="126"/>
+      <c r="I185" s="126"/>
+      <c r="J185" s="126"/>
+      <c r="K185" s="126"/>
+      <c r="L185" s="126"/>
+      <c r="M185" s="126"/>
+      <c r="N185" s="126"/>
+      <c r="O185" s="126"/>
+      <c r="P185" s="127"/>
       <c r="Q185" s="49"/>
       <c r="R185" s="49"/>
       <c r="S185" s="51"/>
@@ -7453,22 +7595,24 @@
         <f t="shared" si="16"/>
         <v>43846</v>
       </c>
-      <c r="C186" s="50"/>
-      <c r="D186" s="49"/>
-      <c r="E186" s="49"/>
-      <c r="F186" s="49"/>
-      <c r="G186" s="49"/>
-      <c r="H186" s="49"/>
-      <c r="I186" s="49"/>
-      <c r="J186" s="49"/>
-      <c r="K186" s="49"/>
-      <c r="L186" s="49"/>
-      <c r="M186" s="49"/>
-      <c r="N186" s="49"/>
-      <c r="O186" s="49"/>
-      <c r="P186" s="49"/>
-      <c r="Q186" s="49"/>
-      <c r="R186" s="49"/>
+      <c r="C186" s="136" t="s">
+        <v>92</v>
+      </c>
+      <c r="D186" s="137"/>
+      <c r="E186" s="137"/>
+      <c r="F186" s="137"/>
+      <c r="G186" s="137"/>
+      <c r="H186" s="137"/>
+      <c r="I186" s="137"/>
+      <c r="J186" s="137"/>
+      <c r="K186" s="137"/>
+      <c r="L186" s="137"/>
+      <c r="M186" s="137"/>
+      <c r="N186" s="137"/>
+      <c r="O186" s="137"/>
+      <c r="P186" s="137"/>
+      <c r="Q186" s="137"/>
+      <c r="R186" s="138"/>
       <c r="S186" s="51"/>
       <c r="T186" s="18" t="s">
         <v>21</v>
@@ -7482,22 +7626,22 @@
         <f t="shared" si="16"/>
         <v>43847</v>
       </c>
-      <c r="C187" s="50"/>
-      <c r="D187" s="49"/>
-      <c r="E187" s="49"/>
-      <c r="F187" s="49"/>
-      <c r="G187" s="49"/>
-      <c r="H187" s="49"/>
-      <c r="I187" s="49"/>
-      <c r="J187" s="49"/>
-      <c r="K187" s="49"/>
-      <c r="L187" s="49"/>
-      <c r="M187" s="49"/>
-      <c r="N187" s="49"/>
-      <c r="O187" s="49"/>
-      <c r="P187" s="49"/>
-      <c r="Q187" s="49"/>
-      <c r="R187" s="49"/>
+      <c r="C187" s="139"/>
+      <c r="D187" s="140"/>
+      <c r="E187" s="140"/>
+      <c r="F187" s="140"/>
+      <c r="G187" s="140"/>
+      <c r="H187" s="140"/>
+      <c r="I187" s="140"/>
+      <c r="J187" s="140"/>
+      <c r="K187" s="140"/>
+      <c r="L187" s="140"/>
+      <c r="M187" s="140"/>
+      <c r="N187" s="140"/>
+      <c r="O187" s="140"/>
+      <c r="P187" s="140"/>
+      <c r="Q187" s="140"/>
+      <c r="R187" s="141"/>
       <c r="S187" s="51"/>
       <c r="T187" s="51"/>
     </row>
@@ -7509,22 +7653,22 @@
         <f t="shared" si="16"/>
         <v>43848</v>
       </c>
-      <c r="C188" s="50"/>
-      <c r="D188" s="49"/>
-      <c r="E188" s="49"/>
-      <c r="F188" s="49"/>
-      <c r="G188" s="49"/>
-      <c r="H188" s="49"/>
-      <c r="I188" s="49"/>
-      <c r="J188" s="49"/>
-      <c r="K188" s="49"/>
-      <c r="L188" s="49"/>
-      <c r="M188" s="49"/>
-      <c r="N188" s="49"/>
-      <c r="O188" s="49"/>
-      <c r="P188" s="49"/>
-      <c r="Q188" s="49"/>
-      <c r="R188" s="49"/>
+      <c r="C188" s="139"/>
+      <c r="D188" s="140"/>
+      <c r="E188" s="140"/>
+      <c r="F188" s="140"/>
+      <c r="G188" s="140"/>
+      <c r="H188" s="140"/>
+      <c r="I188" s="140"/>
+      <c r="J188" s="140"/>
+      <c r="K188" s="140"/>
+      <c r="L188" s="140"/>
+      <c r="M188" s="140"/>
+      <c r="N188" s="140"/>
+      <c r="O188" s="140"/>
+      <c r="P188" s="140"/>
+      <c r="Q188" s="140"/>
+      <c r="R188" s="141"/>
       <c r="S188" s="51"/>
       <c r="T188" s="51"/>
     </row>
@@ -7536,22 +7680,22 @@
         <f t="shared" si="16"/>
         <v>43849</v>
       </c>
-      <c r="C189" s="50"/>
-      <c r="D189" s="49"/>
-      <c r="E189" s="49"/>
-      <c r="F189" s="49"/>
-      <c r="G189" s="49"/>
-      <c r="H189" s="49"/>
-      <c r="I189" s="49"/>
-      <c r="J189" s="49"/>
-      <c r="K189" s="20"/>
-      <c r="L189" s="20"/>
-      <c r="M189" s="20"/>
-      <c r="N189" s="20"/>
-      <c r="O189" s="20"/>
-      <c r="P189" s="20"/>
-      <c r="Q189" s="20"/>
-      <c r="R189" s="20"/>
+      <c r="C189" s="142"/>
+      <c r="D189" s="143"/>
+      <c r="E189" s="143"/>
+      <c r="F189" s="143"/>
+      <c r="G189" s="143"/>
+      <c r="H189" s="143"/>
+      <c r="I189" s="143"/>
+      <c r="J189" s="143"/>
+      <c r="K189" s="143"/>
+      <c r="L189" s="143"/>
+      <c r="M189" s="143"/>
+      <c r="N189" s="143"/>
+      <c r="O189" s="143"/>
+      <c r="P189" s="143"/>
+      <c r="Q189" s="143"/>
+      <c r="R189" s="144"/>
       <c r="S189" s="51"/>
       <c r="T189" s="51"/>
     </row>
@@ -15926,31 +16070,108 @@
       <c r="T507"/>
     </row>
   </sheetData>
-  <mergeCells count="145">
-    <mergeCell ref="H114:M114"/>
-    <mergeCell ref="C135:K135"/>
-    <mergeCell ref="M135:P135"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="J116:N116"/>
-    <mergeCell ref="H134:P134"/>
-    <mergeCell ref="F143:P143"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H46:P46"/>
-    <mergeCell ref="H44:N44"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="L75:Q75"/>
-    <mergeCell ref="I53:M53"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="I55:N55"/>
+  <mergeCells count="148">
+    <mergeCell ref="H136:P136"/>
+    <mergeCell ref="K134:O134"/>
+    <mergeCell ref="C186:R189"/>
+    <mergeCell ref="C144:P144"/>
+    <mergeCell ref="C146:L146"/>
+    <mergeCell ref="H133:P133"/>
+    <mergeCell ref="C183:P183"/>
+    <mergeCell ref="C184:P184"/>
+    <mergeCell ref="C185:P185"/>
+    <mergeCell ref="C166:P166"/>
+    <mergeCell ref="C167:P167"/>
+    <mergeCell ref="C168:P168"/>
+    <mergeCell ref="C173:P173"/>
+    <mergeCell ref="C174:P174"/>
+    <mergeCell ref="C175:P175"/>
+    <mergeCell ref="C176:P176"/>
+    <mergeCell ref="C177:P177"/>
+    <mergeCell ref="C178:P178"/>
+    <mergeCell ref="C145:P145"/>
+    <mergeCell ref="C153:P153"/>
+    <mergeCell ref="C154:P154"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="M125:P125"/>
+    <mergeCell ref="C79:R79"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H83:P83"/>
+    <mergeCell ref="C107:M107"/>
+    <mergeCell ref="J84:R84"/>
+    <mergeCell ref="E85:M85"/>
+    <mergeCell ref="H93:P93"/>
+    <mergeCell ref="H94:P94"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H96:L96"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="H124:P124"/>
+    <mergeCell ref="C125:K125"/>
+    <mergeCell ref="H113:M113"/>
+    <mergeCell ref="C109:R109"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="T58:U60"/>
+    <mergeCell ref="H123:P123"/>
+    <mergeCell ref="H103:P103"/>
+    <mergeCell ref="H104:P104"/>
+    <mergeCell ref="I115:R115"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="H64:N64"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="C69:R69"/>
+    <mergeCell ref="H126:P126"/>
+    <mergeCell ref="C155:R159"/>
+    <mergeCell ref="C163:R165"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H142:L142"/>
+    <mergeCell ref="C105:M105"/>
+    <mergeCell ref="H106:P106"/>
+    <mergeCell ref="C119:R119"/>
+    <mergeCell ref="C129:R129"/>
+    <mergeCell ref="C139:R139"/>
+    <mergeCell ref="C89:R89"/>
+    <mergeCell ref="C99:R99"/>
+    <mergeCell ref="L74:Q74"/>
+    <mergeCell ref="L77:Q77"/>
+    <mergeCell ref="L78:Q78"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="J58:P58"/>
+    <mergeCell ref="E74:J74"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="H66:Q66"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H23:R23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="E73:J73"/>
+    <mergeCell ref="L73:Q73"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="H54:P54"/>
+    <mergeCell ref="C66:G66"/>
     <mergeCell ref="C76:R76"/>
     <mergeCell ref="E78:J78"/>
     <mergeCell ref="G55:H55"/>
@@ -15975,103 +16196,29 @@
     <mergeCell ref="M24:N24"/>
     <mergeCell ref="J24:L24"/>
     <mergeCell ref="H33:P33"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H23:R23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="E73:J73"/>
-    <mergeCell ref="L73:Q73"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="H54:P54"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="L74:Q74"/>
-    <mergeCell ref="L77:Q77"/>
-    <mergeCell ref="L78:Q78"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="J58:P58"/>
-    <mergeCell ref="E74:J74"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="H66:Q66"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="H64:N64"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="C69:R69"/>
-    <mergeCell ref="H126:P126"/>
-    <mergeCell ref="C155:R159"/>
-    <mergeCell ref="C163:R165"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="C136:G136"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="C124:G124"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="C126:G126"/>
-    <mergeCell ref="H142:L142"/>
-    <mergeCell ref="C105:M105"/>
-    <mergeCell ref="H106:P106"/>
-    <mergeCell ref="C119:R119"/>
-    <mergeCell ref="C129:R129"/>
-    <mergeCell ref="C139:R139"/>
-    <mergeCell ref="C89:R89"/>
-    <mergeCell ref="C99:R99"/>
-    <mergeCell ref="C109:R109"/>
-    <mergeCell ref="C103:G103"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="T58:U60"/>
-    <mergeCell ref="H123:P123"/>
-    <mergeCell ref="H103:P103"/>
-    <mergeCell ref="H104:P104"/>
-    <mergeCell ref="I115:R115"/>
-    <mergeCell ref="M125:P125"/>
-    <mergeCell ref="C79:R79"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="H83:P83"/>
-    <mergeCell ref="C107:M107"/>
-    <mergeCell ref="J84:R84"/>
-    <mergeCell ref="E85:M85"/>
-    <mergeCell ref="H93:P93"/>
-    <mergeCell ref="H94:P94"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="H96:L96"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="H124:P124"/>
-    <mergeCell ref="C125:K125"/>
-    <mergeCell ref="H113:M113"/>
-    <mergeCell ref="C144:P144"/>
-    <mergeCell ref="C146:L146"/>
-    <mergeCell ref="H133:P133"/>
-    <mergeCell ref="C183:P183"/>
-    <mergeCell ref="C184:P184"/>
-    <mergeCell ref="C185:P185"/>
-    <mergeCell ref="C166:P166"/>
-    <mergeCell ref="C167:P167"/>
-    <mergeCell ref="C168:P168"/>
-    <mergeCell ref="C173:P173"/>
-    <mergeCell ref="C174:P174"/>
-    <mergeCell ref="C175:P175"/>
-    <mergeCell ref="C176:P176"/>
-    <mergeCell ref="C177:P177"/>
-    <mergeCell ref="C178:P178"/>
-    <mergeCell ref="C145:P145"/>
-    <mergeCell ref="C153:P153"/>
-    <mergeCell ref="C154:P154"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="C134:G134"/>
-    <mergeCell ref="C133:G133"/>
-    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="H114:M114"/>
+    <mergeCell ref="C135:K135"/>
+    <mergeCell ref="M135:P135"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="J116:N116"/>
+    <mergeCell ref="F143:P143"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H46:P46"/>
+    <mergeCell ref="H44:N44"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="L75:Q75"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="I55:N55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -16661,7 +16808,7 @@
         <v>43929</v>
       </c>
       <c r="D36" s="29"/>
-      <c r="F36" s="87" t="s">
+      <c r="F36" s="116" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16679,7 +16826,7 @@
         <v>43936</v>
       </c>
       <c r="D37" s="44"/>
-      <c r="F37" s="87"/>
+      <c r="F37" s="116"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
@@ -16695,7 +16842,7 @@
         <v>43943</v>
       </c>
       <c r="D38" s="29"/>
-      <c r="F38" s="87"/>
+      <c r="F38" s="116"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="23">

--- a/Weekly Planner.xlsx
+++ b/Weekly Planner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SoftwareProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B4D734-ED13-4242-B0CF-4AE37FC5B5A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E4D729-627C-44AF-B87D-CBD01FFF7D22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Planner" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="98">
   <si>
     <t>Monday</t>
   </si>
@@ -320,12 +320,27 @@
   <si>
     <t>Break</t>
   </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>SP - Project Plan organise</t>
+  </si>
+  <si>
+    <t>Software Project - Seminar</t>
+  </si>
+  <si>
+    <t>READING WEEK</t>
+  </si>
+  <si>
+    <t>Project  - (50%) (15/01)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,6 +440,14 @@
     <font>
       <i/>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1024,7 +1047,7 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1208,199 +1231,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="36" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="5" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="11" borderId="4" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="8" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="21" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="9" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="21" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="37" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="21" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="39" xfId="8" applyBorder="1" applyAlignment="1">
@@ -1429,6 +1266,211 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="44" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="21" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="37" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="11" borderId="4" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="36" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="5" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="9" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="16" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1730,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C190" sqref="C190"/>
+    <sheetView topLeftCell="A385" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O273" sqref="O273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2114,26 +2156,26 @@
       <c r="B13" s="57">
         <v>43724</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="82" t="s">
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="94"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="127"/>
       <c r="S13" s="51"/>
       <c r="T13" s="30" t="s">
         <v>22</v>
@@ -2146,26 +2188,26 @@
       <c r="B14" s="57">
         <v>43725</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="95" t="s">
+      <c r="J14" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="82" t="s">
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="94"/>
+      <c r="P14" s="127"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="51"/>
@@ -2208,20 +2250,20 @@
       <c r="B16" s="57">
         <v>43727</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="102" t="s">
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
@@ -2426,26 +2468,26 @@
         <f>B13+7</f>
         <v>43731</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="82" t="s">
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="94"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="126"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="126"/>
+      <c r="N23" s="126"/>
+      <c r="O23" s="126"/>
+      <c r="P23" s="126"/>
+      <c r="Q23" s="126"/>
+      <c r="R23" s="127"/>
       <c r="S23" s="51"/>
       <c r="T23" s="30" t="s">
         <v>22</v>
@@ -2459,30 +2501,30 @@
         <f t="shared" ref="B24:B29" si="0">B14+7</f>
         <v>43732</v>
       </c>
-      <c r="C24" s="88" t="s">
+      <c r="C24" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="82" t="s">
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="83"/>
-      <c r="J24" s="76" t="s">
+      <c r="I24" s="138"/>
+      <c r="J24" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="K24" s="89"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="76" t="s">
+      <c r="K24" s="102"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="N24" s="77"/>
-      <c r="O24" s="95" t="s">
+      <c r="N24" s="103"/>
+      <c r="O24" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="P24" s="97"/>
+      <c r="P24" s="129"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
       <c r="S24" s="51"/>
@@ -2527,20 +2569,20 @@
         <f t="shared" si="0"/>
         <v>43734</v>
       </c>
-      <c r="C26" s="88" t="s">
+      <c r="C26" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="91" t="s">
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="132" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="132"/>
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
@@ -2722,12 +2764,12 @@
         <f>C22+1</f>
         <v>3</v>
       </c>
-      <c r="D32" s="101" t="s">
+      <c r="D32" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
@@ -2750,24 +2792,24 @@
         <f>B23+7</f>
         <v>43738</v>
       </c>
-      <c r="C33" s="88" t="s">
+      <c r="C33" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="91" t="s">
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="91"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="91"/>
-      <c r="P33" s="91"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="132"/>
+      <c r="P33" s="132"/>
       <c r="Q33" s="62"/>
       <c r="R33" s="62"/>
       <c r="S33" s="51"/>
@@ -2783,13 +2825,13 @@
         <f t="shared" ref="B34:B39" si="1">B24+7</f>
         <v>43739</v>
       </c>
-      <c r="C34" s="88" t="s">
+      <c r="C34" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
       <c r="H34" s="62"/>
       <c r="I34" s="62"/>
       <c r="J34" s="62"/>
@@ -2843,13 +2885,13 @@
         <f t="shared" si="1"/>
         <v>43741</v>
       </c>
-      <c r="C36" s="88" t="s">
+      <c r="C36" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="63"/>
@@ -3062,24 +3104,24 @@
         <f>B33+7</f>
         <v>43745</v>
       </c>
-      <c r="C43" s="88" t="s">
+      <c r="C43" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="71" t="s">
+      <c r="D43" s="90"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="71"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="88"/>
+      <c r="L43" s="88"/>
+      <c r="M43" s="88"/>
+      <c r="N43" s="88"/>
+      <c r="O43" s="88"/>
+      <c r="P43" s="88"/>
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
       <c r="S43" s="51"/>
@@ -3095,22 +3137,22 @@
         <f t="shared" ref="B44:B49" si="2">B34+7</f>
         <v>43746</v>
       </c>
-      <c r="C44" s="88" t="s">
+      <c r="C44" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="84" t="s">
+      <c r="D44" s="90"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="85"/>
-      <c r="M44" s="85"/>
-      <c r="N44" s="85"/>
+      <c r="I44" s="119"/>
+      <c r="J44" s="119"/>
+      <c r="K44" s="119"/>
+      <c r="L44" s="119"/>
+      <c r="M44" s="119"/>
+      <c r="N44" s="119"/>
       <c r="O44" s="49"/>
       <c r="P44" s="49"/>
       <c r="Q44" s="49"/>
@@ -3133,7 +3175,7 @@
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
-      <c r="H45" s="98" t="s">
+      <c r="H45" s="135" t="s">
         <v>58</v>
       </c>
       <c r="I45" s="99"/>
@@ -3159,24 +3201,24 @@
         <f t="shared" si="2"/>
         <v>43748</v>
       </c>
-      <c r="C46" s="88" t="s">
+      <c r="C46" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="78" t="s">
+      <c r="D46" s="90"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="I46" s="79"/>
-      <c r="J46" s="79"/>
-      <c r="K46" s="79"/>
-      <c r="L46" s="79"/>
-      <c r="M46" s="79"/>
-      <c r="N46" s="79"/>
-      <c r="O46" s="79"/>
-      <c r="P46" s="80"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="96"/>
+      <c r="K46" s="96"/>
+      <c r="L46" s="96"/>
+      <c r="M46" s="96"/>
+      <c r="N46" s="96"/>
+      <c r="O46" s="96"/>
+      <c r="P46" s="97"/>
       <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
       <c r="S46" s="51"/>
@@ -3355,11 +3397,11 @@
         <v>5</v>
       </c>
       <c r="G52" s="15"/>
-      <c r="H52" s="86" t="s">
+      <c r="H52" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="I52" s="86"/>
-      <c r="J52" s="86"/>
+      <c r="I52" s="140"/>
+      <c r="J52" s="140"/>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
       <c r="M52" s="19"/>
@@ -3379,23 +3421,23 @@
         <f>B43+7</f>
         <v>43752</v>
       </c>
-      <c r="C53" s="88" t="s">
+      <c r="C53" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="88"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="88"/>
-      <c r="G53" s="88"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
       <c r="H53" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="I53" s="76" t="s">
+      <c r="I53" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="89"/>
-      <c r="K53" s="89"/>
-      <c r="L53" s="89"/>
-      <c r="M53" s="89"/>
+      <c r="J53" s="102"/>
+      <c r="K53" s="102"/>
+      <c r="L53" s="102"/>
+      <c r="M53" s="102"/>
       <c r="N53" s="49"/>
       <c r="O53" s="49"/>
       <c r="P53" s="49"/>
@@ -3414,28 +3456,28 @@
         <f t="shared" ref="B54:B59" si="3">B44+7</f>
         <v>43753</v>
       </c>
-      <c r="C54" s="88" t="s">
+      <c r="C54" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="103" t="s">
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="I54" s="104"/>
-      <c r="J54" s="104"/>
-      <c r="K54" s="104"/>
-      <c r="L54" s="104"/>
-      <c r="M54" s="104"/>
-      <c r="N54" s="104"/>
-      <c r="O54" s="104"/>
-      <c r="P54" s="104"/>
-      <c r="Q54" s="82" t="s">
+      <c r="I54" s="131"/>
+      <c r="J54" s="131"/>
+      <c r="K54" s="131"/>
+      <c r="L54" s="131"/>
+      <c r="M54" s="131"/>
+      <c r="N54" s="131"/>
+      <c r="O54" s="131"/>
+      <c r="P54" s="131"/>
+      <c r="Q54" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="R54" s="94"/>
+      <c r="R54" s="127"/>
       <c r="S54" s="51"/>
       <c r="T54" s="53" t="s">
         <v>19</v>
@@ -3453,18 +3495,18 @@
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
-      <c r="G55" s="88" t="s">
+      <c r="G55" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="H55" s="88"/>
-      <c r="I55" s="90" t="s">
+      <c r="H55" s="90"/>
+      <c r="I55" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="J55" s="89"/>
-      <c r="K55" s="89"/>
-      <c r="L55" s="89"/>
-      <c r="M55" s="89"/>
-      <c r="N55" s="89"/>
+      <c r="J55" s="102"/>
+      <c r="K55" s="102"/>
+      <c r="L55" s="102"/>
+      <c r="M55" s="102"/>
+      <c r="N55" s="102"/>
       <c r="O55" s="49"/>
       <c r="P55" s="49"/>
       <c r="Q55" s="49"/>
@@ -3482,21 +3524,21 @@
         <f t="shared" si="3"/>
         <v>43755</v>
       </c>
-      <c r="C56" s="88" t="s">
+      <c r="C56" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="88"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="88"/>
-      <c r="G56" s="88"/>
-      <c r="H56" s="110" t="s">
+      <c r="D56" s="90"/>
+      <c r="E56" s="90"/>
+      <c r="F56" s="90"/>
+      <c r="G56" s="90"/>
+      <c r="H56" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="I56" s="85"/>
-      <c r="J56" s="85"/>
-      <c r="K56" s="85"/>
-      <c r="L56" s="85"/>
-      <c r="M56" s="85"/>
+      <c r="I56" s="119"/>
+      <c r="J56" s="119"/>
+      <c r="K56" s="119"/>
+      <c r="L56" s="119"/>
+      <c r="M56" s="119"/>
       <c r="N56" s="49"/>
       <c r="O56" s="49"/>
       <c r="P56" s="49"/>
@@ -3528,11 +3570,11 @@
       <c r="M57" s="49"/>
       <c r="N57" s="49"/>
       <c r="O57" s="49"/>
-      <c r="P57" s="78" t="s">
+      <c r="P57" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="Q57" s="79"/>
-      <c r="R57" s="80"/>
+      <c r="Q57" s="96"/>
+      <c r="R57" s="97"/>
       <c r="S57" s="51"/>
       <c r="T57" s="51"/>
     </row>
@@ -3546,31 +3588,31 @@
       </c>
       <c r="C58" s="50"/>
       <c r="D58" s="49"/>
-      <c r="E58" s="108" t="s">
+      <c r="E58" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="F58" s="79"/>
-      <c r="G58" s="109"/>
-      <c r="H58" s="88" t="s">
+      <c r="F58" s="96"/>
+      <c r="G58" s="117"/>
+      <c r="H58" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="I58" s="88"/>
-      <c r="J58" s="76" t="s">
+      <c r="I58" s="90"/>
+      <c r="J58" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="K58" s="89"/>
-      <c r="L58" s="89"/>
-      <c r="M58" s="89"/>
-      <c r="N58" s="89"/>
-      <c r="O58" s="89"/>
-      <c r="P58" s="77"/>
+      <c r="K58" s="102"/>
+      <c r="L58" s="102"/>
+      <c r="M58" s="102"/>
+      <c r="N58" s="102"/>
+      <c r="O58" s="102"/>
+      <c r="P58" s="103"/>
       <c r="Q58" s="20"/>
       <c r="R58" s="20"/>
       <c r="S58" s="51"/>
-      <c r="T58" s="123" t="s">
+      <c r="T58" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="U58" s="123"/>
+      <c r="U58" s="106"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -3597,8 +3639,8 @@
       <c r="Q59" s="20"/>
       <c r="R59" s="20"/>
       <c r="S59" s="51"/>
-      <c r="T59" s="123"/>
-      <c r="U59" s="123"/>
+      <c r="T59" s="106"/>
+      <c r="U59" s="106"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B60"/>
@@ -3619,8 +3661,8 @@
       <c r="Q60"/>
       <c r="R60"/>
       <c r="S60"/>
-      <c r="T60" s="123"/>
-      <c r="U60" s="123"/>
+      <c r="T60" s="106"/>
+      <c r="U60" s="106"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
@@ -3694,11 +3736,11 @@
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
-      <c r="H62" s="86" t="s">
+      <c r="H62" s="140" t="s">
         <v>73</v>
       </c>
-      <c r="I62" s="86"/>
-      <c r="J62" s="86"/>
+      <c r="I62" s="140"/>
+      <c r="J62" s="140"/>
       <c r="K62" s="19"/>
       <c r="L62" s="19"/>
       <c r="M62" s="19"/>
@@ -3718,22 +3760,22 @@
         <f>B53+7</f>
         <v>43759</v>
       </c>
-      <c r="C63" s="88" t="s">
+      <c r="C63" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="88"/>
-      <c r="E63" s="88"/>
-      <c r="F63" s="88"/>
-      <c r="G63" s="88"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="90"/>
       <c r="H63" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="I63" s="76" t="s">
+      <c r="I63" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="J63" s="89"/>
-      <c r="K63" s="89"/>
-      <c r="L63" s="89"/>
+      <c r="J63" s="102"/>
+      <c r="K63" s="102"/>
+      <c r="L63" s="102"/>
       <c r="M63" s="49"/>
       <c r="N63" s="49"/>
       <c r="O63" s="49"/>
@@ -3753,22 +3795,22 @@
         <f t="shared" ref="B64:B69" si="4">B54+7</f>
         <v>43760</v>
       </c>
-      <c r="C64" s="88" t="s">
+      <c r="C64" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="88"/>
-      <c r="E64" s="88"/>
-      <c r="F64" s="88"/>
-      <c r="G64" s="88"/>
-      <c r="H64" s="108" t="s">
+      <c r="D64" s="90"/>
+      <c r="E64" s="90"/>
+      <c r="F64" s="90"/>
+      <c r="G64" s="90"/>
+      <c r="H64" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="I64" s="79"/>
-      <c r="J64" s="79"/>
-      <c r="K64" s="79"/>
-      <c r="L64" s="79"/>
-      <c r="M64" s="79"/>
-      <c r="N64" s="79"/>
+      <c r="I64" s="96"/>
+      <c r="J64" s="96"/>
+      <c r="K64" s="96"/>
+      <c r="L64" s="96"/>
+      <c r="M64" s="96"/>
+      <c r="N64" s="96"/>
       <c r="O64" s="49"/>
       <c r="P64" s="49"/>
       <c r="Q64" s="49"/>
@@ -3817,25 +3859,25 @@
         <f t="shared" si="4"/>
         <v>43762</v>
       </c>
-      <c r="C66" s="88" t="s">
+      <c r="C66" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="88"/>
-      <c r="E66" s="88"/>
-      <c r="F66" s="88"/>
-      <c r="G66" s="88"/>
-      <c r="H66" s="111" t="s">
+      <c r="D66" s="90"/>
+      <c r="E66" s="90"/>
+      <c r="F66" s="90"/>
+      <c r="G66" s="90"/>
+      <c r="H66" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="I66" s="112"/>
-      <c r="J66" s="112"/>
-      <c r="K66" s="112"/>
-      <c r="L66" s="112"/>
-      <c r="M66" s="112"/>
-      <c r="N66" s="112"/>
-      <c r="O66" s="112"/>
-      <c r="P66" s="112"/>
-      <c r="Q66" s="113"/>
+      <c r="I66" s="121"/>
+      <c r="J66" s="121"/>
+      <c r="K66" s="121"/>
+      <c r="L66" s="121"/>
+      <c r="M66" s="121"/>
+      <c r="N66" s="121"/>
+      <c r="O66" s="121"/>
+      <c r="P66" s="121"/>
+      <c r="Q66" s="122"/>
       <c r="R66" s="20"/>
       <c r="S66" s="51"/>
       <c r="T66" s="18" t="s">
@@ -3850,26 +3892,26 @@
         <f t="shared" si="4"/>
         <v>43763</v>
       </c>
-      <c r="C67" s="76" t="s">
+      <c r="C67" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="89"/>
-      <c r="G67" s="89"/>
-      <c r="H67" s="89"/>
-      <c r="I67" s="89"/>
-      <c r="J67" s="77"/>
+      <c r="D67" s="102"/>
+      <c r="E67" s="102"/>
+      <c r="F67" s="102"/>
+      <c r="G67" s="102"/>
+      <c r="H67" s="102"/>
+      <c r="I67" s="102"/>
+      <c r="J67" s="103"/>
       <c r="K67" s="49"/>
-      <c r="L67" s="89" t="s">
+      <c r="L67" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="M67" s="89"/>
-      <c r="N67" s="89"/>
-      <c r="O67" s="89"/>
-      <c r="P67" s="89"/>
-      <c r="Q67" s="89"/>
-      <c r="R67" s="77"/>
+      <c r="M67" s="102"/>
+      <c r="N67" s="102"/>
+      <c r="O67" s="102"/>
+      <c r="P67" s="102"/>
+      <c r="Q67" s="102"/>
+      <c r="R67" s="103"/>
       <c r="S67" s="51"/>
       <c r="T67" s="51"/>
     </row>
@@ -3908,24 +3950,24 @@
         <f t="shared" si="4"/>
         <v>43765</v>
       </c>
-      <c r="C69" s="88" t="s">
+      <c r="C69" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="D69" s="88"/>
-      <c r="E69" s="88"/>
-      <c r="F69" s="88"/>
-      <c r="G69" s="88"/>
-      <c r="H69" s="88"/>
-      <c r="I69" s="88"/>
-      <c r="J69" s="88"/>
-      <c r="K69" s="88"/>
-      <c r="L69" s="88"/>
-      <c r="M69" s="88"/>
-      <c r="N69" s="88"/>
-      <c r="O69" s="88"/>
-      <c r="P69" s="88"/>
-      <c r="Q69" s="88"/>
-      <c r="R69" s="88"/>
+      <c r="D69" s="90"/>
+      <c r="E69" s="90"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="90"/>
+      <c r="I69" s="90"/>
+      <c r="J69" s="90"/>
+      <c r="K69" s="90"/>
+      <c r="L69" s="90"/>
+      <c r="M69" s="90"/>
+      <c r="N69" s="90"/>
+      <c r="O69" s="90"/>
+      <c r="P69" s="90"/>
+      <c r="Q69" s="90"/>
+      <c r="R69" s="90"/>
       <c r="S69" s="51"/>
       <c r="T69" s="51"/>
     </row>
@@ -4018,27 +4060,27 @@
         <f>C62+1</f>
         <v>7</v>
       </c>
-      <c r="D72" s="87" t="s">
+      <c r="D72" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="87"/>
-      <c r="F72" s="87"/>
+      <c r="E72" s="91"/>
+      <c r="F72" s="91"/>
       <c r="G72" s="15"/>
-      <c r="H72" s="114" t="s">
+      <c r="H72" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="I72" s="114"/>
-      <c r="J72" s="114"/>
-      <c r="K72" s="114"/>
+      <c r="I72" s="104"/>
+      <c r="J72" s="104"/>
+      <c r="K72" s="104"/>
       <c r="L72" s="19"/>
-      <c r="M72" s="92" t="s">
+      <c r="M72" s="133" t="s">
         <v>75</v>
       </c>
-      <c r="N72" s="92"/>
-      <c r="O72" s="92"/>
-      <c r="P72" s="92"/>
-      <c r="Q72" s="92"/>
-      <c r="R72" s="92"/>
+      <c r="N72" s="133"/>
+      <c r="O72" s="133"/>
+      <c r="P72" s="133"/>
+      <c r="Q72" s="133"/>
+      <c r="R72" s="133"/>
       <c r="S72" s="51"/>
       <c r="T72" s="51"/>
     </row>
@@ -4052,23 +4094,23 @@
       </c>
       <c r="C73" s="32"/>
       <c r="D73" s="20"/>
-      <c r="E73" s="71" t="s">
+      <c r="E73" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="F73" s="71"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="71"/>
-      <c r="I73" s="71"/>
-      <c r="J73" s="71"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="88"/>
+      <c r="H73" s="88"/>
+      <c r="I73" s="88"/>
+      <c r="J73" s="88"/>
       <c r="K73" s="49"/>
-      <c r="L73" s="76" t="s">
+      <c r="L73" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="M73" s="89"/>
-      <c r="N73" s="89"/>
-      <c r="O73" s="89"/>
-      <c r="P73" s="89"/>
-      <c r="Q73" s="77"/>
+      <c r="M73" s="102"/>
+      <c r="N73" s="102"/>
+      <c r="O73" s="102"/>
+      <c r="P73" s="102"/>
+      <c r="Q73" s="103"/>
       <c r="R73" s="49"/>
       <c r="S73" s="51"/>
       <c r="T73" s="30" t="s">
@@ -4083,27 +4125,27 @@
         <f t="shared" ref="B74:B79" si="5">B64+7</f>
         <v>43767</v>
       </c>
-      <c r="C74" s="76" t="s">
+      <c r="C74" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D74" s="77"/>
-      <c r="E74" s="71" t="s">
+      <c r="D74" s="103"/>
+      <c r="E74" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="71"/>
-      <c r="J74" s="71"/>
+      <c r="F74" s="88"/>
+      <c r="G74" s="88"/>
+      <c r="H74" s="88"/>
+      <c r="I74" s="88"/>
+      <c r="J74" s="88"/>
       <c r="K74" s="49"/>
-      <c r="L74" s="76" t="s">
+      <c r="L74" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="M74" s="89"/>
-      <c r="N74" s="89"/>
-      <c r="O74" s="89"/>
-      <c r="P74" s="89"/>
-      <c r="Q74" s="77"/>
+      <c r="M74" s="102"/>
+      <c r="N74" s="102"/>
+      <c r="O74" s="102"/>
+      <c r="P74" s="102"/>
+      <c r="Q74" s="103"/>
       <c r="R74" s="20"/>
       <c r="S74" s="51"/>
       <c r="T74" s="53" t="s">
@@ -4120,23 +4162,23 @@
       </c>
       <c r="C75" s="32"/>
       <c r="D75" s="20"/>
-      <c r="E75" s="71" t="s">
+      <c r="E75" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="71"/>
-      <c r="J75" s="71"/>
+      <c r="F75" s="88"/>
+      <c r="G75" s="88"/>
+      <c r="H75" s="88"/>
+      <c r="I75" s="88"/>
+      <c r="J75" s="88"/>
       <c r="K75" s="49"/>
-      <c r="L75" s="76" t="s">
+      <c r="L75" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="M75" s="89"/>
-      <c r="N75" s="89"/>
-      <c r="O75" s="89"/>
-      <c r="P75" s="89"/>
-      <c r="Q75" s="77"/>
+      <c r="M75" s="102"/>
+      <c r="N75" s="102"/>
+      <c r="O75" s="102"/>
+      <c r="P75" s="102"/>
+      <c r="Q75" s="103"/>
       <c r="R75" s="49"/>
       <c r="S75" s="51"/>
       <c r="T75" s="52" t="s">
@@ -4151,24 +4193,24 @@
         <f t="shared" si="5"/>
         <v>43769</v>
       </c>
-      <c r="C76" s="88" t="s">
+      <c r="C76" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="D76" s="88"/>
-      <c r="E76" s="88"/>
-      <c r="F76" s="88"/>
-      <c r="G76" s="88"/>
-      <c r="H76" s="88"/>
-      <c r="I76" s="88"/>
-      <c r="J76" s="88"/>
-      <c r="K76" s="88"/>
-      <c r="L76" s="88"/>
-      <c r="M76" s="88"/>
-      <c r="N76" s="88"/>
-      <c r="O76" s="88"/>
-      <c r="P76" s="88"/>
-      <c r="Q76" s="88"/>
-      <c r="R76" s="88"/>
+      <c r="D76" s="90"/>
+      <c r="E76" s="90"/>
+      <c r="F76" s="90"/>
+      <c r="G76" s="90"/>
+      <c r="H76" s="90"/>
+      <c r="I76" s="90"/>
+      <c r="J76" s="90"/>
+      <c r="K76" s="90"/>
+      <c r="L76" s="90"/>
+      <c r="M76" s="90"/>
+      <c r="N76" s="90"/>
+      <c r="O76" s="90"/>
+      <c r="P76" s="90"/>
+      <c r="Q76" s="90"/>
+      <c r="R76" s="90"/>
       <c r="S76" s="51"/>
       <c r="T76" s="18" t="s">
         <v>21</v>
@@ -4184,23 +4226,23 @@
       </c>
       <c r="C77" s="32"/>
       <c r="D77" s="20"/>
-      <c r="E77" s="91" t="s">
+      <c r="E77" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="F77" s="91"/>
-      <c r="G77" s="91"/>
-      <c r="H77" s="91"/>
-      <c r="I77" s="91"/>
-      <c r="J77" s="91"/>
+      <c r="F77" s="132"/>
+      <c r="G77" s="132"/>
+      <c r="H77" s="132"/>
+      <c r="I77" s="132"/>
+      <c r="J77" s="132"/>
       <c r="K77" s="49"/>
-      <c r="L77" s="105" t="s">
+      <c r="L77" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="M77" s="106"/>
-      <c r="N77" s="106"/>
-      <c r="O77" s="106"/>
-      <c r="P77" s="106"/>
-      <c r="Q77" s="107"/>
+      <c r="M77" s="115"/>
+      <c r="N77" s="115"/>
+      <c r="O77" s="115"/>
+      <c r="P77" s="115"/>
+      <c r="Q77" s="116"/>
       <c r="R77" s="20"/>
       <c r="S77" s="51"/>
       <c r="T77" s="51"/>
@@ -4215,23 +4257,23 @@
       </c>
       <c r="C78" s="50"/>
       <c r="D78" s="49"/>
-      <c r="E78" s="91" t="s">
+      <c r="E78" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="F78" s="91"/>
-      <c r="G78" s="91"/>
-      <c r="H78" s="91"/>
-      <c r="I78" s="91"/>
-      <c r="J78" s="91"/>
+      <c r="F78" s="132"/>
+      <c r="G78" s="132"/>
+      <c r="H78" s="132"/>
+      <c r="I78" s="132"/>
+      <c r="J78" s="132"/>
       <c r="K78" s="49"/>
-      <c r="L78" s="105" t="s">
+      <c r="L78" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="M78" s="106"/>
-      <c r="N78" s="106"/>
-      <c r="O78" s="106"/>
-      <c r="P78" s="106"/>
-      <c r="Q78" s="107"/>
+      <c r="M78" s="115"/>
+      <c r="N78" s="115"/>
+      <c r="O78" s="115"/>
+      <c r="P78" s="115"/>
+      <c r="Q78" s="116"/>
       <c r="R78" s="49"/>
       <c r="S78" s="51"/>
       <c r="T78" s="51"/>
@@ -4244,24 +4286,24 @@
         <f t="shared" si="5"/>
         <v>43772</v>
       </c>
-      <c r="C79" s="88" t="s">
+      <c r="C79" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="D79" s="88"/>
-      <c r="E79" s="88"/>
-      <c r="F79" s="88"/>
-      <c r="G79" s="88"/>
-      <c r="H79" s="88"/>
-      <c r="I79" s="88"/>
-      <c r="J79" s="88"/>
-      <c r="K79" s="88"/>
-      <c r="L79" s="88"/>
-      <c r="M79" s="88"/>
-      <c r="N79" s="88"/>
-      <c r="O79" s="88"/>
-      <c r="P79" s="88"/>
-      <c r="Q79" s="88"/>
-      <c r="R79" s="88"/>
+      <c r="D79" s="90"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="90"/>
+      <c r="G79" s="90"/>
+      <c r="H79" s="90"/>
+      <c r="I79" s="90"/>
+      <c r="J79" s="90"/>
+      <c r="K79" s="90"/>
+      <c r="L79" s="90"/>
+      <c r="M79" s="90"/>
+      <c r="N79" s="90"/>
+      <c r="O79" s="90"/>
+      <c r="P79" s="90"/>
+      <c r="Q79" s="90"/>
+      <c r="R79" s="90"/>
       <c r="S79" s="51"/>
       <c r="T79" s="51"/>
     </row>
@@ -4335,11 +4377,11 @@
         <f>C72+1</f>
         <v>8</v>
       </c>
-      <c r="D82" s="87" t="s">
+      <c r="D82" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="87"/>
-      <c r="F82" s="87"/>
+      <c r="E82" s="91"/>
+      <c r="F82" s="91"/>
       <c r="G82" s="15"/>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -4364,24 +4406,24 @@
         <f>B73+7</f>
         <v>43773</v>
       </c>
-      <c r="C83" s="88" t="s">
+      <c r="C83" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="88"/>
-      <c r="E83" s="88"/>
-      <c r="F83" s="88"/>
-      <c r="G83" s="88"/>
-      <c r="H83" s="78" t="s">
+      <c r="D83" s="90"/>
+      <c r="E83" s="90"/>
+      <c r="F83" s="90"/>
+      <c r="G83" s="90"/>
+      <c r="H83" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="I83" s="79"/>
-      <c r="J83" s="79"/>
-      <c r="K83" s="79"/>
-      <c r="L83" s="79"/>
-      <c r="M83" s="79"/>
-      <c r="N83" s="79"/>
-      <c r="O83" s="79"/>
-      <c r="P83" s="80"/>
+      <c r="I83" s="96"/>
+      <c r="J83" s="96"/>
+      <c r="K83" s="96"/>
+      <c r="L83" s="96"/>
+      <c r="M83" s="96"/>
+      <c r="N83" s="96"/>
+      <c r="O83" s="96"/>
+      <c r="P83" s="97"/>
       <c r="Q83" s="20"/>
       <c r="R83" s="20"/>
       <c r="S83" s="51"/>
@@ -4398,28 +4440,28 @@
         <f t="shared" ref="B84:B89" si="6">B74+7</f>
         <v>43774</v>
       </c>
-      <c r="C84" s="88" t="s">
+      <c r="C84" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="88"/>
-      <c r="E84" s="88"/>
-      <c r="F84" s="88"/>
-      <c r="G84" s="88"/>
-      <c r="H84" s="88" t="s">
+      <c r="D84" s="90"/>
+      <c r="E84" s="90"/>
+      <c r="F84" s="90"/>
+      <c r="G84" s="90"/>
+      <c r="H84" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="I84" s="88"/>
-      <c r="J84" s="78" t="s">
+      <c r="I84" s="90"/>
+      <c r="J84" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="K84" s="79"/>
-      <c r="L84" s="79"/>
-      <c r="M84" s="79"/>
-      <c r="N84" s="79"/>
-      <c r="O84" s="79"/>
-      <c r="P84" s="79"/>
-      <c r="Q84" s="79"/>
-      <c r="R84" s="80"/>
+      <c r="K84" s="96"/>
+      <c r="L84" s="96"/>
+      <c r="M84" s="96"/>
+      <c r="N84" s="96"/>
+      <c r="O84" s="96"/>
+      <c r="P84" s="96"/>
+      <c r="Q84" s="96"/>
+      <c r="R84" s="97"/>
       <c r="S84" s="51"/>
       <c r="T84" s="53" t="s">
         <v>19</v>
@@ -4436,17 +4478,17 @@
       </c>
       <c r="C85" s="32"/>
       <c r="D85" s="20"/>
-      <c r="E85" s="78" t="s">
+      <c r="E85" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="F85" s="79"/>
-      <c r="G85" s="79"/>
-      <c r="H85" s="79"/>
-      <c r="I85" s="79"/>
-      <c r="J85" s="79"/>
-      <c r="K85" s="79"/>
-      <c r="L85" s="79"/>
-      <c r="M85" s="80"/>
+      <c r="F85" s="96"/>
+      <c r="G85" s="96"/>
+      <c r="H85" s="96"/>
+      <c r="I85" s="96"/>
+      <c r="J85" s="96"/>
+      <c r="K85" s="96"/>
+      <c r="L85" s="96"/>
+      <c r="M85" s="97"/>
       <c r="N85" s="49"/>
       <c r="O85" s="49"/>
       <c r="P85" s="49"/>
@@ -4466,13 +4508,13 @@
         <f t="shared" si="6"/>
         <v>43776</v>
       </c>
-      <c r="C86" s="122" t="s">
+      <c r="C86" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="D86" s="122"/>
-      <c r="E86" s="122"/>
-      <c r="F86" s="122"/>
-      <c r="G86" s="122"/>
+      <c r="D86" s="105"/>
+      <c r="E86" s="105"/>
+      <c r="F86" s="105"/>
+      <c r="G86" s="105"/>
       <c r="H86" s="49"/>
       <c r="I86" s="49"/>
       <c r="J86" s="49"/>
@@ -4554,24 +4596,24 @@
         <f t="shared" si="6"/>
         <v>43779</v>
       </c>
-      <c r="C89" s="88" t="s">
+      <c r="C89" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="D89" s="88"/>
-      <c r="E89" s="88"/>
-      <c r="F89" s="88"/>
-      <c r="G89" s="88"/>
-      <c r="H89" s="88"/>
-      <c r="I89" s="88"/>
-      <c r="J89" s="88"/>
-      <c r="K89" s="88"/>
-      <c r="L89" s="88"/>
-      <c r="M89" s="88"/>
-      <c r="N89" s="88"/>
-      <c r="O89" s="88"/>
-      <c r="P89" s="88"/>
-      <c r="Q89" s="88"/>
-      <c r="R89" s="88"/>
+      <c r="D89" s="90"/>
+      <c r="E89" s="90"/>
+      <c r="F89" s="90"/>
+      <c r="G89" s="90"/>
+      <c r="H89" s="90"/>
+      <c r="I89" s="90"/>
+      <c r="J89" s="90"/>
+      <c r="K89" s="90"/>
+      <c r="L89" s="90"/>
+      <c r="M89" s="90"/>
+      <c r="N89" s="90"/>
+      <c r="O89" s="90"/>
+      <c r="P89" s="90"/>
+      <c r="Q89" s="90"/>
+      <c r="R89" s="90"/>
       <c r="S89" s="51"/>
       <c r="T89" s="51"/>
       <c r="U89" s="54"/>
@@ -4673,24 +4715,24 @@
         <f>B83+7</f>
         <v>43780</v>
       </c>
-      <c r="C93" s="88" t="s">
+      <c r="C93" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="88"/>
-      <c r="E93" s="88"/>
-      <c r="F93" s="88"/>
-      <c r="G93" s="88"/>
-      <c r="H93" s="71" t="s">
+      <c r="D93" s="90"/>
+      <c r="E93" s="90"/>
+      <c r="F93" s="90"/>
+      <c r="G93" s="90"/>
+      <c r="H93" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="I93" s="71"/>
-      <c r="J93" s="71"/>
-      <c r="K93" s="71"/>
-      <c r="L93" s="71"/>
-      <c r="M93" s="71"/>
-      <c r="N93" s="71"/>
-      <c r="O93" s="71"/>
-      <c r="P93" s="71"/>
+      <c r="I93" s="88"/>
+      <c r="J93" s="88"/>
+      <c r="K93" s="88"/>
+      <c r="L93" s="88"/>
+      <c r="M93" s="88"/>
+      <c r="N93" s="88"/>
+      <c r="O93" s="88"/>
+      <c r="P93" s="88"/>
       <c r="Q93" s="20"/>
       <c r="R93" s="20"/>
       <c r="S93" s="51"/>
@@ -4707,24 +4749,24 @@
         <f t="shared" ref="B94:B99" si="7">B84+7</f>
         <v>43781</v>
       </c>
-      <c r="C94" s="88" t="s">
+      <c r="C94" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="88"/>
-      <c r="E94" s="88"/>
-      <c r="F94" s="88"/>
-      <c r="G94" s="88"/>
-      <c r="H94" s="71" t="s">
+      <c r="D94" s="90"/>
+      <c r="E94" s="90"/>
+      <c r="F94" s="90"/>
+      <c r="G94" s="90"/>
+      <c r="H94" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="I94" s="71"/>
-      <c r="J94" s="71"/>
-      <c r="K94" s="71"/>
-      <c r="L94" s="71"/>
-      <c r="M94" s="71"/>
-      <c r="N94" s="71"/>
-      <c r="O94" s="71"/>
-      <c r="P94" s="71"/>
+      <c r="I94" s="88"/>
+      <c r="J94" s="88"/>
+      <c r="K94" s="88"/>
+      <c r="L94" s="88"/>
+      <c r="M94" s="88"/>
+      <c r="N94" s="88"/>
+      <c r="O94" s="88"/>
+      <c r="P94" s="88"/>
       <c r="Q94" s="20"/>
       <c r="R94" s="20"/>
       <c r="S94" s="51"/>
@@ -4771,20 +4813,20 @@
         <f t="shared" si="7"/>
         <v>43783</v>
       </c>
-      <c r="C96" s="88" t="s">
+      <c r="C96" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D96" s="88"/>
-      <c r="E96" s="88"/>
-      <c r="F96" s="88"/>
-      <c r="G96" s="88"/>
-      <c r="H96" s="76" t="s">
+      <c r="D96" s="90"/>
+      <c r="E96" s="90"/>
+      <c r="F96" s="90"/>
+      <c r="G96" s="90"/>
+      <c r="H96" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="I96" s="89"/>
-      <c r="J96" s="89"/>
-      <c r="K96" s="89"/>
-      <c r="L96" s="77"/>
+      <c r="I96" s="102"/>
+      <c r="J96" s="102"/>
+      <c r="K96" s="102"/>
+      <c r="L96" s="103"/>
       <c r="M96" s="20"/>
       <c r="N96" s="20"/>
       <c r="O96" s="20"/>
@@ -4861,24 +4903,24 @@
         <f t="shared" si="7"/>
         <v>43786</v>
       </c>
-      <c r="C99" s="88" t="s">
+      <c r="C99" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="D99" s="88"/>
-      <c r="E99" s="88"/>
-      <c r="F99" s="88"/>
-      <c r="G99" s="88"/>
-      <c r="H99" s="88"/>
-      <c r="I99" s="88"/>
-      <c r="J99" s="88"/>
-      <c r="K99" s="88"/>
-      <c r="L99" s="88"/>
-      <c r="M99" s="88"/>
-      <c r="N99" s="88"/>
-      <c r="O99" s="88"/>
-      <c r="P99" s="88"/>
-      <c r="Q99" s="88"/>
-      <c r="R99" s="88"/>
+      <c r="D99" s="90"/>
+      <c r="E99" s="90"/>
+      <c r="F99" s="90"/>
+      <c r="G99" s="90"/>
+      <c r="H99" s="90"/>
+      <c r="I99" s="90"/>
+      <c r="J99" s="90"/>
+      <c r="K99" s="90"/>
+      <c r="L99" s="90"/>
+      <c r="M99" s="90"/>
+      <c r="N99" s="90"/>
+      <c r="O99" s="90"/>
+      <c r="P99" s="90"/>
+      <c r="Q99" s="90"/>
+      <c r="R99" s="90"/>
       <c r="S99" s="51"/>
       <c r="T99" s="51"/>
       <c r="U99" s="54"/>
@@ -4980,24 +5022,24 @@
         <f>B93+7</f>
         <v>43787</v>
       </c>
-      <c r="C103" s="88" t="s">
+      <c r="C103" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="88"/>
-      <c r="E103" s="88"/>
-      <c r="F103" s="88"/>
-      <c r="G103" s="88"/>
-      <c r="H103" s="71" t="s">
+      <c r="D103" s="90"/>
+      <c r="E103" s="90"/>
+      <c r="F103" s="90"/>
+      <c r="G103" s="90"/>
+      <c r="H103" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="I103" s="71"/>
-      <c r="J103" s="71"/>
-      <c r="K103" s="71"/>
-      <c r="L103" s="71"/>
-      <c r="M103" s="71"/>
-      <c r="N103" s="71"/>
-      <c r="O103" s="71"/>
-      <c r="P103" s="71"/>
+      <c r="I103" s="88"/>
+      <c r="J103" s="88"/>
+      <c r="K103" s="88"/>
+      <c r="L103" s="88"/>
+      <c r="M103" s="88"/>
+      <c r="N103" s="88"/>
+      <c r="O103" s="88"/>
+      <c r="P103" s="88"/>
       <c r="Q103" s="20"/>
       <c r="R103" s="20"/>
       <c r="S103" s="51"/>
@@ -5014,24 +5056,24 @@
         <f t="shared" ref="B104:B109" si="8">B94+7</f>
         <v>43788</v>
       </c>
-      <c r="C104" s="88" t="s">
+      <c r="C104" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D104" s="88"/>
-      <c r="E104" s="88"/>
-      <c r="F104" s="88"/>
-      <c r="G104" s="88"/>
-      <c r="H104" s="71" t="s">
+      <c r="D104" s="90"/>
+      <c r="E104" s="90"/>
+      <c r="F104" s="90"/>
+      <c r="G104" s="90"/>
+      <c r="H104" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="I104" s="71"/>
-      <c r="J104" s="71"/>
-      <c r="K104" s="71"/>
-      <c r="L104" s="71"/>
-      <c r="M104" s="71"/>
-      <c r="N104" s="71"/>
-      <c r="O104" s="71"/>
-      <c r="P104" s="71"/>
+      <c r="I104" s="88"/>
+      <c r="J104" s="88"/>
+      <c r="K104" s="88"/>
+      <c r="L104" s="88"/>
+      <c r="M104" s="88"/>
+      <c r="N104" s="88"/>
+      <c r="O104" s="88"/>
+      <c r="P104" s="88"/>
       <c r="Q104" s="20"/>
       <c r="R104" s="20"/>
       <c r="S104" s="51"/>
@@ -5048,19 +5090,19 @@
         <f t="shared" si="8"/>
         <v>43789</v>
       </c>
-      <c r="C105" s="119" t="s">
+      <c r="C105" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="D105" s="120"/>
-      <c r="E105" s="120"/>
-      <c r="F105" s="120"/>
-      <c r="G105" s="120"/>
-      <c r="H105" s="120"/>
-      <c r="I105" s="120"/>
-      <c r="J105" s="120"/>
-      <c r="K105" s="120"/>
-      <c r="L105" s="120"/>
-      <c r="M105" s="121"/>
+      <c r="D105" s="112"/>
+      <c r="E105" s="112"/>
+      <c r="F105" s="112"/>
+      <c r="G105" s="112"/>
+      <c r="H105" s="112"/>
+      <c r="I105" s="112"/>
+      <c r="J105" s="112"/>
+      <c r="K105" s="112"/>
+      <c r="L105" s="112"/>
+      <c r="M105" s="113"/>
       <c r="N105" s="49"/>
       <c r="O105" s="49"/>
       <c r="P105" s="49"/>
@@ -5080,24 +5122,24 @@
         <f t="shared" si="8"/>
         <v>43790</v>
       </c>
-      <c r="C106" s="88" t="s">
+      <c r="C106" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D106" s="88"/>
-      <c r="E106" s="88"/>
-      <c r="F106" s="88"/>
-      <c r="G106" s="88"/>
-      <c r="H106" s="71" t="s">
+      <c r="D106" s="90"/>
+      <c r="E106" s="90"/>
+      <c r="F106" s="90"/>
+      <c r="G106" s="90"/>
+      <c r="H106" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="I106" s="71"/>
-      <c r="J106" s="71"/>
-      <c r="K106" s="71"/>
-      <c r="L106" s="71"/>
-      <c r="M106" s="71"/>
-      <c r="N106" s="71"/>
-      <c r="O106" s="71"/>
-      <c r="P106" s="71"/>
+      <c r="I106" s="88"/>
+      <c r="J106" s="88"/>
+      <c r="K106" s="88"/>
+      <c r="L106" s="88"/>
+      <c r="M106" s="88"/>
+      <c r="N106" s="88"/>
+      <c r="O106" s="88"/>
+      <c r="P106" s="88"/>
       <c r="Q106" s="20"/>
       <c r="R106" s="20"/>
       <c r="S106" s="51"/>
@@ -5114,7 +5156,7 @@
         <f t="shared" si="8"/>
         <v>43791</v>
       </c>
-      <c r="C107" s="124" t="s">
+      <c r="C107" s="98" t="s">
         <v>86</v>
       </c>
       <c r="D107" s="99"/>
@@ -5172,24 +5214,24 @@
         <f t="shared" si="8"/>
         <v>43793</v>
       </c>
-      <c r="C109" s="88" t="s">
+      <c r="C109" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="D109" s="88"/>
-      <c r="E109" s="88"/>
-      <c r="F109" s="88"/>
-      <c r="G109" s="88"/>
-      <c r="H109" s="88"/>
-      <c r="I109" s="88"/>
-      <c r="J109" s="88"/>
-      <c r="K109" s="88"/>
-      <c r="L109" s="88"/>
-      <c r="M109" s="88"/>
-      <c r="N109" s="88"/>
-      <c r="O109" s="88"/>
-      <c r="P109" s="88"/>
-      <c r="Q109" s="88"/>
-      <c r="R109" s="88"/>
+      <c r="D109" s="90"/>
+      <c r="E109" s="90"/>
+      <c r="F109" s="90"/>
+      <c r="G109" s="90"/>
+      <c r="H109" s="90"/>
+      <c r="I109" s="90"/>
+      <c r="J109" s="90"/>
+      <c r="K109" s="90"/>
+      <c r="L109" s="90"/>
+      <c r="M109" s="90"/>
+      <c r="N109" s="90"/>
+      <c r="O109" s="90"/>
+      <c r="P109" s="90"/>
+      <c r="Q109" s="90"/>
+      <c r="R109" s="90"/>
       <c r="S109" s="51"/>
       <c r="T109" s="51"/>
       <c r="U109" s="54"/>
@@ -5264,11 +5306,11 @@
         <f>C102+1</f>
         <v>11</v>
       </c>
-      <c r="D112" s="87" t="s">
+      <c r="D112" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="E112" s="87"/>
-      <c r="F112" s="87"/>
+      <c r="E112" s="91"/>
+      <c r="F112" s="91"/>
       <c r="G112" s="15"/>
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
@@ -5293,21 +5335,21 @@
         <f>B103+7</f>
         <v>43794</v>
       </c>
-      <c r="C113" s="88" t="s">
+      <c r="C113" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="D113" s="88"/>
-      <c r="E113" s="88"/>
-      <c r="F113" s="88"/>
-      <c r="G113" s="88"/>
-      <c r="H113" s="71" t="s">
+      <c r="D113" s="90"/>
+      <c r="E113" s="90"/>
+      <c r="F113" s="90"/>
+      <c r="G113" s="90"/>
+      <c r="H113" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="I113" s="71"/>
-      <c r="J113" s="71"/>
-      <c r="K113" s="71"/>
-      <c r="L113" s="71"/>
-      <c r="M113" s="71"/>
+      <c r="I113" s="88"/>
+      <c r="J113" s="88"/>
+      <c r="K113" s="88"/>
+      <c r="L113" s="88"/>
+      <c r="M113" s="88"/>
       <c r="N113" s="20"/>
       <c r="O113" s="20"/>
       <c r="P113" s="20"/>
@@ -5327,21 +5369,21 @@
         <f t="shared" ref="B114:B119" si="9">B104+7</f>
         <v>43795</v>
       </c>
-      <c r="C114" s="88" t="s">
+      <c r="C114" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D114" s="88"/>
-      <c r="E114" s="88"/>
-      <c r="F114" s="88"/>
-      <c r="G114" s="88"/>
-      <c r="H114" s="71" t="s">
+      <c r="D114" s="90"/>
+      <c r="E114" s="90"/>
+      <c r="F114" s="90"/>
+      <c r="G114" s="90"/>
+      <c r="H114" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="I114" s="71"/>
-      <c r="J114" s="71"/>
-      <c r="K114" s="71"/>
-      <c r="L114" s="71"/>
-      <c r="M114" s="71"/>
+      <c r="I114" s="88"/>
+      <c r="J114" s="88"/>
+      <c r="K114" s="88"/>
+      <c r="L114" s="88"/>
+      <c r="M114" s="88"/>
       <c r="N114" s="20"/>
       <c r="O114" s="49"/>
       <c r="P114" s="49"/>
@@ -5367,18 +5409,18 @@
       <c r="F115" s="49"/>
       <c r="G115" s="49"/>
       <c r="H115" s="20"/>
-      <c r="I115" s="78" t="s">
+      <c r="I115" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="J115" s="79"/>
-      <c r="K115" s="79"/>
-      <c r="L115" s="79"/>
-      <c r="M115" s="79"/>
-      <c r="N115" s="79"/>
-      <c r="O115" s="79"/>
-      <c r="P115" s="79"/>
-      <c r="Q115" s="79"/>
-      <c r="R115" s="80"/>
+      <c r="J115" s="96"/>
+      <c r="K115" s="96"/>
+      <c r="L115" s="96"/>
+      <c r="M115" s="96"/>
+      <c r="N115" s="96"/>
+      <c r="O115" s="96"/>
+      <c r="P115" s="96"/>
+      <c r="Q115" s="96"/>
+      <c r="R115" s="97"/>
       <c r="S115" s="51"/>
       <c r="T115" s="52" t="s">
         <v>20</v>
@@ -5393,24 +5435,24 @@
         <f t="shared" si="9"/>
         <v>43797</v>
       </c>
-      <c r="C116" s="88" t="s">
+      <c r="C116" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D116" s="88"/>
-      <c r="E116" s="88"/>
-      <c r="F116" s="88"/>
-      <c r="G116" s="88"/>
-      <c r="H116" s="76" t="s">
+      <c r="D116" s="90"/>
+      <c r="E116" s="90"/>
+      <c r="F116" s="90"/>
+      <c r="G116" s="90"/>
+      <c r="H116" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="I116" s="77"/>
-      <c r="J116" s="78" t="s">
+      <c r="I116" s="103"/>
+      <c r="J116" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="K116" s="79"/>
-      <c r="L116" s="79"/>
-      <c r="M116" s="79"/>
-      <c r="N116" s="80"/>
+      <c r="K116" s="96"/>
+      <c r="L116" s="96"/>
+      <c r="M116" s="96"/>
+      <c r="N116" s="97"/>
       <c r="O116" s="20"/>
       <c r="P116" s="20"/>
       <c r="Q116" s="20"/>
@@ -5485,24 +5527,24 @@
         <f t="shared" si="9"/>
         <v>43800</v>
       </c>
-      <c r="C119" s="88" t="s">
+      <c r="C119" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="D119" s="88"/>
-      <c r="E119" s="88"/>
-      <c r="F119" s="88"/>
-      <c r="G119" s="88"/>
-      <c r="H119" s="88"/>
-      <c r="I119" s="88"/>
-      <c r="J119" s="88"/>
-      <c r="K119" s="88"/>
-      <c r="L119" s="88"/>
-      <c r="M119" s="88"/>
-      <c r="N119" s="88"/>
-      <c r="O119" s="88"/>
-      <c r="P119" s="88"/>
-      <c r="Q119" s="88"/>
-      <c r="R119" s="88"/>
+      <c r="D119" s="90"/>
+      <c r="E119" s="90"/>
+      <c r="F119" s="90"/>
+      <c r="G119" s="90"/>
+      <c r="H119" s="90"/>
+      <c r="I119" s="90"/>
+      <c r="J119" s="90"/>
+      <c r="K119" s="90"/>
+      <c r="L119" s="90"/>
+      <c r="M119" s="90"/>
+      <c r="N119" s="90"/>
+      <c r="O119" s="90"/>
+      <c r="P119" s="90"/>
+      <c r="Q119" s="90"/>
+      <c r="R119" s="90"/>
       <c r="S119" s="51"/>
       <c r="T119" s="51"/>
       <c r="U119" s="54"/>
@@ -5577,11 +5619,11 @@
         <f>C112+1</f>
         <v>12</v>
       </c>
-      <c r="D122" s="114" t="s">
+      <c r="D122" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="E122" s="114"/>
-      <c r="F122" s="114"/>
+      <c r="E122" s="104"/>
+      <c r="F122" s="104"/>
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
@@ -5606,24 +5648,24 @@
         <f>B113+7</f>
         <v>43801</v>
       </c>
-      <c r="C123" s="117" t="s">
+      <c r="C123" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="117"/>
-      <c r="E123" s="117"/>
-      <c r="F123" s="117"/>
-      <c r="G123" s="117"/>
-      <c r="H123" s="115" t="s">
+      <c r="D123" s="109"/>
+      <c r="E123" s="109"/>
+      <c r="F123" s="109"/>
+      <c r="G123" s="109"/>
+      <c r="H123" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="I123" s="115"/>
-      <c r="J123" s="115"/>
-      <c r="K123" s="115"/>
-      <c r="L123" s="115"/>
-      <c r="M123" s="115"/>
-      <c r="N123" s="115"/>
-      <c r="O123" s="115"/>
-      <c r="P123" s="115"/>
+      <c r="I123" s="94"/>
+      <c r="J123" s="94"/>
+      <c r="K123" s="94"/>
+      <c r="L123" s="94"/>
+      <c r="M123" s="94"/>
+      <c r="N123" s="94"/>
+      <c r="O123" s="94"/>
+      <c r="P123" s="94"/>
       <c r="Q123" s="20"/>
       <c r="R123" s="20"/>
       <c r="S123" s="51"/>
@@ -5640,24 +5682,24 @@
         <f t="shared" ref="B124:B129" si="10">B114+7</f>
         <v>43802</v>
       </c>
-      <c r="C124" s="117" t="s">
+      <c r="C124" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="D124" s="117"/>
-      <c r="E124" s="117"/>
-      <c r="F124" s="117"/>
-      <c r="G124" s="117"/>
-      <c r="H124" s="115" t="s">
+      <c r="D124" s="109"/>
+      <c r="E124" s="109"/>
+      <c r="F124" s="109"/>
+      <c r="G124" s="109"/>
+      <c r="H124" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="I124" s="115"/>
-      <c r="J124" s="115"/>
-      <c r="K124" s="115"/>
-      <c r="L124" s="115"/>
-      <c r="M124" s="115"/>
-      <c r="N124" s="115"/>
-      <c r="O124" s="115"/>
-      <c r="P124" s="115"/>
+      <c r="I124" s="94"/>
+      <c r="J124" s="94"/>
+      <c r="K124" s="94"/>
+      <c r="L124" s="94"/>
+      <c r="M124" s="94"/>
+      <c r="N124" s="94"/>
+      <c r="O124" s="94"/>
+      <c r="P124" s="94"/>
       <c r="Q124" s="20"/>
       <c r="R124" s="20"/>
       <c r="S124" s="51"/>
@@ -5674,24 +5716,24 @@
         <f t="shared" si="10"/>
         <v>43803</v>
       </c>
-      <c r="C125" s="115" t="s">
+      <c r="C125" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="D125" s="115"/>
-      <c r="E125" s="115"/>
-      <c r="F125" s="115"/>
-      <c r="G125" s="115"/>
-      <c r="H125" s="115"/>
-      <c r="I125" s="115"/>
-      <c r="J125" s="115"/>
-      <c r="K125" s="115"/>
+      <c r="D125" s="94"/>
+      <c r="E125" s="94"/>
+      <c r="F125" s="94"/>
+      <c r="G125" s="94"/>
+      <c r="H125" s="94"/>
+      <c r="I125" s="94"/>
+      <c r="J125" s="94"/>
+      <c r="K125" s="94"/>
       <c r="L125" s="49"/>
-      <c r="M125" s="115" t="s">
+      <c r="M125" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="N125" s="115"/>
-      <c r="O125" s="115"/>
-      <c r="P125" s="115"/>
+      <c r="N125" s="94"/>
+      <c r="O125" s="94"/>
+      <c r="P125" s="94"/>
       <c r="Q125" s="49"/>
       <c r="R125" s="49"/>
       <c r="S125" s="51"/>
@@ -5708,24 +5750,24 @@
         <f t="shared" si="10"/>
         <v>43804</v>
       </c>
-      <c r="C126" s="118" t="s">
+      <c r="C126" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="D126" s="118"/>
-      <c r="E126" s="118"/>
-      <c r="F126" s="118"/>
-      <c r="G126" s="118"/>
-      <c r="H126" s="115" t="s">
+      <c r="D126" s="110"/>
+      <c r="E126" s="110"/>
+      <c r="F126" s="110"/>
+      <c r="G126" s="110"/>
+      <c r="H126" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="I126" s="115"/>
-      <c r="J126" s="115"/>
-      <c r="K126" s="115"/>
-      <c r="L126" s="115"/>
-      <c r="M126" s="115"/>
-      <c r="N126" s="115"/>
-      <c r="O126" s="115"/>
-      <c r="P126" s="115"/>
+      <c r="I126" s="94"/>
+      <c r="J126" s="94"/>
+      <c r="K126" s="94"/>
+      <c r="L126" s="94"/>
+      <c r="M126" s="94"/>
+      <c r="N126" s="94"/>
+      <c r="O126" s="94"/>
+      <c r="P126" s="94"/>
       <c r="Q126" s="20"/>
       <c r="R126" s="20"/>
       <c r="S126" s="51"/>
@@ -5798,24 +5840,24 @@
         <f t="shared" si="10"/>
         <v>43807</v>
       </c>
-      <c r="C129" s="88" t="s">
+      <c r="C129" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="D129" s="88"/>
-      <c r="E129" s="88"/>
-      <c r="F129" s="88"/>
-      <c r="G129" s="88"/>
-      <c r="H129" s="88"/>
-      <c r="I129" s="88"/>
-      <c r="J129" s="88"/>
-      <c r="K129" s="88"/>
-      <c r="L129" s="88"/>
-      <c r="M129" s="88"/>
-      <c r="N129" s="88"/>
-      <c r="O129" s="88"/>
-      <c r="P129" s="88"/>
-      <c r="Q129" s="88"/>
-      <c r="R129" s="88"/>
+      <c r="D129" s="90"/>
+      <c r="E129" s="90"/>
+      <c r="F129" s="90"/>
+      <c r="G129" s="90"/>
+      <c r="H129" s="90"/>
+      <c r="I129" s="90"/>
+      <c r="J129" s="90"/>
+      <c r="K129" s="90"/>
+      <c r="L129" s="90"/>
+      <c r="M129" s="90"/>
+      <c r="N129" s="90"/>
+      <c r="O129" s="90"/>
+      <c r="P129" s="90"/>
+      <c r="Q129" s="90"/>
+      <c r="R129" s="90"/>
       <c r="S129" s="51"/>
       <c r="T129" s="51"/>
       <c r="U129" s="54"/>
@@ -5917,24 +5959,24 @@
         <f>B123+7</f>
         <v>43808</v>
       </c>
-      <c r="C133" s="88" t="s">
+      <c r="C133" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="D133" s="88"/>
-      <c r="E133" s="88"/>
-      <c r="F133" s="88"/>
-      <c r="G133" s="88"/>
-      <c r="H133" s="71" t="s">
+      <c r="D133" s="90"/>
+      <c r="E133" s="90"/>
+      <c r="F133" s="90"/>
+      <c r="G133" s="90"/>
+      <c r="H133" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="I133" s="71"/>
-      <c r="J133" s="71"/>
-      <c r="K133" s="135"/>
-      <c r="L133" s="135"/>
-      <c r="M133" s="135"/>
-      <c r="N133" s="135"/>
-      <c r="O133" s="135"/>
-      <c r="P133" s="71"/>
+      <c r="I133" s="88"/>
+      <c r="J133" s="88"/>
+      <c r="K133" s="89"/>
+      <c r="L133" s="89"/>
+      <c r="M133" s="89"/>
+      <c r="N133" s="89"/>
+      <c r="O133" s="89"/>
+      <c r="P133" s="88"/>
       <c r="Q133" s="20"/>
       <c r="R133" s="20"/>
       <c r="S133" s="51"/>
@@ -5951,27 +5993,27 @@
         <f t="shared" ref="B134:B139" si="11">B124+7</f>
         <v>43809</v>
       </c>
-      <c r="C134" s="88" t="s">
+      <c r="C134" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D134" s="88"/>
-      <c r="E134" s="88"/>
-      <c r="F134" s="88"/>
-      <c r="G134" s="88"/>
-      <c r="H134" s="132" t="s">
+      <c r="D134" s="90"/>
+      <c r="E134" s="90"/>
+      <c r="F134" s="90"/>
+      <c r="G134" s="90"/>
+      <c r="H134" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="I134" s="133"/>
-      <c r="J134" s="134" t="s">
+      <c r="I134" s="93"/>
+      <c r="J134" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K134" s="75" t="s">
+      <c r="K134" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="L134" s="75"/>
-      <c r="M134" s="75"/>
-      <c r="N134" s="75"/>
-      <c r="O134" s="75"/>
+      <c r="L134" s="73"/>
+      <c r="M134" s="73"/>
+      <c r="N134" s="73"/>
+      <c r="O134" s="73"/>
       <c r="P134" s="20"/>
       <c r="Q134" s="20"/>
       <c r="R134" s="20"/>
@@ -5989,24 +6031,24 @@
         <f t="shared" si="11"/>
         <v>43810</v>
       </c>
-      <c r="C135" s="72" t="s">
+      <c r="C135" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="D135" s="73"/>
-      <c r="E135" s="73"/>
-      <c r="F135" s="73"/>
-      <c r="G135" s="73"/>
-      <c r="H135" s="73"/>
-      <c r="I135" s="73"/>
-      <c r="J135" s="73"/>
-      <c r="K135" s="74"/>
+      <c r="D135" s="87"/>
+      <c r="E135" s="87"/>
+      <c r="F135" s="87"/>
+      <c r="G135" s="87"/>
+      <c r="H135" s="87"/>
+      <c r="I135" s="87"/>
+      <c r="J135" s="87"/>
+      <c r="K135" s="136"/>
       <c r="L135" s="49"/>
-      <c r="M135" s="75" t="s">
+      <c r="M135" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="N135" s="75"/>
-      <c r="O135" s="75"/>
-      <c r="P135" s="75"/>
+      <c r="N135" s="73"/>
+      <c r="O135" s="73"/>
+      <c r="P135" s="73"/>
       <c r="Q135" s="49"/>
       <c r="R135" s="49"/>
       <c r="S135" s="51"/>
@@ -6023,24 +6065,24 @@
         <f t="shared" si="11"/>
         <v>43811</v>
       </c>
-      <c r="C136" s="88" t="s">
+      <c r="C136" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="D136" s="88"/>
-      <c r="E136" s="88"/>
-      <c r="F136" s="88"/>
-      <c r="G136" s="88"/>
-      <c r="H136" s="128" t="s">
+      <c r="D136" s="90"/>
+      <c r="E136" s="90"/>
+      <c r="F136" s="90"/>
+      <c r="G136" s="90"/>
+      <c r="H136" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="I136" s="128"/>
-      <c r="J136" s="128"/>
-      <c r="K136" s="128"/>
-      <c r="L136" s="128"/>
-      <c r="M136" s="128"/>
-      <c r="N136" s="128"/>
-      <c r="O136" s="128"/>
-      <c r="P136" s="128"/>
+      <c r="I136" s="72"/>
+      <c r="J136" s="72"/>
+      <c r="K136" s="72"/>
+      <c r="L136" s="72"/>
+      <c r="M136" s="72"/>
+      <c r="N136" s="72"/>
+      <c r="O136" s="72"/>
+      <c r="P136" s="72"/>
       <c r="Q136" s="20"/>
       <c r="R136" s="20"/>
       <c r="S136" s="51"/>
@@ -6113,24 +6155,24 @@
         <f t="shared" si="11"/>
         <v>43814</v>
       </c>
-      <c r="C139" s="88" t="s">
+      <c r="C139" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="D139" s="88"/>
-      <c r="E139" s="88"/>
-      <c r="F139" s="88"/>
-      <c r="G139" s="88"/>
-      <c r="H139" s="88"/>
-      <c r="I139" s="88"/>
-      <c r="J139" s="88"/>
-      <c r="K139" s="88"/>
-      <c r="L139" s="88"/>
-      <c r="M139" s="88"/>
-      <c r="N139" s="88"/>
-      <c r="O139" s="88"/>
-      <c r="P139" s="88"/>
-      <c r="Q139" s="88"/>
-      <c r="R139" s="88"/>
+      <c r="D139" s="90"/>
+      <c r="E139" s="90"/>
+      <c r="F139" s="90"/>
+      <c r="G139" s="90"/>
+      <c r="H139" s="90"/>
+      <c r="I139" s="90"/>
+      <c r="J139" s="90"/>
+      <c r="K139" s="90"/>
+      <c r="L139" s="90"/>
+      <c r="M139" s="90"/>
+      <c r="N139" s="90"/>
+      <c r="O139" s="90"/>
+      <c r="P139" s="90"/>
+      <c r="Q139" s="90"/>
+      <c r="R139" s="90"/>
       <c r="S139" s="51"/>
       <c r="T139" s="51"/>
       <c r="U139" s="54"/>
@@ -6225,19 +6267,19 @@
         <f>C132+1</f>
         <v>14</v>
       </c>
-      <c r="D142" s="87" t="s">
+      <c r="D142" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="E142" s="87"/>
-      <c r="F142" s="87"/>
+      <c r="E142" s="91"/>
+      <c r="F142" s="91"/>
       <c r="G142" s="15"/>
-      <c r="H142" s="87" t="s">
+      <c r="H142" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="I142" s="87"/>
-      <c r="J142" s="87"/>
-      <c r="K142" s="87"/>
-      <c r="L142" s="87"/>
+      <c r="I142" s="91"/>
+      <c r="J142" s="91"/>
+      <c r="K142" s="91"/>
+      <c r="L142" s="91"/>
       <c r="M142" s="19"/>
       <c r="N142" s="19"/>
       <c r="O142" s="19"/>
@@ -6256,24 +6298,24 @@
         <f>B133+7</f>
         <v>43815</v>
       </c>
-      <c r="C143" s="128" t="s">
+      <c r="C143" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="D143" s="128"/>
-      <c r="E143" s="128"/>
-      <c r="F143" s="81" t="s">
+      <c r="D143" s="72"/>
+      <c r="E143" s="72"/>
+      <c r="F143" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="G143" s="73"/>
-      <c r="H143" s="73"/>
-      <c r="I143" s="73"/>
-      <c r="J143" s="73"/>
-      <c r="K143" s="73"/>
-      <c r="L143" s="73"/>
-      <c r="M143" s="73"/>
-      <c r="N143" s="73"/>
-      <c r="O143" s="73"/>
-      <c r="P143" s="74"/>
+      <c r="G143" s="87"/>
+      <c r="H143" s="87"/>
+      <c r="I143" s="87"/>
+      <c r="J143" s="87"/>
+      <c r="K143" s="87"/>
+      <c r="L143" s="87"/>
+      <c r="M143" s="87"/>
+      <c r="N143" s="87"/>
+      <c r="O143" s="87"/>
+      <c r="P143" s="136"/>
       <c r="Q143" s="49"/>
       <c r="R143" s="49"/>
       <c r="S143" s="51"/>
@@ -6290,22 +6332,22 @@
         <f t="shared" ref="B144:B149" si="12">B134+7</f>
         <v>43816</v>
       </c>
-      <c r="C144" s="125" t="s">
+      <c r="C144" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="D144" s="126"/>
-      <c r="E144" s="126"/>
-      <c r="F144" s="126"/>
-      <c r="G144" s="126"/>
-      <c r="H144" s="126"/>
-      <c r="I144" s="126"/>
-      <c r="J144" s="126"/>
-      <c r="K144" s="126"/>
-      <c r="L144" s="126"/>
-      <c r="M144" s="126"/>
-      <c r="N144" s="126"/>
-      <c r="O144" s="126"/>
-      <c r="P144" s="127"/>
+      <c r="D144" s="84"/>
+      <c r="E144" s="84"/>
+      <c r="F144" s="84"/>
+      <c r="G144" s="84"/>
+      <c r="H144" s="84"/>
+      <c r="I144" s="84"/>
+      <c r="J144" s="84"/>
+      <c r="K144" s="84"/>
+      <c r="L144" s="84"/>
+      <c r="M144" s="84"/>
+      <c r="N144" s="84"/>
+      <c r="O144" s="84"/>
+      <c r="P144" s="85"/>
       <c r="Q144" s="20"/>
       <c r="R144" s="20"/>
       <c r="S144" s="51"/>
@@ -6322,22 +6364,22 @@
         <f t="shared" si="12"/>
         <v>43817</v>
       </c>
-      <c r="C145" s="125" t="s">
+      <c r="C145" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="D145" s="126"/>
-      <c r="E145" s="126"/>
-      <c r="F145" s="126"/>
-      <c r="G145" s="126"/>
-      <c r="H145" s="126"/>
-      <c r="I145" s="126"/>
-      <c r="J145" s="126"/>
-      <c r="K145" s="126"/>
-      <c r="L145" s="126"/>
-      <c r="M145" s="126"/>
-      <c r="N145" s="126"/>
-      <c r="O145" s="126"/>
-      <c r="P145" s="127"/>
+      <c r="D145" s="84"/>
+      <c r="E145" s="84"/>
+      <c r="F145" s="84"/>
+      <c r="G145" s="84"/>
+      <c r="H145" s="84"/>
+      <c r="I145" s="84"/>
+      <c r="J145" s="84"/>
+      <c r="K145" s="84"/>
+      <c r="L145" s="84"/>
+      <c r="M145" s="84"/>
+      <c r="N145" s="84"/>
+      <c r="O145" s="84"/>
+      <c r="P145" s="85"/>
       <c r="Q145" s="49"/>
       <c r="R145" s="49"/>
       <c r="S145" s="51"/>
@@ -6354,18 +6396,18 @@
         <f t="shared" si="12"/>
         <v>43818</v>
       </c>
-      <c r="C146" s="72" t="s">
+      <c r="C146" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="D146" s="73"/>
-      <c r="E146" s="73"/>
-      <c r="F146" s="73"/>
-      <c r="G146" s="73"/>
-      <c r="H146" s="73"/>
-      <c r="I146" s="73"/>
-      <c r="J146" s="73"/>
-      <c r="K146" s="73"/>
-      <c r="L146" s="73"/>
+      <c r="D146" s="87"/>
+      <c r="E146" s="87"/>
+      <c r="F146" s="87"/>
+      <c r="G146" s="87"/>
+      <c r="H146" s="87"/>
+      <c r="I146" s="87"/>
+      <c r="J146" s="87"/>
+      <c r="K146" s="87"/>
+      <c r="L146" s="87"/>
       <c r="M146" s="20"/>
       <c r="N146" s="20"/>
       <c r="O146" s="20"/>
@@ -6579,22 +6621,22 @@
         <f>B143+7</f>
         <v>43822</v>
       </c>
-      <c r="C153" s="125" t="s">
+      <c r="C153" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="D153" s="126"/>
-      <c r="E153" s="126"/>
-      <c r="F153" s="126"/>
-      <c r="G153" s="126"/>
-      <c r="H153" s="126"/>
-      <c r="I153" s="126"/>
-      <c r="J153" s="126"/>
-      <c r="K153" s="126"/>
-      <c r="L153" s="126"/>
-      <c r="M153" s="126"/>
-      <c r="N153" s="126"/>
-      <c r="O153" s="126"/>
-      <c r="P153" s="127"/>
+      <c r="D153" s="84"/>
+      <c r="E153" s="84"/>
+      <c r="F153" s="84"/>
+      <c r="G153" s="84"/>
+      <c r="H153" s="84"/>
+      <c r="I153" s="84"/>
+      <c r="J153" s="84"/>
+      <c r="K153" s="84"/>
+      <c r="L153" s="84"/>
+      <c r="M153" s="84"/>
+      <c r="N153" s="84"/>
+      <c r="O153" s="84"/>
+      <c r="P153" s="85"/>
       <c r="Q153" s="49"/>
       <c r="R153" s="49"/>
       <c r="S153" s="51"/>
@@ -6611,22 +6653,22 @@
         <f t="shared" ref="B154:B159" si="13">B144+7</f>
         <v>43823</v>
       </c>
-      <c r="C154" s="125" t="s">
+      <c r="C154" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="D154" s="126"/>
-      <c r="E154" s="126"/>
-      <c r="F154" s="126"/>
-      <c r="G154" s="126"/>
-      <c r="H154" s="126"/>
-      <c r="I154" s="126"/>
-      <c r="J154" s="126"/>
-      <c r="K154" s="126"/>
-      <c r="L154" s="126"/>
-      <c r="M154" s="126"/>
-      <c r="N154" s="126"/>
-      <c r="O154" s="126"/>
-      <c r="P154" s="127"/>
+      <c r="D154" s="84"/>
+      <c r="E154" s="84"/>
+      <c r="F154" s="84"/>
+      <c r="G154" s="84"/>
+      <c r="H154" s="84"/>
+      <c r="I154" s="84"/>
+      <c r="J154" s="84"/>
+      <c r="K154" s="84"/>
+      <c r="L154" s="84"/>
+      <c r="M154" s="84"/>
+      <c r="N154" s="84"/>
+      <c r="O154" s="84"/>
+      <c r="P154" s="85"/>
       <c r="Q154" s="20"/>
       <c r="R154" s="20"/>
       <c r="S154" s="51"/>
@@ -6643,24 +6685,24 @@
         <f t="shared" si="13"/>
         <v>43824</v>
       </c>
-      <c r="C155" s="116" t="s">
+      <c r="C155" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="D155" s="116"/>
-      <c r="E155" s="116"/>
-      <c r="F155" s="116"/>
-      <c r="G155" s="116"/>
-      <c r="H155" s="116"/>
-      <c r="I155" s="116"/>
-      <c r="J155" s="116"/>
-      <c r="K155" s="116"/>
-      <c r="L155" s="116"/>
-      <c r="M155" s="116"/>
-      <c r="N155" s="116"/>
-      <c r="O155" s="116"/>
-      <c r="P155" s="116"/>
-      <c r="Q155" s="116"/>
-      <c r="R155" s="116"/>
+      <c r="D155" s="108"/>
+      <c r="E155" s="108"/>
+      <c r="F155" s="108"/>
+      <c r="G155" s="108"/>
+      <c r="H155" s="108"/>
+      <c r="I155" s="108"/>
+      <c r="J155" s="108"/>
+      <c r="K155" s="108"/>
+      <c r="L155" s="108"/>
+      <c r="M155" s="108"/>
+      <c r="N155" s="108"/>
+      <c r="O155" s="108"/>
+      <c r="P155" s="108"/>
+      <c r="Q155" s="108"/>
+      <c r="R155" s="108"/>
       <c r="S155" s="51"/>
       <c r="T155" s="52" t="s">
         <v>20</v>
@@ -6675,22 +6717,22 @@
         <f t="shared" si="13"/>
         <v>43825</v>
       </c>
-      <c r="C156" s="116"/>
-      <c r="D156" s="116"/>
-      <c r="E156" s="116"/>
-      <c r="F156" s="116"/>
-      <c r="G156" s="116"/>
-      <c r="H156" s="116"/>
-      <c r="I156" s="116"/>
-      <c r="J156" s="116"/>
-      <c r="K156" s="116"/>
-      <c r="L156" s="116"/>
-      <c r="M156" s="116"/>
-      <c r="N156" s="116"/>
-      <c r="O156" s="116"/>
-      <c r="P156" s="116"/>
-      <c r="Q156" s="116"/>
-      <c r="R156" s="116"/>
+      <c r="C156" s="108"/>
+      <c r="D156" s="108"/>
+      <c r="E156" s="108"/>
+      <c r="F156" s="108"/>
+      <c r="G156" s="108"/>
+      <c r="H156" s="108"/>
+      <c r="I156" s="108"/>
+      <c r="J156" s="108"/>
+      <c r="K156" s="108"/>
+      <c r="L156" s="108"/>
+      <c r="M156" s="108"/>
+      <c r="N156" s="108"/>
+      <c r="O156" s="108"/>
+      <c r="P156" s="108"/>
+      <c r="Q156" s="108"/>
+      <c r="R156" s="108"/>
       <c r="S156" s="51"/>
       <c r="T156" s="18" t="s">
         <v>21</v>
@@ -6705,22 +6747,22 @@
         <f t="shared" si="13"/>
         <v>43826</v>
       </c>
-      <c r="C157" s="116"/>
-      <c r="D157" s="116"/>
-      <c r="E157" s="116"/>
-      <c r="F157" s="116"/>
-      <c r="G157" s="116"/>
-      <c r="H157" s="116"/>
-      <c r="I157" s="116"/>
-      <c r="J157" s="116"/>
-      <c r="K157" s="116"/>
-      <c r="L157" s="116"/>
-      <c r="M157" s="116"/>
-      <c r="N157" s="116"/>
-      <c r="O157" s="116"/>
-      <c r="P157" s="116"/>
-      <c r="Q157" s="116"/>
-      <c r="R157" s="116"/>
+      <c r="C157" s="108"/>
+      <c r="D157" s="108"/>
+      <c r="E157" s="108"/>
+      <c r="F157" s="108"/>
+      <c r="G157" s="108"/>
+      <c r="H157" s="108"/>
+      <c r="I157" s="108"/>
+      <c r="J157" s="108"/>
+      <c r="K157" s="108"/>
+      <c r="L157" s="108"/>
+      <c r="M157" s="108"/>
+      <c r="N157" s="108"/>
+      <c r="O157" s="108"/>
+      <c r="P157" s="108"/>
+      <c r="Q157" s="108"/>
+      <c r="R157" s="108"/>
       <c r="S157" s="51"/>
       <c r="T157" s="51"/>
       <c r="U157" s="54"/>
@@ -6733,22 +6775,22 @@
         <f t="shared" si="13"/>
         <v>43827</v>
       </c>
-      <c r="C158" s="116"/>
-      <c r="D158" s="116"/>
-      <c r="E158" s="116"/>
-      <c r="F158" s="116"/>
-      <c r="G158" s="116"/>
-      <c r="H158" s="116"/>
-      <c r="I158" s="116"/>
-      <c r="J158" s="116"/>
-      <c r="K158" s="116"/>
-      <c r="L158" s="116"/>
-      <c r="M158" s="116"/>
-      <c r="N158" s="116"/>
-      <c r="O158" s="116"/>
-      <c r="P158" s="116"/>
-      <c r="Q158" s="116"/>
-      <c r="R158" s="116"/>
+      <c r="C158" s="108"/>
+      <c r="D158" s="108"/>
+      <c r="E158" s="108"/>
+      <c r="F158" s="108"/>
+      <c r="G158" s="108"/>
+      <c r="H158" s="108"/>
+      <c r="I158" s="108"/>
+      <c r="J158" s="108"/>
+      <c r="K158" s="108"/>
+      <c r="L158" s="108"/>
+      <c r="M158" s="108"/>
+      <c r="N158" s="108"/>
+      <c r="O158" s="108"/>
+      <c r="P158" s="108"/>
+      <c r="Q158" s="108"/>
+      <c r="R158" s="108"/>
       <c r="S158" s="51"/>
       <c r="T158" s="51"/>
       <c r="U158" s="54"/>
@@ -6761,22 +6803,22 @@
         <f t="shared" si="13"/>
         <v>43828</v>
       </c>
-      <c r="C159" s="116"/>
-      <c r="D159" s="116"/>
-      <c r="E159" s="116"/>
-      <c r="F159" s="116"/>
-      <c r="G159" s="116"/>
-      <c r="H159" s="116"/>
-      <c r="I159" s="116"/>
-      <c r="J159" s="116"/>
-      <c r="K159" s="116"/>
-      <c r="L159" s="116"/>
-      <c r="M159" s="116"/>
-      <c r="N159" s="116"/>
-      <c r="O159" s="116"/>
-      <c r="P159" s="116"/>
-      <c r="Q159" s="116"/>
-      <c r="R159" s="116"/>
+      <c r="C159" s="108"/>
+      <c r="D159" s="108"/>
+      <c r="E159" s="108"/>
+      <c r="F159" s="108"/>
+      <c r="G159" s="108"/>
+      <c r="H159" s="108"/>
+      <c r="I159" s="108"/>
+      <c r="J159" s="108"/>
+      <c r="K159" s="108"/>
+      <c r="L159" s="108"/>
+      <c r="M159" s="108"/>
+      <c r="N159" s="108"/>
+      <c r="O159" s="108"/>
+      <c r="P159" s="108"/>
+      <c r="Q159" s="108"/>
+      <c r="R159" s="108"/>
       <c r="S159" s="51"/>
       <c r="T159" s="51"/>
       <c r="U159" s="54"/>
@@ -6898,24 +6940,24 @@
         <f>B153+7</f>
         <v>43829</v>
       </c>
-      <c r="C163" s="116" t="s">
+      <c r="C163" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="D163" s="116"/>
-      <c r="E163" s="116"/>
-      <c r="F163" s="116"/>
-      <c r="G163" s="116"/>
-      <c r="H163" s="116"/>
-      <c r="I163" s="116"/>
-      <c r="J163" s="116"/>
-      <c r="K163" s="116"/>
-      <c r="L163" s="116"/>
-      <c r="M163" s="116"/>
-      <c r="N163" s="116"/>
-      <c r="O163" s="116"/>
-      <c r="P163" s="116"/>
-      <c r="Q163" s="116"/>
-      <c r="R163" s="116"/>
+      <c r="D163" s="108"/>
+      <c r="E163" s="108"/>
+      <c r="F163" s="108"/>
+      <c r="G163" s="108"/>
+      <c r="H163" s="108"/>
+      <c r="I163" s="108"/>
+      <c r="J163" s="108"/>
+      <c r="K163" s="108"/>
+      <c r="L163" s="108"/>
+      <c r="M163" s="108"/>
+      <c r="N163" s="108"/>
+      <c r="O163" s="108"/>
+      <c r="P163" s="108"/>
+      <c r="Q163" s="108"/>
+      <c r="R163" s="108"/>
       <c r="S163" s="51"/>
       <c r="T163" s="30" t="s">
         <v>22</v>
@@ -6930,22 +6972,22 @@
         <f t="shared" ref="B164:B169" si="14">B154+7</f>
         <v>43830</v>
       </c>
-      <c r="C164" s="116"/>
-      <c r="D164" s="116"/>
-      <c r="E164" s="116"/>
-      <c r="F164" s="116"/>
-      <c r="G164" s="116"/>
-      <c r="H164" s="116"/>
-      <c r="I164" s="116"/>
-      <c r="J164" s="116"/>
-      <c r="K164" s="116"/>
-      <c r="L164" s="116"/>
-      <c r="M164" s="116"/>
-      <c r="N164" s="116"/>
-      <c r="O164" s="116"/>
-      <c r="P164" s="116"/>
-      <c r="Q164" s="116"/>
-      <c r="R164" s="116"/>
+      <c r="C164" s="108"/>
+      <c r="D164" s="108"/>
+      <c r="E164" s="108"/>
+      <c r="F164" s="108"/>
+      <c r="G164" s="108"/>
+      <c r="H164" s="108"/>
+      <c r="I164" s="108"/>
+      <c r="J164" s="108"/>
+      <c r="K164" s="108"/>
+      <c r="L164" s="108"/>
+      <c r="M164" s="108"/>
+      <c r="N164" s="108"/>
+      <c r="O164" s="108"/>
+      <c r="P164" s="108"/>
+      <c r="Q164" s="108"/>
+      <c r="R164" s="108"/>
       <c r="S164" s="51"/>
       <c r="T164" s="53" t="s">
         <v>19</v>
@@ -6960,22 +7002,22 @@
         <f t="shared" si="14"/>
         <v>43831</v>
       </c>
-      <c r="C165" s="116"/>
-      <c r="D165" s="116"/>
-      <c r="E165" s="116"/>
-      <c r="F165" s="116"/>
-      <c r="G165" s="116"/>
-      <c r="H165" s="116"/>
-      <c r="I165" s="116"/>
-      <c r="J165" s="116"/>
-      <c r="K165" s="116"/>
-      <c r="L165" s="116"/>
-      <c r="M165" s="116"/>
-      <c r="N165" s="116"/>
-      <c r="O165" s="116"/>
-      <c r="P165" s="116"/>
-      <c r="Q165" s="116"/>
-      <c r="R165" s="116"/>
+      <c r="C165" s="108"/>
+      <c r="D165" s="108"/>
+      <c r="E165" s="108"/>
+      <c r="F165" s="108"/>
+      <c r="G165" s="108"/>
+      <c r="H165" s="108"/>
+      <c r="I165" s="108"/>
+      <c r="J165" s="108"/>
+      <c r="K165" s="108"/>
+      <c r="L165" s="108"/>
+      <c r="M165" s="108"/>
+      <c r="N165" s="108"/>
+      <c r="O165" s="108"/>
+      <c r="P165" s="108"/>
+      <c r="Q165" s="108"/>
+      <c r="R165" s="108"/>
       <c r="S165" s="51"/>
       <c r="T165" s="52" t="s">
         <v>20</v>
@@ -6990,22 +7032,22 @@
         <f t="shared" si="14"/>
         <v>43832</v>
       </c>
-      <c r="C166" s="125" t="s">
+      <c r="C166" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="D166" s="126"/>
-      <c r="E166" s="126"/>
-      <c r="F166" s="126"/>
-      <c r="G166" s="126"/>
-      <c r="H166" s="126"/>
-      <c r="I166" s="126"/>
-      <c r="J166" s="126"/>
-      <c r="K166" s="126"/>
-      <c r="L166" s="126"/>
-      <c r="M166" s="126"/>
-      <c r="N166" s="126"/>
-      <c r="O166" s="126"/>
-      <c r="P166" s="127"/>
+      <c r="D166" s="84"/>
+      <c r="E166" s="84"/>
+      <c r="F166" s="84"/>
+      <c r="G166" s="84"/>
+      <c r="H166" s="84"/>
+      <c r="I166" s="84"/>
+      <c r="J166" s="84"/>
+      <c r="K166" s="84"/>
+      <c r="L166" s="84"/>
+      <c r="M166" s="84"/>
+      <c r="N166" s="84"/>
+      <c r="O166" s="84"/>
+      <c r="P166" s="85"/>
       <c r="Q166" s="49"/>
       <c r="R166" s="20"/>
       <c r="S166" s="51"/>
@@ -7022,22 +7064,22 @@
         <f t="shared" si="14"/>
         <v>43833</v>
       </c>
-      <c r="C167" s="125" t="s">
+      <c r="C167" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="D167" s="126"/>
-      <c r="E167" s="126"/>
-      <c r="F167" s="126"/>
-      <c r="G167" s="126"/>
-      <c r="H167" s="126"/>
-      <c r="I167" s="126"/>
-      <c r="J167" s="126"/>
-      <c r="K167" s="126"/>
-      <c r="L167" s="126"/>
-      <c r="M167" s="126"/>
-      <c r="N167" s="126"/>
-      <c r="O167" s="126"/>
-      <c r="P167" s="127"/>
+      <c r="D167" s="84"/>
+      <c r="E167" s="84"/>
+      <c r="F167" s="84"/>
+      <c r="G167" s="84"/>
+      <c r="H167" s="84"/>
+      <c r="I167" s="84"/>
+      <c r="J167" s="84"/>
+      <c r="K167" s="84"/>
+      <c r="L167" s="84"/>
+      <c r="M167" s="84"/>
+      <c r="N167" s="84"/>
+      <c r="O167" s="84"/>
+      <c r="P167" s="85"/>
       <c r="Q167" s="49"/>
       <c r="R167" s="49"/>
       <c r="S167" s="51"/>
@@ -7052,22 +7094,22 @@
         <f t="shared" si="14"/>
         <v>43834</v>
       </c>
-      <c r="C168" s="125" t="s">
+      <c r="C168" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="D168" s="126"/>
-      <c r="E168" s="126"/>
-      <c r="F168" s="126"/>
-      <c r="G168" s="126"/>
-      <c r="H168" s="126"/>
-      <c r="I168" s="126"/>
-      <c r="J168" s="126"/>
-      <c r="K168" s="126"/>
-      <c r="L168" s="126"/>
-      <c r="M168" s="126"/>
-      <c r="N168" s="126"/>
-      <c r="O168" s="126"/>
-      <c r="P168" s="127"/>
+      <c r="D168" s="84"/>
+      <c r="E168" s="84"/>
+      <c r="F168" s="84"/>
+      <c r="G168" s="84"/>
+      <c r="H168" s="84"/>
+      <c r="I168" s="84"/>
+      <c r="J168" s="84"/>
+      <c r="K168" s="84"/>
+      <c r="L168" s="84"/>
+      <c r="M168" s="84"/>
+      <c r="N168" s="84"/>
+      <c r="O168" s="84"/>
+      <c r="P168" s="85"/>
       <c r="Q168" s="49"/>
       <c r="R168" s="49"/>
       <c r="S168" s="51"/>
@@ -7199,22 +7241,22 @@
         <f>B163+7</f>
         <v>43836</v>
       </c>
-      <c r="C173" s="125" t="s">
+      <c r="C173" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="D173" s="126"/>
-      <c r="E173" s="126"/>
-      <c r="F173" s="126"/>
-      <c r="G173" s="126"/>
-      <c r="H173" s="126"/>
-      <c r="I173" s="126"/>
-      <c r="J173" s="126"/>
-      <c r="K173" s="126"/>
-      <c r="L173" s="126"/>
-      <c r="M173" s="126"/>
-      <c r="N173" s="126"/>
-      <c r="O173" s="126"/>
-      <c r="P173" s="127"/>
+      <c r="D173" s="84"/>
+      <c r="E173" s="84"/>
+      <c r="F173" s="84"/>
+      <c r="G173" s="84"/>
+      <c r="H173" s="84"/>
+      <c r="I173" s="84"/>
+      <c r="J173" s="84"/>
+      <c r="K173" s="84"/>
+      <c r="L173" s="84"/>
+      <c r="M173" s="84"/>
+      <c r="N173" s="84"/>
+      <c r="O173" s="84"/>
+      <c r="P173" s="85"/>
       <c r="Q173" s="49"/>
       <c r="R173" s="49"/>
       <c r="S173" s="51"/>
@@ -7231,22 +7273,22 @@
         <f t="shared" ref="B174:B179" si="15">B164+7</f>
         <v>43837</v>
       </c>
-      <c r="C174" s="125" t="s">
+      <c r="C174" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="D174" s="126"/>
-      <c r="E174" s="126"/>
-      <c r="F174" s="126"/>
-      <c r="G174" s="126"/>
-      <c r="H174" s="126"/>
-      <c r="I174" s="126"/>
-      <c r="J174" s="126"/>
-      <c r="K174" s="126"/>
-      <c r="L174" s="126"/>
-      <c r="M174" s="126"/>
-      <c r="N174" s="126"/>
-      <c r="O174" s="126"/>
-      <c r="P174" s="127"/>
+      <c r="D174" s="84"/>
+      <c r="E174" s="84"/>
+      <c r="F174" s="84"/>
+      <c r="G174" s="84"/>
+      <c r="H174" s="84"/>
+      <c r="I174" s="84"/>
+      <c r="J174" s="84"/>
+      <c r="K174" s="84"/>
+      <c r="L174" s="84"/>
+      <c r="M174" s="84"/>
+      <c r="N174" s="84"/>
+      <c r="O174" s="84"/>
+      <c r="P174" s="85"/>
       <c r="Q174" s="49"/>
       <c r="R174" s="49"/>
       <c r="S174" s="51"/>
@@ -7263,22 +7305,22 @@
         <f t="shared" si="15"/>
         <v>43838</v>
       </c>
-      <c r="C175" s="125" t="s">
+      <c r="C175" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="D175" s="126"/>
-      <c r="E175" s="126"/>
-      <c r="F175" s="126"/>
-      <c r="G175" s="126"/>
-      <c r="H175" s="126"/>
-      <c r="I175" s="126"/>
-      <c r="J175" s="126"/>
-      <c r="K175" s="126"/>
-      <c r="L175" s="126"/>
-      <c r="M175" s="126"/>
-      <c r="N175" s="126"/>
-      <c r="O175" s="126"/>
-      <c r="P175" s="127"/>
+      <c r="D175" s="84"/>
+      <c r="E175" s="84"/>
+      <c r="F175" s="84"/>
+      <c r="G175" s="84"/>
+      <c r="H175" s="84"/>
+      <c r="I175" s="84"/>
+      <c r="J175" s="84"/>
+      <c r="K175" s="84"/>
+      <c r="L175" s="84"/>
+      <c r="M175" s="84"/>
+      <c r="N175" s="84"/>
+      <c r="O175" s="84"/>
+      <c r="P175" s="85"/>
       <c r="Q175" s="49"/>
       <c r="R175" s="49"/>
       <c r="S175" s="51"/>
@@ -7295,22 +7337,22 @@
         <f t="shared" si="15"/>
         <v>43839</v>
       </c>
-      <c r="C176" s="125" t="s">
+      <c r="C176" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="D176" s="126"/>
-      <c r="E176" s="126"/>
-      <c r="F176" s="126"/>
-      <c r="G176" s="126"/>
-      <c r="H176" s="126"/>
-      <c r="I176" s="126"/>
-      <c r="J176" s="126"/>
-      <c r="K176" s="126"/>
-      <c r="L176" s="126"/>
-      <c r="M176" s="126"/>
-      <c r="N176" s="126"/>
-      <c r="O176" s="126"/>
-      <c r="P176" s="127"/>
+      <c r="D176" s="84"/>
+      <c r="E176" s="84"/>
+      <c r="F176" s="84"/>
+      <c r="G176" s="84"/>
+      <c r="H176" s="84"/>
+      <c r="I176" s="84"/>
+      <c r="J176" s="84"/>
+      <c r="K176" s="84"/>
+      <c r="L176" s="84"/>
+      <c r="M176" s="84"/>
+      <c r="N176" s="84"/>
+      <c r="O176" s="84"/>
+      <c r="P176" s="85"/>
       <c r="Q176" s="49"/>
       <c r="R176" s="49"/>
       <c r="S176" s="51"/>
@@ -7327,22 +7369,22 @@
         <f t="shared" si="15"/>
         <v>43840</v>
       </c>
-      <c r="C177" s="125" t="s">
+      <c r="C177" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="D177" s="126"/>
-      <c r="E177" s="126"/>
-      <c r="F177" s="126"/>
-      <c r="G177" s="126"/>
-      <c r="H177" s="126"/>
-      <c r="I177" s="126"/>
-      <c r="J177" s="126"/>
-      <c r="K177" s="126"/>
-      <c r="L177" s="126"/>
-      <c r="M177" s="126"/>
-      <c r="N177" s="126"/>
-      <c r="O177" s="126"/>
-      <c r="P177" s="127"/>
+      <c r="D177" s="84"/>
+      <c r="E177" s="84"/>
+      <c r="F177" s="84"/>
+      <c r="G177" s="84"/>
+      <c r="H177" s="84"/>
+      <c r="I177" s="84"/>
+      <c r="J177" s="84"/>
+      <c r="K177" s="84"/>
+      <c r="L177" s="84"/>
+      <c r="M177" s="84"/>
+      <c r="N177" s="84"/>
+      <c r="O177" s="84"/>
+      <c r="P177" s="85"/>
       <c r="Q177" s="49"/>
       <c r="R177" s="49"/>
       <c r="S177" s="51"/>
@@ -7357,22 +7399,22 @@
         <f t="shared" si="15"/>
         <v>43841</v>
       </c>
-      <c r="C178" s="125" t="s">
+      <c r="C178" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="D178" s="126"/>
-      <c r="E178" s="126"/>
-      <c r="F178" s="126"/>
-      <c r="G178" s="126"/>
-      <c r="H178" s="126"/>
-      <c r="I178" s="126"/>
-      <c r="J178" s="126"/>
-      <c r="K178" s="126"/>
-      <c r="L178" s="126"/>
-      <c r="M178" s="126"/>
-      <c r="N178" s="126"/>
-      <c r="O178" s="126"/>
-      <c r="P178" s="127"/>
+      <c r="D178" s="84"/>
+      <c r="E178" s="84"/>
+      <c r="F178" s="84"/>
+      <c r="G178" s="84"/>
+      <c r="H178" s="84"/>
+      <c r="I178" s="84"/>
+      <c r="J178" s="84"/>
+      <c r="K178" s="84"/>
+      <c r="L178" s="84"/>
+      <c r="M178" s="84"/>
+      <c r="N178" s="84"/>
+      <c r="O178" s="84"/>
+      <c r="P178" s="85"/>
       <c r="Q178" s="49"/>
       <c r="R178" s="49"/>
       <c r="S178" s="51"/>
@@ -7502,22 +7544,22 @@
         <f>B173+7</f>
         <v>43843</v>
       </c>
-      <c r="C183" s="125" t="s">
+      <c r="C183" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="D183" s="126"/>
-      <c r="E183" s="126"/>
-      <c r="F183" s="126"/>
-      <c r="G183" s="126"/>
-      <c r="H183" s="126"/>
-      <c r="I183" s="126"/>
-      <c r="J183" s="126"/>
-      <c r="K183" s="126"/>
-      <c r="L183" s="126"/>
-      <c r="M183" s="126"/>
-      <c r="N183" s="126"/>
-      <c r="O183" s="126"/>
-      <c r="P183" s="127"/>
+      <c r="D183" s="84"/>
+      <c r="E183" s="84"/>
+      <c r="F183" s="84"/>
+      <c r="G183" s="84"/>
+      <c r="H183" s="84"/>
+      <c r="I183" s="84"/>
+      <c r="J183" s="84"/>
+      <c r="K183" s="84"/>
+      <c r="L183" s="84"/>
+      <c r="M183" s="84"/>
+      <c r="N183" s="84"/>
+      <c r="O183" s="84"/>
+      <c r="P183" s="85"/>
       <c r="Q183" s="49"/>
       <c r="R183" s="49"/>
       <c r="S183" s="51"/>
@@ -7533,22 +7575,22 @@
         <f t="shared" ref="B184:B189" si="16">B174+7</f>
         <v>43844</v>
       </c>
-      <c r="C184" s="125" t="s">
+      <c r="C184" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="D184" s="126"/>
-      <c r="E184" s="126"/>
-      <c r="F184" s="126"/>
-      <c r="G184" s="126"/>
-      <c r="H184" s="126"/>
-      <c r="I184" s="126"/>
-      <c r="J184" s="126"/>
-      <c r="K184" s="126"/>
-      <c r="L184" s="126"/>
-      <c r="M184" s="126"/>
-      <c r="N184" s="126"/>
-      <c r="O184" s="126"/>
-      <c r="P184" s="127"/>
+      <c r="D184" s="84"/>
+      <c r="E184" s="84"/>
+      <c r="F184" s="84"/>
+      <c r="G184" s="84"/>
+      <c r="H184" s="84"/>
+      <c r="I184" s="84"/>
+      <c r="J184" s="84"/>
+      <c r="K184" s="84"/>
+      <c r="L184" s="84"/>
+      <c r="M184" s="84"/>
+      <c r="N184" s="84"/>
+      <c r="O184" s="84"/>
+      <c r="P184" s="85"/>
       <c r="Q184" s="49"/>
       <c r="R184" s="49"/>
       <c r="S184" s="51"/>
@@ -7564,22 +7606,22 @@
         <f t="shared" si="16"/>
         <v>43845</v>
       </c>
-      <c r="C185" s="125" t="s">
+      <c r="C185" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="D185" s="126"/>
-      <c r="E185" s="126"/>
-      <c r="F185" s="126"/>
-      <c r="G185" s="126"/>
-      <c r="H185" s="126"/>
-      <c r="I185" s="126"/>
-      <c r="J185" s="126"/>
-      <c r="K185" s="126"/>
-      <c r="L185" s="126"/>
-      <c r="M185" s="126"/>
-      <c r="N185" s="126"/>
-      <c r="O185" s="126"/>
-      <c r="P185" s="127"/>
+      <c r="D185" s="84"/>
+      <c r="E185" s="84"/>
+      <c r="F185" s="84"/>
+      <c r="G185" s="84"/>
+      <c r="H185" s="84"/>
+      <c r="I185" s="84"/>
+      <c r="J185" s="84"/>
+      <c r="K185" s="84"/>
+      <c r="L185" s="84"/>
+      <c r="M185" s="84"/>
+      <c r="N185" s="84"/>
+      <c r="O185" s="84"/>
+      <c r="P185" s="85"/>
       <c r="Q185" s="49"/>
       <c r="R185" s="49"/>
       <c r="S185" s="51"/>
@@ -7595,24 +7637,24 @@
         <f t="shared" si="16"/>
         <v>43846</v>
       </c>
-      <c r="C186" s="136" t="s">
+      <c r="C186" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="D186" s="137"/>
-      <c r="E186" s="137"/>
-      <c r="F186" s="137"/>
-      <c r="G186" s="137"/>
-      <c r="H186" s="137"/>
-      <c r="I186" s="137"/>
-      <c r="J186" s="137"/>
-      <c r="K186" s="137"/>
-      <c r="L186" s="137"/>
-      <c r="M186" s="137"/>
-      <c r="N186" s="137"/>
-      <c r="O186" s="137"/>
-      <c r="P186" s="137"/>
-      <c r="Q186" s="137"/>
-      <c r="R186" s="138"/>
+      <c r="D186" s="75"/>
+      <c r="E186" s="75"/>
+      <c r="F186" s="75"/>
+      <c r="G186" s="75"/>
+      <c r="H186" s="75"/>
+      <c r="I186" s="75"/>
+      <c r="J186" s="75"/>
+      <c r="K186" s="75"/>
+      <c r="L186" s="75"/>
+      <c r="M186" s="75"/>
+      <c r="N186" s="75"/>
+      <c r="O186" s="75"/>
+      <c r="P186" s="75"/>
+      <c r="Q186" s="75"/>
+      <c r="R186" s="76"/>
       <c r="S186" s="51"/>
       <c r="T186" s="18" t="s">
         <v>21</v>
@@ -7626,22 +7668,22 @@
         <f t="shared" si="16"/>
         <v>43847</v>
       </c>
-      <c r="C187" s="139"/>
-      <c r="D187" s="140"/>
-      <c r="E187" s="140"/>
-      <c r="F187" s="140"/>
-      <c r="G187" s="140"/>
-      <c r="H187" s="140"/>
-      <c r="I187" s="140"/>
-      <c r="J187" s="140"/>
-      <c r="K187" s="140"/>
-      <c r="L187" s="140"/>
-      <c r="M187" s="140"/>
-      <c r="N187" s="140"/>
-      <c r="O187" s="140"/>
-      <c r="P187" s="140"/>
-      <c r="Q187" s="140"/>
-      <c r="R187" s="141"/>
+      <c r="C187" s="77"/>
+      <c r="D187" s="78"/>
+      <c r="E187" s="78"/>
+      <c r="F187" s="78"/>
+      <c r="G187" s="78"/>
+      <c r="H187" s="78"/>
+      <c r="I187" s="78"/>
+      <c r="J187" s="78"/>
+      <c r="K187" s="78"/>
+      <c r="L187" s="78"/>
+      <c r="M187" s="78"/>
+      <c r="N187" s="78"/>
+      <c r="O187" s="78"/>
+      <c r="P187" s="78"/>
+      <c r="Q187" s="78"/>
+      <c r="R187" s="79"/>
       <c r="S187" s="51"/>
       <c r="T187" s="51"/>
     </row>
@@ -7653,22 +7695,22 @@
         <f t="shared" si="16"/>
         <v>43848</v>
       </c>
-      <c r="C188" s="139"/>
-      <c r="D188" s="140"/>
-      <c r="E188" s="140"/>
-      <c r="F188" s="140"/>
-      <c r="G188" s="140"/>
-      <c r="H188" s="140"/>
-      <c r="I188" s="140"/>
-      <c r="J188" s="140"/>
-      <c r="K188" s="140"/>
-      <c r="L188" s="140"/>
-      <c r="M188" s="140"/>
-      <c r="N188" s="140"/>
-      <c r="O188" s="140"/>
-      <c r="P188" s="140"/>
-      <c r="Q188" s="140"/>
-      <c r="R188" s="141"/>
+      <c r="C188" s="77"/>
+      <c r="D188" s="78"/>
+      <c r="E188" s="78"/>
+      <c r="F188" s="78"/>
+      <c r="G188" s="78"/>
+      <c r="H188" s="78"/>
+      <c r="I188" s="78"/>
+      <c r="J188" s="78"/>
+      <c r="K188" s="78"/>
+      <c r="L188" s="78"/>
+      <c r="M188" s="78"/>
+      <c r="N188" s="78"/>
+      <c r="O188" s="78"/>
+      <c r="P188" s="78"/>
+      <c r="Q188" s="78"/>
+      <c r="R188" s="79"/>
       <c r="S188" s="51"/>
       <c r="T188" s="51"/>
     </row>
@@ -7680,22 +7722,22 @@
         <f t="shared" si="16"/>
         <v>43849</v>
       </c>
-      <c r="C189" s="142"/>
-      <c r="D189" s="143"/>
-      <c r="E189" s="143"/>
-      <c r="F189" s="143"/>
-      <c r="G189" s="143"/>
-      <c r="H189" s="143"/>
-      <c r="I189" s="143"/>
-      <c r="J189" s="143"/>
-      <c r="K189" s="143"/>
-      <c r="L189" s="143"/>
-      <c r="M189" s="143"/>
-      <c r="N189" s="143"/>
-      <c r="O189" s="143"/>
-      <c r="P189" s="143"/>
-      <c r="Q189" s="143"/>
-      <c r="R189" s="144"/>
+      <c r="C189" s="80"/>
+      <c r="D189" s="81"/>
+      <c r="E189" s="81"/>
+      <c r="F189" s="81"/>
+      <c r="G189" s="81"/>
+      <c r="H189" s="81"/>
+      <c r="I189" s="81"/>
+      <c r="J189" s="81"/>
+      <c r="K189" s="81"/>
+      <c r="L189" s="81"/>
+      <c r="M189" s="81"/>
+      <c r="N189" s="81"/>
+      <c r="O189" s="81"/>
+      <c r="P189" s="81"/>
+      <c r="Q189" s="81"/>
+      <c r="R189" s="82"/>
       <c r="S189" s="51"/>
       <c r="T189" s="51"/>
     </row>
@@ -7776,7 +7818,7 @@
       <c r="S191" s="51"/>
       <c r="T191" s="51"/>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="57">
         <f>A182+7</f>
         <v>43850</v>
@@ -7788,7 +7830,9 @@
         <f>C182+1</f>
         <v>19</v>
       </c>
-      <c r="D192" s="15"/>
+      <c r="D192" s="145">
+        <v>1</v>
+      </c>
       <c r="E192" s="15"/>
       <c r="F192" s="15"/>
       <c r="G192" s="15"/>
@@ -7806,7 +7850,7 @@
       <c r="S192" s="51"/>
       <c r="T192" s="51"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>0</v>
       </c>
@@ -7814,14 +7858,20 @@
         <f>B183+7</f>
         <v>43850</v>
       </c>
-      <c r="C193" s="32"/>
-      <c r="D193" s="20"/>
-      <c r="E193" s="20"/>
-      <c r="F193" s="20"/>
-      <c r="G193" s="20"/>
-      <c r="H193" s="20"/>
-      <c r="I193" s="49"/>
-      <c r="J193" s="49"/>
+      <c r="C193" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" s="72"/>
+      <c r="E193" s="72"/>
+      <c r="F193" s="72"/>
+      <c r="G193" s="146" t="s">
+        <v>93</v>
+      </c>
+      <c r="H193" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="I193" s="72"/>
+      <c r="J193" s="72"/>
       <c r="K193" s="49"/>
       <c r="L193" s="49"/>
       <c r="M193" s="49"/>
@@ -7835,7 +7885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>1</v>
       </c>
@@ -7864,7 +7914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>2</v>
       </c>
@@ -7876,10 +7926,12 @@
       <c r="D195" s="20"/>
       <c r="E195" s="20"/>
       <c r="F195" s="20"/>
-      <c r="G195" s="20"/>
-      <c r="H195" s="20"/>
-      <c r="I195" s="20"/>
-      <c r="J195" s="20"/>
+      <c r="G195" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="H195" s="148"/>
+      <c r="I195" s="148"/>
+      <c r="J195" s="149"/>
       <c r="K195" s="49"/>
       <c r="L195" s="49"/>
       <c r="M195" s="49"/>
@@ -7893,7 +7945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>3</v>
       </c>
@@ -7922,7 +7974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>4</v>
       </c>
@@ -7934,10 +7986,12 @@
       <c r="D197" s="20"/>
       <c r="E197" s="20"/>
       <c r="F197" s="20"/>
-      <c r="G197" s="20"/>
-      <c r="H197" s="20"/>
-      <c r="I197" s="49"/>
-      <c r="J197" s="49"/>
+      <c r="G197" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="H197" s="148"/>
+      <c r="I197" s="148"/>
+      <c r="J197" s="149"/>
       <c r="K197" s="49"/>
       <c r="L197" s="49"/>
       <c r="M197" s="20"/>
@@ -7949,7 +8003,7 @@
       <c r="S197" s="51"/>
       <c r="T197" s="51"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>5</v>
       </c>
@@ -8080,7 +8134,7 @@
       <c r="S201" s="51"/>
       <c r="T201" s="51"/>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="57">
         <f>A192+7</f>
         <v>43857</v>
@@ -8092,7 +8146,10 @@
         <f>C192+1</f>
         <v>20</v>
       </c>
-      <c r="D202" s="15"/>
+      <c r="D202" s="145">
+        <f>D192+1</f>
+        <v>2</v>
+      </c>
       <c r="E202" s="15"/>
       <c r="F202" s="15"/>
       <c r="G202" s="15"/>
@@ -8110,7 +8167,7 @@
       <c r="S202" s="51"/>
       <c r="T202" s="51"/>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>0</v>
       </c>
@@ -8118,14 +8175,18 @@
         <f>B193+7</f>
         <v>43857</v>
       </c>
-      <c r="C203" s="32"/>
-      <c r="D203" s="20"/>
-      <c r="E203" s="20"/>
-      <c r="F203" s="20"/>
-      <c r="G203" s="20"/>
-      <c r="H203" s="20"/>
-      <c r="I203" s="49"/>
-      <c r="J203" s="49"/>
+      <c r="C203" s="147" t="s">
+        <v>7</v>
+      </c>
+      <c r="D203" s="149"/>
+      <c r="E203" s="147" t="s">
+        <v>95</v>
+      </c>
+      <c r="F203" s="148"/>
+      <c r="G203" s="148"/>
+      <c r="H203" s="148"/>
+      <c r="I203" s="148"/>
+      <c r="J203" s="149"/>
       <c r="K203" s="49"/>
       <c r="L203" s="49"/>
       <c r="M203" s="49"/>
@@ -8139,7 +8200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>1</v>
       </c>
@@ -8168,7 +8229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>2</v>
       </c>
@@ -8180,10 +8241,12 @@
       <c r="D205" s="20"/>
       <c r="E205" s="20"/>
       <c r="F205" s="20"/>
-      <c r="G205" s="20"/>
-      <c r="H205" s="20"/>
-      <c r="I205" s="20"/>
-      <c r="J205" s="20"/>
+      <c r="G205" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="H205" s="148"/>
+      <c r="I205" s="148"/>
+      <c r="J205" s="149"/>
       <c r="K205" s="49"/>
       <c r="L205" s="49"/>
       <c r="M205" s="49"/>
@@ -8197,7 +8260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>3</v>
       </c>
@@ -8226,7 +8289,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
         <v>4</v>
       </c>
@@ -8238,10 +8301,12 @@
       <c r="D207" s="20"/>
       <c r="E207" s="20"/>
       <c r="F207" s="20"/>
-      <c r="G207" s="20"/>
-      <c r="H207" s="20"/>
-      <c r="I207" s="49"/>
-      <c r="J207" s="49"/>
+      <c r="G207" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="H207" s="148"/>
+      <c r="I207" s="148"/>
+      <c r="J207" s="149"/>
       <c r="K207" s="49"/>
       <c r="L207" s="49"/>
       <c r="M207" s="20"/>
@@ -8253,7 +8318,7 @@
       <c r="S207" s="51"/>
       <c r="T207" s="51"/>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>5</v>
       </c>
@@ -8308,25 +8373,26 @@
       <c r="T209" s="51"/>
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B210"/>
-      <c r="C210"/>
-      <c r="D210"/>
-      <c r="E210"/>
-      <c r="F210"/>
-      <c r="G210"/>
-      <c r="H210"/>
-      <c r="I210"/>
-      <c r="J210"/>
-      <c r="K210"/>
-      <c r="L210"/>
-      <c r="M210"/>
-      <c r="N210"/>
-      <c r="O210"/>
-      <c r="P210"/>
-      <c r="Q210"/>
-      <c r="R210"/>
-      <c r="S210"/>
-      <c r="T210"/>
+      <c r="A210" s="54"/>
+      <c r="B210" s="54"/>
+      <c r="C210" s="54"/>
+      <c r="D210" s="54"/>
+      <c r="E210" s="54"/>
+      <c r="F210" s="54"/>
+      <c r="G210" s="54"/>
+      <c r="H210" s="54"/>
+      <c r="I210" s="54"/>
+      <c r="J210" s="54"/>
+      <c r="K210" s="54"/>
+      <c r="L210" s="54"/>
+      <c r="M210" s="54"/>
+      <c r="N210" s="54"/>
+      <c r="O210" s="54"/>
+      <c r="P210" s="54"/>
+      <c r="Q210" s="54"/>
+      <c r="R210" s="54"/>
+      <c r="S210" s="54"/>
+      <c r="T210" s="54"/>
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
@@ -8384,7 +8450,7 @@
       <c r="S211" s="51"/>
       <c r="T211" s="51"/>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="57">
         <f>A202+7</f>
         <v>43864</v>
@@ -8396,7 +8462,10 @@
         <f>C202+1</f>
         <v>21</v>
       </c>
-      <c r="D212" s="15"/>
+      <c r="D212" s="145">
+        <f>D202+1</f>
+        <v>3</v>
+      </c>
       <c r="E212" s="15"/>
       <c r="F212" s="15"/>
       <c r="G212" s="15"/>
@@ -8414,7 +8483,7 @@
       <c r="S212" s="51"/>
       <c r="T212" s="51"/>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
         <v>0</v>
       </c>
@@ -8422,14 +8491,18 @@
         <f>B203+7</f>
         <v>43864</v>
       </c>
-      <c r="C213" s="32"/>
-      <c r="D213" s="20"/>
-      <c r="E213" s="20"/>
-      <c r="F213" s="20"/>
-      <c r="G213" s="20"/>
-      <c r="H213" s="20"/>
-      <c r="I213" s="49"/>
-      <c r="J213" s="49"/>
+      <c r="C213" s="147" t="s">
+        <v>7</v>
+      </c>
+      <c r="D213" s="149"/>
+      <c r="E213" s="147" t="s">
+        <v>95</v>
+      </c>
+      <c r="F213" s="148"/>
+      <c r="G213" s="148"/>
+      <c r="H213" s="148"/>
+      <c r="I213" s="148"/>
+      <c r="J213" s="149"/>
       <c r="K213" s="49"/>
       <c r="L213" s="49"/>
       <c r="M213" s="49"/>
@@ -8443,7 +8516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
         <v>1</v>
       </c>
@@ -8472,7 +8545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
         <v>2</v>
       </c>
@@ -8484,10 +8557,12 @@
       <c r="D215" s="20"/>
       <c r="E215" s="20"/>
       <c r="F215" s="20"/>
-      <c r="G215" s="20"/>
-      <c r="H215" s="20"/>
-      <c r="I215" s="20"/>
-      <c r="J215" s="20"/>
+      <c r="G215" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="H215" s="148"/>
+      <c r="I215" s="148"/>
+      <c r="J215" s="149"/>
       <c r="K215" s="49"/>
       <c r="L215" s="49"/>
       <c r="M215" s="49"/>
@@ -8501,7 +8576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>3</v>
       </c>
@@ -8530,7 +8605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
         <v>4</v>
       </c>
@@ -8542,10 +8617,12 @@
       <c r="D217" s="20"/>
       <c r="E217" s="20"/>
       <c r="F217" s="20"/>
-      <c r="G217" s="20"/>
-      <c r="H217" s="20"/>
-      <c r="I217" s="49"/>
-      <c r="J217" s="49"/>
+      <c r="G217" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="H217" s="148"/>
+      <c r="I217" s="148"/>
+      <c r="J217" s="149"/>
       <c r="K217" s="49"/>
       <c r="L217" s="49"/>
       <c r="M217" s="20"/>
@@ -8557,7 +8634,7 @@
       <c r="S217" s="51"/>
       <c r="T217" s="51"/>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>5</v>
       </c>
@@ -8612,25 +8689,26 @@
       <c r="T219" s="51"/>
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B220"/>
-      <c r="C220"/>
-      <c r="D220"/>
-      <c r="E220"/>
-      <c r="F220"/>
-      <c r="G220"/>
-      <c r="H220"/>
-      <c r="I220"/>
-      <c r="J220"/>
-      <c r="K220"/>
-      <c r="L220"/>
-      <c r="M220"/>
-      <c r="N220"/>
-      <c r="O220"/>
-      <c r="P220"/>
-      <c r="Q220"/>
-      <c r="R220"/>
-      <c r="S220"/>
-      <c r="T220"/>
+      <c r="A220" s="54"/>
+      <c r="B220" s="54"/>
+      <c r="C220" s="54"/>
+      <c r="D220" s="54"/>
+      <c r="E220" s="54"/>
+      <c r="F220" s="54"/>
+      <c r="G220" s="54"/>
+      <c r="H220" s="54"/>
+      <c r="I220" s="54"/>
+      <c r="J220" s="54"/>
+      <c r="K220" s="54"/>
+      <c r="L220" s="54"/>
+      <c r="M220" s="54"/>
+      <c r="N220" s="54"/>
+      <c r="O220" s="54"/>
+      <c r="P220" s="54"/>
+      <c r="Q220" s="54"/>
+      <c r="R220" s="54"/>
+      <c r="S220" s="54"/>
+      <c r="T220" s="54"/>
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
@@ -8688,7 +8766,7 @@
       <c r="S221" s="51"/>
       <c r="T221" s="51"/>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="57">
         <f>A212+7</f>
         <v>43871</v>
@@ -8700,7 +8778,10 @@
         <f>C212+1</f>
         <v>22</v>
       </c>
-      <c r="D222" s="15"/>
+      <c r="D222" s="145">
+        <f>D212+1</f>
+        <v>4</v>
+      </c>
       <c r="E222" s="15"/>
       <c r="F222" s="15"/>
       <c r="G222" s="15"/>
@@ -8718,7 +8799,7 @@
       <c r="S222" s="51"/>
       <c r="T222" s="51"/>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
         <v>0</v>
       </c>
@@ -8726,14 +8807,18 @@
         <f>B213+7</f>
         <v>43871</v>
       </c>
-      <c r="C223" s="32"/>
-      <c r="D223" s="20"/>
-      <c r="E223" s="20"/>
-      <c r="F223" s="20"/>
-      <c r="G223" s="20"/>
-      <c r="H223" s="20"/>
-      <c r="I223" s="49"/>
-      <c r="J223" s="49"/>
+      <c r="C223" s="147" t="s">
+        <v>7</v>
+      </c>
+      <c r="D223" s="149"/>
+      <c r="E223" s="147" t="s">
+        <v>95</v>
+      </c>
+      <c r="F223" s="148"/>
+      <c r="G223" s="148"/>
+      <c r="H223" s="148"/>
+      <c r="I223" s="148"/>
+      <c r="J223" s="149"/>
       <c r="K223" s="49"/>
       <c r="L223" s="49"/>
       <c r="M223" s="49"/>
@@ -8747,7 +8832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
         <v>1</v>
       </c>
@@ -8776,7 +8861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>2</v>
       </c>
@@ -8788,10 +8873,12 @@
       <c r="D225" s="20"/>
       <c r="E225" s="20"/>
       <c r="F225" s="20"/>
-      <c r="G225" s="20"/>
-      <c r="H225" s="20"/>
-      <c r="I225" s="20"/>
-      <c r="J225" s="20"/>
+      <c r="G225" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="H225" s="148"/>
+      <c r="I225" s="148"/>
+      <c r="J225" s="149"/>
       <c r="K225" s="49"/>
       <c r="L225" s="49"/>
       <c r="M225" s="49"/>
@@ -8805,7 +8892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>3</v>
       </c>
@@ -8834,7 +8921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>4</v>
       </c>
@@ -8846,10 +8933,12 @@
       <c r="D227" s="20"/>
       <c r="E227" s="20"/>
       <c r="F227" s="20"/>
-      <c r="G227" s="20"/>
-      <c r="H227" s="20"/>
-      <c r="I227" s="49"/>
-      <c r="J227" s="49"/>
+      <c r="G227" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="H227" s="148"/>
+      <c r="I227" s="148"/>
+      <c r="J227" s="149"/>
       <c r="K227" s="49"/>
       <c r="L227" s="49"/>
       <c r="M227" s="20"/>
@@ -8861,7 +8950,7 @@
       <c r="S227" s="51"/>
       <c r="T227" s="51"/>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>5</v>
       </c>
@@ -8916,25 +9005,26 @@
       <c r="T229" s="51"/>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B230"/>
-      <c r="C230"/>
-      <c r="D230"/>
-      <c r="E230"/>
-      <c r="F230"/>
-      <c r="G230"/>
-      <c r="H230"/>
-      <c r="I230"/>
-      <c r="J230"/>
-      <c r="K230"/>
-      <c r="L230"/>
-      <c r="M230"/>
-      <c r="N230"/>
-      <c r="O230"/>
-      <c r="P230"/>
-      <c r="Q230"/>
-      <c r="R230"/>
-      <c r="S230"/>
-      <c r="T230"/>
+      <c r="A230" s="54"/>
+      <c r="B230" s="54"/>
+      <c r="C230" s="54"/>
+      <c r="D230" s="54"/>
+      <c r="E230" s="54"/>
+      <c r="F230" s="54"/>
+      <c r="G230" s="54"/>
+      <c r="H230" s="54"/>
+      <c r="I230" s="54"/>
+      <c r="J230" s="54"/>
+      <c r="K230" s="54"/>
+      <c r="L230" s="54"/>
+      <c r="M230" s="54"/>
+      <c r="N230" s="54"/>
+      <c r="O230" s="54"/>
+      <c r="P230" s="54"/>
+      <c r="Q230" s="54"/>
+      <c r="R230" s="54"/>
+      <c r="S230" s="54"/>
+      <c r="T230" s="54"/>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
@@ -8992,7 +9082,7 @@
       <c r="S231" s="51"/>
       <c r="T231" s="51"/>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="57">
         <f>A222+7</f>
         <v>43878</v>
@@ -9004,7 +9094,10 @@
         <f>C222+1</f>
         <v>23</v>
       </c>
-      <c r="D232" s="15"/>
+      <c r="D232" s="145">
+        <f>D222+1</f>
+        <v>5</v>
+      </c>
       <c r="E232" s="15"/>
       <c r="F232" s="15"/>
       <c r="G232" s="15"/>
@@ -9022,7 +9115,7 @@
       <c r="S232" s="51"/>
       <c r="T232" s="51"/>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
         <v>0</v>
       </c>
@@ -9030,14 +9123,18 @@
         <f>B223+7</f>
         <v>43878</v>
       </c>
-      <c r="C233" s="32"/>
-      <c r="D233" s="20"/>
-      <c r="E233" s="20"/>
-      <c r="F233" s="20"/>
-      <c r="G233" s="20"/>
-      <c r="H233" s="20"/>
-      <c r="I233" s="49"/>
-      <c r="J233" s="49"/>
+      <c r="C233" s="147" t="s">
+        <v>7</v>
+      </c>
+      <c r="D233" s="149"/>
+      <c r="E233" s="147" t="s">
+        <v>95</v>
+      </c>
+      <c r="F233" s="148"/>
+      <c r="G233" s="148"/>
+      <c r="H233" s="148"/>
+      <c r="I233" s="148"/>
+      <c r="J233" s="149"/>
       <c r="K233" s="49"/>
       <c r="L233" s="49"/>
       <c r="M233" s="49"/>
@@ -9051,7 +9148,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
         <v>1</v>
       </c>
@@ -9080,7 +9177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
         <v>2</v>
       </c>
@@ -9092,10 +9189,12 @@
       <c r="D235" s="20"/>
       <c r="E235" s="20"/>
       <c r="F235" s="20"/>
-      <c r="G235" s="20"/>
-      <c r="H235" s="20"/>
-      <c r="I235" s="20"/>
-      <c r="J235" s="20"/>
+      <c r="G235" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="H235" s="148"/>
+      <c r="I235" s="148"/>
+      <c r="J235" s="149"/>
       <c r="K235" s="49"/>
       <c r="L235" s="49"/>
       <c r="M235" s="49"/>
@@ -9109,7 +9208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
         <v>3</v>
       </c>
@@ -9138,7 +9237,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
         <v>4</v>
       </c>
@@ -9150,10 +9249,12 @@
       <c r="D237" s="20"/>
       <c r="E237" s="20"/>
       <c r="F237" s="20"/>
-      <c r="G237" s="20"/>
-      <c r="H237" s="20"/>
-      <c r="I237" s="49"/>
-      <c r="J237" s="49"/>
+      <c r="G237" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="H237" s="148"/>
+      <c r="I237" s="148"/>
+      <c r="J237" s="149"/>
       <c r="K237" s="49"/>
       <c r="L237" s="49"/>
       <c r="M237" s="20"/>
@@ -9165,7 +9266,7 @@
       <c r="S237" s="51"/>
       <c r="T237" s="51"/>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>5</v>
       </c>
@@ -9220,25 +9321,26 @@
       <c r="T239" s="51"/>
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B240"/>
-      <c r="C240"/>
-      <c r="D240"/>
-      <c r="E240"/>
-      <c r="F240"/>
-      <c r="G240"/>
-      <c r="H240"/>
-      <c r="I240"/>
-      <c r="J240"/>
-      <c r="K240"/>
-      <c r="L240"/>
-      <c r="M240"/>
-      <c r="N240"/>
-      <c r="O240"/>
-      <c r="P240"/>
-      <c r="Q240"/>
-      <c r="R240"/>
-      <c r="S240"/>
-      <c r="T240"/>
+      <c r="A240" s="54"/>
+      <c r="B240" s="54"/>
+      <c r="C240" s="54"/>
+      <c r="D240" s="54"/>
+      <c r="E240" s="54"/>
+      <c r="F240" s="54"/>
+      <c r="G240" s="54"/>
+      <c r="H240" s="54"/>
+      <c r="I240" s="54"/>
+      <c r="J240" s="54"/>
+      <c r="K240" s="54"/>
+      <c r="L240" s="54"/>
+      <c r="M240" s="54"/>
+      <c r="N240" s="54"/>
+      <c r="O240" s="54"/>
+      <c r="P240" s="54"/>
+      <c r="Q240" s="54"/>
+      <c r="R240" s="54"/>
+      <c r="S240" s="54"/>
+      <c r="T240" s="54"/>
     </row>
     <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
@@ -9296,7 +9398,7 @@
       <c r="S241" s="51"/>
       <c r="T241" s="51"/>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="57">
         <f>A232+7</f>
         <v>43885</v>
@@ -9308,7 +9410,10 @@
         <f>C232+1</f>
         <v>24</v>
       </c>
-      <c r="D242" s="15"/>
+      <c r="D242" s="145">
+        <f>D232+1</f>
+        <v>6</v>
+      </c>
       <c r="E242" s="15"/>
       <c r="F242" s="15"/>
       <c r="G242" s="15"/>
@@ -9326,7 +9431,7 @@
       <c r="S242" s="51"/>
       <c r="T242" s="51"/>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
         <v>0</v>
       </c>
@@ -9334,14 +9439,18 @@
         <f>B233+7</f>
         <v>43885</v>
       </c>
-      <c r="C243" s="32"/>
-      <c r="D243" s="20"/>
-      <c r="E243" s="20"/>
-      <c r="F243" s="20"/>
-      <c r="G243" s="20"/>
-      <c r="H243" s="20"/>
-      <c r="I243" s="49"/>
-      <c r="J243" s="49"/>
+      <c r="C243" s="147" t="s">
+        <v>7</v>
+      </c>
+      <c r="D243" s="149"/>
+      <c r="E243" s="147" t="s">
+        <v>95</v>
+      </c>
+      <c r="F243" s="148"/>
+      <c r="G243" s="148"/>
+      <c r="H243" s="148"/>
+      <c r="I243" s="148"/>
+      <c r="J243" s="149"/>
       <c r="K243" s="49"/>
       <c r="L243" s="49"/>
       <c r="M243" s="49"/>
@@ -9355,7 +9464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
         <v>1</v>
       </c>
@@ -9384,7 +9493,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
         <v>2</v>
       </c>
@@ -9396,10 +9505,12 @@
       <c r="D245" s="20"/>
       <c r="E245" s="20"/>
       <c r="F245" s="20"/>
-      <c r="G245" s="20"/>
-      <c r="H245" s="20"/>
-      <c r="I245" s="20"/>
-      <c r="J245" s="20"/>
+      <c r="G245" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="H245" s="148"/>
+      <c r="I245" s="148"/>
+      <c r="J245" s="149"/>
       <c r="K245" s="49"/>
       <c r="L245" s="49"/>
       <c r="M245" s="49"/>
@@ -9413,7 +9524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
         <v>3</v>
       </c>
@@ -9442,7 +9553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
         <v>4</v>
       </c>
@@ -9454,10 +9565,12 @@
       <c r="D247" s="20"/>
       <c r="E247" s="20"/>
       <c r="F247" s="20"/>
-      <c r="G247" s="20"/>
-      <c r="H247" s="20"/>
-      <c r="I247" s="49"/>
-      <c r="J247" s="49"/>
+      <c r="G247" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="H247" s="148"/>
+      <c r="I247" s="148"/>
+      <c r="J247" s="149"/>
       <c r="K247" s="49"/>
       <c r="L247" s="49"/>
       <c r="M247" s="20"/>
@@ -9469,7 +9582,7 @@
       <c r="S247" s="51"/>
       <c r="T247" s="51"/>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>5</v>
       </c>
@@ -9524,25 +9637,26 @@
       <c r="T249" s="51"/>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B250"/>
-      <c r="C250"/>
-      <c r="D250"/>
-      <c r="E250"/>
-      <c r="F250"/>
-      <c r="G250"/>
-      <c r="H250"/>
-      <c r="I250"/>
-      <c r="J250"/>
-      <c r="K250"/>
-      <c r="L250"/>
-      <c r="M250"/>
-      <c r="N250"/>
-      <c r="O250"/>
-      <c r="P250"/>
-      <c r="Q250"/>
-      <c r="R250"/>
-      <c r="S250"/>
-      <c r="T250"/>
+      <c r="A250" s="54"/>
+      <c r="B250" s="54"/>
+      <c r="C250" s="54"/>
+      <c r="D250" s="54"/>
+      <c r="E250" s="54"/>
+      <c r="F250" s="54"/>
+      <c r="G250" s="54"/>
+      <c r="H250" s="54"/>
+      <c r="I250" s="54"/>
+      <c r="J250" s="54"/>
+      <c r="K250" s="54"/>
+      <c r="L250" s="54"/>
+      <c r="M250" s="54"/>
+      <c r="N250" s="54"/>
+      <c r="O250" s="54"/>
+      <c r="P250" s="54"/>
+      <c r="Q250" s="54"/>
+      <c r="R250" s="54"/>
+      <c r="S250" s="54"/>
+      <c r="T250" s="54"/>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
@@ -9600,7 +9714,7 @@
       <c r="S251" s="51"/>
       <c r="T251" s="51"/>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="57">
         <f>A242+7</f>
         <v>43892</v>
@@ -9612,7 +9726,10 @@
         <f>C242+1</f>
         <v>25</v>
       </c>
-      <c r="D252" s="15"/>
+      <c r="D252" s="145">
+        <f>D242+1</f>
+        <v>7</v>
+      </c>
       <c r="E252" s="15"/>
       <c r="F252" s="15"/>
       <c r="G252" s="15"/>
@@ -9630,7 +9747,7 @@
       <c r="S252" s="51"/>
       <c r="T252" s="51"/>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
         <v>0</v>
       </c>
@@ -9638,14 +9755,18 @@
         <f>B243+7</f>
         <v>43892</v>
       </c>
-      <c r="C253" s="32"/>
-      <c r="D253" s="20"/>
-      <c r="E253" s="20"/>
-      <c r="F253" s="20"/>
-      <c r="G253" s="20"/>
-      <c r="H253" s="20"/>
-      <c r="I253" s="49"/>
-      <c r="J253" s="49"/>
+      <c r="C253" s="147" t="s">
+        <v>7</v>
+      </c>
+      <c r="D253" s="149"/>
+      <c r="E253" s="147" t="s">
+        <v>95</v>
+      </c>
+      <c r="F253" s="148"/>
+      <c r="G253" s="148"/>
+      <c r="H253" s="148"/>
+      <c r="I253" s="148"/>
+      <c r="J253" s="149"/>
       <c r="K253" s="49"/>
       <c r="L253" s="49"/>
       <c r="M253" s="49"/>
@@ -9659,7 +9780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
         <v>1</v>
       </c>
@@ -9688,7 +9809,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
         <v>2</v>
       </c>
@@ -9700,10 +9821,12 @@
       <c r="D255" s="20"/>
       <c r="E255" s="20"/>
       <c r="F255" s="20"/>
-      <c r="G255" s="20"/>
-      <c r="H255" s="20"/>
-      <c r="I255" s="20"/>
-      <c r="J255" s="20"/>
+      <c r="G255" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="H255" s="148"/>
+      <c r="I255" s="148"/>
+      <c r="J255" s="149"/>
       <c r="K255" s="49"/>
       <c r="L255" s="49"/>
       <c r="M255" s="49"/>
@@ -9717,7 +9840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
         <v>3</v>
       </c>
@@ -9746,7 +9869,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
         <v>4</v>
       </c>
@@ -9758,10 +9881,12 @@
       <c r="D257" s="20"/>
       <c r="E257" s="20"/>
       <c r="F257" s="20"/>
-      <c r="G257" s="20"/>
-      <c r="H257" s="20"/>
-      <c r="I257" s="49"/>
-      <c r="J257" s="49"/>
+      <c r="G257" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="H257" s="148"/>
+      <c r="I257" s="148"/>
+      <c r="J257" s="149"/>
       <c r="K257" s="49"/>
       <c r="L257" s="49"/>
       <c r="M257" s="20"/>
@@ -9773,7 +9898,7 @@
       <c r="S257" s="51"/>
       <c r="T257" s="51"/>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>5</v>
       </c>
@@ -9828,25 +9953,26 @@
       <c r="T259" s="51"/>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B260"/>
-      <c r="C260"/>
-      <c r="D260"/>
-      <c r="E260"/>
-      <c r="F260"/>
-      <c r="G260"/>
-      <c r="H260"/>
-      <c r="I260"/>
-      <c r="J260"/>
-      <c r="K260"/>
-      <c r="L260"/>
-      <c r="M260"/>
-      <c r="N260"/>
-      <c r="O260"/>
-      <c r="P260"/>
-      <c r="Q260"/>
-      <c r="R260"/>
-      <c r="S260"/>
-      <c r="T260"/>
+      <c r="A260" s="54"/>
+      <c r="B260" s="54"/>
+      <c r="C260" s="54"/>
+      <c r="D260" s="54"/>
+      <c r="E260" s="54"/>
+      <c r="F260" s="54"/>
+      <c r="G260" s="54"/>
+      <c r="H260" s="54"/>
+      <c r="I260" s="54"/>
+      <c r="J260" s="54"/>
+      <c r="K260" s="54"/>
+      <c r="L260" s="54"/>
+      <c r="M260" s="54"/>
+      <c r="N260" s="54"/>
+      <c r="O260" s="54"/>
+      <c r="P260" s="54"/>
+      <c r="Q260" s="54"/>
+      <c r="R260" s="54"/>
+      <c r="S260" s="54"/>
+      <c r="T260" s="54"/>
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
@@ -9904,7 +10030,7 @@
       <c r="S261" s="51"/>
       <c r="T261" s="51"/>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="57">
         <f>A252+7</f>
         <v>43899</v>
@@ -9916,7 +10042,10 @@
         <f>C252+1</f>
         <v>26</v>
       </c>
-      <c r="D262" s="15"/>
+      <c r="D262" s="145">
+        <f>D252+1</f>
+        <v>8</v>
+      </c>
       <c r="E262" s="15"/>
       <c r="F262" s="15"/>
       <c r="G262" s="15"/>
@@ -9934,7 +10063,7 @@
       <c r="S262" s="51"/>
       <c r="T262" s="51"/>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
         <v>0</v>
       </c>
@@ -9942,14 +10071,18 @@
         <f>B253+7</f>
         <v>43899</v>
       </c>
-      <c r="C263" s="32"/>
-      <c r="D263" s="20"/>
-      <c r="E263" s="20"/>
-      <c r="F263" s="20"/>
-      <c r="G263" s="20"/>
-      <c r="H263" s="20"/>
-      <c r="I263" s="49"/>
-      <c r="J263" s="49"/>
+      <c r="C263" s="147" t="s">
+        <v>7</v>
+      </c>
+      <c r="D263" s="149"/>
+      <c r="E263" s="147" t="s">
+        <v>95</v>
+      </c>
+      <c r="F263" s="148"/>
+      <c r="G263" s="148"/>
+      <c r="H263" s="148"/>
+      <c r="I263" s="148"/>
+      <c r="J263" s="149"/>
       <c r="K263" s="49"/>
       <c r="L263" s="49"/>
       <c r="M263" s="49"/>
@@ -9963,7 +10096,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
         <v>1</v>
       </c>
@@ -9992,7 +10125,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
         <v>2</v>
       </c>
@@ -10004,10 +10137,12 @@
       <c r="D265" s="20"/>
       <c r="E265" s="20"/>
       <c r="F265" s="20"/>
-      <c r="G265" s="20"/>
-      <c r="H265" s="20"/>
-      <c r="I265" s="20"/>
-      <c r="J265" s="20"/>
+      <c r="G265" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="H265" s="148"/>
+      <c r="I265" s="148"/>
+      <c r="J265" s="149"/>
       <c r="K265" s="49"/>
       <c r="L265" s="49"/>
       <c r="M265" s="49"/>
@@ -10021,7 +10156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
         <v>3</v>
       </c>
@@ -10050,7 +10185,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
         <v>4</v>
       </c>
@@ -10062,10 +10197,12 @@
       <c r="D267" s="20"/>
       <c r="E267" s="20"/>
       <c r="F267" s="20"/>
-      <c r="G267" s="20"/>
-      <c r="H267" s="20"/>
-      <c r="I267" s="49"/>
-      <c r="J267" s="49"/>
+      <c r="G267" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="H267" s="148"/>
+      <c r="I267" s="148"/>
+      <c r="J267" s="149"/>
       <c r="K267" s="49"/>
       <c r="L267" s="49"/>
       <c r="M267" s="20"/>
@@ -10077,7 +10214,7 @@
       <c r="S267" s="51"/>
       <c r="T267" s="51"/>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>5</v>
       </c>
@@ -10132,25 +10269,26 @@
       <c r="T269" s="51"/>
     </row>
     <row r="270" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B270"/>
-      <c r="C270"/>
-      <c r="D270"/>
-      <c r="E270"/>
-      <c r="F270"/>
-      <c r="G270"/>
-      <c r="H270"/>
-      <c r="I270"/>
-      <c r="J270"/>
-      <c r="K270"/>
-      <c r="L270"/>
-      <c r="M270"/>
-      <c r="N270"/>
-      <c r="O270"/>
-      <c r="P270"/>
-      <c r="Q270"/>
-      <c r="R270"/>
-      <c r="S270"/>
-      <c r="T270"/>
+      <c r="A270" s="54"/>
+      <c r="B270" s="54"/>
+      <c r="C270" s="54"/>
+      <c r="D270" s="54"/>
+      <c r="E270" s="54"/>
+      <c r="F270" s="54"/>
+      <c r="G270" s="54"/>
+      <c r="H270" s="54"/>
+      <c r="I270" s="54"/>
+      <c r="J270" s="54"/>
+      <c r="K270" s="54"/>
+      <c r="L270" s="54"/>
+      <c r="M270" s="54"/>
+      <c r="N270" s="54"/>
+      <c r="O270" s="54"/>
+      <c r="P270" s="54"/>
+      <c r="Q270" s="54"/>
+      <c r="R270" s="54"/>
+      <c r="S270" s="54"/>
+      <c r="T270" s="54"/>
     </row>
     <row r="271" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
@@ -10220,7 +10358,10 @@
         <f>C262+1</f>
         <v>27</v>
       </c>
-      <c r="D272" s="15"/>
+      <c r="D272" s="145">
+        <f>D262+1</f>
+        <v>9</v>
+      </c>
       <c r="E272" s="15"/>
       <c r="F272" s="15"/>
       <c r="G272" s="15"/>
@@ -10231,10 +10372,12 @@
       <c r="L272" s="19"/>
       <c r="M272" s="19"/>
       <c r="N272" s="19"/>
-      <c r="O272" s="19"/>
-      <c r="P272" s="19"/>
-      <c r="Q272" s="19"/>
-      <c r="R272" s="19"/>
+      <c r="O272" s="150" t="s">
+        <v>96</v>
+      </c>
+      <c r="P272" s="150"/>
+      <c r="Q272" s="150"/>
+      <c r="R272" s="150"/>
       <c r="S272" s="51"/>
       <c r="T272" s="51"/>
     </row>
@@ -10246,12 +10389,12 @@
         <f>B263+7</f>
         <v>43906</v>
       </c>
-      <c r="C273" s="32"/>
-      <c r="D273" s="20"/>
-      <c r="E273" s="20"/>
-      <c r="F273" s="20"/>
-      <c r="G273" s="20"/>
-      <c r="H273" s="20"/>
+      <c r="C273" s="50"/>
+      <c r="D273" s="49"/>
+      <c r="E273" s="49"/>
+      <c r="F273" s="49"/>
+      <c r="G273" s="49"/>
+      <c r="H273" s="49"/>
       <c r="I273" s="49"/>
       <c r="J273" s="49"/>
       <c r="K273" s="49"/>
@@ -10275,14 +10418,14 @@
         <f t="shared" ref="B274:B279" si="25">B264+7</f>
         <v>43907</v>
       </c>
-      <c r="C274" s="32"/>
-      <c r="D274" s="20"/>
-      <c r="E274" s="20"/>
-      <c r="F274" s="20"/>
-      <c r="G274" s="20"/>
-      <c r="H274" s="20"/>
-      <c r="I274" s="20"/>
-      <c r="J274" s="20"/>
+      <c r="C274" s="50"/>
+      <c r="D274" s="49"/>
+      <c r="E274" s="49"/>
+      <c r="F274" s="49"/>
+      <c r="G274" s="49"/>
+      <c r="H274" s="49"/>
+      <c r="I274" s="49"/>
+      <c r="J274" s="49"/>
       <c r="K274" s="49"/>
       <c r="L274" s="49"/>
       <c r="M274" s="20"/>
@@ -10304,14 +10447,14 @@
         <f t="shared" si="25"/>
         <v>43908</v>
       </c>
-      <c r="C275" s="32"/>
-      <c r="D275" s="20"/>
-      <c r="E275" s="20"/>
-      <c r="F275" s="20"/>
-      <c r="G275" s="20"/>
-      <c r="H275" s="20"/>
-      <c r="I275" s="20"/>
-      <c r="J275" s="20"/>
+      <c r="C275" s="50"/>
+      <c r="D275" s="49"/>
+      <c r="E275" s="49"/>
+      <c r="F275" s="49"/>
+      <c r="G275" s="49"/>
+      <c r="H275" s="49"/>
+      <c r="I275" s="49"/>
+      <c r="J275" s="49"/>
       <c r="K275" s="49"/>
       <c r="L275" s="49"/>
       <c r="M275" s="49"/>
@@ -10333,7 +10476,7 @@
         <f t="shared" si="25"/>
         <v>43909</v>
       </c>
-      <c r="C276" s="49"/>
+      <c r="C276" s="50"/>
       <c r="D276" s="49"/>
       <c r="E276" s="49"/>
       <c r="F276" s="49"/>
@@ -10362,12 +10505,12 @@
         <f t="shared" si="25"/>
         <v>43910</v>
       </c>
-      <c r="C277" s="32"/>
-      <c r="D277" s="20"/>
-      <c r="E277" s="20"/>
-      <c r="F277" s="20"/>
-      <c r="G277" s="20"/>
-      <c r="H277" s="20"/>
+      <c r="C277" s="50"/>
+      <c r="D277" s="49"/>
+      <c r="E277" s="49"/>
+      <c r="F277" s="49"/>
+      <c r="G277" s="49"/>
+      <c r="H277" s="49"/>
       <c r="I277" s="49"/>
       <c r="J277" s="49"/>
       <c r="K277" s="49"/>
@@ -10436,25 +10579,26 @@
       <c r="T279" s="51"/>
     </row>
     <row r="280" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B280"/>
-      <c r="C280"/>
-      <c r="D280"/>
-      <c r="E280"/>
-      <c r="F280"/>
-      <c r="G280"/>
-      <c r="H280"/>
-      <c r="I280"/>
-      <c r="J280"/>
-      <c r="K280"/>
-      <c r="L280"/>
-      <c r="M280"/>
-      <c r="N280"/>
-      <c r="O280"/>
-      <c r="P280"/>
-      <c r="Q280"/>
-      <c r="R280"/>
-      <c r="S280"/>
-      <c r="T280"/>
+      <c r="A280" s="54"/>
+      <c r="B280" s="54"/>
+      <c r="C280" s="54"/>
+      <c r="D280" s="54"/>
+      <c r="E280" s="54"/>
+      <c r="F280" s="54"/>
+      <c r="G280" s="54"/>
+      <c r="H280" s="54"/>
+      <c r="I280" s="54"/>
+      <c r="J280" s="54"/>
+      <c r="K280" s="54"/>
+      <c r="L280" s="54"/>
+      <c r="M280" s="54"/>
+      <c r="N280" s="54"/>
+      <c r="O280" s="54"/>
+      <c r="P280" s="54"/>
+      <c r="Q280" s="54"/>
+      <c r="R280" s="54"/>
+      <c r="S280" s="54"/>
+      <c r="T280" s="54"/>
     </row>
     <row r="281" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
@@ -10512,7 +10656,7 @@
       <c r="S281" s="51"/>
       <c r="T281" s="51"/>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="57">
         <f>A272+7</f>
         <v>43913</v>
@@ -10524,7 +10668,10 @@
         <f>C272+1</f>
         <v>28</v>
       </c>
-      <c r="D282" s="15"/>
+      <c r="D282" s="145">
+        <f>D272+1</f>
+        <v>10</v>
+      </c>
       <c r="E282" s="15"/>
       <c r="F282" s="15"/>
       <c r="G282" s="15"/>
@@ -10542,7 +10689,7 @@
       <c r="S282" s="51"/>
       <c r="T282" s="51"/>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
         <v>0</v>
       </c>
@@ -10550,14 +10697,18 @@
         <f>B273+7</f>
         <v>43913</v>
       </c>
-      <c r="C283" s="32"/>
-      <c r="D283" s="20"/>
-      <c r="E283" s="20"/>
-      <c r="F283" s="20"/>
-      <c r="G283" s="20"/>
-      <c r="H283" s="20"/>
-      <c r="I283" s="49"/>
-      <c r="J283" s="49"/>
+      <c r="C283" s="147" t="s">
+        <v>7</v>
+      </c>
+      <c r="D283" s="149"/>
+      <c r="E283" s="147" t="s">
+        <v>95</v>
+      </c>
+      <c r="F283" s="148"/>
+      <c r="G283" s="148"/>
+      <c r="H283" s="148"/>
+      <c r="I283" s="148"/>
+      <c r="J283" s="149"/>
       <c r="K283" s="49"/>
       <c r="L283" s="49"/>
       <c r="M283" s="49"/>
@@ -10571,7 +10722,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
         <v>1</v>
       </c>
@@ -10600,7 +10751,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
         <v>2</v>
       </c>
@@ -10612,10 +10763,12 @@
       <c r="D285" s="20"/>
       <c r="E285" s="20"/>
       <c r="F285" s="20"/>
-      <c r="G285" s="20"/>
-      <c r="H285" s="20"/>
-      <c r="I285" s="20"/>
-      <c r="J285" s="20"/>
+      <c r="G285" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="H285" s="148"/>
+      <c r="I285" s="148"/>
+      <c r="J285" s="149"/>
       <c r="K285" s="49"/>
       <c r="L285" s="49"/>
       <c r="M285" s="49"/>
@@ -10629,7 +10782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
         <v>3</v>
       </c>
@@ -10658,7 +10811,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
         <v>4</v>
       </c>
@@ -10670,10 +10823,12 @@
       <c r="D287" s="20"/>
       <c r="E287" s="20"/>
       <c r="F287" s="20"/>
-      <c r="G287" s="20"/>
-      <c r="H287" s="20"/>
-      <c r="I287" s="49"/>
-      <c r="J287" s="49"/>
+      <c r="G287" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="H287" s="148"/>
+      <c r="I287" s="148"/>
+      <c r="J287" s="149"/>
       <c r="K287" s="49"/>
       <c r="L287" s="49"/>
       <c r="M287" s="20"/>
@@ -10685,7 +10840,7 @@
       <c r="S287" s="51"/>
       <c r="T287" s="51"/>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>5</v>
       </c>
@@ -10740,25 +10895,26 @@
       <c r="T289" s="51"/>
     </row>
     <row r="290" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B290"/>
-      <c r="C290"/>
-      <c r="D290"/>
-      <c r="E290"/>
-      <c r="F290"/>
-      <c r="G290"/>
-      <c r="H290"/>
-      <c r="I290"/>
-      <c r="J290"/>
-      <c r="K290"/>
-      <c r="L290"/>
-      <c r="M290"/>
-      <c r="N290"/>
-      <c r="O290"/>
-      <c r="P290"/>
-      <c r="Q290"/>
-      <c r="R290"/>
-      <c r="S290"/>
-      <c r="T290"/>
+      <c r="A290" s="54"/>
+      <c r="B290" s="54"/>
+      <c r="C290" s="54"/>
+      <c r="D290" s="54"/>
+      <c r="E290" s="54"/>
+      <c r="F290" s="54"/>
+      <c r="G290" s="54"/>
+      <c r="H290" s="54"/>
+      <c r="I290" s="54"/>
+      <c r="J290" s="54"/>
+      <c r="K290" s="54"/>
+      <c r="L290" s="54"/>
+      <c r="M290" s="54"/>
+      <c r="N290" s="54"/>
+      <c r="O290" s="54"/>
+      <c r="P290" s="54"/>
+      <c r="Q290" s="54"/>
+      <c r="R290" s="54"/>
+      <c r="S290" s="54"/>
+      <c r="T290" s="54"/>
     </row>
     <row r="291" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
@@ -10816,7 +10972,7 @@
       <c r="S291" s="51"/>
       <c r="T291" s="51"/>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="57">
         <f>A282+7</f>
         <v>43920</v>
@@ -10828,7 +10984,10 @@
         <f>C282+1</f>
         <v>29</v>
       </c>
-      <c r="D292" s="15"/>
+      <c r="D292" s="145">
+        <f>D282+1</f>
+        <v>11</v>
+      </c>
       <c r="E292" s="15"/>
       <c r="F292" s="15"/>
       <c r="G292" s="15"/>
@@ -10846,7 +11005,7 @@
       <c r="S292" s="51"/>
       <c r="T292" s="51"/>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
         <v>0</v>
       </c>
@@ -10854,14 +11013,18 @@
         <f>B283+7</f>
         <v>43920</v>
       </c>
-      <c r="C293" s="32"/>
-      <c r="D293" s="20"/>
-      <c r="E293" s="20"/>
-      <c r="F293" s="20"/>
-      <c r="G293" s="20"/>
-      <c r="H293" s="20"/>
-      <c r="I293" s="49"/>
-      <c r="J293" s="49"/>
+      <c r="C293" s="147" t="s">
+        <v>7</v>
+      </c>
+      <c r="D293" s="149"/>
+      <c r="E293" s="147" t="s">
+        <v>95</v>
+      </c>
+      <c r="F293" s="148"/>
+      <c r="G293" s="148"/>
+      <c r="H293" s="148"/>
+      <c r="I293" s="148"/>
+      <c r="J293" s="149"/>
       <c r="K293" s="49"/>
       <c r="L293" s="49"/>
       <c r="M293" s="49"/>
@@ -10875,7 +11038,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
         <v>1</v>
       </c>
@@ -10904,7 +11067,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
         <v>2</v>
       </c>
@@ -10916,10 +11079,12 @@
       <c r="D295" s="20"/>
       <c r="E295" s="20"/>
       <c r="F295" s="20"/>
-      <c r="G295" s="20"/>
-      <c r="H295" s="20"/>
-      <c r="I295" s="20"/>
-      <c r="J295" s="20"/>
+      <c r="G295" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="H295" s="148"/>
+      <c r="I295" s="148"/>
+      <c r="J295" s="149"/>
       <c r="K295" s="49"/>
       <c r="L295" s="49"/>
       <c r="M295" s="49"/>
@@ -10933,7 +11098,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
         <v>3</v>
       </c>
@@ -10962,7 +11127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
         <v>4</v>
       </c>
@@ -10974,10 +11139,12 @@
       <c r="D297" s="20"/>
       <c r="E297" s="20"/>
       <c r="F297" s="20"/>
-      <c r="G297" s="20"/>
-      <c r="H297" s="20"/>
-      <c r="I297" s="49"/>
-      <c r="J297" s="49"/>
+      <c r="G297" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="H297" s="148"/>
+      <c r="I297" s="148"/>
+      <c r="J297" s="149"/>
       <c r="K297" s="49"/>
       <c r="L297" s="49"/>
       <c r="M297" s="20"/>
@@ -10989,7 +11156,7 @@
       <c r="S297" s="51"/>
       <c r="T297" s="51"/>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>5</v>
       </c>
@@ -11044,25 +11211,26 @@
       <c r="T299" s="51"/>
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B300"/>
-      <c r="C300"/>
-      <c r="D300"/>
-      <c r="E300"/>
-      <c r="F300"/>
-      <c r="G300"/>
-      <c r="H300"/>
-      <c r="I300"/>
-      <c r="J300"/>
-      <c r="K300"/>
-      <c r="L300"/>
-      <c r="M300"/>
-      <c r="N300"/>
-      <c r="O300"/>
-      <c r="P300"/>
-      <c r="Q300"/>
-      <c r="R300"/>
-      <c r="S300"/>
-      <c r="T300"/>
+      <c r="A300" s="54"/>
+      <c r="B300" s="54"/>
+      <c r="C300" s="54"/>
+      <c r="D300" s="54"/>
+      <c r="E300" s="54"/>
+      <c r="F300" s="54"/>
+      <c r="G300" s="54"/>
+      <c r="H300" s="54"/>
+      <c r="I300" s="54"/>
+      <c r="J300" s="54"/>
+      <c r="K300" s="54"/>
+      <c r="L300" s="54"/>
+      <c r="M300" s="54"/>
+      <c r="N300" s="54"/>
+      <c r="O300" s="54"/>
+      <c r="P300" s="54"/>
+      <c r="Q300" s="54"/>
+      <c r="R300" s="54"/>
+      <c r="S300" s="54"/>
+      <c r="T300" s="54"/>
     </row>
     <row r="301" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
@@ -11132,7 +11300,10 @@
         <f>C292+1</f>
         <v>30</v>
       </c>
-      <c r="D302" s="15"/>
+      <c r="D302" s="145">
+        <f>D292+1</f>
+        <v>12</v>
+      </c>
       <c r="E302" s="15"/>
       <c r="F302" s="15"/>
       <c r="G302" s="15"/>
@@ -11158,12 +11329,12 @@
         <f>B293+7</f>
         <v>43927</v>
       </c>
-      <c r="C303" s="32"/>
-      <c r="D303" s="20"/>
-      <c r="E303" s="20"/>
-      <c r="F303" s="20"/>
-      <c r="G303" s="20"/>
-      <c r="H303" s="20"/>
+      <c r="C303" s="50"/>
+      <c r="D303" s="49"/>
+      <c r="E303" s="49"/>
+      <c r="F303" s="49"/>
+      <c r="G303" s="49"/>
+      <c r="H303" s="49"/>
       <c r="I303" s="49"/>
       <c r="J303" s="49"/>
       <c r="K303" s="49"/>
@@ -11187,16 +11358,16 @@
         <f t="shared" ref="B304:B309" si="28">B294+7</f>
         <v>43928</v>
       </c>
-      <c r="C304" s="32"/>
-      <c r="D304" s="20"/>
-      <c r="E304" s="20"/>
-      <c r="F304" s="20"/>
-      <c r="G304" s="20"/>
-      <c r="H304" s="20"/>
-      <c r="I304" s="20"/>
-      <c r="J304" s="20"/>
-      <c r="K304" s="49"/>
-      <c r="L304" s="49"/>
+      <c r="C304" s="50"/>
+      <c r="D304" s="49"/>
+      <c r="E304" s="49"/>
+      <c r="F304" s="49"/>
+      <c r="G304" s="49"/>
+      <c r="H304" s="49"/>
+      <c r="I304" s="49"/>
+      <c r="J304" s="49"/>
+      <c r="K304" s="20"/>
+      <c r="L304" s="20"/>
       <c r="M304" s="20"/>
       <c r="N304" s="20"/>
       <c r="O304" s="20"/>
@@ -11216,22 +11387,22 @@
         <f t="shared" si="28"/>
         <v>43929</v>
       </c>
-      <c r="C305" s="32"/>
-      <c r="D305" s="20"/>
-      <c r="E305" s="20"/>
-      <c r="F305" s="20"/>
-      <c r="G305" s="20"/>
-      <c r="H305" s="20"/>
-      <c r="I305" s="20"/>
-      <c r="J305" s="20"/>
-      <c r="K305" s="49"/>
-      <c r="L305" s="49"/>
-      <c r="M305" s="49"/>
-      <c r="N305" s="49"/>
-      <c r="O305" s="49"/>
-      <c r="P305" s="49"/>
-      <c r="Q305" s="49"/>
-      <c r="R305" s="49"/>
+      <c r="C305" s="50"/>
+      <c r="D305" s="49"/>
+      <c r="E305" s="49"/>
+      <c r="F305" s="49"/>
+      <c r="G305" s="49"/>
+      <c r="H305" s="49"/>
+      <c r="I305" s="49"/>
+      <c r="J305" s="49"/>
+      <c r="K305" s="20"/>
+      <c r="L305" s="20"/>
+      <c r="M305" s="20"/>
+      <c r="N305" s="20"/>
+      <c r="O305" s="20"/>
+      <c r="P305" s="20"/>
+      <c r="Q305" s="20"/>
+      <c r="R305" s="20"/>
       <c r="S305" s="51"/>
       <c r="T305" s="52" t="s">
         <v>20</v>
@@ -11245,7 +11416,7 @@
         <f t="shared" si="28"/>
         <v>43930</v>
       </c>
-      <c r="C306" s="49"/>
+      <c r="C306" s="50"/>
       <c r="D306" s="49"/>
       <c r="E306" s="49"/>
       <c r="F306" s="49"/>
@@ -11255,12 +11426,12 @@
       <c r="J306" s="49"/>
       <c r="K306" s="49"/>
       <c r="L306" s="49"/>
-      <c r="M306" s="20"/>
-      <c r="N306" s="20"/>
-      <c r="O306" s="20"/>
-      <c r="P306" s="20"/>
-      <c r="Q306" s="20"/>
-      <c r="R306" s="20"/>
+      <c r="M306" s="49"/>
+      <c r="N306" s="49"/>
+      <c r="O306" s="49"/>
+      <c r="P306" s="49"/>
+      <c r="Q306" s="49"/>
+      <c r="R306" s="49"/>
       <c r="S306" s="51"/>
       <c r="T306" s="18" t="s">
         <v>21</v>
@@ -11274,16 +11445,16 @@
         <f t="shared" si="28"/>
         <v>43931</v>
       </c>
-      <c r="C307" s="32"/>
-      <c r="D307" s="20"/>
-      <c r="E307" s="20"/>
-      <c r="F307" s="20"/>
-      <c r="G307" s="20"/>
-      <c r="H307" s="20"/>
+      <c r="C307" s="50"/>
+      <c r="D307" s="49"/>
+      <c r="E307" s="49"/>
+      <c r="F307" s="49"/>
+      <c r="G307" s="49"/>
+      <c r="H307" s="49"/>
       <c r="I307" s="49"/>
       <c r="J307" s="49"/>
-      <c r="K307" s="49"/>
-      <c r="L307" s="49"/>
+      <c r="K307" s="20"/>
+      <c r="L307" s="20"/>
       <c r="M307" s="20"/>
       <c r="N307" s="20"/>
       <c r="O307" s="20"/>
@@ -11348,25 +11519,26 @@
       <c r="T309" s="51"/>
     </row>
     <row r="310" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B310"/>
-      <c r="C310"/>
-      <c r="D310"/>
-      <c r="E310"/>
-      <c r="F310"/>
-      <c r="G310"/>
-      <c r="H310"/>
-      <c r="I310"/>
-      <c r="J310"/>
-      <c r="K310"/>
-      <c r="L310"/>
-      <c r="M310"/>
-      <c r="N310"/>
-      <c r="O310"/>
-      <c r="P310"/>
-      <c r="Q310"/>
-      <c r="R310"/>
-      <c r="S310"/>
-      <c r="T310"/>
+      <c r="A310" s="54"/>
+      <c r="B310" s="54"/>
+      <c r="C310" s="54"/>
+      <c r="D310" s="54"/>
+      <c r="E310" s="54"/>
+      <c r="F310" s="54"/>
+      <c r="G310" s="54"/>
+      <c r="H310" s="54"/>
+      <c r="I310" s="54"/>
+      <c r="J310" s="54"/>
+      <c r="K310" s="54"/>
+      <c r="L310" s="54"/>
+      <c r="M310" s="54"/>
+      <c r="N310" s="54"/>
+      <c r="O310" s="54"/>
+      <c r="P310" s="54"/>
+      <c r="Q310" s="54"/>
+      <c r="R310" s="54"/>
+      <c r="S310" s="54"/>
+      <c r="T310" s="54"/>
     </row>
     <row r="311" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
@@ -11436,7 +11608,10 @@
         <f>C302+1</f>
         <v>31</v>
       </c>
-      <c r="D312" s="15"/>
+      <c r="D312" s="145">
+        <f>D302+1</f>
+        <v>13</v>
+      </c>
       <c r="E312" s="15"/>
       <c r="F312" s="15"/>
       <c r="G312" s="15"/>
@@ -11462,12 +11637,12 @@
         <f>B303+7</f>
         <v>43934</v>
       </c>
-      <c r="C313" s="32"/>
-      <c r="D313" s="20"/>
-      <c r="E313" s="20"/>
-      <c r="F313" s="20"/>
-      <c r="G313" s="20"/>
-      <c r="H313" s="20"/>
+      <c r="C313" s="50"/>
+      <c r="D313" s="49"/>
+      <c r="E313" s="49"/>
+      <c r="F313" s="49"/>
+      <c r="G313" s="49"/>
+      <c r="H313" s="49"/>
       <c r="I313" s="49"/>
       <c r="J313" s="49"/>
       <c r="K313" s="49"/>
@@ -11491,16 +11666,16 @@
         <f t="shared" ref="B314:B319" si="29">B304+7</f>
         <v>43935</v>
       </c>
-      <c r="C314" s="32"/>
-      <c r="D314" s="20"/>
-      <c r="E314" s="20"/>
-      <c r="F314" s="20"/>
-      <c r="G314" s="20"/>
-      <c r="H314" s="20"/>
-      <c r="I314" s="20"/>
-      <c r="J314" s="20"/>
-      <c r="K314" s="49"/>
-      <c r="L314" s="49"/>
+      <c r="C314" s="50"/>
+      <c r="D314" s="49"/>
+      <c r="E314" s="49"/>
+      <c r="F314" s="49"/>
+      <c r="G314" s="49"/>
+      <c r="H314" s="49"/>
+      <c r="I314" s="49"/>
+      <c r="J314" s="49"/>
+      <c r="K314" s="20"/>
+      <c r="L314" s="20"/>
       <c r="M314" s="20"/>
       <c r="N314" s="20"/>
       <c r="O314" s="20"/>
@@ -11520,22 +11695,22 @@
         <f t="shared" si="29"/>
         <v>43936</v>
       </c>
-      <c r="C315" s="32"/>
-      <c r="D315" s="20"/>
-      <c r="E315" s="20"/>
-      <c r="F315" s="20"/>
-      <c r="G315" s="20"/>
-      <c r="H315" s="20"/>
-      <c r="I315" s="20"/>
-      <c r="J315" s="20"/>
-      <c r="K315" s="49"/>
-      <c r="L315" s="49"/>
-      <c r="M315" s="49"/>
-      <c r="N315" s="49"/>
-      <c r="O315" s="49"/>
-      <c r="P315" s="49"/>
-      <c r="Q315" s="49"/>
-      <c r="R315" s="49"/>
+      <c r="C315" s="50"/>
+      <c r="D315" s="49"/>
+      <c r="E315" s="49"/>
+      <c r="F315" s="49"/>
+      <c r="G315" s="49"/>
+      <c r="H315" s="49"/>
+      <c r="I315" s="49"/>
+      <c r="J315" s="49"/>
+      <c r="K315" s="20"/>
+      <c r="L315" s="20"/>
+      <c r="M315" s="20"/>
+      <c r="N315" s="20"/>
+      <c r="O315" s="20"/>
+      <c r="P315" s="20"/>
+      <c r="Q315" s="20"/>
+      <c r="R315" s="20"/>
       <c r="S315" s="51"/>
       <c r="T315" s="52" t="s">
         <v>20</v>
@@ -11549,7 +11724,7 @@
         <f t="shared" si="29"/>
         <v>43937</v>
       </c>
-      <c r="C316" s="49"/>
+      <c r="C316" s="50"/>
       <c r="D316" s="49"/>
       <c r="E316" s="49"/>
       <c r="F316" s="49"/>
@@ -11559,12 +11734,12 @@
       <c r="J316" s="49"/>
       <c r="K316" s="49"/>
       <c r="L316" s="49"/>
-      <c r="M316" s="20"/>
-      <c r="N316" s="20"/>
-      <c r="O316" s="20"/>
-      <c r="P316" s="20"/>
-      <c r="Q316" s="20"/>
-      <c r="R316" s="20"/>
+      <c r="M316" s="49"/>
+      <c r="N316" s="49"/>
+      <c r="O316" s="49"/>
+      <c r="P316" s="49"/>
+      <c r="Q316" s="49"/>
+      <c r="R316" s="49"/>
       <c r="S316" s="51"/>
       <c r="T316" s="18" t="s">
         <v>21</v>
@@ -11578,16 +11753,16 @@
         <f t="shared" si="29"/>
         <v>43938</v>
       </c>
-      <c r="C317" s="32"/>
-      <c r="D317" s="20"/>
-      <c r="E317" s="20"/>
-      <c r="F317" s="20"/>
-      <c r="G317" s="20"/>
-      <c r="H317" s="20"/>
+      <c r="C317" s="50"/>
+      <c r="D317" s="49"/>
+      <c r="E317" s="49"/>
+      <c r="F317" s="49"/>
+      <c r="G317" s="49"/>
+      <c r="H317" s="49"/>
       <c r="I317" s="49"/>
       <c r="J317" s="49"/>
-      <c r="K317" s="49"/>
-      <c r="L317" s="49"/>
+      <c r="K317" s="20"/>
+      <c r="L317" s="20"/>
       <c r="M317" s="20"/>
       <c r="N317" s="20"/>
       <c r="O317" s="20"/>
@@ -11652,25 +11827,26 @@
       <c r="T319" s="51"/>
     </row>
     <row r="320" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B320"/>
-      <c r="C320"/>
-      <c r="D320"/>
-      <c r="E320"/>
-      <c r="F320"/>
-      <c r="G320"/>
-      <c r="H320"/>
-      <c r="I320"/>
-      <c r="J320"/>
-      <c r="K320"/>
-      <c r="L320"/>
-      <c r="M320"/>
-      <c r="N320"/>
-      <c r="O320"/>
-      <c r="P320"/>
-      <c r="Q320"/>
-      <c r="R320"/>
-      <c r="S320"/>
-      <c r="T320"/>
+      <c r="A320" s="54"/>
+      <c r="B320" s="54"/>
+      <c r="C320" s="54"/>
+      <c r="D320" s="54"/>
+      <c r="E320" s="54"/>
+      <c r="F320" s="54"/>
+      <c r="G320" s="54"/>
+      <c r="H320" s="54"/>
+      <c r="I320" s="54"/>
+      <c r="J320" s="54"/>
+      <c r="K320" s="54"/>
+      <c r="L320" s="54"/>
+      <c r="M320" s="54"/>
+      <c r="N320" s="54"/>
+      <c r="O320" s="54"/>
+      <c r="P320" s="54"/>
+      <c r="Q320" s="54"/>
+      <c r="R320" s="54"/>
+      <c r="S320" s="54"/>
+      <c r="T320" s="54"/>
     </row>
     <row r="321" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
@@ -11740,7 +11916,10 @@
         <f>C312+1</f>
         <v>32</v>
       </c>
-      <c r="D322" s="15"/>
+      <c r="D322" s="145">
+        <f>D312+1</f>
+        <v>14</v>
+      </c>
       <c r="E322" s="15"/>
       <c r="F322" s="15"/>
       <c r="G322" s="15"/>
@@ -11766,12 +11945,12 @@
         <f>B313+7</f>
         <v>43941</v>
       </c>
-      <c r="C323" s="32"/>
-      <c r="D323" s="20"/>
-      <c r="E323" s="20"/>
-      <c r="F323" s="20"/>
-      <c r="G323" s="20"/>
-      <c r="H323" s="20"/>
+      <c r="C323" s="50"/>
+      <c r="D323" s="49"/>
+      <c r="E323" s="49"/>
+      <c r="F323" s="49"/>
+      <c r="G323" s="49"/>
+      <c r="H323" s="49"/>
       <c r="I323" s="49"/>
       <c r="J323" s="49"/>
       <c r="K323" s="49"/>
@@ -11795,16 +11974,16 @@
         <f t="shared" ref="B324:B329" si="30">B314+7</f>
         <v>43942</v>
       </c>
-      <c r="C324" s="32"/>
-      <c r="D324" s="20"/>
-      <c r="E324" s="20"/>
-      <c r="F324" s="20"/>
-      <c r="G324" s="20"/>
-      <c r="H324" s="20"/>
-      <c r="I324" s="20"/>
-      <c r="J324" s="20"/>
-      <c r="K324" s="49"/>
-      <c r="L324" s="49"/>
+      <c r="C324" s="50"/>
+      <c r="D324" s="49"/>
+      <c r="E324" s="49"/>
+      <c r="F324" s="49"/>
+      <c r="G324" s="49"/>
+      <c r="H324" s="49"/>
+      <c r="I324" s="49"/>
+      <c r="J324" s="49"/>
+      <c r="K324" s="20"/>
+      <c r="L324" s="20"/>
       <c r="M324" s="20"/>
       <c r="N324" s="20"/>
       <c r="O324" s="20"/>
@@ -11824,22 +12003,22 @@
         <f t="shared" si="30"/>
         <v>43943</v>
       </c>
-      <c r="C325" s="32"/>
-      <c r="D325" s="20"/>
-      <c r="E325" s="20"/>
-      <c r="F325" s="20"/>
-      <c r="G325" s="20"/>
-      <c r="H325" s="20"/>
-      <c r="I325" s="20"/>
-      <c r="J325" s="20"/>
-      <c r="K325" s="49"/>
-      <c r="L325" s="49"/>
-      <c r="M325" s="49"/>
-      <c r="N325" s="49"/>
-      <c r="O325" s="49"/>
-      <c r="P325" s="49"/>
-      <c r="Q325" s="49"/>
-      <c r="R325" s="49"/>
+      <c r="C325" s="50"/>
+      <c r="D325" s="49"/>
+      <c r="E325" s="49"/>
+      <c r="F325" s="49"/>
+      <c r="G325" s="49"/>
+      <c r="H325" s="49"/>
+      <c r="I325" s="49"/>
+      <c r="J325" s="49"/>
+      <c r="K325" s="20"/>
+      <c r="L325" s="20"/>
+      <c r="M325" s="20"/>
+      <c r="N325" s="20"/>
+      <c r="O325" s="20"/>
+      <c r="P325" s="20"/>
+      <c r="Q325" s="20"/>
+      <c r="R325" s="20"/>
       <c r="S325" s="51"/>
       <c r="T325" s="52" t="s">
         <v>20</v>
@@ -11853,7 +12032,7 @@
         <f t="shared" si="30"/>
         <v>43944</v>
       </c>
-      <c r="C326" s="49"/>
+      <c r="C326" s="50"/>
       <c r="D326" s="49"/>
       <c r="E326" s="49"/>
       <c r="F326" s="49"/>
@@ -11863,12 +12042,12 @@
       <c r="J326" s="49"/>
       <c r="K326" s="49"/>
       <c r="L326" s="49"/>
-      <c r="M326" s="20"/>
-      <c r="N326" s="20"/>
-      <c r="O326" s="20"/>
-      <c r="P326" s="20"/>
-      <c r="Q326" s="20"/>
-      <c r="R326" s="20"/>
+      <c r="M326" s="49"/>
+      <c r="N326" s="49"/>
+      <c r="O326" s="49"/>
+      <c r="P326" s="49"/>
+      <c r="Q326" s="49"/>
+      <c r="R326" s="49"/>
       <c r="S326" s="51"/>
       <c r="T326" s="18" t="s">
         <v>21</v>
@@ -11882,16 +12061,16 @@
         <f t="shared" si="30"/>
         <v>43945</v>
       </c>
-      <c r="C327" s="32"/>
-      <c r="D327" s="20"/>
-      <c r="E327" s="20"/>
-      <c r="F327" s="20"/>
-      <c r="G327" s="20"/>
-      <c r="H327" s="20"/>
+      <c r="C327" s="50"/>
+      <c r="D327" s="49"/>
+      <c r="E327" s="49"/>
+      <c r="F327" s="49"/>
+      <c r="G327" s="49"/>
+      <c r="H327" s="49"/>
       <c r="I327" s="49"/>
       <c r="J327" s="49"/>
-      <c r="K327" s="49"/>
-      <c r="L327" s="49"/>
+      <c r="K327" s="20"/>
+      <c r="L327" s="20"/>
       <c r="M327" s="20"/>
       <c r="N327" s="20"/>
       <c r="O327" s="20"/>
@@ -11956,25 +12135,26 @@
       <c r="T329" s="51"/>
     </row>
     <row r="330" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B330"/>
-      <c r="C330"/>
-      <c r="D330"/>
-      <c r="E330"/>
-      <c r="F330"/>
-      <c r="G330"/>
-      <c r="H330"/>
-      <c r="I330"/>
-      <c r="J330"/>
-      <c r="K330"/>
-      <c r="L330"/>
-      <c r="M330"/>
-      <c r="N330"/>
-      <c r="O330"/>
-      <c r="P330"/>
-      <c r="Q330"/>
-      <c r="R330"/>
-      <c r="S330"/>
-      <c r="T330"/>
+      <c r="A330" s="54"/>
+      <c r="B330" s="54"/>
+      <c r="C330" s="54"/>
+      <c r="D330" s="54"/>
+      <c r="E330" s="54"/>
+      <c r="F330" s="54"/>
+      <c r="G330" s="54"/>
+      <c r="H330" s="54"/>
+      <c r="I330" s="54"/>
+      <c r="J330" s="54"/>
+      <c r="K330" s="54"/>
+      <c r="L330" s="54"/>
+      <c r="M330" s="54"/>
+      <c r="N330" s="54"/>
+      <c r="O330" s="54"/>
+      <c r="P330" s="54"/>
+      <c r="Q330" s="54"/>
+      <c r="R330" s="54"/>
+      <c r="S330" s="54"/>
+      <c r="T330" s="54"/>
     </row>
     <row r="331" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
@@ -12044,7 +12224,10 @@
         <f>C322+1</f>
         <v>33</v>
       </c>
-      <c r="D332" s="15"/>
+      <c r="D332" s="145">
+        <f>D322+1</f>
+        <v>15</v>
+      </c>
       <c r="E332" s="15"/>
       <c r="F332" s="15"/>
       <c r="G332" s="15"/>
@@ -12070,12 +12253,12 @@
         <f>B323+7</f>
         <v>43948</v>
       </c>
-      <c r="C333" s="32"/>
-      <c r="D333" s="20"/>
-      <c r="E333" s="20"/>
-      <c r="F333" s="20"/>
-      <c r="G333" s="20"/>
-      <c r="H333" s="20"/>
+      <c r="C333" s="50"/>
+      <c r="D333" s="49"/>
+      <c r="E333" s="49"/>
+      <c r="F333" s="49"/>
+      <c r="G333" s="49"/>
+      <c r="H333" s="49"/>
       <c r="I333" s="49"/>
       <c r="J333" s="49"/>
       <c r="K333" s="49"/>
@@ -12099,16 +12282,16 @@
         <f t="shared" ref="B334:B339" si="31">B324+7</f>
         <v>43949</v>
       </c>
-      <c r="C334" s="32"/>
-      <c r="D334" s="20"/>
-      <c r="E334" s="20"/>
-      <c r="F334" s="20"/>
-      <c r="G334" s="20"/>
-      <c r="H334" s="20"/>
-      <c r="I334" s="20"/>
-      <c r="J334" s="20"/>
-      <c r="K334" s="49"/>
-      <c r="L334" s="49"/>
+      <c r="C334" s="50"/>
+      <c r="D334" s="49"/>
+      <c r="E334" s="49"/>
+      <c r="F334" s="49"/>
+      <c r="G334" s="49"/>
+      <c r="H334" s="49"/>
+      <c r="I334" s="49"/>
+      <c r="J334" s="49"/>
+      <c r="K334" s="20"/>
+      <c r="L334" s="20"/>
       <c r="M334" s="20"/>
       <c r="N334" s="20"/>
       <c r="O334" s="20"/>
@@ -12128,22 +12311,22 @@
         <f t="shared" si="31"/>
         <v>43950</v>
       </c>
-      <c r="C335" s="32"/>
-      <c r="D335" s="20"/>
-      <c r="E335" s="20"/>
-      <c r="F335" s="20"/>
-      <c r="G335" s="20"/>
-      <c r="H335" s="20"/>
-      <c r="I335" s="20"/>
-      <c r="J335" s="20"/>
-      <c r="K335" s="49"/>
-      <c r="L335" s="49"/>
-      <c r="M335" s="49"/>
-      <c r="N335" s="49"/>
-      <c r="O335" s="49"/>
-      <c r="P335" s="49"/>
-      <c r="Q335" s="49"/>
-      <c r="R335" s="49"/>
+      <c r="C335" s="50"/>
+      <c r="D335" s="49"/>
+      <c r="E335" s="49"/>
+      <c r="F335" s="49"/>
+      <c r="G335" s="49"/>
+      <c r="H335" s="49"/>
+      <c r="I335" s="49"/>
+      <c r="J335" s="49"/>
+      <c r="K335" s="20"/>
+      <c r="L335" s="20"/>
+      <c r="M335" s="20"/>
+      <c r="N335" s="20"/>
+      <c r="O335" s="20"/>
+      <c r="P335" s="20"/>
+      <c r="Q335" s="20"/>
+      <c r="R335" s="20"/>
       <c r="S335" s="51"/>
       <c r="T335" s="52" t="s">
         <v>20</v>
@@ -12157,7 +12340,7 @@
         <f t="shared" si="31"/>
         <v>43951</v>
       </c>
-      <c r="C336" s="49"/>
+      <c r="C336" s="50"/>
       <c r="D336" s="49"/>
       <c r="E336" s="49"/>
       <c r="F336" s="49"/>
@@ -12167,12 +12350,12 @@
       <c r="J336" s="49"/>
       <c r="K336" s="49"/>
       <c r="L336" s="49"/>
-      <c r="M336" s="20"/>
-      <c r="N336" s="20"/>
-      <c r="O336" s="20"/>
-      <c r="P336" s="20"/>
-      <c r="Q336" s="20"/>
-      <c r="R336" s="20"/>
+      <c r="M336" s="49"/>
+      <c r="N336" s="49"/>
+      <c r="O336" s="49"/>
+      <c r="P336" s="49"/>
+      <c r="Q336" s="49"/>
+      <c r="R336" s="49"/>
       <c r="S336" s="51"/>
       <c r="T336" s="18" t="s">
         <v>21</v>
@@ -12186,16 +12369,16 @@
         <f t="shared" si="31"/>
         <v>43952</v>
       </c>
-      <c r="C337" s="32"/>
-      <c r="D337" s="20"/>
-      <c r="E337" s="20"/>
-      <c r="F337" s="20"/>
-      <c r="G337" s="20"/>
-      <c r="H337" s="20"/>
+      <c r="C337" s="50"/>
+      <c r="D337" s="49"/>
+      <c r="E337" s="49"/>
+      <c r="F337" s="49"/>
+      <c r="G337" s="49"/>
+      <c r="H337" s="49"/>
       <c r="I337" s="49"/>
       <c r="J337" s="49"/>
-      <c r="K337" s="49"/>
-      <c r="L337" s="49"/>
+      <c r="K337" s="20"/>
+      <c r="L337" s="20"/>
       <c r="M337" s="20"/>
       <c r="N337" s="20"/>
       <c r="O337" s="20"/>
@@ -12260,25 +12443,26 @@
       <c r="T339" s="51"/>
     </row>
     <row r="340" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B340"/>
-      <c r="C340"/>
-      <c r="D340"/>
-      <c r="E340"/>
-      <c r="F340"/>
-      <c r="G340"/>
-      <c r="H340"/>
-      <c r="I340"/>
-      <c r="J340"/>
-      <c r="K340"/>
-      <c r="L340"/>
-      <c r="M340"/>
-      <c r="N340"/>
-      <c r="O340"/>
-      <c r="P340"/>
-      <c r="Q340"/>
-      <c r="R340"/>
-      <c r="S340"/>
-      <c r="T340"/>
+      <c r="A340" s="54"/>
+      <c r="B340" s="54"/>
+      <c r="C340" s="54"/>
+      <c r="D340" s="54"/>
+      <c r="E340" s="54"/>
+      <c r="F340" s="54"/>
+      <c r="G340" s="54"/>
+      <c r="H340" s="54"/>
+      <c r="I340" s="54"/>
+      <c r="J340" s="54"/>
+      <c r="K340" s="54"/>
+      <c r="L340" s="54"/>
+      <c r="M340" s="54"/>
+      <c r="N340" s="54"/>
+      <c r="O340" s="54"/>
+      <c r="P340" s="54"/>
+      <c r="Q340" s="54"/>
+      <c r="R340" s="54"/>
+      <c r="S340" s="54"/>
+      <c r="T340" s="54"/>
     </row>
     <row r="341" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
@@ -12348,7 +12532,10 @@
         <f>C332+1</f>
         <v>34</v>
       </c>
-      <c r="D342" s="15"/>
+      <c r="D342" s="145">
+        <f>D332+1</f>
+        <v>16</v>
+      </c>
       <c r="E342" s="15"/>
       <c r="F342" s="15"/>
       <c r="G342" s="15"/>
@@ -12374,12 +12561,12 @@
         <f>B333+7</f>
         <v>43955</v>
       </c>
-      <c r="C343" s="32"/>
-      <c r="D343" s="20"/>
-      <c r="E343" s="20"/>
-      <c r="F343" s="20"/>
-      <c r="G343" s="20"/>
-      <c r="H343" s="20"/>
+      <c r="C343" s="50"/>
+      <c r="D343" s="49"/>
+      <c r="E343" s="49"/>
+      <c r="F343" s="49"/>
+      <c r="G343" s="49"/>
+      <c r="H343" s="49"/>
       <c r="I343" s="49"/>
       <c r="J343" s="49"/>
       <c r="K343" s="49"/>
@@ -12403,16 +12590,16 @@
         <f t="shared" ref="B344:B349" si="32">B334+7</f>
         <v>43956</v>
       </c>
-      <c r="C344" s="32"/>
-      <c r="D344" s="20"/>
-      <c r="E344" s="20"/>
-      <c r="F344" s="20"/>
-      <c r="G344" s="20"/>
-      <c r="H344" s="20"/>
-      <c r="I344" s="20"/>
-      <c r="J344" s="20"/>
-      <c r="K344" s="49"/>
-      <c r="L344" s="49"/>
+      <c r="C344" s="50"/>
+      <c r="D344" s="49"/>
+      <c r="E344" s="49"/>
+      <c r="F344" s="49"/>
+      <c r="G344" s="49"/>
+      <c r="H344" s="49"/>
+      <c r="I344" s="49"/>
+      <c r="J344" s="49"/>
+      <c r="K344" s="20"/>
+      <c r="L344" s="20"/>
       <c r="M344" s="20"/>
       <c r="N344" s="20"/>
       <c r="O344" s="20"/>
@@ -12432,22 +12619,22 @@
         <f t="shared" si="32"/>
         <v>43957</v>
       </c>
-      <c r="C345" s="32"/>
-      <c r="D345" s="20"/>
-      <c r="E345" s="20"/>
-      <c r="F345" s="20"/>
-      <c r="G345" s="20"/>
-      <c r="H345" s="20"/>
-      <c r="I345" s="20"/>
-      <c r="J345" s="20"/>
-      <c r="K345" s="49"/>
-      <c r="L345" s="49"/>
-      <c r="M345" s="49"/>
-      <c r="N345" s="49"/>
-      <c r="O345" s="49"/>
-      <c r="P345" s="49"/>
-      <c r="Q345" s="49"/>
-      <c r="R345" s="49"/>
+      <c r="C345" s="50"/>
+      <c r="D345" s="49"/>
+      <c r="E345" s="49"/>
+      <c r="F345" s="49"/>
+      <c r="G345" s="49"/>
+      <c r="H345" s="49"/>
+      <c r="I345" s="49"/>
+      <c r="J345" s="49"/>
+      <c r="K345" s="20"/>
+      <c r="L345" s="20"/>
+      <c r="M345" s="20"/>
+      <c r="N345" s="20"/>
+      <c r="O345" s="20"/>
+      <c r="P345" s="20"/>
+      <c r="Q345" s="20"/>
+      <c r="R345" s="20"/>
       <c r="S345" s="51"/>
       <c r="T345" s="52" t="s">
         <v>20</v>
@@ -12461,7 +12648,7 @@
         <f t="shared" si="32"/>
         <v>43958</v>
       </c>
-      <c r="C346" s="49"/>
+      <c r="C346" s="50"/>
       <c r="D346" s="49"/>
       <c r="E346" s="49"/>
       <c r="F346" s="49"/>
@@ -12471,12 +12658,12 @@
       <c r="J346" s="49"/>
       <c r="K346" s="49"/>
       <c r="L346" s="49"/>
-      <c r="M346" s="20"/>
-      <c r="N346" s="20"/>
-      <c r="O346" s="20"/>
-      <c r="P346" s="20"/>
-      <c r="Q346" s="20"/>
-      <c r="R346" s="20"/>
+      <c r="M346" s="49"/>
+      <c r="N346" s="49"/>
+      <c r="O346" s="49"/>
+      <c r="P346" s="49"/>
+      <c r="Q346" s="49"/>
+      <c r="R346" s="49"/>
       <c r="S346" s="51"/>
       <c r="T346" s="18" t="s">
         <v>21</v>
@@ -12490,16 +12677,16 @@
         <f t="shared" si="32"/>
         <v>43959</v>
       </c>
-      <c r="C347" s="32"/>
-      <c r="D347" s="20"/>
-      <c r="E347" s="20"/>
-      <c r="F347" s="20"/>
-      <c r="G347" s="20"/>
-      <c r="H347" s="20"/>
+      <c r="C347" s="50"/>
+      <c r="D347" s="49"/>
+      <c r="E347" s="49"/>
+      <c r="F347" s="49"/>
+      <c r="G347" s="49"/>
+      <c r="H347" s="49"/>
       <c r="I347" s="49"/>
       <c r="J347" s="49"/>
-      <c r="K347" s="49"/>
-      <c r="L347" s="49"/>
+      <c r="K347" s="20"/>
+      <c r="L347" s="20"/>
       <c r="M347" s="20"/>
       <c r="N347" s="20"/>
       <c r="O347" s="20"/>
@@ -12564,25 +12751,26 @@
       <c r="T349" s="51"/>
     </row>
     <row r="350" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B350"/>
-      <c r="C350"/>
-      <c r="D350"/>
-      <c r="E350"/>
-      <c r="F350"/>
-      <c r="G350"/>
-      <c r="H350"/>
-      <c r="I350"/>
-      <c r="J350"/>
-      <c r="K350"/>
-      <c r="L350"/>
-      <c r="M350"/>
-      <c r="N350"/>
-      <c r="O350"/>
-      <c r="P350"/>
-      <c r="Q350"/>
-      <c r="R350"/>
-      <c r="S350"/>
-      <c r="T350"/>
+      <c r="A350" s="54"/>
+      <c r="B350" s="54"/>
+      <c r="C350" s="54"/>
+      <c r="D350" s="54"/>
+      <c r="E350" s="54"/>
+      <c r="F350" s="54"/>
+      <c r="G350" s="54"/>
+      <c r="H350" s="54"/>
+      <c r="I350" s="54"/>
+      <c r="J350" s="54"/>
+      <c r="K350" s="54"/>
+      <c r="L350" s="54"/>
+      <c r="M350" s="54"/>
+      <c r="N350" s="54"/>
+      <c r="O350" s="54"/>
+      <c r="P350" s="54"/>
+      <c r="Q350" s="54"/>
+      <c r="R350" s="54"/>
+      <c r="S350" s="54"/>
+      <c r="T350" s="54"/>
     </row>
     <row r="351" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
@@ -12652,7 +12840,10 @@
         <f>C342+1</f>
         <v>35</v>
       </c>
-      <c r="D352" s="15"/>
+      <c r="D352" s="145">
+        <f>D342+1</f>
+        <v>17</v>
+      </c>
       <c r="E352" s="15"/>
       <c r="F352" s="15"/>
       <c r="G352" s="15"/>
@@ -12678,12 +12869,12 @@
         <f>B343+7</f>
         <v>43962</v>
       </c>
-      <c r="C353" s="32"/>
-      <c r="D353" s="20"/>
-      <c r="E353" s="20"/>
-      <c r="F353" s="20"/>
-      <c r="G353" s="20"/>
-      <c r="H353" s="20"/>
+      <c r="C353" s="50"/>
+      <c r="D353" s="49"/>
+      <c r="E353" s="49"/>
+      <c r="F353" s="49"/>
+      <c r="G353" s="49"/>
+      <c r="H353" s="49"/>
       <c r="I353" s="49"/>
       <c r="J353" s="49"/>
       <c r="K353" s="49"/>
@@ -12707,16 +12898,16 @@
         <f t="shared" ref="B354:B359" si="33">B344+7</f>
         <v>43963</v>
       </c>
-      <c r="C354" s="32"/>
-      <c r="D354" s="20"/>
-      <c r="E354" s="20"/>
-      <c r="F354" s="20"/>
-      <c r="G354" s="20"/>
-      <c r="H354" s="20"/>
-      <c r="I354" s="20"/>
-      <c r="J354" s="20"/>
-      <c r="K354" s="49"/>
-      <c r="L354" s="49"/>
+      <c r="C354" s="50"/>
+      <c r="D354" s="49"/>
+      <c r="E354" s="49"/>
+      <c r="F354" s="49"/>
+      <c r="G354" s="49"/>
+      <c r="H354" s="49"/>
+      <c r="I354" s="49"/>
+      <c r="J354" s="49"/>
+      <c r="K354" s="20"/>
+      <c r="L354" s="20"/>
       <c r="M354" s="20"/>
       <c r="N354" s="20"/>
       <c r="O354" s="20"/>
@@ -12736,22 +12927,22 @@
         <f t="shared" si="33"/>
         <v>43964</v>
       </c>
-      <c r="C355" s="32"/>
-      <c r="D355" s="20"/>
-      <c r="E355" s="20"/>
-      <c r="F355" s="20"/>
-      <c r="G355" s="20"/>
-      <c r="H355" s="20"/>
-      <c r="I355" s="20"/>
-      <c r="J355" s="20"/>
-      <c r="K355" s="49"/>
-      <c r="L355" s="49"/>
-      <c r="M355" s="49"/>
-      <c r="N355" s="49"/>
-      <c r="O355" s="49"/>
-      <c r="P355" s="49"/>
-      <c r="Q355" s="49"/>
-      <c r="R355" s="49"/>
+      <c r="C355" s="50"/>
+      <c r="D355" s="49"/>
+      <c r="E355" s="49"/>
+      <c r="F355" s="49"/>
+      <c r="G355" s="49"/>
+      <c r="H355" s="49"/>
+      <c r="I355" s="49"/>
+      <c r="J355" s="49"/>
+      <c r="K355" s="20"/>
+      <c r="L355" s="20"/>
+      <c r="M355" s="20"/>
+      <c r="N355" s="20"/>
+      <c r="O355" s="20"/>
+      <c r="P355" s="20"/>
+      <c r="Q355" s="20"/>
+      <c r="R355" s="20"/>
       <c r="S355" s="51"/>
       <c r="T355" s="52" t="s">
         <v>20</v>
@@ -12765,7 +12956,7 @@
         <f t="shared" si="33"/>
         <v>43965</v>
       </c>
-      <c r="C356" s="49"/>
+      <c r="C356" s="50"/>
       <c r="D356" s="49"/>
       <c r="E356" s="49"/>
       <c r="F356" s="49"/>
@@ -12775,12 +12966,12 @@
       <c r="J356" s="49"/>
       <c r="K356" s="49"/>
       <c r="L356" s="49"/>
-      <c r="M356" s="20"/>
-      <c r="N356" s="20"/>
-      <c r="O356" s="20"/>
-      <c r="P356" s="20"/>
-      <c r="Q356" s="20"/>
-      <c r="R356" s="20"/>
+      <c r="M356" s="49"/>
+      <c r="N356" s="49"/>
+      <c r="O356" s="49"/>
+      <c r="P356" s="49"/>
+      <c r="Q356" s="49"/>
+      <c r="R356" s="49"/>
       <c r="S356" s="51"/>
       <c r="T356" s="18" t="s">
         <v>21</v>
@@ -12794,16 +12985,16 @@
         <f t="shared" si="33"/>
         <v>43966</v>
       </c>
-      <c r="C357" s="32"/>
-      <c r="D357" s="20"/>
-      <c r="E357" s="20"/>
-      <c r="F357" s="20"/>
-      <c r="G357" s="20"/>
-      <c r="H357" s="20"/>
+      <c r="C357" s="50"/>
+      <c r="D357" s="49"/>
+      <c r="E357" s="49"/>
+      <c r="F357" s="49"/>
+      <c r="G357" s="49"/>
+      <c r="H357" s="49"/>
       <c r="I357" s="49"/>
       <c r="J357" s="49"/>
-      <c r="K357" s="49"/>
-      <c r="L357" s="49"/>
+      <c r="K357" s="20"/>
+      <c r="L357" s="20"/>
       <c r="M357" s="20"/>
       <c r="N357" s="20"/>
       <c r="O357" s="20"/>
@@ -12868,25 +13059,26 @@
       <c r="T359" s="51"/>
     </row>
     <row r="360" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B360"/>
-      <c r="C360"/>
-      <c r="D360"/>
-      <c r="E360"/>
-      <c r="F360"/>
-      <c r="G360"/>
-      <c r="H360"/>
-      <c r="I360"/>
-      <c r="J360"/>
-      <c r="K360"/>
-      <c r="L360"/>
-      <c r="M360"/>
-      <c r="N360"/>
-      <c r="O360"/>
-      <c r="P360"/>
-      <c r="Q360"/>
-      <c r="R360"/>
-      <c r="S360"/>
-      <c r="T360"/>
+      <c r="A360" s="54"/>
+      <c r="B360" s="54"/>
+      <c r="C360" s="54"/>
+      <c r="D360" s="54"/>
+      <c r="E360" s="54"/>
+      <c r="F360" s="54"/>
+      <c r="G360" s="54"/>
+      <c r="H360" s="54"/>
+      <c r="I360" s="54"/>
+      <c r="J360" s="54"/>
+      <c r="K360" s="54"/>
+      <c r="L360" s="54"/>
+      <c r="M360" s="54"/>
+      <c r="N360" s="54"/>
+      <c r="O360" s="54"/>
+      <c r="P360" s="54"/>
+      <c r="Q360" s="54"/>
+      <c r="R360" s="54"/>
+      <c r="S360" s="54"/>
+      <c r="T360" s="54"/>
     </row>
     <row r="361" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
@@ -12956,7 +13148,10 @@
         <f>C352+1</f>
         <v>36</v>
       </c>
-      <c r="D362" s="15"/>
+      <c r="D362" s="145">
+        <f>D352+1</f>
+        <v>18</v>
+      </c>
       <c r="E362" s="15"/>
       <c r="F362" s="15"/>
       <c r="G362" s="15"/>
@@ -12982,12 +13177,12 @@
         <f>B353+7</f>
         <v>43969</v>
       </c>
-      <c r="C363" s="32"/>
-      <c r="D363" s="20"/>
-      <c r="E363" s="20"/>
-      <c r="F363" s="20"/>
-      <c r="G363" s="20"/>
-      <c r="H363" s="20"/>
+      <c r="C363" s="50"/>
+      <c r="D363" s="49"/>
+      <c r="E363" s="49"/>
+      <c r="F363" s="49"/>
+      <c r="G363" s="49"/>
+      <c r="H363" s="49"/>
       <c r="I363" s="49"/>
       <c r="J363" s="49"/>
       <c r="K363" s="49"/>
@@ -13011,16 +13206,16 @@
         <f t="shared" ref="B364:B369" si="34">B354+7</f>
         <v>43970</v>
       </c>
-      <c r="C364" s="32"/>
-      <c r="D364" s="20"/>
-      <c r="E364" s="20"/>
-      <c r="F364" s="20"/>
-      <c r="G364" s="20"/>
-      <c r="H364" s="20"/>
-      <c r="I364" s="20"/>
-      <c r="J364" s="20"/>
-      <c r="K364" s="49"/>
-      <c r="L364" s="49"/>
+      <c r="C364" s="50"/>
+      <c r="D364" s="49"/>
+      <c r="E364" s="49"/>
+      <c r="F364" s="49"/>
+      <c r="G364" s="49"/>
+      <c r="H364" s="49"/>
+      <c r="I364" s="49"/>
+      <c r="J364" s="49"/>
+      <c r="K364" s="20"/>
+      <c r="L364" s="20"/>
       <c r="M364" s="20"/>
       <c r="N364" s="20"/>
       <c r="O364" s="20"/>
@@ -13040,22 +13235,22 @@
         <f t="shared" si="34"/>
         <v>43971</v>
       </c>
-      <c r="C365" s="32"/>
-      <c r="D365" s="20"/>
-      <c r="E365" s="20"/>
-      <c r="F365" s="20"/>
-      <c r="G365" s="20"/>
-      <c r="H365" s="20"/>
-      <c r="I365" s="20"/>
-      <c r="J365" s="20"/>
-      <c r="K365" s="49"/>
-      <c r="L365" s="49"/>
-      <c r="M365" s="49"/>
-      <c r="N365" s="49"/>
-      <c r="O365" s="49"/>
-      <c r="P365" s="49"/>
-      <c r="Q365" s="49"/>
-      <c r="R365" s="49"/>
+      <c r="C365" s="50"/>
+      <c r="D365" s="49"/>
+      <c r="E365" s="49"/>
+      <c r="F365" s="49"/>
+      <c r="G365" s="49"/>
+      <c r="H365" s="49"/>
+      <c r="I365" s="49"/>
+      <c r="J365" s="49"/>
+      <c r="K365" s="20"/>
+      <c r="L365" s="20"/>
+      <c r="M365" s="20"/>
+      <c r="N365" s="20"/>
+      <c r="O365" s="20"/>
+      <c r="P365" s="20"/>
+      <c r="Q365" s="20"/>
+      <c r="R365" s="20"/>
       <c r="S365" s="51"/>
       <c r="T365" s="52" t="s">
         <v>20</v>
@@ -13069,7 +13264,7 @@
         <f t="shared" si="34"/>
         <v>43972</v>
       </c>
-      <c r="C366" s="49"/>
+      <c r="C366" s="50"/>
       <c r="D366" s="49"/>
       <c r="E366" s="49"/>
       <c r="F366" s="49"/>
@@ -13079,12 +13274,12 @@
       <c r="J366" s="49"/>
       <c r="K366" s="49"/>
       <c r="L366" s="49"/>
-      <c r="M366" s="20"/>
-      <c r="N366" s="20"/>
-      <c r="O366" s="20"/>
-      <c r="P366" s="20"/>
-      <c r="Q366" s="20"/>
-      <c r="R366" s="20"/>
+      <c r="M366" s="49"/>
+      <c r="N366" s="49"/>
+      <c r="O366" s="49"/>
+      <c r="P366" s="49"/>
+      <c r="Q366" s="49"/>
+      <c r="R366" s="49"/>
       <c r="S366" s="51"/>
       <c r="T366" s="18" t="s">
         <v>21</v>
@@ -13098,16 +13293,16 @@
         <f t="shared" si="34"/>
         <v>43973</v>
       </c>
-      <c r="C367" s="32"/>
-      <c r="D367" s="20"/>
-      <c r="E367" s="20"/>
-      <c r="F367" s="20"/>
-      <c r="G367" s="20"/>
-      <c r="H367" s="20"/>
+      <c r="C367" s="50"/>
+      <c r="D367" s="49"/>
+      <c r="E367" s="49"/>
+      <c r="F367" s="49"/>
+      <c r="G367" s="49"/>
+      <c r="H367" s="49"/>
       <c r="I367" s="49"/>
       <c r="J367" s="49"/>
-      <c r="K367" s="49"/>
-      <c r="L367" s="49"/>
+      <c r="K367" s="20"/>
+      <c r="L367" s="20"/>
       <c r="M367" s="20"/>
       <c r="N367" s="20"/>
       <c r="O367" s="20"/>
@@ -13172,214 +13367,312 @@
       <c r="T369" s="51"/>
     </row>
     <row r="370" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B370"/>
-      <c r="C370"/>
-      <c r="D370"/>
-      <c r="E370"/>
-      <c r="F370"/>
-      <c r="G370"/>
-      <c r="H370"/>
-      <c r="I370"/>
-      <c r="J370"/>
-      <c r="K370"/>
-      <c r="L370"/>
-      <c r="M370"/>
-      <c r="N370"/>
-      <c r="O370"/>
-      <c r="P370"/>
-      <c r="Q370"/>
-      <c r="R370"/>
-      <c r="S370"/>
-      <c r="T370"/>
+      <c r="A370" s="54"/>
+      <c r="B370" s="54"/>
+      <c r="C370" s="54"/>
+      <c r="D370" s="54"/>
+      <c r="E370" s="54"/>
+      <c r="F370" s="54"/>
+      <c r="G370" s="54"/>
+      <c r="H370" s="54"/>
+      <c r="I370" s="54"/>
+      <c r="J370" s="54"/>
+      <c r="K370" s="54"/>
+      <c r="L370" s="54"/>
+      <c r="M370" s="54"/>
+      <c r="N370" s="54"/>
+      <c r="O370" s="54"/>
+      <c r="P370" s="54"/>
+      <c r="Q370" s="54"/>
+      <c r="R370" s="54"/>
+      <c r="S370" s="54"/>
+      <c r="T370" s="54"/>
     </row>
     <row r="371" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B371"/>
-      <c r="C371"/>
-      <c r="D371"/>
-      <c r="E371"/>
-      <c r="F371"/>
-      <c r="G371"/>
-      <c r="H371"/>
-      <c r="I371"/>
-      <c r="J371"/>
-      <c r="K371"/>
-      <c r="L371"/>
-      <c r="M371"/>
-      <c r="N371"/>
-      <c r="O371"/>
-      <c r="P371"/>
-      <c r="Q371"/>
-      <c r="R371"/>
-      <c r="S371"/>
-      <c r="T371"/>
+      <c r="A371" s="2"/>
+      <c r="B371" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C371" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="D371" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E371" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F371" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="G371" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H371" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="I371" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J371" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="K371" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="L371" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="M371" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="N371" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="O371" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="P371" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="Q371" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R371" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="S371" s="51"/>
+      <c r="T371" s="51"/>
     </row>
     <row r="372" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B372"/>
-      <c r="C372"/>
-      <c r="D372"/>
-      <c r="E372"/>
-      <c r="F372"/>
-      <c r="G372"/>
-      <c r="H372"/>
-      <c r="I372"/>
-      <c r="J372"/>
-      <c r="K372"/>
-      <c r="L372"/>
-      <c r="M372"/>
-      <c r="N372"/>
-      <c r="O372"/>
-      <c r="P372"/>
-      <c r="Q372"/>
-      <c r="R372"/>
-      <c r="S372"/>
-      <c r="T372"/>
+      <c r="A372" s="57">
+        <f>A362+7</f>
+        <v>43976</v>
+      </c>
+      <c r="B372" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C372" s="59">
+        <f>C362+1</f>
+        <v>37</v>
+      </c>
+      <c r="D372" s="145">
+        <f>D362+1</f>
+        <v>19</v>
+      </c>
+      <c r="E372" s="15"/>
+      <c r="F372" s="15"/>
+      <c r="G372" s="15"/>
+      <c r="H372" s="15"/>
+      <c r="I372" s="15"/>
+      <c r="J372" s="15"/>
+      <c r="K372" s="19"/>
+      <c r="L372" s="19"/>
+      <c r="M372" s="19"/>
+      <c r="N372" s="19"/>
+      <c r="O372" s="19"/>
+      <c r="P372" s="19"/>
+      <c r="Q372" s="19"/>
+      <c r="R372" s="19"/>
+      <c r="S372" s="51"/>
+      <c r="T372" s="51"/>
     </row>
     <row r="373" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B373"/>
-      <c r="C373"/>
-      <c r="D373"/>
-      <c r="E373"/>
-      <c r="F373"/>
-      <c r="G373"/>
-      <c r="H373"/>
-      <c r="I373"/>
-      <c r="J373"/>
-      <c r="K373"/>
-      <c r="L373"/>
-      <c r="M373"/>
-      <c r="N373"/>
-      <c r="O373"/>
-      <c r="P373"/>
-      <c r="Q373"/>
-      <c r="R373"/>
-      <c r="S373"/>
-      <c r="T373"/>
+      <c r="A373" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B373" s="57">
+        <f>B363+7</f>
+        <v>43976</v>
+      </c>
+      <c r="C373" s="50"/>
+      <c r="D373" s="49"/>
+      <c r="E373" s="49"/>
+      <c r="F373" s="49"/>
+      <c r="G373" s="49"/>
+      <c r="H373" s="49"/>
+      <c r="I373" s="49"/>
+      <c r="J373" s="49"/>
+      <c r="K373" s="49"/>
+      <c r="L373" s="49"/>
+      <c r="M373" s="49"/>
+      <c r="N373" s="49"/>
+      <c r="O373" s="49"/>
+      <c r="P373" s="49"/>
+      <c r="Q373" s="49"/>
+      <c r="R373" s="49"/>
+      <c r="S373" s="51"/>
+      <c r="T373" s="30" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="374" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B374"/>
-      <c r="C374"/>
-      <c r="D374"/>
-      <c r="E374"/>
-      <c r="F374"/>
-      <c r="G374"/>
-      <c r="H374"/>
-      <c r="I374"/>
-      <c r="J374"/>
-      <c r="K374"/>
-      <c r="L374"/>
-      <c r="M374"/>
-      <c r="N374"/>
-      <c r="O374"/>
-      <c r="P374"/>
-      <c r="Q374"/>
-      <c r="R374"/>
-      <c r="S374"/>
-      <c r="T374"/>
+      <c r="A374" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B374" s="57">
+        <f t="shared" ref="B374:B379" si="35">B364+7</f>
+        <v>43977</v>
+      </c>
+      <c r="C374" s="50"/>
+      <c r="D374" s="49"/>
+      <c r="E374" s="49"/>
+      <c r="F374" s="49"/>
+      <c r="G374" s="49"/>
+      <c r="H374" s="49"/>
+      <c r="I374" s="49"/>
+      <c r="J374" s="49"/>
+      <c r="K374" s="20"/>
+      <c r="L374" s="20"/>
+      <c r="M374" s="20"/>
+      <c r="N374" s="20"/>
+      <c r="O374" s="20"/>
+      <c r="P374" s="20"/>
+      <c r="Q374" s="20"/>
+      <c r="R374" s="20"/>
+      <c r="S374" s="51"/>
+      <c r="T374" s="53" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="375" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B375"/>
-      <c r="C375"/>
-      <c r="D375"/>
-      <c r="E375"/>
-      <c r="F375"/>
-      <c r="G375"/>
-      <c r="H375"/>
-      <c r="I375"/>
-      <c r="J375"/>
-      <c r="K375"/>
-      <c r="L375"/>
-      <c r="M375"/>
-      <c r="N375"/>
-      <c r="O375"/>
-      <c r="P375"/>
-      <c r="Q375"/>
-      <c r="R375"/>
-      <c r="S375"/>
-      <c r="T375"/>
+      <c r="A375" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B375" s="57">
+        <f t="shared" si="35"/>
+        <v>43978</v>
+      </c>
+      <c r="C375" s="50"/>
+      <c r="D375" s="49"/>
+      <c r="E375" s="49"/>
+      <c r="F375" s="49"/>
+      <c r="G375" s="49"/>
+      <c r="H375" s="49"/>
+      <c r="I375" s="49"/>
+      <c r="J375" s="49"/>
+      <c r="K375" s="20"/>
+      <c r="L375" s="20"/>
+      <c r="M375" s="20"/>
+      <c r="N375" s="20"/>
+      <c r="O375" s="20"/>
+      <c r="P375" s="20"/>
+      <c r="Q375" s="20"/>
+      <c r="R375" s="20"/>
+      <c r="S375" s="51"/>
+      <c r="T375" s="52" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="376" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B376"/>
-      <c r="C376"/>
-      <c r="D376"/>
-      <c r="E376"/>
-      <c r="F376"/>
-      <c r="G376"/>
-      <c r="H376"/>
-      <c r="I376"/>
-      <c r="J376"/>
-      <c r="K376"/>
-      <c r="L376"/>
-      <c r="M376"/>
-      <c r="N376"/>
-      <c r="O376"/>
-      <c r="P376"/>
-      <c r="Q376"/>
-      <c r="R376"/>
-      <c r="S376"/>
-      <c r="T376"/>
+      <c r="A376" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B376" s="57">
+        <f t="shared" si="35"/>
+        <v>43979</v>
+      </c>
+      <c r="C376" s="50"/>
+      <c r="D376" s="49"/>
+      <c r="E376" s="49"/>
+      <c r="F376" s="49"/>
+      <c r="G376" s="49"/>
+      <c r="H376" s="49"/>
+      <c r="I376" s="49"/>
+      <c r="J376" s="49"/>
+      <c r="K376" s="49"/>
+      <c r="L376" s="49"/>
+      <c r="M376" s="49"/>
+      <c r="N376" s="49"/>
+      <c r="O376" s="49"/>
+      <c r="P376" s="49"/>
+      <c r="Q376" s="49"/>
+      <c r="R376" s="49"/>
+      <c r="S376" s="51"/>
+      <c r="T376" s="18" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="377" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B377"/>
-      <c r="C377"/>
-      <c r="D377"/>
-      <c r="E377"/>
-      <c r="F377"/>
-      <c r="G377"/>
-      <c r="H377"/>
-      <c r="I377"/>
-      <c r="J377"/>
-      <c r="K377"/>
-      <c r="L377"/>
-      <c r="M377"/>
-      <c r="N377"/>
-      <c r="O377"/>
-      <c r="P377"/>
-      <c r="Q377"/>
-      <c r="R377"/>
-      <c r="S377"/>
-      <c r="T377"/>
+      <c r="A377" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B377" s="57">
+        <f t="shared" si="35"/>
+        <v>43980</v>
+      </c>
+      <c r="C377" s="50"/>
+      <c r="D377" s="49"/>
+      <c r="E377" s="49"/>
+      <c r="F377" s="49"/>
+      <c r="G377" s="49"/>
+      <c r="H377" s="49"/>
+      <c r="I377" s="49"/>
+      <c r="J377" s="49"/>
+      <c r="K377" s="20"/>
+      <c r="L377" s="20"/>
+      <c r="M377" s="20"/>
+      <c r="N377" s="20"/>
+      <c r="O377" s="20"/>
+      <c r="P377" s="20"/>
+      <c r="Q377" s="20"/>
+      <c r="R377" s="20"/>
+      <c r="S377" s="51"/>
+      <c r="T377" s="51"/>
     </row>
     <row r="378" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B378"/>
-      <c r="C378"/>
-      <c r="D378"/>
-      <c r="E378"/>
-      <c r="F378"/>
-      <c r="G378"/>
-      <c r="H378"/>
-      <c r="I378"/>
-      <c r="J378"/>
-      <c r="K378"/>
-      <c r="L378"/>
-      <c r="M378"/>
-      <c r="N378"/>
-      <c r="O378"/>
-      <c r="P378"/>
-      <c r="Q378"/>
-      <c r="R378"/>
-      <c r="S378"/>
-      <c r="T378"/>
+      <c r="A378" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B378" s="57">
+        <f t="shared" si="35"/>
+        <v>43981</v>
+      </c>
+      <c r="C378" s="50"/>
+      <c r="D378" s="49"/>
+      <c r="E378" s="49"/>
+      <c r="F378" s="49"/>
+      <c r="G378" s="49"/>
+      <c r="H378" s="49"/>
+      <c r="I378" s="49"/>
+      <c r="J378" s="49"/>
+      <c r="K378" s="49"/>
+      <c r="L378" s="49"/>
+      <c r="M378" s="49"/>
+      <c r="N378" s="49"/>
+      <c r="O378" s="49"/>
+      <c r="P378" s="49"/>
+      <c r="Q378" s="49"/>
+      <c r="R378" s="49"/>
+      <c r="S378" s="51"/>
+      <c r="T378" s="51"/>
     </row>
     <row r="379" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B379"/>
-      <c r="C379"/>
-      <c r="D379"/>
-      <c r="E379"/>
-      <c r="F379"/>
-      <c r="G379"/>
-      <c r="H379"/>
-      <c r="I379"/>
-      <c r="J379"/>
-      <c r="K379"/>
-      <c r="L379"/>
-      <c r="M379"/>
-      <c r="N379"/>
-      <c r="O379"/>
-      <c r="P379"/>
-      <c r="Q379"/>
-      <c r="R379"/>
-      <c r="S379"/>
-      <c r="T379"/>
+      <c r="A379" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B379" s="57">
+        <f t="shared" si="35"/>
+        <v>43982</v>
+      </c>
+      <c r="C379" s="50"/>
+      <c r="D379" s="49"/>
+      <c r="E379" s="49"/>
+      <c r="F379" s="49"/>
+      <c r="G379" s="49"/>
+      <c r="H379" s="49"/>
+      <c r="I379" s="49"/>
+      <c r="J379" s="49"/>
+      <c r="K379" s="20"/>
+      <c r="L379" s="20"/>
+      <c r="M379" s="20"/>
+      <c r="N379" s="20"/>
+      <c r="O379" s="20"/>
+      <c r="P379" s="20"/>
+      <c r="Q379" s="20"/>
+      <c r="R379" s="20"/>
+      <c r="S379" s="51"/>
+      <c r="T379" s="51"/>
     </row>
     <row r="380" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B380"/>
@@ -16070,7 +16363,172 @@
       <c r="T507"/>
     </row>
   </sheetData>
-  <mergeCells count="148">
+  <mergeCells count="189">
+    <mergeCell ref="O272:R272"/>
+    <mergeCell ref="C283:D283"/>
+    <mergeCell ref="E283:J283"/>
+    <mergeCell ref="G285:J285"/>
+    <mergeCell ref="G287:J287"/>
+    <mergeCell ref="C293:D293"/>
+    <mergeCell ref="E293:J293"/>
+    <mergeCell ref="G295:J295"/>
+    <mergeCell ref="G297:J297"/>
+    <mergeCell ref="G257:J257"/>
+    <mergeCell ref="C263:D263"/>
+    <mergeCell ref="E263:J263"/>
+    <mergeCell ref="G265:J265"/>
+    <mergeCell ref="G267:J267"/>
+    <mergeCell ref="G235:J235"/>
+    <mergeCell ref="G237:J237"/>
+    <mergeCell ref="C243:D243"/>
+    <mergeCell ref="E243:J243"/>
+    <mergeCell ref="G245:J245"/>
+    <mergeCell ref="G247:J247"/>
+    <mergeCell ref="C253:D253"/>
+    <mergeCell ref="E253:J253"/>
+    <mergeCell ref="G255:J255"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="E213:J213"/>
+    <mergeCell ref="G215:J215"/>
+    <mergeCell ref="G217:J217"/>
+    <mergeCell ref="C223:D223"/>
+    <mergeCell ref="E223:J223"/>
+    <mergeCell ref="G225:J225"/>
+    <mergeCell ref="G227:J227"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="E233:J233"/>
+    <mergeCell ref="C193:F193"/>
+    <mergeCell ref="H193:J193"/>
+    <mergeCell ref="G195:J195"/>
+    <mergeCell ref="G197:J197"/>
+    <mergeCell ref="G205:J205"/>
+    <mergeCell ref="G207:J207"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="E203:J203"/>
+    <mergeCell ref="F143:P143"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H46:P46"/>
+    <mergeCell ref="H44:N44"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="L75:Q75"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="E77:J77"/>
+    <mergeCell ref="L67:R67"/>
+    <mergeCell ref="M72:R72"/>
+    <mergeCell ref="H13:R13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="H45:P45"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H43:P43"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="H33:P33"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="H66:Q66"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H23:R23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="H54:P54"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="H126:P126"/>
+    <mergeCell ref="C155:R159"/>
+    <mergeCell ref="C163:R165"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H142:L142"/>
+    <mergeCell ref="C105:M105"/>
+    <mergeCell ref="H106:P106"/>
+    <mergeCell ref="C119:R119"/>
+    <mergeCell ref="C129:R129"/>
+    <mergeCell ref="C139:R139"/>
+    <mergeCell ref="C89:R89"/>
+    <mergeCell ref="C99:R99"/>
+    <mergeCell ref="H114:M114"/>
+    <mergeCell ref="C135:K135"/>
+    <mergeCell ref="M135:P135"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="J116:N116"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="T58:U60"/>
+    <mergeCell ref="H123:P123"/>
+    <mergeCell ref="H103:P103"/>
+    <mergeCell ref="H104:P104"/>
+    <mergeCell ref="I115:R115"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="H64:N64"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="C69:R69"/>
+    <mergeCell ref="L74:Q74"/>
+    <mergeCell ref="L77:Q77"/>
+    <mergeCell ref="L78:Q78"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="J58:P58"/>
+    <mergeCell ref="E74:J74"/>
+    <mergeCell ref="E73:J73"/>
+    <mergeCell ref="L73:Q73"/>
+    <mergeCell ref="C76:R76"/>
+    <mergeCell ref="E78:J78"/>
+    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="M125:P125"/>
+    <mergeCell ref="C79:R79"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H83:P83"/>
+    <mergeCell ref="C107:M107"/>
+    <mergeCell ref="J84:R84"/>
+    <mergeCell ref="E85:M85"/>
+    <mergeCell ref="H93:P93"/>
+    <mergeCell ref="H94:P94"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H96:L96"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="H124:P124"/>
+    <mergeCell ref="C125:K125"/>
+    <mergeCell ref="H113:M113"/>
+    <mergeCell ref="C109:R109"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="C104:G104"/>
     <mergeCell ref="H136:P136"/>
     <mergeCell ref="K134:O134"/>
     <mergeCell ref="C186:R189"/>
@@ -16095,130 +16553,6 @@
     <mergeCell ref="C143:E143"/>
     <mergeCell ref="C134:G134"/>
     <mergeCell ref="C133:G133"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="M125:P125"/>
-    <mergeCell ref="C79:R79"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="H83:P83"/>
-    <mergeCell ref="C107:M107"/>
-    <mergeCell ref="J84:R84"/>
-    <mergeCell ref="E85:M85"/>
-    <mergeCell ref="H93:P93"/>
-    <mergeCell ref="H94:P94"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="H96:L96"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="H124:P124"/>
-    <mergeCell ref="C125:K125"/>
-    <mergeCell ref="H113:M113"/>
-    <mergeCell ref="C109:R109"/>
-    <mergeCell ref="C103:G103"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="T58:U60"/>
-    <mergeCell ref="H123:P123"/>
-    <mergeCell ref="H103:P103"/>
-    <mergeCell ref="H104:P104"/>
-    <mergeCell ref="I115:R115"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="H64:N64"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="C69:R69"/>
-    <mergeCell ref="H126:P126"/>
-    <mergeCell ref="C155:R159"/>
-    <mergeCell ref="C163:R165"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="C136:G136"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="C124:G124"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="C126:G126"/>
-    <mergeCell ref="H142:L142"/>
-    <mergeCell ref="C105:M105"/>
-    <mergeCell ref="H106:P106"/>
-    <mergeCell ref="C119:R119"/>
-    <mergeCell ref="C129:R129"/>
-    <mergeCell ref="C139:R139"/>
-    <mergeCell ref="C89:R89"/>
-    <mergeCell ref="C99:R99"/>
-    <mergeCell ref="L74:Q74"/>
-    <mergeCell ref="L77:Q77"/>
-    <mergeCell ref="L78:Q78"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="J58:P58"/>
-    <mergeCell ref="E74:J74"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="H66:Q66"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H23:R23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="E73:J73"/>
-    <mergeCell ref="L73:Q73"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="H54:P54"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C76:R76"/>
-    <mergeCell ref="E78:J78"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="E75:J75"/>
-    <mergeCell ref="E77:J77"/>
-    <mergeCell ref="L67:R67"/>
-    <mergeCell ref="M72:R72"/>
-    <mergeCell ref="H13:R13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="H45:P45"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H43:P43"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="H33:P33"/>
-    <mergeCell ref="H114:M114"/>
-    <mergeCell ref="C135:K135"/>
-    <mergeCell ref="M135:P135"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="J116:N116"/>
-    <mergeCell ref="F143:P143"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H46:P46"/>
-    <mergeCell ref="H44:N44"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="L75:Q75"/>
-    <mergeCell ref="I53:M53"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="I55:N55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -16229,8 +16563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16246,10 +16580,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="129"/>
+      <c r="B2" s="142"/>
       <c r="C2" s="41" t="s">
         <v>18</v>
       </c>
@@ -16268,10 +16602,10 @@
       <c r="I2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="130" t="s">
+      <c r="J2" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="130"/>
+      <c r="K2" s="143"/>
     </row>
     <row r="3" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
@@ -16286,10 +16620,10 @@
       <c r="I3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="131" t="s">
+      <c r="J3" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="131"/>
+      <c r="K3" s="144"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -16311,10 +16645,10 @@
       <c r="I4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="131" t="s">
+      <c r="J4" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="131"/>
+      <c r="K4" s="144"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -16473,6 +16807,9 @@
       <c r="F14" s="56" t="s">
         <v>10</v>
       </c>
+      <c r="G14" s="53" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -16489,6 +16826,9 @@
       <c r="F15" s="56" t="s">
         <v>83</v>
       </c>
+      <c r="G15" s="53" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
@@ -16517,11 +16857,15 @@
       <c r="D17" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56" t="s">
+      <c r="E17" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="56"/>
+      <c r="G17" s="18" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -16585,8 +16929,12 @@
       </c>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
+      <c r="F21" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>34</v>
+      </c>
       <c r="H21" s="51"/>
     </row>
     <row r="22" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.25">
@@ -16600,10 +16948,10 @@
       <c r="H22" s="51"/>
     </row>
     <row r="23" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="129" t="s">
+      <c r="A23" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="129"/>
+      <c r="B23" s="142"/>
       <c r="C23" s="41" t="s">
         <v>18</v>
       </c>
@@ -16627,8 +16975,8 @@
         <v>27</v>
       </c>
       <c r="E24" s="45"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="45"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
       <c r="H24" s="54"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -16808,7 +17156,7 @@
         <v>43929</v>
       </c>
       <c r="D36" s="29"/>
-      <c r="F36" s="116" t="s">
+      <c r="F36" s="108" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16826,7 +17174,7 @@
         <v>43936</v>
       </c>
       <c r="D37" s="44"/>
-      <c r="F37" s="116"/>
+      <c r="F37" s="108"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
@@ -16842,7 +17190,7 @@
         <v>43943</v>
       </c>
       <c r="D38" s="29"/>
-      <c r="F38" s="116"/>
+      <c r="F38" s="108"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="23">

--- a/Weekly Planner.xlsx
+++ b/Weekly Planner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SoftwareProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E4D729-627C-44AF-B87D-CBD01FFF7D22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCF6E8C-E2E2-4C72-9C42-0CC164779235}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Planner" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="106">
   <si>
     <t>Monday</t>
   </si>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t>Data App Dev - Work on Lab 1</t>
-  </si>
-  <si>
-    <t>Exam</t>
   </si>
   <si>
     <t>Final Doc &amp; Code (75%)</t>
@@ -334,6 +331,33 @@
   </si>
   <si>
     <t>Project  - (50%) (15/01)</t>
+  </si>
+  <si>
+    <t>Programming Test (35%)</t>
+  </si>
+  <si>
+    <t>Project (40%)</t>
+  </si>
+  <si>
+    <t>Exam (25%)</t>
+  </si>
+  <si>
+    <t>Reading Week</t>
+  </si>
+  <si>
+    <t>Dis Sys - Programming Test (35%)</t>
+  </si>
+  <si>
+    <t>Dis Sys - Project due (40%)</t>
+  </si>
+  <si>
+    <t>Apply for jobs</t>
+  </si>
+  <si>
+    <t>Distributed Systems</t>
+  </si>
+  <si>
+    <t>Dis Sys - Refresher</t>
   </si>
 </sst>
 </file>
@@ -515,7 +539,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1033,6 +1057,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1047,7 +1082,7 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1231,13 +1266,175 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="21" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="16" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="9" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="5" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="11" borderId="4" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="39" xfId="8" applyBorder="1" applyAlignment="1">
@@ -1276,172 +1473,7 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="21" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="37" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="8" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="11" borderId="4" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="36" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="5" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1453,23 +1485,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="9" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="16" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="24" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="25" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="26" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="45" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1772,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y507"/>
   <sheetViews>
-    <sheetView topLeftCell="A385" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O273" sqref="O273"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G195" sqref="G195:J195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2156,26 +2194,26 @@
       <c r="B13" s="57">
         <v>43724</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="125" t="s">
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="127"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="96"/>
       <c r="S13" s="51"/>
       <c r="T13" s="30" t="s">
         <v>22</v>
@@ -2188,26 +2226,26 @@
       <c r="B14" s="57">
         <v>43725</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="128" t="s">
+      <c r="J14" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="134"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="134"/>
-      <c r="N14" s="129"/>
-      <c r="O14" s="125" t="s">
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="127"/>
+      <c r="P14" s="96"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="51"/>
@@ -2250,20 +2288,20 @@
       <c r="B16" s="57">
         <v>43727</v>
       </c>
-      <c r="C16" s="90" t="s">
+      <c r="C16" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="124" t="s">
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="124"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="124"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
@@ -2468,26 +2506,26 @@
         <f>B13+7</f>
         <v>43731</v>
       </c>
-      <c r="C23" s="90" t="s">
+      <c r="C23" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="125" t="s">
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="126"/>
-      <c r="J23" s="126"/>
-      <c r="K23" s="126"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="126"/>
-      <c r="O23" s="126"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="127"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="96"/>
       <c r="S23" s="51"/>
       <c r="T23" s="30" t="s">
         <v>22</v>
@@ -2501,30 +2539,30 @@
         <f t="shared" ref="B24:B29" si="0">B14+7</f>
         <v>43732</v>
       </c>
-      <c r="C24" s="90" t="s">
+      <c r="C24" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="125" t="s">
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="138"/>
-      <c r="J24" s="101" t="s">
+      <c r="I24" s="80"/>
+      <c r="J24" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="K24" s="102"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="101" t="s">
-        <v>56</v>
-      </c>
-      <c r="N24" s="103"/>
-      <c r="O24" s="128" t="s">
+      <c r="K24" s="90"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="N24" s="91"/>
+      <c r="O24" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="P24" s="129"/>
+      <c r="P24" s="99"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
       <c r="S24" s="51"/>
@@ -2569,20 +2607,20 @@
         <f t="shared" si="0"/>
         <v>43734</v>
       </c>
-      <c r="C26" s="90" t="s">
+      <c r="C26" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="132" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" s="132"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="132"/>
-      <c r="L26" s="132"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="93"/>
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
@@ -2764,12 +2802,12 @@
         <f>C22+1</f>
         <v>3</v>
       </c>
-      <c r="D32" s="123" t="s">
+      <c r="D32" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
@@ -2792,24 +2830,24 @@
         <f>B23+7</f>
         <v>43738</v>
       </c>
-      <c r="C33" s="90" t="s">
+      <c r="C33" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="132" t="s">
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="132"/>
-      <c r="J33" s="132"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="132"/>
-      <c r="M33" s="132"/>
-      <c r="N33" s="132"/>
-      <c r="O33" s="132"/>
-      <c r="P33" s="132"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="93"/>
       <c r="Q33" s="62"/>
       <c r="R33" s="62"/>
       <c r="S33" s="51"/>
@@ -2825,13 +2863,13 @@
         <f t="shared" ref="B34:B39" si="1">B24+7</f>
         <v>43739</v>
       </c>
-      <c r="C34" s="90" t="s">
+      <c r="C34" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
       <c r="H34" s="62"/>
       <c r="I34" s="62"/>
       <c r="J34" s="62"/>
@@ -2885,13 +2923,13 @@
         <f t="shared" si="1"/>
         <v>43741</v>
       </c>
-      <c r="C36" s="90" t="s">
+      <c r="C36" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="63"/>
@@ -3104,24 +3142,24 @@
         <f>B33+7</f>
         <v>43745</v>
       </c>
-      <c r="C43" s="90" t="s">
+      <c r="C43" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="88" t="s">
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="88"/>
-      <c r="N43" s="88"/>
-      <c r="O43" s="88"/>
-      <c r="P43" s="88"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="103"/>
+      <c r="L43" s="103"/>
+      <c r="M43" s="103"/>
+      <c r="N43" s="103"/>
+      <c r="O43" s="103"/>
+      <c r="P43" s="103"/>
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
       <c r="S43" s="51"/>
@@ -3137,22 +3175,22 @@
         <f t="shared" ref="B44:B49" si="2">B34+7</f>
         <v>43746</v>
       </c>
-      <c r="C44" s="90" t="s">
+      <c r="C44" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="90"/>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="139" t="s">
-        <v>58</v>
-      </c>
-      <c r="I44" s="119"/>
-      <c r="J44" s="119"/>
-      <c r="K44" s="119"/>
-      <c r="L44" s="119"/>
-      <c r="M44" s="119"/>
-      <c r="N44" s="119"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="85"/>
       <c r="O44" s="49"/>
       <c r="P44" s="49"/>
       <c r="Q44" s="49"/>
@@ -3175,17 +3213,17 @@
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
-      <c r="H45" s="135" t="s">
-        <v>58</v>
-      </c>
-      <c r="I45" s="99"/>
-      <c r="J45" s="99"/>
-      <c r="K45" s="99"/>
-      <c r="L45" s="99"/>
-      <c r="M45" s="99"/>
-      <c r="N45" s="99"/>
-      <c r="O45" s="99"/>
-      <c r="P45" s="100"/>
+      <c r="H45" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="I45" s="101"/>
+      <c r="J45" s="101"/>
+      <c r="K45" s="101"/>
+      <c r="L45" s="101"/>
+      <c r="M45" s="101"/>
+      <c r="N45" s="101"/>
+      <c r="O45" s="101"/>
+      <c r="P45" s="102"/>
       <c r="Q45" s="49"/>
       <c r="R45" s="49"/>
       <c r="S45" s="51"/>
@@ -3201,24 +3239,24 @@
         <f t="shared" si="2"/>
         <v>43748</v>
       </c>
-      <c r="C46" s="90" t="s">
+      <c r="C46" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="90"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="I46" s="96"/>
-      <c r="J46" s="96"/>
-      <c r="K46" s="96"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="96"/>
-      <c r="N46" s="96"/>
-      <c r="O46" s="96"/>
-      <c r="P46" s="97"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="82"/>
+      <c r="O46" s="82"/>
+      <c r="P46" s="83"/>
       <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
       <c r="S46" s="51"/>
@@ -3397,11 +3435,11 @@
         <v>5</v>
       </c>
       <c r="G52" s="15"/>
-      <c r="H52" s="140" t="s">
-        <v>67</v>
-      </c>
-      <c r="I52" s="140"/>
-      <c r="J52" s="140"/>
+      <c r="H52" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="I52" s="86"/>
+      <c r="J52" s="86"/>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
       <c r="M52" s="19"/>
@@ -3421,23 +3459,23 @@
         <f>B43+7</f>
         <v>43752</v>
       </c>
-      <c r="C53" s="90" t="s">
+      <c r="C53" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="90"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="88"/>
       <c r="H53" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="I53" s="101" t="s">
+        <v>67</v>
+      </c>
+      <c r="I53" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="102"/>
-      <c r="K53" s="102"/>
-      <c r="L53" s="102"/>
-      <c r="M53" s="102"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="90"/>
+      <c r="L53" s="90"/>
+      <c r="M53" s="90"/>
       <c r="N53" s="49"/>
       <c r="O53" s="49"/>
       <c r="P53" s="49"/>
@@ -3456,28 +3494,28 @@
         <f t="shared" ref="B54:B59" si="3">B44+7</f>
         <v>43753</v>
       </c>
-      <c r="C54" s="90" t="s">
+      <c r="C54" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="130" t="s">
-        <v>63</v>
-      </c>
-      <c r="I54" s="131"/>
-      <c r="J54" s="131"/>
-      <c r="K54" s="131"/>
-      <c r="L54" s="131"/>
-      <c r="M54" s="131"/>
-      <c r="N54" s="131"/>
-      <c r="O54" s="131"/>
-      <c r="P54" s="131"/>
-      <c r="Q54" s="125" t="s">
-        <v>70</v>
-      </c>
-      <c r="R54" s="127"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="110" t="s">
+        <v>62</v>
+      </c>
+      <c r="I54" s="111"/>
+      <c r="J54" s="111"/>
+      <c r="K54" s="111"/>
+      <c r="L54" s="111"/>
+      <c r="M54" s="111"/>
+      <c r="N54" s="111"/>
+      <c r="O54" s="111"/>
+      <c r="P54" s="111"/>
+      <c r="Q54" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="R54" s="96"/>
       <c r="S54" s="51"/>
       <c r="T54" s="53" t="s">
         <v>19</v>
@@ -3495,18 +3533,18 @@
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
-      <c r="G55" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="H55" s="90"/>
-      <c r="I55" s="141" t="s">
+      <c r="G55" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="H55" s="88"/>
+      <c r="I55" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="J55" s="102"/>
-      <c r="K55" s="102"/>
-      <c r="L55" s="102"/>
-      <c r="M55" s="102"/>
-      <c r="N55" s="102"/>
+      <c r="J55" s="90"/>
+      <c r="K55" s="90"/>
+      <c r="L55" s="90"/>
+      <c r="M55" s="90"/>
+      <c r="N55" s="90"/>
       <c r="O55" s="49"/>
       <c r="P55" s="49"/>
       <c r="Q55" s="49"/>
@@ -3524,21 +3562,21 @@
         <f t="shared" si="3"/>
         <v>43755</v>
       </c>
-      <c r="C56" s="90" t="s">
+      <c r="C56" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="90"/>
-      <c r="E56" s="90"/>
-      <c r="F56" s="90"/>
-      <c r="G56" s="90"/>
-      <c r="H56" s="118" t="s">
-        <v>71</v>
-      </c>
-      <c r="I56" s="119"/>
-      <c r="J56" s="119"/>
-      <c r="K56" s="119"/>
-      <c r="L56" s="119"/>
-      <c r="M56" s="119"/>
+      <c r="D56" s="88"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="88"/>
+      <c r="H56" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="I56" s="85"/>
+      <c r="J56" s="85"/>
+      <c r="K56" s="85"/>
+      <c r="L56" s="85"/>
+      <c r="M56" s="85"/>
       <c r="N56" s="49"/>
       <c r="O56" s="49"/>
       <c r="P56" s="49"/>
@@ -3570,11 +3608,11 @@
       <c r="M57" s="49"/>
       <c r="N57" s="49"/>
       <c r="O57" s="49"/>
-      <c r="P57" s="95" t="s">
+      <c r="P57" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="Q57" s="96"/>
-      <c r="R57" s="97"/>
+      <c r="Q57" s="82"/>
+      <c r="R57" s="83"/>
       <c r="S57" s="51"/>
       <c r="T57" s="51"/>
     </row>
@@ -3588,31 +3626,31 @@
       </c>
       <c r="C58" s="50"/>
       <c r="D58" s="49"/>
-      <c r="E58" s="107" t="s">
+      <c r="E58" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="F58" s="96"/>
-      <c r="G58" s="117"/>
-      <c r="H58" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="I58" s="90"/>
-      <c r="J58" s="101" t="s">
+      <c r="F58" s="82"/>
+      <c r="G58" s="126"/>
+      <c r="H58" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="I58" s="88"/>
+      <c r="J58" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="K58" s="102"/>
-      <c r="L58" s="102"/>
-      <c r="M58" s="102"/>
-      <c r="N58" s="102"/>
-      <c r="O58" s="102"/>
-      <c r="P58" s="103"/>
+      <c r="K58" s="90"/>
+      <c r="L58" s="90"/>
+      <c r="M58" s="90"/>
+      <c r="N58" s="90"/>
+      <c r="O58" s="90"/>
+      <c r="P58" s="91"/>
       <c r="Q58" s="20"/>
       <c r="R58" s="20"/>
       <c r="S58" s="51"/>
-      <c r="T58" s="106" t="s">
-        <v>72</v>
-      </c>
-      <c r="U58" s="106"/>
+      <c r="T58" s="120" t="s">
+        <v>71</v>
+      </c>
+      <c r="U58" s="120"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -3639,8 +3677,8 @@
       <c r="Q59" s="20"/>
       <c r="R59" s="20"/>
       <c r="S59" s="51"/>
-      <c r="T59" s="106"/>
-      <c r="U59" s="106"/>
+      <c r="T59" s="120"/>
+      <c r="U59" s="120"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B60"/>
@@ -3661,8 +3699,8 @@
       <c r="Q60"/>
       <c r="R60"/>
       <c r="S60"/>
-      <c r="T60" s="106"/>
-      <c r="U60" s="106"/>
+      <c r="T60" s="120"/>
+      <c r="U60" s="120"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
@@ -3736,11 +3774,11 @@
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
-      <c r="H62" s="140" t="s">
-        <v>73</v>
-      </c>
-      <c r="I62" s="140"/>
-      <c r="J62" s="140"/>
+      <c r="H62" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="I62" s="86"/>
+      <c r="J62" s="86"/>
       <c r="K62" s="19"/>
       <c r="L62" s="19"/>
       <c r="M62" s="19"/>
@@ -3760,22 +3798,22 @@
         <f>B53+7</f>
         <v>43759</v>
       </c>
-      <c r="C63" s="90" t="s">
+      <c r="C63" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="90"/>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="90"/>
+      <c r="D63" s="88"/>
+      <c r="E63" s="88"/>
+      <c r="F63" s="88"/>
+      <c r="G63" s="88"/>
       <c r="H63" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="I63" s="101" t="s">
-        <v>76</v>
-      </c>
-      <c r="J63" s="102"/>
-      <c r="K63" s="102"/>
-      <c r="L63" s="102"/>
+        <v>67</v>
+      </c>
+      <c r="I63" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="J63" s="90"/>
+      <c r="K63" s="90"/>
+      <c r="L63" s="90"/>
       <c r="M63" s="49"/>
       <c r="N63" s="49"/>
       <c r="O63" s="49"/>
@@ -3795,22 +3833,22 @@
         <f t="shared" ref="B64:B69" si="4">B54+7</f>
         <v>43760</v>
       </c>
-      <c r="C64" s="90" t="s">
+      <c r="C64" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="90"/>
-      <c r="E64" s="90"/>
-      <c r="F64" s="90"/>
-      <c r="G64" s="90"/>
-      <c r="H64" s="107" t="s">
-        <v>85</v>
-      </c>
-      <c r="I64" s="96"/>
-      <c r="J64" s="96"/>
-      <c r="K64" s="96"/>
-      <c r="L64" s="96"/>
-      <c r="M64" s="96"/>
-      <c r="N64" s="96"/>
+      <c r="D64" s="88"/>
+      <c r="E64" s="88"/>
+      <c r="F64" s="88"/>
+      <c r="G64" s="88"/>
+      <c r="H64" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="I64" s="82"/>
+      <c r="J64" s="82"/>
+      <c r="K64" s="82"/>
+      <c r="L64" s="82"/>
+      <c r="M64" s="82"/>
+      <c r="N64" s="82"/>
       <c r="O64" s="49"/>
       <c r="P64" s="49"/>
       <c r="Q64" s="49"/>
@@ -3859,25 +3897,25 @@
         <f t="shared" si="4"/>
         <v>43762</v>
       </c>
-      <c r="C66" s="90" t="s">
+      <c r="C66" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="90"/>
-      <c r="E66" s="90"/>
-      <c r="F66" s="90"/>
-      <c r="G66" s="90"/>
-      <c r="H66" s="120" t="s">
-        <v>77</v>
-      </c>
-      <c r="I66" s="121"/>
-      <c r="J66" s="121"/>
-      <c r="K66" s="121"/>
-      <c r="L66" s="121"/>
-      <c r="M66" s="121"/>
-      <c r="N66" s="121"/>
-      <c r="O66" s="121"/>
-      <c r="P66" s="121"/>
-      <c r="Q66" s="122"/>
+      <c r="D66" s="88"/>
+      <c r="E66" s="88"/>
+      <c r="F66" s="88"/>
+      <c r="G66" s="88"/>
+      <c r="H66" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="I66" s="106"/>
+      <c r="J66" s="106"/>
+      <c r="K66" s="106"/>
+      <c r="L66" s="106"/>
+      <c r="M66" s="106"/>
+      <c r="N66" s="106"/>
+      <c r="O66" s="106"/>
+      <c r="P66" s="106"/>
+      <c r="Q66" s="107"/>
       <c r="R66" s="20"/>
       <c r="S66" s="51"/>
       <c r="T66" s="18" t="s">
@@ -3892,26 +3930,26 @@
         <f t="shared" si="4"/>
         <v>43763</v>
       </c>
-      <c r="C67" s="101" t="s">
-        <v>77</v>
-      </c>
-      <c r="D67" s="102"/>
-      <c r="E67" s="102"/>
-      <c r="F67" s="102"/>
-      <c r="G67" s="102"/>
-      <c r="H67" s="102"/>
-      <c r="I67" s="102"/>
-      <c r="J67" s="103"/>
+      <c r="C67" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" s="90"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="90"/>
+      <c r="G67" s="90"/>
+      <c r="H67" s="90"/>
+      <c r="I67" s="90"/>
+      <c r="J67" s="91"/>
       <c r="K67" s="49"/>
-      <c r="L67" s="102" t="s">
+      <c r="L67" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M67" s="102"/>
-      <c r="N67" s="102"/>
-      <c r="O67" s="102"/>
-      <c r="P67" s="102"/>
-      <c r="Q67" s="102"/>
-      <c r="R67" s="103"/>
+      <c r="M67" s="90"/>
+      <c r="N67" s="90"/>
+      <c r="O67" s="90"/>
+      <c r="P67" s="90"/>
+      <c r="Q67" s="90"/>
+      <c r="R67" s="91"/>
       <c r="S67" s="51"/>
       <c r="T67" s="51"/>
     </row>
@@ -3950,24 +3988,24 @@
         <f t="shared" si="4"/>
         <v>43765</v>
       </c>
-      <c r="C69" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="D69" s="90"/>
-      <c r="E69" s="90"/>
-      <c r="F69" s="90"/>
-      <c r="G69" s="90"/>
-      <c r="H69" s="90"/>
-      <c r="I69" s="90"/>
-      <c r="J69" s="90"/>
-      <c r="K69" s="90"/>
-      <c r="L69" s="90"/>
-      <c r="M69" s="90"/>
-      <c r="N69" s="90"/>
-      <c r="O69" s="90"/>
-      <c r="P69" s="90"/>
-      <c r="Q69" s="90"/>
-      <c r="R69" s="90"/>
+      <c r="C69" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" s="88"/>
+      <c r="E69" s="88"/>
+      <c r="F69" s="88"/>
+      <c r="G69" s="88"/>
+      <c r="H69" s="88"/>
+      <c r="I69" s="88"/>
+      <c r="J69" s="88"/>
+      <c r="K69" s="88"/>
+      <c r="L69" s="88"/>
+      <c r="M69" s="88"/>
+      <c r="N69" s="88"/>
+      <c r="O69" s="88"/>
+      <c r="P69" s="88"/>
+      <c r="Q69" s="88"/>
+      <c r="R69" s="88"/>
       <c r="S69" s="51"/>
       <c r="T69" s="51"/>
     </row>
@@ -4060,27 +4098,27 @@
         <f>C62+1</f>
         <v>7</v>
       </c>
-      <c r="D72" s="91" t="s">
+      <c r="D72" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="91"/>
-      <c r="F72" s="91"/>
+      <c r="E72" s="87"/>
+      <c r="F72" s="87"/>
       <c r="G72" s="15"/>
-      <c r="H72" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="I72" s="104"/>
-      <c r="J72" s="104"/>
-      <c r="K72" s="104"/>
+      <c r="H72" s="122" t="s">
+        <v>81</v>
+      </c>
+      <c r="I72" s="122"/>
+      <c r="J72" s="122"/>
+      <c r="K72" s="122"/>
       <c r="L72" s="19"/>
-      <c r="M72" s="133" t="s">
-        <v>75</v>
-      </c>
-      <c r="N72" s="133"/>
-      <c r="O72" s="133"/>
-      <c r="P72" s="133"/>
-      <c r="Q72" s="133"/>
-      <c r="R72" s="133"/>
+      <c r="M72" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="N72" s="94"/>
+      <c r="O72" s="94"/>
+      <c r="P72" s="94"/>
+      <c r="Q72" s="94"/>
+      <c r="R72" s="94"/>
       <c r="S72" s="51"/>
       <c r="T72" s="51"/>
     </row>
@@ -4094,23 +4132,23 @@
       </c>
       <c r="C73" s="32"/>
       <c r="D73" s="20"/>
-      <c r="E73" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="F73" s="88"/>
-      <c r="G73" s="88"/>
-      <c r="H73" s="88"/>
-      <c r="I73" s="88"/>
-      <c r="J73" s="88"/>
+      <c r="E73" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="F73" s="103"/>
+      <c r="G73" s="103"/>
+      <c r="H73" s="103"/>
+      <c r="I73" s="103"/>
+      <c r="J73" s="103"/>
       <c r="K73" s="49"/>
-      <c r="L73" s="101" t="s">
-        <v>66</v>
-      </c>
-      <c r="M73" s="102"/>
-      <c r="N73" s="102"/>
-      <c r="O73" s="102"/>
-      <c r="P73" s="102"/>
-      <c r="Q73" s="103"/>
+      <c r="L73" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="M73" s="90"/>
+      <c r="N73" s="90"/>
+      <c r="O73" s="90"/>
+      <c r="P73" s="90"/>
+      <c r="Q73" s="91"/>
       <c r="R73" s="49"/>
       <c r="S73" s="51"/>
       <c r="T73" s="30" t="s">
@@ -4125,27 +4163,27 @@
         <f t="shared" ref="B74:B79" si="5">B64+7</f>
         <v>43767</v>
       </c>
-      <c r="C74" s="101" t="s">
-        <v>78</v>
-      </c>
-      <c r="D74" s="103"/>
-      <c r="E74" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="F74" s="88"/>
-      <c r="G74" s="88"/>
-      <c r="H74" s="88"/>
-      <c r="I74" s="88"/>
-      <c r="J74" s="88"/>
+      <c r="C74" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" s="91"/>
+      <c r="E74" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="F74" s="103"/>
+      <c r="G74" s="103"/>
+      <c r="H74" s="103"/>
+      <c r="I74" s="103"/>
+      <c r="J74" s="103"/>
       <c r="K74" s="49"/>
-      <c r="L74" s="101" t="s">
-        <v>66</v>
-      </c>
-      <c r="M74" s="102"/>
-      <c r="N74" s="102"/>
-      <c r="O74" s="102"/>
-      <c r="P74" s="102"/>
-      <c r="Q74" s="103"/>
+      <c r="L74" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="M74" s="90"/>
+      <c r="N74" s="90"/>
+      <c r="O74" s="90"/>
+      <c r="P74" s="90"/>
+      <c r="Q74" s="91"/>
       <c r="R74" s="20"/>
       <c r="S74" s="51"/>
       <c r="T74" s="53" t="s">
@@ -4162,23 +4200,23 @@
       </c>
       <c r="C75" s="32"/>
       <c r="D75" s="20"/>
-      <c r="E75" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="F75" s="88"/>
-      <c r="G75" s="88"/>
-      <c r="H75" s="88"/>
-      <c r="I75" s="88"/>
-      <c r="J75" s="88"/>
+      <c r="E75" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="F75" s="103"/>
+      <c r="G75" s="103"/>
+      <c r="H75" s="103"/>
+      <c r="I75" s="103"/>
+      <c r="J75" s="103"/>
       <c r="K75" s="49"/>
-      <c r="L75" s="101" t="s">
-        <v>66</v>
-      </c>
-      <c r="M75" s="102"/>
-      <c r="N75" s="102"/>
-      <c r="O75" s="102"/>
-      <c r="P75" s="102"/>
-      <c r="Q75" s="103"/>
+      <c r="L75" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="M75" s="90"/>
+      <c r="N75" s="90"/>
+      <c r="O75" s="90"/>
+      <c r="P75" s="90"/>
+      <c r="Q75" s="91"/>
       <c r="R75" s="49"/>
       <c r="S75" s="51"/>
       <c r="T75" s="52" t="s">
@@ -4193,24 +4231,24 @@
         <f t="shared" si="5"/>
         <v>43769</v>
       </c>
-      <c r="C76" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="D76" s="90"/>
-      <c r="E76" s="90"/>
-      <c r="F76" s="90"/>
-      <c r="G76" s="90"/>
-      <c r="H76" s="90"/>
-      <c r="I76" s="90"/>
-      <c r="J76" s="90"/>
-      <c r="K76" s="90"/>
-      <c r="L76" s="90"/>
-      <c r="M76" s="90"/>
-      <c r="N76" s="90"/>
-      <c r="O76" s="90"/>
-      <c r="P76" s="90"/>
-      <c r="Q76" s="90"/>
-      <c r="R76" s="90"/>
+      <c r="C76" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" s="88"/>
+      <c r="E76" s="88"/>
+      <c r="F76" s="88"/>
+      <c r="G76" s="88"/>
+      <c r="H76" s="88"/>
+      <c r="I76" s="88"/>
+      <c r="J76" s="88"/>
+      <c r="K76" s="88"/>
+      <c r="L76" s="88"/>
+      <c r="M76" s="88"/>
+      <c r="N76" s="88"/>
+      <c r="O76" s="88"/>
+      <c r="P76" s="88"/>
+      <c r="Q76" s="88"/>
+      <c r="R76" s="88"/>
       <c r="S76" s="51"/>
       <c r="T76" s="18" t="s">
         <v>21</v>
@@ -4226,23 +4264,23 @@
       </c>
       <c r="C77" s="32"/>
       <c r="D77" s="20"/>
-      <c r="E77" s="132" t="s">
-        <v>66</v>
-      </c>
-      <c r="F77" s="132"/>
-      <c r="G77" s="132"/>
-      <c r="H77" s="132"/>
-      <c r="I77" s="132"/>
-      <c r="J77" s="132"/>
+      <c r="E77" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="F77" s="93"/>
+      <c r="G77" s="93"/>
+      <c r="H77" s="93"/>
+      <c r="I77" s="93"/>
+      <c r="J77" s="93"/>
       <c r="K77" s="49"/>
-      <c r="L77" s="114" t="s">
-        <v>66</v>
-      </c>
-      <c r="M77" s="115"/>
-      <c r="N77" s="115"/>
-      <c r="O77" s="115"/>
-      <c r="P77" s="115"/>
-      <c r="Q77" s="116"/>
+      <c r="L77" s="123" t="s">
+        <v>65</v>
+      </c>
+      <c r="M77" s="124"/>
+      <c r="N77" s="124"/>
+      <c r="O77" s="124"/>
+      <c r="P77" s="124"/>
+      <c r="Q77" s="125"/>
       <c r="R77" s="20"/>
       <c r="S77" s="51"/>
       <c r="T77" s="51"/>
@@ -4257,23 +4295,23 @@
       </c>
       <c r="C78" s="50"/>
       <c r="D78" s="49"/>
-      <c r="E78" s="132" t="s">
-        <v>66</v>
-      </c>
-      <c r="F78" s="132"/>
-      <c r="G78" s="132"/>
-      <c r="H78" s="132"/>
-      <c r="I78" s="132"/>
-      <c r="J78" s="132"/>
+      <c r="E78" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="F78" s="93"/>
+      <c r="G78" s="93"/>
+      <c r="H78" s="93"/>
+      <c r="I78" s="93"/>
+      <c r="J78" s="93"/>
       <c r="K78" s="49"/>
-      <c r="L78" s="114" t="s">
-        <v>66</v>
-      </c>
-      <c r="M78" s="115"/>
-      <c r="N78" s="115"/>
-      <c r="O78" s="115"/>
-      <c r="P78" s="115"/>
-      <c r="Q78" s="116"/>
+      <c r="L78" s="123" t="s">
+        <v>65</v>
+      </c>
+      <c r="M78" s="124"/>
+      <c r="N78" s="124"/>
+      <c r="O78" s="124"/>
+      <c r="P78" s="124"/>
+      <c r="Q78" s="125"/>
       <c r="R78" s="49"/>
       <c r="S78" s="51"/>
       <c r="T78" s="51"/>
@@ -4286,24 +4324,24 @@
         <f t="shared" si="5"/>
         <v>43772</v>
       </c>
-      <c r="C79" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="D79" s="90"/>
-      <c r="E79" s="90"/>
-      <c r="F79" s="90"/>
-      <c r="G79" s="90"/>
-      <c r="H79" s="90"/>
-      <c r="I79" s="90"/>
-      <c r="J79" s="90"/>
-      <c r="K79" s="90"/>
-      <c r="L79" s="90"/>
-      <c r="M79" s="90"/>
-      <c r="N79" s="90"/>
-      <c r="O79" s="90"/>
-      <c r="P79" s="90"/>
-      <c r="Q79" s="90"/>
-      <c r="R79" s="90"/>
+      <c r="C79" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79" s="88"/>
+      <c r="E79" s="88"/>
+      <c r="F79" s="88"/>
+      <c r="G79" s="88"/>
+      <c r="H79" s="88"/>
+      <c r="I79" s="88"/>
+      <c r="J79" s="88"/>
+      <c r="K79" s="88"/>
+      <c r="L79" s="88"/>
+      <c r="M79" s="88"/>
+      <c r="N79" s="88"/>
+      <c r="O79" s="88"/>
+      <c r="P79" s="88"/>
+      <c r="Q79" s="88"/>
+      <c r="R79" s="88"/>
       <c r="S79" s="51"/>
       <c r="T79" s="51"/>
     </row>
@@ -4377,11 +4415,11 @@
         <f>C72+1</f>
         <v>8</v>
       </c>
-      <c r="D82" s="91" t="s">
+      <c r="D82" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="91"/>
-      <c r="F82" s="91"/>
+      <c r="E82" s="87"/>
+      <c r="F82" s="87"/>
       <c r="G82" s="15"/>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -4406,24 +4444,24 @@
         <f>B73+7</f>
         <v>43773</v>
       </c>
-      <c r="C83" s="90" t="s">
+      <c r="C83" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="90"/>
-      <c r="E83" s="90"/>
-      <c r="F83" s="90"/>
-      <c r="G83" s="90"/>
-      <c r="H83" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="I83" s="96"/>
-      <c r="J83" s="96"/>
-      <c r="K83" s="96"/>
-      <c r="L83" s="96"/>
-      <c r="M83" s="96"/>
-      <c r="N83" s="96"/>
-      <c r="O83" s="96"/>
-      <c r="P83" s="97"/>
+      <c r="D83" s="88"/>
+      <c r="E83" s="88"/>
+      <c r="F83" s="88"/>
+      <c r="G83" s="88"/>
+      <c r="H83" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="I83" s="82"/>
+      <c r="J83" s="82"/>
+      <c r="K83" s="82"/>
+      <c r="L83" s="82"/>
+      <c r="M83" s="82"/>
+      <c r="N83" s="82"/>
+      <c r="O83" s="82"/>
+      <c r="P83" s="83"/>
       <c r="Q83" s="20"/>
       <c r="R83" s="20"/>
       <c r="S83" s="51"/>
@@ -4440,28 +4478,28 @@
         <f t="shared" ref="B84:B89" si="6">B74+7</f>
         <v>43774</v>
       </c>
-      <c r="C84" s="90" t="s">
+      <c r="C84" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="90"/>
-      <c r="E84" s="90"/>
-      <c r="F84" s="90"/>
-      <c r="G84" s="90"/>
-      <c r="H84" s="90" t="s">
+      <c r="D84" s="88"/>
+      <c r="E84" s="88"/>
+      <c r="F84" s="88"/>
+      <c r="G84" s="88"/>
+      <c r="H84" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="I84" s="90"/>
-      <c r="J84" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="K84" s="96"/>
-      <c r="L84" s="96"/>
-      <c r="M84" s="96"/>
-      <c r="N84" s="96"/>
-      <c r="O84" s="96"/>
-      <c r="P84" s="96"/>
-      <c r="Q84" s="96"/>
-      <c r="R84" s="97"/>
+      <c r="I84" s="88"/>
+      <c r="J84" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="K84" s="82"/>
+      <c r="L84" s="82"/>
+      <c r="M84" s="82"/>
+      <c r="N84" s="82"/>
+      <c r="O84" s="82"/>
+      <c r="P84" s="82"/>
+      <c r="Q84" s="82"/>
+      <c r="R84" s="83"/>
       <c r="S84" s="51"/>
       <c r="T84" s="53" t="s">
         <v>19</v>
@@ -4478,17 +4516,17 @@
       </c>
       <c r="C85" s="32"/>
       <c r="D85" s="20"/>
-      <c r="E85" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="F85" s="96"/>
-      <c r="G85" s="96"/>
-      <c r="H85" s="96"/>
-      <c r="I85" s="96"/>
-      <c r="J85" s="96"/>
-      <c r="K85" s="96"/>
-      <c r="L85" s="96"/>
-      <c r="M85" s="97"/>
+      <c r="E85" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="F85" s="82"/>
+      <c r="G85" s="82"/>
+      <c r="H85" s="82"/>
+      <c r="I85" s="82"/>
+      <c r="J85" s="82"/>
+      <c r="K85" s="82"/>
+      <c r="L85" s="82"/>
+      <c r="M85" s="83"/>
       <c r="N85" s="49"/>
       <c r="O85" s="49"/>
       <c r="P85" s="49"/>
@@ -4508,13 +4546,13 @@
         <f t="shared" si="6"/>
         <v>43776</v>
       </c>
-      <c r="C86" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="D86" s="105"/>
-      <c r="E86" s="105"/>
-      <c r="F86" s="105"/>
-      <c r="G86" s="105"/>
+      <c r="C86" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" s="119"/>
+      <c r="E86" s="119"/>
+      <c r="F86" s="119"/>
+      <c r="G86" s="119"/>
       <c r="H86" s="49"/>
       <c r="I86" s="49"/>
       <c r="J86" s="49"/>
@@ -4596,24 +4634,24 @@
         <f t="shared" si="6"/>
         <v>43779</v>
       </c>
-      <c r="C89" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="D89" s="90"/>
-      <c r="E89" s="90"/>
-      <c r="F89" s="90"/>
-      <c r="G89" s="90"/>
-      <c r="H89" s="90"/>
-      <c r="I89" s="90"/>
-      <c r="J89" s="90"/>
-      <c r="K89" s="90"/>
-      <c r="L89" s="90"/>
-      <c r="M89" s="90"/>
-      <c r="N89" s="90"/>
-      <c r="O89" s="90"/>
-      <c r="P89" s="90"/>
-      <c r="Q89" s="90"/>
-      <c r="R89" s="90"/>
+      <c r="C89" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="D89" s="88"/>
+      <c r="E89" s="88"/>
+      <c r="F89" s="88"/>
+      <c r="G89" s="88"/>
+      <c r="H89" s="88"/>
+      <c r="I89" s="88"/>
+      <c r="J89" s="88"/>
+      <c r="K89" s="88"/>
+      <c r="L89" s="88"/>
+      <c r="M89" s="88"/>
+      <c r="N89" s="88"/>
+      <c r="O89" s="88"/>
+      <c r="P89" s="88"/>
+      <c r="Q89" s="88"/>
+      <c r="R89" s="88"/>
       <c r="S89" s="51"/>
       <c r="T89" s="51"/>
       <c r="U89" s="54"/>
@@ -4715,24 +4753,24 @@
         <f>B83+7</f>
         <v>43780</v>
       </c>
-      <c r="C93" s="90" t="s">
+      <c r="C93" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="90"/>
-      <c r="E93" s="90"/>
-      <c r="F93" s="90"/>
-      <c r="G93" s="90"/>
-      <c r="H93" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="I93" s="88"/>
-      <c r="J93" s="88"/>
-      <c r="K93" s="88"/>
-      <c r="L93" s="88"/>
-      <c r="M93" s="88"/>
-      <c r="N93" s="88"/>
-      <c r="O93" s="88"/>
-      <c r="P93" s="88"/>
+      <c r="D93" s="88"/>
+      <c r="E93" s="88"/>
+      <c r="F93" s="88"/>
+      <c r="G93" s="88"/>
+      <c r="H93" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="I93" s="103"/>
+      <c r="J93" s="103"/>
+      <c r="K93" s="103"/>
+      <c r="L93" s="103"/>
+      <c r="M93" s="103"/>
+      <c r="N93" s="103"/>
+      <c r="O93" s="103"/>
+      <c r="P93" s="103"/>
       <c r="Q93" s="20"/>
       <c r="R93" s="20"/>
       <c r="S93" s="51"/>
@@ -4749,24 +4787,24 @@
         <f t="shared" ref="B94:B99" si="7">B84+7</f>
         <v>43781</v>
       </c>
-      <c r="C94" s="90" t="s">
+      <c r="C94" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="90"/>
-      <c r="E94" s="90"/>
-      <c r="F94" s="90"/>
-      <c r="G94" s="90"/>
-      <c r="H94" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="I94" s="88"/>
-      <c r="J94" s="88"/>
-      <c r="K94" s="88"/>
-      <c r="L94" s="88"/>
-      <c r="M94" s="88"/>
-      <c r="N94" s="88"/>
-      <c r="O94" s="88"/>
-      <c r="P94" s="88"/>
+      <c r="D94" s="88"/>
+      <c r="E94" s="88"/>
+      <c r="F94" s="88"/>
+      <c r="G94" s="88"/>
+      <c r="H94" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="I94" s="103"/>
+      <c r="J94" s="103"/>
+      <c r="K94" s="103"/>
+      <c r="L94" s="103"/>
+      <c r="M94" s="103"/>
+      <c r="N94" s="103"/>
+      <c r="O94" s="103"/>
+      <c r="P94" s="103"/>
       <c r="Q94" s="20"/>
       <c r="R94" s="20"/>
       <c r="S94" s="51"/>
@@ -4813,20 +4851,20 @@
         <f t="shared" si="7"/>
         <v>43783</v>
       </c>
-      <c r="C96" s="90" t="s">
+      <c r="C96" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D96" s="90"/>
-      <c r="E96" s="90"/>
-      <c r="F96" s="90"/>
-      <c r="G96" s="90"/>
-      <c r="H96" s="101" t="s">
-        <v>86</v>
-      </c>
-      <c r="I96" s="102"/>
-      <c r="J96" s="102"/>
-      <c r="K96" s="102"/>
-      <c r="L96" s="103"/>
+      <c r="D96" s="88"/>
+      <c r="E96" s="88"/>
+      <c r="F96" s="88"/>
+      <c r="G96" s="88"/>
+      <c r="H96" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="I96" s="90"/>
+      <c r="J96" s="90"/>
+      <c r="K96" s="90"/>
+      <c r="L96" s="91"/>
       <c r="M96" s="20"/>
       <c r="N96" s="20"/>
       <c r="O96" s="20"/>
@@ -4903,24 +4941,24 @@
         <f t="shared" si="7"/>
         <v>43786</v>
       </c>
-      <c r="C99" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="D99" s="90"/>
-      <c r="E99" s="90"/>
-      <c r="F99" s="90"/>
-      <c r="G99" s="90"/>
-      <c r="H99" s="90"/>
-      <c r="I99" s="90"/>
-      <c r="J99" s="90"/>
-      <c r="K99" s="90"/>
-      <c r="L99" s="90"/>
-      <c r="M99" s="90"/>
-      <c r="N99" s="90"/>
-      <c r="O99" s="90"/>
-      <c r="P99" s="90"/>
-      <c r="Q99" s="90"/>
-      <c r="R99" s="90"/>
+      <c r="C99" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="D99" s="88"/>
+      <c r="E99" s="88"/>
+      <c r="F99" s="88"/>
+      <c r="G99" s="88"/>
+      <c r="H99" s="88"/>
+      <c r="I99" s="88"/>
+      <c r="J99" s="88"/>
+      <c r="K99" s="88"/>
+      <c r="L99" s="88"/>
+      <c r="M99" s="88"/>
+      <c r="N99" s="88"/>
+      <c r="O99" s="88"/>
+      <c r="P99" s="88"/>
+      <c r="Q99" s="88"/>
+      <c r="R99" s="88"/>
       <c r="S99" s="51"/>
       <c r="T99" s="51"/>
       <c r="U99" s="54"/>
@@ -5022,24 +5060,24 @@
         <f>B93+7</f>
         <v>43787</v>
       </c>
-      <c r="C103" s="90" t="s">
+      <c r="C103" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="90"/>
-      <c r="E103" s="90"/>
-      <c r="F103" s="90"/>
-      <c r="G103" s="90"/>
-      <c r="H103" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="I103" s="88"/>
-      <c r="J103" s="88"/>
-      <c r="K103" s="88"/>
-      <c r="L103" s="88"/>
-      <c r="M103" s="88"/>
-      <c r="N103" s="88"/>
-      <c r="O103" s="88"/>
-      <c r="P103" s="88"/>
+      <c r="D103" s="88"/>
+      <c r="E103" s="88"/>
+      <c r="F103" s="88"/>
+      <c r="G103" s="88"/>
+      <c r="H103" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="I103" s="103"/>
+      <c r="J103" s="103"/>
+      <c r="K103" s="103"/>
+      <c r="L103" s="103"/>
+      <c r="M103" s="103"/>
+      <c r="N103" s="103"/>
+      <c r="O103" s="103"/>
+      <c r="P103" s="103"/>
       <c r="Q103" s="20"/>
       <c r="R103" s="20"/>
       <c r="S103" s="51"/>
@@ -5056,24 +5094,24 @@
         <f t="shared" ref="B104:B109" si="8">B94+7</f>
         <v>43788</v>
       </c>
-      <c r="C104" s="90" t="s">
+      <c r="C104" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D104" s="90"/>
-      <c r="E104" s="90"/>
-      <c r="F104" s="90"/>
-      <c r="G104" s="90"/>
-      <c r="H104" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="I104" s="88"/>
-      <c r="J104" s="88"/>
-      <c r="K104" s="88"/>
-      <c r="L104" s="88"/>
-      <c r="M104" s="88"/>
-      <c r="N104" s="88"/>
-      <c r="O104" s="88"/>
-      <c r="P104" s="88"/>
+      <c r="D104" s="88"/>
+      <c r="E104" s="88"/>
+      <c r="F104" s="88"/>
+      <c r="G104" s="88"/>
+      <c r="H104" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="I104" s="103"/>
+      <c r="J104" s="103"/>
+      <c r="K104" s="103"/>
+      <c r="L104" s="103"/>
+      <c r="M104" s="103"/>
+      <c r="N104" s="103"/>
+      <c r="O104" s="103"/>
+      <c r="P104" s="103"/>
       <c r="Q104" s="20"/>
       <c r="R104" s="20"/>
       <c r="S104" s="51"/>
@@ -5090,19 +5128,19 @@
         <f t="shared" si="8"/>
         <v>43789</v>
       </c>
-      <c r="C105" s="111" t="s">
-        <v>86</v>
-      </c>
-      <c r="D105" s="112"/>
-      <c r="E105" s="112"/>
-      <c r="F105" s="112"/>
-      <c r="G105" s="112"/>
-      <c r="H105" s="112"/>
-      <c r="I105" s="112"/>
-      <c r="J105" s="112"/>
-      <c r="K105" s="112"/>
-      <c r="L105" s="112"/>
-      <c r="M105" s="113"/>
+      <c r="C105" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="D105" s="117"/>
+      <c r="E105" s="117"/>
+      <c r="F105" s="117"/>
+      <c r="G105" s="117"/>
+      <c r="H105" s="117"/>
+      <c r="I105" s="117"/>
+      <c r="J105" s="117"/>
+      <c r="K105" s="117"/>
+      <c r="L105" s="117"/>
+      <c r="M105" s="118"/>
       <c r="N105" s="49"/>
       <c r="O105" s="49"/>
       <c r="P105" s="49"/>
@@ -5122,24 +5160,24 @@
         <f t="shared" si="8"/>
         <v>43790</v>
       </c>
-      <c r="C106" s="90" t="s">
+      <c r="C106" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D106" s="90"/>
-      <c r="E106" s="90"/>
-      <c r="F106" s="90"/>
-      <c r="G106" s="90"/>
-      <c r="H106" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="I106" s="88"/>
-      <c r="J106" s="88"/>
-      <c r="K106" s="88"/>
-      <c r="L106" s="88"/>
-      <c r="M106" s="88"/>
-      <c r="N106" s="88"/>
-      <c r="O106" s="88"/>
-      <c r="P106" s="88"/>
+      <c r="D106" s="88"/>
+      <c r="E106" s="88"/>
+      <c r="F106" s="88"/>
+      <c r="G106" s="88"/>
+      <c r="H106" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="I106" s="103"/>
+      <c r="J106" s="103"/>
+      <c r="K106" s="103"/>
+      <c r="L106" s="103"/>
+      <c r="M106" s="103"/>
+      <c r="N106" s="103"/>
+      <c r="O106" s="103"/>
+      <c r="P106" s="103"/>
       <c r="Q106" s="20"/>
       <c r="R106" s="20"/>
       <c r="S106" s="51"/>
@@ -5156,19 +5194,19 @@
         <f t="shared" si="8"/>
         <v>43791</v>
       </c>
-      <c r="C107" s="98" t="s">
-        <v>86</v>
-      </c>
-      <c r="D107" s="99"/>
-      <c r="E107" s="99"/>
-      <c r="F107" s="99"/>
-      <c r="G107" s="99"/>
-      <c r="H107" s="99"/>
-      <c r="I107" s="99"/>
-      <c r="J107" s="99"/>
-      <c r="K107" s="99"/>
-      <c r="L107" s="99"/>
-      <c r="M107" s="100"/>
+      <c r="C107" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="D107" s="101"/>
+      <c r="E107" s="101"/>
+      <c r="F107" s="101"/>
+      <c r="G107" s="101"/>
+      <c r="H107" s="101"/>
+      <c r="I107" s="101"/>
+      <c r="J107" s="101"/>
+      <c r="K107" s="101"/>
+      <c r="L107" s="101"/>
+      <c r="M107" s="102"/>
       <c r="N107" s="20"/>
       <c r="O107" s="20"/>
       <c r="P107" s="20"/>
@@ -5214,24 +5252,24 @@
         <f t="shared" si="8"/>
         <v>43793</v>
       </c>
-      <c r="C109" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="D109" s="90"/>
-      <c r="E109" s="90"/>
-      <c r="F109" s="90"/>
-      <c r="G109" s="90"/>
-      <c r="H109" s="90"/>
-      <c r="I109" s="90"/>
-      <c r="J109" s="90"/>
-      <c r="K109" s="90"/>
-      <c r="L109" s="90"/>
-      <c r="M109" s="90"/>
-      <c r="N109" s="90"/>
-      <c r="O109" s="90"/>
-      <c r="P109" s="90"/>
-      <c r="Q109" s="90"/>
-      <c r="R109" s="90"/>
+      <c r="C109" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="D109" s="88"/>
+      <c r="E109" s="88"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="88"/>
+      <c r="H109" s="88"/>
+      <c r="I109" s="88"/>
+      <c r="J109" s="88"/>
+      <c r="K109" s="88"/>
+      <c r="L109" s="88"/>
+      <c r="M109" s="88"/>
+      <c r="N109" s="88"/>
+      <c r="O109" s="88"/>
+      <c r="P109" s="88"/>
+      <c r="Q109" s="88"/>
+      <c r="R109" s="88"/>
       <c r="S109" s="51"/>
       <c r="T109" s="51"/>
       <c r="U109" s="54"/>
@@ -5306,11 +5344,11 @@
         <f>C102+1</f>
         <v>11</v>
       </c>
-      <c r="D112" s="91" t="s">
+      <c r="D112" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="E112" s="91"/>
-      <c r="F112" s="91"/>
+      <c r="E112" s="87"/>
+      <c r="F112" s="87"/>
       <c r="G112" s="15"/>
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
@@ -5335,21 +5373,21 @@
         <f>B103+7</f>
         <v>43794</v>
       </c>
-      <c r="C113" s="90" t="s">
+      <c r="C113" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D113" s="90"/>
-      <c r="E113" s="90"/>
-      <c r="F113" s="90"/>
-      <c r="G113" s="90"/>
-      <c r="H113" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="I113" s="88"/>
-      <c r="J113" s="88"/>
-      <c r="K113" s="88"/>
-      <c r="L113" s="88"/>
-      <c r="M113" s="88"/>
+      <c r="D113" s="88"/>
+      <c r="E113" s="88"/>
+      <c r="F113" s="88"/>
+      <c r="G113" s="88"/>
+      <c r="H113" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="I113" s="103"/>
+      <c r="J113" s="103"/>
+      <c r="K113" s="103"/>
+      <c r="L113" s="103"/>
+      <c r="M113" s="103"/>
       <c r="N113" s="20"/>
       <c r="O113" s="20"/>
       <c r="P113" s="20"/>
@@ -5369,21 +5407,21 @@
         <f t="shared" ref="B114:B119" si="9">B104+7</f>
         <v>43795</v>
       </c>
-      <c r="C114" s="90" t="s">
+      <c r="C114" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D114" s="90"/>
-      <c r="E114" s="90"/>
-      <c r="F114" s="90"/>
-      <c r="G114" s="90"/>
-      <c r="H114" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="I114" s="88"/>
-      <c r="J114" s="88"/>
-      <c r="K114" s="88"/>
-      <c r="L114" s="88"/>
-      <c r="M114" s="88"/>
+      <c r="D114" s="88"/>
+      <c r="E114" s="88"/>
+      <c r="F114" s="88"/>
+      <c r="G114" s="88"/>
+      <c r="H114" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="I114" s="103"/>
+      <c r="J114" s="103"/>
+      <c r="K114" s="103"/>
+      <c r="L114" s="103"/>
+      <c r="M114" s="103"/>
       <c r="N114" s="20"/>
       <c r="O114" s="49"/>
       <c r="P114" s="49"/>
@@ -5409,18 +5447,18 @@
       <c r="F115" s="49"/>
       <c r="G115" s="49"/>
       <c r="H115" s="20"/>
-      <c r="I115" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="J115" s="96"/>
-      <c r="K115" s="96"/>
-      <c r="L115" s="96"/>
-      <c r="M115" s="96"/>
-      <c r="N115" s="96"/>
-      <c r="O115" s="96"/>
-      <c r="P115" s="96"/>
-      <c r="Q115" s="96"/>
-      <c r="R115" s="97"/>
+      <c r="I115" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="J115" s="82"/>
+      <c r="K115" s="82"/>
+      <c r="L115" s="82"/>
+      <c r="M115" s="82"/>
+      <c r="N115" s="82"/>
+      <c r="O115" s="82"/>
+      <c r="P115" s="82"/>
+      <c r="Q115" s="82"/>
+      <c r="R115" s="83"/>
       <c r="S115" s="51"/>
       <c r="T115" s="52" t="s">
         <v>20</v>
@@ -5435,24 +5473,24 @@
         <f t="shared" si="9"/>
         <v>43797</v>
       </c>
-      <c r="C116" s="90" t="s">
+      <c r="C116" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D116" s="90"/>
-      <c r="E116" s="90"/>
-      <c r="F116" s="90"/>
-      <c r="G116" s="90"/>
-      <c r="H116" s="101" t="s">
-        <v>89</v>
-      </c>
-      <c r="I116" s="103"/>
-      <c r="J116" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="K116" s="96"/>
-      <c r="L116" s="96"/>
-      <c r="M116" s="96"/>
-      <c r="N116" s="97"/>
+      <c r="D116" s="88"/>
+      <c r="E116" s="88"/>
+      <c r="F116" s="88"/>
+      <c r="G116" s="88"/>
+      <c r="H116" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="I116" s="91"/>
+      <c r="J116" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="K116" s="82"/>
+      <c r="L116" s="82"/>
+      <c r="M116" s="82"/>
+      <c r="N116" s="83"/>
       <c r="O116" s="20"/>
       <c r="P116" s="20"/>
       <c r="Q116" s="20"/>
@@ -5527,24 +5565,24 @@
         <f t="shared" si="9"/>
         <v>43800</v>
       </c>
-      <c r="C119" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="D119" s="90"/>
-      <c r="E119" s="90"/>
-      <c r="F119" s="90"/>
-      <c r="G119" s="90"/>
-      <c r="H119" s="90"/>
-      <c r="I119" s="90"/>
-      <c r="J119" s="90"/>
-      <c r="K119" s="90"/>
-      <c r="L119" s="90"/>
-      <c r="M119" s="90"/>
-      <c r="N119" s="90"/>
-      <c r="O119" s="90"/>
-      <c r="P119" s="90"/>
-      <c r="Q119" s="90"/>
-      <c r="R119" s="90"/>
+      <c r="C119" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="D119" s="88"/>
+      <c r="E119" s="88"/>
+      <c r="F119" s="88"/>
+      <c r="G119" s="88"/>
+      <c r="H119" s="88"/>
+      <c r="I119" s="88"/>
+      <c r="J119" s="88"/>
+      <c r="K119" s="88"/>
+      <c r="L119" s="88"/>
+      <c r="M119" s="88"/>
+      <c r="N119" s="88"/>
+      <c r="O119" s="88"/>
+      <c r="P119" s="88"/>
+      <c r="Q119" s="88"/>
+      <c r="R119" s="88"/>
       <c r="S119" s="51"/>
       <c r="T119" s="51"/>
       <c r="U119" s="54"/>
@@ -5619,11 +5657,11 @@
         <f>C112+1</f>
         <v>12</v>
       </c>
-      <c r="D122" s="104" t="s">
+      <c r="D122" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="E122" s="104"/>
-      <c r="F122" s="104"/>
+      <c r="E122" s="122"/>
+      <c r="F122" s="122"/>
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
@@ -5648,24 +5686,24 @@
         <f>B113+7</f>
         <v>43801</v>
       </c>
-      <c r="C123" s="109" t="s">
+      <c r="C123" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="109"/>
-      <c r="E123" s="109"/>
-      <c r="F123" s="109"/>
-      <c r="G123" s="109"/>
-      <c r="H123" s="94" t="s">
-        <v>87</v>
-      </c>
-      <c r="I123" s="94"/>
-      <c r="J123" s="94"/>
-      <c r="K123" s="94"/>
-      <c r="L123" s="94"/>
-      <c r="M123" s="94"/>
-      <c r="N123" s="94"/>
-      <c r="O123" s="94"/>
-      <c r="P123" s="94"/>
+      <c r="D123" s="114"/>
+      <c r="E123" s="114"/>
+      <c r="F123" s="114"/>
+      <c r="G123" s="114"/>
+      <c r="H123" s="112" t="s">
+        <v>86</v>
+      </c>
+      <c r="I123" s="112"/>
+      <c r="J123" s="112"/>
+      <c r="K123" s="112"/>
+      <c r="L123" s="112"/>
+      <c r="M123" s="112"/>
+      <c r="N123" s="112"/>
+      <c r="O123" s="112"/>
+      <c r="P123" s="112"/>
       <c r="Q123" s="20"/>
       <c r="R123" s="20"/>
       <c r="S123" s="51"/>
@@ -5682,24 +5720,24 @@
         <f t="shared" ref="B124:B129" si="10">B114+7</f>
         <v>43802</v>
       </c>
-      <c r="C124" s="109" t="s">
+      <c r="C124" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="D124" s="109"/>
-      <c r="E124" s="109"/>
-      <c r="F124" s="109"/>
-      <c r="G124" s="109"/>
-      <c r="H124" s="94" t="s">
-        <v>65</v>
-      </c>
-      <c r="I124" s="94"/>
-      <c r="J124" s="94"/>
-      <c r="K124" s="94"/>
-      <c r="L124" s="94"/>
-      <c r="M124" s="94"/>
-      <c r="N124" s="94"/>
-      <c r="O124" s="94"/>
-      <c r="P124" s="94"/>
+      <c r="D124" s="114"/>
+      <c r="E124" s="114"/>
+      <c r="F124" s="114"/>
+      <c r="G124" s="114"/>
+      <c r="H124" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="I124" s="112"/>
+      <c r="J124" s="112"/>
+      <c r="K124" s="112"/>
+      <c r="L124" s="112"/>
+      <c r="M124" s="112"/>
+      <c r="N124" s="112"/>
+      <c r="O124" s="112"/>
+      <c r="P124" s="112"/>
       <c r="Q124" s="20"/>
       <c r="R124" s="20"/>
       <c r="S124" s="51"/>
@@ -5716,24 +5754,24 @@
         <f t="shared" si="10"/>
         <v>43803</v>
       </c>
-      <c r="C125" s="94" t="s">
-        <v>65</v>
-      </c>
-      <c r="D125" s="94"/>
-      <c r="E125" s="94"/>
-      <c r="F125" s="94"/>
-      <c r="G125" s="94"/>
-      <c r="H125" s="94"/>
-      <c r="I125" s="94"/>
-      <c r="J125" s="94"/>
-      <c r="K125" s="94"/>
+      <c r="C125" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="D125" s="112"/>
+      <c r="E125" s="112"/>
+      <c r="F125" s="112"/>
+      <c r="G125" s="112"/>
+      <c r="H125" s="112"/>
+      <c r="I125" s="112"/>
+      <c r="J125" s="112"/>
+      <c r="K125" s="112"/>
       <c r="L125" s="49"/>
-      <c r="M125" s="94" t="s">
-        <v>65</v>
-      </c>
-      <c r="N125" s="94"/>
-      <c r="O125" s="94"/>
-      <c r="P125" s="94"/>
+      <c r="M125" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="N125" s="112"/>
+      <c r="O125" s="112"/>
+      <c r="P125" s="112"/>
       <c r="Q125" s="49"/>
       <c r="R125" s="49"/>
       <c r="S125" s="51"/>
@@ -5750,24 +5788,24 @@
         <f t="shared" si="10"/>
         <v>43804</v>
       </c>
-      <c r="C126" s="110" t="s">
-        <v>80</v>
-      </c>
-      <c r="D126" s="110"/>
-      <c r="E126" s="110"/>
-      <c r="F126" s="110"/>
-      <c r="G126" s="110"/>
-      <c r="H126" s="94" t="s">
-        <v>87</v>
-      </c>
-      <c r="I126" s="94"/>
-      <c r="J126" s="94"/>
-      <c r="K126" s="94"/>
-      <c r="L126" s="94"/>
-      <c r="M126" s="94"/>
-      <c r="N126" s="94"/>
-      <c r="O126" s="94"/>
-      <c r="P126" s="94"/>
+      <c r="C126" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="D126" s="115"/>
+      <c r="E126" s="115"/>
+      <c r="F126" s="115"/>
+      <c r="G126" s="115"/>
+      <c r="H126" s="112" t="s">
+        <v>86</v>
+      </c>
+      <c r="I126" s="112"/>
+      <c r="J126" s="112"/>
+      <c r="K126" s="112"/>
+      <c r="L126" s="112"/>
+      <c r="M126" s="112"/>
+      <c r="N126" s="112"/>
+      <c r="O126" s="112"/>
+      <c r="P126" s="112"/>
       <c r="Q126" s="20"/>
       <c r="R126" s="20"/>
       <c r="S126" s="51"/>
@@ -5840,24 +5878,24 @@
         <f t="shared" si="10"/>
         <v>43807</v>
       </c>
-      <c r="C129" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="D129" s="90"/>
-      <c r="E129" s="90"/>
-      <c r="F129" s="90"/>
-      <c r="G129" s="90"/>
-      <c r="H129" s="90"/>
-      <c r="I129" s="90"/>
-      <c r="J129" s="90"/>
-      <c r="K129" s="90"/>
-      <c r="L129" s="90"/>
-      <c r="M129" s="90"/>
-      <c r="N129" s="90"/>
-      <c r="O129" s="90"/>
-      <c r="P129" s="90"/>
-      <c r="Q129" s="90"/>
-      <c r="R129" s="90"/>
+      <c r="C129" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="D129" s="88"/>
+      <c r="E129" s="88"/>
+      <c r="F129" s="88"/>
+      <c r="G129" s="88"/>
+      <c r="H129" s="88"/>
+      <c r="I129" s="88"/>
+      <c r="J129" s="88"/>
+      <c r="K129" s="88"/>
+      <c r="L129" s="88"/>
+      <c r="M129" s="88"/>
+      <c r="N129" s="88"/>
+      <c r="O129" s="88"/>
+      <c r="P129" s="88"/>
+      <c r="Q129" s="88"/>
+      <c r="R129" s="88"/>
       <c r="S129" s="51"/>
       <c r="T129" s="51"/>
       <c r="U129" s="54"/>
@@ -5959,24 +5997,24 @@
         <f>B123+7</f>
         <v>43808</v>
       </c>
-      <c r="C133" s="90" t="s">
+      <c r="C133" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D133" s="90"/>
-      <c r="E133" s="90"/>
-      <c r="F133" s="90"/>
-      <c r="G133" s="90"/>
-      <c r="H133" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="I133" s="88"/>
-      <c r="J133" s="88"/>
-      <c r="K133" s="89"/>
-      <c r="L133" s="89"/>
-      <c r="M133" s="89"/>
-      <c r="N133" s="89"/>
-      <c r="O133" s="89"/>
-      <c r="P133" s="88"/>
+      <c r="D133" s="88"/>
+      <c r="E133" s="88"/>
+      <c r="F133" s="88"/>
+      <c r="G133" s="88"/>
+      <c r="H133" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="I133" s="103"/>
+      <c r="J133" s="103"/>
+      <c r="K133" s="140"/>
+      <c r="L133" s="140"/>
+      <c r="M133" s="140"/>
+      <c r="N133" s="140"/>
+      <c r="O133" s="140"/>
+      <c r="P133" s="103"/>
       <c r="Q133" s="20"/>
       <c r="R133" s="20"/>
       <c r="S133" s="51"/>
@@ -5993,27 +6031,27 @@
         <f t="shared" ref="B134:B139" si="11">B124+7</f>
         <v>43809</v>
       </c>
-      <c r="C134" s="90" t="s">
+      <c r="C134" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D134" s="90"/>
-      <c r="E134" s="90"/>
-      <c r="F134" s="90"/>
-      <c r="G134" s="90"/>
-      <c r="H134" s="92" t="s">
+      <c r="D134" s="88"/>
+      <c r="E134" s="88"/>
+      <c r="F134" s="88"/>
+      <c r="G134" s="88"/>
+      <c r="H134" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="I134" s="147"/>
+      <c r="J134" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="I134" s="93"/>
-      <c r="J134" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="K134" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="L134" s="73"/>
-      <c r="M134" s="73"/>
-      <c r="N134" s="73"/>
-      <c r="O134" s="73"/>
+      <c r="K134" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="L134" s="146"/>
+      <c r="M134" s="146"/>
+      <c r="N134" s="146"/>
+      <c r="O134" s="146"/>
       <c r="P134" s="20"/>
       <c r="Q134" s="20"/>
       <c r="R134" s="20"/>
@@ -6031,24 +6069,24 @@
         <f t="shared" si="11"/>
         <v>43810</v>
       </c>
-      <c r="C135" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="D135" s="87"/>
-      <c r="E135" s="87"/>
-      <c r="F135" s="87"/>
-      <c r="G135" s="87"/>
-      <c r="H135" s="87"/>
-      <c r="I135" s="87"/>
-      <c r="J135" s="87"/>
-      <c r="K135" s="136"/>
+      <c r="C135" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="D135" s="98"/>
+      <c r="E135" s="98"/>
+      <c r="F135" s="98"/>
+      <c r="G135" s="98"/>
+      <c r="H135" s="98"/>
+      <c r="I135" s="98"/>
+      <c r="J135" s="98"/>
+      <c r="K135" s="99"/>
       <c r="L135" s="49"/>
-      <c r="M135" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="N135" s="73"/>
-      <c r="O135" s="73"/>
-      <c r="P135" s="73"/>
+      <c r="M135" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="N135" s="146"/>
+      <c r="O135" s="146"/>
+      <c r="P135" s="146"/>
       <c r="Q135" s="49"/>
       <c r="R135" s="49"/>
       <c r="S135" s="51"/>
@@ -6065,24 +6103,24 @@
         <f t="shared" si="11"/>
         <v>43811</v>
       </c>
-      <c r="C136" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="D136" s="90"/>
-      <c r="E136" s="90"/>
-      <c r="F136" s="90"/>
-      <c r="G136" s="90"/>
-      <c r="H136" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="I136" s="72"/>
-      <c r="J136" s="72"/>
-      <c r="K136" s="72"/>
-      <c r="L136" s="72"/>
-      <c r="M136" s="72"/>
-      <c r="N136" s="72"/>
-      <c r="O136" s="72"/>
-      <c r="P136" s="72"/>
+      <c r="C136" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" s="88"/>
+      <c r="E136" s="88"/>
+      <c r="F136" s="88"/>
+      <c r="G136" s="88"/>
+      <c r="H136" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="I136" s="103"/>
+      <c r="J136" s="103"/>
+      <c r="K136" s="103"/>
+      <c r="L136" s="103"/>
+      <c r="M136" s="103"/>
+      <c r="N136" s="103"/>
+      <c r="O136" s="103"/>
+      <c r="P136" s="103"/>
       <c r="Q136" s="20"/>
       <c r="R136" s="20"/>
       <c r="S136" s="51"/>
@@ -6155,24 +6193,24 @@
         <f t="shared" si="11"/>
         <v>43814</v>
       </c>
-      <c r="C139" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="D139" s="90"/>
-      <c r="E139" s="90"/>
-      <c r="F139" s="90"/>
-      <c r="G139" s="90"/>
-      <c r="H139" s="90"/>
-      <c r="I139" s="90"/>
-      <c r="J139" s="90"/>
-      <c r="K139" s="90"/>
-      <c r="L139" s="90"/>
-      <c r="M139" s="90"/>
-      <c r="N139" s="90"/>
-      <c r="O139" s="90"/>
-      <c r="P139" s="90"/>
-      <c r="Q139" s="90"/>
-      <c r="R139" s="90"/>
+      <c r="C139" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="D139" s="88"/>
+      <c r="E139" s="88"/>
+      <c r="F139" s="88"/>
+      <c r="G139" s="88"/>
+      <c r="H139" s="88"/>
+      <c r="I139" s="88"/>
+      <c r="J139" s="88"/>
+      <c r="K139" s="88"/>
+      <c r="L139" s="88"/>
+      <c r="M139" s="88"/>
+      <c r="N139" s="88"/>
+      <c r="O139" s="88"/>
+      <c r="P139" s="88"/>
+      <c r="Q139" s="88"/>
+      <c r="R139" s="88"/>
       <c r="S139" s="51"/>
       <c r="T139" s="51"/>
       <c r="U139" s="54"/>
@@ -6267,19 +6305,19 @@
         <f>C132+1</f>
         <v>14</v>
       </c>
-      <c r="D142" s="91" t="s">
+      <c r="D142" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E142" s="91"/>
-      <c r="F142" s="91"/>
+      <c r="E142" s="87"/>
+      <c r="F142" s="87"/>
       <c r="G142" s="15"/>
-      <c r="H142" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="I142" s="91"/>
-      <c r="J142" s="91"/>
-      <c r="K142" s="91"/>
-      <c r="L142" s="91"/>
+      <c r="H142" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="I142" s="87"/>
+      <c r="J142" s="87"/>
+      <c r="K142" s="87"/>
+      <c r="L142" s="87"/>
       <c r="M142" s="19"/>
       <c r="N142" s="19"/>
       <c r="O142" s="19"/>
@@ -6298,24 +6336,24 @@
         <f>B133+7</f>
         <v>43815</v>
       </c>
-      <c r="C143" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="D143" s="72"/>
-      <c r="E143" s="72"/>
-      <c r="F143" s="137" t="s">
-        <v>87</v>
-      </c>
-      <c r="G143" s="87"/>
-      <c r="H143" s="87"/>
-      <c r="I143" s="87"/>
-      <c r="J143" s="87"/>
-      <c r="K143" s="87"/>
-      <c r="L143" s="87"/>
-      <c r="M143" s="87"/>
-      <c r="N143" s="87"/>
-      <c r="O143" s="87"/>
-      <c r="P143" s="136"/>
+      <c r="C143" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="D143" s="103"/>
+      <c r="E143" s="103"/>
+      <c r="F143" s="145" t="s">
+        <v>86</v>
+      </c>
+      <c r="G143" s="98"/>
+      <c r="H143" s="98"/>
+      <c r="I143" s="98"/>
+      <c r="J143" s="98"/>
+      <c r="K143" s="98"/>
+      <c r="L143" s="98"/>
+      <c r="M143" s="98"/>
+      <c r="N143" s="98"/>
+      <c r="O143" s="98"/>
+      <c r="P143" s="99"/>
       <c r="Q143" s="49"/>
       <c r="R143" s="49"/>
       <c r="S143" s="51"/>
@@ -6332,22 +6370,22 @@
         <f t="shared" ref="B144:B149" si="12">B134+7</f>
         <v>43816</v>
       </c>
-      <c r="C144" s="83" t="s">
-        <v>87</v>
-      </c>
-      <c r="D144" s="84"/>
-      <c r="E144" s="84"/>
-      <c r="F144" s="84"/>
-      <c r="G144" s="84"/>
-      <c r="H144" s="84"/>
-      <c r="I144" s="84"/>
-      <c r="J144" s="84"/>
-      <c r="K144" s="84"/>
-      <c r="L144" s="84"/>
-      <c r="M144" s="84"/>
-      <c r="N144" s="84"/>
-      <c r="O144" s="84"/>
-      <c r="P144" s="85"/>
+      <c r="C144" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="D144" s="101"/>
+      <c r="E144" s="101"/>
+      <c r="F144" s="101"/>
+      <c r="G144" s="101"/>
+      <c r="H144" s="101"/>
+      <c r="I144" s="101"/>
+      <c r="J144" s="101"/>
+      <c r="K144" s="101"/>
+      <c r="L144" s="101"/>
+      <c r="M144" s="101"/>
+      <c r="N144" s="101"/>
+      <c r="O144" s="101"/>
+      <c r="P144" s="102"/>
       <c r="Q144" s="20"/>
       <c r="R144" s="20"/>
       <c r="S144" s="51"/>
@@ -6364,22 +6402,22 @@
         <f t="shared" si="12"/>
         <v>43817</v>
       </c>
-      <c r="C145" s="83" t="s">
-        <v>87</v>
-      </c>
-      <c r="D145" s="84"/>
-      <c r="E145" s="84"/>
-      <c r="F145" s="84"/>
-      <c r="G145" s="84"/>
-      <c r="H145" s="84"/>
-      <c r="I145" s="84"/>
-      <c r="J145" s="84"/>
-      <c r="K145" s="84"/>
-      <c r="L145" s="84"/>
-      <c r="M145" s="84"/>
-      <c r="N145" s="84"/>
-      <c r="O145" s="84"/>
-      <c r="P145" s="85"/>
+      <c r="C145" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="D145" s="101"/>
+      <c r="E145" s="101"/>
+      <c r="F145" s="101"/>
+      <c r="G145" s="101"/>
+      <c r="H145" s="101"/>
+      <c r="I145" s="101"/>
+      <c r="J145" s="101"/>
+      <c r="K145" s="101"/>
+      <c r="L145" s="101"/>
+      <c r="M145" s="101"/>
+      <c r="N145" s="101"/>
+      <c r="O145" s="101"/>
+      <c r="P145" s="102"/>
       <c r="Q145" s="49"/>
       <c r="R145" s="49"/>
       <c r="S145" s="51"/>
@@ -6396,18 +6434,18 @@
         <f t="shared" si="12"/>
         <v>43818</v>
       </c>
-      <c r="C146" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="D146" s="87"/>
-      <c r="E146" s="87"/>
-      <c r="F146" s="87"/>
-      <c r="G146" s="87"/>
-      <c r="H146" s="87"/>
-      <c r="I146" s="87"/>
-      <c r="J146" s="87"/>
-      <c r="K146" s="87"/>
-      <c r="L146" s="87"/>
+      <c r="C146" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="D146" s="98"/>
+      <c r="E146" s="98"/>
+      <c r="F146" s="98"/>
+      <c r="G146" s="98"/>
+      <c r="H146" s="98"/>
+      <c r="I146" s="98"/>
+      <c r="J146" s="98"/>
+      <c r="K146" s="98"/>
+      <c r="L146" s="98"/>
       <c r="M146" s="20"/>
       <c r="N146" s="20"/>
       <c r="O146" s="20"/>
@@ -6621,22 +6659,22 @@
         <f>B143+7</f>
         <v>43822</v>
       </c>
-      <c r="C153" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="D153" s="84"/>
-      <c r="E153" s="84"/>
-      <c r="F153" s="84"/>
-      <c r="G153" s="84"/>
-      <c r="H153" s="84"/>
-      <c r="I153" s="84"/>
-      <c r="J153" s="84"/>
-      <c r="K153" s="84"/>
-      <c r="L153" s="84"/>
-      <c r="M153" s="84"/>
-      <c r="N153" s="84"/>
-      <c r="O153" s="84"/>
-      <c r="P153" s="85"/>
+      <c r="C153" s="137" t="s">
+        <v>87</v>
+      </c>
+      <c r="D153" s="138"/>
+      <c r="E153" s="138"/>
+      <c r="F153" s="138"/>
+      <c r="G153" s="138"/>
+      <c r="H153" s="138"/>
+      <c r="I153" s="138"/>
+      <c r="J153" s="138"/>
+      <c r="K153" s="138"/>
+      <c r="L153" s="138"/>
+      <c r="M153" s="138"/>
+      <c r="N153" s="138"/>
+      <c r="O153" s="138"/>
+      <c r="P153" s="139"/>
       <c r="Q153" s="49"/>
       <c r="R153" s="49"/>
       <c r="S153" s="51"/>
@@ -6653,22 +6691,22 @@
         <f t="shared" ref="B154:B159" si="13">B144+7</f>
         <v>43823</v>
       </c>
-      <c r="C154" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="D154" s="84"/>
-      <c r="E154" s="84"/>
-      <c r="F154" s="84"/>
-      <c r="G154" s="84"/>
-      <c r="H154" s="84"/>
-      <c r="I154" s="84"/>
-      <c r="J154" s="84"/>
-      <c r="K154" s="84"/>
-      <c r="L154" s="84"/>
-      <c r="M154" s="84"/>
-      <c r="N154" s="84"/>
-      <c r="O154" s="84"/>
-      <c r="P154" s="85"/>
+      <c r="C154" s="137" t="s">
+        <v>87</v>
+      </c>
+      <c r="D154" s="138"/>
+      <c r="E154" s="138"/>
+      <c r="F154" s="138"/>
+      <c r="G154" s="138"/>
+      <c r="H154" s="138"/>
+      <c r="I154" s="138"/>
+      <c r="J154" s="138"/>
+      <c r="K154" s="138"/>
+      <c r="L154" s="138"/>
+      <c r="M154" s="138"/>
+      <c r="N154" s="138"/>
+      <c r="O154" s="138"/>
+      <c r="P154" s="139"/>
       <c r="Q154" s="20"/>
       <c r="R154" s="20"/>
       <c r="S154" s="51"/>
@@ -6685,24 +6723,24 @@
         <f t="shared" si="13"/>
         <v>43824</v>
       </c>
-      <c r="C155" s="108" t="s">
-        <v>53</v>
-      </c>
-      <c r="D155" s="108"/>
-      <c r="E155" s="108"/>
-      <c r="F155" s="108"/>
-      <c r="G155" s="108"/>
-      <c r="H155" s="108"/>
-      <c r="I155" s="108"/>
-      <c r="J155" s="108"/>
-      <c r="K155" s="108"/>
-      <c r="L155" s="108"/>
-      <c r="M155" s="108"/>
-      <c r="N155" s="108"/>
-      <c r="O155" s="108"/>
-      <c r="P155" s="108"/>
-      <c r="Q155" s="108"/>
-      <c r="R155" s="108"/>
+      <c r="C155" s="113" t="s">
+        <v>52</v>
+      </c>
+      <c r="D155" s="113"/>
+      <c r="E155" s="113"/>
+      <c r="F155" s="113"/>
+      <c r="G155" s="113"/>
+      <c r="H155" s="113"/>
+      <c r="I155" s="113"/>
+      <c r="J155" s="113"/>
+      <c r="K155" s="113"/>
+      <c r="L155" s="113"/>
+      <c r="M155" s="113"/>
+      <c r="N155" s="113"/>
+      <c r="O155" s="113"/>
+      <c r="P155" s="113"/>
+      <c r="Q155" s="113"/>
+      <c r="R155" s="113"/>
       <c r="S155" s="51"/>
       <c r="T155" s="52" t="s">
         <v>20</v>
@@ -6717,22 +6755,22 @@
         <f t="shared" si="13"/>
         <v>43825</v>
       </c>
-      <c r="C156" s="108"/>
-      <c r="D156" s="108"/>
-      <c r="E156" s="108"/>
-      <c r="F156" s="108"/>
-      <c r="G156" s="108"/>
-      <c r="H156" s="108"/>
-      <c r="I156" s="108"/>
-      <c r="J156" s="108"/>
-      <c r="K156" s="108"/>
-      <c r="L156" s="108"/>
-      <c r="M156" s="108"/>
-      <c r="N156" s="108"/>
-      <c r="O156" s="108"/>
-      <c r="P156" s="108"/>
-      <c r="Q156" s="108"/>
-      <c r="R156" s="108"/>
+      <c r="C156" s="113"/>
+      <c r="D156" s="113"/>
+      <c r="E156" s="113"/>
+      <c r="F156" s="113"/>
+      <c r="G156" s="113"/>
+      <c r="H156" s="113"/>
+      <c r="I156" s="113"/>
+      <c r="J156" s="113"/>
+      <c r="K156" s="113"/>
+      <c r="L156" s="113"/>
+      <c r="M156" s="113"/>
+      <c r="N156" s="113"/>
+      <c r="O156" s="113"/>
+      <c r="P156" s="113"/>
+      <c r="Q156" s="113"/>
+      <c r="R156" s="113"/>
       <c r="S156" s="51"/>
       <c r="T156" s="18" t="s">
         <v>21</v>
@@ -6747,22 +6785,22 @@
         <f t="shared" si="13"/>
         <v>43826</v>
       </c>
-      <c r="C157" s="108"/>
-      <c r="D157" s="108"/>
-      <c r="E157" s="108"/>
-      <c r="F157" s="108"/>
-      <c r="G157" s="108"/>
-      <c r="H157" s="108"/>
-      <c r="I157" s="108"/>
-      <c r="J157" s="108"/>
-      <c r="K157" s="108"/>
-      <c r="L157" s="108"/>
-      <c r="M157" s="108"/>
-      <c r="N157" s="108"/>
-      <c r="O157" s="108"/>
-      <c r="P157" s="108"/>
-      <c r="Q157" s="108"/>
-      <c r="R157" s="108"/>
+      <c r="C157" s="113"/>
+      <c r="D157" s="113"/>
+      <c r="E157" s="113"/>
+      <c r="F157" s="113"/>
+      <c r="G157" s="113"/>
+      <c r="H157" s="113"/>
+      <c r="I157" s="113"/>
+      <c r="J157" s="113"/>
+      <c r="K157" s="113"/>
+      <c r="L157" s="113"/>
+      <c r="M157" s="113"/>
+      <c r="N157" s="113"/>
+      <c r="O157" s="113"/>
+      <c r="P157" s="113"/>
+      <c r="Q157" s="113"/>
+      <c r="R157" s="113"/>
       <c r="S157" s="51"/>
       <c r="T157" s="51"/>
       <c r="U157" s="54"/>
@@ -6775,22 +6813,22 @@
         <f t="shared" si="13"/>
         <v>43827</v>
       </c>
-      <c r="C158" s="108"/>
-      <c r="D158" s="108"/>
-      <c r="E158" s="108"/>
-      <c r="F158" s="108"/>
-      <c r="G158" s="108"/>
-      <c r="H158" s="108"/>
-      <c r="I158" s="108"/>
-      <c r="J158" s="108"/>
-      <c r="K158" s="108"/>
-      <c r="L158" s="108"/>
-      <c r="M158" s="108"/>
-      <c r="N158" s="108"/>
-      <c r="O158" s="108"/>
-      <c r="P158" s="108"/>
-      <c r="Q158" s="108"/>
-      <c r="R158" s="108"/>
+      <c r="C158" s="113"/>
+      <c r="D158" s="113"/>
+      <c r="E158" s="113"/>
+      <c r="F158" s="113"/>
+      <c r="G158" s="113"/>
+      <c r="H158" s="113"/>
+      <c r="I158" s="113"/>
+      <c r="J158" s="113"/>
+      <c r="K158" s="113"/>
+      <c r="L158" s="113"/>
+      <c r="M158" s="113"/>
+      <c r="N158" s="113"/>
+      <c r="O158" s="113"/>
+      <c r="P158" s="113"/>
+      <c r="Q158" s="113"/>
+      <c r="R158" s="113"/>
       <c r="S158" s="51"/>
       <c r="T158" s="51"/>
       <c r="U158" s="54"/>
@@ -6803,22 +6841,22 @@
         <f t="shared" si="13"/>
         <v>43828</v>
       </c>
-      <c r="C159" s="108"/>
-      <c r="D159" s="108"/>
-      <c r="E159" s="108"/>
-      <c r="F159" s="108"/>
-      <c r="G159" s="108"/>
-      <c r="H159" s="108"/>
-      <c r="I159" s="108"/>
-      <c r="J159" s="108"/>
-      <c r="K159" s="108"/>
-      <c r="L159" s="108"/>
-      <c r="M159" s="108"/>
-      <c r="N159" s="108"/>
-      <c r="O159" s="108"/>
-      <c r="P159" s="108"/>
-      <c r="Q159" s="108"/>
-      <c r="R159" s="108"/>
+      <c r="C159" s="113"/>
+      <c r="D159" s="113"/>
+      <c r="E159" s="113"/>
+      <c r="F159" s="113"/>
+      <c r="G159" s="113"/>
+      <c r="H159" s="113"/>
+      <c r="I159" s="113"/>
+      <c r="J159" s="113"/>
+      <c r="K159" s="113"/>
+      <c r="L159" s="113"/>
+      <c r="M159" s="113"/>
+      <c r="N159" s="113"/>
+      <c r="O159" s="113"/>
+      <c r="P159" s="113"/>
+      <c r="Q159" s="113"/>
+      <c r="R159" s="113"/>
       <c r="S159" s="51"/>
       <c r="T159" s="51"/>
       <c r="U159" s="54"/>
@@ -6940,24 +6978,24 @@
         <f>B153+7</f>
         <v>43829</v>
       </c>
-      <c r="C163" s="108" t="s">
-        <v>54</v>
-      </c>
-      <c r="D163" s="108"/>
-      <c r="E163" s="108"/>
-      <c r="F163" s="108"/>
-      <c r="G163" s="108"/>
-      <c r="H163" s="108"/>
-      <c r="I163" s="108"/>
-      <c r="J163" s="108"/>
-      <c r="K163" s="108"/>
-      <c r="L163" s="108"/>
-      <c r="M163" s="108"/>
-      <c r="N163" s="108"/>
-      <c r="O163" s="108"/>
-      <c r="P163" s="108"/>
-      <c r="Q163" s="108"/>
-      <c r="R163" s="108"/>
+      <c r="C163" s="113" t="s">
+        <v>53</v>
+      </c>
+      <c r="D163" s="113"/>
+      <c r="E163" s="113"/>
+      <c r="F163" s="113"/>
+      <c r="G163" s="113"/>
+      <c r="H163" s="113"/>
+      <c r="I163" s="113"/>
+      <c r="J163" s="113"/>
+      <c r="K163" s="113"/>
+      <c r="L163" s="113"/>
+      <c r="M163" s="113"/>
+      <c r="N163" s="113"/>
+      <c r="O163" s="113"/>
+      <c r="P163" s="113"/>
+      <c r="Q163" s="113"/>
+      <c r="R163" s="113"/>
       <c r="S163" s="51"/>
       <c r="T163" s="30" t="s">
         <v>22</v>
@@ -6972,22 +7010,22 @@
         <f t="shared" ref="B164:B169" si="14">B154+7</f>
         <v>43830</v>
       </c>
-      <c r="C164" s="108"/>
-      <c r="D164" s="108"/>
-      <c r="E164" s="108"/>
-      <c r="F164" s="108"/>
-      <c r="G164" s="108"/>
-      <c r="H164" s="108"/>
-      <c r="I164" s="108"/>
-      <c r="J164" s="108"/>
-      <c r="K164" s="108"/>
-      <c r="L164" s="108"/>
-      <c r="M164" s="108"/>
-      <c r="N164" s="108"/>
-      <c r="O164" s="108"/>
-      <c r="P164" s="108"/>
-      <c r="Q164" s="108"/>
-      <c r="R164" s="108"/>
+      <c r="C164" s="113"/>
+      <c r="D164" s="113"/>
+      <c r="E164" s="113"/>
+      <c r="F164" s="113"/>
+      <c r="G164" s="113"/>
+      <c r="H164" s="113"/>
+      <c r="I164" s="113"/>
+      <c r="J164" s="113"/>
+      <c r="K164" s="113"/>
+      <c r="L164" s="113"/>
+      <c r="M164" s="113"/>
+      <c r="N164" s="113"/>
+      <c r="O164" s="113"/>
+      <c r="P164" s="113"/>
+      <c r="Q164" s="113"/>
+      <c r="R164" s="113"/>
       <c r="S164" s="51"/>
       <c r="T164" s="53" t="s">
         <v>19</v>
@@ -7002,22 +7040,22 @@
         <f t="shared" si="14"/>
         <v>43831</v>
       </c>
-      <c r="C165" s="108"/>
-      <c r="D165" s="108"/>
-      <c r="E165" s="108"/>
-      <c r="F165" s="108"/>
-      <c r="G165" s="108"/>
-      <c r="H165" s="108"/>
-      <c r="I165" s="108"/>
-      <c r="J165" s="108"/>
-      <c r="K165" s="108"/>
-      <c r="L165" s="108"/>
-      <c r="M165" s="108"/>
-      <c r="N165" s="108"/>
-      <c r="O165" s="108"/>
-      <c r="P165" s="108"/>
-      <c r="Q165" s="108"/>
-      <c r="R165" s="108"/>
+      <c r="C165" s="113"/>
+      <c r="D165" s="113"/>
+      <c r="E165" s="113"/>
+      <c r="F165" s="113"/>
+      <c r="G165" s="113"/>
+      <c r="H165" s="113"/>
+      <c r="I165" s="113"/>
+      <c r="J165" s="113"/>
+      <c r="K165" s="113"/>
+      <c r="L165" s="113"/>
+      <c r="M165" s="113"/>
+      <c r="N165" s="113"/>
+      <c r="O165" s="113"/>
+      <c r="P165" s="113"/>
+      <c r="Q165" s="113"/>
+      <c r="R165" s="113"/>
       <c r="S165" s="51"/>
       <c r="T165" s="52" t="s">
         <v>20</v>
@@ -7032,22 +7070,22 @@
         <f t="shared" si="14"/>
         <v>43832</v>
       </c>
-      <c r="C166" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="D166" s="84"/>
-      <c r="E166" s="84"/>
-      <c r="F166" s="84"/>
-      <c r="G166" s="84"/>
-      <c r="H166" s="84"/>
-      <c r="I166" s="84"/>
-      <c r="J166" s="84"/>
-      <c r="K166" s="84"/>
-      <c r="L166" s="84"/>
-      <c r="M166" s="84"/>
-      <c r="N166" s="84"/>
-      <c r="O166" s="84"/>
-      <c r="P166" s="85"/>
+      <c r="C166" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="D166" s="101"/>
+      <c r="E166" s="101"/>
+      <c r="F166" s="101"/>
+      <c r="G166" s="101"/>
+      <c r="H166" s="101"/>
+      <c r="I166" s="101"/>
+      <c r="J166" s="101"/>
+      <c r="K166" s="101"/>
+      <c r="L166" s="101"/>
+      <c r="M166" s="101"/>
+      <c r="N166" s="101"/>
+      <c r="O166" s="101"/>
+      <c r="P166" s="102"/>
       <c r="Q166" s="49"/>
       <c r="R166" s="20"/>
       <c r="S166" s="51"/>
@@ -7064,22 +7102,22 @@
         <f t="shared" si="14"/>
         <v>43833</v>
       </c>
-      <c r="C167" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="D167" s="84"/>
-      <c r="E167" s="84"/>
-      <c r="F167" s="84"/>
-      <c r="G167" s="84"/>
-      <c r="H167" s="84"/>
-      <c r="I167" s="84"/>
-      <c r="J167" s="84"/>
-      <c r="K167" s="84"/>
-      <c r="L167" s="84"/>
-      <c r="M167" s="84"/>
-      <c r="N167" s="84"/>
-      <c r="O167" s="84"/>
-      <c r="P167" s="85"/>
+      <c r="C167" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="D167" s="101"/>
+      <c r="E167" s="101"/>
+      <c r="F167" s="101"/>
+      <c r="G167" s="101"/>
+      <c r="H167" s="101"/>
+      <c r="I167" s="101"/>
+      <c r="J167" s="101"/>
+      <c r="K167" s="101"/>
+      <c r="L167" s="101"/>
+      <c r="M167" s="101"/>
+      <c r="N167" s="101"/>
+      <c r="O167" s="101"/>
+      <c r="P167" s="102"/>
       <c r="Q167" s="49"/>
       <c r="R167" s="49"/>
       <c r="S167" s="51"/>
@@ -7094,22 +7132,22 @@
         <f t="shared" si="14"/>
         <v>43834</v>
       </c>
-      <c r="C168" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="D168" s="84"/>
-      <c r="E168" s="84"/>
-      <c r="F168" s="84"/>
-      <c r="G168" s="84"/>
-      <c r="H168" s="84"/>
-      <c r="I168" s="84"/>
-      <c r="J168" s="84"/>
-      <c r="K168" s="84"/>
-      <c r="L168" s="84"/>
-      <c r="M168" s="84"/>
-      <c r="N168" s="84"/>
-      <c r="O168" s="84"/>
-      <c r="P168" s="85"/>
+      <c r="C168" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="D168" s="101"/>
+      <c r="E168" s="101"/>
+      <c r="F168" s="101"/>
+      <c r="G168" s="101"/>
+      <c r="H168" s="101"/>
+      <c r="I168" s="101"/>
+      <c r="J168" s="101"/>
+      <c r="K168" s="101"/>
+      <c r="L168" s="101"/>
+      <c r="M168" s="101"/>
+      <c r="N168" s="101"/>
+      <c r="O168" s="101"/>
+      <c r="P168" s="102"/>
       <c r="Q168" s="49"/>
       <c r="R168" s="49"/>
       <c r="S168" s="51"/>
@@ -7241,22 +7279,22 @@
         <f>B163+7</f>
         <v>43836</v>
       </c>
-      <c r="C173" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="D173" s="84"/>
-      <c r="E173" s="84"/>
-      <c r="F173" s="84"/>
-      <c r="G173" s="84"/>
-      <c r="H173" s="84"/>
-      <c r="I173" s="84"/>
-      <c r="J173" s="84"/>
-      <c r="K173" s="84"/>
-      <c r="L173" s="84"/>
-      <c r="M173" s="84"/>
-      <c r="N173" s="84"/>
-      <c r="O173" s="84"/>
-      <c r="P173" s="85"/>
+      <c r="C173" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="D173" s="101"/>
+      <c r="E173" s="101"/>
+      <c r="F173" s="101"/>
+      <c r="G173" s="101"/>
+      <c r="H173" s="101"/>
+      <c r="I173" s="101"/>
+      <c r="J173" s="101"/>
+      <c r="K173" s="101"/>
+      <c r="L173" s="101"/>
+      <c r="M173" s="101"/>
+      <c r="N173" s="101"/>
+      <c r="O173" s="101"/>
+      <c r="P173" s="102"/>
       <c r="Q173" s="49"/>
       <c r="R173" s="49"/>
       <c r="S173" s="51"/>
@@ -7273,22 +7311,22 @@
         <f t="shared" ref="B174:B179" si="15">B164+7</f>
         <v>43837</v>
       </c>
-      <c r="C174" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="D174" s="84"/>
-      <c r="E174" s="84"/>
-      <c r="F174" s="84"/>
-      <c r="G174" s="84"/>
-      <c r="H174" s="84"/>
-      <c r="I174" s="84"/>
-      <c r="J174" s="84"/>
-      <c r="K174" s="84"/>
-      <c r="L174" s="84"/>
-      <c r="M174" s="84"/>
-      <c r="N174" s="84"/>
-      <c r="O174" s="84"/>
-      <c r="P174" s="85"/>
+      <c r="C174" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="D174" s="101"/>
+      <c r="E174" s="101"/>
+      <c r="F174" s="101"/>
+      <c r="G174" s="101"/>
+      <c r="H174" s="101"/>
+      <c r="I174" s="101"/>
+      <c r="J174" s="101"/>
+      <c r="K174" s="101"/>
+      <c r="L174" s="101"/>
+      <c r="M174" s="101"/>
+      <c r="N174" s="101"/>
+      <c r="O174" s="101"/>
+      <c r="P174" s="102"/>
       <c r="Q174" s="49"/>
       <c r="R174" s="49"/>
       <c r="S174" s="51"/>
@@ -7305,22 +7343,22 @@
         <f t="shared" si="15"/>
         <v>43838</v>
       </c>
-      <c r="C175" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="D175" s="84"/>
-      <c r="E175" s="84"/>
-      <c r="F175" s="84"/>
-      <c r="G175" s="84"/>
-      <c r="H175" s="84"/>
-      <c r="I175" s="84"/>
-      <c r="J175" s="84"/>
-      <c r="K175" s="84"/>
-      <c r="L175" s="84"/>
-      <c r="M175" s="84"/>
-      <c r="N175" s="84"/>
-      <c r="O175" s="84"/>
-      <c r="P175" s="85"/>
+      <c r="C175" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="D175" s="101"/>
+      <c r="E175" s="101"/>
+      <c r="F175" s="101"/>
+      <c r="G175" s="101"/>
+      <c r="H175" s="101"/>
+      <c r="I175" s="101"/>
+      <c r="J175" s="101"/>
+      <c r="K175" s="101"/>
+      <c r="L175" s="101"/>
+      <c r="M175" s="101"/>
+      <c r="N175" s="101"/>
+      <c r="O175" s="101"/>
+      <c r="P175" s="102"/>
       <c r="Q175" s="49"/>
       <c r="R175" s="49"/>
       <c r="S175" s="51"/>
@@ -7337,22 +7375,22 @@
         <f t="shared" si="15"/>
         <v>43839</v>
       </c>
-      <c r="C176" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="D176" s="84"/>
-      <c r="E176" s="84"/>
-      <c r="F176" s="84"/>
-      <c r="G176" s="84"/>
-      <c r="H176" s="84"/>
-      <c r="I176" s="84"/>
-      <c r="J176" s="84"/>
-      <c r="K176" s="84"/>
-      <c r="L176" s="84"/>
-      <c r="M176" s="84"/>
-      <c r="N176" s="84"/>
-      <c r="O176" s="84"/>
-      <c r="P176" s="85"/>
+      <c r="C176" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="D176" s="101"/>
+      <c r="E176" s="101"/>
+      <c r="F176" s="101"/>
+      <c r="G176" s="101"/>
+      <c r="H176" s="101"/>
+      <c r="I176" s="101"/>
+      <c r="J176" s="101"/>
+      <c r="K176" s="101"/>
+      <c r="L176" s="101"/>
+      <c r="M176" s="101"/>
+      <c r="N176" s="101"/>
+      <c r="O176" s="101"/>
+      <c r="P176" s="102"/>
       <c r="Q176" s="49"/>
       <c r="R176" s="49"/>
       <c r="S176" s="51"/>
@@ -7369,22 +7407,22 @@
         <f t="shared" si="15"/>
         <v>43840</v>
       </c>
-      <c r="C177" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="D177" s="84"/>
-      <c r="E177" s="84"/>
-      <c r="F177" s="84"/>
-      <c r="G177" s="84"/>
-      <c r="H177" s="84"/>
-      <c r="I177" s="84"/>
-      <c r="J177" s="84"/>
-      <c r="K177" s="84"/>
-      <c r="L177" s="84"/>
-      <c r="M177" s="84"/>
-      <c r="N177" s="84"/>
-      <c r="O177" s="84"/>
-      <c r="P177" s="85"/>
+      <c r="C177" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="D177" s="101"/>
+      <c r="E177" s="101"/>
+      <c r="F177" s="101"/>
+      <c r="G177" s="101"/>
+      <c r="H177" s="101"/>
+      <c r="I177" s="101"/>
+      <c r="J177" s="101"/>
+      <c r="K177" s="101"/>
+      <c r="L177" s="101"/>
+      <c r="M177" s="101"/>
+      <c r="N177" s="101"/>
+      <c r="O177" s="101"/>
+      <c r="P177" s="102"/>
       <c r="Q177" s="49"/>
       <c r="R177" s="49"/>
       <c r="S177" s="51"/>
@@ -7399,22 +7437,22 @@
         <f t="shared" si="15"/>
         <v>43841</v>
       </c>
-      <c r="C178" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="D178" s="84"/>
-      <c r="E178" s="84"/>
-      <c r="F178" s="84"/>
-      <c r="G178" s="84"/>
-      <c r="H178" s="84"/>
-      <c r="I178" s="84"/>
-      <c r="J178" s="84"/>
-      <c r="K178" s="84"/>
-      <c r="L178" s="84"/>
-      <c r="M178" s="84"/>
-      <c r="N178" s="84"/>
-      <c r="O178" s="84"/>
-      <c r="P178" s="85"/>
+      <c r="C178" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="D178" s="101"/>
+      <c r="E178" s="101"/>
+      <c r="F178" s="101"/>
+      <c r="G178" s="101"/>
+      <c r="H178" s="101"/>
+      <c r="I178" s="101"/>
+      <c r="J178" s="101"/>
+      <c r="K178" s="101"/>
+      <c r="L178" s="101"/>
+      <c r="M178" s="101"/>
+      <c r="N178" s="101"/>
+      <c r="O178" s="101"/>
+      <c r="P178" s="102"/>
       <c r="Q178" s="49"/>
       <c r="R178" s="49"/>
       <c r="S178" s="51"/>
@@ -7544,22 +7582,22 @@
         <f>B173+7</f>
         <v>43843</v>
       </c>
-      <c r="C183" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="D183" s="84"/>
-      <c r="E183" s="84"/>
-      <c r="F183" s="84"/>
-      <c r="G183" s="84"/>
-      <c r="H183" s="84"/>
-      <c r="I183" s="84"/>
-      <c r="J183" s="84"/>
-      <c r="K183" s="84"/>
-      <c r="L183" s="84"/>
-      <c r="M183" s="84"/>
-      <c r="N183" s="84"/>
-      <c r="O183" s="84"/>
-      <c r="P183" s="85"/>
+      <c r="C183" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="D183" s="101"/>
+      <c r="E183" s="101"/>
+      <c r="F183" s="101"/>
+      <c r="G183" s="101"/>
+      <c r="H183" s="101"/>
+      <c r="I183" s="101"/>
+      <c r="J183" s="101"/>
+      <c r="K183" s="101"/>
+      <c r="L183" s="101"/>
+      <c r="M183" s="101"/>
+      <c r="N183" s="101"/>
+      <c r="O183" s="101"/>
+      <c r="P183" s="102"/>
       <c r="Q183" s="49"/>
       <c r="R183" s="49"/>
       <c r="S183" s="51"/>
@@ -7575,22 +7613,22 @@
         <f t="shared" ref="B184:B189" si="16">B174+7</f>
         <v>43844</v>
       </c>
-      <c r="C184" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="D184" s="84"/>
-      <c r="E184" s="84"/>
-      <c r="F184" s="84"/>
-      <c r="G184" s="84"/>
-      <c r="H184" s="84"/>
-      <c r="I184" s="84"/>
-      <c r="J184" s="84"/>
-      <c r="K184" s="84"/>
-      <c r="L184" s="84"/>
-      <c r="M184" s="84"/>
-      <c r="N184" s="84"/>
-      <c r="O184" s="84"/>
-      <c r="P184" s="85"/>
+      <c r="C184" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="D184" s="101"/>
+      <c r="E184" s="101"/>
+      <c r="F184" s="101"/>
+      <c r="G184" s="101"/>
+      <c r="H184" s="101"/>
+      <c r="I184" s="101"/>
+      <c r="J184" s="101"/>
+      <c r="K184" s="101"/>
+      <c r="L184" s="101"/>
+      <c r="M184" s="101"/>
+      <c r="N184" s="101"/>
+      <c r="O184" s="101"/>
+      <c r="P184" s="102"/>
       <c r="Q184" s="49"/>
       <c r="R184" s="49"/>
       <c r="S184" s="51"/>
@@ -7606,22 +7644,22 @@
         <f t="shared" si="16"/>
         <v>43845</v>
       </c>
-      <c r="C185" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="D185" s="84"/>
-      <c r="E185" s="84"/>
-      <c r="F185" s="84"/>
-      <c r="G185" s="84"/>
-      <c r="H185" s="84"/>
-      <c r="I185" s="84"/>
-      <c r="J185" s="84"/>
-      <c r="K185" s="84"/>
-      <c r="L185" s="84"/>
-      <c r="M185" s="84"/>
-      <c r="N185" s="84"/>
-      <c r="O185" s="84"/>
-      <c r="P185" s="85"/>
+      <c r="C185" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="D185" s="101"/>
+      <c r="E185" s="101"/>
+      <c r="F185" s="101"/>
+      <c r="G185" s="101"/>
+      <c r="H185" s="101"/>
+      <c r="I185" s="101"/>
+      <c r="J185" s="101"/>
+      <c r="K185" s="101"/>
+      <c r="L185" s="101"/>
+      <c r="M185" s="101"/>
+      <c r="N185" s="101"/>
+      <c r="O185" s="101"/>
+      <c r="P185" s="102"/>
       <c r="Q185" s="49"/>
       <c r="R185" s="49"/>
       <c r="S185" s="51"/>
@@ -7637,24 +7675,24 @@
         <f t="shared" si="16"/>
         <v>43846</v>
       </c>
-      <c r="C186" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="D186" s="75"/>
-      <c r="E186" s="75"/>
-      <c r="F186" s="75"/>
-      <c r="G186" s="75"/>
-      <c r="H186" s="75"/>
-      <c r="I186" s="75"/>
-      <c r="J186" s="75"/>
-      <c r="K186" s="75"/>
-      <c r="L186" s="75"/>
-      <c r="M186" s="75"/>
-      <c r="N186" s="75"/>
-      <c r="O186" s="75"/>
-      <c r="P186" s="75"/>
-      <c r="Q186" s="75"/>
-      <c r="R186" s="76"/>
+      <c r="C186" s="128" t="s">
+        <v>91</v>
+      </c>
+      <c r="D186" s="129"/>
+      <c r="E186" s="129"/>
+      <c r="F186" s="129"/>
+      <c r="G186" s="129"/>
+      <c r="H186" s="129"/>
+      <c r="I186" s="129"/>
+      <c r="J186" s="129"/>
+      <c r="K186" s="129"/>
+      <c r="L186" s="129"/>
+      <c r="M186" s="129"/>
+      <c r="N186" s="129"/>
+      <c r="O186" s="129"/>
+      <c r="P186" s="129"/>
+      <c r="Q186" s="129"/>
+      <c r="R186" s="130"/>
       <c r="S186" s="51"/>
       <c r="T186" s="18" t="s">
         <v>21</v>
@@ -7668,22 +7706,22 @@
         <f t="shared" si="16"/>
         <v>43847</v>
       </c>
-      <c r="C187" s="77"/>
-      <c r="D187" s="78"/>
-      <c r="E187" s="78"/>
-      <c r="F187" s="78"/>
-      <c r="G187" s="78"/>
-      <c r="H187" s="78"/>
-      <c r="I187" s="78"/>
-      <c r="J187" s="78"/>
-      <c r="K187" s="78"/>
-      <c r="L187" s="78"/>
-      <c r="M187" s="78"/>
-      <c r="N187" s="78"/>
-      <c r="O187" s="78"/>
-      <c r="P187" s="78"/>
-      <c r="Q187" s="78"/>
-      <c r="R187" s="79"/>
+      <c r="C187" s="131"/>
+      <c r="D187" s="132"/>
+      <c r="E187" s="132"/>
+      <c r="F187" s="132"/>
+      <c r="G187" s="132"/>
+      <c r="H187" s="132"/>
+      <c r="I187" s="132"/>
+      <c r="J187" s="132"/>
+      <c r="K187" s="132"/>
+      <c r="L187" s="132"/>
+      <c r="M187" s="132"/>
+      <c r="N187" s="132"/>
+      <c r="O187" s="132"/>
+      <c r="P187" s="132"/>
+      <c r="Q187" s="132"/>
+      <c r="R187" s="133"/>
       <c r="S187" s="51"/>
       <c r="T187" s="51"/>
     </row>
@@ -7695,22 +7733,22 @@
         <f t="shared" si="16"/>
         <v>43848</v>
       </c>
-      <c r="C188" s="77"/>
-      <c r="D188" s="78"/>
-      <c r="E188" s="78"/>
-      <c r="F188" s="78"/>
-      <c r="G188" s="78"/>
-      <c r="H188" s="78"/>
-      <c r="I188" s="78"/>
-      <c r="J188" s="78"/>
-      <c r="K188" s="78"/>
-      <c r="L188" s="78"/>
-      <c r="M188" s="78"/>
-      <c r="N188" s="78"/>
-      <c r="O188" s="78"/>
-      <c r="P188" s="78"/>
-      <c r="Q188" s="78"/>
-      <c r="R188" s="79"/>
+      <c r="C188" s="131"/>
+      <c r="D188" s="132"/>
+      <c r="E188" s="132"/>
+      <c r="F188" s="132"/>
+      <c r="G188" s="132"/>
+      <c r="H188" s="132"/>
+      <c r="I188" s="132"/>
+      <c r="J188" s="132"/>
+      <c r="K188" s="132"/>
+      <c r="L188" s="132"/>
+      <c r="M188" s="132"/>
+      <c r="N188" s="132"/>
+      <c r="O188" s="132"/>
+      <c r="P188" s="132"/>
+      <c r="Q188" s="132"/>
+      <c r="R188" s="133"/>
       <c r="S188" s="51"/>
       <c r="T188" s="51"/>
     </row>
@@ -7722,22 +7760,22 @@
         <f t="shared" si="16"/>
         <v>43849</v>
       </c>
-      <c r="C189" s="80"/>
-      <c r="D189" s="81"/>
-      <c r="E189" s="81"/>
-      <c r="F189" s="81"/>
-      <c r="G189" s="81"/>
-      <c r="H189" s="81"/>
-      <c r="I189" s="81"/>
-      <c r="J189" s="81"/>
-      <c r="K189" s="81"/>
-      <c r="L189" s="81"/>
-      <c r="M189" s="81"/>
-      <c r="N189" s="81"/>
-      <c r="O189" s="81"/>
-      <c r="P189" s="81"/>
-      <c r="Q189" s="81"/>
-      <c r="R189" s="82"/>
+      <c r="C189" s="134"/>
+      <c r="D189" s="135"/>
+      <c r="E189" s="135"/>
+      <c r="F189" s="135"/>
+      <c r="G189" s="135"/>
+      <c r="H189" s="135"/>
+      <c r="I189" s="135"/>
+      <c r="J189" s="135"/>
+      <c r="K189" s="135"/>
+      <c r="L189" s="135"/>
+      <c r="M189" s="135"/>
+      <c r="N189" s="135"/>
+      <c r="O189" s="135"/>
+      <c r="P189" s="135"/>
+      <c r="Q189" s="135"/>
+      <c r="R189" s="136"/>
       <c r="S189" s="51"/>
       <c r="T189" s="51"/>
     </row>
@@ -7827,11 +7865,11 @@
         <v>36</v>
       </c>
       <c r="C192" s="59">
+        <v>1</v>
+      </c>
+      <c r="D192" s="72">
         <f>C182+1</f>
         <v>19</v>
-      </c>
-      <c r="D192" s="145">
-        <v>1</v>
       </c>
       <c r="E192" s="15"/>
       <c r="F192" s="15"/>
@@ -7858,20 +7896,20 @@
         <f>B183+7</f>
         <v>43850</v>
       </c>
-      <c r="C193" s="72" t="s">
+      <c r="C193" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D193" s="72"/>
-      <c r="E193" s="72"/>
-      <c r="F193" s="72"/>
-      <c r="G193" s="146" t="s">
+      <c r="D193" s="103"/>
+      <c r="E193" s="103"/>
+      <c r="F193" s="103"/>
+      <c r="G193" s="149" t="s">
+        <v>92</v>
+      </c>
+      <c r="H193" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="H193" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="I193" s="72"/>
-      <c r="J193" s="72"/>
+      <c r="I193" s="103"/>
+      <c r="J193" s="103"/>
       <c r="K193" s="49"/>
       <c r="L193" s="49"/>
       <c r="M193" s="49"/>
@@ -7926,18 +7964,22 @@
       <c r="D195" s="20"/>
       <c r="E195" s="20"/>
       <c r="F195" s="20"/>
-      <c r="G195" s="147" t="s">
-        <v>31</v>
-      </c>
-      <c r="H195" s="148"/>
-      <c r="I195" s="148"/>
-      <c r="J195" s="149"/>
-      <c r="K195" s="49"/>
-      <c r="L195" s="49"/>
-      <c r="M195" s="49"/>
-      <c r="N195" s="49"/>
-      <c r="O195" s="49"/>
-      <c r="P195" s="49"/>
+      <c r="G195" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="H195" s="90"/>
+      <c r="I195" s="90"/>
+      <c r="J195" s="91"/>
+      <c r="K195" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="L195" s="78"/>
+      <c r="M195" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="N195" s="77"/>
+      <c r="O195" s="77"/>
+      <c r="P195" s="76"/>
       <c r="Q195" s="49"/>
       <c r="R195" s="49"/>
       <c r="S195" s="51"/>
@@ -7986,12 +8028,12 @@
       <c r="D197" s="20"/>
       <c r="E197" s="20"/>
       <c r="F197" s="20"/>
-      <c r="G197" s="147" t="s">
-        <v>31</v>
-      </c>
-      <c r="H197" s="148"/>
-      <c r="I197" s="148"/>
-      <c r="J197" s="149"/>
+      <c r="G197" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="H197" s="77"/>
+      <c r="I197" s="77"/>
+      <c r="J197" s="76"/>
       <c r="K197" s="49"/>
       <c r="L197" s="49"/>
       <c r="M197" s="20"/>
@@ -8144,11 +8186,11 @@
       </c>
       <c r="C202" s="59">
         <f>C192+1</f>
+        <v>2</v>
+      </c>
+      <c r="D202" s="72">
+        <f>D192+1</f>
         <v>20</v>
-      </c>
-      <c r="D202" s="145">
-        <f>D192+1</f>
-        <v>2</v>
       </c>
       <c r="E202" s="15"/>
       <c r="F202" s="15"/>
@@ -8175,20 +8217,20 @@
         <f>B193+7</f>
         <v>43857</v>
       </c>
-      <c r="C203" s="147" t="s">
+      <c r="C203" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="D203" s="149"/>
-      <c r="E203" s="147" t="s">
-        <v>95</v>
-      </c>
-      <c r="F203" s="148"/>
-      <c r="G203" s="148"/>
-      <c r="H203" s="148"/>
-      <c r="I203" s="148"/>
-      <c r="J203" s="149"/>
-      <c r="K203" s="49"/>
-      <c r="L203" s="49"/>
+      <c r="D203" s="151"/>
+      <c r="E203" s="151"/>
+      <c r="F203" s="152"/>
+      <c r="G203" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="H203" s="77"/>
+      <c r="I203" s="77"/>
+      <c r="J203" s="77"/>
+      <c r="K203" s="77"/>
+      <c r="L203" s="76"/>
       <c r="M203" s="49"/>
       <c r="N203" s="49"/>
       <c r="O203" s="49"/>
@@ -8216,7 +8258,7 @@
       <c r="H204" s="20"/>
       <c r="I204" s="20"/>
       <c r="J204" s="20"/>
-      <c r="K204" s="49"/>
+      <c r="K204" s="20"/>
       <c r="L204" s="49"/>
       <c r="M204" s="20"/>
       <c r="N204" s="20"/>
@@ -8241,12 +8283,12 @@
       <c r="D205" s="20"/>
       <c r="E205" s="20"/>
       <c r="F205" s="20"/>
-      <c r="G205" s="147" t="s">
-        <v>31</v>
-      </c>
-      <c r="H205" s="148"/>
-      <c r="I205" s="148"/>
-      <c r="J205" s="149"/>
+      <c r="G205" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="H205" s="77"/>
+      <c r="I205" s="77"/>
+      <c r="J205" s="76"/>
       <c r="K205" s="49"/>
       <c r="L205" s="49"/>
       <c r="M205" s="49"/>
@@ -8301,12 +8343,12 @@
       <c r="D207" s="20"/>
       <c r="E207" s="20"/>
       <c r="F207" s="20"/>
-      <c r="G207" s="147" t="s">
-        <v>31</v>
-      </c>
-      <c r="H207" s="148"/>
-      <c r="I207" s="148"/>
-      <c r="J207" s="149"/>
+      <c r="G207" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="H207" s="77"/>
+      <c r="I207" s="77"/>
+      <c r="J207" s="76"/>
       <c r="K207" s="49"/>
       <c r="L207" s="49"/>
       <c r="M207" s="20"/>
@@ -8460,11 +8502,11 @@
       </c>
       <c r="C212" s="59">
         <f>C202+1</f>
+        <v>3</v>
+      </c>
+      <c r="D212" s="72">
+        <f>D202+1</f>
         <v>21</v>
-      </c>
-      <c r="D212" s="145">
-        <f>D202+1</f>
-        <v>3</v>
       </c>
       <c r="E212" s="15"/>
       <c r="F212" s="15"/>
@@ -8491,20 +8533,20 @@
         <f>B203+7</f>
         <v>43864</v>
       </c>
-      <c r="C213" s="147" t="s">
+      <c r="C213" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="D213" s="149"/>
-      <c r="E213" s="147" t="s">
-        <v>95</v>
-      </c>
-      <c r="F213" s="148"/>
-      <c r="G213" s="148"/>
-      <c r="H213" s="148"/>
-      <c r="I213" s="148"/>
-      <c r="J213" s="149"/>
-      <c r="K213" s="49"/>
-      <c r="L213" s="49"/>
+      <c r="D213" s="151"/>
+      <c r="E213" s="151"/>
+      <c r="F213" s="152"/>
+      <c r="G213" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="H213" s="77"/>
+      <c r="I213" s="77"/>
+      <c r="J213" s="77"/>
+      <c r="K213" s="77"/>
+      <c r="L213" s="76"/>
       <c r="M213" s="49"/>
       <c r="N213" s="49"/>
       <c r="O213" s="49"/>
@@ -8532,7 +8574,7 @@
       <c r="H214" s="20"/>
       <c r="I214" s="20"/>
       <c r="J214" s="20"/>
-      <c r="K214" s="49"/>
+      <c r="K214" s="20"/>
       <c r="L214" s="49"/>
       <c r="M214" s="20"/>
       <c r="N214" s="20"/>
@@ -8557,12 +8599,12 @@
       <c r="D215" s="20"/>
       <c r="E215" s="20"/>
       <c r="F215" s="20"/>
-      <c r="G215" s="147" t="s">
-        <v>31</v>
-      </c>
-      <c r="H215" s="148"/>
-      <c r="I215" s="148"/>
-      <c r="J215" s="149"/>
+      <c r="G215" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="H215" s="77"/>
+      <c r="I215" s="77"/>
+      <c r="J215" s="76"/>
       <c r="K215" s="49"/>
       <c r="L215" s="49"/>
       <c r="M215" s="49"/>
@@ -8617,12 +8659,12 @@
       <c r="D217" s="20"/>
       <c r="E217" s="20"/>
       <c r="F217" s="20"/>
-      <c r="G217" s="147" t="s">
-        <v>31</v>
-      </c>
-      <c r="H217" s="148"/>
-      <c r="I217" s="148"/>
-      <c r="J217" s="149"/>
+      <c r="G217" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="H217" s="77"/>
+      <c r="I217" s="77"/>
+      <c r="J217" s="76"/>
       <c r="K217" s="49"/>
       <c r="L217" s="49"/>
       <c r="M217" s="20"/>
@@ -8776,11 +8818,11 @@
       </c>
       <c r="C222" s="59">
         <f>C212+1</f>
+        <v>4</v>
+      </c>
+      <c r="D222" s="72">
+        <f>D212+1</f>
         <v>22</v>
-      </c>
-      <c r="D222" s="145">
-        <f>D212+1</f>
-        <v>4</v>
       </c>
       <c r="E222" s="15"/>
       <c r="F222" s="15"/>
@@ -8807,20 +8849,20 @@
         <f>B213+7</f>
         <v>43871</v>
       </c>
-      <c r="C223" s="147" t="s">
+      <c r="C223" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="D223" s="149"/>
-      <c r="E223" s="147" t="s">
-        <v>95</v>
-      </c>
-      <c r="F223" s="148"/>
-      <c r="G223" s="148"/>
-      <c r="H223" s="148"/>
-      <c r="I223" s="148"/>
-      <c r="J223" s="149"/>
-      <c r="K223" s="49"/>
-      <c r="L223" s="49"/>
+      <c r="D223" s="151"/>
+      <c r="E223" s="151"/>
+      <c r="F223" s="152"/>
+      <c r="G223" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="H223" s="77"/>
+      <c r="I223" s="77"/>
+      <c r="J223" s="77"/>
+      <c r="K223" s="77"/>
+      <c r="L223" s="76"/>
       <c r="M223" s="49"/>
       <c r="N223" s="49"/>
       <c r="O223" s="49"/>
@@ -8848,7 +8890,7 @@
       <c r="H224" s="20"/>
       <c r="I224" s="20"/>
       <c r="J224" s="20"/>
-      <c r="K224" s="49"/>
+      <c r="K224" s="20"/>
       <c r="L224" s="49"/>
       <c r="M224" s="20"/>
       <c r="N224" s="20"/>
@@ -8873,12 +8915,12 @@
       <c r="D225" s="20"/>
       <c r="E225" s="20"/>
       <c r="F225" s="20"/>
-      <c r="G225" s="147" t="s">
-        <v>31</v>
-      </c>
-      <c r="H225" s="148"/>
-      <c r="I225" s="148"/>
-      <c r="J225" s="149"/>
+      <c r="G225" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="H225" s="77"/>
+      <c r="I225" s="77"/>
+      <c r="J225" s="76"/>
       <c r="K225" s="49"/>
       <c r="L225" s="49"/>
       <c r="M225" s="49"/>
@@ -8933,12 +8975,12 @@
       <c r="D227" s="20"/>
       <c r="E227" s="20"/>
       <c r="F227" s="20"/>
-      <c r="G227" s="147" t="s">
-        <v>31</v>
-      </c>
-      <c r="H227" s="148"/>
-      <c r="I227" s="148"/>
-      <c r="J227" s="149"/>
+      <c r="G227" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="H227" s="77"/>
+      <c r="I227" s="77"/>
+      <c r="J227" s="76"/>
       <c r="K227" s="49"/>
       <c r="L227" s="49"/>
       <c r="M227" s="20"/>
@@ -9092,11 +9134,11 @@
       </c>
       <c r="C232" s="59">
         <f>C222+1</f>
+        <v>5</v>
+      </c>
+      <c r="D232" s="72">
+        <f>D222+1</f>
         <v>23</v>
-      </c>
-      <c r="D232" s="145">
-        <f>D222+1</f>
-        <v>5</v>
       </c>
       <c r="E232" s="15"/>
       <c r="F232" s="15"/>
@@ -9123,20 +9165,20 @@
         <f>B223+7</f>
         <v>43878</v>
       </c>
-      <c r="C233" s="147" t="s">
+      <c r="C233" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="D233" s="149"/>
-      <c r="E233" s="147" t="s">
-        <v>95</v>
-      </c>
-      <c r="F233" s="148"/>
-      <c r="G233" s="148"/>
-      <c r="H233" s="148"/>
-      <c r="I233" s="148"/>
-      <c r="J233" s="149"/>
-      <c r="K233" s="49"/>
-      <c r="L233" s="49"/>
+      <c r="D233" s="151"/>
+      <c r="E233" s="151"/>
+      <c r="F233" s="152"/>
+      <c r="G233" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="H233" s="77"/>
+      <c r="I233" s="77"/>
+      <c r="J233" s="77"/>
+      <c r="K233" s="77"/>
+      <c r="L233" s="76"/>
       <c r="M233" s="49"/>
       <c r="N233" s="49"/>
       <c r="O233" s="49"/>
@@ -9164,7 +9206,7 @@
       <c r="H234" s="20"/>
       <c r="I234" s="20"/>
       <c r="J234" s="20"/>
-      <c r="K234" s="49"/>
+      <c r="K234" s="20"/>
       <c r="L234" s="49"/>
       <c r="M234" s="20"/>
       <c r="N234" s="20"/>
@@ -9189,12 +9231,12 @@
       <c r="D235" s="20"/>
       <c r="E235" s="20"/>
       <c r="F235" s="20"/>
-      <c r="G235" s="147" t="s">
-        <v>31</v>
-      </c>
-      <c r="H235" s="148"/>
-      <c r="I235" s="148"/>
-      <c r="J235" s="149"/>
+      <c r="G235" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="H235" s="77"/>
+      <c r="I235" s="77"/>
+      <c r="J235" s="76"/>
       <c r="K235" s="49"/>
       <c r="L235" s="49"/>
       <c r="M235" s="49"/>
@@ -9249,12 +9291,12 @@
       <c r="D237" s="20"/>
       <c r="E237" s="20"/>
       <c r="F237" s="20"/>
-      <c r="G237" s="147" t="s">
-        <v>31</v>
-      </c>
-      <c r="H237" s="148"/>
-      <c r="I237" s="148"/>
-      <c r="J237" s="149"/>
+      <c r="G237" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="H237" s="77"/>
+      <c r="I237" s="77"/>
+      <c r="J237" s="76"/>
       <c r="K237" s="49"/>
       <c r="L237" s="49"/>
       <c r="M237" s="20"/>
@@ -9408,16 +9450,18 @@
       </c>
       <c r="C242" s="59">
         <f>C232+1</f>
+        <v>6</v>
+      </c>
+      <c r="D242" s="72">
+        <f>D232+1</f>
         <v>24</v>
       </c>
-      <c r="D242" s="145">
-        <f>D232+1</f>
-        <v>6</v>
-      </c>
-      <c r="E242" s="15"/>
-      <c r="F242" s="15"/>
-      <c r="G242" s="15"/>
-      <c r="H242" s="15"/>
+      <c r="E242" s="148" t="s">
+        <v>101</v>
+      </c>
+      <c r="F242" s="148"/>
+      <c r="G242" s="148"/>
+      <c r="H242" s="148"/>
       <c r="I242" s="15"/>
       <c r="J242" s="15"/>
       <c r="K242" s="19"/>
@@ -9439,20 +9483,20 @@
         <f>B233+7</f>
         <v>43885</v>
       </c>
-      <c r="C243" s="147" t="s">
+      <c r="C243" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="D243" s="149"/>
-      <c r="E243" s="147" t="s">
-        <v>95</v>
-      </c>
-      <c r="F243" s="148"/>
-      <c r="G243" s="148"/>
-      <c r="H243" s="148"/>
-      <c r="I243" s="148"/>
-      <c r="J243" s="149"/>
-      <c r="K243" s="49"/>
-      <c r="L243" s="49"/>
+      <c r="D243" s="151"/>
+      <c r="E243" s="151"/>
+      <c r="F243" s="152"/>
+      <c r="G243" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="H243" s="77"/>
+      <c r="I243" s="77"/>
+      <c r="J243" s="77"/>
+      <c r="K243" s="77"/>
+      <c r="L243" s="76"/>
       <c r="M243" s="49"/>
       <c r="N243" s="49"/>
       <c r="O243" s="49"/>
@@ -9480,7 +9524,7 @@
       <c r="H244" s="20"/>
       <c r="I244" s="20"/>
       <c r="J244" s="20"/>
-      <c r="K244" s="49"/>
+      <c r="K244" s="20"/>
       <c r="L244" s="49"/>
       <c r="M244" s="20"/>
       <c r="N244" s="20"/>
@@ -9505,12 +9549,12 @@
       <c r="D245" s="20"/>
       <c r="E245" s="20"/>
       <c r="F245" s="20"/>
-      <c r="G245" s="147" t="s">
-        <v>31</v>
-      </c>
-      <c r="H245" s="148"/>
-      <c r="I245" s="148"/>
-      <c r="J245" s="149"/>
+      <c r="G245" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="H245" s="77"/>
+      <c r="I245" s="77"/>
+      <c r="J245" s="76"/>
       <c r="K245" s="49"/>
       <c r="L245" s="49"/>
       <c r="M245" s="49"/>
@@ -9565,12 +9609,12 @@
       <c r="D247" s="20"/>
       <c r="E247" s="20"/>
       <c r="F247" s="20"/>
-      <c r="G247" s="147" t="s">
-        <v>31</v>
-      </c>
-      <c r="H247" s="148"/>
-      <c r="I247" s="148"/>
-      <c r="J247" s="149"/>
+      <c r="G247" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="H247" s="77"/>
+      <c r="I247" s="77"/>
+      <c r="J247" s="76"/>
       <c r="K247" s="49"/>
       <c r="L247" s="49"/>
       <c r="M247" s="20"/>
@@ -9724,11 +9768,11 @@
       </c>
       <c r="C252" s="59">
         <f>C242+1</f>
+        <v>7</v>
+      </c>
+      <c r="D252" s="72">
+        <f>D242+1</f>
         <v>25</v>
-      </c>
-      <c r="D252" s="145">
-        <f>D242+1</f>
-        <v>7</v>
       </c>
       <c r="E252" s="15"/>
       <c r="F252" s="15"/>
@@ -9755,20 +9799,20 @@
         <f>B243+7</f>
         <v>43892</v>
       </c>
-      <c r="C253" s="147" t="s">
+      <c r="C253" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="D253" s="149"/>
-      <c r="E253" s="147" t="s">
-        <v>95</v>
-      </c>
-      <c r="F253" s="148"/>
-      <c r="G253" s="148"/>
-      <c r="H253" s="148"/>
-      <c r="I253" s="148"/>
-      <c r="J253" s="149"/>
-      <c r="K253" s="49"/>
-      <c r="L253" s="49"/>
+      <c r="D253" s="151"/>
+      <c r="E253" s="151"/>
+      <c r="F253" s="152"/>
+      <c r="G253" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="H253" s="77"/>
+      <c r="I253" s="77"/>
+      <c r="J253" s="77"/>
+      <c r="K253" s="77"/>
+      <c r="L253" s="76"/>
       <c r="M253" s="49"/>
       <c r="N253" s="49"/>
       <c r="O253" s="49"/>
@@ -9796,7 +9840,7 @@
       <c r="H254" s="20"/>
       <c r="I254" s="20"/>
       <c r="J254" s="20"/>
-      <c r="K254" s="49"/>
+      <c r="K254" s="20"/>
       <c r="L254" s="49"/>
       <c r="M254" s="20"/>
       <c r="N254" s="20"/>
@@ -9821,12 +9865,12 @@
       <c r="D255" s="20"/>
       <c r="E255" s="20"/>
       <c r="F255" s="20"/>
-      <c r="G255" s="147" t="s">
-        <v>31</v>
-      </c>
-      <c r="H255" s="148"/>
-      <c r="I255" s="148"/>
-      <c r="J255" s="149"/>
+      <c r="G255" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="H255" s="77"/>
+      <c r="I255" s="77"/>
+      <c r="J255" s="76"/>
       <c r="K255" s="49"/>
       <c r="L255" s="49"/>
       <c r="M255" s="49"/>
@@ -9881,12 +9925,12 @@
       <c r="D257" s="20"/>
       <c r="E257" s="20"/>
       <c r="F257" s="20"/>
-      <c r="G257" s="147" t="s">
-        <v>31</v>
-      </c>
-      <c r="H257" s="148"/>
-      <c r="I257" s="148"/>
-      <c r="J257" s="149"/>
+      <c r="G257" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="H257" s="77"/>
+      <c r="I257" s="77"/>
+      <c r="J257" s="76"/>
       <c r="K257" s="49"/>
       <c r="L257" s="49"/>
       <c r="M257" s="20"/>
@@ -10040,11 +10084,11 @@
       </c>
       <c r="C262" s="59">
         <f>C252+1</f>
+        <v>8</v>
+      </c>
+      <c r="D262" s="72">
+        <f>D252+1</f>
         <v>26</v>
-      </c>
-      <c r="D262" s="145">
-        <f>D252+1</f>
-        <v>8</v>
       </c>
       <c r="E262" s="15"/>
       <c r="F262" s="15"/>
@@ -10071,20 +10115,20 @@
         <f>B253+7</f>
         <v>43899</v>
       </c>
-      <c r="C263" s="147" t="s">
+      <c r="C263" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="D263" s="149"/>
-      <c r="E263" s="147" t="s">
-        <v>95</v>
-      </c>
-      <c r="F263" s="148"/>
-      <c r="G263" s="148"/>
-      <c r="H263" s="148"/>
-      <c r="I263" s="148"/>
-      <c r="J263" s="149"/>
-      <c r="K263" s="49"/>
-      <c r="L263" s="49"/>
+      <c r="D263" s="151"/>
+      <c r="E263" s="151"/>
+      <c r="F263" s="152"/>
+      <c r="G263" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="H263" s="77"/>
+      <c r="I263" s="77"/>
+      <c r="J263" s="77"/>
+      <c r="K263" s="77"/>
+      <c r="L263" s="76"/>
       <c r="M263" s="49"/>
       <c r="N263" s="49"/>
       <c r="O263" s="49"/>
@@ -10112,7 +10156,7 @@
       <c r="H264" s="20"/>
       <c r="I264" s="20"/>
       <c r="J264" s="20"/>
-      <c r="K264" s="49"/>
+      <c r="K264" s="20"/>
       <c r="L264" s="49"/>
       <c r="M264" s="20"/>
       <c r="N264" s="20"/>
@@ -10137,12 +10181,12 @@
       <c r="D265" s="20"/>
       <c r="E265" s="20"/>
       <c r="F265" s="20"/>
-      <c r="G265" s="147" t="s">
-        <v>31</v>
-      </c>
-      <c r="H265" s="148"/>
-      <c r="I265" s="148"/>
-      <c r="J265" s="149"/>
+      <c r="G265" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="H265" s="77"/>
+      <c r="I265" s="77"/>
+      <c r="J265" s="76"/>
       <c r="K265" s="49"/>
       <c r="L265" s="49"/>
       <c r="M265" s="49"/>
@@ -10197,12 +10241,12 @@
       <c r="D267" s="20"/>
       <c r="E267" s="20"/>
       <c r="F267" s="20"/>
-      <c r="G267" s="147" t="s">
-        <v>31</v>
-      </c>
-      <c r="H267" s="148"/>
-      <c r="I267" s="148"/>
-      <c r="J267" s="149"/>
+      <c r="G267" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="H267" s="77"/>
+      <c r="I267" s="77"/>
+      <c r="J267" s="76"/>
       <c r="K267" s="49"/>
       <c r="L267" s="49"/>
       <c r="M267" s="20"/>
@@ -10356,11 +10400,11 @@
       </c>
       <c r="C272" s="59">
         <f>C262+1</f>
+        <v>9</v>
+      </c>
+      <c r="D272" s="72">
+        <f>D262+1</f>
         <v>27</v>
-      </c>
-      <c r="D272" s="145">
-        <f>D262+1</f>
-        <v>9</v>
       </c>
       <c r="E272" s="15"/>
       <c r="F272" s="15"/>
@@ -10372,12 +10416,12 @@
       <c r="L272" s="19"/>
       <c r="M272" s="19"/>
       <c r="N272" s="19"/>
-      <c r="O272" s="150" t="s">
-        <v>96</v>
-      </c>
-      <c r="P272" s="150"/>
-      <c r="Q272" s="150"/>
-      <c r="R272" s="150"/>
+      <c r="O272" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="P272" s="74"/>
+      <c r="Q272" s="74"/>
+      <c r="R272" s="74"/>
       <c r="S272" s="51"/>
       <c r="T272" s="51"/>
     </row>
@@ -10666,11 +10710,11 @@
       </c>
       <c r="C282" s="59">
         <f>C272+1</f>
+        <v>10</v>
+      </c>
+      <c r="D282" s="72">
+        <f>D272+1</f>
         <v>28</v>
-      </c>
-      <c r="D282" s="145">
-        <f>D272+1</f>
-        <v>10</v>
       </c>
       <c r="E282" s="15"/>
       <c r="F282" s="15"/>
@@ -10697,20 +10741,20 @@
         <f>B273+7</f>
         <v>43913</v>
       </c>
-      <c r="C283" s="147" t="s">
+      <c r="C283" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="D283" s="149"/>
-      <c r="E283" s="147" t="s">
-        <v>95</v>
-      </c>
-      <c r="F283" s="148"/>
-      <c r="G283" s="148"/>
-      <c r="H283" s="148"/>
-      <c r="I283" s="148"/>
-      <c r="J283" s="149"/>
-      <c r="K283" s="49"/>
-      <c r="L283" s="49"/>
+      <c r="D283" s="151"/>
+      <c r="E283" s="151"/>
+      <c r="F283" s="152"/>
+      <c r="G283" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="H283" s="77"/>
+      <c r="I283" s="77"/>
+      <c r="J283" s="77"/>
+      <c r="K283" s="77"/>
+      <c r="L283" s="76"/>
       <c r="M283" s="49"/>
       <c r="N283" s="49"/>
       <c r="O283" s="49"/>
@@ -10738,7 +10782,7 @@
       <c r="H284" s="20"/>
       <c r="I284" s="20"/>
       <c r="J284" s="20"/>
-      <c r="K284" s="49"/>
+      <c r="K284" s="20"/>
       <c r="L284" s="49"/>
       <c r="M284" s="20"/>
       <c r="N284" s="20"/>
@@ -10763,12 +10807,12 @@
       <c r="D285" s="20"/>
       <c r="E285" s="20"/>
       <c r="F285" s="20"/>
-      <c r="G285" s="147" t="s">
-        <v>31</v>
-      </c>
-      <c r="H285" s="148"/>
-      <c r="I285" s="148"/>
-      <c r="J285" s="149"/>
+      <c r="G285" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="H285" s="77"/>
+      <c r="I285" s="77"/>
+      <c r="J285" s="76"/>
       <c r="K285" s="49"/>
       <c r="L285" s="49"/>
       <c r="M285" s="49"/>
@@ -10823,12 +10867,12 @@
       <c r="D287" s="20"/>
       <c r="E287" s="20"/>
       <c r="F287" s="20"/>
-      <c r="G287" s="147" t="s">
-        <v>31</v>
-      </c>
-      <c r="H287" s="148"/>
-      <c r="I287" s="148"/>
-      <c r="J287" s="149"/>
+      <c r="G287" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="H287" s="77"/>
+      <c r="I287" s="77"/>
+      <c r="J287" s="76"/>
       <c r="K287" s="49"/>
       <c r="L287" s="49"/>
       <c r="M287" s="20"/>
@@ -10982,16 +11026,18 @@
       </c>
       <c r="C292" s="59">
         <f>C282+1</f>
+        <v>11</v>
+      </c>
+      <c r="D292" s="72">
+        <f>D282+1</f>
         <v>29</v>
       </c>
-      <c r="D292" s="145">
-        <f>D282+1</f>
-        <v>11</v>
-      </c>
-      <c r="E292" s="15"/>
-      <c r="F292" s="15"/>
-      <c r="G292" s="15"/>
-      <c r="H292" s="15"/>
+      <c r="E292" s="148" t="s">
+        <v>102</v>
+      </c>
+      <c r="F292" s="148"/>
+      <c r="G292" s="148"/>
+      <c r="H292" s="148"/>
       <c r="I292" s="15"/>
       <c r="J292" s="15"/>
       <c r="K292" s="19"/>
@@ -11013,20 +11059,20 @@
         <f>B283+7</f>
         <v>43920</v>
       </c>
-      <c r="C293" s="147" t="s">
+      <c r="C293" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="D293" s="149"/>
-      <c r="E293" s="147" t="s">
-        <v>95</v>
-      </c>
-      <c r="F293" s="148"/>
-      <c r="G293" s="148"/>
-      <c r="H293" s="148"/>
-      <c r="I293" s="148"/>
-      <c r="J293" s="149"/>
-      <c r="K293" s="49"/>
-      <c r="L293" s="49"/>
+      <c r="D293" s="151"/>
+      <c r="E293" s="151"/>
+      <c r="F293" s="152"/>
+      <c r="G293" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="H293" s="77"/>
+      <c r="I293" s="77"/>
+      <c r="J293" s="77"/>
+      <c r="K293" s="77"/>
+      <c r="L293" s="76"/>
       <c r="M293" s="49"/>
       <c r="N293" s="49"/>
       <c r="O293" s="49"/>
@@ -11054,7 +11100,7 @@
       <c r="H294" s="20"/>
       <c r="I294" s="20"/>
       <c r="J294" s="20"/>
-      <c r="K294" s="49"/>
+      <c r="K294" s="20"/>
       <c r="L294" s="49"/>
       <c r="M294" s="20"/>
       <c r="N294" s="20"/>
@@ -11079,12 +11125,12 @@
       <c r="D295" s="20"/>
       <c r="E295" s="20"/>
       <c r="F295" s="20"/>
-      <c r="G295" s="147" t="s">
-        <v>31</v>
-      </c>
-      <c r="H295" s="148"/>
-      <c r="I295" s="148"/>
-      <c r="J295" s="149"/>
+      <c r="G295" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="H295" s="77"/>
+      <c r="I295" s="77"/>
+      <c r="J295" s="76"/>
       <c r="K295" s="49"/>
       <c r="L295" s="49"/>
       <c r="M295" s="49"/>
@@ -11139,12 +11185,12 @@
       <c r="D297" s="20"/>
       <c r="E297" s="20"/>
       <c r="F297" s="20"/>
-      <c r="G297" s="147" t="s">
-        <v>31</v>
-      </c>
-      <c r="H297" s="148"/>
-      <c r="I297" s="148"/>
-      <c r="J297" s="149"/>
+      <c r="G297" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="H297" s="77"/>
+      <c r="I297" s="77"/>
+      <c r="J297" s="76"/>
       <c r="K297" s="49"/>
       <c r="L297" s="49"/>
       <c r="M297" s="20"/>
@@ -11298,11 +11344,11 @@
       </c>
       <c r="C302" s="59">
         <f>C292+1</f>
+        <v>12</v>
+      </c>
+      <c r="D302" s="72">
+        <f>D292+1</f>
         <v>30</v>
-      </c>
-      <c r="D302" s="145">
-        <f>D292+1</f>
-        <v>12</v>
       </c>
       <c r="E302" s="15"/>
       <c r="F302" s="15"/>
@@ -11606,11 +11652,11 @@
       </c>
       <c r="C312" s="59">
         <f>C302+1</f>
+        <v>13</v>
+      </c>
+      <c r="D312" s="72">
+        <f>D302+1</f>
         <v>31</v>
-      </c>
-      <c r="D312" s="145">
-        <f>D302+1</f>
-        <v>13</v>
       </c>
       <c r="E312" s="15"/>
       <c r="F312" s="15"/>
@@ -11914,11 +11960,11 @@
       </c>
       <c r="C322" s="59">
         <f>C312+1</f>
+        <v>14</v>
+      </c>
+      <c r="D322" s="72">
+        <f>D312+1</f>
         <v>32</v>
-      </c>
-      <c r="D322" s="145">
-        <f>D312+1</f>
-        <v>14</v>
       </c>
       <c r="E322" s="15"/>
       <c r="F322" s="15"/>
@@ -12222,11 +12268,11 @@
       </c>
       <c r="C332" s="59">
         <f>C322+1</f>
+        <v>15</v>
+      </c>
+      <c r="D332" s="72">
+        <f>D322+1</f>
         <v>33</v>
-      </c>
-      <c r="D332" s="145">
-        <f>D322+1</f>
-        <v>15</v>
       </c>
       <c r="E332" s="15"/>
       <c r="F332" s="15"/>
@@ -12530,11 +12576,11 @@
       </c>
       <c r="C342" s="59">
         <f>C332+1</f>
+        <v>16</v>
+      </c>
+      <c r="D342" s="72">
+        <f>D332+1</f>
         <v>34</v>
-      </c>
-      <c r="D342" s="145">
-        <f>D332+1</f>
-        <v>16</v>
       </c>
       <c r="E342" s="15"/>
       <c r="F342" s="15"/>
@@ -12838,11 +12884,11 @@
       </c>
       <c r="C352" s="59">
         <f>C342+1</f>
+        <v>17</v>
+      </c>
+      <c r="D352" s="72">
+        <f>D342+1</f>
         <v>35</v>
-      </c>
-      <c r="D352" s="145">
-        <f>D342+1</f>
-        <v>17</v>
       </c>
       <c r="E352" s="15"/>
       <c r="F352" s="15"/>
@@ -13146,11 +13192,11 @@
       </c>
       <c r="C362" s="59">
         <f>C352+1</f>
+        <v>18</v>
+      </c>
+      <c r="D362" s="72">
+        <f>D352+1</f>
         <v>36</v>
-      </c>
-      <c r="D362" s="145">
-        <f>D352+1</f>
-        <v>18</v>
       </c>
       <c r="E362" s="15"/>
       <c r="F362" s="15"/>
@@ -13454,11 +13500,11 @@
       </c>
       <c r="C372" s="59">
         <f>C362+1</f>
+        <v>19</v>
+      </c>
+      <c r="D372" s="72">
+        <f>D362+1</f>
         <v>37</v>
-      </c>
-      <c r="D372" s="145">
-        <f>D362+1</f>
-        <v>19</v>
       </c>
       <c r="E372" s="15"/>
       <c r="F372" s="15"/>
@@ -16363,97 +16409,101 @@
       <c r="T507"/>
     </row>
   </sheetData>
-  <mergeCells count="189">
-    <mergeCell ref="O272:R272"/>
-    <mergeCell ref="C283:D283"/>
-    <mergeCell ref="E283:J283"/>
-    <mergeCell ref="G285:J285"/>
-    <mergeCell ref="G287:J287"/>
-    <mergeCell ref="C293:D293"/>
-    <mergeCell ref="E293:J293"/>
-    <mergeCell ref="G295:J295"/>
-    <mergeCell ref="G297:J297"/>
-    <mergeCell ref="G257:J257"/>
-    <mergeCell ref="C263:D263"/>
-    <mergeCell ref="E263:J263"/>
-    <mergeCell ref="G265:J265"/>
-    <mergeCell ref="G267:J267"/>
-    <mergeCell ref="G235:J235"/>
-    <mergeCell ref="G237:J237"/>
-    <mergeCell ref="C243:D243"/>
-    <mergeCell ref="E243:J243"/>
-    <mergeCell ref="G245:J245"/>
-    <mergeCell ref="G247:J247"/>
-    <mergeCell ref="C253:D253"/>
-    <mergeCell ref="E253:J253"/>
-    <mergeCell ref="G255:J255"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="E213:J213"/>
-    <mergeCell ref="G215:J215"/>
-    <mergeCell ref="G217:J217"/>
-    <mergeCell ref="C223:D223"/>
-    <mergeCell ref="E223:J223"/>
-    <mergeCell ref="G225:J225"/>
-    <mergeCell ref="G227:J227"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="E233:J233"/>
-    <mergeCell ref="C193:F193"/>
-    <mergeCell ref="H193:J193"/>
-    <mergeCell ref="G195:J195"/>
-    <mergeCell ref="G197:J197"/>
-    <mergeCell ref="G205:J205"/>
-    <mergeCell ref="G207:J207"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="E203:J203"/>
-    <mergeCell ref="F143:P143"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H46:P46"/>
-    <mergeCell ref="H44:N44"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="L75:Q75"/>
-    <mergeCell ref="I53:M53"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="E77:J77"/>
-    <mergeCell ref="L67:R67"/>
-    <mergeCell ref="M72:R72"/>
-    <mergeCell ref="H13:R13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="H45:P45"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H43:P43"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="H33:P33"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="H66:Q66"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H23:R23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="Q54:R54"/>
+  <mergeCells count="193">
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="E242:H242"/>
+    <mergeCell ref="E292:H292"/>
+    <mergeCell ref="K195:L195"/>
+    <mergeCell ref="M195:P195"/>
+    <mergeCell ref="G203:L203"/>
+    <mergeCell ref="C203:F203"/>
+    <mergeCell ref="C213:F213"/>
+    <mergeCell ref="G213:L213"/>
+    <mergeCell ref="C223:F223"/>
+    <mergeCell ref="G223:L223"/>
+    <mergeCell ref="C233:F233"/>
+    <mergeCell ref="G233:L233"/>
+    <mergeCell ref="C243:F243"/>
+    <mergeCell ref="G243:L243"/>
+    <mergeCell ref="C253:F253"/>
+    <mergeCell ref="G253:L253"/>
+    <mergeCell ref="C263:F263"/>
+    <mergeCell ref="G263:L263"/>
+    <mergeCell ref="C283:F283"/>
+    <mergeCell ref="G283:L283"/>
+    <mergeCell ref="C109:R109"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H136:P136"/>
+    <mergeCell ref="K134:O134"/>
+    <mergeCell ref="C186:R189"/>
+    <mergeCell ref="C144:P144"/>
+    <mergeCell ref="C146:L146"/>
+    <mergeCell ref="H133:P133"/>
+    <mergeCell ref="C183:P183"/>
+    <mergeCell ref="C184:P184"/>
+    <mergeCell ref="C185:P185"/>
+    <mergeCell ref="C166:P166"/>
+    <mergeCell ref="C167:P167"/>
+    <mergeCell ref="C168:P168"/>
+    <mergeCell ref="C173:P173"/>
+    <mergeCell ref="C174:P174"/>
+    <mergeCell ref="C175:P175"/>
+    <mergeCell ref="C176:P176"/>
+    <mergeCell ref="C177:P177"/>
+    <mergeCell ref="C178:P178"/>
+    <mergeCell ref="C145:P145"/>
+    <mergeCell ref="C153:P153"/>
+    <mergeCell ref="C154:P154"/>
+    <mergeCell ref="C76:R76"/>
+    <mergeCell ref="E78:J78"/>
+    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="M125:P125"/>
+    <mergeCell ref="C79:R79"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H83:P83"/>
+    <mergeCell ref="C107:M107"/>
+    <mergeCell ref="J84:R84"/>
+    <mergeCell ref="E85:M85"/>
+    <mergeCell ref="H93:P93"/>
+    <mergeCell ref="H94:P94"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H96:L96"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="H124:P124"/>
+    <mergeCell ref="C125:K125"/>
+    <mergeCell ref="H113:M113"/>
+    <mergeCell ref="M135:P135"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="J116:N116"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="T58:U60"/>
+    <mergeCell ref="H123:P123"/>
+    <mergeCell ref="H103:P103"/>
+    <mergeCell ref="H104:P104"/>
+    <mergeCell ref="I115:R115"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="H64:N64"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="C69:R69"/>
+    <mergeCell ref="L74:Q74"/>
+    <mergeCell ref="L77:Q77"/>
+    <mergeCell ref="L78:Q78"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="J58:P58"/>
+    <mergeCell ref="E74:J74"/>
+    <mergeCell ref="E73:J73"/>
+    <mergeCell ref="L73:Q73"/>
     <mergeCell ref="H54:P54"/>
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="G55:H55"/>
@@ -16478,81 +16528,81 @@
     <mergeCell ref="C99:R99"/>
     <mergeCell ref="H114:M114"/>
     <mergeCell ref="C135:K135"/>
-    <mergeCell ref="M135:P135"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="J116:N116"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="T58:U60"/>
-    <mergeCell ref="H123:P123"/>
-    <mergeCell ref="H103:P103"/>
-    <mergeCell ref="H104:P104"/>
-    <mergeCell ref="I115:R115"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="H64:N64"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="C69:R69"/>
-    <mergeCell ref="L74:Q74"/>
-    <mergeCell ref="L77:Q77"/>
-    <mergeCell ref="L78:Q78"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="J58:P58"/>
-    <mergeCell ref="E74:J74"/>
-    <mergeCell ref="E73:J73"/>
-    <mergeCell ref="L73:Q73"/>
-    <mergeCell ref="C76:R76"/>
-    <mergeCell ref="E78:J78"/>
-    <mergeCell ref="E75:J75"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="M125:P125"/>
-    <mergeCell ref="C79:R79"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="H83:P83"/>
-    <mergeCell ref="C107:M107"/>
-    <mergeCell ref="J84:R84"/>
-    <mergeCell ref="E85:M85"/>
-    <mergeCell ref="H93:P93"/>
-    <mergeCell ref="H94:P94"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="H96:L96"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="H124:P124"/>
-    <mergeCell ref="C125:K125"/>
-    <mergeCell ref="H113:M113"/>
-    <mergeCell ref="C109:R109"/>
-    <mergeCell ref="C103:G103"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="H136:P136"/>
-    <mergeCell ref="K134:O134"/>
-    <mergeCell ref="C186:R189"/>
-    <mergeCell ref="C144:P144"/>
-    <mergeCell ref="C146:L146"/>
-    <mergeCell ref="H133:P133"/>
-    <mergeCell ref="C183:P183"/>
-    <mergeCell ref="C184:P184"/>
-    <mergeCell ref="C185:P185"/>
-    <mergeCell ref="C166:P166"/>
-    <mergeCell ref="C167:P167"/>
-    <mergeCell ref="C168:P168"/>
-    <mergeCell ref="C173:P173"/>
-    <mergeCell ref="C174:P174"/>
-    <mergeCell ref="C175:P175"/>
-    <mergeCell ref="C176:P176"/>
-    <mergeCell ref="C177:P177"/>
-    <mergeCell ref="C178:P178"/>
-    <mergeCell ref="C145:P145"/>
-    <mergeCell ref="C153:P153"/>
-    <mergeCell ref="C154:P154"/>
+    <mergeCell ref="H13:R13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="H45:P45"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H43:P43"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="H33:P33"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H23:R23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H46:P46"/>
+    <mergeCell ref="H44:N44"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="L75:Q75"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="E77:J77"/>
+    <mergeCell ref="L67:R67"/>
+    <mergeCell ref="M72:R72"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="H66:Q66"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="C193:F193"/>
+    <mergeCell ref="H193:J193"/>
+    <mergeCell ref="G195:J195"/>
+    <mergeCell ref="G197:J197"/>
+    <mergeCell ref="G205:J205"/>
+    <mergeCell ref="G207:J207"/>
+    <mergeCell ref="F143:P143"/>
     <mergeCell ref="C143:E143"/>
-    <mergeCell ref="C134:G134"/>
-    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="G215:J215"/>
+    <mergeCell ref="G217:J217"/>
+    <mergeCell ref="G225:J225"/>
+    <mergeCell ref="G227:J227"/>
+    <mergeCell ref="G257:J257"/>
+    <mergeCell ref="G265:J265"/>
+    <mergeCell ref="G267:J267"/>
+    <mergeCell ref="G235:J235"/>
+    <mergeCell ref="G237:J237"/>
+    <mergeCell ref="G245:J245"/>
+    <mergeCell ref="G247:J247"/>
+    <mergeCell ref="G255:J255"/>
+    <mergeCell ref="O272:R272"/>
+    <mergeCell ref="G285:J285"/>
+    <mergeCell ref="G287:J287"/>
+    <mergeCell ref="G295:J295"/>
+    <mergeCell ref="G297:J297"/>
+    <mergeCell ref="C293:F293"/>
+    <mergeCell ref="G293:L293"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -16563,8 +16613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" activeCellId="1" sqref="D36 J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16580,10 +16630,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="142"/>
+      <c r="B2" s="141"/>
       <c r="C2" s="41" t="s">
         <v>18</v>
       </c>
@@ -16602,10 +16652,10 @@
       <c r="I2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="143" t="s">
+      <c r="J2" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="143"/>
+      <c r="K2" s="142"/>
     </row>
     <row r="3" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
@@ -16618,12 +16668,12 @@
       <c r="E3" s="45"/>
       <c r="G3" s="45"/>
       <c r="I3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="144" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="144"/>
+      <c r="K3" s="143"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -16645,10 +16695,10 @@
       <c r="I4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="144" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" s="144"/>
+      <c r="J4" s="143" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="143"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -16731,7 +16781,7 @@
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="55"/>
     </row>
@@ -16748,7 +16798,7 @@
       </c>
       <c r="D11" s="29"/>
       <c r="F11" s="70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="53" t="s">
         <v>34</v>
@@ -16824,7 +16874,7 @@
       </c>
       <c r="D15" s="29"/>
       <c r="F15" s="56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15" s="53" t="s">
         <v>34</v>
@@ -16860,11 +16910,11 @@
       <c r="E17" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="151" t="s">
+      <c r="F17" s="73" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -16930,7 +16980,7 @@
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
       <c r="F21" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G21" s="53" t="s">
         <v>34</v>
@@ -16948,10 +16998,10 @@
       <c r="H22" s="51"/>
     </row>
     <row r="23" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="142" t="s">
+      <c r="A23" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="142"/>
+      <c r="B23" s="141"/>
       <c r="C23" s="41" t="s">
         <v>18</v>
       </c>
@@ -17064,7 +17114,9 @@
         <f t="shared" si="3"/>
         <v>43887</v>
       </c>
-      <c r="F30" s="29"/>
+      <c r="F30" s="29" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
@@ -17107,9 +17159,11 @@
         <f t="shared" si="3"/>
         <v>43908</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
+      <c r="D33" s="144" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="144"/>
+      <c r="F33" s="144"/>
       <c r="G33" s="55"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -17141,6 +17195,9 @@
         <v>43922</v>
       </c>
       <c r="D35" s="29"/>
+      <c r="F35" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
@@ -17156,8 +17213,8 @@
         <v>43929</v>
       </c>
       <c r="D36" s="29"/>
-      <c r="F36" s="108" t="s">
-        <v>49</v>
+      <c r="F36" s="113" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -17174,7 +17231,7 @@
         <v>43936</v>
       </c>
       <c r="D37" s="44"/>
-      <c r="F37" s="108"/>
+      <c r="F37" s="113"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
@@ -17190,7 +17247,7 @@
         <v>43943</v>
       </c>
       <c r="D38" s="29"/>
-      <c r="F38" s="108"/>
+      <c r="F38" s="113"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
@@ -17222,7 +17279,7 @@
         <v>43957</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F40" s="39"/>
     </row>
@@ -17258,7 +17315,7 @@
         <v>43971</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F42" s="39"/>
     </row>
@@ -17268,13 +17325,14 @@
       <c r="C43" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="F36:F38"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D33:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Weekly Planner.xlsx
+++ b/Weekly Planner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SoftwareProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCF6E8C-E2E2-4C72-9C42-0CC164779235}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989E04D0-5703-415D-8FD0-153A41C896DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Planner" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="105">
   <si>
     <t>Monday</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>Timetable</t>
-  </si>
-  <si>
-    <t>Ethics Document (TBD)</t>
   </si>
   <si>
     <t>Date</t>
@@ -1275,166 +1272,35 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="24" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="16" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="25" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="26" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="5" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="45" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="11" borderId="4" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="8" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="39" xfId="8" applyBorder="1" applyAlignment="1">
@@ -1464,6 +1330,24 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="44" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1473,7 +1357,139 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="11" borderId="4" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="5" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1488,26 +1504,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="8" borderId="24" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="25" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="26" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="45" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1810,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G195" sqref="G195:J195"/>
+    <sheetView topLeftCell="A182" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G205" sqref="G205:J205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1827,7 +1824,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="5">
         <v>0.375</v>
@@ -1907,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="20"/>
@@ -1934,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="20"/>
@@ -1961,7 +1958,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="32"/>
       <c r="D5" s="20"/>
@@ -1988,7 +1985,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -2015,7 +2012,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="20"/>
@@ -2039,7 +2036,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="43"/>
@@ -2063,7 +2060,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="43"/>
@@ -2106,7 +2103,7 @@
     <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="5">
         <v>0.375</v>
@@ -2164,7 +2161,7 @@
         <v>43724</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="59">
         <v>1</v>
@@ -2194,26 +2191,26 @@
       <c r="B13" s="57">
         <v>43724</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="96"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="132" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="133"/>
+      <c r="M13" s="133"/>
+      <c r="N13" s="133"/>
+      <c r="O13" s="133"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="133"/>
+      <c r="R13" s="134"/>
       <c r="S13" s="51"/>
       <c r="T13" s="30" t="s">
         <v>22</v>
@@ -2226,26 +2223,26 @@
       <c r="B14" s="57">
         <v>43725</v>
       </c>
-      <c r="C14" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
+      <c r="C14" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K14" s="98"/>
       <c r="L14" s="98"/>
       <c r="M14" s="98"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="P14" s="96"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="132" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" s="134"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="51"/>
@@ -2288,20 +2285,20 @@
       <c r="B16" s="57">
         <v>43727</v>
       </c>
-      <c r="C16" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="109" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
+      <c r="C16" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="136" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="136"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="136"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
@@ -2415,7 +2412,7 @@
     <row r="21" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="5">
         <v>0.375</v>
@@ -2474,7 +2471,7 @@
         <v>43731</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="59">
         <f>C12+1</f>
@@ -2506,26 +2503,26 @@
         <f>B13+7</f>
         <v>43731</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="96"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="132" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="133"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="133"/>
+      <c r="L23" s="133"/>
+      <c r="M23" s="133"/>
+      <c r="N23" s="133"/>
+      <c r="O23" s="133"/>
+      <c r="P23" s="133"/>
+      <c r="Q23" s="133"/>
+      <c r="R23" s="134"/>
       <c r="S23" s="51"/>
       <c r="T23" s="30" t="s">
         <v>22</v>
@@ -2539,30 +2536,30 @@
         <f t="shared" ref="B24:B29" si="0">B14+7</f>
         <v>43732</v>
       </c>
-      <c r="C24" s="88" t="s">
+      <c r="C24" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="132" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="137"/>
+      <c r="J24" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" s="113"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="112" t="s">
+        <v>54</v>
+      </c>
+      <c r="N24" s="114"/>
+      <c r="O24" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="80"/>
-      <c r="J24" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24" s="90"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="89" t="s">
-        <v>55</v>
-      </c>
-      <c r="N24" s="91"/>
-      <c r="O24" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="P24" s="99"/>
+      <c r="P24" s="131"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
       <c r="S24" s="51"/>
@@ -2607,20 +2604,20 @@
         <f t="shared" si="0"/>
         <v>43734</v>
       </c>
-      <c r="C26" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93"/>
+      <c r="C26" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="103" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="103"/>
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
@@ -2737,7 +2734,7 @@
     <row r="31" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="5">
         <v>0.375</v>
@@ -2796,18 +2793,18 @@
         <v>43738</v>
       </c>
       <c r="B32" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="59">
         <f>C22+1</f>
         <v>3</v>
       </c>
-      <c r="D32" s="108" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
+      <c r="D32" s="135" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="135"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="135"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
@@ -2830,24 +2827,24 @@
         <f>B23+7</f>
         <v>43738</v>
       </c>
-      <c r="C33" s="88" t="s">
+      <c r="C33" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="93" t="s">
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="93"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
       <c r="Q33" s="62"/>
       <c r="R33" s="62"/>
       <c r="S33" s="51"/>
@@ -2863,13 +2860,13 @@
         <f t="shared" ref="B34:B39" si="1">B24+7</f>
         <v>43739</v>
       </c>
-      <c r="C34" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
+      <c r="C34" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
       <c r="H34" s="62"/>
       <c r="I34" s="62"/>
       <c r="J34" s="62"/>
@@ -2923,13 +2920,13 @@
         <f t="shared" si="1"/>
         <v>43741</v>
       </c>
-      <c r="C36" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
+      <c r="C36" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="63"/>
@@ -3051,7 +3048,7 @@
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" s="5">
         <v>0.375</v>
@@ -3110,7 +3107,7 @@
         <v>43745</v>
       </c>
       <c r="B42" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="59">
         <f>C32+1</f>
@@ -3142,24 +3139,24 @@
         <f>B33+7</f>
         <v>43745</v>
       </c>
-      <c r="C43" s="88" t="s">
+      <c r="C43" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="103" t="s">
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="103"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="103"/>
-      <c r="L43" s="103"/>
-      <c r="M43" s="103"/>
-      <c r="N43" s="103"/>
-      <c r="O43" s="103"/>
-      <c r="P43" s="103"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="83"/>
+      <c r="L43" s="83"/>
+      <c r="M43" s="83"/>
+      <c r="N43" s="83"/>
+      <c r="O43" s="83"/>
+      <c r="P43" s="83"/>
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
       <c r="S43" s="51"/>
@@ -3175,22 +3172,22 @@
         <f t="shared" ref="B44:B49" si="2">B34+7</f>
         <v>43746</v>
       </c>
-      <c r="C44" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="85"/>
-      <c r="M44" s="85"/>
-      <c r="N44" s="85"/>
+      <c r="C44" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="105" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" s="138"/>
+      <c r="J44" s="138"/>
+      <c r="K44" s="138"/>
+      <c r="L44" s="138"/>
+      <c r="M44" s="138"/>
+      <c r="N44" s="138"/>
       <c r="O44" s="49"/>
       <c r="P44" s="49"/>
       <c r="Q44" s="49"/>
@@ -3213,17 +3210,17 @@
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
-      <c r="H45" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="I45" s="101"/>
-      <c r="J45" s="101"/>
-      <c r="K45" s="101"/>
-      <c r="L45" s="101"/>
-      <c r="M45" s="101"/>
-      <c r="N45" s="101"/>
-      <c r="O45" s="101"/>
-      <c r="P45" s="102"/>
+      <c r="H45" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="95"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="95"/>
+      <c r="P45" s="96"/>
       <c r="Q45" s="49"/>
       <c r="R45" s="49"/>
       <c r="S45" s="51"/>
@@ -3239,24 +3236,24 @@
         <f t="shared" si="2"/>
         <v>43748</v>
       </c>
-      <c r="C46" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="82"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="82"/>
-      <c r="O46" s="82"/>
-      <c r="P46" s="83"/>
+      <c r="C46" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="108" t="s">
+        <v>60</v>
+      </c>
+      <c r="I46" s="109"/>
+      <c r="J46" s="109"/>
+      <c r="K46" s="109"/>
+      <c r="L46" s="109"/>
+      <c r="M46" s="109"/>
+      <c r="N46" s="109"/>
+      <c r="O46" s="109"/>
+      <c r="P46" s="110"/>
       <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
       <c r="S46" s="51"/>
@@ -3369,7 +3366,7 @@
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51" s="5">
         <v>0.375</v>
@@ -3428,18 +3425,18 @@
         <v>43752</v>
       </c>
       <c r="B52" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C52" s="59">
         <f>C42+1</f>
         <v>5</v>
       </c>
       <c r="G52" s="15"/>
-      <c r="H52" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="I52" s="86"/>
-      <c r="J52" s="86"/>
+      <c r="H52" s="139" t="s">
+        <v>65</v>
+      </c>
+      <c r="I52" s="139"/>
+      <c r="J52" s="139"/>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
       <c r="M52" s="19"/>
@@ -3459,23 +3456,23 @@
         <f>B43+7</f>
         <v>43752</v>
       </c>
-      <c r="C53" s="88" t="s">
+      <c r="C53" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="88"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="88"/>
-      <c r="G53" s="88"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
       <c r="H53" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="I53" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="I53" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="90"/>
-      <c r="K53" s="90"/>
-      <c r="L53" s="90"/>
-      <c r="M53" s="90"/>
+      <c r="J53" s="113"/>
+      <c r="K53" s="113"/>
+      <c r="L53" s="113"/>
+      <c r="M53" s="113"/>
       <c r="N53" s="49"/>
       <c r="O53" s="49"/>
       <c r="P53" s="49"/>
@@ -3494,28 +3491,28 @@
         <f t="shared" ref="B54:B59" si="3">B44+7</f>
         <v>43753</v>
       </c>
-      <c r="C54" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="I54" s="111"/>
-      <c r="J54" s="111"/>
-      <c r="K54" s="111"/>
-      <c r="L54" s="111"/>
-      <c r="M54" s="111"/>
-      <c r="N54" s="111"/>
-      <c r="O54" s="111"/>
-      <c r="P54" s="111"/>
-      <c r="Q54" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="R54" s="96"/>
+      <c r="C54" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="123" t="s">
+        <v>61</v>
+      </c>
+      <c r="I54" s="124"/>
+      <c r="J54" s="124"/>
+      <c r="K54" s="124"/>
+      <c r="L54" s="124"/>
+      <c r="M54" s="124"/>
+      <c r="N54" s="124"/>
+      <c r="O54" s="124"/>
+      <c r="P54" s="124"/>
+      <c r="Q54" s="132" t="s">
+        <v>68</v>
+      </c>
+      <c r="R54" s="134"/>
       <c r="S54" s="51"/>
       <c r="T54" s="53" t="s">
         <v>19</v>
@@ -3533,18 +3530,18 @@
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
-      <c r="G55" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="H55" s="88"/>
-      <c r="I55" s="92" t="s">
+      <c r="G55" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="H55" s="75"/>
+      <c r="I55" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="J55" s="90"/>
-      <c r="K55" s="90"/>
-      <c r="L55" s="90"/>
-      <c r="M55" s="90"/>
-      <c r="N55" s="90"/>
+      <c r="J55" s="113"/>
+      <c r="K55" s="113"/>
+      <c r="L55" s="113"/>
+      <c r="M55" s="113"/>
+      <c r="N55" s="113"/>
       <c r="O55" s="49"/>
       <c r="P55" s="49"/>
       <c r="Q55" s="49"/>
@@ -3562,21 +3559,21 @@
         <f t="shared" si="3"/>
         <v>43755</v>
       </c>
-      <c r="C56" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" s="88"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="88"/>
-      <c r="G56" s="88"/>
-      <c r="H56" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="I56" s="85"/>
-      <c r="J56" s="85"/>
-      <c r="K56" s="85"/>
-      <c r="L56" s="85"/>
-      <c r="M56" s="85"/>
+      <c r="C56" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="142" t="s">
+        <v>69</v>
+      </c>
+      <c r="I56" s="138"/>
+      <c r="J56" s="138"/>
+      <c r="K56" s="138"/>
+      <c r="L56" s="138"/>
+      <c r="M56" s="138"/>
       <c r="N56" s="49"/>
       <c r="O56" s="49"/>
       <c r="P56" s="49"/>
@@ -3608,11 +3605,11 @@
       <c r="M57" s="49"/>
       <c r="N57" s="49"/>
       <c r="O57" s="49"/>
-      <c r="P57" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q57" s="82"/>
-      <c r="R57" s="83"/>
+      <c r="P57" s="108" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q57" s="109"/>
+      <c r="R57" s="110"/>
       <c r="S57" s="51"/>
       <c r="T57" s="51"/>
     </row>
@@ -3626,31 +3623,31 @@
       </c>
       <c r="C58" s="50"/>
       <c r="D58" s="49"/>
-      <c r="E58" s="121" t="s">
-        <v>42</v>
-      </c>
-      <c r="F58" s="82"/>
-      <c r="G58" s="126"/>
-      <c r="H58" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="I58" s="88"/>
-      <c r="J58" s="89" t="s">
-        <v>42</v>
-      </c>
-      <c r="K58" s="90"/>
-      <c r="L58" s="90"/>
-      <c r="M58" s="90"/>
-      <c r="N58" s="90"/>
-      <c r="O58" s="90"/>
-      <c r="P58" s="91"/>
+      <c r="E58" s="118" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" s="109"/>
+      <c r="G58" s="122"/>
+      <c r="H58" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="I58" s="75"/>
+      <c r="J58" s="112" t="s">
+        <v>41</v>
+      </c>
+      <c r="K58" s="113"/>
+      <c r="L58" s="113"/>
+      <c r="M58" s="113"/>
+      <c r="N58" s="113"/>
+      <c r="O58" s="113"/>
+      <c r="P58" s="114"/>
       <c r="Q58" s="20"/>
       <c r="R58" s="20"/>
       <c r="S58" s="51"/>
-      <c r="T58" s="120" t="s">
-        <v>71</v>
-      </c>
-      <c r="U58" s="120"/>
+      <c r="T58" s="117" t="s">
+        <v>70</v>
+      </c>
+      <c r="U58" s="117"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -3677,8 +3674,8 @@
       <c r="Q59" s="20"/>
       <c r="R59" s="20"/>
       <c r="S59" s="51"/>
-      <c r="T59" s="120"/>
-      <c r="U59" s="120"/>
+      <c r="T59" s="117"/>
+      <c r="U59" s="117"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B60"/>
@@ -3699,13 +3696,13 @@
       <c r="Q60"/>
       <c r="R60"/>
       <c r="S60"/>
-      <c r="T60" s="120"/>
-      <c r="U60" s="120"/>
+      <c r="T60" s="117"/>
+      <c r="U60" s="117"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C61" s="5">
         <v>0.375</v>
@@ -3764,7 +3761,7 @@
         <v>43759</v>
       </c>
       <c r="B62" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C62" s="59">
         <f>C52+1</f>
@@ -3774,11 +3771,11 @@
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
-      <c r="H62" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="I62" s="86"/>
-      <c r="J62" s="86"/>
+      <c r="H62" s="139" t="s">
+        <v>71</v>
+      </c>
+      <c r="I62" s="139"/>
+      <c r="J62" s="139"/>
       <c r="K62" s="19"/>
       <c r="L62" s="19"/>
       <c r="M62" s="19"/>
@@ -3798,22 +3795,22 @@
         <f>B53+7</f>
         <v>43759</v>
       </c>
-      <c r="C63" s="88" t="s">
+      <c r="C63" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="88"/>
-      <c r="E63" s="88"/>
-      <c r="F63" s="88"/>
-      <c r="G63" s="88"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="75"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="75"/>
       <c r="H63" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="I63" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="J63" s="90"/>
-      <c r="K63" s="90"/>
-      <c r="L63" s="90"/>
+        <v>66</v>
+      </c>
+      <c r="I63" s="112" t="s">
+        <v>74</v>
+      </c>
+      <c r="J63" s="113"/>
+      <c r="K63" s="113"/>
+      <c r="L63" s="113"/>
       <c r="M63" s="49"/>
       <c r="N63" s="49"/>
       <c r="O63" s="49"/>
@@ -3833,22 +3830,22 @@
         <f t="shared" ref="B64:B69" si="4">B54+7</f>
         <v>43760</v>
       </c>
-      <c r="C64" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D64" s="88"/>
-      <c r="E64" s="88"/>
-      <c r="F64" s="88"/>
-      <c r="G64" s="88"/>
-      <c r="H64" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="I64" s="82"/>
-      <c r="J64" s="82"/>
-      <c r="K64" s="82"/>
-      <c r="L64" s="82"/>
-      <c r="M64" s="82"/>
-      <c r="N64" s="82"/>
+      <c r="C64" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="I64" s="109"/>
+      <c r="J64" s="109"/>
+      <c r="K64" s="109"/>
+      <c r="L64" s="109"/>
+      <c r="M64" s="109"/>
+      <c r="N64" s="109"/>
       <c r="O64" s="49"/>
       <c r="P64" s="49"/>
       <c r="Q64" s="49"/>
@@ -3897,25 +3894,25 @@
         <f t="shared" si="4"/>
         <v>43762</v>
       </c>
-      <c r="C66" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D66" s="88"/>
-      <c r="E66" s="88"/>
-      <c r="F66" s="88"/>
-      <c r="G66" s="88"/>
-      <c r="H66" s="105" t="s">
-        <v>76</v>
-      </c>
-      <c r="I66" s="106"/>
-      <c r="J66" s="106"/>
-      <c r="K66" s="106"/>
-      <c r="L66" s="106"/>
-      <c r="M66" s="106"/>
-      <c r="N66" s="106"/>
-      <c r="O66" s="106"/>
-      <c r="P66" s="106"/>
-      <c r="Q66" s="107"/>
+      <c r="C66" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="75"/>
+      <c r="H66" s="143" t="s">
+        <v>75</v>
+      </c>
+      <c r="I66" s="144"/>
+      <c r="J66" s="144"/>
+      <c r="K66" s="144"/>
+      <c r="L66" s="144"/>
+      <c r="M66" s="144"/>
+      <c r="N66" s="144"/>
+      <c r="O66" s="144"/>
+      <c r="P66" s="144"/>
+      <c r="Q66" s="145"/>
       <c r="R66" s="20"/>
       <c r="S66" s="51"/>
       <c r="T66" s="18" t="s">
@@ -3930,26 +3927,26 @@
         <f t="shared" si="4"/>
         <v>43763</v>
       </c>
-      <c r="C67" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="D67" s="90"/>
-      <c r="E67" s="90"/>
-      <c r="F67" s="90"/>
-      <c r="G67" s="90"/>
-      <c r="H67" s="90"/>
-      <c r="I67" s="90"/>
-      <c r="J67" s="91"/>
+      <c r="C67" s="112" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" s="113"/>
+      <c r="E67" s="113"/>
+      <c r="F67" s="113"/>
+      <c r="G67" s="113"/>
+      <c r="H67" s="113"/>
+      <c r="I67" s="113"/>
+      <c r="J67" s="114"/>
       <c r="K67" s="49"/>
-      <c r="L67" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="M67" s="90"/>
-      <c r="N67" s="90"/>
-      <c r="O67" s="90"/>
-      <c r="P67" s="90"/>
-      <c r="Q67" s="90"/>
-      <c r="R67" s="91"/>
+      <c r="L67" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="M67" s="113"/>
+      <c r="N67" s="113"/>
+      <c r="O67" s="113"/>
+      <c r="P67" s="113"/>
+      <c r="Q67" s="113"/>
+      <c r="R67" s="114"/>
       <c r="S67" s="51"/>
       <c r="T67" s="51"/>
     </row>
@@ -3988,24 +3985,24 @@
         <f t="shared" si="4"/>
         <v>43765</v>
       </c>
-      <c r="C69" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="D69" s="88"/>
-      <c r="E69" s="88"/>
-      <c r="F69" s="88"/>
-      <c r="G69" s="88"/>
-      <c r="H69" s="88"/>
-      <c r="I69" s="88"/>
-      <c r="J69" s="88"/>
-      <c r="K69" s="88"/>
-      <c r="L69" s="88"/>
-      <c r="M69" s="88"/>
-      <c r="N69" s="88"/>
-      <c r="O69" s="88"/>
-      <c r="P69" s="88"/>
-      <c r="Q69" s="88"/>
-      <c r="R69" s="88"/>
+      <c r="C69" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" s="75"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="75"/>
+      <c r="G69" s="75"/>
+      <c r="H69" s="75"/>
+      <c r="I69" s="75"/>
+      <c r="J69" s="75"/>
+      <c r="K69" s="75"/>
+      <c r="L69" s="75"/>
+      <c r="M69" s="75"/>
+      <c r="N69" s="75"/>
+      <c r="O69" s="75"/>
+      <c r="P69" s="75"/>
+      <c r="Q69" s="75"/>
+      <c r="R69" s="75"/>
       <c r="S69" s="51"/>
       <c r="T69" s="51"/>
     </row>
@@ -4033,7 +4030,7 @@
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C71" s="5">
         <v>0.375</v>
@@ -4092,33 +4089,33 @@
         <v>43766</v>
       </c>
       <c r="B72" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C72" s="59">
         <f>C62+1</f>
         <v>7</v>
       </c>
-      <c r="D72" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="E72" s="87"/>
-      <c r="F72" s="87"/>
+      <c r="D72" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" s="104"/>
+      <c r="F72" s="104"/>
       <c r="G72" s="15"/>
-      <c r="H72" s="122" t="s">
-        <v>81</v>
-      </c>
-      <c r="I72" s="122"/>
-      <c r="J72" s="122"/>
-      <c r="K72" s="122"/>
+      <c r="H72" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="I72" s="115"/>
+      <c r="J72" s="115"/>
+      <c r="K72" s="115"/>
       <c r="L72" s="19"/>
-      <c r="M72" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="N72" s="94"/>
-      <c r="O72" s="94"/>
-      <c r="P72" s="94"/>
-      <c r="Q72" s="94"/>
-      <c r="R72" s="94"/>
+      <c r="M72" s="141" t="s">
+        <v>73</v>
+      </c>
+      <c r="N72" s="141"/>
+      <c r="O72" s="141"/>
+      <c r="P72" s="141"/>
+      <c r="Q72" s="141"/>
+      <c r="R72" s="141"/>
       <c r="S72" s="51"/>
       <c r="T72" s="51"/>
     </row>
@@ -4132,23 +4129,23 @@
       </c>
       <c r="C73" s="32"/>
       <c r="D73" s="20"/>
-      <c r="E73" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="F73" s="103"/>
-      <c r="G73" s="103"/>
-      <c r="H73" s="103"/>
-      <c r="I73" s="103"/>
-      <c r="J73" s="103"/>
+      <c r="E73" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="F73" s="83"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="83"/>
+      <c r="J73" s="83"/>
       <c r="K73" s="49"/>
-      <c r="L73" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="M73" s="90"/>
-      <c r="N73" s="90"/>
-      <c r="O73" s="90"/>
-      <c r="P73" s="90"/>
-      <c r="Q73" s="91"/>
+      <c r="L73" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="M73" s="113"/>
+      <c r="N73" s="113"/>
+      <c r="O73" s="113"/>
+      <c r="P73" s="113"/>
+      <c r="Q73" s="114"/>
       <c r="R73" s="49"/>
       <c r="S73" s="51"/>
       <c r="T73" s="30" t="s">
@@ -4163,27 +4160,27 @@
         <f t="shared" ref="B74:B79" si="5">B64+7</f>
         <v>43767</v>
       </c>
-      <c r="C74" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="D74" s="91"/>
-      <c r="E74" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="F74" s="103"/>
-      <c r="G74" s="103"/>
-      <c r="H74" s="103"/>
-      <c r="I74" s="103"/>
-      <c r="J74" s="103"/>
+      <c r="C74" s="112" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" s="114"/>
+      <c r="E74" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="F74" s="83"/>
+      <c r="G74" s="83"/>
+      <c r="H74" s="83"/>
+      <c r="I74" s="83"/>
+      <c r="J74" s="83"/>
       <c r="K74" s="49"/>
-      <c r="L74" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="M74" s="90"/>
-      <c r="N74" s="90"/>
-      <c r="O74" s="90"/>
-      <c r="P74" s="90"/>
-      <c r="Q74" s="91"/>
+      <c r="L74" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="M74" s="113"/>
+      <c r="N74" s="113"/>
+      <c r="O74" s="113"/>
+      <c r="P74" s="113"/>
+      <c r="Q74" s="114"/>
       <c r="R74" s="20"/>
       <c r="S74" s="51"/>
       <c r="T74" s="53" t="s">
@@ -4200,23 +4197,23 @@
       </c>
       <c r="C75" s="32"/>
       <c r="D75" s="20"/>
-      <c r="E75" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="F75" s="103"/>
-      <c r="G75" s="103"/>
-      <c r="H75" s="103"/>
-      <c r="I75" s="103"/>
-      <c r="J75" s="103"/>
+      <c r="E75" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="F75" s="83"/>
+      <c r="G75" s="83"/>
+      <c r="H75" s="83"/>
+      <c r="I75" s="83"/>
+      <c r="J75" s="83"/>
       <c r="K75" s="49"/>
-      <c r="L75" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="M75" s="90"/>
-      <c r="N75" s="90"/>
-      <c r="O75" s="90"/>
-      <c r="P75" s="90"/>
-      <c r="Q75" s="91"/>
+      <c r="L75" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="M75" s="113"/>
+      <c r="N75" s="113"/>
+      <c r="O75" s="113"/>
+      <c r="P75" s="113"/>
+      <c r="Q75" s="114"/>
       <c r="R75" s="49"/>
       <c r="S75" s="51"/>
       <c r="T75" s="52" t="s">
@@ -4231,24 +4228,24 @@
         <f t="shared" si="5"/>
         <v>43769</v>
       </c>
-      <c r="C76" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="D76" s="88"/>
-      <c r="E76" s="88"/>
-      <c r="F76" s="88"/>
-      <c r="G76" s="88"/>
-      <c r="H76" s="88"/>
-      <c r="I76" s="88"/>
-      <c r="J76" s="88"/>
-      <c r="K76" s="88"/>
-      <c r="L76" s="88"/>
-      <c r="M76" s="88"/>
-      <c r="N76" s="88"/>
-      <c r="O76" s="88"/>
-      <c r="P76" s="88"/>
-      <c r="Q76" s="88"/>
-      <c r="R76" s="88"/>
+      <c r="C76" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76" s="75"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="75"/>
+      <c r="G76" s="75"/>
+      <c r="H76" s="75"/>
+      <c r="I76" s="75"/>
+      <c r="J76" s="75"/>
+      <c r="K76" s="75"/>
+      <c r="L76" s="75"/>
+      <c r="M76" s="75"/>
+      <c r="N76" s="75"/>
+      <c r="O76" s="75"/>
+      <c r="P76" s="75"/>
+      <c r="Q76" s="75"/>
+      <c r="R76" s="75"/>
       <c r="S76" s="51"/>
       <c r="T76" s="18" t="s">
         <v>21</v>
@@ -4264,23 +4261,23 @@
       </c>
       <c r="C77" s="32"/>
       <c r="D77" s="20"/>
-      <c r="E77" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="F77" s="93"/>
-      <c r="G77" s="93"/>
-      <c r="H77" s="93"/>
-      <c r="I77" s="93"/>
-      <c r="J77" s="93"/>
+      <c r="E77" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="F77" s="103"/>
+      <c r="G77" s="103"/>
+      <c r="H77" s="103"/>
+      <c r="I77" s="103"/>
+      <c r="J77" s="103"/>
       <c r="K77" s="49"/>
-      <c r="L77" s="123" t="s">
-        <v>65</v>
-      </c>
-      <c r="M77" s="124"/>
-      <c r="N77" s="124"/>
-      <c r="O77" s="124"/>
-      <c r="P77" s="124"/>
-      <c r="Q77" s="125"/>
+      <c r="L77" s="119" t="s">
+        <v>64</v>
+      </c>
+      <c r="M77" s="120"/>
+      <c r="N77" s="120"/>
+      <c r="O77" s="120"/>
+      <c r="P77" s="120"/>
+      <c r="Q77" s="121"/>
       <c r="R77" s="20"/>
       <c r="S77" s="51"/>
       <c r="T77" s="51"/>
@@ -4295,23 +4292,23 @@
       </c>
       <c r="C78" s="50"/>
       <c r="D78" s="49"/>
-      <c r="E78" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="F78" s="93"/>
-      <c r="G78" s="93"/>
-      <c r="H78" s="93"/>
-      <c r="I78" s="93"/>
-      <c r="J78" s="93"/>
+      <c r="E78" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="F78" s="103"/>
+      <c r="G78" s="103"/>
+      <c r="H78" s="103"/>
+      <c r="I78" s="103"/>
+      <c r="J78" s="103"/>
       <c r="K78" s="49"/>
-      <c r="L78" s="123" t="s">
-        <v>65</v>
-      </c>
-      <c r="M78" s="124"/>
-      <c r="N78" s="124"/>
-      <c r="O78" s="124"/>
-      <c r="P78" s="124"/>
-      <c r="Q78" s="125"/>
+      <c r="L78" s="119" t="s">
+        <v>64</v>
+      </c>
+      <c r="M78" s="120"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="120"/>
+      <c r="P78" s="120"/>
+      <c r="Q78" s="121"/>
       <c r="R78" s="49"/>
       <c r="S78" s="51"/>
       <c r="T78" s="51"/>
@@ -4324,24 +4321,24 @@
         <f t="shared" si="5"/>
         <v>43772</v>
       </c>
-      <c r="C79" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="D79" s="88"/>
-      <c r="E79" s="88"/>
-      <c r="F79" s="88"/>
-      <c r="G79" s="88"/>
-      <c r="H79" s="88"/>
-      <c r="I79" s="88"/>
-      <c r="J79" s="88"/>
-      <c r="K79" s="88"/>
-      <c r="L79" s="88"/>
-      <c r="M79" s="88"/>
-      <c r="N79" s="88"/>
-      <c r="O79" s="88"/>
-      <c r="P79" s="88"/>
-      <c r="Q79" s="88"/>
-      <c r="R79" s="88"/>
+      <c r="C79" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D79" s="75"/>
+      <c r="E79" s="75"/>
+      <c r="F79" s="75"/>
+      <c r="G79" s="75"/>
+      <c r="H79" s="75"/>
+      <c r="I79" s="75"/>
+      <c r="J79" s="75"/>
+      <c r="K79" s="75"/>
+      <c r="L79" s="75"/>
+      <c r="M79" s="75"/>
+      <c r="N79" s="75"/>
+      <c r="O79" s="75"/>
+      <c r="P79" s="75"/>
+      <c r="Q79" s="75"/>
+      <c r="R79" s="75"/>
       <c r="S79" s="51"/>
       <c r="T79" s="51"/>
     </row>
@@ -4349,7 +4346,7 @@
     <row r="81" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C81" s="5">
         <v>0.375</v>
@@ -4409,17 +4406,17 @@
         <v>43773</v>
       </c>
       <c r="B82" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C82" s="59">
         <f>C72+1</f>
         <v>8</v>
       </c>
-      <c r="D82" s="87" t="s">
-        <v>40</v>
-      </c>
-      <c r="E82" s="87"/>
-      <c r="F82" s="87"/>
+      <c r="D82" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82" s="104"/>
+      <c r="F82" s="104"/>
       <c r="G82" s="15"/>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -4444,24 +4441,24 @@
         <f>B73+7</f>
         <v>43773</v>
       </c>
-      <c r="C83" s="88" t="s">
+      <c r="C83" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="88"/>
-      <c r="E83" s="88"/>
-      <c r="F83" s="88"/>
-      <c r="G83" s="88"/>
-      <c r="H83" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="I83" s="82"/>
-      <c r="J83" s="82"/>
-      <c r="K83" s="82"/>
-      <c r="L83" s="82"/>
-      <c r="M83" s="82"/>
-      <c r="N83" s="82"/>
-      <c r="O83" s="82"/>
-      <c r="P83" s="83"/>
+      <c r="D83" s="75"/>
+      <c r="E83" s="75"/>
+      <c r="F83" s="75"/>
+      <c r="G83" s="75"/>
+      <c r="H83" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="I83" s="109"/>
+      <c r="J83" s="109"/>
+      <c r="K83" s="109"/>
+      <c r="L83" s="109"/>
+      <c r="M83" s="109"/>
+      <c r="N83" s="109"/>
+      <c r="O83" s="109"/>
+      <c r="P83" s="110"/>
       <c r="Q83" s="20"/>
       <c r="R83" s="20"/>
       <c r="S83" s="51"/>
@@ -4478,28 +4475,28 @@
         <f t="shared" ref="B84:B89" si="6">B74+7</f>
         <v>43774</v>
       </c>
-      <c r="C84" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D84" s="88"/>
-      <c r="E84" s="88"/>
-      <c r="F84" s="88"/>
-      <c r="G84" s="88"/>
-      <c r="H84" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="I84" s="88"/>
-      <c r="J84" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="K84" s="82"/>
-      <c r="L84" s="82"/>
-      <c r="M84" s="82"/>
-      <c r="N84" s="82"/>
-      <c r="O84" s="82"/>
-      <c r="P84" s="82"/>
-      <c r="Q84" s="82"/>
-      <c r="R84" s="83"/>
+      <c r="C84" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="75"/>
+      <c r="E84" s="75"/>
+      <c r="F84" s="75"/>
+      <c r="G84" s="75"/>
+      <c r="H84" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="I84" s="75"/>
+      <c r="J84" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="K84" s="109"/>
+      <c r="L84" s="109"/>
+      <c r="M84" s="109"/>
+      <c r="N84" s="109"/>
+      <c r="O84" s="109"/>
+      <c r="P84" s="109"/>
+      <c r="Q84" s="109"/>
+      <c r="R84" s="110"/>
       <c r="S84" s="51"/>
       <c r="T84" s="53" t="s">
         <v>19</v>
@@ -4516,17 +4513,17 @@
       </c>
       <c r="C85" s="32"/>
       <c r="D85" s="20"/>
-      <c r="E85" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="F85" s="82"/>
-      <c r="G85" s="82"/>
-      <c r="H85" s="82"/>
-      <c r="I85" s="82"/>
-      <c r="J85" s="82"/>
-      <c r="K85" s="82"/>
-      <c r="L85" s="82"/>
-      <c r="M85" s="83"/>
+      <c r="E85" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="F85" s="109"/>
+      <c r="G85" s="109"/>
+      <c r="H85" s="109"/>
+      <c r="I85" s="109"/>
+      <c r="J85" s="109"/>
+      <c r="K85" s="109"/>
+      <c r="L85" s="109"/>
+      <c r="M85" s="110"/>
       <c r="N85" s="49"/>
       <c r="O85" s="49"/>
       <c r="P85" s="49"/>
@@ -4546,13 +4543,13 @@
         <f t="shared" si="6"/>
         <v>43776</v>
       </c>
-      <c r="C86" s="119" t="s">
-        <v>68</v>
-      </c>
-      <c r="D86" s="119"/>
-      <c r="E86" s="119"/>
-      <c r="F86" s="119"/>
-      <c r="G86" s="119"/>
+      <c r="C86" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="D86" s="116"/>
+      <c r="E86" s="116"/>
+      <c r="F86" s="116"/>
+      <c r="G86" s="116"/>
       <c r="H86" s="49"/>
       <c r="I86" s="49"/>
       <c r="J86" s="49"/>
@@ -4634,24 +4631,24 @@
         <f t="shared" si="6"/>
         <v>43779</v>
       </c>
-      <c r="C89" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="D89" s="88"/>
-      <c r="E89" s="88"/>
-      <c r="F89" s="88"/>
-      <c r="G89" s="88"/>
-      <c r="H89" s="88"/>
-      <c r="I89" s="88"/>
-      <c r="J89" s="88"/>
-      <c r="K89" s="88"/>
-      <c r="L89" s="88"/>
-      <c r="M89" s="88"/>
-      <c r="N89" s="88"/>
-      <c r="O89" s="88"/>
-      <c r="P89" s="88"/>
-      <c r="Q89" s="88"/>
-      <c r="R89" s="88"/>
+      <c r="C89" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D89" s="75"/>
+      <c r="E89" s="75"/>
+      <c r="F89" s="75"/>
+      <c r="G89" s="75"/>
+      <c r="H89" s="75"/>
+      <c r="I89" s="75"/>
+      <c r="J89" s="75"/>
+      <c r="K89" s="75"/>
+      <c r="L89" s="75"/>
+      <c r="M89" s="75"/>
+      <c r="N89" s="75"/>
+      <c r="O89" s="75"/>
+      <c r="P89" s="75"/>
+      <c r="Q89" s="75"/>
+      <c r="R89" s="75"/>
       <c r="S89" s="51"/>
       <c r="T89" s="51"/>
       <c r="U89" s="54"/>
@@ -4660,7 +4657,7 @@
     <row r="91" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C91" s="5">
         <v>0.375</v>
@@ -4720,7 +4717,7 @@
         <v>43780</v>
       </c>
       <c r="B92" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C92" s="59">
         <f>C82+1</f>
@@ -4753,24 +4750,24 @@
         <f>B83+7</f>
         <v>43780</v>
       </c>
-      <c r="C93" s="88" t="s">
+      <c r="C93" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="88"/>
-      <c r="E93" s="88"/>
-      <c r="F93" s="88"/>
-      <c r="G93" s="88"/>
-      <c r="H93" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="I93" s="103"/>
-      <c r="J93" s="103"/>
-      <c r="K93" s="103"/>
-      <c r="L93" s="103"/>
-      <c r="M93" s="103"/>
-      <c r="N93" s="103"/>
-      <c r="O93" s="103"/>
-      <c r="P93" s="103"/>
+      <c r="D93" s="75"/>
+      <c r="E93" s="75"/>
+      <c r="F93" s="75"/>
+      <c r="G93" s="75"/>
+      <c r="H93" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="I93" s="83"/>
+      <c r="J93" s="83"/>
+      <c r="K93" s="83"/>
+      <c r="L93" s="83"/>
+      <c r="M93" s="83"/>
+      <c r="N93" s="83"/>
+      <c r="O93" s="83"/>
+      <c r="P93" s="83"/>
       <c r="Q93" s="20"/>
       <c r="R93" s="20"/>
       <c r="S93" s="51"/>
@@ -4787,24 +4784,24 @@
         <f t="shared" ref="B94:B99" si="7">B84+7</f>
         <v>43781</v>
       </c>
-      <c r="C94" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D94" s="88"/>
-      <c r="E94" s="88"/>
-      <c r="F94" s="88"/>
-      <c r="G94" s="88"/>
-      <c r="H94" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="I94" s="103"/>
-      <c r="J94" s="103"/>
-      <c r="K94" s="103"/>
-      <c r="L94" s="103"/>
-      <c r="M94" s="103"/>
-      <c r="N94" s="103"/>
-      <c r="O94" s="103"/>
-      <c r="P94" s="103"/>
+      <c r="C94" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" s="75"/>
+      <c r="E94" s="75"/>
+      <c r="F94" s="75"/>
+      <c r="G94" s="75"/>
+      <c r="H94" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="I94" s="83"/>
+      <c r="J94" s="83"/>
+      <c r="K94" s="83"/>
+      <c r="L94" s="83"/>
+      <c r="M94" s="83"/>
+      <c r="N94" s="83"/>
+      <c r="O94" s="83"/>
+      <c r="P94" s="83"/>
       <c r="Q94" s="20"/>
       <c r="R94" s="20"/>
       <c r="S94" s="51"/>
@@ -4851,20 +4848,20 @@
         <f t="shared" si="7"/>
         <v>43783</v>
       </c>
-      <c r="C96" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D96" s="88"/>
-      <c r="E96" s="88"/>
-      <c r="F96" s="88"/>
-      <c r="G96" s="88"/>
-      <c r="H96" s="89" t="s">
-        <v>85</v>
-      </c>
-      <c r="I96" s="90"/>
-      <c r="J96" s="90"/>
-      <c r="K96" s="90"/>
-      <c r="L96" s="91"/>
+      <c r="C96" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" s="75"/>
+      <c r="E96" s="75"/>
+      <c r="F96" s="75"/>
+      <c r="G96" s="75"/>
+      <c r="H96" s="112" t="s">
+        <v>84</v>
+      </c>
+      <c r="I96" s="113"/>
+      <c r="J96" s="113"/>
+      <c r="K96" s="113"/>
+      <c r="L96" s="114"/>
       <c r="M96" s="20"/>
       <c r="N96" s="20"/>
       <c r="O96" s="20"/>
@@ -4941,24 +4938,24 @@
         <f t="shared" si="7"/>
         <v>43786</v>
       </c>
-      <c r="C99" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="D99" s="88"/>
-      <c r="E99" s="88"/>
-      <c r="F99" s="88"/>
-      <c r="G99" s="88"/>
-      <c r="H99" s="88"/>
-      <c r="I99" s="88"/>
-      <c r="J99" s="88"/>
-      <c r="K99" s="88"/>
-      <c r="L99" s="88"/>
-      <c r="M99" s="88"/>
-      <c r="N99" s="88"/>
-      <c r="O99" s="88"/>
-      <c r="P99" s="88"/>
-      <c r="Q99" s="88"/>
-      <c r="R99" s="88"/>
+      <c r="C99" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D99" s="75"/>
+      <c r="E99" s="75"/>
+      <c r="F99" s="75"/>
+      <c r="G99" s="75"/>
+      <c r="H99" s="75"/>
+      <c r="I99" s="75"/>
+      <c r="J99" s="75"/>
+      <c r="K99" s="75"/>
+      <c r="L99" s="75"/>
+      <c r="M99" s="75"/>
+      <c r="N99" s="75"/>
+      <c r="O99" s="75"/>
+      <c r="P99" s="75"/>
+      <c r="Q99" s="75"/>
+      <c r="R99" s="75"/>
       <c r="S99" s="51"/>
       <c r="T99" s="51"/>
       <c r="U99" s="54"/>
@@ -4967,7 +4964,7 @@
     <row r="101" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C101" s="5">
         <v>0.375</v>
@@ -5027,7 +5024,7 @@
         <v>43787</v>
       </c>
       <c r="B102" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C102" s="59">
         <f>C92+1</f>
@@ -5060,24 +5057,24 @@
         <f>B93+7</f>
         <v>43787</v>
       </c>
-      <c r="C103" s="88" t="s">
+      <c r="C103" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="88"/>
-      <c r="E103" s="88"/>
-      <c r="F103" s="88"/>
-      <c r="G103" s="88"/>
-      <c r="H103" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="I103" s="103"/>
-      <c r="J103" s="103"/>
-      <c r="K103" s="103"/>
-      <c r="L103" s="103"/>
-      <c r="M103" s="103"/>
-      <c r="N103" s="103"/>
-      <c r="O103" s="103"/>
-      <c r="P103" s="103"/>
+      <c r="D103" s="75"/>
+      <c r="E103" s="75"/>
+      <c r="F103" s="75"/>
+      <c r="G103" s="75"/>
+      <c r="H103" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="I103" s="83"/>
+      <c r="J103" s="83"/>
+      <c r="K103" s="83"/>
+      <c r="L103" s="83"/>
+      <c r="M103" s="83"/>
+      <c r="N103" s="83"/>
+      <c r="O103" s="83"/>
+      <c r="P103" s="83"/>
       <c r="Q103" s="20"/>
       <c r="R103" s="20"/>
       <c r="S103" s="51"/>
@@ -5094,24 +5091,24 @@
         <f t="shared" ref="B104:B109" si="8">B94+7</f>
         <v>43788</v>
       </c>
-      <c r="C104" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D104" s="88"/>
-      <c r="E104" s="88"/>
-      <c r="F104" s="88"/>
-      <c r="G104" s="88"/>
-      <c r="H104" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="I104" s="103"/>
-      <c r="J104" s="103"/>
-      <c r="K104" s="103"/>
-      <c r="L104" s="103"/>
-      <c r="M104" s="103"/>
-      <c r="N104" s="103"/>
-      <c r="O104" s="103"/>
-      <c r="P104" s="103"/>
+      <c r="C104" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D104" s="75"/>
+      <c r="E104" s="75"/>
+      <c r="F104" s="75"/>
+      <c r="G104" s="75"/>
+      <c r="H104" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="I104" s="83"/>
+      <c r="J104" s="83"/>
+      <c r="K104" s="83"/>
+      <c r="L104" s="83"/>
+      <c r="M104" s="83"/>
+      <c r="N104" s="83"/>
+      <c r="O104" s="83"/>
+      <c r="P104" s="83"/>
       <c r="Q104" s="20"/>
       <c r="R104" s="20"/>
       <c r="S104" s="51"/>
@@ -5128,19 +5125,19 @@
         <f t="shared" si="8"/>
         <v>43789</v>
       </c>
-      <c r="C105" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="D105" s="117"/>
-      <c r="E105" s="117"/>
-      <c r="F105" s="117"/>
-      <c r="G105" s="117"/>
-      <c r="H105" s="117"/>
-      <c r="I105" s="117"/>
-      <c r="J105" s="117"/>
-      <c r="K105" s="117"/>
-      <c r="L105" s="117"/>
-      <c r="M105" s="118"/>
+      <c r="C105" s="128" t="s">
+        <v>84</v>
+      </c>
+      <c r="D105" s="129"/>
+      <c r="E105" s="129"/>
+      <c r="F105" s="129"/>
+      <c r="G105" s="129"/>
+      <c r="H105" s="129"/>
+      <c r="I105" s="129"/>
+      <c r="J105" s="129"/>
+      <c r="K105" s="129"/>
+      <c r="L105" s="129"/>
+      <c r="M105" s="130"/>
       <c r="N105" s="49"/>
       <c r="O105" s="49"/>
       <c r="P105" s="49"/>
@@ -5160,24 +5157,24 @@
         <f t="shared" si="8"/>
         <v>43790</v>
       </c>
-      <c r="C106" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D106" s="88"/>
-      <c r="E106" s="88"/>
-      <c r="F106" s="88"/>
-      <c r="G106" s="88"/>
-      <c r="H106" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="I106" s="103"/>
-      <c r="J106" s="103"/>
-      <c r="K106" s="103"/>
-      <c r="L106" s="103"/>
-      <c r="M106" s="103"/>
-      <c r="N106" s="103"/>
-      <c r="O106" s="103"/>
-      <c r="P106" s="103"/>
+      <c r="C106" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D106" s="75"/>
+      <c r="E106" s="75"/>
+      <c r="F106" s="75"/>
+      <c r="G106" s="75"/>
+      <c r="H106" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="I106" s="83"/>
+      <c r="J106" s="83"/>
+      <c r="K106" s="83"/>
+      <c r="L106" s="83"/>
+      <c r="M106" s="83"/>
+      <c r="N106" s="83"/>
+      <c r="O106" s="83"/>
+      <c r="P106" s="83"/>
       <c r="Q106" s="20"/>
       <c r="R106" s="20"/>
       <c r="S106" s="51"/>
@@ -5194,19 +5191,19 @@
         <f t="shared" si="8"/>
         <v>43791</v>
       </c>
-      <c r="C107" s="127" t="s">
-        <v>85</v>
-      </c>
-      <c r="D107" s="101"/>
-      <c r="E107" s="101"/>
-      <c r="F107" s="101"/>
-      <c r="G107" s="101"/>
-      <c r="H107" s="101"/>
-      <c r="I107" s="101"/>
-      <c r="J107" s="101"/>
-      <c r="K107" s="101"/>
-      <c r="L107" s="101"/>
-      <c r="M107" s="102"/>
+      <c r="C107" s="111" t="s">
+        <v>84</v>
+      </c>
+      <c r="D107" s="95"/>
+      <c r="E107" s="95"/>
+      <c r="F107" s="95"/>
+      <c r="G107" s="95"/>
+      <c r="H107" s="95"/>
+      <c r="I107" s="95"/>
+      <c r="J107" s="95"/>
+      <c r="K107" s="95"/>
+      <c r="L107" s="95"/>
+      <c r="M107" s="96"/>
       <c r="N107" s="20"/>
       <c r="O107" s="20"/>
       <c r="P107" s="20"/>
@@ -5252,24 +5249,24 @@
         <f t="shared" si="8"/>
         <v>43793</v>
       </c>
-      <c r="C109" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="D109" s="88"/>
-      <c r="E109" s="88"/>
-      <c r="F109" s="88"/>
-      <c r="G109" s="88"/>
-      <c r="H109" s="88"/>
-      <c r="I109" s="88"/>
-      <c r="J109" s="88"/>
-      <c r="K109" s="88"/>
-      <c r="L109" s="88"/>
-      <c r="M109" s="88"/>
-      <c r="N109" s="88"/>
-      <c r="O109" s="88"/>
-      <c r="P109" s="88"/>
-      <c r="Q109" s="88"/>
-      <c r="R109" s="88"/>
+      <c r="C109" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D109" s="75"/>
+      <c r="E109" s="75"/>
+      <c r="F109" s="75"/>
+      <c r="G109" s="75"/>
+      <c r="H109" s="75"/>
+      <c r="I109" s="75"/>
+      <c r="J109" s="75"/>
+      <c r="K109" s="75"/>
+      <c r="L109" s="75"/>
+      <c r="M109" s="75"/>
+      <c r="N109" s="75"/>
+      <c r="O109" s="75"/>
+      <c r="P109" s="75"/>
+      <c r="Q109" s="75"/>
+      <c r="R109" s="75"/>
       <c r="S109" s="51"/>
       <c r="T109" s="51"/>
       <c r="U109" s="54"/>
@@ -5278,7 +5275,7 @@
     <row r="111" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C111" s="5">
         <v>0.375</v>
@@ -5338,17 +5335,17 @@
         <v>43794</v>
       </c>
       <c r="B112" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C112" s="59">
         <f>C102+1</f>
         <v>11</v>
       </c>
-      <c r="D112" s="87" t="s">
-        <v>43</v>
-      </c>
-      <c r="E112" s="87"/>
-      <c r="F112" s="87"/>
+      <c r="D112" s="104" t="s">
+        <v>42</v>
+      </c>
+      <c r="E112" s="104"/>
+      <c r="F112" s="104"/>
       <c r="G112" s="15"/>
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
@@ -5373,21 +5370,21 @@
         <f>B103+7</f>
         <v>43794</v>
       </c>
-      <c r="C113" s="88" t="s">
+      <c r="C113" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D113" s="88"/>
-      <c r="E113" s="88"/>
-      <c r="F113" s="88"/>
-      <c r="G113" s="88"/>
-      <c r="H113" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="I113" s="103"/>
-      <c r="J113" s="103"/>
-      <c r="K113" s="103"/>
-      <c r="L113" s="103"/>
-      <c r="M113" s="103"/>
+      <c r="D113" s="75"/>
+      <c r="E113" s="75"/>
+      <c r="F113" s="75"/>
+      <c r="G113" s="75"/>
+      <c r="H113" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="I113" s="83"/>
+      <c r="J113" s="83"/>
+      <c r="K113" s="83"/>
+      <c r="L113" s="83"/>
+      <c r="M113" s="83"/>
       <c r="N113" s="20"/>
       <c r="O113" s="20"/>
       <c r="P113" s="20"/>
@@ -5407,21 +5404,21 @@
         <f t="shared" ref="B114:B119" si="9">B104+7</f>
         <v>43795</v>
       </c>
-      <c r="C114" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D114" s="88"/>
-      <c r="E114" s="88"/>
-      <c r="F114" s="88"/>
-      <c r="G114" s="88"/>
-      <c r="H114" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="I114" s="103"/>
-      <c r="J114" s="103"/>
-      <c r="K114" s="103"/>
-      <c r="L114" s="103"/>
-      <c r="M114" s="103"/>
+      <c r="C114" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D114" s="75"/>
+      <c r="E114" s="75"/>
+      <c r="F114" s="75"/>
+      <c r="G114" s="75"/>
+      <c r="H114" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="I114" s="83"/>
+      <c r="J114" s="83"/>
+      <c r="K114" s="83"/>
+      <c r="L114" s="83"/>
+      <c r="M114" s="83"/>
       <c r="N114" s="20"/>
       <c r="O114" s="49"/>
       <c r="P114" s="49"/>
@@ -5447,18 +5444,18 @@
       <c r="F115" s="49"/>
       <c r="G115" s="49"/>
       <c r="H115" s="20"/>
-      <c r="I115" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="J115" s="82"/>
-      <c r="K115" s="82"/>
-      <c r="L115" s="82"/>
-      <c r="M115" s="82"/>
-      <c r="N115" s="82"/>
-      <c r="O115" s="82"/>
-      <c r="P115" s="82"/>
-      <c r="Q115" s="82"/>
-      <c r="R115" s="83"/>
+      <c r="I115" s="108" t="s">
+        <v>84</v>
+      </c>
+      <c r="J115" s="109"/>
+      <c r="K115" s="109"/>
+      <c r="L115" s="109"/>
+      <c r="M115" s="109"/>
+      <c r="N115" s="109"/>
+      <c r="O115" s="109"/>
+      <c r="P115" s="109"/>
+      <c r="Q115" s="109"/>
+      <c r="R115" s="110"/>
       <c r="S115" s="51"/>
       <c r="T115" s="52" t="s">
         <v>20</v>
@@ -5473,24 +5470,24 @@
         <f t="shared" si="9"/>
         <v>43797</v>
       </c>
-      <c r="C116" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D116" s="88"/>
-      <c r="E116" s="88"/>
-      <c r="F116" s="88"/>
-      <c r="G116" s="88"/>
-      <c r="H116" s="89" t="s">
-        <v>88</v>
-      </c>
-      <c r="I116" s="91"/>
-      <c r="J116" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="K116" s="82"/>
-      <c r="L116" s="82"/>
-      <c r="M116" s="82"/>
-      <c r="N116" s="83"/>
+      <c r="C116" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D116" s="75"/>
+      <c r="E116" s="75"/>
+      <c r="F116" s="75"/>
+      <c r="G116" s="75"/>
+      <c r="H116" s="112" t="s">
+        <v>87</v>
+      </c>
+      <c r="I116" s="114"/>
+      <c r="J116" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="K116" s="109"/>
+      <c r="L116" s="109"/>
+      <c r="M116" s="109"/>
+      <c r="N116" s="110"/>
       <c r="O116" s="20"/>
       <c r="P116" s="20"/>
       <c r="Q116" s="20"/>
@@ -5565,24 +5562,24 @@
         <f t="shared" si="9"/>
         <v>43800</v>
       </c>
-      <c r="C119" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="D119" s="88"/>
-      <c r="E119" s="88"/>
-      <c r="F119" s="88"/>
-      <c r="G119" s="88"/>
-      <c r="H119" s="88"/>
-      <c r="I119" s="88"/>
-      <c r="J119" s="88"/>
-      <c r="K119" s="88"/>
-      <c r="L119" s="88"/>
-      <c r="M119" s="88"/>
-      <c r="N119" s="88"/>
-      <c r="O119" s="88"/>
-      <c r="P119" s="88"/>
-      <c r="Q119" s="88"/>
-      <c r="R119" s="88"/>
+      <c r="C119" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D119" s="75"/>
+      <c r="E119" s="75"/>
+      <c r="F119" s="75"/>
+      <c r="G119" s="75"/>
+      <c r="H119" s="75"/>
+      <c r="I119" s="75"/>
+      <c r="J119" s="75"/>
+      <c r="K119" s="75"/>
+      <c r="L119" s="75"/>
+      <c r="M119" s="75"/>
+      <c r="N119" s="75"/>
+      <c r="O119" s="75"/>
+      <c r="P119" s="75"/>
+      <c r="Q119" s="75"/>
+      <c r="R119" s="75"/>
       <c r="S119" s="51"/>
       <c r="T119" s="51"/>
       <c r="U119" s="54"/>
@@ -5591,7 +5588,7 @@
     <row r="121" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C121" s="5">
         <v>0.375</v>
@@ -5651,17 +5648,17 @@
         <v>43801</v>
       </c>
       <c r="B122" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C122" s="59">
         <f>C112+1</f>
         <v>12</v>
       </c>
-      <c r="D122" s="122" t="s">
-        <v>41</v>
-      </c>
-      <c r="E122" s="122"/>
-      <c r="F122" s="122"/>
+      <c r="D122" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="E122" s="115"/>
+      <c r="F122" s="115"/>
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
@@ -5686,24 +5683,24 @@
         <f>B113+7</f>
         <v>43801</v>
       </c>
-      <c r="C123" s="114" t="s">
+      <c r="C123" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="114"/>
-      <c r="E123" s="114"/>
-      <c r="F123" s="114"/>
-      <c r="G123" s="114"/>
-      <c r="H123" s="112" t="s">
-        <v>86</v>
-      </c>
-      <c r="I123" s="112"/>
-      <c r="J123" s="112"/>
-      <c r="K123" s="112"/>
-      <c r="L123" s="112"/>
-      <c r="M123" s="112"/>
-      <c r="N123" s="112"/>
-      <c r="O123" s="112"/>
-      <c r="P123" s="112"/>
+      <c r="D123" s="126"/>
+      <c r="E123" s="126"/>
+      <c r="F123" s="126"/>
+      <c r="G123" s="126"/>
+      <c r="H123" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="I123" s="107"/>
+      <c r="J123" s="107"/>
+      <c r="K123" s="107"/>
+      <c r="L123" s="107"/>
+      <c r="M123" s="107"/>
+      <c r="N123" s="107"/>
+      <c r="O123" s="107"/>
+      <c r="P123" s="107"/>
       <c r="Q123" s="20"/>
       <c r="R123" s="20"/>
       <c r="S123" s="51"/>
@@ -5720,24 +5717,24 @@
         <f t="shared" ref="B124:B129" si="10">B114+7</f>
         <v>43802</v>
       </c>
-      <c r="C124" s="114" t="s">
-        <v>37</v>
-      </c>
-      <c r="D124" s="114"/>
-      <c r="E124" s="114"/>
-      <c r="F124" s="114"/>
-      <c r="G124" s="114"/>
-      <c r="H124" s="112" t="s">
-        <v>64</v>
-      </c>
-      <c r="I124" s="112"/>
-      <c r="J124" s="112"/>
-      <c r="K124" s="112"/>
-      <c r="L124" s="112"/>
-      <c r="M124" s="112"/>
-      <c r="N124" s="112"/>
-      <c r="O124" s="112"/>
-      <c r="P124" s="112"/>
+      <c r="C124" s="126" t="s">
+        <v>36</v>
+      </c>
+      <c r="D124" s="126"/>
+      <c r="E124" s="126"/>
+      <c r="F124" s="126"/>
+      <c r="G124" s="126"/>
+      <c r="H124" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="I124" s="107"/>
+      <c r="J124" s="107"/>
+      <c r="K124" s="107"/>
+      <c r="L124" s="107"/>
+      <c r="M124" s="107"/>
+      <c r="N124" s="107"/>
+      <c r="O124" s="107"/>
+      <c r="P124" s="107"/>
       <c r="Q124" s="20"/>
       <c r="R124" s="20"/>
       <c r="S124" s="51"/>
@@ -5754,24 +5751,24 @@
         <f t="shared" si="10"/>
         <v>43803</v>
       </c>
-      <c r="C125" s="112" t="s">
-        <v>64</v>
-      </c>
-      <c r="D125" s="112"/>
-      <c r="E125" s="112"/>
-      <c r="F125" s="112"/>
-      <c r="G125" s="112"/>
-      <c r="H125" s="112"/>
-      <c r="I125" s="112"/>
-      <c r="J125" s="112"/>
-      <c r="K125" s="112"/>
+      <c r="C125" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" s="107"/>
+      <c r="E125" s="107"/>
+      <c r="F125" s="107"/>
+      <c r="G125" s="107"/>
+      <c r="H125" s="107"/>
+      <c r="I125" s="107"/>
+      <c r="J125" s="107"/>
+      <c r="K125" s="107"/>
       <c r="L125" s="49"/>
-      <c r="M125" s="112" t="s">
-        <v>64</v>
-      </c>
-      <c r="N125" s="112"/>
-      <c r="O125" s="112"/>
-      <c r="P125" s="112"/>
+      <c r="M125" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="N125" s="107"/>
+      <c r="O125" s="107"/>
+      <c r="P125" s="107"/>
       <c r="Q125" s="49"/>
       <c r="R125" s="49"/>
       <c r="S125" s="51"/>
@@ -5788,24 +5785,24 @@
         <f t="shared" si="10"/>
         <v>43804</v>
       </c>
-      <c r="C126" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="D126" s="115"/>
-      <c r="E126" s="115"/>
-      <c r="F126" s="115"/>
-      <c r="G126" s="115"/>
-      <c r="H126" s="112" t="s">
-        <v>86</v>
-      </c>
-      <c r="I126" s="112"/>
-      <c r="J126" s="112"/>
-      <c r="K126" s="112"/>
-      <c r="L126" s="112"/>
-      <c r="M126" s="112"/>
-      <c r="N126" s="112"/>
-      <c r="O126" s="112"/>
-      <c r="P126" s="112"/>
+      <c r="C126" s="127" t="s">
+        <v>78</v>
+      </c>
+      <c r="D126" s="127"/>
+      <c r="E126" s="127"/>
+      <c r="F126" s="127"/>
+      <c r="G126" s="127"/>
+      <c r="H126" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="I126" s="107"/>
+      <c r="J126" s="107"/>
+      <c r="K126" s="107"/>
+      <c r="L126" s="107"/>
+      <c r="M126" s="107"/>
+      <c r="N126" s="107"/>
+      <c r="O126" s="107"/>
+      <c r="P126" s="107"/>
       <c r="Q126" s="20"/>
       <c r="R126" s="20"/>
       <c r="S126" s="51"/>
@@ -5878,24 +5875,24 @@
         <f t="shared" si="10"/>
         <v>43807</v>
       </c>
-      <c r="C129" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="D129" s="88"/>
-      <c r="E129" s="88"/>
-      <c r="F129" s="88"/>
-      <c r="G129" s="88"/>
-      <c r="H129" s="88"/>
-      <c r="I129" s="88"/>
-      <c r="J129" s="88"/>
-      <c r="K129" s="88"/>
-      <c r="L129" s="88"/>
-      <c r="M129" s="88"/>
-      <c r="N129" s="88"/>
-      <c r="O129" s="88"/>
-      <c r="P129" s="88"/>
-      <c r="Q129" s="88"/>
-      <c r="R129" s="88"/>
+      <c r="C129" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D129" s="75"/>
+      <c r="E129" s="75"/>
+      <c r="F129" s="75"/>
+      <c r="G129" s="75"/>
+      <c r="H129" s="75"/>
+      <c r="I129" s="75"/>
+      <c r="J129" s="75"/>
+      <c r="K129" s="75"/>
+      <c r="L129" s="75"/>
+      <c r="M129" s="75"/>
+      <c r="N129" s="75"/>
+      <c r="O129" s="75"/>
+      <c r="P129" s="75"/>
+      <c r="Q129" s="75"/>
+      <c r="R129" s="75"/>
       <c r="S129" s="51"/>
       <c r="T129" s="51"/>
       <c r="U129" s="54"/>
@@ -5904,7 +5901,7 @@
     <row r="131" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C131" s="5">
         <v>0.375</v>
@@ -5964,7 +5961,7 @@
         <v>43808</v>
       </c>
       <c r="B132" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C132" s="59">
         <f>C122+1</f>
@@ -5997,24 +5994,24 @@
         <f>B123+7</f>
         <v>43808</v>
       </c>
-      <c r="C133" s="88" t="s">
+      <c r="C133" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D133" s="88"/>
-      <c r="E133" s="88"/>
-      <c r="F133" s="88"/>
-      <c r="G133" s="88"/>
-      <c r="H133" s="103" t="s">
-        <v>86</v>
-      </c>
-      <c r="I133" s="103"/>
-      <c r="J133" s="103"/>
-      <c r="K133" s="140"/>
-      <c r="L133" s="140"/>
-      <c r="M133" s="140"/>
-      <c r="N133" s="140"/>
-      <c r="O133" s="140"/>
-      <c r="P133" s="103"/>
+      <c r="D133" s="75"/>
+      <c r="E133" s="75"/>
+      <c r="F133" s="75"/>
+      <c r="G133" s="75"/>
+      <c r="H133" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="I133" s="83"/>
+      <c r="J133" s="83"/>
+      <c r="K133" s="99"/>
+      <c r="L133" s="99"/>
+      <c r="M133" s="99"/>
+      <c r="N133" s="99"/>
+      <c r="O133" s="99"/>
+      <c r="P133" s="83"/>
       <c r="Q133" s="20"/>
       <c r="R133" s="20"/>
       <c r="S133" s="51"/>
@@ -6031,27 +6028,27 @@
         <f t="shared" ref="B134:B139" si="11">B124+7</f>
         <v>43809</v>
       </c>
-      <c r="C134" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D134" s="88"/>
-      <c r="E134" s="88"/>
-      <c r="F134" s="88"/>
-      <c r="G134" s="88"/>
-      <c r="H134" s="84" t="s">
+      <c r="C134" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D134" s="75"/>
+      <c r="E134" s="75"/>
+      <c r="F134" s="75"/>
+      <c r="G134" s="75"/>
+      <c r="H134" s="105" t="s">
+        <v>88</v>
+      </c>
+      <c r="I134" s="106"/>
+      <c r="J134" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="I134" s="147"/>
-      <c r="J134" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="K134" s="146" t="s">
-        <v>65</v>
-      </c>
-      <c r="L134" s="146"/>
-      <c r="M134" s="146"/>
-      <c r="N134" s="146"/>
-      <c r="O134" s="146"/>
+      <c r="K134" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="L134" s="84"/>
+      <c r="M134" s="84"/>
+      <c r="N134" s="84"/>
+      <c r="O134" s="84"/>
       <c r="P134" s="20"/>
       <c r="Q134" s="20"/>
       <c r="R134" s="20"/>
@@ -6070,7 +6067,7 @@
         <v>43810</v>
       </c>
       <c r="C135" s="97" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D135" s="98"/>
       <c r="E135" s="98"/>
@@ -6079,14 +6076,14 @@
       <c r="H135" s="98"/>
       <c r="I135" s="98"/>
       <c r="J135" s="98"/>
-      <c r="K135" s="99"/>
+      <c r="K135" s="131"/>
       <c r="L135" s="49"/>
-      <c r="M135" s="146" t="s">
-        <v>65</v>
-      </c>
-      <c r="N135" s="146"/>
-      <c r="O135" s="146"/>
-      <c r="P135" s="146"/>
+      <c r="M135" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="N135" s="84"/>
+      <c r="O135" s="84"/>
+      <c r="P135" s="84"/>
       <c r="Q135" s="49"/>
       <c r="R135" s="49"/>
       <c r="S135" s="51"/>
@@ -6103,24 +6100,24 @@
         <f t="shared" si="11"/>
         <v>43811</v>
       </c>
-      <c r="C136" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="D136" s="88"/>
-      <c r="E136" s="88"/>
-      <c r="F136" s="88"/>
-      <c r="G136" s="88"/>
-      <c r="H136" s="103" t="s">
-        <v>86</v>
-      </c>
-      <c r="I136" s="103"/>
-      <c r="J136" s="103"/>
-      <c r="K136" s="103"/>
-      <c r="L136" s="103"/>
-      <c r="M136" s="103"/>
-      <c r="N136" s="103"/>
-      <c r="O136" s="103"/>
-      <c r="P136" s="103"/>
+      <c r="C136" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D136" s="75"/>
+      <c r="E136" s="75"/>
+      <c r="F136" s="75"/>
+      <c r="G136" s="75"/>
+      <c r="H136" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="I136" s="83"/>
+      <c r="J136" s="83"/>
+      <c r="K136" s="83"/>
+      <c r="L136" s="83"/>
+      <c r="M136" s="83"/>
+      <c r="N136" s="83"/>
+      <c r="O136" s="83"/>
+      <c r="P136" s="83"/>
       <c r="Q136" s="20"/>
       <c r="R136" s="20"/>
       <c r="S136" s="51"/>
@@ -6193,24 +6190,24 @@
         <f t="shared" si="11"/>
         <v>43814</v>
       </c>
-      <c r="C139" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="D139" s="88"/>
-      <c r="E139" s="88"/>
-      <c r="F139" s="88"/>
-      <c r="G139" s="88"/>
-      <c r="H139" s="88"/>
-      <c r="I139" s="88"/>
-      <c r="J139" s="88"/>
-      <c r="K139" s="88"/>
-      <c r="L139" s="88"/>
-      <c r="M139" s="88"/>
-      <c r="N139" s="88"/>
-      <c r="O139" s="88"/>
-      <c r="P139" s="88"/>
-      <c r="Q139" s="88"/>
-      <c r="R139" s="88"/>
+      <c r="C139" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D139" s="75"/>
+      <c r="E139" s="75"/>
+      <c r="F139" s="75"/>
+      <c r="G139" s="75"/>
+      <c r="H139" s="75"/>
+      <c r="I139" s="75"/>
+      <c r="J139" s="75"/>
+      <c r="K139" s="75"/>
+      <c r="L139" s="75"/>
+      <c r="M139" s="75"/>
+      <c r="N139" s="75"/>
+      <c r="O139" s="75"/>
+      <c r="P139" s="75"/>
+      <c r="Q139" s="75"/>
+      <c r="R139" s="75"/>
       <c r="S139" s="51"/>
       <c r="T139" s="51"/>
       <c r="U139" s="54"/>
@@ -6239,7 +6236,7 @@
     <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C141" s="5">
         <v>0.375</v>
@@ -6299,25 +6296,25 @@
         <v>43815</v>
       </c>
       <c r="B142" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C142" s="59">
         <f>C132+1</f>
         <v>14</v>
       </c>
-      <c r="D142" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="E142" s="87"/>
-      <c r="F142" s="87"/>
+      <c r="D142" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="E142" s="104"/>
+      <c r="F142" s="104"/>
       <c r="G142" s="15"/>
-      <c r="H142" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="I142" s="87"/>
-      <c r="J142" s="87"/>
-      <c r="K142" s="87"/>
-      <c r="L142" s="87"/>
+      <c r="H142" s="104" t="s">
+        <v>50</v>
+      </c>
+      <c r="I142" s="104"/>
+      <c r="J142" s="104"/>
+      <c r="K142" s="104"/>
+      <c r="L142" s="104"/>
       <c r="M142" s="19"/>
       <c r="N142" s="19"/>
       <c r="O142" s="19"/>
@@ -6336,13 +6333,13 @@
         <f>B133+7</f>
         <v>43815</v>
       </c>
-      <c r="C143" s="103" t="s">
-        <v>54</v>
-      </c>
-      <c r="D143" s="103"/>
-      <c r="E143" s="103"/>
-      <c r="F143" s="145" t="s">
-        <v>86</v>
+      <c r="C143" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="D143" s="83"/>
+      <c r="E143" s="83"/>
+      <c r="F143" s="146" t="s">
+        <v>85</v>
       </c>
       <c r="G143" s="98"/>
       <c r="H143" s="98"/>
@@ -6353,7 +6350,7 @@
       <c r="M143" s="98"/>
       <c r="N143" s="98"/>
       <c r="O143" s="98"/>
-      <c r="P143" s="99"/>
+      <c r="P143" s="131"/>
       <c r="Q143" s="49"/>
       <c r="R143" s="49"/>
       <c r="S143" s="51"/>
@@ -6370,22 +6367,22 @@
         <f t="shared" ref="B144:B149" si="12">B134+7</f>
         <v>43816</v>
       </c>
-      <c r="C144" s="100" t="s">
-        <v>86</v>
-      </c>
-      <c r="D144" s="101"/>
-      <c r="E144" s="101"/>
-      <c r="F144" s="101"/>
-      <c r="G144" s="101"/>
-      <c r="H144" s="101"/>
-      <c r="I144" s="101"/>
-      <c r="J144" s="101"/>
-      <c r="K144" s="101"/>
-      <c r="L144" s="101"/>
-      <c r="M144" s="101"/>
-      <c r="N144" s="101"/>
-      <c r="O144" s="101"/>
-      <c r="P144" s="102"/>
+      <c r="C144" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="D144" s="95"/>
+      <c r="E144" s="95"/>
+      <c r="F144" s="95"/>
+      <c r="G144" s="95"/>
+      <c r="H144" s="95"/>
+      <c r="I144" s="95"/>
+      <c r="J144" s="95"/>
+      <c r="K144" s="95"/>
+      <c r="L144" s="95"/>
+      <c r="M144" s="95"/>
+      <c r="N144" s="95"/>
+      <c r="O144" s="95"/>
+      <c r="P144" s="96"/>
       <c r="Q144" s="20"/>
       <c r="R144" s="20"/>
       <c r="S144" s="51"/>
@@ -6402,22 +6399,22 @@
         <f t="shared" si="12"/>
         <v>43817</v>
       </c>
-      <c r="C145" s="100" t="s">
-        <v>86</v>
-      </c>
-      <c r="D145" s="101"/>
-      <c r="E145" s="101"/>
-      <c r="F145" s="101"/>
-      <c r="G145" s="101"/>
-      <c r="H145" s="101"/>
-      <c r="I145" s="101"/>
-      <c r="J145" s="101"/>
-      <c r="K145" s="101"/>
-      <c r="L145" s="101"/>
-      <c r="M145" s="101"/>
-      <c r="N145" s="101"/>
-      <c r="O145" s="101"/>
-      <c r="P145" s="102"/>
+      <c r="C145" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="D145" s="95"/>
+      <c r="E145" s="95"/>
+      <c r="F145" s="95"/>
+      <c r="G145" s="95"/>
+      <c r="H145" s="95"/>
+      <c r="I145" s="95"/>
+      <c r="J145" s="95"/>
+      <c r="K145" s="95"/>
+      <c r="L145" s="95"/>
+      <c r="M145" s="95"/>
+      <c r="N145" s="95"/>
+      <c r="O145" s="95"/>
+      <c r="P145" s="96"/>
       <c r="Q145" s="49"/>
       <c r="R145" s="49"/>
       <c r="S145" s="51"/>
@@ -6435,7 +6432,7 @@
         <v>43818</v>
       </c>
       <c r="C146" s="97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D146" s="98"/>
       <c r="E146" s="98"/>
@@ -6566,7 +6563,7 @@
     <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C151" s="5">
         <v>0.375</v>
@@ -6626,7 +6623,7 @@
         <v>43822</v>
       </c>
       <c r="B152" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C152" s="59">
         <f>C142+1</f>
@@ -6659,22 +6656,22 @@
         <f>B143+7</f>
         <v>43822</v>
       </c>
-      <c r="C153" s="137" t="s">
-        <v>87</v>
-      </c>
-      <c r="D153" s="138"/>
-      <c r="E153" s="138"/>
-      <c r="F153" s="138"/>
-      <c r="G153" s="138"/>
-      <c r="H153" s="138"/>
-      <c r="I153" s="138"/>
-      <c r="J153" s="138"/>
-      <c r="K153" s="138"/>
-      <c r="L153" s="138"/>
-      <c r="M153" s="138"/>
-      <c r="N153" s="138"/>
-      <c r="O153" s="138"/>
-      <c r="P153" s="139"/>
+      <c r="C153" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="D153" s="101"/>
+      <c r="E153" s="101"/>
+      <c r="F153" s="101"/>
+      <c r="G153" s="101"/>
+      <c r="H153" s="101"/>
+      <c r="I153" s="101"/>
+      <c r="J153" s="101"/>
+      <c r="K153" s="101"/>
+      <c r="L153" s="101"/>
+      <c r="M153" s="101"/>
+      <c r="N153" s="101"/>
+      <c r="O153" s="101"/>
+      <c r="P153" s="102"/>
       <c r="Q153" s="49"/>
       <c r="R153" s="49"/>
       <c r="S153" s="51"/>
@@ -6691,22 +6688,22 @@
         <f t="shared" ref="B154:B159" si="13">B144+7</f>
         <v>43823</v>
       </c>
-      <c r="C154" s="137" t="s">
-        <v>87</v>
-      </c>
-      <c r="D154" s="138"/>
-      <c r="E154" s="138"/>
-      <c r="F154" s="138"/>
-      <c r="G154" s="138"/>
-      <c r="H154" s="138"/>
-      <c r="I154" s="138"/>
-      <c r="J154" s="138"/>
-      <c r="K154" s="138"/>
-      <c r="L154" s="138"/>
-      <c r="M154" s="138"/>
-      <c r="N154" s="138"/>
-      <c r="O154" s="138"/>
-      <c r="P154" s="139"/>
+      <c r="C154" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="D154" s="101"/>
+      <c r="E154" s="101"/>
+      <c r="F154" s="101"/>
+      <c r="G154" s="101"/>
+      <c r="H154" s="101"/>
+      <c r="I154" s="101"/>
+      <c r="J154" s="101"/>
+      <c r="K154" s="101"/>
+      <c r="L154" s="101"/>
+      <c r="M154" s="101"/>
+      <c r="N154" s="101"/>
+      <c r="O154" s="101"/>
+      <c r="P154" s="102"/>
       <c r="Q154" s="20"/>
       <c r="R154" s="20"/>
       <c r="S154" s="51"/>
@@ -6723,24 +6720,24 @@
         <f t="shared" si="13"/>
         <v>43824</v>
       </c>
-      <c r="C155" s="113" t="s">
-        <v>52</v>
-      </c>
-      <c r="D155" s="113"/>
-      <c r="E155" s="113"/>
-      <c r="F155" s="113"/>
-      <c r="G155" s="113"/>
-      <c r="H155" s="113"/>
-      <c r="I155" s="113"/>
-      <c r="J155" s="113"/>
-      <c r="K155" s="113"/>
-      <c r="L155" s="113"/>
-      <c r="M155" s="113"/>
-      <c r="N155" s="113"/>
-      <c r="O155" s="113"/>
-      <c r="P155" s="113"/>
-      <c r="Q155" s="113"/>
-      <c r="R155" s="113"/>
+      <c r="C155" s="125" t="s">
+        <v>51</v>
+      </c>
+      <c r="D155" s="125"/>
+      <c r="E155" s="125"/>
+      <c r="F155" s="125"/>
+      <c r="G155" s="125"/>
+      <c r="H155" s="125"/>
+      <c r="I155" s="125"/>
+      <c r="J155" s="125"/>
+      <c r="K155" s="125"/>
+      <c r="L155" s="125"/>
+      <c r="M155" s="125"/>
+      <c r="N155" s="125"/>
+      <c r="O155" s="125"/>
+      <c r="P155" s="125"/>
+      <c r="Q155" s="125"/>
+      <c r="R155" s="125"/>
       <c r="S155" s="51"/>
       <c r="T155" s="52" t="s">
         <v>20</v>
@@ -6755,22 +6752,22 @@
         <f t="shared" si="13"/>
         <v>43825</v>
       </c>
-      <c r="C156" s="113"/>
-      <c r="D156" s="113"/>
-      <c r="E156" s="113"/>
-      <c r="F156" s="113"/>
-      <c r="G156" s="113"/>
-      <c r="H156" s="113"/>
-      <c r="I156" s="113"/>
-      <c r="J156" s="113"/>
-      <c r="K156" s="113"/>
-      <c r="L156" s="113"/>
-      <c r="M156" s="113"/>
-      <c r="N156" s="113"/>
-      <c r="O156" s="113"/>
-      <c r="P156" s="113"/>
-      <c r="Q156" s="113"/>
-      <c r="R156" s="113"/>
+      <c r="C156" s="125"/>
+      <c r="D156" s="125"/>
+      <c r="E156" s="125"/>
+      <c r="F156" s="125"/>
+      <c r="G156" s="125"/>
+      <c r="H156" s="125"/>
+      <c r="I156" s="125"/>
+      <c r="J156" s="125"/>
+      <c r="K156" s="125"/>
+      <c r="L156" s="125"/>
+      <c r="M156" s="125"/>
+      <c r="N156" s="125"/>
+      <c r="O156" s="125"/>
+      <c r="P156" s="125"/>
+      <c r="Q156" s="125"/>
+      <c r="R156" s="125"/>
       <c r="S156" s="51"/>
       <c r="T156" s="18" t="s">
         <v>21</v>
@@ -6785,22 +6782,22 @@
         <f t="shared" si="13"/>
         <v>43826</v>
       </c>
-      <c r="C157" s="113"/>
-      <c r="D157" s="113"/>
-      <c r="E157" s="113"/>
-      <c r="F157" s="113"/>
-      <c r="G157" s="113"/>
-      <c r="H157" s="113"/>
-      <c r="I157" s="113"/>
-      <c r="J157" s="113"/>
-      <c r="K157" s="113"/>
-      <c r="L157" s="113"/>
-      <c r="M157" s="113"/>
-      <c r="N157" s="113"/>
-      <c r="O157" s="113"/>
-      <c r="P157" s="113"/>
-      <c r="Q157" s="113"/>
-      <c r="R157" s="113"/>
+      <c r="C157" s="125"/>
+      <c r="D157" s="125"/>
+      <c r="E157" s="125"/>
+      <c r="F157" s="125"/>
+      <c r="G157" s="125"/>
+      <c r="H157" s="125"/>
+      <c r="I157" s="125"/>
+      <c r="J157" s="125"/>
+      <c r="K157" s="125"/>
+      <c r="L157" s="125"/>
+      <c r="M157" s="125"/>
+      <c r="N157" s="125"/>
+      <c r="O157" s="125"/>
+      <c r="P157" s="125"/>
+      <c r="Q157" s="125"/>
+      <c r="R157" s="125"/>
       <c r="S157" s="51"/>
       <c r="T157" s="51"/>
       <c r="U157" s="54"/>
@@ -6813,22 +6810,22 @@
         <f t="shared" si="13"/>
         <v>43827</v>
       </c>
-      <c r="C158" s="113"/>
-      <c r="D158" s="113"/>
-      <c r="E158" s="113"/>
-      <c r="F158" s="113"/>
-      <c r="G158" s="113"/>
-      <c r="H158" s="113"/>
-      <c r="I158" s="113"/>
-      <c r="J158" s="113"/>
-      <c r="K158" s="113"/>
-      <c r="L158" s="113"/>
-      <c r="M158" s="113"/>
-      <c r="N158" s="113"/>
-      <c r="O158" s="113"/>
-      <c r="P158" s="113"/>
-      <c r="Q158" s="113"/>
-      <c r="R158" s="113"/>
+      <c r="C158" s="125"/>
+      <c r="D158" s="125"/>
+      <c r="E158" s="125"/>
+      <c r="F158" s="125"/>
+      <c r="G158" s="125"/>
+      <c r="H158" s="125"/>
+      <c r="I158" s="125"/>
+      <c r="J158" s="125"/>
+      <c r="K158" s="125"/>
+      <c r="L158" s="125"/>
+      <c r="M158" s="125"/>
+      <c r="N158" s="125"/>
+      <c r="O158" s="125"/>
+      <c r="P158" s="125"/>
+      <c r="Q158" s="125"/>
+      <c r="R158" s="125"/>
       <c r="S158" s="51"/>
       <c r="T158" s="51"/>
       <c r="U158" s="54"/>
@@ -6841,22 +6838,22 @@
         <f t="shared" si="13"/>
         <v>43828</v>
       </c>
-      <c r="C159" s="113"/>
-      <c r="D159" s="113"/>
-      <c r="E159" s="113"/>
-      <c r="F159" s="113"/>
-      <c r="G159" s="113"/>
-      <c r="H159" s="113"/>
-      <c r="I159" s="113"/>
-      <c r="J159" s="113"/>
-      <c r="K159" s="113"/>
-      <c r="L159" s="113"/>
-      <c r="M159" s="113"/>
-      <c r="N159" s="113"/>
-      <c r="O159" s="113"/>
-      <c r="P159" s="113"/>
-      <c r="Q159" s="113"/>
-      <c r="R159" s="113"/>
+      <c r="C159" s="125"/>
+      <c r="D159" s="125"/>
+      <c r="E159" s="125"/>
+      <c r="F159" s="125"/>
+      <c r="G159" s="125"/>
+      <c r="H159" s="125"/>
+      <c r="I159" s="125"/>
+      <c r="J159" s="125"/>
+      <c r="K159" s="125"/>
+      <c r="L159" s="125"/>
+      <c r="M159" s="125"/>
+      <c r="N159" s="125"/>
+      <c r="O159" s="125"/>
+      <c r="P159" s="125"/>
+      <c r="Q159" s="125"/>
+      <c r="R159" s="125"/>
       <c r="S159" s="51"/>
       <c r="T159" s="51"/>
       <c r="U159" s="54"/>
@@ -6885,7 +6882,7 @@
     <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C161" s="5">
         <v>0.375</v>
@@ -6945,7 +6942,7 @@
         <v>43829</v>
       </c>
       <c r="B162" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C162" s="59">
         <f>C152+1</f>
@@ -6978,24 +6975,24 @@
         <f>B153+7</f>
         <v>43829</v>
       </c>
-      <c r="C163" s="113" t="s">
-        <v>53</v>
-      </c>
-      <c r="D163" s="113"/>
-      <c r="E163" s="113"/>
-      <c r="F163" s="113"/>
-      <c r="G163" s="113"/>
-      <c r="H163" s="113"/>
-      <c r="I163" s="113"/>
-      <c r="J163" s="113"/>
-      <c r="K163" s="113"/>
-      <c r="L163" s="113"/>
-      <c r="M163" s="113"/>
-      <c r="N163" s="113"/>
-      <c r="O163" s="113"/>
-      <c r="P163" s="113"/>
-      <c r="Q163" s="113"/>
-      <c r="R163" s="113"/>
+      <c r="C163" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="D163" s="125"/>
+      <c r="E163" s="125"/>
+      <c r="F163" s="125"/>
+      <c r="G163" s="125"/>
+      <c r="H163" s="125"/>
+      <c r="I163" s="125"/>
+      <c r="J163" s="125"/>
+      <c r="K163" s="125"/>
+      <c r="L163" s="125"/>
+      <c r="M163" s="125"/>
+      <c r="N163" s="125"/>
+      <c r="O163" s="125"/>
+      <c r="P163" s="125"/>
+      <c r="Q163" s="125"/>
+      <c r="R163" s="125"/>
       <c r="S163" s="51"/>
       <c r="T163" s="30" t="s">
         <v>22</v>
@@ -7010,22 +7007,22 @@
         <f t="shared" ref="B164:B169" si="14">B154+7</f>
         <v>43830</v>
       </c>
-      <c r="C164" s="113"/>
-      <c r="D164" s="113"/>
-      <c r="E164" s="113"/>
-      <c r="F164" s="113"/>
-      <c r="G164" s="113"/>
-      <c r="H164" s="113"/>
-      <c r="I164" s="113"/>
-      <c r="J164" s="113"/>
-      <c r="K164" s="113"/>
-      <c r="L164" s="113"/>
-      <c r="M164" s="113"/>
-      <c r="N164" s="113"/>
-      <c r="O164" s="113"/>
-      <c r="P164" s="113"/>
-      <c r="Q164" s="113"/>
-      <c r="R164" s="113"/>
+      <c r="C164" s="125"/>
+      <c r="D164" s="125"/>
+      <c r="E164" s="125"/>
+      <c r="F164" s="125"/>
+      <c r="G164" s="125"/>
+      <c r="H164" s="125"/>
+      <c r="I164" s="125"/>
+      <c r="J164" s="125"/>
+      <c r="K164" s="125"/>
+      <c r="L164" s="125"/>
+      <c r="M164" s="125"/>
+      <c r="N164" s="125"/>
+      <c r="O164" s="125"/>
+      <c r="P164" s="125"/>
+      <c r="Q164" s="125"/>
+      <c r="R164" s="125"/>
       <c r="S164" s="51"/>
       <c r="T164" s="53" t="s">
         <v>19</v>
@@ -7040,22 +7037,22 @@
         <f t="shared" si="14"/>
         <v>43831</v>
       </c>
-      <c r="C165" s="113"/>
-      <c r="D165" s="113"/>
-      <c r="E165" s="113"/>
-      <c r="F165" s="113"/>
-      <c r="G165" s="113"/>
-      <c r="H165" s="113"/>
-      <c r="I165" s="113"/>
-      <c r="J165" s="113"/>
-      <c r="K165" s="113"/>
-      <c r="L165" s="113"/>
-      <c r="M165" s="113"/>
-      <c r="N165" s="113"/>
-      <c r="O165" s="113"/>
-      <c r="P165" s="113"/>
-      <c r="Q165" s="113"/>
-      <c r="R165" s="113"/>
+      <c r="C165" s="125"/>
+      <c r="D165" s="125"/>
+      <c r="E165" s="125"/>
+      <c r="F165" s="125"/>
+      <c r="G165" s="125"/>
+      <c r="H165" s="125"/>
+      <c r="I165" s="125"/>
+      <c r="J165" s="125"/>
+      <c r="K165" s="125"/>
+      <c r="L165" s="125"/>
+      <c r="M165" s="125"/>
+      <c r="N165" s="125"/>
+      <c r="O165" s="125"/>
+      <c r="P165" s="125"/>
+      <c r="Q165" s="125"/>
+      <c r="R165" s="125"/>
       <c r="S165" s="51"/>
       <c r="T165" s="52" t="s">
         <v>20</v>
@@ -7070,22 +7067,22 @@
         <f t="shared" si="14"/>
         <v>43832</v>
       </c>
-      <c r="C166" s="100" t="s">
-        <v>87</v>
-      </c>
-      <c r="D166" s="101"/>
-      <c r="E166" s="101"/>
-      <c r="F166" s="101"/>
-      <c r="G166" s="101"/>
-      <c r="H166" s="101"/>
-      <c r="I166" s="101"/>
-      <c r="J166" s="101"/>
-      <c r="K166" s="101"/>
-      <c r="L166" s="101"/>
-      <c r="M166" s="101"/>
-      <c r="N166" s="101"/>
-      <c r="O166" s="101"/>
-      <c r="P166" s="102"/>
+      <c r="C166" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D166" s="95"/>
+      <c r="E166" s="95"/>
+      <c r="F166" s="95"/>
+      <c r="G166" s="95"/>
+      <c r="H166" s="95"/>
+      <c r="I166" s="95"/>
+      <c r="J166" s="95"/>
+      <c r="K166" s="95"/>
+      <c r="L166" s="95"/>
+      <c r="M166" s="95"/>
+      <c r="N166" s="95"/>
+      <c r="O166" s="95"/>
+      <c r="P166" s="96"/>
       <c r="Q166" s="49"/>
       <c r="R166" s="20"/>
       <c r="S166" s="51"/>
@@ -7102,22 +7099,22 @@
         <f t="shared" si="14"/>
         <v>43833</v>
       </c>
-      <c r="C167" s="100" t="s">
-        <v>87</v>
-      </c>
-      <c r="D167" s="101"/>
-      <c r="E167" s="101"/>
-      <c r="F167" s="101"/>
-      <c r="G167" s="101"/>
-      <c r="H167" s="101"/>
-      <c r="I167" s="101"/>
-      <c r="J167" s="101"/>
-      <c r="K167" s="101"/>
-      <c r="L167" s="101"/>
-      <c r="M167" s="101"/>
-      <c r="N167" s="101"/>
-      <c r="O167" s="101"/>
-      <c r="P167" s="102"/>
+      <c r="C167" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D167" s="95"/>
+      <c r="E167" s="95"/>
+      <c r="F167" s="95"/>
+      <c r="G167" s="95"/>
+      <c r="H167" s="95"/>
+      <c r="I167" s="95"/>
+      <c r="J167" s="95"/>
+      <c r="K167" s="95"/>
+      <c r="L167" s="95"/>
+      <c r="M167" s="95"/>
+      <c r="N167" s="95"/>
+      <c r="O167" s="95"/>
+      <c r="P167" s="96"/>
       <c r="Q167" s="49"/>
       <c r="R167" s="49"/>
       <c r="S167" s="51"/>
@@ -7132,22 +7129,22 @@
         <f t="shared" si="14"/>
         <v>43834</v>
       </c>
-      <c r="C168" s="100" t="s">
-        <v>87</v>
-      </c>
-      <c r="D168" s="101"/>
-      <c r="E168" s="101"/>
-      <c r="F168" s="101"/>
-      <c r="G168" s="101"/>
-      <c r="H168" s="101"/>
-      <c r="I168" s="101"/>
-      <c r="J168" s="101"/>
-      <c r="K168" s="101"/>
-      <c r="L168" s="101"/>
-      <c r="M168" s="101"/>
-      <c r="N168" s="101"/>
-      <c r="O168" s="101"/>
-      <c r="P168" s="102"/>
+      <c r="C168" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D168" s="95"/>
+      <c r="E168" s="95"/>
+      <c r="F168" s="95"/>
+      <c r="G168" s="95"/>
+      <c r="H168" s="95"/>
+      <c r="I168" s="95"/>
+      <c r="J168" s="95"/>
+      <c r="K168" s="95"/>
+      <c r="L168" s="95"/>
+      <c r="M168" s="95"/>
+      <c r="N168" s="95"/>
+      <c r="O168" s="95"/>
+      <c r="P168" s="96"/>
       <c r="Q168" s="49"/>
       <c r="R168" s="49"/>
       <c r="S168" s="51"/>
@@ -7186,7 +7183,7 @@
     <row r="171" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C171" s="5">
         <v>0.375</v>
@@ -7246,7 +7243,7 @@
         <v>43836</v>
       </c>
       <c r="B172" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C172" s="59">
         <f>C162+1</f>
@@ -7279,22 +7276,22 @@
         <f>B163+7</f>
         <v>43836</v>
       </c>
-      <c r="C173" s="100" t="s">
-        <v>87</v>
-      </c>
-      <c r="D173" s="101"/>
-      <c r="E173" s="101"/>
-      <c r="F173" s="101"/>
-      <c r="G173" s="101"/>
-      <c r="H173" s="101"/>
-      <c r="I173" s="101"/>
-      <c r="J173" s="101"/>
-      <c r="K173" s="101"/>
-      <c r="L173" s="101"/>
-      <c r="M173" s="101"/>
-      <c r="N173" s="101"/>
-      <c r="O173" s="101"/>
-      <c r="P173" s="102"/>
+      <c r="C173" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D173" s="95"/>
+      <c r="E173" s="95"/>
+      <c r="F173" s="95"/>
+      <c r="G173" s="95"/>
+      <c r="H173" s="95"/>
+      <c r="I173" s="95"/>
+      <c r="J173" s="95"/>
+      <c r="K173" s="95"/>
+      <c r="L173" s="95"/>
+      <c r="M173" s="95"/>
+      <c r="N173" s="95"/>
+      <c r="O173" s="95"/>
+      <c r="P173" s="96"/>
       <c r="Q173" s="49"/>
       <c r="R173" s="49"/>
       <c r="S173" s="51"/>
@@ -7311,22 +7308,22 @@
         <f t="shared" ref="B174:B179" si="15">B164+7</f>
         <v>43837</v>
       </c>
-      <c r="C174" s="100" t="s">
-        <v>87</v>
-      </c>
-      <c r="D174" s="101"/>
-      <c r="E174" s="101"/>
-      <c r="F174" s="101"/>
-      <c r="G174" s="101"/>
-      <c r="H174" s="101"/>
-      <c r="I174" s="101"/>
-      <c r="J174" s="101"/>
-      <c r="K174" s="101"/>
-      <c r="L174" s="101"/>
-      <c r="M174" s="101"/>
-      <c r="N174" s="101"/>
-      <c r="O174" s="101"/>
-      <c r="P174" s="102"/>
+      <c r="C174" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D174" s="95"/>
+      <c r="E174" s="95"/>
+      <c r="F174" s="95"/>
+      <c r="G174" s="95"/>
+      <c r="H174" s="95"/>
+      <c r="I174" s="95"/>
+      <c r="J174" s="95"/>
+      <c r="K174" s="95"/>
+      <c r="L174" s="95"/>
+      <c r="M174" s="95"/>
+      <c r="N174" s="95"/>
+      <c r="O174" s="95"/>
+      <c r="P174" s="96"/>
       <c r="Q174" s="49"/>
       <c r="R174" s="49"/>
       <c r="S174" s="51"/>
@@ -7343,22 +7340,22 @@
         <f t="shared" si="15"/>
         <v>43838</v>
       </c>
-      <c r="C175" s="100" t="s">
-        <v>87</v>
-      </c>
-      <c r="D175" s="101"/>
-      <c r="E175" s="101"/>
-      <c r="F175" s="101"/>
-      <c r="G175" s="101"/>
-      <c r="H175" s="101"/>
-      <c r="I175" s="101"/>
-      <c r="J175" s="101"/>
-      <c r="K175" s="101"/>
-      <c r="L175" s="101"/>
-      <c r="M175" s="101"/>
-      <c r="N175" s="101"/>
-      <c r="O175" s="101"/>
-      <c r="P175" s="102"/>
+      <c r="C175" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D175" s="95"/>
+      <c r="E175" s="95"/>
+      <c r="F175" s="95"/>
+      <c r="G175" s="95"/>
+      <c r="H175" s="95"/>
+      <c r="I175" s="95"/>
+      <c r="J175" s="95"/>
+      <c r="K175" s="95"/>
+      <c r="L175" s="95"/>
+      <c r="M175" s="95"/>
+      <c r="N175" s="95"/>
+      <c r="O175" s="95"/>
+      <c r="P175" s="96"/>
       <c r="Q175" s="49"/>
       <c r="R175" s="49"/>
       <c r="S175" s="51"/>
@@ -7375,22 +7372,22 @@
         <f t="shared" si="15"/>
         <v>43839</v>
       </c>
-      <c r="C176" s="100" t="s">
-        <v>87</v>
-      </c>
-      <c r="D176" s="101"/>
-      <c r="E176" s="101"/>
-      <c r="F176" s="101"/>
-      <c r="G176" s="101"/>
-      <c r="H176" s="101"/>
-      <c r="I176" s="101"/>
-      <c r="J176" s="101"/>
-      <c r="K176" s="101"/>
-      <c r="L176" s="101"/>
-      <c r="M176" s="101"/>
-      <c r="N176" s="101"/>
-      <c r="O176" s="101"/>
-      <c r="P176" s="102"/>
+      <c r="C176" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D176" s="95"/>
+      <c r="E176" s="95"/>
+      <c r="F176" s="95"/>
+      <c r="G176" s="95"/>
+      <c r="H176" s="95"/>
+      <c r="I176" s="95"/>
+      <c r="J176" s="95"/>
+      <c r="K176" s="95"/>
+      <c r="L176" s="95"/>
+      <c r="M176" s="95"/>
+      <c r="N176" s="95"/>
+      <c r="O176" s="95"/>
+      <c r="P176" s="96"/>
       <c r="Q176" s="49"/>
       <c r="R176" s="49"/>
       <c r="S176" s="51"/>
@@ -7407,22 +7404,22 @@
         <f t="shared" si="15"/>
         <v>43840</v>
       </c>
-      <c r="C177" s="100" t="s">
-        <v>87</v>
-      </c>
-      <c r="D177" s="101"/>
-      <c r="E177" s="101"/>
-      <c r="F177" s="101"/>
-      <c r="G177" s="101"/>
-      <c r="H177" s="101"/>
-      <c r="I177" s="101"/>
-      <c r="J177" s="101"/>
-      <c r="K177" s="101"/>
-      <c r="L177" s="101"/>
-      <c r="M177" s="101"/>
-      <c r="N177" s="101"/>
-      <c r="O177" s="101"/>
-      <c r="P177" s="102"/>
+      <c r="C177" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D177" s="95"/>
+      <c r="E177" s="95"/>
+      <c r="F177" s="95"/>
+      <c r="G177" s="95"/>
+      <c r="H177" s="95"/>
+      <c r="I177" s="95"/>
+      <c r="J177" s="95"/>
+      <c r="K177" s="95"/>
+      <c r="L177" s="95"/>
+      <c r="M177" s="95"/>
+      <c r="N177" s="95"/>
+      <c r="O177" s="95"/>
+      <c r="P177" s="96"/>
       <c r="Q177" s="49"/>
       <c r="R177" s="49"/>
       <c r="S177" s="51"/>
@@ -7437,22 +7434,22 @@
         <f t="shared" si="15"/>
         <v>43841</v>
       </c>
-      <c r="C178" s="100" t="s">
-        <v>87</v>
-      </c>
-      <c r="D178" s="101"/>
-      <c r="E178" s="101"/>
-      <c r="F178" s="101"/>
-      <c r="G178" s="101"/>
-      <c r="H178" s="101"/>
-      <c r="I178" s="101"/>
-      <c r="J178" s="101"/>
-      <c r="K178" s="101"/>
-      <c r="L178" s="101"/>
-      <c r="M178" s="101"/>
-      <c r="N178" s="101"/>
-      <c r="O178" s="101"/>
-      <c r="P178" s="102"/>
+      <c r="C178" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D178" s="95"/>
+      <c r="E178" s="95"/>
+      <c r="F178" s="95"/>
+      <c r="G178" s="95"/>
+      <c r="H178" s="95"/>
+      <c r="I178" s="95"/>
+      <c r="J178" s="95"/>
+      <c r="K178" s="95"/>
+      <c r="L178" s="95"/>
+      <c r="M178" s="95"/>
+      <c r="N178" s="95"/>
+      <c r="O178" s="95"/>
+      <c r="P178" s="96"/>
       <c r="Q178" s="49"/>
       <c r="R178" s="49"/>
       <c r="S178" s="51"/>
@@ -7491,7 +7488,7 @@
     <row r="181" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C181" s="5">
         <v>0.375</v>
@@ -7550,7 +7547,7 @@
         <v>43843</v>
       </c>
       <c r="B182" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C182" s="59">
         <f>C172+1</f>
@@ -7582,22 +7579,22 @@
         <f>B173+7</f>
         <v>43843</v>
       </c>
-      <c r="C183" s="100" t="s">
-        <v>87</v>
-      </c>
-      <c r="D183" s="101"/>
-      <c r="E183" s="101"/>
-      <c r="F183" s="101"/>
-      <c r="G183" s="101"/>
-      <c r="H183" s="101"/>
-      <c r="I183" s="101"/>
-      <c r="J183" s="101"/>
-      <c r="K183" s="101"/>
-      <c r="L183" s="101"/>
-      <c r="M183" s="101"/>
-      <c r="N183" s="101"/>
-      <c r="O183" s="101"/>
-      <c r="P183" s="102"/>
+      <c r="C183" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D183" s="95"/>
+      <c r="E183" s="95"/>
+      <c r="F183" s="95"/>
+      <c r="G183" s="95"/>
+      <c r="H183" s="95"/>
+      <c r="I183" s="95"/>
+      <c r="J183" s="95"/>
+      <c r="K183" s="95"/>
+      <c r="L183" s="95"/>
+      <c r="M183" s="95"/>
+      <c r="N183" s="95"/>
+      <c r="O183" s="95"/>
+      <c r="P183" s="96"/>
       <c r="Q183" s="49"/>
       <c r="R183" s="49"/>
       <c r="S183" s="51"/>
@@ -7613,22 +7610,22 @@
         <f t="shared" ref="B184:B189" si="16">B174+7</f>
         <v>43844</v>
       </c>
-      <c r="C184" s="100" t="s">
-        <v>87</v>
-      </c>
-      <c r="D184" s="101"/>
-      <c r="E184" s="101"/>
-      <c r="F184" s="101"/>
-      <c r="G184" s="101"/>
-      <c r="H184" s="101"/>
-      <c r="I184" s="101"/>
-      <c r="J184" s="101"/>
-      <c r="K184" s="101"/>
-      <c r="L184" s="101"/>
-      <c r="M184" s="101"/>
-      <c r="N184" s="101"/>
-      <c r="O184" s="101"/>
-      <c r="P184" s="102"/>
+      <c r="C184" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D184" s="95"/>
+      <c r="E184" s="95"/>
+      <c r="F184" s="95"/>
+      <c r="G184" s="95"/>
+      <c r="H184" s="95"/>
+      <c r="I184" s="95"/>
+      <c r="J184" s="95"/>
+      <c r="K184" s="95"/>
+      <c r="L184" s="95"/>
+      <c r="M184" s="95"/>
+      <c r="N184" s="95"/>
+      <c r="O184" s="95"/>
+      <c r="P184" s="96"/>
       <c r="Q184" s="49"/>
       <c r="R184" s="49"/>
       <c r="S184" s="51"/>
@@ -7644,22 +7641,22 @@
         <f t="shared" si="16"/>
         <v>43845</v>
       </c>
-      <c r="C185" s="100" t="s">
-        <v>87</v>
-      </c>
-      <c r="D185" s="101"/>
-      <c r="E185" s="101"/>
-      <c r="F185" s="101"/>
-      <c r="G185" s="101"/>
-      <c r="H185" s="101"/>
-      <c r="I185" s="101"/>
-      <c r="J185" s="101"/>
-      <c r="K185" s="101"/>
-      <c r="L185" s="101"/>
-      <c r="M185" s="101"/>
-      <c r="N185" s="101"/>
-      <c r="O185" s="101"/>
-      <c r="P185" s="102"/>
+      <c r="C185" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D185" s="95"/>
+      <c r="E185" s="95"/>
+      <c r="F185" s="95"/>
+      <c r="G185" s="95"/>
+      <c r="H185" s="95"/>
+      <c r="I185" s="95"/>
+      <c r="J185" s="95"/>
+      <c r="K185" s="95"/>
+      <c r="L185" s="95"/>
+      <c r="M185" s="95"/>
+      <c r="N185" s="95"/>
+      <c r="O185" s="95"/>
+      <c r="P185" s="96"/>
       <c r="Q185" s="49"/>
       <c r="R185" s="49"/>
       <c r="S185" s="51"/>
@@ -7675,24 +7672,24 @@
         <f t="shared" si="16"/>
         <v>43846</v>
       </c>
-      <c r="C186" s="128" t="s">
-        <v>91</v>
-      </c>
-      <c r="D186" s="129"/>
-      <c r="E186" s="129"/>
-      <c r="F186" s="129"/>
-      <c r="G186" s="129"/>
-      <c r="H186" s="129"/>
-      <c r="I186" s="129"/>
-      <c r="J186" s="129"/>
-      <c r="K186" s="129"/>
-      <c r="L186" s="129"/>
-      <c r="M186" s="129"/>
-      <c r="N186" s="129"/>
-      <c r="O186" s="129"/>
-      <c r="P186" s="129"/>
-      <c r="Q186" s="129"/>
-      <c r="R186" s="130"/>
+      <c r="C186" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="D186" s="86"/>
+      <c r="E186" s="86"/>
+      <c r="F186" s="86"/>
+      <c r="G186" s="86"/>
+      <c r="H186" s="86"/>
+      <c r="I186" s="86"/>
+      <c r="J186" s="86"/>
+      <c r="K186" s="86"/>
+      <c r="L186" s="86"/>
+      <c r="M186" s="86"/>
+      <c r="N186" s="86"/>
+      <c r="O186" s="86"/>
+      <c r="P186" s="86"/>
+      <c r="Q186" s="86"/>
+      <c r="R186" s="87"/>
       <c r="S186" s="51"/>
       <c r="T186" s="18" t="s">
         <v>21</v>
@@ -7706,22 +7703,22 @@
         <f t="shared" si="16"/>
         <v>43847</v>
       </c>
-      <c r="C187" s="131"/>
-      <c r="D187" s="132"/>
-      <c r="E187" s="132"/>
-      <c r="F187" s="132"/>
-      <c r="G187" s="132"/>
-      <c r="H187" s="132"/>
-      <c r="I187" s="132"/>
-      <c r="J187" s="132"/>
-      <c r="K187" s="132"/>
-      <c r="L187" s="132"/>
-      <c r="M187" s="132"/>
-      <c r="N187" s="132"/>
-      <c r="O187" s="132"/>
-      <c r="P187" s="132"/>
-      <c r="Q187" s="132"/>
-      <c r="R187" s="133"/>
+      <c r="C187" s="88"/>
+      <c r="D187" s="89"/>
+      <c r="E187" s="89"/>
+      <c r="F187" s="89"/>
+      <c r="G187" s="89"/>
+      <c r="H187" s="89"/>
+      <c r="I187" s="89"/>
+      <c r="J187" s="89"/>
+      <c r="K187" s="89"/>
+      <c r="L187" s="89"/>
+      <c r="M187" s="89"/>
+      <c r="N187" s="89"/>
+      <c r="O187" s="89"/>
+      <c r="P187" s="89"/>
+      <c r="Q187" s="89"/>
+      <c r="R187" s="90"/>
       <c r="S187" s="51"/>
       <c r="T187" s="51"/>
     </row>
@@ -7733,22 +7730,22 @@
         <f t="shared" si="16"/>
         <v>43848</v>
       </c>
-      <c r="C188" s="131"/>
-      <c r="D188" s="132"/>
-      <c r="E188" s="132"/>
-      <c r="F188" s="132"/>
-      <c r="G188" s="132"/>
-      <c r="H188" s="132"/>
-      <c r="I188" s="132"/>
-      <c r="J188" s="132"/>
-      <c r="K188" s="132"/>
-      <c r="L188" s="132"/>
-      <c r="M188" s="132"/>
-      <c r="N188" s="132"/>
-      <c r="O188" s="132"/>
-      <c r="P188" s="132"/>
-      <c r="Q188" s="132"/>
-      <c r="R188" s="133"/>
+      <c r="C188" s="88"/>
+      <c r="D188" s="89"/>
+      <c r="E188" s="89"/>
+      <c r="F188" s="89"/>
+      <c r="G188" s="89"/>
+      <c r="H188" s="89"/>
+      <c r="I188" s="89"/>
+      <c r="J188" s="89"/>
+      <c r="K188" s="89"/>
+      <c r="L188" s="89"/>
+      <c r="M188" s="89"/>
+      <c r="N188" s="89"/>
+      <c r="O188" s="89"/>
+      <c r="P188" s="89"/>
+      <c r="Q188" s="89"/>
+      <c r="R188" s="90"/>
       <c r="S188" s="51"/>
       <c r="T188" s="51"/>
     </row>
@@ -7760,22 +7757,22 @@
         <f t="shared" si="16"/>
         <v>43849</v>
       </c>
-      <c r="C189" s="134"/>
-      <c r="D189" s="135"/>
-      <c r="E189" s="135"/>
-      <c r="F189" s="135"/>
-      <c r="G189" s="135"/>
-      <c r="H189" s="135"/>
-      <c r="I189" s="135"/>
-      <c r="J189" s="135"/>
-      <c r="K189" s="135"/>
-      <c r="L189" s="135"/>
-      <c r="M189" s="135"/>
-      <c r="N189" s="135"/>
-      <c r="O189" s="135"/>
-      <c r="P189" s="135"/>
-      <c r="Q189" s="135"/>
-      <c r="R189" s="136"/>
+      <c r="C189" s="91"/>
+      <c r="D189" s="92"/>
+      <c r="E189" s="92"/>
+      <c r="F189" s="92"/>
+      <c r="G189" s="92"/>
+      <c r="H189" s="92"/>
+      <c r="I189" s="92"/>
+      <c r="J189" s="92"/>
+      <c r="K189" s="92"/>
+      <c r="L189" s="92"/>
+      <c r="M189" s="92"/>
+      <c r="N189" s="92"/>
+      <c r="O189" s="92"/>
+      <c r="P189" s="92"/>
+      <c r="Q189" s="92"/>
+      <c r="R189" s="93"/>
       <c r="S189" s="51"/>
       <c r="T189" s="51"/>
     </row>
@@ -7803,7 +7800,7 @@
     <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C191" s="5">
         <v>0.375</v>
@@ -7862,7 +7859,7 @@
         <v>43850</v>
       </c>
       <c r="B192" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C192" s="59">
         <v>1</v>
@@ -7896,20 +7893,20 @@
         <f>B183+7</f>
         <v>43850</v>
       </c>
-      <c r="C193" s="103" t="s">
+      <c r="C193" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D193" s="103"/>
-      <c r="E193" s="103"/>
-      <c r="F193" s="103"/>
-      <c r="G193" s="149" t="s">
+      <c r="D193" s="83"/>
+      <c r="E193" s="83"/>
+      <c r="F193" s="83"/>
+      <c r="G193" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="H193" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="H193" s="103" t="s">
-        <v>93</v>
-      </c>
-      <c r="I193" s="103"/>
-      <c r="J193" s="103"/>
+      <c r="I193" s="83"/>
+      <c r="J193" s="83"/>
       <c r="K193" s="49"/>
       <c r="L193" s="49"/>
       <c r="M193" s="49"/>
@@ -7964,22 +7961,22 @@
       <c r="D195" s="20"/>
       <c r="E195" s="20"/>
       <c r="F195" s="20"/>
-      <c r="G195" s="89" t="s">
+      <c r="G195" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="H195" s="113"/>
+      <c r="I195" s="113"/>
+      <c r="J195" s="114"/>
+      <c r="K195" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="L195" s="83"/>
+      <c r="M195" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="H195" s="90"/>
-      <c r="I195" s="90"/>
-      <c r="J195" s="91"/>
-      <c r="K195" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="L195" s="78"/>
-      <c r="M195" s="75" t="s">
-        <v>105</v>
-      </c>
-      <c r="N195" s="77"/>
-      <c r="O195" s="77"/>
-      <c r="P195" s="76"/>
+      <c r="N195" s="113"/>
+      <c r="O195" s="113"/>
+      <c r="P195" s="114"/>
       <c r="Q195" s="49"/>
       <c r="R195" s="49"/>
       <c r="S195" s="51"/>
@@ -8028,12 +8025,12 @@
       <c r="D197" s="20"/>
       <c r="E197" s="20"/>
       <c r="F197" s="20"/>
-      <c r="G197" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="H197" s="77"/>
-      <c r="I197" s="77"/>
-      <c r="J197" s="76"/>
+      <c r="G197" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="H197" s="113"/>
+      <c r="I197" s="113"/>
+      <c r="J197" s="114"/>
       <c r="K197" s="49"/>
       <c r="L197" s="49"/>
       <c r="M197" s="20"/>
@@ -8123,7 +8120,7 @@
     <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C201" s="5">
         <v>0.375</v>
@@ -8182,7 +8179,7 @@
         <v>43857</v>
       </c>
       <c r="B202" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C202" s="59">
         <f>C192+1</f>
@@ -8217,20 +8214,20 @@
         <f>B193+7</f>
         <v>43857</v>
       </c>
-      <c r="C203" s="150" t="s">
+      <c r="C203" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="D203" s="151"/>
-      <c r="E203" s="151"/>
+      <c r="D203" s="124"/>
+      <c r="E203" s="124"/>
       <c r="F203" s="152"/>
-      <c r="G203" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="H203" s="77"/>
-      <c r="I203" s="77"/>
-      <c r="J203" s="77"/>
-      <c r="K203" s="77"/>
-      <c r="L203" s="76"/>
+      <c r="G203" s="112" t="s">
+        <v>93</v>
+      </c>
+      <c r="H203" s="113"/>
+      <c r="I203" s="113"/>
+      <c r="J203" s="113"/>
+      <c r="K203" s="113"/>
+      <c r="L203" s="114"/>
       <c r="M203" s="49"/>
       <c r="N203" s="49"/>
       <c r="O203" s="49"/>
@@ -8283,12 +8280,12 @@
       <c r="D205" s="20"/>
       <c r="E205" s="20"/>
       <c r="F205" s="20"/>
-      <c r="G205" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="H205" s="77"/>
-      <c r="I205" s="77"/>
-      <c r="J205" s="76"/>
+      <c r="G205" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="H205" s="113"/>
+      <c r="I205" s="113"/>
+      <c r="J205" s="114"/>
       <c r="K205" s="49"/>
       <c r="L205" s="49"/>
       <c r="M205" s="49"/>
@@ -8343,12 +8340,12 @@
       <c r="D207" s="20"/>
       <c r="E207" s="20"/>
       <c r="F207" s="20"/>
-      <c r="G207" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="H207" s="77"/>
-      <c r="I207" s="77"/>
-      <c r="J207" s="76"/>
+      <c r="G207" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="H207" s="78"/>
+      <c r="I207" s="78"/>
+      <c r="J207" s="79"/>
       <c r="K207" s="49"/>
       <c r="L207" s="49"/>
       <c r="M207" s="20"/>
@@ -8439,7 +8436,7 @@
     <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C211" s="5">
         <v>0.375</v>
@@ -8498,7 +8495,7 @@
         <v>43864</v>
       </c>
       <c r="B212" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C212" s="59">
         <f>C202+1</f>
@@ -8533,20 +8530,20 @@
         <f>B203+7</f>
         <v>43864</v>
       </c>
-      <c r="C213" s="150" t="s">
+      <c r="C213" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D213" s="151"/>
-      <c r="E213" s="151"/>
-      <c r="F213" s="152"/>
-      <c r="G213" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="H213" s="77"/>
-      <c r="I213" s="77"/>
-      <c r="J213" s="77"/>
-      <c r="K213" s="77"/>
-      <c r="L213" s="76"/>
+      <c r="D213" s="81"/>
+      <c r="E213" s="81"/>
+      <c r="F213" s="82"/>
+      <c r="G213" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="H213" s="78"/>
+      <c r="I213" s="78"/>
+      <c r="J213" s="78"/>
+      <c r="K213" s="78"/>
+      <c r="L213" s="79"/>
       <c r="M213" s="49"/>
       <c r="N213" s="49"/>
       <c r="O213" s="49"/>
@@ -8599,12 +8596,12 @@
       <c r="D215" s="20"/>
       <c r="E215" s="20"/>
       <c r="F215" s="20"/>
-      <c r="G215" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="H215" s="77"/>
-      <c r="I215" s="77"/>
-      <c r="J215" s="76"/>
+      <c r="G215" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="H215" s="78"/>
+      <c r="I215" s="78"/>
+      <c r="J215" s="79"/>
       <c r="K215" s="49"/>
       <c r="L215" s="49"/>
       <c r="M215" s="49"/>
@@ -8659,12 +8656,12 @@
       <c r="D217" s="20"/>
       <c r="E217" s="20"/>
       <c r="F217" s="20"/>
-      <c r="G217" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="H217" s="77"/>
-      <c r="I217" s="77"/>
-      <c r="J217" s="76"/>
+      <c r="G217" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="H217" s="78"/>
+      <c r="I217" s="78"/>
+      <c r="J217" s="79"/>
       <c r="K217" s="49"/>
       <c r="L217" s="49"/>
       <c r="M217" s="20"/>
@@ -8755,7 +8752,7 @@
     <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C221" s="5">
         <v>0.375</v>
@@ -8814,7 +8811,7 @@
         <v>43871</v>
       </c>
       <c r="B222" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C222" s="59">
         <f>C212+1</f>
@@ -8849,20 +8846,20 @@
         <f>B213+7</f>
         <v>43871</v>
       </c>
-      <c r="C223" s="150" t="s">
+      <c r="C223" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D223" s="151"/>
-      <c r="E223" s="151"/>
-      <c r="F223" s="152"/>
-      <c r="G223" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="H223" s="77"/>
-      <c r="I223" s="77"/>
-      <c r="J223" s="77"/>
-      <c r="K223" s="77"/>
-      <c r="L223" s="76"/>
+      <c r="D223" s="81"/>
+      <c r="E223" s="81"/>
+      <c r="F223" s="82"/>
+      <c r="G223" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="H223" s="78"/>
+      <c r="I223" s="78"/>
+      <c r="J223" s="78"/>
+      <c r="K223" s="78"/>
+      <c r="L223" s="79"/>
       <c r="M223" s="49"/>
       <c r="N223" s="49"/>
       <c r="O223" s="49"/>
@@ -8915,12 +8912,12 @@
       <c r="D225" s="20"/>
       <c r="E225" s="20"/>
       <c r="F225" s="20"/>
-      <c r="G225" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="H225" s="77"/>
-      <c r="I225" s="77"/>
-      <c r="J225" s="76"/>
+      <c r="G225" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="H225" s="78"/>
+      <c r="I225" s="78"/>
+      <c r="J225" s="79"/>
       <c r="K225" s="49"/>
       <c r="L225" s="49"/>
       <c r="M225" s="49"/>
@@ -8975,12 +8972,12 @@
       <c r="D227" s="20"/>
       <c r="E227" s="20"/>
       <c r="F227" s="20"/>
-      <c r="G227" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="H227" s="77"/>
-      <c r="I227" s="77"/>
-      <c r="J227" s="76"/>
+      <c r="G227" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="H227" s="78"/>
+      <c r="I227" s="78"/>
+      <c r="J227" s="79"/>
       <c r="K227" s="49"/>
       <c r="L227" s="49"/>
       <c r="M227" s="20"/>
@@ -9071,7 +9068,7 @@
     <row r="231" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C231" s="5">
         <v>0.375</v>
@@ -9130,7 +9127,7 @@
         <v>43878</v>
       </c>
       <c r="B232" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C232" s="59">
         <f>C222+1</f>
@@ -9165,20 +9162,20 @@
         <f>B223+7</f>
         <v>43878</v>
       </c>
-      <c r="C233" s="150" t="s">
+      <c r="C233" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D233" s="151"/>
-      <c r="E233" s="151"/>
-      <c r="F233" s="152"/>
-      <c r="G233" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="H233" s="77"/>
-      <c r="I233" s="77"/>
-      <c r="J233" s="77"/>
-      <c r="K233" s="77"/>
-      <c r="L233" s="76"/>
+      <c r="D233" s="81"/>
+      <c r="E233" s="81"/>
+      <c r="F233" s="82"/>
+      <c r="G233" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="H233" s="78"/>
+      <c r="I233" s="78"/>
+      <c r="J233" s="78"/>
+      <c r="K233" s="78"/>
+      <c r="L233" s="79"/>
       <c r="M233" s="49"/>
       <c r="N233" s="49"/>
       <c r="O233" s="49"/>
@@ -9231,12 +9228,12 @@
       <c r="D235" s="20"/>
       <c r="E235" s="20"/>
       <c r="F235" s="20"/>
-      <c r="G235" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="H235" s="77"/>
-      <c r="I235" s="77"/>
-      <c r="J235" s="76"/>
+      <c r="G235" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="H235" s="78"/>
+      <c r="I235" s="78"/>
+      <c r="J235" s="79"/>
       <c r="K235" s="49"/>
       <c r="L235" s="49"/>
       <c r="M235" s="49"/>
@@ -9291,12 +9288,12 @@
       <c r="D237" s="20"/>
       <c r="E237" s="20"/>
       <c r="F237" s="20"/>
-      <c r="G237" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="H237" s="77"/>
-      <c r="I237" s="77"/>
-      <c r="J237" s="76"/>
+      <c r="G237" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="H237" s="78"/>
+      <c r="I237" s="78"/>
+      <c r="J237" s="79"/>
       <c r="K237" s="49"/>
       <c r="L237" s="49"/>
       <c r="M237" s="20"/>
@@ -9387,7 +9384,7 @@
     <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C241" s="5">
         <v>0.375</v>
@@ -9446,7 +9443,7 @@
         <v>43885</v>
       </c>
       <c r="B242" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C242" s="59">
         <f>C232+1</f>
@@ -9456,12 +9453,12 @@
         <f>D232+1</f>
         <v>24</v>
       </c>
-      <c r="E242" s="148" t="s">
-        <v>101</v>
-      </c>
-      <c r="F242" s="148"/>
-      <c r="G242" s="148"/>
-      <c r="H242" s="148"/>
+      <c r="E242" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="F242" s="76"/>
+      <c r="G242" s="76"/>
+      <c r="H242" s="76"/>
       <c r="I242" s="15"/>
       <c r="J242" s="15"/>
       <c r="K242" s="19"/>
@@ -9483,20 +9480,20 @@
         <f>B233+7</f>
         <v>43885</v>
       </c>
-      <c r="C243" s="150" t="s">
+      <c r="C243" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D243" s="151"/>
-      <c r="E243" s="151"/>
-      <c r="F243" s="152"/>
-      <c r="G243" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="H243" s="77"/>
-      <c r="I243" s="77"/>
-      <c r="J243" s="77"/>
-      <c r="K243" s="77"/>
-      <c r="L243" s="76"/>
+      <c r="D243" s="81"/>
+      <c r="E243" s="81"/>
+      <c r="F243" s="82"/>
+      <c r="G243" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="H243" s="78"/>
+      <c r="I243" s="78"/>
+      <c r="J243" s="78"/>
+      <c r="K243" s="78"/>
+      <c r="L243" s="79"/>
       <c r="M243" s="49"/>
       <c r="N243" s="49"/>
       <c r="O243" s="49"/>
@@ -9549,12 +9546,12 @@
       <c r="D245" s="20"/>
       <c r="E245" s="20"/>
       <c r="F245" s="20"/>
-      <c r="G245" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="H245" s="77"/>
-      <c r="I245" s="77"/>
-      <c r="J245" s="76"/>
+      <c r="G245" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="H245" s="78"/>
+      <c r="I245" s="78"/>
+      <c r="J245" s="79"/>
       <c r="K245" s="49"/>
       <c r="L245" s="49"/>
       <c r="M245" s="49"/>
@@ -9609,12 +9606,12 @@
       <c r="D247" s="20"/>
       <c r="E247" s="20"/>
       <c r="F247" s="20"/>
-      <c r="G247" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="H247" s="77"/>
-      <c r="I247" s="77"/>
-      <c r="J247" s="76"/>
+      <c r="G247" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="H247" s="78"/>
+      <c r="I247" s="78"/>
+      <c r="J247" s="79"/>
       <c r="K247" s="49"/>
       <c r="L247" s="49"/>
       <c r="M247" s="20"/>
@@ -9705,7 +9702,7 @@
     <row r="251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C251" s="5">
         <v>0.375</v>
@@ -9764,7 +9761,7 @@
         <v>43892</v>
       </c>
       <c r="B252" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C252" s="59">
         <f>C242+1</f>
@@ -9799,20 +9796,20 @@
         <f>B243+7</f>
         <v>43892</v>
       </c>
-      <c r="C253" s="150" t="s">
+      <c r="C253" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D253" s="151"/>
-      <c r="E253" s="151"/>
-      <c r="F253" s="152"/>
-      <c r="G253" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="H253" s="77"/>
-      <c r="I253" s="77"/>
-      <c r="J253" s="77"/>
-      <c r="K253" s="77"/>
-      <c r="L253" s="76"/>
+      <c r="D253" s="81"/>
+      <c r="E253" s="81"/>
+      <c r="F253" s="82"/>
+      <c r="G253" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="H253" s="78"/>
+      <c r="I253" s="78"/>
+      <c r="J253" s="78"/>
+      <c r="K253" s="78"/>
+      <c r="L253" s="79"/>
       <c r="M253" s="49"/>
       <c r="N253" s="49"/>
       <c r="O253" s="49"/>
@@ -9865,12 +9862,12 @@
       <c r="D255" s="20"/>
       <c r="E255" s="20"/>
       <c r="F255" s="20"/>
-      <c r="G255" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="H255" s="77"/>
-      <c r="I255" s="77"/>
-      <c r="J255" s="76"/>
+      <c r="G255" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="H255" s="78"/>
+      <c r="I255" s="78"/>
+      <c r="J255" s="79"/>
       <c r="K255" s="49"/>
       <c r="L255" s="49"/>
       <c r="M255" s="49"/>
@@ -9925,12 +9922,12 @@
       <c r="D257" s="20"/>
       <c r="E257" s="20"/>
       <c r="F257" s="20"/>
-      <c r="G257" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="H257" s="77"/>
-      <c r="I257" s="77"/>
-      <c r="J257" s="76"/>
+      <c r="G257" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="H257" s="78"/>
+      <c r="I257" s="78"/>
+      <c r="J257" s="79"/>
       <c r="K257" s="49"/>
       <c r="L257" s="49"/>
       <c r="M257" s="20"/>
@@ -10021,7 +10018,7 @@
     <row r="261" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C261" s="5">
         <v>0.375</v>
@@ -10080,7 +10077,7 @@
         <v>43899</v>
       </c>
       <c r="B262" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C262" s="59">
         <f>C252+1</f>
@@ -10115,20 +10112,20 @@
         <f>B253+7</f>
         <v>43899</v>
       </c>
-      <c r="C263" s="150" t="s">
+      <c r="C263" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D263" s="151"/>
-      <c r="E263" s="151"/>
-      <c r="F263" s="152"/>
-      <c r="G263" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="H263" s="77"/>
-      <c r="I263" s="77"/>
-      <c r="J263" s="77"/>
-      <c r="K263" s="77"/>
-      <c r="L263" s="76"/>
+      <c r="D263" s="81"/>
+      <c r="E263" s="81"/>
+      <c r="F263" s="82"/>
+      <c r="G263" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="H263" s="78"/>
+      <c r="I263" s="78"/>
+      <c r="J263" s="78"/>
+      <c r="K263" s="78"/>
+      <c r="L263" s="79"/>
       <c r="M263" s="49"/>
       <c r="N263" s="49"/>
       <c r="O263" s="49"/>
@@ -10181,12 +10178,12 @@
       <c r="D265" s="20"/>
       <c r="E265" s="20"/>
       <c r="F265" s="20"/>
-      <c r="G265" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="H265" s="77"/>
-      <c r="I265" s="77"/>
-      <c r="J265" s="76"/>
+      <c r="G265" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="H265" s="78"/>
+      <c r="I265" s="78"/>
+      <c r="J265" s="79"/>
       <c r="K265" s="49"/>
       <c r="L265" s="49"/>
       <c r="M265" s="49"/>
@@ -10241,12 +10238,12 @@
       <c r="D267" s="20"/>
       <c r="E267" s="20"/>
       <c r="F267" s="20"/>
-      <c r="G267" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="H267" s="77"/>
-      <c r="I267" s="77"/>
-      <c r="J267" s="76"/>
+      <c r="G267" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="H267" s="78"/>
+      <c r="I267" s="78"/>
+      <c r="J267" s="79"/>
       <c r="K267" s="49"/>
       <c r="L267" s="49"/>
       <c r="M267" s="20"/>
@@ -10337,7 +10334,7 @@
     <row r="271" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C271" s="5">
         <v>0.375</v>
@@ -10396,7 +10393,7 @@
         <v>43906</v>
       </c>
       <c r="B272" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C272" s="59">
         <f>C262+1</f>
@@ -10416,12 +10413,12 @@
       <c r="L272" s="19"/>
       <c r="M272" s="19"/>
       <c r="N272" s="19"/>
-      <c r="O272" s="74" t="s">
-        <v>95</v>
-      </c>
-      <c r="P272" s="74"/>
-      <c r="Q272" s="74"/>
-      <c r="R272" s="74"/>
+      <c r="O272" s="147" t="s">
+        <v>94</v>
+      </c>
+      <c r="P272" s="147"/>
+      <c r="Q272" s="147"/>
+      <c r="R272" s="147"/>
       <c r="S272" s="51"/>
       <c r="T272" s="51"/>
     </row>
@@ -10647,7 +10644,7 @@
     <row r="281" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C281" s="5">
         <v>0.375</v>
@@ -10706,7 +10703,7 @@
         <v>43913</v>
       </c>
       <c r="B282" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C282" s="59">
         <f>C272+1</f>
@@ -10741,20 +10738,20 @@
         <f>B273+7</f>
         <v>43913</v>
       </c>
-      <c r="C283" s="150" t="s">
+      <c r="C283" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D283" s="151"/>
-      <c r="E283" s="151"/>
-      <c r="F283" s="152"/>
-      <c r="G283" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="H283" s="77"/>
-      <c r="I283" s="77"/>
-      <c r="J283" s="77"/>
-      <c r="K283" s="77"/>
-      <c r="L283" s="76"/>
+      <c r="D283" s="81"/>
+      <c r="E283" s="81"/>
+      <c r="F283" s="82"/>
+      <c r="G283" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="H283" s="78"/>
+      <c r="I283" s="78"/>
+      <c r="J283" s="78"/>
+      <c r="K283" s="78"/>
+      <c r="L283" s="79"/>
       <c r="M283" s="49"/>
       <c r="N283" s="49"/>
       <c r="O283" s="49"/>
@@ -10807,12 +10804,12 @@
       <c r="D285" s="20"/>
       <c r="E285" s="20"/>
       <c r="F285" s="20"/>
-      <c r="G285" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="H285" s="77"/>
-      <c r="I285" s="77"/>
-      <c r="J285" s="76"/>
+      <c r="G285" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="H285" s="78"/>
+      <c r="I285" s="78"/>
+      <c r="J285" s="79"/>
       <c r="K285" s="49"/>
       <c r="L285" s="49"/>
       <c r="M285" s="49"/>
@@ -10867,12 +10864,12 @@
       <c r="D287" s="20"/>
       <c r="E287" s="20"/>
       <c r="F287" s="20"/>
-      <c r="G287" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="H287" s="77"/>
-      <c r="I287" s="77"/>
-      <c r="J287" s="76"/>
+      <c r="G287" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="H287" s="78"/>
+      <c r="I287" s="78"/>
+      <c r="J287" s="79"/>
       <c r="K287" s="49"/>
       <c r="L287" s="49"/>
       <c r="M287" s="20"/>
@@ -10963,7 +10960,7 @@
     <row r="291" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C291" s="5">
         <v>0.375</v>
@@ -11022,7 +11019,7 @@
         <v>43920</v>
       </c>
       <c r="B292" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C292" s="59">
         <f>C282+1</f>
@@ -11032,12 +11029,12 @@
         <f>D282+1</f>
         <v>29</v>
       </c>
-      <c r="E292" s="148" t="s">
-        <v>102</v>
-      </c>
-      <c r="F292" s="148"/>
-      <c r="G292" s="148"/>
-      <c r="H292" s="148"/>
+      <c r="E292" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="F292" s="76"/>
+      <c r="G292" s="76"/>
+      <c r="H292" s="76"/>
       <c r="I292" s="15"/>
       <c r="J292" s="15"/>
       <c r="K292" s="19"/>
@@ -11059,20 +11056,20 @@
         <f>B283+7</f>
         <v>43920</v>
       </c>
-      <c r="C293" s="150" t="s">
+      <c r="C293" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D293" s="151"/>
-      <c r="E293" s="151"/>
-      <c r="F293" s="152"/>
-      <c r="G293" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="H293" s="77"/>
-      <c r="I293" s="77"/>
-      <c r="J293" s="77"/>
-      <c r="K293" s="77"/>
-      <c r="L293" s="76"/>
+      <c r="D293" s="81"/>
+      <c r="E293" s="81"/>
+      <c r="F293" s="82"/>
+      <c r="G293" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="H293" s="78"/>
+      <c r="I293" s="78"/>
+      <c r="J293" s="78"/>
+      <c r="K293" s="78"/>
+      <c r="L293" s="79"/>
       <c r="M293" s="49"/>
       <c r="N293" s="49"/>
       <c r="O293" s="49"/>
@@ -11125,12 +11122,12 @@
       <c r="D295" s="20"/>
       <c r="E295" s="20"/>
       <c r="F295" s="20"/>
-      <c r="G295" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="H295" s="77"/>
-      <c r="I295" s="77"/>
-      <c r="J295" s="76"/>
+      <c r="G295" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="H295" s="78"/>
+      <c r="I295" s="78"/>
+      <c r="J295" s="79"/>
       <c r="K295" s="49"/>
       <c r="L295" s="49"/>
       <c r="M295" s="49"/>
@@ -11185,12 +11182,12 @@
       <c r="D297" s="20"/>
       <c r="E297" s="20"/>
       <c r="F297" s="20"/>
-      <c r="G297" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="H297" s="77"/>
-      <c r="I297" s="77"/>
-      <c r="J297" s="76"/>
+      <c r="G297" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="H297" s="78"/>
+      <c r="I297" s="78"/>
+      <c r="J297" s="79"/>
       <c r="K297" s="49"/>
       <c r="L297" s="49"/>
       <c r="M297" s="20"/>
@@ -11281,7 +11278,7 @@
     <row r="301" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C301" s="5">
         <v>0.375</v>
@@ -11340,7 +11337,7 @@
         <v>43927</v>
       </c>
       <c r="B302" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C302" s="59">
         <f>C292+1</f>
@@ -11589,7 +11586,7 @@
     <row r="311" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C311" s="5">
         <v>0.375</v>
@@ -11648,7 +11645,7 @@
         <v>43934</v>
       </c>
       <c r="B312" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C312" s="59">
         <f>C302+1</f>
@@ -11897,7 +11894,7 @@
     <row r="321" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C321" s="5">
         <v>0.375</v>
@@ -11956,7 +11953,7 @@
         <v>43941</v>
       </c>
       <c r="B322" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C322" s="59">
         <f>C312+1</f>
@@ -12205,7 +12202,7 @@
     <row r="331" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C331" s="5">
         <v>0.375</v>
@@ -12264,7 +12261,7 @@
         <v>43948</v>
       </c>
       <c r="B332" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C332" s="59">
         <f>C322+1</f>
@@ -12513,7 +12510,7 @@
     <row r="341" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C341" s="5">
         <v>0.375</v>
@@ -12572,7 +12569,7 @@
         <v>43955</v>
       </c>
       <c r="B342" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C342" s="59">
         <f>C332+1</f>
@@ -12821,7 +12818,7 @@
     <row r="351" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C351" s="5">
         <v>0.375</v>
@@ -12880,7 +12877,7 @@
         <v>43962</v>
       </c>
       <c r="B352" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C352" s="59">
         <f>C342+1</f>
@@ -13129,7 +13126,7 @@
     <row r="361" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C361" s="5">
         <v>0.375</v>
@@ -13188,7 +13185,7 @@
         <v>43969</v>
       </c>
       <c r="B362" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C362" s="59">
         <f>C352+1</f>
@@ -13437,7 +13434,7 @@
     <row r="371" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C371" s="5">
         <v>0.375</v>
@@ -13496,7 +13493,7 @@
         <v>43976</v>
       </c>
       <c r="B372" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C372" s="59">
         <f>C362+1</f>
@@ -16410,28 +16407,151 @@
     </row>
   </sheetData>
   <mergeCells count="193">
-    <mergeCell ref="C134:G134"/>
-    <mergeCell ref="C133:G133"/>
-    <mergeCell ref="E242:H242"/>
-    <mergeCell ref="E292:H292"/>
-    <mergeCell ref="K195:L195"/>
-    <mergeCell ref="M195:P195"/>
-    <mergeCell ref="G203:L203"/>
-    <mergeCell ref="C203:F203"/>
-    <mergeCell ref="C213:F213"/>
-    <mergeCell ref="G213:L213"/>
-    <mergeCell ref="C223:F223"/>
-    <mergeCell ref="G223:L223"/>
-    <mergeCell ref="C233:F233"/>
-    <mergeCell ref="G233:L233"/>
-    <mergeCell ref="C243:F243"/>
-    <mergeCell ref="G243:L243"/>
-    <mergeCell ref="C253:F253"/>
-    <mergeCell ref="G253:L253"/>
-    <mergeCell ref="C263:F263"/>
-    <mergeCell ref="G263:L263"/>
-    <mergeCell ref="C283:F283"/>
-    <mergeCell ref="G283:L283"/>
+    <mergeCell ref="O272:R272"/>
+    <mergeCell ref="G285:J285"/>
+    <mergeCell ref="G287:J287"/>
+    <mergeCell ref="G295:J295"/>
+    <mergeCell ref="G297:J297"/>
+    <mergeCell ref="C293:F293"/>
+    <mergeCell ref="G293:L293"/>
+    <mergeCell ref="G225:J225"/>
+    <mergeCell ref="G227:J227"/>
+    <mergeCell ref="G257:J257"/>
+    <mergeCell ref="G265:J265"/>
+    <mergeCell ref="G267:J267"/>
+    <mergeCell ref="G235:J235"/>
+    <mergeCell ref="G237:J237"/>
+    <mergeCell ref="G245:J245"/>
+    <mergeCell ref="G247:J247"/>
+    <mergeCell ref="G255:J255"/>
+    <mergeCell ref="H193:J193"/>
+    <mergeCell ref="G195:J195"/>
+    <mergeCell ref="G197:J197"/>
+    <mergeCell ref="G205:J205"/>
+    <mergeCell ref="G207:J207"/>
+    <mergeCell ref="F143:P143"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="G215:J215"/>
+    <mergeCell ref="G217:J217"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H46:P46"/>
+    <mergeCell ref="H44:N44"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="L75:Q75"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="E77:J77"/>
+    <mergeCell ref="L67:R67"/>
+    <mergeCell ref="M72:R72"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="H66:Q66"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="H13:R13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="H45:P45"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H43:P43"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="H33:P33"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H23:R23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="H54:P54"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="H126:P126"/>
+    <mergeCell ref="C155:R159"/>
+    <mergeCell ref="C163:R165"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H142:L142"/>
+    <mergeCell ref="C105:M105"/>
+    <mergeCell ref="H106:P106"/>
+    <mergeCell ref="C119:R119"/>
+    <mergeCell ref="C129:R129"/>
+    <mergeCell ref="C139:R139"/>
+    <mergeCell ref="C89:R89"/>
+    <mergeCell ref="C99:R99"/>
+    <mergeCell ref="H114:M114"/>
+    <mergeCell ref="C135:K135"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="J116:N116"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="T58:U60"/>
+    <mergeCell ref="H123:P123"/>
+    <mergeCell ref="H103:P103"/>
+    <mergeCell ref="H104:P104"/>
+    <mergeCell ref="I115:R115"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="H64:N64"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="C69:R69"/>
+    <mergeCell ref="L74:Q74"/>
+    <mergeCell ref="L77:Q77"/>
+    <mergeCell ref="L78:Q78"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="J58:P58"/>
+    <mergeCell ref="E74:J74"/>
+    <mergeCell ref="E73:J73"/>
+    <mergeCell ref="L73:Q73"/>
+    <mergeCell ref="C76:R76"/>
+    <mergeCell ref="E78:J78"/>
+    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="M125:P125"/>
+    <mergeCell ref="C79:R79"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H83:P83"/>
+    <mergeCell ref="C107:M107"/>
+    <mergeCell ref="J84:R84"/>
+    <mergeCell ref="E85:M85"/>
+    <mergeCell ref="H93:P93"/>
+    <mergeCell ref="H94:P94"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H96:L96"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="H124:P124"/>
+    <mergeCell ref="C125:K125"/>
+    <mergeCell ref="H113:M113"/>
     <mergeCell ref="C109:R109"/>
     <mergeCell ref="C103:G103"/>
     <mergeCell ref="C104:G104"/>
@@ -16456,153 +16576,30 @@
     <mergeCell ref="C145:P145"/>
     <mergeCell ref="C153:P153"/>
     <mergeCell ref="C154:P154"/>
-    <mergeCell ref="C76:R76"/>
-    <mergeCell ref="E78:J78"/>
-    <mergeCell ref="E75:J75"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="M125:P125"/>
-    <mergeCell ref="C79:R79"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="H83:P83"/>
-    <mergeCell ref="C107:M107"/>
-    <mergeCell ref="J84:R84"/>
-    <mergeCell ref="E85:M85"/>
-    <mergeCell ref="H93:P93"/>
-    <mergeCell ref="H94:P94"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="H96:L96"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="H124:P124"/>
-    <mergeCell ref="C125:K125"/>
-    <mergeCell ref="H113:M113"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="E242:H242"/>
+    <mergeCell ref="E292:H292"/>
+    <mergeCell ref="K195:L195"/>
+    <mergeCell ref="M195:P195"/>
+    <mergeCell ref="G203:L203"/>
+    <mergeCell ref="C203:F203"/>
+    <mergeCell ref="C213:F213"/>
+    <mergeCell ref="G213:L213"/>
+    <mergeCell ref="C223:F223"/>
+    <mergeCell ref="G223:L223"/>
+    <mergeCell ref="C233:F233"/>
+    <mergeCell ref="G233:L233"/>
+    <mergeCell ref="C243:F243"/>
+    <mergeCell ref="G243:L243"/>
+    <mergeCell ref="C253:F253"/>
+    <mergeCell ref="G253:L253"/>
+    <mergeCell ref="C263:F263"/>
+    <mergeCell ref="G263:L263"/>
+    <mergeCell ref="C283:F283"/>
+    <mergeCell ref="G283:L283"/>
     <mergeCell ref="M135:P135"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="J116:N116"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="T58:U60"/>
-    <mergeCell ref="H123:P123"/>
-    <mergeCell ref="H103:P103"/>
-    <mergeCell ref="H104:P104"/>
-    <mergeCell ref="I115:R115"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="H64:N64"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="C69:R69"/>
-    <mergeCell ref="L74:Q74"/>
-    <mergeCell ref="L77:Q77"/>
-    <mergeCell ref="L78:Q78"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="J58:P58"/>
-    <mergeCell ref="E74:J74"/>
-    <mergeCell ref="E73:J73"/>
-    <mergeCell ref="L73:Q73"/>
-    <mergeCell ref="H54:P54"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="H126:P126"/>
-    <mergeCell ref="C155:R159"/>
-    <mergeCell ref="C163:R165"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="C136:G136"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="C124:G124"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="C126:G126"/>
-    <mergeCell ref="H142:L142"/>
-    <mergeCell ref="C105:M105"/>
-    <mergeCell ref="H106:P106"/>
-    <mergeCell ref="C119:R119"/>
-    <mergeCell ref="C129:R129"/>
-    <mergeCell ref="C139:R139"/>
-    <mergeCell ref="C89:R89"/>
-    <mergeCell ref="C99:R99"/>
-    <mergeCell ref="H114:M114"/>
-    <mergeCell ref="C135:K135"/>
-    <mergeCell ref="H13:R13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="H45:P45"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H43:P43"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="H33:P33"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H23:R23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H46:P46"/>
-    <mergeCell ref="H44:N44"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="L75:Q75"/>
-    <mergeCell ref="I53:M53"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="E77:J77"/>
-    <mergeCell ref="L67:R67"/>
-    <mergeCell ref="M72:R72"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="H66:Q66"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="Q54:R54"/>
     <mergeCell ref="C193:F193"/>
-    <mergeCell ref="H193:J193"/>
-    <mergeCell ref="G195:J195"/>
-    <mergeCell ref="G197:J197"/>
-    <mergeCell ref="G205:J205"/>
-    <mergeCell ref="G207:J207"/>
-    <mergeCell ref="F143:P143"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="G215:J215"/>
-    <mergeCell ref="G217:J217"/>
-    <mergeCell ref="G225:J225"/>
-    <mergeCell ref="G227:J227"/>
-    <mergeCell ref="G257:J257"/>
-    <mergeCell ref="G265:J265"/>
-    <mergeCell ref="G267:J267"/>
-    <mergeCell ref="G235:J235"/>
-    <mergeCell ref="G237:J237"/>
-    <mergeCell ref="G245:J245"/>
-    <mergeCell ref="G247:J247"/>
-    <mergeCell ref="G255:J255"/>
-    <mergeCell ref="O272:R272"/>
-    <mergeCell ref="G285:J285"/>
-    <mergeCell ref="G287:J287"/>
-    <mergeCell ref="G295:J295"/>
-    <mergeCell ref="G297:J297"/>
-    <mergeCell ref="C293:F293"/>
-    <mergeCell ref="G293:L293"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -16613,8 +16610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" activeCellId="1" sqref="D36 J17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16630,10 +16627,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="141"/>
+      <c r="B2" s="148"/>
       <c r="C2" s="41" t="s">
         <v>18</v>
       </c>
@@ -16641,21 +16638,21 @@
         <v>12</v>
       </c>
       <c r="E2" s="48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="41" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="142" t="s">
+      <c r="J2" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="142"/>
+      <c r="K2" s="149"/>
     </row>
     <row r="3" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
@@ -16668,12 +16665,12 @@
       <c r="E3" s="45"/>
       <c r="G3" s="45"/>
       <c r="I3" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="150" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="143" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="143"/>
+      <c r="K3" s="150"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -16689,16 +16686,16 @@
         <v>13</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="56"/>
       <c r="I4" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="143" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="143"/>
+        <v>34</v>
+      </c>
+      <c r="J4" s="150" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="150"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -16781,7 +16778,7 @@
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G10" s="55"/>
     </row>
@@ -16798,10 +16795,10 @@
       </c>
       <c r="D11" s="29"/>
       <c r="F11" s="70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -16833,7 +16830,7 @@
         <v>16</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="56"/>
     </row>
@@ -16852,13 +16849,13 @@
         <v>15</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="56" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -16874,10 +16871,10 @@
       </c>
       <c r="D15" s="29"/>
       <c r="F15" s="56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -16908,13 +16905,13 @@
         <v>17</v>
       </c>
       <c r="E17" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -16980,10 +16977,10 @@
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
       <c r="F21" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G21" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H21" s="51"/>
     </row>
@@ -16998,10 +16995,10 @@
       <c r="H22" s="51"/>
     </row>
     <row r="23" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="141" t="s">
+      <c r="A23" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="141"/>
+      <c r="B23" s="148"/>
       <c r="C23" s="41" t="s">
         <v>18</v>
       </c>
@@ -17010,7 +17007,7 @@
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" s="48"/>
     </row>
@@ -17021,9 +17018,7 @@
       <c r="B24" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>27</v>
-      </c>
+      <c r="D24" s="21"/>
       <c r="E24" s="45"/>
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
@@ -17115,7 +17110,7 @@
         <v>43887</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -17159,11 +17154,11 @@
         <f t="shared" si="3"/>
         <v>43908</v>
       </c>
-      <c r="D33" s="144" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="144"/>
-      <c r="F33" s="144"/>
+      <c r="D33" s="151" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="151"/>
+      <c r="F33" s="151"/>
       <c r="G33" s="55"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -17196,7 +17191,7 @@
       </c>
       <c r="D35" s="29"/>
       <c r="F35" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -17213,8 +17208,8 @@
         <v>43929</v>
       </c>
       <c r="D36" s="29"/>
-      <c r="F36" s="113" t="s">
-        <v>99</v>
+      <c r="F36" s="125" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -17231,7 +17226,7 @@
         <v>43936</v>
       </c>
       <c r="D37" s="44"/>
-      <c r="F37" s="113"/>
+      <c r="F37" s="125"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
@@ -17247,7 +17242,7 @@
         <v>43943</v>
       </c>
       <c r="D38" s="29"/>
-      <c r="F38" s="113"/>
+      <c r="F38" s="125"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
@@ -17279,7 +17274,7 @@
         <v>43957</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F40" s="39"/>
     </row>
@@ -17315,7 +17310,7 @@
         <v>43971</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42" s="39"/>
     </row>

--- a/Weekly Planner.xlsx
+++ b/Weekly Planner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SoftwareProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989E04D0-5703-415D-8FD0-153A41C896DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED0A90B-997E-407D-B678-8AABE480BB5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Planner" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="107">
   <si>
     <t>Monday</t>
   </si>
@@ -355,6 +355,12 @@
   </si>
   <si>
     <t>Dis Sys - Refresher</t>
+  </si>
+  <si>
+    <t>Software Project - Showcase</t>
+  </si>
+  <si>
+    <t>Created monthly planner</t>
   </si>
 </sst>
 </file>
@@ -1273,10 +1279,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="8" borderId="24" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="9" applyBorder="1" applyAlignment="1">
@@ -1298,6 +1301,156 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="5" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="11" borderId="4" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1330,21 +1483,6 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="44" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1357,139 +1495,10 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="24" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="8" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="11" borderId="4" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="5" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1502,9 +1511,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1807,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y507"/>
   <sheetViews>
-    <sheetView topLeftCell="A182" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G205" sqref="G205:J205"/>
+    <sheetView tabSelected="1" topLeftCell="A203" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W215" sqref="W215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2191,26 +2197,26 @@
       <c r="B13" s="57">
         <v>43724</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="132" t="s">
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="133"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="133"/>
-      <c r="M13" s="133"/>
-      <c r="N13" s="133"/>
-      <c r="O13" s="133"/>
-      <c r="P13" s="133"/>
-      <c r="Q13" s="133"/>
-      <c r="R13" s="134"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="106"/>
       <c r="S13" s="51"/>
       <c r="T13" s="30" t="s">
         <v>22</v>
@@ -2223,26 +2229,26 @@
       <c r="B14" s="57">
         <v>43725</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="97" t="s">
+      <c r="J14" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="131"/>
-      <c r="O14" s="132" t="s">
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="P14" s="134"/>
+      <c r="P14" s="106"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="51"/>
@@ -2285,20 +2291,20 @@
       <c r="B16" s="57">
         <v>43727</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="136" t="s">
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="136"/>
-      <c r="J16" s="136"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="136"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
@@ -2503,26 +2509,26 @@
         <f>B13+7</f>
         <v>43731</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="132" t="s">
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="133"/>
-      <c r="J23" s="133"/>
-      <c r="K23" s="133"/>
-      <c r="L23" s="133"/>
-      <c r="M23" s="133"/>
-      <c r="N23" s="133"/>
-      <c r="O23" s="133"/>
-      <c r="P23" s="133"/>
-      <c r="Q23" s="133"/>
-      <c r="R23" s="134"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="107"/>
+      <c r="P23" s="107"/>
+      <c r="Q23" s="107"/>
+      <c r="R23" s="106"/>
       <c r="S23" s="51"/>
       <c r="T23" s="30" t="s">
         <v>22</v>
@@ -2536,30 +2542,30 @@
         <f t="shared" ref="B24:B29" si="0">B14+7</f>
         <v>43732</v>
       </c>
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="132" t="s">
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="137"/>
-      <c r="J24" s="112" t="s">
+      <c r="I24" s="90"/>
+      <c r="J24" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="K24" s="113"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="112" t="s">
+      <c r="K24" s="84"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="N24" s="114"/>
-      <c r="O24" s="97" t="s">
+      <c r="N24" s="85"/>
+      <c r="O24" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="P24" s="131"/>
+      <c r="P24" s="88"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
       <c r="S24" s="51"/>
@@ -2604,20 +2610,20 @@
         <f t="shared" si="0"/>
         <v>43734</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="103" t="s">
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
@@ -2799,12 +2805,12 @@
         <f>C22+1</f>
         <v>3</v>
       </c>
-      <c r="D32" s="135" t="s">
+      <c r="D32" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="112"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
@@ -2827,24 +2833,24 @@
         <f>B23+7</f>
         <v>43738</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="103" t="s">
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="103"/>
-      <c r="P33" s="103"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="100"/>
+      <c r="M33" s="100"/>
+      <c r="N33" s="100"/>
+      <c r="O33" s="100"/>
+      <c r="P33" s="100"/>
       <c r="Q33" s="62"/>
       <c r="R33" s="62"/>
       <c r="S33" s="51"/>
@@ -2860,13 +2866,13 @@
         <f t="shared" ref="B34:B39" si="1">B24+7</f>
         <v>43739</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
       <c r="H34" s="62"/>
       <c r="I34" s="62"/>
       <c r="J34" s="62"/>
@@ -2920,13 +2926,13 @@
         <f t="shared" si="1"/>
         <v>43741</v>
       </c>
-      <c r="C36" s="75" t="s">
+      <c r="C36" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="63"/>
@@ -3139,24 +3145,24 @@
         <f>B33+7</f>
         <v>43745</v>
       </c>
-      <c r="C43" s="75" t="s">
+      <c r="C43" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="83" t="s">
+      <c r="D43" s="98"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="98"/>
+      <c r="H43" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="83"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="83"/>
-      <c r="N43" s="83"/>
-      <c r="O43" s="83"/>
-      <c r="P43" s="83"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="82"/>
+      <c r="O43" s="82"/>
+      <c r="P43" s="82"/>
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
       <c r="S43" s="51"/>
@@ -3172,22 +3178,22 @@
         <f t="shared" ref="B44:B49" si="2">B34+7</f>
         <v>43746</v>
       </c>
-      <c r="C44" s="75" t="s">
+      <c r="C44" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="105" t="s">
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="I44" s="138"/>
-      <c r="J44" s="138"/>
-      <c r="K44" s="138"/>
-      <c r="L44" s="138"/>
-      <c r="M44" s="138"/>
-      <c r="N44" s="138"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="95"/>
+      <c r="N44" s="95"/>
       <c r="O44" s="49"/>
       <c r="P44" s="49"/>
       <c r="Q44" s="49"/>
@@ -3210,17 +3216,17 @@
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
-      <c r="H45" s="94" t="s">
+      <c r="H45" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="I45" s="95"/>
-      <c r="J45" s="95"/>
-      <c r="K45" s="95"/>
-      <c r="L45" s="95"/>
-      <c r="M45" s="95"/>
-      <c r="N45" s="95"/>
-      <c r="O45" s="95"/>
-      <c r="P45" s="96"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="110"/>
+      <c r="L45" s="110"/>
+      <c r="M45" s="110"/>
+      <c r="N45" s="110"/>
+      <c r="O45" s="110"/>
+      <c r="P45" s="111"/>
       <c r="Q45" s="49"/>
       <c r="R45" s="49"/>
       <c r="S45" s="51"/>
@@ -3236,24 +3242,24 @@
         <f t="shared" si="2"/>
         <v>43748</v>
       </c>
-      <c r="C46" s="75" t="s">
+      <c r="C46" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="108" t="s">
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I46" s="109"/>
-      <c r="J46" s="109"/>
-      <c r="K46" s="109"/>
-      <c r="L46" s="109"/>
-      <c r="M46" s="109"/>
-      <c r="N46" s="109"/>
-      <c r="O46" s="109"/>
-      <c r="P46" s="110"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="92"/>
+      <c r="K46" s="92"/>
+      <c r="L46" s="92"/>
+      <c r="M46" s="92"/>
+      <c r="N46" s="92"/>
+      <c r="O46" s="92"/>
+      <c r="P46" s="93"/>
       <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
       <c r="S46" s="51"/>
@@ -3432,11 +3438,11 @@
         <v>5</v>
       </c>
       <c r="G52" s="15"/>
-      <c r="H52" s="139" t="s">
+      <c r="H52" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="I52" s="139"/>
-      <c r="J52" s="139"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="96"/>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
       <c r="M52" s="19"/>
@@ -3456,23 +3462,23 @@
         <f>B43+7</f>
         <v>43752</v>
       </c>
-      <c r="C53" s="75" t="s">
+      <c r="C53" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="98"/>
       <c r="H53" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="I53" s="112" t="s">
+      <c r="I53" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="113"/>
-      <c r="K53" s="113"/>
-      <c r="L53" s="113"/>
-      <c r="M53" s="113"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="84"/>
       <c r="N53" s="49"/>
       <c r="O53" s="49"/>
       <c r="P53" s="49"/>
@@ -3491,28 +3497,28 @@
         <f t="shared" ref="B54:B59" si="3">B44+7</f>
         <v>43753</v>
       </c>
-      <c r="C54" s="75" t="s">
+      <c r="C54" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="123" t="s">
+      <c r="D54" s="98"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="98"/>
+      <c r="G54" s="98"/>
+      <c r="H54" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="I54" s="124"/>
-      <c r="J54" s="124"/>
-      <c r="K54" s="124"/>
-      <c r="L54" s="124"/>
-      <c r="M54" s="124"/>
-      <c r="N54" s="124"/>
-      <c r="O54" s="124"/>
-      <c r="P54" s="124"/>
-      <c r="Q54" s="132" t="s">
+      <c r="I54" s="115"/>
+      <c r="J54" s="115"/>
+      <c r="K54" s="115"/>
+      <c r="L54" s="115"/>
+      <c r="M54" s="115"/>
+      <c r="N54" s="115"/>
+      <c r="O54" s="115"/>
+      <c r="P54" s="115"/>
+      <c r="Q54" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="R54" s="134"/>
+      <c r="R54" s="106"/>
       <c r="S54" s="51"/>
       <c r="T54" s="53" t="s">
         <v>19</v>
@@ -3530,18 +3536,18 @@
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
-      <c r="G55" s="75" t="s">
+      <c r="G55" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="H55" s="75"/>
-      <c r="I55" s="140" t="s">
+      <c r="H55" s="98"/>
+      <c r="I55" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="J55" s="113"/>
-      <c r="K55" s="113"/>
-      <c r="L55" s="113"/>
-      <c r="M55" s="113"/>
-      <c r="N55" s="113"/>
+      <c r="J55" s="84"/>
+      <c r="K55" s="84"/>
+      <c r="L55" s="84"/>
+      <c r="M55" s="84"/>
+      <c r="N55" s="84"/>
       <c r="O55" s="49"/>
       <c r="P55" s="49"/>
       <c r="Q55" s="49"/>
@@ -3559,21 +3565,21 @@
         <f t="shared" si="3"/>
         <v>43755</v>
       </c>
-      <c r="C56" s="75" t="s">
+      <c r="C56" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="75"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="142" t="s">
+      <c r="D56" s="98"/>
+      <c r="E56" s="98"/>
+      <c r="F56" s="98"/>
+      <c r="G56" s="98"/>
+      <c r="H56" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="I56" s="138"/>
-      <c r="J56" s="138"/>
-      <c r="K56" s="138"/>
-      <c r="L56" s="138"/>
-      <c r="M56" s="138"/>
+      <c r="I56" s="95"/>
+      <c r="J56" s="95"/>
+      <c r="K56" s="95"/>
+      <c r="L56" s="95"/>
+      <c r="M56" s="95"/>
       <c r="N56" s="49"/>
       <c r="O56" s="49"/>
       <c r="P56" s="49"/>
@@ -3605,11 +3611,11 @@
       <c r="M57" s="49"/>
       <c r="N57" s="49"/>
       <c r="O57" s="49"/>
-      <c r="P57" s="108" t="s">
+      <c r="P57" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="Q57" s="109"/>
-      <c r="R57" s="110"/>
+      <c r="Q57" s="92"/>
+      <c r="R57" s="93"/>
       <c r="S57" s="51"/>
       <c r="T57" s="51"/>
     </row>
@@ -3623,31 +3629,31 @@
       </c>
       <c r="C58" s="50"/>
       <c r="D58" s="49"/>
-      <c r="E58" s="118" t="s">
+      <c r="E58" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="F58" s="109"/>
-      <c r="G58" s="122"/>
-      <c r="H58" s="75" t="s">
+      <c r="F58" s="92"/>
+      <c r="G58" s="130"/>
+      <c r="H58" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="I58" s="75"/>
-      <c r="J58" s="112" t="s">
+      <c r="I58" s="98"/>
+      <c r="J58" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="K58" s="113"/>
-      <c r="L58" s="113"/>
-      <c r="M58" s="113"/>
-      <c r="N58" s="113"/>
-      <c r="O58" s="113"/>
-      <c r="P58" s="114"/>
+      <c r="K58" s="84"/>
+      <c r="L58" s="84"/>
+      <c r="M58" s="84"/>
+      <c r="N58" s="84"/>
+      <c r="O58" s="84"/>
+      <c r="P58" s="85"/>
       <c r="Q58" s="20"/>
       <c r="R58" s="20"/>
       <c r="S58" s="51"/>
-      <c r="T58" s="117" t="s">
+      <c r="T58" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="U58" s="117"/>
+      <c r="U58" s="124"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -3674,8 +3680,8 @@
       <c r="Q59" s="20"/>
       <c r="R59" s="20"/>
       <c r="S59" s="51"/>
-      <c r="T59" s="117"/>
-      <c r="U59" s="117"/>
+      <c r="T59" s="124"/>
+      <c r="U59" s="124"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B60"/>
@@ -3696,8 +3702,8 @@
       <c r="Q60"/>
       <c r="R60"/>
       <c r="S60"/>
-      <c r="T60" s="117"/>
-      <c r="U60" s="117"/>
+      <c r="T60" s="124"/>
+      <c r="U60" s="124"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
@@ -3771,11 +3777,11 @@
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
-      <c r="H62" s="139" t="s">
+      <c r="H62" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="I62" s="139"/>
-      <c r="J62" s="139"/>
+      <c r="I62" s="96"/>
+      <c r="J62" s="96"/>
       <c r="K62" s="19"/>
       <c r="L62" s="19"/>
       <c r="M62" s="19"/>
@@ -3795,22 +3801,22 @@
         <f>B53+7</f>
         <v>43759</v>
       </c>
-      <c r="C63" s="75" t="s">
+      <c r="C63" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="75"/>
-      <c r="E63" s="75"/>
-      <c r="F63" s="75"/>
-      <c r="G63" s="75"/>
+      <c r="D63" s="98"/>
+      <c r="E63" s="98"/>
+      <c r="F63" s="98"/>
+      <c r="G63" s="98"/>
       <c r="H63" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="I63" s="112" t="s">
+      <c r="I63" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="J63" s="113"/>
-      <c r="K63" s="113"/>
-      <c r="L63" s="113"/>
+      <c r="J63" s="84"/>
+      <c r="K63" s="84"/>
+      <c r="L63" s="84"/>
       <c r="M63" s="49"/>
       <c r="N63" s="49"/>
       <c r="O63" s="49"/>
@@ -3830,22 +3836,22 @@
         <f t="shared" ref="B64:B69" si="4">B54+7</f>
         <v>43760</v>
       </c>
-      <c r="C64" s="75" t="s">
+      <c r="C64" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="75"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="75"/>
-      <c r="H64" s="118" t="s">
+      <c r="D64" s="98"/>
+      <c r="E64" s="98"/>
+      <c r="F64" s="98"/>
+      <c r="G64" s="98"/>
+      <c r="H64" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="I64" s="109"/>
-      <c r="J64" s="109"/>
-      <c r="K64" s="109"/>
-      <c r="L64" s="109"/>
-      <c r="M64" s="109"/>
-      <c r="N64" s="109"/>
+      <c r="I64" s="92"/>
+      <c r="J64" s="92"/>
+      <c r="K64" s="92"/>
+      <c r="L64" s="92"/>
+      <c r="M64" s="92"/>
+      <c r="N64" s="92"/>
       <c r="O64" s="49"/>
       <c r="P64" s="49"/>
       <c r="Q64" s="49"/>
@@ -3894,25 +3900,25 @@
         <f t="shared" si="4"/>
         <v>43762</v>
       </c>
-      <c r="C66" s="75" t="s">
+      <c r="C66" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D66" s="75"/>
-      <c r="E66" s="75"/>
-      <c r="F66" s="75"/>
-      <c r="G66" s="75"/>
-      <c r="H66" s="143" t="s">
+      <c r="D66" s="98"/>
+      <c r="E66" s="98"/>
+      <c r="F66" s="98"/>
+      <c r="G66" s="98"/>
+      <c r="H66" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="I66" s="144"/>
-      <c r="J66" s="144"/>
-      <c r="K66" s="144"/>
-      <c r="L66" s="144"/>
-      <c r="M66" s="144"/>
-      <c r="N66" s="144"/>
-      <c r="O66" s="144"/>
-      <c r="P66" s="144"/>
-      <c r="Q66" s="145"/>
+      <c r="I66" s="104"/>
+      <c r="J66" s="104"/>
+      <c r="K66" s="104"/>
+      <c r="L66" s="104"/>
+      <c r="M66" s="104"/>
+      <c r="N66" s="104"/>
+      <c r="O66" s="104"/>
+      <c r="P66" s="104"/>
+      <c r="Q66" s="105"/>
       <c r="R66" s="20"/>
       <c r="S66" s="51"/>
       <c r="T66" s="18" t="s">
@@ -3927,26 +3933,26 @@
         <f t="shared" si="4"/>
         <v>43763</v>
       </c>
-      <c r="C67" s="112" t="s">
+      <c r="C67" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="D67" s="113"/>
-      <c r="E67" s="113"/>
-      <c r="F67" s="113"/>
-      <c r="G67" s="113"/>
-      <c r="H67" s="113"/>
-      <c r="I67" s="113"/>
-      <c r="J67" s="114"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="84"/>
+      <c r="F67" s="84"/>
+      <c r="G67" s="84"/>
+      <c r="H67" s="84"/>
+      <c r="I67" s="84"/>
+      <c r="J67" s="85"/>
       <c r="K67" s="49"/>
-      <c r="L67" s="113" t="s">
+      <c r="L67" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="M67" s="113"/>
-      <c r="N67" s="113"/>
-      <c r="O67" s="113"/>
-      <c r="P67" s="113"/>
-      <c r="Q67" s="113"/>
-      <c r="R67" s="114"/>
+      <c r="M67" s="84"/>
+      <c r="N67" s="84"/>
+      <c r="O67" s="84"/>
+      <c r="P67" s="84"/>
+      <c r="Q67" s="84"/>
+      <c r="R67" s="85"/>
       <c r="S67" s="51"/>
       <c r="T67" s="51"/>
     </row>
@@ -3985,24 +3991,24 @@
         <f t="shared" si="4"/>
         <v>43765</v>
       </c>
-      <c r="C69" s="75" t="s">
+      <c r="C69" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="D69" s="75"/>
-      <c r="E69" s="75"/>
-      <c r="F69" s="75"/>
-      <c r="G69" s="75"/>
-      <c r="H69" s="75"/>
-      <c r="I69" s="75"/>
-      <c r="J69" s="75"/>
-      <c r="K69" s="75"/>
-      <c r="L69" s="75"/>
-      <c r="M69" s="75"/>
-      <c r="N69" s="75"/>
-      <c r="O69" s="75"/>
-      <c r="P69" s="75"/>
-      <c r="Q69" s="75"/>
-      <c r="R69" s="75"/>
+      <c r="D69" s="98"/>
+      <c r="E69" s="98"/>
+      <c r="F69" s="98"/>
+      <c r="G69" s="98"/>
+      <c r="H69" s="98"/>
+      <c r="I69" s="98"/>
+      <c r="J69" s="98"/>
+      <c r="K69" s="98"/>
+      <c r="L69" s="98"/>
+      <c r="M69" s="98"/>
+      <c r="N69" s="98"/>
+      <c r="O69" s="98"/>
+      <c r="P69" s="98"/>
+      <c r="Q69" s="98"/>
+      <c r="R69" s="98"/>
       <c r="S69" s="51"/>
       <c r="T69" s="51"/>
     </row>
@@ -4095,27 +4101,27 @@
         <f>C62+1</f>
         <v>7</v>
       </c>
-      <c r="D72" s="104" t="s">
+      <c r="D72" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="E72" s="104"/>
-      <c r="F72" s="104"/>
+      <c r="E72" s="97"/>
+      <c r="F72" s="97"/>
       <c r="G72" s="15"/>
-      <c r="H72" s="115" t="s">
+      <c r="H72" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="I72" s="115"/>
-      <c r="J72" s="115"/>
-      <c r="K72" s="115"/>
+      <c r="I72" s="126"/>
+      <c r="J72" s="126"/>
+      <c r="K72" s="126"/>
       <c r="L72" s="19"/>
-      <c r="M72" s="141" t="s">
+      <c r="M72" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="N72" s="141"/>
-      <c r="O72" s="141"/>
-      <c r="P72" s="141"/>
-      <c r="Q72" s="141"/>
-      <c r="R72" s="141"/>
+      <c r="N72" s="101"/>
+      <c r="O72" s="101"/>
+      <c r="P72" s="101"/>
+      <c r="Q72" s="101"/>
+      <c r="R72" s="101"/>
       <c r="S72" s="51"/>
       <c r="T72" s="51"/>
     </row>
@@ -4129,23 +4135,23 @@
       </c>
       <c r="C73" s="32"/>
       <c r="D73" s="20"/>
-      <c r="E73" s="83" t="s">
+      <c r="E73" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="83"/>
-      <c r="J73" s="83"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="82"/>
+      <c r="H73" s="82"/>
+      <c r="I73" s="82"/>
+      <c r="J73" s="82"/>
       <c r="K73" s="49"/>
-      <c r="L73" s="112" t="s">
+      <c r="L73" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="M73" s="113"/>
-      <c r="N73" s="113"/>
-      <c r="O73" s="113"/>
-      <c r="P73" s="113"/>
-      <c r="Q73" s="114"/>
+      <c r="M73" s="84"/>
+      <c r="N73" s="84"/>
+      <c r="O73" s="84"/>
+      <c r="P73" s="84"/>
+      <c r="Q73" s="85"/>
       <c r="R73" s="49"/>
       <c r="S73" s="51"/>
       <c r="T73" s="30" t="s">
@@ -4160,27 +4166,27 @@
         <f t="shared" ref="B74:B79" si="5">B64+7</f>
         <v>43767</v>
       </c>
-      <c r="C74" s="112" t="s">
+      <c r="C74" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="D74" s="114"/>
-      <c r="E74" s="83" t="s">
+      <c r="D74" s="85"/>
+      <c r="E74" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="F74" s="83"/>
-      <c r="G74" s="83"/>
-      <c r="H74" s="83"/>
-      <c r="I74" s="83"/>
-      <c r="J74" s="83"/>
+      <c r="F74" s="82"/>
+      <c r="G74" s="82"/>
+      <c r="H74" s="82"/>
+      <c r="I74" s="82"/>
+      <c r="J74" s="82"/>
       <c r="K74" s="49"/>
-      <c r="L74" s="112" t="s">
+      <c r="L74" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="M74" s="113"/>
-      <c r="N74" s="113"/>
-      <c r="O74" s="113"/>
-      <c r="P74" s="113"/>
-      <c r="Q74" s="114"/>
+      <c r="M74" s="84"/>
+      <c r="N74" s="84"/>
+      <c r="O74" s="84"/>
+      <c r="P74" s="84"/>
+      <c r="Q74" s="85"/>
       <c r="R74" s="20"/>
       <c r="S74" s="51"/>
       <c r="T74" s="53" t="s">
@@ -4197,23 +4203,23 @@
       </c>
       <c r="C75" s="32"/>
       <c r="D75" s="20"/>
-      <c r="E75" s="83" t="s">
+      <c r="E75" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="F75" s="83"/>
-      <c r="G75" s="83"/>
-      <c r="H75" s="83"/>
-      <c r="I75" s="83"/>
-      <c r="J75" s="83"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="82"/>
+      <c r="H75" s="82"/>
+      <c r="I75" s="82"/>
+      <c r="J75" s="82"/>
       <c r="K75" s="49"/>
-      <c r="L75" s="112" t="s">
+      <c r="L75" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="M75" s="113"/>
-      <c r="N75" s="113"/>
-      <c r="O75" s="113"/>
-      <c r="P75" s="113"/>
-      <c r="Q75" s="114"/>
+      <c r="M75" s="84"/>
+      <c r="N75" s="84"/>
+      <c r="O75" s="84"/>
+      <c r="P75" s="84"/>
+      <c r="Q75" s="85"/>
       <c r="R75" s="49"/>
       <c r="S75" s="51"/>
       <c r="T75" s="52" t="s">
@@ -4228,24 +4234,24 @@
         <f t="shared" si="5"/>
         <v>43769</v>
       </c>
-      <c r="C76" s="75" t="s">
+      <c r="C76" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="D76" s="75"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="75"/>
-      <c r="G76" s="75"/>
-      <c r="H76" s="75"/>
-      <c r="I76" s="75"/>
-      <c r="J76" s="75"/>
-      <c r="K76" s="75"/>
-      <c r="L76" s="75"/>
-      <c r="M76" s="75"/>
-      <c r="N76" s="75"/>
-      <c r="O76" s="75"/>
-      <c r="P76" s="75"/>
-      <c r="Q76" s="75"/>
-      <c r="R76" s="75"/>
+      <c r="D76" s="98"/>
+      <c r="E76" s="98"/>
+      <c r="F76" s="98"/>
+      <c r="G76" s="98"/>
+      <c r="H76" s="98"/>
+      <c r="I76" s="98"/>
+      <c r="J76" s="98"/>
+      <c r="K76" s="98"/>
+      <c r="L76" s="98"/>
+      <c r="M76" s="98"/>
+      <c r="N76" s="98"/>
+      <c r="O76" s="98"/>
+      <c r="P76" s="98"/>
+      <c r="Q76" s="98"/>
+      <c r="R76" s="98"/>
       <c r="S76" s="51"/>
       <c r="T76" s="18" t="s">
         <v>21</v>
@@ -4261,23 +4267,23 @@
       </c>
       <c r="C77" s="32"/>
       <c r="D77" s="20"/>
-      <c r="E77" s="103" t="s">
+      <c r="E77" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="F77" s="103"/>
-      <c r="G77" s="103"/>
-      <c r="H77" s="103"/>
-      <c r="I77" s="103"/>
-      <c r="J77" s="103"/>
+      <c r="F77" s="100"/>
+      <c r="G77" s="100"/>
+      <c r="H77" s="100"/>
+      <c r="I77" s="100"/>
+      <c r="J77" s="100"/>
       <c r="K77" s="49"/>
-      <c r="L77" s="119" t="s">
+      <c r="L77" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="M77" s="120"/>
-      <c r="N77" s="120"/>
-      <c r="O77" s="120"/>
-      <c r="P77" s="120"/>
-      <c r="Q77" s="121"/>
+      <c r="M77" s="128"/>
+      <c r="N77" s="128"/>
+      <c r="O77" s="128"/>
+      <c r="P77" s="128"/>
+      <c r="Q77" s="129"/>
       <c r="R77" s="20"/>
       <c r="S77" s="51"/>
       <c r="T77" s="51"/>
@@ -4292,23 +4298,23 @@
       </c>
       <c r="C78" s="50"/>
       <c r="D78" s="49"/>
-      <c r="E78" s="103" t="s">
+      <c r="E78" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="F78" s="103"/>
-      <c r="G78" s="103"/>
-      <c r="H78" s="103"/>
-      <c r="I78" s="103"/>
-      <c r="J78" s="103"/>
+      <c r="F78" s="100"/>
+      <c r="G78" s="100"/>
+      <c r="H78" s="100"/>
+      <c r="I78" s="100"/>
+      <c r="J78" s="100"/>
       <c r="K78" s="49"/>
-      <c r="L78" s="119" t="s">
+      <c r="L78" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="M78" s="120"/>
-      <c r="N78" s="120"/>
-      <c r="O78" s="120"/>
-      <c r="P78" s="120"/>
-      <c r="Q78" s="121"/>
+      <c r="M78" s="128"/>
+      <c r="N78" s="128"/>
+      <c r="O78" s="128"/>
+      <c r="P78" s="128"/>
+      <c r="Q78" s="129"/>
       <c r="R78" s="49"/>
       <c r="S78" s="51"/>
       <c r="T78" s="51"/>
@@ -4321,24 +4327,24 @@
         <f t="shared" si="5"/>
         <v>43772</v>
       </c>
-      <c r="C79" s="75" t="s">
+      <c r="C79" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="D79" s="75"/>
-      <c r="E79" s="75"/>
-      <c r="F79" s="75"/>
-      <c r="G79" s="75"/>
-      <c r="H79" s="75"/>
-      <c r="I79" s="75"/>
-      <c r="J79" s="75"/>
-      <c r="K79" s="75"/>
-      <c r="L79" s="75"/>
-      <c r="M79" s="75"/>
-      <c r="N79" s="75"/>
-      <c r="O79" s="75"/>
-      <c r="P79" s="75"/>
-      <c r="Q79" s="75"/>
-      <c r="R79" s="75"/>
+      <c r="D79" s="98"/>
+      <c r="E79" s="98"/>
+      <c r="F79" s="98"/>
+      <c r="G79" s="98"/>
+      <c r="H79" s="98"/>
+      <c r="I79" s="98"/>
+      <c r="J79" s="98"/>
+      <c r="K79" s="98"/>
+      <c r="L79" s="98"/>
+      <c r="M79" s="98"/>
+      <c r="N79" s="98"/>
+      <c r="O79" s="98"/>
+      <c r="P79" s="98"/>
+      <c r="Q79" s="98"/>
+      <c r="R79" s="98"/>
       <c r="S79" s="51"/>
       <c r="T79" s="51"/>
     </row>
@@ -4412,11 +4418,11 @@
         <f>C72+1</f>
         <v>8</v>
       </c>
-      <c r="D82" s="104" t="s">
+      <c r="D82" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="E82" s="104"/>
-      <c r="F82" s="104"/>
+      <c r="E82" s="97"/>
+      <c r="F82" s="97"/>
       <c r="G82" s="15"/>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -4441,24 +4447,24 @@
         <f>B73+7</f>
         <v>43773</v>
       </c>
-      <c r="C83" s="75" t="s">
+      <c r="C83" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="75"/>
-      <c r="E83" s="75"/>
-      <c r="F83" s="75"/>
-      <c r="G83" s="75"/>
-      <c r="H83" s="108" t="s">
+      <c r="D83" s="98"/>
+      <c r="E83" s="98"/>
+      <c r="F83" s="98"/>
+      <c r="G83" s="98"/>
+      <c r="H83" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="I83" s="109"/>
-      <c r="J83" s="109"/>
-      <c r="K83" s="109"/>
-      <c r="L83" s="109"/>
-      <c r="M83" s="109"/>
-      <c r="N83" s="109"/>
-      <c r="O83" s="109"/>
-      <c r="P83" s="110"/>
+      <c r="I83" s="92"/>
+      <c r="J83" s="92"/>
+      <c r="K83" s="92"/>
+      <c r="L83" s="92"/>
+      <c r="M83" s="92"/>
+      <c r="N83" s="92"/>
+      <c r="O83" s="92"/>
+      <c r="P83" s="93"/>
       <c r="Q83" s="20"/>
       <c r="R83" s="20"/>
       <c r="S83" s="51"/>
@@ -4475,28 +4481,28 @@
         <f t="shared" ref="B84:B89" si="6">B74+7</f>
         <v>43774</v>
       </c>
-      <c r="C84" s="75" t="s">
+      <c r="C84" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="75"/>
-      <c r="E84" s="75"/>
-      <c r="F84" s="75"/>
-      <c r="G84" s="75"/>
-      <c r="H84" s="75" t="s">
+      <c r="D84" s="98"/>
+      <c r="E84" s="98"/>
+      <c r="F84" s="98"/>
+      <c r="G84" s="98"/>
+      <c r="H84" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="I84" s="75"/>
-      <c r="J84" s="108" t="s">
+      <c r="I84" s="98"/>
+      <c r="J84" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="K84" s="109"/>
-      <c r="L84" s="109"/>
-      <c r="M84" s="109"/>
-      <c r="N84" s="109"/>
-      <c r="O84" s="109"/>
-      <c r="P84" s="109"/>
-      <c r="Q84" s="109"/>
-      <c r="R84" s="110"/>
+      <c r="K84" s="92"/>
+      <c r="L84" s="92"/>
+      <c r="M84" s="92"/>
+      <c r="N84" s="92"/>
+      <c r="O84" s="92"/>
+      <c r="P84" s="92"/>
+      <c r="Q84" s="92"/>
+      <c r="R84" s="93"/>
       <c r="S84" s="51"/>
       <c r="T84" s="53" t="s">
         <v>19</v>
@@ -4513,17 +4519,17 @@
       </c>
       <c r="C85" s="32"/>
       <c r="D85" s="20"/>
-      <c r="E85" s="108" t="s">
+      <c r="E85" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="F85" s="109"/>
-      <c r="G85" s="109"/>
-      <c r="H85" s="109"/>
-      <c r="I85" s="109"/>
-      <c r="J85" s="109"/>
-      <c r="K85" s="109"/>
-      <c r="L85" s="109"/>
-      <c r="M85" s="110"/>
+      <c r="F85" s="92"/>
+      <c r="G85" s="92"/>
+      <c r="H85" s="92"/>
+      <c r="I85" s="92"/>
+      <c r="J85" s="92"/>
+      <c r="K85" s="92"/>
+      <c r="L85" s="92"/>
+      <c r="M85" s="93"/>
       <c r="N85" s="49"/>
       <c r="O85" s="49"/>
       <c r="P85" s="49"/>
@@ -4543,13 +4549,13 @@
         <f t="shared" si="6"/>
         <v>43776</v>
       </c>
-      <c r="C86" s="116" t="s">
+      <c r="C86" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="D86" s="116"/>
-      <c r="E86" s="116"/>
-      <c r="F86" s="116"/>
-      <c r="G86" s="116"/>
+      <c r="D86" s="123"/>
+      <c r="E86" s="123"/>
+      <c r="F86" s="123"/>
+      <c r="G86" s="123"/>
       <c r="H86" s="49"/>
       <c r="I86" s="49"/>
       <c r="J86" s="49"/>
@@ -4631,24 +4637,24 @@
         <f t="shared" si="6"/>
         <v>43779</v>
       </c>
-      <c r="C89" s="75" t="s">
+      <c r="C89" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="D89" s="75"/>
-      <c r="E89" s="75"/>
-      <c r="F89" s="75"/>
-      <c r="G89" s="75"/>
-      <c r="H89" s="75"/>
-      <c r="I89" s="75"/>
-      <c r="J89" s="75"/>
-      <c r="K89" s="75"/>
-      <c r="L89" s="75"/>
-      <c r="M89" s="75"/>
-      <c r="N89" s="75"/>
-      <c r="O89" s="75"/>
-      <c r="P89" s="75"/>
-      <c r="Q89" s="75"/>
-      <c r="R89" s="75"/>
+      <c r="D89" s="98"/>
+      <c r="E89" s="98"/>
+      <c r="F89" s="98"/>
+      <c r="G89" s="98"/>
+      <c r="H89" s="98"/>
+      <c r="I89" s="98"/>
+      <c r="J89" s="98"/>
+      <c r="K89" s="98"/>
+      <c r="L89" s="98"/>
+      <c r="M89" s="98"/>
+      <c r="N89" s="98"/>
+      <c r="O89" s="98"/>
+      <c r="P89" s="98"/>
+      <c r="Q89" s="98"/>
+      <c r="R89" s="98"/>
       <c r="S89" s="51"/>
       <c r="T89" s="51"/>
       <c r="U89" s="54"/>
@@ -4750,24 +4756,24 @@
         <f>B83+7</f>
         <v>43780</v>
       </c>
-      <c r="C93" s="75" t="s">
+      <c r="C93" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="75"/>
-      <c r="E93" s="75"/>
-      <c r="F93" s="75"/>
-      <c r="G93" s="75"/>
-      <c r="H93" s="83" t="s">
+      <c r="D93" s="98"/>
+      <c r="E93" s="98"/>
+      <c r="F93" s="98"/>
+      <c r="G93" s="98"/>
+      <c r="H93" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="I93" s="83"/>
-      <c r="J93" s="83"/>
-      <c r="K93" s="83"/>
-      <c r="L93" s="83"/>
-      <c r="M93" s="83"/>
-      <c r="N93" s="83"/>
-      <c r="O93" s="83"/>
-      <c r="P93" s="83"/>
+      <c r="I93" s="82"/>
+      <c r="J93" s="82"/>
+      <c r="K93" s="82"/>
+      <c r="L93" s="82"/>
+      <c r="M93" s="82"/>
+      <c r="N93" s="82"/>
+      <c r="O93" s="82"/>
+      <c r="P93" s="82"/>
       <c r="Q93" s="20"/>
       <c r="R93" s="20"/>
       <c r="S93" s="51"/>
@@ -4784,24 +4790,24 @@
         <f t="shared" ref="B94:B99" si="7">B84+7</f>
         <v>43781</v>
       </c>
-      <c r="C94" s="75" t="s">
+      <c r="C94" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D94" s="75"/>
-      <c r="E94" s="75"/>
-      <c r="F94" s="75"/>
-      <c r="G94" s="75"/>
-      <c r="H94" s="83" t="s">
+      <c r="D94" s="98"/>
+      <c r="E94" s="98"/>
+      <c r="F94" s="98"/>
+      <c r="G94" s="98"/>
+      <c r="H94" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="I94" s="83"/>
-      <c r="J94" s="83"/>
-      <c r="K94" s="83"/>
-      <c r="L94" s="83"/>
-      <c r="M94" s="83"/>
-      <c r="N94" s="83"/>
-      <c r="O94" s="83"/>
-      <c r="P94" s="83"/>
+      <c r="I94" s="82"/>
+      <c r="J94" s="82"/>
+      <c r="K94" s="82"/>
+      <c r="L94" s="82"/>
+      <c r="M94" s="82"/>
+      <c r="N94" s="82"/>
+      <c r="O94" s="82"/>
+      <c r="P94" s="82"/>
       <c r="Q94" s="20"/>
       <c r="R94" s="20"/>
       <c r="S94" s="51"/>
@@ -4848,20 +4854,20 @@
         <f t="shared" si="7"/>
         <v>43783</v>
       </c>
-      <c r="C96" s="75" t="s">
+      <c r="C96" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D96" s="75"/>
-      <c r="E96" s="75"/>
-      <c r="F96" s="75"/>
-      <c r="G96" s="75"/>
-      <c r="H96" s="112" t="s">
+      <c r="D96" s="98"/>
+      <c r="E96" s="98"/>
+      <c r="F96" s="98"/>
+      <c r="G96" s="98"/>
+      <c r="H96" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="I96" s="113"/>
-      <c r="J96" s="113"/>
-      <c r="K96" s="113"/>
-      <c r="L96" s="114"/>
+      <c r="I96" s="84"/>
+      <c r="J96" s="84"/>
+      <c r="K96" s="84"/>
+      <c r="L96" s="85"/>
       <c r="M96" s="20"/>
       <c r="N96" s="20"/>
       <c r="O96" s="20"/>
@@ -4938,24 +4944,24 @@
         <f t="shared" si="7"/>
         <v>43786</v>
       </c>
-      <c r="C99" s="75" t="s">
+      <c r="C99" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="D99" s="75"/>
-      <c r="E99" s="75"/>
-      <c r="F99" s="75"/>
-      <c r="G99" s="75"/>
-      <c r="H99" s="75"/>
-      <c r="I99" s="75"/>
-      <c r="J99" s="75"/>
-      <c r="K99" s="75"/>
-      <c r="L99" s="75"/>
-      <c r="M99" s="75"/>
-      <c r="N99" s="75"/>
-      <c r="O99" s="75"/>
-      <c r="P99" s="75"/>
-      <c r="Q99" s="75"/>
-      <c r="R99" s="75"/>
+      <c r="D99" s="98"/>
+      <c r="E99" s="98"/>
+      <c r="F99" s="98"/>
+      <c r="G99" s="98"/>
+      <c r="H99" s="98"/>
+      <c r="I99" s="98"/>
+      <c r="J99" s="98"/>
+      <c r="K99" s="98"/>
+      <c r="L99" s="98"/>
+      <c r="M99" s="98"/>
+      <c r="N99" s="98"/>
+      <c r="O99" s="98"/>
+      <c r="P99" s="98"/>
+      <c r="Q99" s="98"/>
+      <c r="R99" s="98"/>
       <c r="S99" s="51"/>
       <c r="T99" s="51"/>
       <c r="U99" s="54"/>
@@ -5057,24 +5063,24 @@
         <f>B93+7</f>
         <v>43787</v>
       </c>
-      <c r="C103" s="75" t="s">
+      <c r="C103" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="75"/>
-      <c r="E103" s="75"/>
-      <c r="F103" s="75"/>
-      <c r="G103" s="75"/>
-      <c r="H103" s="83" t="s">
+      <c r="D103" s="98"/>
+      <c r="E103" s="98"/>
+      <c r="F103" s="98"/>
+      <c r="G103" s="98"/>
+      <c r="H103" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="I103" s="83"/>
-      <c r="J103" s="83"/>
-      <c r="K103" s="83"/>
-      <c r="L103" s="83"/>
-      <c r="M103" s="83"/>
-      <c r="N103" s="83"/>
-      <c r="O103" s="83"/>
-      <c r="P103" s="83"/>
+      <c r="I103" s="82"/>
+      <c r="J103" s="82"/>
+      <c r="K103" s="82"/>
+      <c r="L103" s="82"/>
+      <c r="M103" s="82"/>
+      <c r="N103" s="82"/>
+      <c r="O103" s="82"/>
+      <c r="P103" s="82"/>
       <c r="Q103" s="20"/>
       <c r="R103" s="20"/>
       <c r="S103" s="51"/>
@@ -5091,24 +5097,24 @@
         <f t="shared" ref="B104:B109" si="8">B94+7</f>
         <v>43788</v>
       </c>
-      <c r="C104" s="75" t="s">
+      <c r="C104" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D104" s="75"/>
-      <c r="E104" s="75"/>
-      <c r="F104" s="75"/>
-      <c r="G104" s="75"/>
-      <c r="H104" s="83" t="s">
+      <c r="D104" s="98"/>
+      <c r="E104" s="98"/>
+      <c r="F104" s="98"/>
+      <c r="G104" s="98"/>
+      <c r="H104" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="I104" s="83"/>
-      <c r="J104" s="83"/>
-      <c r="K104" s="83"/>
-      <c r="L104" s="83"/>
-      <c r="M104" s="83"/>
-      <c r="N104" s="83"/>
-      <c r="O104" s="83"/>
-      <c r="P104" s="83"/>
+      <c r="I104" s="82"/>
+      <c r="J104" s="82"/>
+      <c r="K104" s="82"/>
+      <c r="L104" s="82"/>
+      <c r="M104" s="82"/>
+      <c r="N104" s="82"/>
+      <c r="O104" s="82"/>
+      <c r="P104" s="82"/>
       <c r="Q104" s="20"/>
       <c r="R104" s="20"/>
       <c r="S104" s="51"/>
@@ -5125,19 +5131,19 @@
         <f t="shared" si="8"/>
         <v>43789</v>
       </c>
-      <c r="C105" s="128" t="s">
+      <c r="C105" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="D105" s="129"/>
-      <c r="E105" s="129"/>
-      <c r="F105" s="129"/>
-      <c r="G105" s="129"/>
-      <c r="H105" s="129"/>
-      <c r="I105" s="129"/>
-      <c r="J105" s="129"/>
-      <c r="K105" s="129"/>
-      <c r="L105" s="129"/>
-      <c r="M105" s="130"/>
+      <c r="D105" s="121"/>
+      <c r="E105" s="121"/>
+      <c r="F105" s="121"/>
+      <c r="G105" s="121"/>
+      <c r="H105" s="121"/>
+      <c r="I105" s="121"/>
+      <c r="J105" s="121"/>
+      <c r="K105" s="121"/>
+      <c r="L105" s="121"/>
+      <c r="M105" s="122"/>
       <c r="N105" s="49"/>
       <c r="O105" s="49"/>
       <c r="P105" s="49"/>
@@ -5157,24 +5163,24 @@
         <f t="shared" si="8"/>
         <v>43790</v>
       </c>
-      <c r="C106" s="75" t="s">
+      <c r="C106" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D106" s="75"/>
-      <c r="E106" s="75"/>
-      <c r="F106" s="75"/>
-      <c r="G106" s="75"/>
-      <c r="H106" s="83" t="s">
+      <c r="D106" s="98"/>
+      <c r="E106" s="98"/>
+      <c r="F106" s="98"/>
+      <c r="G106" s="98"/>
+      <c r="H106" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="I106" s="83"/>
-      <c r="J106" s="83"/>
-      <c r="K106" s="83"/>
-      <c r="L106" s="83"/>
-      <c r="M106" s="83"/>
-      <c r="N106" s="83"/>
-      <c r="O106" s="83"/>
-      <c r="P106" s="83"/>
+      <c r="I106" s="82"/>
+      <c r="J106" s="82"/>
+      <c r="K106" s="82"/>
+      <c r="L106" s="82"/>
+      <c r="M106" s="82"/>
+      <c r="N106" s="82"/>
+      <c r="O106" s="82"/>
+      <c r="P106" s="82"/>
       <c r="Q106" s="20"/>
       <c r="R106" s="20"/>
       <c r="S106" s="51"/>
@@ -5191,19 +5197,19 @@
         <f t="shared" si="8"/>
         <v>43791</v>
       </c>
-      <c r="C107" s="111" t="s">
+      <c r="C107" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="D107" s="95"/>
-      <c r="E107" s="95"/>
-      <c r="F107" s="95"/>
-      <c r="G107" s="95"/>
-      <c r="H107" s="95"/>
-      <c r="I107" s="95"/>
-      <c r="J107" s="95"/>
-      <c r="K107" s="95"/>
-      <c r="L107" s="95"/>
-      <c r="M107" s="96"/>
+      <c r="D107" s="110"/>
+      <c r="E107" s="110"/>
+      <c r="F107" s="110"/>
+      <c r="G107" s="110"/>
+      <c r="H107" s="110"/>
+      <c r="I107" s="110"/>
+      <c r="J107" s="110"/>
+      <c r="K107" s="110"/>
+      <c r="L107" s="110"/>
+      <c r="M107" s="111"/>
       <c r="N107" s="20"/>
       <c r="O107" s="20"/>
       <c r="P107" s="20"/>
@@ -5249,24 +5255,24 @@
         <f t="shared" si="8"/>
         <v>43793</v>
       </c>
-      <c r="C109" s="75" t="s">
+      <c r="C109" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="D109" s="75"/>
-      <c r="E109" s="75"/>
-      <c r="F109" s="75"/>
-      <c r="G109" s="75"/>
-      <c r="H109" s="75"/>
-      <c r="I109" s="75"/>
-      <c r="J109" s="75"/>
-      <c r="K109" s="75"/>
-      <c r="L109" s="75"/>
-      <c r="M109" s="75"/>
-      <c r="N109" s="75"/>
-      <c r="O109" s="75"/>
-      <c r="P109" s="75"/>
-      <c r="Q109" s="75"/>
-      <c r="R109" s="75"/>
+      <c r="D109" s="98"/>
+      <c r="E109" s="98"/>
+      <c r="F109" s="98"/>
+      <c r="G109" s="98"/>
+      <c r="H109" s="98"/>
+      <c r="I109" s="98"/>
+      <c r="J109" s="98"/>
+      <c r="K109" s="98"/>
+      <c r="L109" s="98"/>
+      <c r="M109" s="98"/>
+      <c r="N109" s="98"/>
+      <c r="O109" s="98"/>
+      <c r="P109" s="98"/>
+      <c r="Q109" s="98"/>
+      <c r="R109" s="98"/>
       <c r="S109" s="51"/>
       <c r="T109" s="51"/>
       <c r="U109" s="54"/>
@@ -5341,11 +5347,11 @@
         <f>C102+1</f>
         <v>11</v>
       </c>
-      <c r="D112" s="104" t="s">
+      <c r="D112" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="E112" s="104"/>
-      <c r="F112" s="104"/>
+      <c r="E112" s="97"/>
+      <c r="F112" s="97"/>
       <c r="G112" s="15"/>
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
@@ -5370,21 +5376,21 @@
         <f>B103+7</f>
         <v>43794</v>
       </c>
-      <c r="C113" s="75" t="s">
+      <c r="C113" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D113" s="75"/>
-      <c r="E113" s="75"/>
-      <c r="F113" s="75"/>
-      <c r="G113" s="75"/>
-      <c r="H113" s="83" t="s">
+      <c r="D113" s="98"/>
+      <c r="E113" s="98"/>
+      <c r="F113" s="98"/>
+      <c r="G113" s="98"/>
+      <c r="H113" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="I113" s="83"/>
-      <c r="J113" s="83"/>
-      <c r="K113" s="83"/>
-      <c r="L113" s="83"/>
-      <c r="M113" s="83"/>
+      <c r="I113" s="82"/>
+      <c r="J113" s="82"/>
+      <c r="K113" s="82"/>
+      <c r="L113" s="82"/>
+      <c r="M113" s="82"/>
       <c r="N113" s="20"/>
       <c r="O113" s="20"/>
       <c r="P113" s="20"/>
@@ -5404,21 +5410,21 @@
         <f t="shared" ref="B114:B119" si="9">B104+7</f>
         <v>43795</v>
       </c>
-      <c r="C114" s="75" t="s">
+      <c r="C114" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D114" s="75"/>
-      <c r="E114" s="75"/>
-      <c r="F114" s="75"/>
-      <c r="G114" s="75"/>
-      <c r="H114" s="83" t="s">
+      <c r="D114" s="98"/>
+      <c r="E114" s="98"/>
+      <c r="F114" s="98"/>
+      <c r="G114" s="98"/>
+      <c r="H114" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="I114" s="83"/>
-      <c r="J114" s="83"/>
-      <c r="K114" s="83"/>
-      <c r="L114" s="83"/>
-      <c r="M114" s="83"/>
+      <c r="I114" s="82"/>
+      <c r="J114" s="82"/>
+      <c r="K114" s="82"/>
+      <c r="L114" s="82"/>
+      <c r="M114" s="82"/>
       <c r="N114" s="20"/>
       <c r="O114" s="49"/>
       <c r="P114" s="49"/>
@@ -5444,18 +5450,18 @@
       <c r="F115" s="49"/>
       <c r="G115" s="49"/>
       <c r="H115" s="20"/>
-      <c r="I115" s="108" t="s">
+      <c r="I115" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="J115" s="109"/>
-      <c r="K115" s="109"/>
-      <c r="L115" s="109"/>
-      <c r="M115" s="109"/>
-      <c r="N115" s="109"/>
-      <c r="O115" s="109"/>
-      <c r="P115" s="109"/>
-      <c r="Q115" s="109"/>
-      <c r="R115" s="110"/>
+      <c r="J115" s="92"/>
+      <c r="K115" s="92"/>
+      <c r="L115" s="92"/>
+      <c r="M115" s="92"/>
+      <c r="N115" s="92"/>
+      <c r="O115" s="92"/>
+      <c r="P115" s="92"/>
+      <c r="Q115" s="92"/>
+      <c r="R115" s="93"/>
       <c r="S115" s="51"/>
       <c r="T115" s="52" t="s">
         <v>20</v>
@@ -5470,24 +5476,24 @@
         <f t="shared" si="9"/>
         <v>43797</v>
       </c>
-      <c r="C116" s="75" t="s">
+      <c r="C116" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D116" s="75"/>
-      <c r="E116" s="75"/>
-      <c r="F116" s="75"/>
-      <c r="G116" s="75"/>
-      <c r="H116" s="112" t="s">
+      <c r="D116" s="98"/>
+      <c r="E116" s="98"/>
+      <c r="F116" s="98"/>
+      <c r="G116" s="98"/>
+      <c r="H116" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="I116" s="114"/>
-      <c r="J116" s="108" t="s">
+      <c r="I116" s="85"/>
+      <c r="J116" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="K116" s="109"/>
-      <c r="L116" s="109"/>
-      <c r="M116" s="109"/>
-      <c r="N116" s="110"/>
+      <c r="K116" s="92"/>
+      <c r="L116" s="92"/>
+      <c r="M116" s="92"/>
+      <c r="N116" s="93"/>
       <c r="O116" s="20"/>
       <c r="P116" s="20"/>
       <c r="Q116" s="20"/>
@@ -5562,24 +5568,24 @@
         <f t="shared" si="9"/>
         <v>43800</v>
       </c>
-      <c r="C119" s="75" t="s">
+      <c r="C119" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="D119" s="75"/>
-      <c r="E119" s="75"/>
-      <c r="F119" s="75"/>
-      <c r="G119" s="75"/>
-      <c r="H119" s="75"/>
-      <c r="I119" s="75"/>
-      <c r="J119" s="75"/>
-      <c r="K119" s="75"/>
-      <c r="L119" s="75"/>
-      <c r="M119" s="75"/>
-      <c r="N119" s="75"/>
-      <c r="O119" s="75"/>
-      <c r="P119" s="75"/>
-      <c r="Q119" s="75"/>
-      <c r="R119" s="75"/>
+      <c r="D119" s="98"/>
+      <c r="E119" s="98"/>
+      <c r="F119" s="98"/>
+      <c r="G119" s="98"/>
+      <c r="H119" s="98"/>
+      <c r="I119" s="98"/>
+      <c r="J119" s="98"/>
+      <c r="K119" s="98"/>
+      <c r="L119" s="98"/>
+      <c r="M119" s="98"/>
+      <c r="N119" s="98"/>
+      <c r="O119" s="98"/>
+      <c r="P119" s="98"/>
+      <c r="Q119" s="98"/>
+      <c r="R119" s="98"/>
       <c r="S119" s="51"/>
       <c r="T119" s="51"/>
       <c r="U119" s="54"/>
@@ -5654,11 +5660,11 @@
         <f>C112+1</f>
         <v>12</v>
       </c>
-      <c r="D122" s="115" t="s">
+      <c r="D122" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="E122" s="115"/>
-      <c r="F122" s="115"/>
+      <c r="E122" s="126"/>
+      <c r="F122" s="126"/>
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
@@ -5683,24 +5689,24 @@
         <f>B113+7</f>
         <v>43801</v>
       </c>
-      <c r="C123" s="126" t="s">
+      <c r="C123" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="126"/>
-      <c r="E123" s="126"/>
-      <c r="F123" s="126"/>
-      <c r="G123" s="126"/>
-      <c r="H123" s="107" t="s">
+      <c r="D123" s="118"/>
+      <c r="E123" s="118"/>
+      <c r="F123" s="118"/>
+      <c r="G123" s="118"/>
+      <c r="H123" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="I123" s="107"/>
-      <c r="J123" s="107"/>
-      <c r="K123" s="107"/>
-      <c r="L123" s="107"/>
-      <c r="M123" s="107"/>
-      <c r="N123" s="107"/>
-      <c r="O123" s="107"/>
-      <c r="P123" s="107"/>
+      <c r="I123" s="116"/>
+      <c r="J123" s="116"/>
+      <c r="K123" s="116"/>
+      <c r="L123" s="116"/>
+      <c r="M123" s="116"/>
+      <c r="N123" s="116"/>
+      <c r="O123" s="116"/>
+      <c r="P123" s="116"/>
       <c r="Q123" s="20"/>
       <c r="R123" s="20"/>
       <c r="S123" s="51"/>
@@ -5717,24 +5723,24 @@
         <f t="shared" ref="B124:B129" si="10">B114+7</f>
         <v>43802</v>
       </c>
-      <c r="C124" s="126" t="s">
+      <c r="C124" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="D124" s="126"/>
-      <c r="E124" s="126"/>
-      <c r="F124" s="126"/>
-      <c r="G124" s="126"/>
-      <c r="H124" s="107" t="s">
+      <c r="D124" s="118"/>
+      <c r="E124" s="118"/>
+      <c r="F124" s="118"/>
+      <c r="G124" s="118"/>
+      <c r="H124" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="I124" s="107"/>
-      <c r="J124" s="107"/>
-      <c r="K124" s="107"/>
-      <c r="L124" s="107"/>
-      <c r="M124" s="107"/>
-      <c r="N124" s="107"/>
-      <c r="O124" s="107"/>
-      <c r="P124" s="107"/>
+      <c r="I124" s="116"/>
+      <c r="J124" s="116"/>
+      <c r="K124" s="116"/>
+      <c r="L124" s="116"/>
+      <c r="M124" s="116"/>
+      <c r="N124" s="116"/>
+      <c r="O124" s="116"/>
+      <c r="P124" s="116"/>
       <c r="Q124" s="20"/>
       <c r="R124" s="20"/>
       <c r="S124" s="51"/>
@@ -5751,24 +5757,24 @@
         <f t="shared" si="10"/>
         <v>43803</v>
       </c>
-      <c r="C125" s="107" t="s">
+      <c r="C125" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="D125" s="107"/>
-      <c r="E125" s="107"/>
-      <c r="F125" s="107"/>
-      <c r="G125" s="107"/>
-      <c r="H125" s="107"/>
-      <c r="I125" s="107"/>
-      <c r="J125" s="107"/>
-      <c r="K125" s="107"/>
+      <c r="D125" s="116"/>
+      <c r="E125" s="116"/>
+      <c r="F125" s="116"/>
+      <c r="G125" s="116"/>
+      <c r="H125" s="116"/>
+      <c r="I125" s="116"/>
+      <c r="J125" s="116"/>
+      <c r="K125" s="116"/>
       <c r="L125" s="49"/>
-      <c r="M125" s="107" t="s">
+      <c r="M125" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="N125" s="107"/>
-      <c r="O125" s="107"/>
-      <c r="P125" s="107"/>
+      <c r="N125" s="116"/>
+      <c r="O125" s="116"/>
+      <c r="P125" s="116"/>
       <c r="Q125" s="49"/>
       <c r="R125" s="49"/>
       <c r="S125" s="51"/>
@@ -5785,24 +5791,24 @@
         <f t="shared" si="10"/>
         <v>43804</v>
       </c>
-      <c r="C126" s="127" t="s">
+      <c r="C126" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="D126" s="127"/>
-      <c r="E126" s="127"/>
-      <c r="F126" s="127"/>
-      <c r="G126" s="127"/>
-      <c r="H126" s="107" t="s">
+      <c r="D126" s="119"/>
+      <c r="E126" s="119"/>
+      <c r="F126" s="119"/>
+      <c r="G126" s="119"/>
+      <c r="H126" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="I126" s="107"/>
-      <c r="J126" s="107"/>
-      <c r="K126" s="107"/>
-      <c r="L126" s="107"/>
-      <c r="M126" s="107"/>
-      <c r="N126" s="107"/>
-      <c r="O126" s="107"/>
-      <c r="P126" s="107"/>
+      <c r="I126" s="116"/>
+      <c r="J126" s="116"/>
+      <c r="K126" s="116"/>
+      <c r="L126" s="116"/>
+      <c r="M126" s="116"/>
+      <c r="N126" s="116"/>
+      <c r="O126" s="116"/>
+      <c r="P126" s="116"/>
       <c r="Q126" s="20"/>
       <c r="R126" s="20"/>
       <c r="S126" s="51"/>
@@ -5875,24 +5881,24 @@
         <f t="shared" si="10"/>
         <v>43807</v>
       </c>
-      <c r="C129" s="75" t="s">
+      <c r="C129" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="D129" s="75"/>
-      <c r="E129" s="75"/>
-      <c r="F129" s="75"/>
-      <c r="G129" s="75"/>
-      <c r="H129" s="75"/>
-      <c r="I129" s="75"/>
-      <c r="J129" s="75"/>
-      <c r="K129" s="75"/>
-      <c r="L129" s="75"/>
-      <c r="M129" s="75"/>
-      <c r="N129" s="75"/>
-      <c r="O129" s="75"/>
-      <c r="P129" s="75"/>
-      <c r="Q129" s="75"/>
-      <c r="R129" s="75"/>
+      <c r="D129" s="98"/>
+      <c r="E129" s="98"/>
+      <c r="F129" s="98"/>
+      <c r="G129" s="98"/>
+      <c r="H129" s="98"/>
+      <c r="I129" s="98"/>
+      <c r="J129" s="98"/>
+      <c r="K129" s="98"/>
+      <c r="L129" s="98"/>
+      <c r="M129" s="98"/>
+      <c r="N129" s="98"/>
+      <c r="O129" s="98"/>
+      <c r="P129" s="98"/>
+      <c r="Q129" s="98"/>
+      <c r="R129" s="98"/>
       <c r="S129" s="51"/>
       <c r="T129" s="51"/>
       <c r="U129" s="54"/>
@@ -5994,24 +6000,24 @@
         <f>B123+7</f>
         <v>43808</v>
       </c>
-      <c r="C133" s="75" t="s">
+      <c r="C133" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D133" s="75"/>
-      <c r="E133" s="75"/>
-      <c r="F133" s="75"/>
-      <c r="G133" s="75"/>
-      <c r="H133" s="83" t="s">
+      <c r="D133" s="98"/>
+      <c r="E133" s="98"/>
+      <c r="F133" s="98"/>
+      <c r="G133" s="98"/>
+      <c r="H133" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="I133" s="83"/>
-      <c r="J133" s="83"/>
-      <c r="K133" s="99"/>
-      <c r="L133" s="99"/>
-      <c r="M133" s="99"/>
-      <c r="N133" s="99"/>
-      <c r="O133" s="99"/>
-      <c r="P133" s="83"/>
+      <c r="I133" s="82"/>
+      <c r="J133" s="82"/>
+      <c r="K133" s="143"/>
+      <c r="L133" s="143"/>
+      <c r="M133" s="143"/>
+      <c r="N133" s="143"/>
+      <c r="O133" s="143"/>
+      <c r="P133" s="82"/>
       <c r="Q133" s="20"/>
       <c r="R133" s="20"/>
       <c r="S133" s="51"/>
@@ -6028,27 +6034,27 @@
         <f t="shared" ref="B134:B139" si="11">B124+7</f>
         <v>43809</v>
       </c>
-      <c r="C134" s="75" t="s">
+      <c r="C134" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D134" s="75"/>
-      <c r="E134" s="75"/>
-      <c r="F134" s="75"/>
-      <c r="G134" s="75"/>
-      <c r="H134" s="105" t="s">
+      <c r="D134" s="98"/>
+      <c r="E134" s="98"/>
+      <c r="F134" s="98"/>
+      <c r="G134" s="98"/>
+      <c r="H134" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="I134" s="106"/>
+      <c r="I134" s="131"/>
       <c r="J134" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="K134" s="84" t="s">
+      <c r="K134" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="L134" s="84"/>
-      <c r="M134" s="84"/>
-      <c r="N134" s="84"/>
-      <c r="O134" s="84"/>
+      <c r="L134" s="133"/>
+      <c r="M134" s="133"/>
+      <c r="N134" s="133"/>
+      <c r="O134" s="133"/>
       <c r="P134" s="20"/>
       <c r="Q134" s="20"/>
       <c r="R134" s="20"/>
@@ -6066,24 +6072,24 @@
         <f t="shared" si="11"/>
         <v>43810</v>
       </c>
-      <c r="C135" s="97" t="s">
+      <c r="C135" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="D135" s="98"/>
-      <c r="E135" s="98"/>
-      <c r="F135" s="98"/>
-      <c r="G135" s="98"/>
-      <c r="H135" s="98"/>
-      <c r="I135" s="98"/>
-      <c r="J135" s="98"/>
-      <c r="K135" s="131"/>
+      <c r="D135" s="87"/>
+      <c r="E135" s="87"/>
+      <c r="F135" s="87"/>
+      <c r="G135" s="87"/>
+      <c r="H135" s="87"/>
+      <c r="I135" s="87"/>
+      <c r="J135" s="87"/>
+      <c r="K135" s="88"/>
       <c r="L135" s="49"/>
-      <c r="M135" s="84" t="s">
+      <c r="M135" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="N135" s="84"/>
-      <c r="O135" s="84"/>
-      <c r="P135" s="84"/>
+      <c r="N135" s="133"/>
+      <c r="O135" s="133"/>
+      <c r="P135" s="133"/>
       <c r="Q135" s="49"/>
       <c r="R135" s="49"/>
       <c r="S135" s="51"/>
@@ -6100,24 +6106,24 @@
         <f t="shared" si="11"/>
         <v>43811</v>
       </c>
-      <c r="C136" s="75" t="s">
+      <c r="C136" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="D136" s="75"/>
-      <c r="E136" s="75"/>
-      <c r="F136" s="75"/>
-      <c r="G136" s="75"/>
-      <c r="H136" s="83" t="s">
+      <c r="D136" s="98"/>
+      <c r="E136" s="98"/>
+      <c r="F136" s="98"/>
+      <c r="G136" s="98"/>
+      <c r="H136" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="I136" s="83"/>
-      <c r="J136" s="83"/>
-      <c r="K136" s="83"/>
-      <c r="L136" s="83"/>
-      <c r="M136" s="83"/>
-      <c r="N136" s="83"/>
-      <c r="O136" s="83"/>
-      <c r="P136" s="83"/>
+      <c r="I136" s="82"/>
+      <c r="J136" s="82"/>
+      <c r="K136" s="82"/>
+      <c r="L136" s="82"/>
+      <c r="M136" s="82"/>
+      <c r="N136" s="82"/>
+      <c r="O136" s="82"/>
+      <c r="P136" s="82"/>
       <c r="Q136" s="20"/>
       <c r="R136" s="20"/>
       <c r="S136" s="51"/>
@@ -6190,24 +6196,24 @@
         <f t="shared" si="11"/>
         <v>43814</v>
       </c>
-      <c r="C139" s="75" t="s">
+      <c r="C139" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="D139" s="75"/>
-      <c r="E139" s="75"/>
-      <c r="F139" s="75"/>
-      <c r="G139" s="75"/>
-      <c r="H139" s="75"/>
-      <c r="I139" s="75"/>
-      <c r="J139" s="75"/>
-      <c r="K139" s="75"/>
-      <c r="L139" s="75"/>
-      <c r="M139" s="75"/>
-      <c r="N139" s="75"/>
-      <c r="O139" s="75"/>
-      <c r="P139" s="75"/>
-      <c r="Q139" s="75"/>
-      <c r="R139" s="75"/>
+      <c r="D139" s="98"/>
+      <c r="E139" s="98"/>
+      <c r="F139" s="98"/>
+      <c r="G139" s="98"/>
+      <c r="H139" s="98"/>
+      <c r="I139" s="98"/>
+      <c r="J139" s="98"/>
+      <c r="K139" s="98"/>
+      <c r="L139" s="98"/>
+      <c r="M139" s="98"/>
+      <c r="N139" s="98"/>
+      <c r="O139" s="98"/>
+      <c r="P139" s="98"/>
+      <c r="Q139" s="98"/>
+      <c r="R139" s="98"/>
       <c r="S139" s="51"/>
       <c r="T139" s="51"/>
       <c r="U139" s="54"/>
@@ -6302,19 +6308,19 @@
         <f>C132+1</f>
         <v>14</v>
       </c>
-      <c r="D142" s="104" t="s">
+      <c r="D142" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="E142" s="104"/>
-      <c r="F142" s="104"/>
+      <c r="E142" s="97"/>
+      <c r="F142" s="97"/>
       <c r="G142" s="15"/>
-      <c r="H142" s="104" t="s">
+      <c r="H142" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="I142" s="104"/>
-      <c r="J142" s="104"/>
-      <c r="K142" s="104"/>
-      <c r="L142" s="104"/>
+      <c r="I142" s="97"/>
+      <c r="J142" s="97"/>
+      <c r="K142" s="97"/>
+      <c r="L142" s="97"/>
       <c r="M142" s="19"/>
       <c r="N142" s="19"/>
       <c r="O142" s="19"/>
@@ -6333,24 +6339,24 @@
         <f>B133+7</f>
         <v>43815</v>
       </c>
-      <c r="C143" s="83" t="s">
+      <c r="C143" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="D143" s="83"/>
-      <c r="E143" s="83"/>
-      <c r="F143" s="146" t="s">
+      <c r="D143" s="82"/>
+      <c r="E143" s="82"/>
+      <c r="F143" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="G143" s="98"/>
-      <c r="H143" s="98"/>
-      <c r="I143" s="98"/>
-      <c r="J143" s="98"/>
-      <c r="K143" s="98"/>
-      <c r="L143" s="98"/>
-      <c r="M143" s="98"/>
-      <c r="N143" s="98"/>
-      <c r="O143" s="98"/>
-      <c r="P143" s="131"/>
+      <c r="G143" s="87"/>
+      <c r="H143" s="87"/>
+      <c r="I143" s="87"/>
+      <c r="J143" s="87"/>
+      <c r="K143" s="87"/>
+      <c r="L143" s="87"/>
+      <c r="M143" s="87"/>
+      <c r="N143" s="87"/>
+      <c r="O143" s="87"/>
+      <c r="P143" s="88"/>
       <c r="Q143" s="49"/>
       <c r="R143" s="49"/>
       <c r="S143" s="51"/>
@@ -6367,22 +6373,22 @@
         <f t="shared" ref="B144:B149" si="12">B134+7</f>
         <v>43816</v>
       </c>
-      <c r="C144" s="94" t="s">
+      <c r="C144" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="D144" s="95"/>
-      <c r="E144" s="95"/>
-      <c r="F144" s="95"/>
-      <c r="G144" s="95"/>
-      <c r="H144" s="95"/>
-      <c r="I144" s="95"/>
-      <c r="J144" s="95"/>
-      <c r="K144" s="95"/>
-      <c r="L144" s="95"/>
-      <c r="M144" s="95"/>
-      <c r="N144" s="95"/>
-      <c r="O144" s="95"/>
-      <c r="P144" s="96"/>
+      <c r="D144" s="110"/>
+      <c r="E144" s="110"/>
+      <c r="F144" s="110"/>
+      <c r="G144" s="110"/>
+      <c r="H144" s="110"/>
+      <c r="I144" s="110"/>
+      <c r="J144" s="110"/>
+      <c r="K144" s="110"/>
+      <c r="L144" s="110"/>
+      <c r="M144" s="110"/>
+      <c r="N144" s="110"/>
+      <c r="O144" s="110"/>
+      <c r="P144" s="111"/>
       <c r="Q144" s="20"/>
       <c r="R144" s="20"/>
       <c r="S144" s="51"/>
@@ -6399,22 +6405,22 @@
         <f t="shared" si="12"/>
         <v>43817</v>
       </c>
-      <c r="C145" s="94" t="s">
+      <c r="C145" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="D145" s="95"/>
-      <c r="E145" s="95"/>
-      <c r="F145" s="95"/>
-      <c r="G145" s="95"/>
-      <c r="H145" s="95"/>
-      <c r="I145" s="95"/>
-      <c r="J145" s="95"/>
-      <c r="K145" s="95"/>
-      <c r="L145" s="95"/>
-      <c r="M145" s="95"/>
-      <c r="N145" s="95"/>
-      <c r="O145" s="95"/>
-      <c r="P145" s="96"/>
+      <c r="D145" s="110"/>
+      <c r="E145" s="110"/>
+      <c r="F145" s="110"/>
+      <c r="G145" s="110"/>
+      <c r="H145" s="110"/>
+      <c r="I145" s="110"/>
+      <c r="J145" s="110"/>
+      <c r="K145" s="110"/>
+      <c r="L145" s="110"/>
+      <c r="M145" s="110"/>
+      <c r="N145" s="110"/>
+      <c r="O145" s="110"/>
+      <c r="P145" s="111"/>
       <c r="Q145" s="49"/>
       <c r="R145" s="49"/>
       <c r="S145" s="51"/>
@@ -6431,18 +6437,18 @@
         <f t="shared" si="12"/>
         <v>43818</v>
       </c>
-      <c r="C146" s="97" t="s">
+      <c r="C146" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="D146" s="98"/>
-      <c r="E146" s="98"/>
-      <c r="F146" s="98"/>
-      <c r="G146" s="98"/>
-      <c r="H146" s="98"/>
-      <c r="I146" s="98"/>
-      <c r="J146" s="98"/>
-      <c r="K146" s="98"/>
-      <c r="L146" s="98"/>
+      <c r="D146" s="87"/>
+      <c r="E146" s="87"/>
+      <c r="F146" s="87"/>
+      <c r="G146" s="87"/>
+      <c r="H146" s="87"/>
+      <c r="I146" s="87"/>
+      <c r="J146" s="87"/>
+      <c r="K146" s="87"/>
+      <c r="L146" s="87"/>
       <c r="M146" s="20"/>
       <c r="N146" s="20"/>
       <c r="O146" s="20"/>
@@ -6656,22 +6662,22 @@
         <f>B143+7</f>
         <v>43822</v>
       </c>
-      <c r="C153" s="100" t="s">
+      <c r="C153" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="D153" s="101"/>
-      <c r="E153" s="101"/>
-      <c r="F153" s="101"/>
-      <c r="G153" s="101"/>
-      <c r="H153" s="101"/>
-      <c r="I153" s="101"/>
-      <c r="J153" s="101"/>
-      <c r="K153" s="101"/>
-      <c r="L153" s="101"/>
-      <c r="M153" s="101"/>
-      <c r="N153" s="101"/>
-      <c r="O153" s="101"/>
-      <c r="P153" s="102"/>
+      <c r="D153" s="145"/>
+      <c r="E153" s="145"/>
+      <c r="F153" s="145"/>
+      <c r="G153" s="145"/>
+      <c r="H153" s="145"/>
+      <c r="I153" s="145"/>
+      <c r="J153" s="145"/>
+      <c r="K153" s="145"/>
+      <c r="L153" s="145"/>
+      <c r="M153" s="145"/>
+      <c r="N153" s="145"/>
+      <c r="O153" s="145"/>
+      <c r="P153" s="146"/>
       <c r="Q153" s="49"/>
       <c r="R153" s="49"/>
       <c r="S153" s="51"/>
@@ -6688,22 +6694,22 @@
         <f t="shared" ref="B154:B159" si="13">B144+7</f>
         <v>43823</v>
       </c>
-      <c r="C154" s="100" t="s">
+      <c r="C154" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="D154" s="101"/>
-      <c r="E154" s="101"/>
-      <c r="F154" s="101"/>
-      <c r="G154" s="101"/>
-      <c r="H154" s="101"/>
-      <c r="I154" s="101"/>
-      <c r="J154" s="101"/>
-      <c r="K154" s="101"/>
-      <c r="L154" s="101"/>
-      <c r="M154" s="101"/>
-      <c r="N154" s="101"/>
-      <c r="O154" s="101"/>
-      <c r="P154" s="102"/>
+      <c r="D154" s="145"/>
+      <c r="E154" s="145"/>
+      <c r="F154" s="145"/>
+      <c r="G154" s="145"/>
+      <c r="H154" s="145"/>
+      <c r="I154" s="145"/>
+      <c r="J154" s="145"/>
+      <c r="K154" s="145"/>
+      <c r="L154" s="145"/>
+      <c r="M154" s="145"/>
+      <c r="N154" s="145"/>
+      <c r="O154" s="145"/>
+      <c r="P154" s="146"/>
       <c r="Q154" s="20"/>
       <c r="R154" s="20"/>
       <c r="S154" s="51"/>
@@ -6720,24 +6726,24 @@
         <f t="shared" si="13"/>
         <v>43824</v>
       </c>
-      <c r="C155" s="125" t="s">
+      <c r="C155" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="D155" s="125"/>
-      <c r="E155" s="125"/>
-      <c r="F155" s="125"/>
-      <c r="G155" s="125"/>
-      <c r="H155" s="125"/>
-      <c r="I155" s="125"/>
-      <c r="J155" s="125"/>
-      <c r="K155" s="125"/>
-      <c r="L155" s="125"/>
-      <c r="M155" s="125"/>
-      <c r="N155" s="125"/>
-      <c r="O155" s="125"/>
-      <c r="P155" s="125"/>
-      <c r="Q155" s="125"/>
-      <c r="R155" s="125"/>
+      <c r="D155" s="117"/>
+      <c r="E155" s="117"/>
+      <c r="F155" s="117"/>
+      <c r="G155" s="117"/>
+      <c r="H155" s="117"/>
+      <c r="I155" s="117"/>
+      <c r="J155" s="117"/>
+      <c r="K155" s="117"/>
+      <c r="L155" s="117"/>
+      <c r="M155" s="117"/>
+      <c r="N155" s="117"/>
+      <c r="O155" s="117"/>
+      <c r="P155" s="117"/>
+      <c r="Q155" s="117"/>
+      <c r="R155" s="117"/>
       <c r="S155" s="51"/>
       <c r="T155" s="52" t="s">
         <v>20</v>
@@ -6752,22 +6758,22 @@
         <f t="shared" si="13"/>
         <v>43825</v>
       </c>
-      <c r="C156" s="125"/>
-      <c r="D156" s="125"/>
-      <c r="E156" s="125"/>
-      <c r="F156" s="125"/>
-      <c r="G156" s="125"/>
-      <c r="H156" s="125"/>
-      <c r="I156" s="125"/>
-      <c r="J156" s="125"/>
-      <c r="K156" s="125"/>
-      <c r="L156" s="125"/>
-      <c r="M156" s="125"/>
-      <c r="N156" s="125"/>
-      <c r="O156" s="125"/>
-      <c r="P156" s="125"/>
-      <c r="Q156" s="125"/>
-      <c r="R156" s="125"/>
+      <c r="C156" s="117"/>
+      <c r="D156" s="117"/>
+      <c r="E156" s="117"/>
+      <c r="F156" s="117"/>
+      <c r="G156" s="117"/>
+      <c r="H156" s="117"/>
+      <c r="I156" s="117"/>
+      <c r="J156" s="117"/>
+      <c r="K156" s="117"/>
+      <c r="L156" s="117"/>
+      <c r="M156" s="117"/>
+      <c r="N156" s="117"/>
+      <c r="O156" s="117"/>
+      <c r="P156" s="117"/>
+      <c r="Q156" s="117"/>
+      <c r="R156" s="117"/>
       <c r="S156" s="51"/>
       <c r="T156" s="18" t="s">
         <v>21</v>
@@ -6782,22 +6788,22 @@
         <f t="shared" si="13"/>
         <v>43826</v>
       </c>
-      <c r="C157" s="125"/>
-      <c r="D157" s="125"/>
-      <c r="E157" s="125"/>
-      <c r="F157" s="125"/>
-      <c r="G157" s="125"/>
-      <c r="H157" s="125"/>
-      <c r="I157" s="125"/>
-      <c r="J157" s="125"/>
-      <c r="K157" s="125"/>
-      <c r="L157" s="125"/>
-      <c r="M157" s="125"/>
-      <c r="N157" s="125"/>
-      <c r="O157" s="125"/>
-      <c r="P157" s="125"/>
-      <c r="Q157" s="125"/>
-      <c r="R157" s="125"/>
+      <c r="C157" s="117"/>
+      <c r="D157" s="117"/>
+      <c r="E157" s="117"/>
+      <c r="F157" s="117"/>
+      <c r="G157" s="117"/>
+      <c r="H157" s="117"/>
+      <c r="I157" s="117"/>
+      <c r="J157" s="117"/>
+      <c r="K157" s="117"/>
+      <c r="L157" s="117"/>
+      <c r="M157" s="117"/>
+      <c r="N157" s="117"/>
+      <c r="O157" s="117"/>
+      <c r="P157" s="117"/>
+      <c r="Q157" s="117"/>
+      <c r="R157" s="117"/>
       <c r="S157" s="51"/>
       <c r="T157" s="51"/>
       <c r="U157" s="54"/>
@@ -6810,22 +6816,22 @@
         <f t="shared" si="13"/>
         <v>43827</v>
       </c>
-      <c r="C158" s="125"/>
-      <c r="D158" s="125"/>
-      <c r="E158" s="125"/>
-      <c r="F158" s="125"/>
-      <c r="G158" s="125"/>
-      <c r="H158" s="125"/>
-      <c r="I158" s="125"/>
-      <c r="J158" s="125"/>
-      <c r="K158" s="125"/>
-      <c r="L158" s="125"/>
-      <c r="M158" s="125"/>
-      <c r="N158" s="125"/>
-      <c r="O158" s="125"/>
-      <c r="P158" s="125"/>
-      <c r="Q158" s="125"/>
-      <c r="R158" s="125"/>
+      <c r="C158" s="117"/>
+      <c r="D158" s="117"/>
+      <c r="E158" s="117"/>
+      <c r="F158" s="117"/>
+      <c r="G158" s="117"/>
+      <c r="H158" s="117"/>
+      <c r="I158" s="117"/>
+      <c r="J158" s="117"/>
+      <c r="K158" s="117"/>
+      <c r="L158" s="117"/>
+      <c r="M158" s="117"/>
+      <c r="N158" s="117"/>
+      <c r="O158" s="117"/>
+      <c r="P158" s="117"/>
+      <c r="Q158" s="117"/>
+      <c r="R158" s="117"/>
       <c r="S158" s="51"/>
       <c r="T158" s="51"/>
       <c r="U158" s="54"/>
@@ -6838,22 +6844,22 @@
         <f t="shared" si="13"/>
         <v>43828</v>
       </c>
-      <c r="C159" s="125"/>
-      <c r="D159" s="125"/>
-      <c r="E159" s="125"/>
-      <c r="F159" s="125"/>
-      <c r="G159" s="125"/>
-      <c r="H159" s="125"/>
-      <c r="I159" s="125"/>
-      <c r="J159" s="125"/>
-      <c r="K159" s="125"/>
-      <c r="L159" s="125"/>
-      <c r="M159" s="125"/>
-      <c r="N159" s="125"/>
-      <c r="O159" s="125"/>
-      <c r="P159" s="125"/>
-      <c r="Q159" s="125"/>
-      <c r="R159" s="125"/>
+      <c r="C159" s="117"/>
+      <c r="D159" s="117"/>
+      <c r="E159" s="117"/>
+      <c r="F159" s="117"/>
+      <c r="G159" s="117"/>
+      <c r="H159" s="117"/>
+      <c r="I159" s="117"/>
+      <c r="J159" s="117"/>
+      <c r="K159" s="117"/>
+      <c r="L159" s="117"/>
+      <c r="M159" s="117"/>
+      <c r="N159" s="117"/>
+      <c r="O159" s="117"/>
+      <c r="P159" s="117"/>
+      <c r="Q159" s="117"/>
+      <c r="R159" s="117"/>
       <c r="S159" s="51"/>
       <c r="T159" s="51"/>
       <c r="U159" s="54"/>
@@ -6975,24 +6981,24 @@
         <f>B153+7</f>
         <v>43829</v>
       </c>
-      <c r="C163" s="125" t="s">
+      <c r="C163" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="D163" s="125"/>
-      <c r="E163" s="125"/>
-      <c r="F163" s="125"/>
-      <c r="G163" s="125"/>
-      <c r="H163" s="125"/>
-      <c r="I163" s="125"/>
-      <c r="J163" s="125"/>
-      <c r="K163" s="125"/>
-      <c r="L163" s="125"/>
-      <c r="M163" s="125"/>
-      <c r="N163" s="125"/>
-      <c r="O163" s="125"/>
-      <c r="P163" s="125"/>
-      <c r="Q163" s="125"/>
-      <c r="R163" s="125"/>
+      <c r="D163" s="117"/>
+      <c r="E163" s="117"/>
+      <c r="F163" s="117"/>
+      <c r="G163" s="117"/>
+      <c r="H163" s="117"/>
+      <c r="I163" s="117"/>
+      <c r="J163" s="117"/>
+      <c r="K163" s="117"/>
+      <c r="L163" s="117"/>
+      <c r="M163" s="117"/>
+      <c r="N163" s="117"/>
+      <c r="O163" s="117"/>
+      <c r="P163" s="117"/>
+      <c r="Q163" s="117"/>
+      <c r="R163" s="117"/>
       <c r="S163" s="51"/>
       <c r="T163" s="30" t="s">
         <v>22</v>
@@ -7007,22 +7013,22 @@
         <f t="shared" ref="B164:B169" si="14">B154+7</f>
         <v>43830</v>
       </c>
-      <c r="C164" s="125"/>
-      <c r="D164" s="125"/>
-      <c r="E164" s="125"/>
-      <c r="F164" s="125"/>
-      <c r="G164" s="125"/>
-      <c r="H164" s="125"/>
-      <c r="I164" s="125"/>
-      <c r="J164" s="125"/>
-      <c r="K164" s="125"/>
-      <c r="L164" s="125"/>
-      <c r="M164" s="125"/>
-      <c r="N164" s="125"/>
-      <c r="O164" s="125"/>
-      <c r="P164" s="125"/>
-      <c r="Q164" s="125"/>
-      <c r="R164" s="125"/>
+      <c r="C164" s="117"/>
+      <c r="D164" s="117"/>
+      <c r="E164" s="117"/>
+      <c r="F164" s="117"/>
+      <c r="G164" s="117"/>
+      <c r="H164" s="117"/>
+      <c r="I164" s="117"/>
+      <c r="J164" s="117"/>
+      <c r="K164" s="117"/>
+      <c r="L164" s="117"/>
+      <c r="M164" s="117"/>
+      <c r="N164" s="117"/>
+      <c r="O164" s="117"/>
+      <c r="P164" s="117"/>
+      <c r="Q164" s="117"/>
+      <c r="R164" s="117"/>
       <c r="S164" s="51"/>
       <c r="T164" s="53" t="s">
         <v>19</v>
@@ -7037,22 +7043,22 @@
         <f t="shared" si="14"/>
         <v>43831</v>
       </c>
-      <c r="C165" s="125"/>
-      <c r="D165" s="125"/>
-      <c r="E165" s="125"/>
-      <c r="F165" s="125"/>
-      <c r="G165" s="125"/>
-      <c r="H165" s="125"/>
-      <c r="I165" s="125"/>
-      <c r="J165" s="125"/>
-      <c r="K165" s="125"/>
-      <c r="L165" s="125"/>
-      <c r="M165" s="125"/>
-      <c r="N165" s="125"/>
-      <c r="O165" s="125"/>
-      <c r="P165" s="125"/>
-      <c r="Q165" s="125"/>
-      <c r="R165" s="125"/>
+      <c r="C165" s="117"/>
+      <c r="D165" s="117"/>
+      <c r="E165" s="117"/>
+      <c r="F165" s="117"/>
+      <c r="G165" s="117"/>
+      <c r="H165" s="117"/>
+      <c r="I165" s="117"/>
+      <c r="J165" s="117"/>
+      <c r="K165" s="117"/>
+      <c r="L165" s="117"/>
+      <c r="M165" s="117"/>
+      <c r="N165" s="117"/>
+      <c r="O165" s="117"/>
+      <c r="P165" s="117"/>
+      <c r="Q165" s="117"/>
+      <c r="R165" s="117"/>
       <c r="S165" s="51"/>
       <c r="T165" s="52" t="s">
         <v>20</v>
@@ -7067,22 +7073,22 @@
         <f t="shared" si="14"/>
         <v>43832</v>
       </c>
-      <c r="C166" s="94" t="s">
+      <c r="C166" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="D166" s="95"/>
-      <c r="E166" s="95"/>
-      <c r="F166" s="95"/>
-      <c r="G166" s="95"/>
-      <c r="H166" s="95"/>
-      <c r="I166" s="95"/>
-      <c r="J166" s="95"/>
-      <c r="K166" s="95"/>
-      <c r="L166" s="95"/>
-      <c r="M166" s="95"/>
-      <c r="N166" s="95"/>
-      <c r="O166" s="95"/>
-      <c r="P166" s="96"/>
+      <c r="D166" s="110"/>
+      <c r="E166" s="110"/>
+      <c r="F166" s="110"/>
+      <c r="G166" s="110"/>
+      <c r="H166" s="110"/>
+      <c r="I166" s="110"/>
+      <c r="J166" s="110"/>
+      <c r="K166" s="110"/>
+      <c r="L166" s="110"/>
+      <c r="M166" s="110"/>
+      <c r="N166" s="110"/>
+      <c r="O166" s="110"/>
+      <c r="P166" s="111"/>
       <c r="Q166" s="49"/>
       <c r="R166" s="20"/>
       <c r="S166" s="51"/>
@@ -7099,22 +7105,22 @@
         <f t="shared" si="14"/>
         <v>43833</v>
       </c>
-      <c r="C167" s="94" t="s">
+      <c r="C167" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="D167" s="95"/>
-      <c r="E167" s="95"/>
-      <c r="F167" s="95"/>
-      <c r="G167" s="95"/>
-      <c r="H167" s="95"/>
-      <c r="I167" s="95"/>
-      <c r="J167" s="95"/>
-      <c r="K167" s="95"/>
-      <c r="L167" s="95"/>
-      <c r="M167" s="95"/>
-      <c r="N167" s="95"/>
-      <c r="O167" s="95"/>
-      <c r="P167" s="96"/>
+      <c r="D167" s="110"/>
+      <c r="E167" s="110"/>
+      <c r="F167" s="110"/>
+      <c r="G167" s="110"/>
+      <c r="H167" s="110"/>
+      <c r="I167" s="110"/>
+      <c r="J167" s="110"/>
+      <c r="K167" s="110"/>
+      <c r="L167" s="110"/>
+      <c r="M167" s="110"/>
+      <c r="N167" s="110"/>
+      <c r="O167" s="110"/>
+      <c r="P167" s="111"/>
       <c r="Q167" s="49"/>
       <c r="R167" s="49"/>
       <c r="S167" s="51"/>
@@ -7129,22 +7135,22 @@
         <f t="shared" si="14"/>
         <v>43834</v>
       </c>
-      <c r="C168" s="94" t="s">
+      <c r="C168" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="D168" s="95"/>
-      <c r="E168" s="95"/>
-      <c r="F168" s="95"/>
-      <c r="G168" s="95"/>
-      <c r="H168" s="95"/>
-      <c r="I168" s="95"/>
-      <c r="J168" s="95"/>
-      <c r="K168" s="95"/>
-      <c r="L168" s="95"/>
-      <c r="M168" s="95"/>
-      <c r="N168" s="95"/>
-      <c r="O168" s="95"/>
-      <c r="P168" s="96"/>
+      <c r="D168" s="110"/>
+      <c r="E168" s="110"/>
+      <c r="F168" s="110"/>
+      <c r="G168" s="110"/>
+      <c r="H168" s="110"/>
+      <c r="I168" s="110"/>
+      <c r="J168" s="110"/>
+      <c r="K168" s="110"/>
+      <c r="L168" s="110"/>
+      <c r="M168" s="110"/>
+      <c r="N168" s="110"/>
+      <c r="O168" s="110"/>
+      <c r="P168" s="111"/>
       <c r="Q168" s="49"/>
       <c r="R168" s="49"/>
       <c r="S168" s="51"/>
@@ -7276,22 +7282,22 @@
         <f>B163+7</f>
         <v>43836</v>
       </c>
-      <c r="C173" s="94" t="s">
+      <c r="C173" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="D173" s="95"/>
-      <c r="E173" s="95"/>
-      <c r="F173" s="95"/>
-      <c r="G173" s="95"/>
-      <c r="H173" s="95"/>
-      <c r="I173" s="95"/>
-      <c r="J173" s="95"/>
-      <c r="K173" s="95"/>
-      <c r="L173" s="95"/>
-      <c r="M173" s="95"/>
-      <c r="N173" s="95"/>
-      <c r="O173" s="95"/>
-      <c r="P173" s="96"/>
+      <c r="D173" s="110"/>
+      <c r="E173" s="110"/>
+      <c r="F173" s="110"/>
+      <c r="G173" s="110"/>
+      <c r="H173" s="110"/>
+      <c r="I173" s="110"/>
+      <c r="J173" s="110"/>
+      <c r="K173" s="110"/>
+      <c r="L173" s="110"/>
+      <c r="M173" s="110"/>
+      <c r="N173" s="110"/>
+      <c r="O173" s="110"/>
+      <c r="P173" s="111"/>
       <c r="Q173" s="49"/>
       <c r="R173" s="49"/>
       <c r="S173" s="51"/>
@@ -7308,22 +7314,22 @@
         <f t="shared" ref="B174:B179" si="15">B164+7</f>
         <v>43837</v>
       </c>
-      <c r="C174" s="94" t="s">
+      <c r="C174" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="D174" s="95"/>
-      <c r="E174" s="95"/>
-      <c r="F174" s="95"/>
-      <c r="G174" s="95"/>
-      <c r="H174" s="95"/>
-      <c r="I174" s="95"/>
-      <c r="J174" s="95"/>
-      <c r="K174" s="95"/>
-      <c r="L174" s="95"/>
-      <c r="M174" s="95"/>
-      <c r="N174" s="95"/>
-      <c r="O174" s="95"/>
-      <c r="P174" s="96"/>
+      <c r="D174" s="110"/>
+      <c r="E174" s="110"/>
+      <c r="F174" s="110"/>
+      <c r="G174" s="110"/>
+      <c r="H174" s="110"/>
+      <c r="I174" s="110"/>
+      <c r="J174" s="110"/>
+      <c r="K174" s="110"/>
+      <c r="L174" s="110"/>
+      <c r="M174" s="110"/>
+      <c r="N174" s="110"/>
+      <c r="O174" s="110"/>
+      <c r="P174" s="111"/>
       <c r="Q174" s="49"/>
       <c r="R174" s="49"/>
       <c r="S174" s="51"/>
@@ -7340,22 +7346,22 @@
         <f t="shared" si="15"/>
         <v>43838</v>
       </c>
-      <c r="C175" s="94" t="s">
+      <c r="C175" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="D175" s="95"/>
-      <c r="E175" s="95"/>
-      <c r="F175" s="95"/>
-      <c r="G175" s="95"/>
-      <c r="H175" s="95"/>
-      <c r="I175" s="95"/>
-      <c r="J175" s="95"/>
-      <c r="K175" s="95"/>
-      <c r="L175" s="95"/>
-      <c r="M175" s="95"/>
-      <c r="N175" s="95"/>
-      <c r="O175" s="95"/>
-      <c r="P175" s="96"/>
+      <c r="D175" s="110"/>
+      <c r="E175" s="110"/>
+      <c r="F175" s="110"/>
+      <c r="G175" s="110"/>
+      <c r="H175" s="110"/>
+      <c r="I175" s="110"/>
+      <c r="J175" s="110"/>
+      <c r="K175" s="110"/>
+      <c r="L175" s="110"/>
+      <c r="M175" s="110"/>
+      <c r="N175" s="110"/>
+      <c r="O175" s="110"/>
+      <c r="P175" s="111"/>
       <c r="Q175" s="49"/>
       <c r="R175" s="49"/>
       <c r="S175" s="51"/>
@@ -7372,22 +7378,22 @@
         <f t="shared" si="15"/>
         <v>43839</v>
       </c>
-      <c r="C176" s="94" t="s">
+      <c r="C176" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="D176" s="95"/>
-      <c r="E176" s="95"/>
-      <c r="F176" s="95"/>
-      <c r="G176" s="95"/>
-      <c r="H176" s="95"/>
-      <c r="I176" s="95"/>
-      <c r="J176" s="95"/>
-      <c r="K176" s="95"/>
-      <c r="L176" s="95"/>
-      <c r="M176" s="95"/>
-      <c r="N176" s="95"/>
-      <c r="O176" s="95"/>
-      <c r="P176" s="96"/>
+      <c r="D176" s="110"/>
+      <c r="E176" s="110"/>
+      <c r="F176" s="110"/>
+      <c r="G176" s="110"/>
+      <c r="H176" s="110"/>
+      <c r="I176" s="110"/>
+      <c r="J176" s="110"/>
+      <c r="K176" s="110"/>
+      <c r="L176" s="110"/>
+      <c r="M176" s="110"/>
+      <c r="N176" s="110"/>
+      <c r="O176" s="110"/>
+      <c r="P176" s="111"/>
       <c r="Q176" s="49"/>
       <c r="R176" s="49"/>
       <c r="S176" s="51"/>
@@ -7404,22 +7410,22 @@
         <f t="shared" si="15"/>
         <v>43840</v>
       </c>
-      <c r="C177" s="94" t="s">
+      <c r="C177" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="D177" s="95"/>
-      <c r="E177" s="95"/>
-      <c r="F177" s="95"/>
-      <c r="G177" s="95"/>
-      <c r="H177" s="95"/>
-      <c r="I177" s="95"/>
-      <c r="J177" s="95"/>
-      <c r="K177" s="95"/>
-      <c r="L177" s="95"/>
-      <c r="M177" s="95"/>
-      <c r="N177" s="95"/>
-      <c r="O177" s="95"/>
-      <c r="P177" s="96"/>
+      <c r="D177" s="110"/>
+      <c r="E177" s="110"/>
+      <c r="F177" s="110"/>
+      <c r="G177" s="110"/>
+      <c r="H177" s="110"/>
+      <c r="I177" s="110"/>
+      <c r="J177" s="110"/>
+      <c r="K177" s="110"/>
+      <c r="L177" s="110"/>
+      <c r="M177" s="110"/>
+      <c r="N177" s="110"/>
+      <c r="O177" s="110"/>
+      <c r="P177" s="111"/>
       <c r="Q177" s="49"/>
       <c r="R177" s="49"/>
       <c r="S177" s="51"/>
@@ -7434,22 +7440,22 @@
         <f t="shared" si="15"/>
         <v>43841</v>
       </c>
-      <c r="C178" s="94" t="s">
+      <c r="C178" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="D178" s="95"/>
-      <c r="E178" s="95"/>
-      <c r="F178" s="95"/>
-      <c r="G178" s="95"/>
-      <c r="H178" s="95"/>
-      <c r="I178" s="95"/>
-      <c r="J178" s="95"/>
-      <c r="K178" s="95"/>
-      <c r="L178" s="95"/>
-      <c r="M178" s="95"/>
-      <c r="N178" s="95"/>
-      <c r="O178" s="95"/>
-      <c r="P178" s="96"/>
+      <c r="D178" s="110"/>
+      <c r="E178" s="110"/>
+      <c r="F178" s="110"/>
+      <c r="G178" s="110"/>
+      <c r="H178" s="110"/>
+      <c r="I178" s="110"/>
+      <c r="J178" s="110"/>
+      <c r="K178" s="110"/>
+      <c r="L178" s="110"/>
+      <c r="M178" s="110"/>
+      <c r="N178" s="110"/>
+      <c r="O178" s="110"/>
+      <c r="P178" s="111"/>
       <c r="Q178" s="49"/>
       <c r="R178" s="49"/>
       <c r="S178" s="51"/>
@@ -7579,22 +7585,22 @@
         <f>B173+7</f>
         <v>43843</v>
       </c>
-      <c r="C183" s="94" t="s">
+      <c r="C183" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="D183" s="95"/>
-      <c r="E183" s="95"/>
-      <c r="F183" s="95"/>
-      <c r="G183" s="95"/>
-      <c r="H183" s="95"/>
-      <c r="I183" s="95"/>
-      <c r="J183" s="95"/>
-      <c r="K183" s="95"/>
-      <c r="L183" s="95"/>
-      <c r="M183" s="95"/>
-      <c r="N183" s="95"/>
-      <c r="O183" s="95"/>
-      <c r="P183" s="96"/>
+      <c r="D183" s="110"/>
+      <c r="E183" s="110"/>
+      <c r="F183" s="110"/>
+      <c r="G183" s="110"/>
+      <c r="H183" s="110"/>
+      <c r="I183" s="110"/>
+      <c r="J183" s="110"/>
+      <c r="K183" s="110"/>
+      <c r="L183" s="110"/>
+      <c r="M183" s="110"/>
+      <c r="N183" s="110"/>
+      <c r="O183" s="110"/>
+      <c r="P183" s="111"/>
       <c r="Q183" s="49"/>
       <c r="R183" s="49"/>
       <c r="S183" s="51"/>
@@ -7610,22 +7616,22 @@
         <f t="shared" ref="B184:B189" si="16">B174+7</f>
         <v>43844</v>
       </c>
-      <c r="C184" s="94" t="s">
+      <c r="C184" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="D184" s="95"/>
-      <c r="E184" s="95"/>
-      <c r="F184" s="95"/>
-      <c r="G184" s="95"/>
-      <c r="H184" s="95"/>
-      <c r="I184" s="95"/>
-      <c r="J184" s="95"/>
-      <c r="K184" s="95"/>
-      <c r="L184" s="95"/>
-      <c r="M184" s="95"/>
-      <c r="N184" s="95"/>
-      <c r="O184" s="95"/>
-      <c r="P184" s="96"/>
+      <c r="D184" s="110"/>
+      <c r="E184" s="110"/>
+      <c r="F184" s="110"/>
+      <c r="G184" s="110"/>
+      <c r="H184" s="110"/>
+      <c r="I184" s="110"/>
+      <c r="J184" s="110"/>
+      <c r="K184" s="110"/>
+      <c r="L184" s="110"/>
+      <c r="M184" s="110"/>
+      <c r="N184" s="110"/>
+      <c r="O184" s="110"/>
+      <c r="P184" s="111"/>
       <c r="Q184" s="49"/>
       <c r="R184" s="49"/>
       <c r="S184" s="51"/>
@@ -7641,22 +7647,22 @@
         <f t="shared" si="16"/>
         <v>43845</v>
       </c>
-      <c r="C185" s="94" t="s">
+      <c r="C185" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="D185" s="95"/>
-      <c r="E185" s="95"/>
-      <c r="F185" s="95"/>
-      <c r="G185" s="95"/>
-      <c r="H185" s="95"/>
-      <c r="I185" s="95"/>
-      <c r="J185" s="95"/>
-      <c r="K185" s="95"/>
-      <c r="L185" s="95"/>
-      <c r="M185" s="95"/>
-      <c r="N185" s="95"/>
-      <c r="O185" s="95"/>
-      <c r="P185" s="96"/>
+      <c r="D185" s="110"/>
+      <c r="E185" s="110"/>
+      <c r="F185" s="110"/>
+      <c r="G185" s="110"/>
+      <c r="H185" s="110"/>
+      <c r="I185" s="110"/>
+      <c r="J185" s="110"/>
+      <c r="K185" s="110"/>
+      <c r="L185" s="110"/>
+      <c r="M185" s="110"/>
+      <c r="N185" s="110"/>
+      <c r="O185" s="110"/>
+      <c r="P185" s="111"/>
       <c r="Q185" s="49"/>
       <c r="R185" s="49"/>
       <c r="S185" s="51"/>
@@ -7672,24 +7678,24 @@
         <f t="shared" si="16"/>
         <v>43846</v>
       </c>
-      <c r="C186" s="85" t="s">
+      <c r="C186" s="134" t="s">
         <v>90</v>
       </c>
-      <c r="D186" s="86"/>
-      <c r="E186" s="86"/>
-      <c r="F186" s="86"/>
-      <c r="G186" s="86"/>
-      <c r="H186" s="86"/>
-      <c r="I186" s="86"/>
-      <c r="J186" s="86"/>
-      <c r="K186" s="86"/>
-      <c r="L186" s="86"/>
-      <c r="M186" s="86"/>
-      <c r="N186" s="86"/>
-      <c r="O186" s="86"/>
-      <c r="P186" s="86"/>
-      <c r="Q186" s="86"/>
-      <c r="R186" s="87"/>
+      <c r="D186" s="135"/>
+      <c r="E186" s="135"/>
+      <c r="F186" s="135"/>
+      <c r="G186" s="135"/>
+      <c r="H186" s="135"/>
+      <c r="I186" s="135"/>
+      <c r="J186" s="135"/>
+      <c r="K186" s="135"/>
+      <c r="L186" s="135"/>
+      <c r="M186" s="135"/>
+      <c r="N186" s="135"/>
+      <c r="O186" s="135"/>
+      <c r="P186" s="135"/>
+      <c r="Q186" s="135"/>
+      <c r="R186" s="136"/>
       <c r="S186" s="51"/>
       <c r="T186" s="18" t="s">
         <v>21</v>
@@ -7703,22 +7709,22 @@
         <f t="shared" si="16"/>
         <v>43847</v>
       </c>
-      <c r="C187" s="88"/>
-      <c r="D187" s="89"/>
-      <c r="E187" s="89"/>
-      <c r="F187" s="89"/>
-      <c r="G187" s="89"/>
-      <c r="H187" s="89"/>
-      <c r="I187" s="89"/>
-      <c r="J187" s="89"/>
-      <c r="K187" s="89"/>
-      <c r="L187" s="89"/>
-      <c r="M187" s="89"/>
-      <c r="N187" s="89"/>
-      <c r="O187" s="89"/>
-      <c r="P187" s="89"/>
-      <c r="Q187" s="89"/>
-      <c r="R187" s="90"/>
+      <c r="C187" s="137"/>
+      <c r="D187" s="138"/>
+      <c r="E187" s="138"/>
+      <c r="F187" s="138"/>
+      <c r="G187" s="138"/>
+      <c r="H187" s="138"/>
+      <c r="I187" s="138"/>
+      <c r="J187" s="138"/>
+      <c r="K187" s="138"/>
+      <c r="L187" s="138"/>
+      <c r="M187" s="138"/>
+      <c r="N187" s="138"/>
+      <c r="O187" s="138"/>
+      <c r="P187" s="138"/>
+      <c r="Q187" s="138"/>
+      <c r="R187" s="139"/>
       <c r="S187" s="51"/>
       <c r="T187" s="51"/>
     </row>
@@ -7730,22 +7736,22 @@
         <f t="shared" si="16"/>
         <v>43848</v>
       </c>
-      <c r="C188" s="88"/>
-      <c r="D188" s="89"/>
-      <c r="E188" s="89"/>
-      <c r="F188" s="89"/>
-      <c r="G188" s="89"/>
-      <c r="H188" s="89"/>
-      <c r="I188" s="89"/>
-      <c r="J188" s="89"/>
-      <c r="K188" s="89"/>
-      <c r="L188" s="89"/>
-      <c r="M188" s="89"/>
-      <c r="N188" s="89"/>
-      <c r="O188" s="89"/>
-      <c r="P188" s="89"/>
-      <c r="Q188" s="89"/>
-      <c r="R188" s="90"/>
+      <c r="C188" s="137"/>
+      <c r="D188" s="138"/>
+      <c r="E188" s="138"/>
+      <c r="F188" s="138"/>
+      <c r="G188" s="138"/>
+      <c r="H188" s="138"/>
+      <c r="I188" s="138"/>
+      <c r="J188" s="138"/>
+      <c r="K188" s="138"/>
+      <c r="L188" s="138"/>
+      <c r="M188" s="138"/>
+      <c r="N188" s="138"/>
+      <c r="O188" s="138"/>
+      <c r="P188" s="138"/>
+      <c r="Q188" s="138"/>
+      <c r="R188" s="139"/>
       <c r="S188" s="51"/>
       <c r="T188" s="51"/>
     </row>
@@ -7757,22 +7763,22 @@
         <f t="shared" si="16"/>
         <v>43849</v>
       </c>
-      <c r="C189" s="91"/>
-      <c r="D189" s="92"/>
-      <c r="E189" s="92"/>
-      <c r="F189" s="92"/>
-      <c r="G189" s="92"/>
-      <c r="H189" s="92"/>
-      <c r="I189" s="92"/>
-      <c r="J189" s="92"/>
-      <c r="K189" s="92"/>
-      <c r="L189" s="92"/>
-      <c r="M189" s="92"/>
-      <c r="N189" s="92"/>
-      <c r="O189" s="92"/>
-      <c r="P189" s="92"/>
-      <c r="Q189" s="92"/>
-      <c r="R189" s="93"/>
+      <c r="C189" s="140"/>
+      <c r="D189" s="141"/>
+      <c r="E189" s="141"/>
+      <c r="F189" s="141"/>
+      <c r="G189" s="141"/>
+      <c r="H189" s="141"/>
+      <c r="I189" s="141"/>
+      <c r="J189" s="141"/>
+      <c r="K189" s="141"/>
+      <c r="L189" s="141"/>
+      <c r="M189" s="141"/>
+      <c r="N189" s="141"/>
+      <c r="O189" s="141"/>
+      <c r="P189" s="141"/>
+      <c r="Q189" s="141"/>
+      <c r="R189" s="142"/>
       <c r="S189" s="51"/>
       <c r="T189" s="51"/>
     </row>
@@ -7893,20 +7899,20 @@
         <f>B183+7</f>
         <v>43850</v>
       </c>
-      <c r="C193" s="83" t="s">
+      <c r="C193" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D193" s="83"/>
-      <c r="E193" s="83"/>
-      <c r="F193" s="83"/>
+      <c r="D193" s="82"/>
+      <c r="E193" s="82"/>
+      <c r="F193" s="82"/>
       <c r="G193" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="H193" s="83" t="s">
+      <c r="H193" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="I193" s="83"/>
-      <c r="J193" s="83"/>
+      <c r="I193" s="82"/>
+      <c r="J193" s="82"/>
       <c r="K193" s="49"/>
       <c r="L193" s="49"/>
       <c r="M193" s="49"/>
@@ -7961,22 +7967,22 @@
       <c r="D195" s="20"/>
       <c r="E195" s="20"/>
       <c r="F195" s="20"/>
-      <c r="G195" s="112" t="s">
+      <c r="G195" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="H195" s="113"/>
-      <c r="I195" s="113"/>
-      <c r="J195" s="114"/>
-      <c r="K195" s="83" t="s">
+      <c r="H195" s="84"/>
+      <c r="I195" s="84"/>
+      <c r="J195" s="85"/>
+      <c r="K195" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="L195" s="83"/>
-      <c r="M195" s="112" t="s">
+      <c r="L195" s="82"/>
+      <c r="M195" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="N195" s="113"/>
-      <c r="O195" s="113"/>
-      <c r="P195" s="114"/>
+      <c r="N195" s="84"/>
+      <c r="O195" s="84"/>
+      <c r="P195" s="85"/>
       <c r="Q195" s="49"/>
       <c r="R195" s="49"/>
       <c r="S195" s="51"/>
@@ -8025,12 +8031,12 @@
       <c r="D197" s="20"/>
       <c r="E197" s="20"/>
       <c r="F197" s="20"/>
-      <c r="G197" s="112" t="s">
+      <c r="G197" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="H197" s="113"/>
-      <c r="I197" s="113"/>
-      <c r="J197" s="114"/>
+      <c r="H197" s="84"/>
+      <c r="I197" s="84"/>
+      <c r="J197" s="85"/>
       <c r="K197" s="49"/>
       <c r="L197" s="49"/>
       <c r="M197" s="20"/>
@@ -8214,20 +8220,20 @@
         <f>B193+7</f>
         <v>43857</v>
       </c>
-      <c r="C203" s="123" t="s">
+      <c r="C203" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="D203" s="124"/>
-      <c r="E203" s="124"/>
-      <c r="F203" s="152"/>
-      <c r="G203" s="112" t="s">
+      <c r="D203" s="115"/>
+      <c r="E203" s="115"/>
+      <c r="F203" s="148"/>
+      <c r="G203" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="H203" s="113"/>
-      <c r="I203" s="113"/>
-      <c r="J203" s="113"/>
-      <c r="K203" s="113"/>
-      <c r="L203" s="114"/>
+      <c r="H203" s="84"/>
+      <c r="I203" s="84"/>
+      <c r="J203" s="84"/>
+      <c r="K203" s="84"/>
+      <c r="L203" s="85"/>
       <c r="M203" s="49"/>
       <c r="N203" s="49"/>
       <c r="O203" s="49"/>
@@ -8280,12 +8286,12 @@
       <c r="D205" s="20"/>
       <c r="E205" s="20"/>
       <c r="F205" s="20"/>
-      <c r="G205" s="112" t="s">
+      <c r="G205" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="H205" s="113"/>
-      <c r="I205" s="113"/>
-      <c r="J205" s="114"/>
+      <c r="H205" s="84"/>
+      <c r="I205" s="84"/>
+      <c r="J205" s="85"/>
       <c r="K205" s="49"/>
       <c r="L205" s="49"/>
       <c r="M205" s="49"/>
@@ -8340,12 +8346,12 @@
       <c r="D207" s="20"/>
       <c r="E207" s="20"/>
       <c r="F207" s="20"/>
-      <c r="G207" s="77" t="s">
+      <c r="G207" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="H207" s="78"/>
-      <c r="I207" s="78"/>
-      <c r="J207" s="79"/>
+      <c r="H207" s="77"/>
+      <c r="I207" s="77"/>
+      <c r="J207" s="78"/>
       <c r="K207" s="49"/>
       <c r="L207" s="49"/>
       <c r="M207" s="20"/>
@@ -8530,21 +8536,23 @@
         <f>B203+7</f>
         <v>43864</v>
       </c>
-      <c r="C213" s="80" t="s">
+      <c r="C213" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="D213" s="81"/>
-      <c r="E213" s="81"/>
-      <c r="F213" s="82"/>
-      <c r="G213" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="H213" s="78"/>
-      <c r="I213" s="78"/>
-      <c r="J213" s="78"/>
-      <c r="K213" s="78"/>
-      <c r="L213" s="79"/>
-      <c r="M213" s="49"/>
+      <c r="D213" s="115"/>
+      <c r="E213" s="115"/>
+      <c r="F213" s="148"/>
+      <c r="G213" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="H213" s="84"/>
+      <c r="I213" s="84"/>
+      <c r="J213" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="K213" s="92"/>
+      <c r="L213" s="92"/>
+      <c r="M213" s="93"/>
       <c r="N213" s="49"/>
       <c r="O213" s="49"/>
       <c r="P213" s="49"/>
@@ -8596,12 +8604,12 @@
       <c r="D215" s="20"/>
       <c r="E215" s="20"/>
       <c r="F215" s="20"/>
-      <c r="G215" s="77" t="s">
+      <c r="G215" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="H215" s="78"/>
-      <c r="I215" s="78"/>
-      <c r="J215" s="79"/>
+      <c r="H215" s="77"/>
+      <c r="I215" s="77"/>
+      <c r="J215" s="78"/>
       <c r="K215" s="49"/>
       <c r="L215" s="49"/>
       <c r="M215" s="49"/>
@@ -8656,12 +8664,12 @@
       <c r="D217" s="20"/>
       <c r="E217" s="20"/>
       <c r="F217" s="20"/>
-      <c r="G217" s="77" t="s">
+      <c r="G217" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="H217" s="78"/>
-      <c r="I217" s="78"/>
-      <c r="J217" s="79"/>
+      <c r="H217" s="77"/>
+      <c r="I217" s="77"/>
+      <c r="J217" s="78"/>
       <c r="K217" s="49"/>
       <c r="L217" s="49"/>
       <c r="M217" s="20"/>
@@ -8846,20 +8854,20 @@
         <f>B213+7</f>
         <v>43871</v>
       </c>
-      <c r="C223" s="80" t="s">
+      <c r="C223" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D223" s="81"/>
-      <c r="E223" s="81"/>
-      <c r="F223" s="82"/>
-      <c r="G223" s="77" t="s">
+      <c r="D223" s="80"/>
+      <c r="E223" s="80"/>
+      <c r="F223" s="81"/>
+      <c r="G223" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="H223" s="78"/>
-      <c r="I223" s="78"/>
-      <c r="J223" s="78"/>
-      <c r="K223" s="78"/>
-      <c r="L223" s="79"/>
+      <c r="H223" s="77"/>
+      <c r="I223" s="77"/>
+      <c r="J223" s="77"/>
+      <c r="K223" s="77"/>
+      <c r="L223" s="78"/>
       <c r="M223" s="49"/>
       <c r="N223" s="49"/>
       <c r="O223" s="49"/>
@@ -8912,12 +8920,12 @@
       <c r="D225" s="20"/>
       <c r="E225" s="20"/>
       <c r="F225" s="20"/>
-      <c r="G225" s="77" t="s">
+      <c r="G225" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="H225" s="78"/>
-      <c r="I225" s="78"/>
-      <c r="J225" s="79"/>
+      <c r="H225" s="77"/>
+      <c r="I225" s="77"/>
+      <c r="J225" s="78"/>
       <c r="K225" s="49"/>
       <c r="L225" s="49"/>
       <c r="M225" s="49"/>
@@ -8972,12 +8980,12 @@
       <c r="D227" s="20"/>
       <c r="E227" s="20"/>
       <c r="F227" s="20"/>
-      <c r="G227" s="77" t="s">
+      <c r="G227" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="H227" s="78"/>
-      <c r="I227" s="78"/>
-      <c r="J227" s="79"/>
+      <c r="H227" s="77"/>
+      <c r="I227" s="77"/>
+      <c r="J227" s="78"/>
       <c r="K227" s="49"/>
       <c r="L227" s="49"/>
       <c r="M227" s="20"/>
@@ -9162,20 +9170,20 @@
         <f>B223+7</f>
         <v>43878</v>
       </c>
-      <c r="C233" s="80" t="s">
+      <c r="C233" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D233" s="81"/>
-      <c r="E233" s="81"/>
-      <c r="F233" s="82"/>
-      <c r="G233" s="77" t="s">
+      <c r="D233" s="80"/>
+      <c r="E233" s="80"/>
+      <c r="F233" s="81"/>
+      <c r="G233" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="H233" s="78"/>
-      <c r="I233" s="78"/>
-      <c r="J233" s="78"/>
-      <c r="K233" s="78"/>
-      <c r="L233" s="79"/>
+      <c r="H233" s="77"/>
+      <c r="I233" s="77"/>
+      <c r="J233" s="77"/>
+      <c r="K233" s="77"/>
+      <c r="L233" s="78"/>
       <c r="M233" s="49"/>
       <c r="N233" s="49"/>
       <c r="O233" s="49"/>
@@ -9228,12 +9236,12 @@
       <c r="D235" s="20"/>
       <c r="E235" s="20"/>
       <c r="F235" s="20"/>
-      <c r="G235" s="77" t="s">
+      <c r="G235" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="H235" s="78"/>
-      <c r="I235" s="78"/>
-      <c r="J235" s="79"/>
+      <c r="H235" s="77"/>
+      <c r="I235" s="77"/>
+      <c r="J235" s="78"/>
       <c r="K235" s="49"/>
       <c r="L235" s="49"/>
       <c r="M235" s="49"/>
@@ -9288,12 +9296,12 @@
       <c r="D237" s="20"/>
       <c r="E237" s="20"/>
       <c r="F237" s="20"/>
-      <c r="G237" s="77" t="s">
+      <c r="G237" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="H237" s="78"/>
-      <c r="I237" s="78"/>
-      <c r="J237" s="79"/>
+      <c r="H237" s="77"/>
+      <c r="I237" s="77"/>
+      <c r="J237" s="78"/>
       <c r="K237" s="49"/>
       <c r="L237" s="49"/>
       <c r="M237" s="20"/>
@@ -9453,12 +9461,12 @@
         <f>D232+1</f>
         <v>24</v>
       </c>
-      <c r="E242" s="76" t="s">
+      <c r="E242" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="F242" s="76"/>
-      <c r="G242" s="76"/>
-      <c r="H242" s="76"/>
+      <c r="F242" s="147"/>
+      <c r="G242" s="147"/>
+      <c r="H242" s="147"/>
       <c r="I242" s="15"/>
       <c r="J242" s="15"/>
       <c r="K242" s="19"/>
@@ -9480,20 +9488,20 @@
         <f>B233+7</f>
         <v>43885</v>
       </c>
-      <c r="C243" s="80" t="s">
+      <c r="C243" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D243" s="81"/>
-      <c r="E243" s="81"/>
-      <c r="F243" s="82"/>
-      <c r="G243" s="77" t="s">
+      <c r="D243" s="80"/>
+      <c r="E243" s="80"/>
+      <c r="F243" s="81"/>
+      <c r="G243" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="H243" s="78"/>
-      <c r="I243" s="78"/>
-      <c r="J243" s="78"/>
-      <c r="K243" s="78"/>
-      <c r="L243" s="79"/>
+      <c r="H243" s="77"/>
+      <c r="I243" s="77"/>
+      <c r="J243" s="77"/>
+      <c r="K243" s="77"/>
+      <c r="L243" s="78"/>
       <c r="M243" s="49"/>
       <c r="N243" s="49"/>
       <c r="O243" s="49"/>
@@ -9546,12 +9554,12 @@
       <c r="D245" s="20"/>
       <c r="E245" s="20"/>
       <c r="F245" s="20"/>
-      <c r="G245" s="77" t="s">
+      <c r="G245" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="H245" s="78"/>
-      <c r="I245" s="78"/>
-      <c r="J245" s="79"/>
+      <c r="H245" s="77"/>
+      <c r="I245" s="77"/>
+      <c r="J245" s="78"/>
       <c r="K245" s="49"/>
       <c r="L245" s="49"/>
       <c r="M245" s="49"/>
@@ -9606,12 +9614,12 @@
       <c r="D247" s="20"/>
       <c r="E247" s="20"/>
       <c r="F247" s="20"/>
-      <c r="G247" s="77" t="s">
+      <c r="G247" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="H247" s="78"/>
-      <c r="I247" s="78"/>
-      <c r="J247" s="79"/>
+      <c r="H247" s="77"/>
+      <c r="I247" s="77"/>
+      <c r="J247" s="78"/>
       <c r="K247" s="49"/>
       <c r="L247" s="49"/>
       <c r="M247" s="20"/>
@@ -9796,20 +9804,20 @@
         <f>B243+7</f>
         <v>43892</v>
       </c>
-      <c r="C253" s="80" t="s">
+      <c r="C253" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D253" s="81"/>
-      <c r="E253" s="81"/>
-      <c r="F253" s="82"/>
-      <c r="G253" s="77" t="s">
+      <c r="D253" s="80"/>
+      <c r="E253" s="80"/>
+      <c r="F253" s="81"/>
+      <c r="G253" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="H253" s="78"/>
-      <c r="I253" s="78"/>
-      <c r="J253" s="78"/>
-      <c r="K253" s="78"/>
-      <c r="L253" s="79"/>
+      <c r="H253" s="77"/>
+      <c r="I253" s="77"/>
+      <c r="J253" s="77"/>
+      <c r="K253" s="77"/>
+      <c r="L253" s="78"/>
       <c r="M253" s="49"/>
       <c r="N253" s="49"/>
       <c r="O253" s="49"/>
@@ -9862,12 +9870,12 @@
       <c r="D255" s="20"/>
       <c r="E255" s="20"/>
       <c r="F255" s="20"/>
-      <c r="G255" s="77" t="s">
+      <c r="G255" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="H255" s="78"/>
-      <c r="I255" s="78"/>
-      <c r="J255" s="79"/>
+      <c r="H255" s="77"/>
+      <c r="I255" s="77"/>
+      <c r="J255" s="78"/>
       <c r="K255" s="49"/>
       <c r="L255" s="49"/>
       <c r="M255" s="49"/>
@@ -9922,12 +9930,12 @@
       <c r="D257" s="20"/>
       <c r="E257" s="20"/>
       <c r="F257" s="20"/>
-      <c r="G257" s="77" t="s">
+      <c r="G257" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="H257" s="78"/>
-      <c r="I257" s="78"/>
-      <c r="J257" s="79"/>
+      <c r="H257" s="77"/>
+      <c r="I257" s="77"/>
+      <c r="J257" s="78"/>
       <c r="K257" s="49"/>
       <c r="L257" s="49"/>
       <c r="M257" s="20"/>
@@ -10112,20 +10120,20 @@
         <f>B253+7</f>
         <v>43899</v>
       </c>
-      <c r="C263" s="80" t="s">
+      <c r="C263" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D263" s="81"/>
-      <c r="E263" s="81"/>
-      <c r="F263" s="82"/>
-      <c r="G263" s="77" t="s">
+      <c r="D263" s="80"/>
+      <c r="E263" s="80"/>
+      <c r="F263" s="81"/>
+      <c r="G263" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="H263" s="78"/>
-      <c r="I263" s="78"/>
-      <c r="J263" s="78"/>
-      <c r="K263" s="78"/>
-      <c r="L263" s="79"/>
+      <c r="H263" s="77"/>
+      <c r="I263" s="77"/>
+      <c r="J263" s="77"/>
+      <c r="K263" s="77"/>
+      <c r="L263" s="78"/>
       <c r="M263" s="49"/>
       <c r="N263" s="49"/>
       <c r="O263" s="49"/>
@@ -10178,12 +10186,12 @@
       <c r="D265" s="20"/>
       <c r="E265" s="20"/>
       <c r="F265" s="20"/>
-      <c r="G265" s="77" t="s">
+      <c r="G265" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="H265" s="78"/>
-      <c r="I265" s="78"/>
-      <c r="J265" s="79"/>
+      <c r="H265" s="77"/>
+      <c r="I265" s="77"/>
+      <c r="J265" s="78"/>
       <c r="K265" s="49"/>
       <c r="L265" s="49"/>
       <c r="M265" s="49"/>
@@ -10238,12 +10246,12 @@
       <c r="D267" s="20"/>
       <c r="E267" s="20"/>
       <c r="F267" s="20"/>
-      <c r="G267" s="77" t="s">
+      <c r="G267" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="H267" s="78"/>
-      <c r="I267" s="78"/>
-      <c r="J267" s="79"/>
+      <c r="H267" s="77"/>
+      <c r="I267" s="77"/>
+      <c r="J267" s="78"/>
       <c r="K267" s="49"/>
       <c r="L267" s="49"/>
       <c r="M267" s="20"/>
@@ -10413,12 +10421,12 @@
       <c r="L272" s="19"/>
       <c r="M272" s="19"/>
       <c r="N272" s="19"/>
-      <c r="O272" s="147" t="s">
+      <c r="O272" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="P272" s="147"/>
-      <c r="Q272" s="147"/>
-      <c r="R272" s="147"/>
+      <c r="P272" s="75"/>
+      <c r="Q272" s="75"/>
+      <c r="R272" s="75"/>
       <c r="S272" s="51"/>
       <c r="T272" s="51"/>
     </row>
@@ -10738,20 +10746,20 @@
         <f>B273+7</f>
         <v>43913</v>
       </c>
-      <c r="C283" s="80" t="s">
+      <c r="C283" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D283" s="81"/>
-      <c r="E283" s="81"/>
-      <c r="F283" s="82"/>
-      <c r="G283" s="77" t="s">
+      <c r="D283" s="80"/>
+      <c r="E283" s="80"/>
+      <c r="F283" s="81"/>
+      <c r="G283" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="H283" s="78"/>
-      <c r="I283" s="78"/>
-      <c r="J283" s="78"/>
-      <c r="K283" s="78"/>
-      <c r="L283" s="79"/>
+      <c r="H283" s="77"/>
+      <c r="I283" s="77"/>
+      <c r="J283" s="77"/>
+      <c r="K283" s="77"/>
+      <c r="L283" s="78"/>
       <c r="M283" s="49"/>
       <c r="N283" s="49"/>
       <c r="O283" s="49"/>
@@ -10804,12 +10812,12 @@
       <c r="D285" s="20"/>
       <c r="E285" s="20"/>
       <c r="F285" s="20"/>
-      <c r="G285" s="77" t="s">
+      <c r="G285" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="H285" s="78"/>
-      <c r="I285" s="78"/>
-      <c r="J285" s="79"/>
+      <c r="H285" s="77"/>
+      <c r="I285" s="77"/>
+      <c r="J285" s="78"/>
       <c r="K285" s="49"/>
       <c r="L285" s="49"/>
       <c r="M285" s="49"/>
@@ -10864,12 +10872,12 @@
       <c r="D287" s="20"/>
       <c r="E287" s="20"/>
       <c r="F287" s="20"/>
-      <c r="G287" s="77" t="s">
+      <c r="G287" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="H287" s="78"/>
-      <c r="I287" s="78"/>
-      <c r="J287" s="79"/>
+      <c r="H287" s="77"/>
+      <c r="I287" s="77"/>
+      <c r="J287" s="78"/>
       <c r="K287" s="49"/>
       <c r="L287" s="49"/>
       <c r="M287" s="20"/>
@@ -11029,12 +11037,12 @@
         <f>D282+1</f>
         <v>29</v>
       </c>
-      <c r="E292" s="76" t="s">
+      <c r="E292" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="F292" s="76"/>
-      <c r="G292" s="76"/>
-      <c r="H292" s="76"/>
+      <c r="F292" s="147"/>
+      <c r="G292" s="147"/>
+      <c r="H292" s="147"/>
       <c r="I292" s="15"/>
       <c r="J292" s="15"/>
       <c r="K292" s="19"/>
@@ -11056,20 +11064,20 @@
         <f>B283+7</f>
         <v>43920</v>
       </c>
-      <c r="C293" s="80" t="s">
+      <c r="C293" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D293" s="81"/>
-      <c r="E293" s="81"/>
-      <c r="F293" s="82"/>
-      <c r="G293" s="77" t="s">
+      <c r="D293" s="80"/>
+      <c r="E293" s="80"/>
+      <c r="F293" s="81"/>
+      <c r="G293" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="H293" s="78"/>
-      <c r="I293" s="78"/>
-      <c r="J293" s="78"/>
-      <c r="K293" s="78"/>
-      <c r="L293" s="79"/>
+      <c r="H293" s="77"/>
+      <c r="I293" s="77"/>
+      <c r="J293" s="77"/>
+      <c r="K293" s="77"/>
+      <c r="L293" s="78"/>
       <c r="M293" s="49"/>
       <c r="N293" s="49"/>
       <c r="O293" s="49"/>
@@ -11122,12 +11130,12 @@
       <c r="D295" s="20"/>
       <c r="E295" s="20"/>
       <c r="F295" s="20"/>
-      <c r="G295" s="77" t="s">
+      <c r="G295" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="H295" s="78"/>
-      <c r="I295" s="78"/>
-      <c r="J295" s="79"/>
+      <c r="H295" s="77"/>
+      <c r="I295" s="77"/>
+      <c r="J295" s="78"/>
       <c r="K295" s="49"/>
       <c r="L295" s="49"/>
       <c r="M295" s="49"/>
@@ -11182,12 +11190,12 @@
       <c r="D297" s="20"/>
       <c r="E297" s="20"/>
       <c r="F297" s="20"/>
-      <c r="G297" s="77" t="s">
+      <c r="G297" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="H297" s="78"/>
-      <c r="I297" s="78"/>
-      <c r="J297" s="79"/>
+      <c r="H297" s="77"/>
+      <c r="I297" s="77"/>
+      <c r="J297" s="78"/>
       <c r="K297" s="49"/>
       <c r="L297" s="49"/>
       <c r="M297" s="20"/>
@@ -16406,33 +16414,150 @@
       <c r="T507"/>
     </row>
   </sheetData>
-  <mergeCells count="193">
-    <mergeCell ref="O272:R272"/>
-    <mergeCell ref="G285:J285"/>
-    <mergeCell ref="G287:J287"/>
-    <mergeCell ref="G295:J295"/>
-    <mergeCell ref="G297:J297"/>
-    <mergeCell ref="C293:F293"/>
-    <mergeCell ref="G293:L293"/>
-    <mergeCell ref="G225:J225"/>
-    <mergeCell ref="G227:J227"/>
-    <mergeCell ref="G257:J257"/>
-    <mergeCell ref="G265:J265"/>
-    <mergeCell ref="G267:J267"/>
-    <mergeCell ref="G235:J235"/>
-    <mergeCell ref="G237:J237"/>
-    <mergeCell ref="G245:J245"/>
-    <mergeCell ref="G247:J247"/>
-    <mergeCell ref="G255:J255"/>
-    <mergeCell ref="H193:J193"/>
-    <mergeCell ref="G195:J195"/>
-    <mergeCell ref="G197:J197"/>
-    <mergeCell ref="G205:J205"/>
-    <mergeCell ref="G207:J207"/>
-    <mergeCell ref="F143:P143"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="G215:J215"/>
-    <mergeCell ref="G217:J217"/>
+  <mergeCells count="194">
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="E242:H242"/>
+    <mergeCell ref="E292:H292"/>
+    <mergeCell ref="K195:L195"/>
+    <mergeCell ref="M195:P195"/>
+    <mergeCell ref="G203:L203"/>
+    <mergeCell ref="C203:F203"/>
+    <mergeCell ref="C213:F213"/>
+    <mergeCell ref="C223:F223"/>
+    <mergeCell ref="G223:L223"/>
+    <mergeCell ref="C233:F233"/>
+    <mergeCell ref="G233:L233"/>
+    <mergeCell ref="C243:F243"/>
+    <mergeCell ref="G243:L243"/>
+    <mergeCell ref="C253:F253"/>
+    <mergeCell ref="G253:L253"/>
+    <mergeCell ref="C263:F263"/>
+    <mergeCell ref="G263:L263"/>
+    <mergeCell ref="C283:F283"/>
+    <mergeCell ref="G283:L283"/>
+    <mergeCell ref="M135:P135"/>
+    <mergeCell ref="C193:F193"/>
+    <mergeCell ref="G213:I213"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H136:P136"/>
+    <mergeCell ref="K134:O134"/>
+    <mergeCell ref="C186:R189"/>
+    <mergeCell ref="C144:P144"/>
+    <mergeCell ref="C146:L146"/>
+    <mergeCell ref="H133:P133"/>
+    <mergeCell ref="C183:P183"/>
+    <mergeCell ref="C184:P184"/>
+    <mergeCell ref="C185:P185"/>
+    <mergeCell ref="C166:P166"/>
+    <mergeCell ref="C167:P167"/>
+    <mergeCell ref="C168:P168"/>
+    <mergeCell ref="C173:P173"/>
+    <mergeCell ref="C174:P174"/>
+    <mergeCell ref="C175:P175"/>
+    <mergeCell ref="C176:P176"/>
+    <mergeCell ref="C177:P177"/>
+    <mergeCell ref="C178:P178"/>
+    <mergeCell ref="C145:P145"/>
+    <mergeCell ref="C153:P153"/>
+    <mergeCell ref="C154:P154"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="E78:J78"/>
+    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="M125:P125"/>
+    <mergeCell ref="C79:R79"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H83:P83"/>
+    <mergeCell ref="C107:M107"/>
+    <mergeCell ref="J84:R84"/>
+    <mergeCell ref="E85:M85"/>
+    <mergeCell ref="H93:P93"/>
+    <mergeCell ref="H94:P94"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H96:L96"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="H124:P124"/>
+    <mergeCell ref="C125:K125"/>
+    <mergeCell ref="H113:M113"/>
+    <mergeCell ref="C109:R109"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="J116:N116"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="T58:U60"/>
+    <mergeCell ref="H123:P123"/>
+    <mergeCell ref="H103:P103"/>
+    <mergeCell ref="H104:P104"/>
+    <mergeCell ref="I115:R115"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="H64:N64"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="C69:R69"/>
+    <mergeCell ref="L74:Q74"/>
+    <mergeCell ref="L77:Q77"/>
+    <mergeCell ref="L78:Q78"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="J58:P58"/>
+    <mergeCell ref="E74:J74"/>
+    <mergeCell ref="E73:J73"/>
+    <mergeCell ref="L73:Q73"/>
+    <mergeCell ref="C76:R76"/>
+    <mergeCell ref="H54:P54"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="H126:P126"/>
+    <mergeCell ref="C155:R159"/>
+    <mergeCell ref="C163:R165"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H142:L142"/>
+    <mergeCell ref="C105:M105"/>
+    <mergeCell ref="H106:P106"/>
+    <mergeCell ref="C119:R119"/>
+    <mergeCell ref="C129:R129"/>
+    <mergeCell ref="C139:R139"/>
+    <mergeCell ref="C89:R89"/>
+    <mergeCell ref="C99:R99"/>
+    <mergeCell ref="H114:M114"/>
+    <mergeCell ref="C135:K135"/>
+    <mergeCell ref="H13:R13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="H45:P45"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H43:P43"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="H33:P33"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H23:R23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="O24:P24"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="H46:P46"/>
     <mergeCell ref="H44:N44"/>
@@ -16457,149 +16582,33 @@
     <mergeCell ref="H66:Q66"/>
     <mergeCell ref="P57:R57"/>
     <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="H13:R13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="H45:P45"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H43:P43"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="H33:P33"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H23:R23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="H54:P54"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="H126:P126"/>
-    <mergeCell ref="C155:R159"/>
-    <mergeCell ref="C163:R165"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="C136:G136"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="C124:G124"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="C126:G126"/>
-    <mergeCell ref="H142:L142"/>
-    <mergeCell ref="C105:M105"/>
-    <mergeCell ref="H106:P106"/>
-    <mergeCell ref="C119:R119"/>
-    <mergeCell ref="C129:R129"/>
-    <mergeCell ref="C139:R139"/>
-    <mergeCell ref="C89:R89"/>
-    <mergeCell ref="C99:R99"/>
-    <mergeCell ref="H114:M114"/>
-    <mergeCell ref="C135:K135"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="J116:N116"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="T58:U60"/>
-    <mergeCell ref="H123:P123"/>
-    <mergeCell ref="H103:P103"/>
-    <mergeCell ref="H104:P104"/>
-    <mergeCell ref="I115:R115"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="H64:N64"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="C69:R69"/>
-    <mergeCell ref="L74:Q74"/>
-    <mergeCell ref="L77:Q77"/>
-    <mergeCell ref="L78:Q78"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="J58:P58"/>
-    <mergeCell ref="E74:J74"/>
-    <mergeCell ref="E73:J73"/>
-    <mergeCell ref="L73:Q73"/>
-    <mergeCell ref="C76:R76"/>
-    <mergeCell ref="E78:J78"/>
-    <mergeCell ref="E75:J75"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="M125:P125"/>
-    <mergeCell ref="C79:R79"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="H83:P83"/>
-    <mergeCell ref="C107:M107"/>
-    <mergeCell ref="J84:R84"/>
-    <mergeCell ref="E85:M85"/>
-    <mergeCell ref="H93:P93"/>
-    <mergeCell ref="H94:P94"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="H96:L96"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="H124:P124"/>
-    <mergeCell ref="C125:K125"/>
-    <mergeCell ref="H113:M113"/>
-    <mergeCell ref="C109:R109"/>
-    <mergeCell ref="C103:G103"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="H136:P136"/>
-    <mergeCell ref="K134:O134"/>
-    <mergeCell ref="C186:R189"/>
-    <mergeCell ref="C144:P144"/>
-    <mergeCell ref="C146:L146"/>
-    <mergeCell ref="H133:P133"/>
-    <mergeCell ref="C183:P183"/>
-    <mergeCell ref="C184:P184"/>
-    <mergeCell ref="C185:P185"/>
-    <mergeCell ref="C166:P166"/>
-    <mergeCell ref="C167:P167"/>
-    <mergeCell ref="C168:P168"/>
-    <mergeCell ref="C173:P173"/>
-    <mergeCell ref="C174:P174"/>
-    <mergeCell ref="C175:P175"/>
-    <mergeCell ref="C176:P176"/>
-    <mergeCell ref="C177:P177"/>
-    <mergeCell ref="C178:P178"/>
-    <mergeCell ref="C145:P145"/>
-    <mergeCell ref="C153:P153"/>
-    <mergeCell ref="C154:P154"/>
-    <mergeCell ref="C134:G134"/>
-    <mergeCell ref="C133:G133"/>
-    <mergeCell ref="E242:H242"/>
-    <mergeCell ref="E292:H292"/>
-    <mergeCell ref="K195:L195"/>
-    <mergeCell ref="M195:P195"/>
-    <mergeCell ref="G203:L203"/>
-    <mergeCell ref="C203:F203"/>
-    <mergeCell ref="C213:F213"/>
-    <mergeCell ref="G213:L213"/>
-    <mergeCell ref="C223:F223"/>
-    <mergeCell ref="G223:L223"/>
-    <mergeCell ref="C233:F233"/>
-    <mergeCell ref="G233:L233"/>
-    <mergeCell ref="C243:F243"/>
-    <mergeCell ref="G243:L243"/>
-    <mergeCell ref="C253:F253"/>
-    <mergeCell ref="G253:L253"/>
-    <mergeCell ref="C263:F263"/>
-    <mergeCell ref="G263:L263"/>
-    <mergeCell ref="C283:F283"/>
-    <mergeCell ref="G283:L283"/>
-    <mergeCell ref="M135:P135"/>
-    <mergeCell ref="C193:F193"/>
+    <mergeCell ref="H193:J193"/>
+    <mergeCell ref="G195:J195"/>
+    <mergeCell ref="G197:J197"/>
+    <mergeCell ref="G205:J205"/>
+    <mergeCell ref="G207:J207"/>
+    <mergeCell ref="F143:P143"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="G215:J215"/>
+    <mergeCell ref="G217:J217"/>
+    <mergeCell ref="J213:M213"/>
+    <mergeCell ref="O272:R272"/>
+    <mergeCell ref="G285:J285"/>
+    <mergeCell ref="G287:J287"/>
+    <mergeCell ref="G295:J295"/>
+    <mergeCell ref="G297:J297"/>
+    <mergeCell ref="C293:F293"/>
+    <mergeCell ref="G293:L293"/>
+    <mergeCell ref="G225:J225"/>
+    <mergeCell ref="G227:J227"/>
+    <mergeCell ref="G257:J257"/>
+    <mergeCell ref="G265:J265"/>
+    <mergeCell ref="G267:J267"/>
+    <mergeCell ref="G235:J235"/>
+    <mergeCell ref="G237:J237"/>
+    <mergeCell ref="G245:J245"/>
+    <mergeCell ref="G247:J247"/>
+    <mergeCell ref="G255:J255"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -16610,7 +16619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -16627,10 +16636,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="148"/>
+      <c r="B2" s="149"/>
       <c r="C2" s="41" t="s">
         <v>18</v>
       </c>
@@ -16649,10 +16658,10 @@
       <c r="I2" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="149" t="s">
+      <c r="J2" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="149"/>
+      <c r="K2" s="150"/>
     </row>
     <row r="3" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
@@ -16667,10 +16676,10 @@
       <c r="I3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="150" t="s">
+      <c r="J3" s="151" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="150"/>
+      <c r="K3" s="151"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -16692,10 +16701,10 @@
       <c r="I4" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="150" t="s">
+      <c r="J4" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="150"/>
+      <c r="K4" s="151"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -16995,10 +17004,10 @@
       <c r="H22" s="51"/>
     </row>
     <row r="23" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="148" t="s">
+      <c r="A23" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="148"/>
+      <c r="B23" s="149"/>
       <c r="C23" s="41" t="s">
         <v>18</v>
       </c>
@@ -17154,11 +17163,11 @@
         <f t="shared" si="3"/>
         <v>43908</v>
       </c>
-      <c r="D33" s="151" t="s">
+      <c r="D33" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
       <c r="G33" s="55"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -17208,7 +17217,7 @@
         <v>43929</v>
       </c>
       <c r="D36" s="29"/>
-      <c r="F36" s="125" t="s">
+      <c r="F36" s="117" t="s">
         <v>98</v>
       </c>
     </row>
@@ -17226,7 +17235,7 @@
         <v>43936</v>
       </c>
       <c r="D37" s="44"/>
-      <c r="F37" s="125"/>
+      <c r="F37" s="117"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
@@ -17242,7 +17251,7 @@
         <v>43943</v>
       </c>
       <c r="D38" s="29"/>
-      <c r="F38" s="125"/>
+      <c r="F38" s="117"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
